--- a/£SGE.xlsx
+++ b/£SGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E71B903-6177-4CEB-B90D-9ED891215A90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8C8B4C-81E8-4098-885A-D4EB67DAFD0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
   <si>
     <t>£SGE</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>Market Cap</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
   </si>
 </sst>
 </file>
@@ -333,11 +336,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
-    <numFmt numFmtId="173" formatCode="0.0000"/>
-    <numFmt numFmtId="175" formatCode="0.0\x"/>
-    <numFmt numFmtId="176" formatCode="0.00\x"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0\x"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -548,15 +551,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -576,37 +570,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -640,8 +616,8 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -652,32 +628,59 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1228,14 +1231,14 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1243,613 +1246,613 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="H5" s="4" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="H5" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="6"/>
-      <c r="T5" s="4" t="s">
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="55"/>
+      <c r="T5" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="6"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="55"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>6.8259999999999996</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="12"/>
-      <c r="T6" s="66" t="s">
+      <c r="D6" s="15"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
+      <c r="T6" s="50" t="s">
         <v>96</v>
       </c>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="12"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="9"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="17">
         <v>1023</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="9"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="17">
         <f>C6*C7</f>
         <v>6982.9979999999996</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="12"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="12"/>
+      <c r="D8" s="15"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="9"/>
+      <c r="T8" s="50"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="9"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="17">
         <f>'Financial Model'!J62</f>
         <v>519</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="12"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="9"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="17">
         <f>'Financial Model'!J63</f>
         <v>1165</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="12"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
+      <c r="T10" s="50"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="9"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="17">
         <f>C9-C10</f>
         <v>-646</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="12"/>
-      <c r="T11" s="66"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="12"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
+      <c r="T11" s="50"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="9"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="18">
         <f>C8-C11</f>
         <v>7628.9979999999996</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="12"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="12"/>
+      <c r="D12" s="16"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="9"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="H13" s="16"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="12"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="15"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9"/>
+      <c r="T13" s="51"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="12"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="H14" s="16"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="12"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="12"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="12"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="12"/>
+      <c r="D17" s="63"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="12"/>
+      <c r="D18" s="63"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="9"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="12"/>
+      <c r="D19" s="65"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H20" s="16"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="12"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H21" s="16"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="12"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="12"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="12"/>
+      <c r="D23" s="63"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="9"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="62">
         <v>1981</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="12"/>
+      <c r="D24" s="63"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="9"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="16"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="9"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="16"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="9"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="21">
         <v>44694</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="12"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="9"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="12"/>
+      <c r="D28" s="67"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="9"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H29" s="16"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="12"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="9"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H30" s="16"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="12"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="12"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="9"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="63">
+      <c r="C32" s="56">
         <f>C6/(('Financial Model'!J14+'Financial Model'!I14))</f>
         <v>24.617155279624747</v>
       </c>
-      <c r="D32" s="64"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="12"/>
+      <c r="D32" s="57"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="9"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="55"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="12"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="59"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="9"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="60">
         <f>C6/'Financial Model'!J60</f>
         <v>5.7998322259136206</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="15"/>
+      <c r="D34" s="61"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28:D28" r:id="rId1" display="Link" xr:uid="{E398FABE-A8E2-41B0-BEEF-891546DA9EBE}"/>
@@ -1865,10 +1868,10 @@
   <dimension ref="B1:AF68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J68" sqref="J68"/>
+      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1876,144 +1879,144 @@
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.140625" style="33"/>
+    <col min="5" max="5" width="9.140625" style="24"/>
     <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.140625" style="33"/>
+    <col min="7" max="7" width="9.140625" style="24"/>
     <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.140625" style="33"/>
+    <col min="9" max="9" width="9.140625" style="24"/>
     <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9.140625" style="33"/>
+    <col min="11" max="11" width="9.140625" style="24"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D1" s="31" t="s">
+    <row r="1" spans="2:32" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="V1" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="W1" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="X1" s="31" t="s">
+      <c r="X1" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" s="31" t="s">
+      <c r="Y1" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="31" t="s">
+      <c r="Z1" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AA1" s="31" t="s">
+      <c r="AA1" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AB1" s="31" t="s">
+      <c r="AB1" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AC1" s="31" t="s">
+      <c r="AC1" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AD1" s="31" t="s">
+      <c r="AD1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="31" t="s">
+      <c r="AE1" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AF1" s="31" t="s">
+      <c r="AF1" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="2:32" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="35"/>
-      <c r="D2" s="39">
+    <row r="2" spans="2:32" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="26"/>
+      <c r="D2" s="30">
         <v>43555</v>
       </c>
-      <c r="E2" s="49">
+      <c r="E2" s="40">
         <v>43738</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="30">
         <v>43921</v>
       </c>
-      <c r="G2" s="49">
+      <c r="G2" s="40">
         <f>U2</f>
         <v>44104</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="30">
         <v>44286</v>
       </c>
-      <c r="I2" s="49">
+      <c r="I2" s="40">
         <v>44469</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="30">
         <v>44651</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="S2" s="39">
+      <c r="K2" s="28"/>
+      <c r="S2" s="30">
         <v>43373</v>
       </c>
-      <c r="T2" s="39">
+      <c r="T2" s="30">
         <v>43738</v>
       </c>
-      <c r="U2" s="39">
+      <c r="U2" s="30">
         <v>44104</v>
       </c>
-      <c r="V2" s="39">
+      <c r="V2" s="30">
         <v>44469</v>
       </c>
     </row>
-    <row r="3" spans="2:32" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="35"/>
-      <c r="E3" s="61">
+    <row r="3" spans="2:32" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="26"/>
+      <c r="E3" s="48">
         <f>T3</f>
         <v>43789</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="29">
         <v>43964</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="I3" s="61">
+      <c r="G3" s="28"/>
+      <c r="I3" s="48">
         <f>V3</f>
         <v>44517</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="29">
         <v>44694</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="T3" s="38">
+      <c r="K3" s="28"/>
+      <c r="T3" s="29">
         <v>43789</v>
       </c>
-      <c r="V3" s="38">
+      <c r="V3" s="29">
         <v>44517</v>
       </c>
     </row>
@@ -2024,38 +2027,38 @@
       <c r="D4" s="2">
         <v>957</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="39">
         <f>T4-D4</f>
         <v>979</v>
       </c>
       <c r="F4" s="2">
         <v>975</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="39">
         <f>U4-F4</f>
         <v>928</v>
       </c>
       <c r="H4" s="2">
         <v>937</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="39">
         <f>V4-H4</f>
         <v>909</v>
       </c>
       <c r="J4" s="2">
         <v>934</v>
       </c>
-      <c r="K4" s="40"/>
-      <c r="S4" s="47">
+      <c r="K4" s="31"/>
+      <c r="S4" s="38">
         <v>1846</v>
       </c>
-      <c r="T4" s="47">
+      <c r="T4" s="38">
         <v>1936</v>
       </c>
-      <c r="U4" s="47">
+      <c r="U4" s="38">
         <v>1903</v>
       </c>
-      <c r="V4" s="47">
+      <c r="V4" s="38">
         <v>1846</v>
       </c>
     </row>
@@ -2066,37 +2069,37 @@
       <c r="D5" s="1">
         <v>70</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="34">
         <f>T5-D5</f>
         <v>68</v>
       </c>
       <c r="F5" s="1">
         <v>64</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="34">
         <f>U5-F5</f>
         <v>62</v>
       </c>
       <c r="H5" s="1">
         <v>72</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="34">
         <f>V5-H5</f>
         <v>59</v>
       </c>
       <c r="J5" s="1">
         <v>68</v>
       </c>
-      <c r="S5" s="42">
+      <c r="S5" s="33">
         <v>130</v>
       </c>
-      <c r="T5" s="42">
+      <c r="T5" s="33">
         <v>138</v>
       </c>
-      <c r="U5" s="42">
+      <c r="U5" s="33">
         <v>126</v>
       </c>
-      <c r="V5" s="42">
+      <c r="V5" s="33">
         <v>131</v>
       </c>
     </row>
@@ -2105,47 +2108,47 @@
         <v>41</v>
       </c>
       <c r="D6" s="2">
-        <f>D4-D5</f>
+        <f t="shared" ref="D6:J6" si="0">D4-D5</f>
         <v>887</v>
       </c>
-      <c r="E6" s="48">
-        <f>E4-E5</f>
+      <c r="E6" s="39">
+        <f t="shared" si="0"/>
         <v>911</v>
       </c>
       <c r="F6" s="2">
-        <f>F4-F5</f>
+        <f t="shared" si="0"/>
         <v>911</v>
       </c>
-      <c r="G6" s="48">
-        <f>G4-G5</f>
+      <c r="G6" s="39">
+        <f t="shared" si="0"/>
         <v>866</v>
       </c>
       <c r="H6" s="2">
-        <f>H4-H5</f>
+        <f t="shared" si="0"/>
         <v>865</v>
       </c>
-      <c r="I6" s="48">
-        <f>I4-I5</f>
+      <c r="I6" s="39">
+        <f t="shared" si="0"/>
         <v>850</v>
       </c>
       <c r="J6" s="2">
-        <f>J4-J5</f>
+        <f t="shared" si="0"/>
         <v>866</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="S6" s="47">
+      <c r="K6" s="31"/>
+      <c r="S6" s="38">
         <f>S4-S5</f>
         <v>1716</v>
       </c>
-      <c r="T6" s="47">
+      <c r="T6" s="38">
         <f>T4-T5</f>
         <v>1798</v>
       </c>
-      <c r="U6" s="47">
+      <c r="U6" s="38">
         <f>U4-U5</f>
         <v>1777</v>
       </c>
-      <c r="V6" s="47">
+      <c r="V6" s="38">
         <f>V4-V5</f>
         <v>1715</v>
       </c>
@@ -2157,37 +2160,37 @@
       <c r="D7" s="1">
         <v>677</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="34">
         <f>T7-D7</f>
         <v>739</v>
       </c>
       <c r="F7" s="1">
         <v>622</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="34">
         <f>U7-F7</f>
         <v>751</v>
       </c>
       <c r="H7" s="1">
         <v>662</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="34">
         <f>V7-H7</f>
         <v>680</v>
       </c>
       <c r="J7" s="1">
         <v>662</v>
       </c>
-      <c r="S7" s="42">
+      <c r="S7" s="33">
         <v>1289</v>
       </c>
-      <c r="T7" s="42">
+      <c r="T7" s="33">
         <v>1416</v>
       </c>
-      <c r="U7" s="42">
+      <c r="U7" s="33">
         <v>1373</v>
       </c>
-      <c r="V7" s="42">
+      <c r="V7" s="33">
         <v>1342</v>
       </c>
     </row>
@@ -2196,47 +2199,47 @@
         <v>43</v>
       </c>
       <c r="D8" s="2">
-        <f>D6-D7</f>
+        <f t="shared" ref="D8:J8" si="1">D6-D7</f>
         <v>210</v>
       </c>
-      <c r="E8" s="48">
-        <f>E6-E7</f>
+      <c r="E8" s="39">
+        <f t="shared" si="1"/>
         <v>172</v>
       </c>
       <c r="F8" s="2">
-        <f>F6-F7</f>
+        <f t="shared" si="1"/>
         <v>289</v>
       </c>
-      <c r="G8" s="48">
-        <f>G6-G7</f>
+      <c r="G8" s="39">
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="H8" s="2">
-        <f>H6-H7</f>
+        <f t="shared" si="1"/>
         <v>203</v>
       </c>
-      <c r="I8" s="48">
-        <f>I6-I7</f>
+      <c r="I8" s="39">
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="J8" s="2">
-        <f>J6-J7</f>
+        <f t="shared" si="1"/>
         <v>204</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="S8" s="47">
+      <c r="K8" s="31"/>
+      <c r="S8" s="38">
         <f>S6-S7</f>
         <v>427</v>
       </c>
-      <c r="T8" s="47">
+      <c r="T8" s="38">
         <f>T6-T7</f>
         <v>382</v>
       </c>
-      <c r="U8" s="47">
+      <c r="U8" s="38">
         <f>U6-U7</f>
         <v>404</v>
       </c>
-      <c r="V8" s="47">
+      <c r="V8" s="38">
         <f>V6-V7</f>
         <v>373</v>
       </c>
@@ -2248,37 +2251,37 @@
       <c r="D9" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="43">
-        <f t="shared" ref="E9:E12" si="0">T9-D9</f>
+      <c r="E9" s="34">
+        <f t="shared" ref="E9:E12" si="2">T9-D9</f>
         <v>4</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
       </c>
-      <c r="G9" s="43">
-        <f t="shared" ref="G9:G12" si="1">U9-F9</f>
+      <c r="G9" s="34">
+        <f t="shared" ref="G9:G12" si="3">U9-F9</f>
         <v>1</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="43">
-        <f t="shared" ref="I9:I12" si="2">V9-H9</f>
+      <c r="I9" s="34">
+        <f t="shared" ref="I9:I12" si="4">V9-H9</f>
         <v>0</v>
       </c>
       <c r="J9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="42">
+      <c r="S9" s="33">
         <v>5</v>
       </c>
-      <c r="T9" s="42">
+      <c r="T9" s="33">
         <v>8</v>
       </c>
-      <c r="U9" s="42">
+      <c r="U9" s="33">
         <v>3</v>
       </c>
-      <c r="V9" s="42">
+      <c r="V9" s="33">
         <v>1</v>
       </c>
     </row>
@@ -2289,37 +2292,37 @@
       <c r="D10" s="1">
         <v>16</v>
       </c>
-      <c r="E10" s="43">
-        <f t="shared" si="0"/>
+      <c r="E10" s="34">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="F10" s="1">
         <v>16</v>
       </c>
-      <c r="G10" s="43">
-        <f t="shared" si="1"/>
+      <c r="G10" s="34">
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="H10" s="1">
         <v>14</v>
       </c>
-      <c r="I10" s="43">
-        <f t="shared" si="2"/>
+      <c r="I10" s="34">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="J10" s="1">
         <v>15</v>
       </c>
-      <c r="S10" s="42">
+      <c r="S10" s="33">
         <v>34</v>
       </c>
-      <c r="T10" s="42">
+      <c r="T10" s="33">
         <v>29</v>
       </c>
-      <c r="U10" s="42">
+      <c r="U10" s="33">
         <v>34</v>
       </c>
-      <c r="V10" s="42">
+      <c r="V10" s="33">
         <v>27</v>
       </c>
     </row>
@@ -2328,46 +2331,46 @@
         <v>46</v>
       </c>
       <c r="D11" s="1">
-        <f>D8+D9-D10</f>
+        <f t="shared" ref="D11:J11" si="5">D8+D9-D10</f>
         <v>198</v>
       </c>
-      <c r="E11" s="43">
-        <f>E8+E9-E10</f>
+      <c r="E11" s="34">
+        <f t="shared" si="5"/>
         <v>163</v>
       </c>
       <c r="F11" s="1">
-        <f>F8+F9-F10</f>
+        <f t="shared" si="5"/>
         <v>275</v>
       </c>
-      <c r="G11" s="43">
-        <f>G8+G9-G10</f>
+      <c r="G11" s="34">
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="H11" s="1">
-        <f>H8+H9-H10</f>
+        <f t="shared" si="5"/>
         <v>190</v>
       </c>
-      <c r="I11" s="43">
-        <f>I8+I9-I10</f>
+      <c r="I11" s="34">
+        <f t="shared" si="5"/>
         <v>157</v>
       </c>
       <c r="J11" s="1">
-        <f>J8+J9-J10</f>
+        <f t="shared" si="5"/>
         <v>189</v>
       </c>
-      <c r="S11" s="42">
+      <c r="S11" s="33">
         <f>S8+S9-S10</f>
         <v>398</v>
       </c>
-      <c r="T11" s="42">
+      <c r="T11" s="33">
         <f>T8+T9-T10</f>
         <v>361</v>
       </c>
-      <c r="U11" s="42">
+      <c r="U11" s="33">
         <f>U8+U9-U10</f>
         <v>373</v>
       </c>
-      <c r="V11" s="42">
+      <c r="V11" s="33">
         <f>V8+V9-V10</f>
         <v>347</v>
       </c>
@@ -2379,37 +2382,37 @@
       <c r="D12" s="1">
         <v>44</v>
       </c>
-      <c r="E12" s="43">
-        <f t="shared" si="0"/>
+      <c r="E12" s="34">
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="F12" s="1">
         <v>51</v>
       </c>
-      <c r="G12" s="43">
-        <f t="shared" si="1"/>
+      <c r="G12" s="34">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="H12" s="1">
         <v>44</v>
       </c>
-      <c r="I12" s="43">
-        <f t="shared" si="2"/>
+      <c r="I12" s="34">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="J12" s="1">
         <v>37</v>
       </c>
-      <c r="S12" s="42">
+      <c r="S12" s="33">
         <v>103</v>
       </c>
-      <c r="T12" s="42">
+      <c r="T12" s="33">
         <v>95</v>
       </c>
-      <c r="U12" s="42">
+      <c r="U12" s="33">
         <v>63</v>
       </c>
-      <c r="V12" s="42">
+      <c r="V12" s="33">
         <v>62</v>
       </c>
     </row>
@@ -2418,97 +2421,97 @@
         <v>48</v>
       </c>
       <c r="D13" s="2">
-        <f>D11-D12</f>
+        <f t="shared" ref="D13:J13" si="6">D11-D12</f>
         <v>154</v>
       </c>
-      <c r="E13" s="48">
-        <f>E11-E12</f>
+      <c r="E13" s="39">
+        <f t="shared" si="6"/>
         <v>112</v>
       </c>
       <c r="F13" s="2">
-        <f>F11-F12</f>
+        <f t="shared" si="6"/>
         <v>224</v>
       </c>
-      <c r="G13" s="48">
-        <f>G11-G12</f>
+      <c r="G13" s="39">
+        <f t="shared" si="6"/>
         <v>86</v>
       </c>
       <c r="H13" s="2">
-        <f>H11-H12</f>
+        <f t="shared" si="6"/>
         <v>146</v>
       </c>
-      <c r="I13" s="48">
-        <f>I11-I12</f>
+      <c r="I13" s="39">
+        <f t="shared" si="6"/>
         <v>139</v>
       </c>
       <c r="J13" s="2">
-        <f>J11-J12</f>
+        <f t="shared" si="6"/>
         <v>152</v>
       </c>
-      <c r="K13" s="40"/>
-      <c r="S13" s="47">
+      <c r="K13" s="31"/>
+      <c r="S13" s="38">
         <f>S11-S12</f>
         <v>295</v>
       </c>
-      <c r="T13" s="47">
+      <c r="T13" s="38">
         <f>T11-T12</f>
         <v>266</v>
       </c>
-      <c r="U13" s="47">
+      <c r="U13" s="38">
         <f>U11-U12</f>
         <v>310</v>
       </c>
-      <c r="V13" s="47">
+      <c r="V13" s="38">
         <f>V11-V12</f>
         <v>285</v>
       </c>
-      <c r="W13" s="58"/>
+      <c r="W13" s="45"/>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="44">
-        <f>D13/D15</f>
+      <c r="D14" s="35">
+        <f t="shared" ref="D14:J14" si="7">D13/D15</f>
         <v>0.14180478821362799</v>
       </c>
-      <c r="E14" s="62">
-        <f>E13/E15</f>
+      <c r="E14" s="49">
+        <f t="shared" si="7"/>
         <v>0.10313075506445672</v>
       </c>
-      <c r="F14" s="44">
-        <f>F13/F15</f>
+      <c r="F14" s="35">
+        <f t="shared" si="7"/>
         <v>0.20550458715596331</v>
       </c>
-      <c r="G14" s="62">
-        <f>G13/G15</f>
+      <c r="G14" s="49">
+        <f t="shared" si="7"/>
         <v>7.8826764436296978E-2</v>
       </c>
-      <c r="H14" s="44">
-        <f>H13/H15</f>
+      <c r="H14" s="35">
+        <f t="shared" si="7"/>
         <v>0.13345521023765997</v>
       </c>
-      <c r="I14" s="62">
-        <f>I13/I15</f>
+      <c r="I14" s="49">
+        <f t="shared" si="7"/>
         <v>0.12870370370370371</v>
       </c>
-      <c r="J14" s="44">
-        <f>J13/J15</f>
+      <c r="J14" s="35">
+        <f t="shared" si="7"/>
         <v>0.14858260019550343</v>
       </c>
-      <c r="S14" s="44">
-        <f t="shared" ref="S14:T14" si="3">S13/S15</f>
+      <c r="S14" s="35">
+        <f t="shared" ref="S14:T14" si="8">S13/S15</f>
         <v>0.2723915050784857</v>
       </c>
-      <c r="T14" s="44">
-        <f t="shared" si="3"/>
+      <c r="T14" s="35">
+        <f t="shared" si="8"/>
         <v>0.24493554327808473</v>
       </c>
-      <c r="U14" s="44">
+      <c r="U14" s="35">
         <f>U13/U15</f>
         <v>0.28414298808432631</v>
       </c>
-      <c r="V14" s="44">
+      <c r="V14" s="35">
         <f>V13/V15</f>
         <v>0.2638888888888889</v>
       </c>
@@ -2517,41 +2520,41 @@
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33">
         <v>1086</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="34">
         <f>T15</f>
         <v>1086</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="33">
         <v>1090</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="34">
         <f>U15</f>
         <v>1091</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="33">
         <v>1094</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="34">
         <f>V15</f>
         <v>1080</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="33">
         <v>1023</v>
       </c>
-      <c r="S15" s="42">
+      <c r="S15" s="33">
         <v>1083</v>
       </c>
-      <c r="T15" s="42">
+      <c r="T15" s="33">
         <v>1086</v>
       </c>
-      <c r="U15" s="42">
+      <c r="U15" s="33">
         <v>1091</v>
       </c>
-      <c r="V15" s="42">
+      <c r="V15" s="33">
         <v>1080</v>
       </c>
     </row>
@@ -2559,47 +2562,47 @@
       <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="41">
-        <f>D6/D4</f>
+      <c r="D17" s="32">
+        <f t="shared" ref="D17:J17" si="9">D6/D4</f>
         <v>0.92685475444096133</v>
       </c>
-      <c r="E17" s="59">
-        <f>E6/E4</f>
+      <c r="E17" s="46">
+        <f t="shared" si="9"/>
         <v>0.93054136874361593</v>
       </c>
-      <c r="F17" s="41">
-        <f>F6/F4</f>
+      <c r="F17" s="32">
+        <f t="shared" si="9"/>
         <v>0.9343589743589743</v>
       </c>
-      <c r="G17" s="59">
-        <f>G6/G4</f>
+      <c r="G17" s="46">
+        <f t="shared" si="9"/>
         <v>0.93318965517241381</v>
       </c>
-      <c r="H17" s="41">
-        <f>H6/H4</f>
+      <c r="H17" s="32">
+        <f t="shared" si="9"/>
         <v>0.9231590181430096</v>
       </c>
-      <c r="I17" s="59">
-        <f>I6/I4</f>
+      <c r="I17" s="46">
+        <f t="shared" si="9"/>
         <v>0.93509350935093505</v>
       </c>
-      <c r="J17" s="41">
-        <f>J6/J4</f>
+      <c r="J17" s="32">
+        <f t="shared" si="9"/>
         <v>0.9271948608137045</v>
       </c>
-      <c r="S17" s="41">
-        <f t="shared" ref="S17:U17" si="4">S6/S4</f>
+      <c r="S17" s="32">
+        <f t="shared" ref="S17:T17" si="10">S6/S4</f>
         <v>0.92957746478873238</v>
       </c>
-      <c r="T17" s="41">
-        <f t="shared" si="4"/>
+      <c r="T17" s="32">
+        <f t="shared" si="10"/>
         <v>0.92871900826446285</v>
       </c>
-      <c r="U17" s="41">
+      <c r="U17" s="32">
         <f>U6/U4</f>
         <v>0.93378875459800315</v>
       </c>
-      <c r="V17" s="41">
+      <c r="V17" s="32">
         <f>V6/V4</f>
         <v>0.92903575297941499</v>
       </c>
@@ -2608,47 +2611,47 @@
       <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="41">
-        <f>D8/D4</f>
+      <c r="D18" s="32">
+        <f t="shared" ref="D18:J18" si="11">D8/D4</f>
         <v>0.21943573667711599</v>
       </c>
-      <c r="E18" s="59">
-        <f>E8/E4</f>
+      <c r="E18" s="46">
+        <f t="shared" si="11"/>
         <v>0.17568947906026558</v>
       </c>
-      <c r="F18" s="41">
-        <f>F8/F4</f>
+      <c r="F18" s="32">
+        <f t="shared" si="11"/>
         <v>0.29641025641025642</v>
       </c>
-      <c r="G18" s="59">
-        <f>G8/G4</f>
+      <c r="G18" s="46">
+        <f t="shared" si="11"/>
         <v>0.12392241379310345</v>
       </c>
-      <c r="H18" s="41">
-        <f>H8/H4</f>
+      <c r="H18" s="32">
+        <f t="shared" si="11"/>
         <v>0.21664887940234792</v>
       </c>
-      <c r="I18" s="59">
-        <f>I8/I4</f>
+      <c r="I18" s="46">
+        <f t="shared" si="11"/>
         <v>0.18701870187018702</v>
       </c>
-      <c r="J18" s="41">
-        <f>J8/J4</f>
+      <c r="J18" s="32">
+        <f t="shared" si="11"/>
         <v>0.21841541755888652</v>
       </c>
-      <c r="S18" s="41">
-        <f t="shared" ref="S18:U18" si="5">S8/S4</f>
+      <c r="S18" s="32">
+        <f t="shared" ref="S18:T18" si="12">S8/S4</f>
         <v>0.2313109425785482</v>
       </c>
-      <c r="T18" s="41">
-        <f t="shared" si="5"/>
+      <c r="T18" s="32">
+        <f t="shared" si="12"/>
         <v>0.19731404958677687</v>
       </c>
-      <c r="U18" s="41">
+      <c r="U18" s="32">
         <f>U8/U4</f>
         <v>0.21229637414608513</v>
       </c>
-      <c r="V18" s="41">
+      <c r="V18" s="32">
         <f>V8/V4</f>
         <v>0.20205850487540628</v>
       </c>
@@ -2657,138 +2660,138 @@
       <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="41">
-        <f>D13/D4</f>
+      <c r="D19" s="32">
+        <f t="shared" ref="D19:J19" si="13">D13/D4</f>
         <v>0.16091954022988506</v>
       </c>
-      <c r="E19" s="59">
-        <f>E13/E4</f>
+      <c r="E19" s="46">
+        <f t="shared" si="13"/>
         <v>0.11440245148110317</v>
       </c>
-      <c r="F19" s="41">
-        <f>F13/F4</f>
+      <c r="F19" s="32">
+        <f t="shared" si="13"/>
         <v>0.22974358974358974</v>
       </c>
-      <c r="G19" s="59">
-        <f>G13/G4</f>
+      <c r="G19" s="46">
+        <f t="shared" si="13"/>
         <v>9.2672413793103453E-2</v>
       </c>
-      <c r="H19" s="41">
-        <f>H13/H4</f>
+      <c r="H19" s="32">
+        <f t="shared" si="13"/>
         <v>0.15581643543223053</v>
       </c>
-      <c r="I19" s="59">
-        <f>I13/I4</f>
+      <c r="I19" s="46">
+        <f t="shared" si="13"/>
         <v>0.15291529152915292</v>
       </c>
-      <c r="J19" s="41">
-        <f>J13/J4</f>
+      <c r="J19" s="32">
+        <f t="shared" si="13"/>
         <v>0.16274089935760172</v>
       </c>
-      <c r="S19" s="41">
-        <f t="shared" ref="S19:U19" si="6">S13/S4</f>
+      <c r="S19" s="32">
+        <f t="shared" ref="S19:T19" si="14">S13/S4</f>
         <v>0.15980498374864571</v>
       </c>
-      <c r="T19" s="41">
-        <f t="shared" si="6"/>
+      <c r="T19" s="32">
+        <f t="shared" si="14"/>
         <v>0.13739669421487602</v>
       </c>
-      <c r="U19" s="41">
+      <c r="U19" s="32">
         <f>U13/U4</f>
         <v>0.16290068313189701</v>
       </c>
-      <c r="V19" s="41">
+      <c r="V19" s="32">
         <f>V13/V4</f>
         <v>0.1543878656554713</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="41">
-        <f>D12/D4</f>
-        <v>4.5977011494252873E-2</v>
-      </c>
-      <c r="E20" s="59">
-        <f>E12/E4</f>
-        <v>5.2093973442288048E-2</v>
-      </c>
-      <c r="F20" s="41">
-        <f>F12/F4</f>
-        <v>5.2307692307692305E-2</v>
-      </c>
-      <c r="G20" s="59">
-        <f>G12/G4</f>
-        <v>1.2931034482758621E-2</v>
-      </c>
-      <c r="H20" s="41">
-        <f>H12/H4</f>
-        <v>4.6958377801494131E-2</v>
-      </c>
-      <c r="I20" s="59">
-        <f>I12/I4</f>
-        <v>1.9801980198019802E-2</v>
-      </c>
-      <c r="J20" s="41">
-        <f>J12/J4</f>
-        <v>3.961456102783726E-2</v>
-      </c>
-      <c r="S20" s="41">
-        <f t="shared" ref="S20:U20" si="7">S12/S4</f>
-        <v>5.5796316359696639E-2</v>
-      </c>
-      <c r="T20" s="41">
-        <f t="shared" si="7"/>
-        <v>4.9070247933884301E-2</v>
-      </c>
-      <c r="U20" s="41">
-        <f>U12/U4</f>
-        <v>3.310562270099842E-2</v>
-      </c>
-      <c r="V20" s="41">
-        <f>V12/V4</f>
-        <v>3.3586132177681471E-2</v>
+        <v>100</v>
+      </c>
+      <c r="D20" s="32">
+        <f>D12/D11</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E20" s="46">
+        <f>E12/E11</f>
+        <v>0.31288343558282211</v>
+      </c>
+      <c r="F20" s="32">
+        <f>F12/F11</f>
+        <v>0.18545454545454546</v>
+      </c>
+      <c r="G20" s="46">
+        <f>G12/G11</f>
+        <v>0.12244897959183673</v>
+      </c>
+      <c r="H20" s="32">
+        <f>H12/H11</f>
+        <v>0.23157894736842105</v>
+      </c>
+      <c r="I20" s="46">
+        <f>I12/I11</f>
+        <v>0.11464968152866242</v>
+      </c>
+      <c r="J20" s="32">
+        <f>J12/J11</f>
+        <v>0.19576719576719576</v>
+      </c>
+      <c r="S20" s="32">
+        <f t="shared" ref="S20:V20" si="15">S12/S11</f>
+        <v>0.25879396984924624</v>
+      </c>
+      <c r="T20" s="32">
+        <f t="shared" si="15"/>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="U20" s="32">
+        <f t="shared" si="15"/>
+        <v>0.16890080428954424</v>
+      </c>
+      <c r="V20" s="32">
+        <f t="shared" si="15"/>
+        <v>0.17867435158501441</v>
       </c>
     </row>
     <row r="22" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="45">
+      <c r="E22" s="31"/>
+      <c r="F22" s="36">
         <f>F4/D4-1</f>
         <v>1.8808777429467183E-2</v>
       </c>
-      <c r="G22" s="60">
+      <c r="G22" s="47">
         <f>G4/E4-1</f>
         <v>-5.2093973442288055E-2</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="36">
         <f>H4/F4-1</f>
         <v>-3.8974358974358969E-2</v>
       </c>
-      <c r="I22" s="60">
+      <c r="I22" s="47">
         <f>I4/G4-1</f>
         <v>-2.0474137931034475E-2</v>
       </c>
-      <c r="J22" s="45">
+      <c r="J22" s="36">
         <f>J4/H4-1</f>
         <v>-3.2017075773745907E-3</v>
       </c>
-      <c r="K22" s="40"/>
-      <c r="S22" s="27" t="s">
+      <c r="K22" s="31"/>
+      <c r="S22" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="T22" s="58">
-        <f t="shared" ref="T22:V22" si="8">T4/S4-1</f>
+      <c r="T22" s="45">
+        <f t="shared" ref="T22:U22" si="16">T4/S4-1</f>
         <v>4.8754062838569867E-2</v>
       </c>
-      <c r="U22" s="58">
-        <f t="shared" si="8"/>
+      <c r="U22" s="45">
+        <f t="shared" si="16"/>
         <v>-1.7045454545454586E-2</v>
       </c>
-      <c r="V22" s="58">
+      <c r="V22" s="45">
         <f>V4/U4-1</f>
         <v>-2.9952706253284278E-2</v>
       </c>
@@ -2797,45 +2800,45 @@
       <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="59">
-        <f>E4/D4-1</f>
+      <c r="E23" s="46">
+        <f t="shared" ref="E23:J23" si="17">E4/D4-1</f>
         <v>2.2988505747126409E-2</v>
       </c>
-      <c r="F23" s="41">
-        <f>F4/E4-1</f>
+      <c r="F23" s="32">
+        <f t="shared" si="17"/>
         <v>-4.0858018386108474E-3</v>
       </c>
-      <c r="G23" s="59">
-        <f>G4/F4-1</f>
+      <c r="G23" s="46">
+        <f t="shared" si="17"/>
         <v>-4.8205128205128234E-2</v>
       </c>
-      <c r="H23" s="41">
-        <f>H4/G4-1</f>
+      <c r="H23" s="32">
+        <f t="shared" si="17"/>
         <v>9.6982758620689502E-3</v>
       </c>
-      <c r="I23" s="59">
-        <f>I4/H4-1</f>
+      <c r="I23" s="46">
+        <f t="shared" si="17"/>
         <v>-2.9882604055496254E-2</v>
       </c>
-      <c r="J23" s="41">
-        <f>J4/I4-1</f>
+      <c r="J23" s="32">
+        <f t="shared" si="17"/>
         <v>2.7502750275027577E-2</v>
       </c>
-      <c r="S23" s="27" t="s">
+      <c r="S23" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="T23" s="27" t="s">
+      <c r="T23" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="U23" s="27" t="s">
+      <c r="U23" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="V23" s="27" t="s">
+      <c r="V23" s="20" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="37" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2843,47 +2846,47 @@
       <c r="B28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="33">
         <f>2002+238</f>
         <v>2240</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="34">
         <f>2098+228</f>
         <v>2326</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="33">
         <f>2059+216</f>
         <v>2275</v>
       </c>
-      <c r="G28" s="43">
+      <c r="G28" s="34">
         <f>U28</f>
         <v>2174</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="33">
         <f>1843+188</f>
         <v>2031</v>
       </c>
-      <c r="I28" s="43">
+      <c r="I28" s="34">
         <f>1877+190</f>
         <v>2067</v>
       </c>
-      <c r="J28" s="42">
+      <c r="J28" s="33">
         <f>2082+281</f>
         <v>2363</v>
       </c>
-      <c r="S28" s="42">
+      <c r="S28" s="33">
         <f>2008+260</f>
         <v>2268</v>
       </c>
-      <c r="T28" s="42">
+      <c r="T28" s="33">
         <f>2098+228</f>
         <v>2326</v>
       </c>
-      <c r="U28" s="42">
+      <c r="U28" s="33">
         <f>1962+212</f>
         <v>2174</v>
       </c>
-      <c r="V28" s="42">
+      <c r="V28" s="33">
         <f>1877+190</f>
         <v>2067</v>
       </c>
@@ -2892,38 +2895,38 @@
       <c r="B29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="33">
         <v>131</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="34">
         <v>117</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="33">
         <v>198</v>
       </c>
-      <c r="G29" s="43">
+      <c r="G29" s="34">
         <f>U29</f>
         <v>173</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="33">
         <v>165</v>
       </c>
-      <c r="I29" s="43">
+      <c r="I29" s="34">
         <v>164</v>
       </c>
-      <c r="J29" s="42">
+      <c r="J29" s="33">
         <v>155</v>
       </c>
-      <c r="S29" s="42">
+      <c r="S29" s="33">
         <v>129</v>
       </c>
-      <c r="T29" s="42">
+      <c r="T29" s="33">
         <v>117</v>
       </c>
-      <c r="U29" s="42">
+      <c r="U29" s="33">
         <v>173</v>
       </c>
-      <c r="V29" s="42">
+      <c r="V29" s="33">
         <v>164</v>
       </c>
     </row>
@@ -2931,39 +2934,39 @@
       <c r="B30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="47">
+      <c r="D30" s="38">
         <v>0</v>
       </c>
-      <c r="E30" s="48">
+      <c r="E30" s="39">
         <v>0</v>
       </c>
-      <c r="F30" s="47">
+      <c r="F30" s="38">
         <v>0</v>
       </c>
-      <c r="G30" s="48">
+      <c r="G30" s="39">
         <f>U30</f>
         <v>0</v>
       </c>
-      <c r="H30" s="47">
+      <c r="H30" s="38">
         <v>19</v>
       </c>
-      <c r="I30" s="48">
+      <c r="I30" s="39">
         <v>21</v>
       </c>
-      <c r="J30" s="47">
+      <c r="J30" s="38">
         <v>4</v>
       </c>
-      <c r="K30" s="40"/>
-      <c r="S30" s="47">
+      <c r="K30" s="31"/>
+      <c r="S30" s="38">
         <v>0</v>
       </c>
-      <c r="T30" s="47">
+      <c r="T30" s="38">
         <v>0</v>
       </c>
-      <c r="U30" s="47">
+      <c r="U30" s="38">
         <v>0</v>
       </c>
-      <c r="V30" s="47">
+      <c r="V30" s="38">
         <v>21</v>
       </c>
     </row>
@@ -2971,39 +2974,39 @@
       <c r="B31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="47">
+      <c r="D31" s="38">
         <v>3</v>
       </c>
-      <c r="E31" s="48">
+      <c r="E31" s="39">
         <v>4</v>
       </c>
-      <c r="F31" s="47">
+      <c r="F31" s="38">
         <v>3</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="39">
         <f>U31</f>
         <v>1</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="38">
         <v>1</v>
       </c>
-      <c r="I31" s="48">
+      <c r="I31" s="39">
         <v>0</v>
       </c>
-      <c r="J31" s="47">
+      <c r="J31" s="38">
         <v>0</v>
       </c>
-      <c r="K31" s="40"/>
-      <c r="S31" s="47">
+      <c r="K31" s="31"/>
+      <c r="S31" s="38">
         <v>1</v>
       </c>
-      <c r="T31" s="47">
+      <c r="T31" s="38">
         <v>4</v>
       </c>
-      <c r="U31" s="47">
+      <c r="U31" s="38">
         <v>1</v>
       </c>
-      <c r="V31" s="47">
+      <c r="V31" s="38">
         <v>0</v>
       </c>
     </row>
@@ -3011,38 +3014,38 @@
       <c r="B32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="42">
+      <c r="D32" s="33">
         <v>40</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="34">
         <v>73</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="33">
         <v>83</v>
       </c>
-      <c r="G32" s="43">
-        <f t="shared" ref="G32:G38" si="9">U32</f>
+      <c r="G32" s="34">
+        <f t="shared" ref="G32:G38" si="18">U32</f>
         <v>86</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="33">
         <v>101</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="34">
         <v>113</v>
       </c>
-      <c r="J32" s="42">
+      <c r="J32" s="33">
         <v>116</v>
       </c>
-      <c r="S32" s="42">
+      <c r="S32" s="33">
         <v>2</v>
       </c>
-      <c r="T32" s="42">
+      <c r="T32" s="33">
         <v>73</v>
       </c>
-      <c r="U32" s="42">
+      <c r="U32" s="33">
         <v>86</v>
       </c>
-      <c r="V32" s="42">
+      <c r="V32" s="33">
         <v>113</v>
       </c>
     </row>
@@ -3050,38 +3053,38 @@
       <c r="B33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="42">
+      <c r="D33" s="33">
         <v>57</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="34">
         <v>31</v>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="33">
         <v>26</v>
       </c>
-      <c r="G33" s="43">
-        <f t="shared" si="9"/>
+      <c r="G33" s="34">
+        <f t="shared" si="18"/>
         <v>35</v>
       </c>
-      <c r="H33" s="42">
+      <c r="H33" s="33">
         <v>36</v>
       </c>
-      <c r="I33" s="43">
+      <c r="I33" s="34">
         <v>40</v>
       </c>
-      <c r="J33" s="42">
+      <c r="J33" s="33">
         <v>34</v>
       </c>
-      <c r="S33" s="42">
+      <c r="S33" s="33">
         <v>51</v>
       </c>
-      <c r="T33" s="42">
+      <c r="T33" s="33">
         <v>31</v>
       </c>
-      <c r="U33" s="42">
+      <c r="U33" s="33">
         <v>35</v>
       </c>
-      <c r="V33" s="42">
+      <c r="V33" s="33">
         <v>40</v>
       </c>
     </row>
@@ -3089,47 +3092,47 @@
       <c r="B34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="42">
-        <f>SUM(D28:D33)</f>
+      <c r="D34" s="33">
+        <f t="shared" ref="D34:J34" si="19">SUM(D28:D33)</f>
         <v>2471</v>
       </c>
-      <c r="E34" s="43">
-        <f>SUM(E28:E33)</f>
+      <c r="E34" s="34">
+        <f t="shared" si="19"/>
         <v>2551</v>
       </c>
-      <c r="F34" s="42">
-        <f>SUM(F28:F33)</f>
+      <c r="F34" s="33">
+        <f t="shared" si="19"/>
         <v>2585</v>
       </c>
-      <c r="G34" s="43">
-        <f>SUM(G28:G33)</f>
+      <c r="G34" s="34">
+        <f t="shared" si="19"/>
         <v>2469</v>
       </c>
-      <c r="H34" s="42">
-        <f>SUM(H28:H33)</f>
+      <c r="H34" s="33">
+        <f t="shared" si="19"/>
         <v>2353</v>
       </c>
-      <c r="I34" s="43">
-        <f>SUM(I28:I33)</f>
+      <c r="I34" s="34">
+        <f t="shared" si="19"/>
         <v>2405</v>
       </c>
-      <c r="J34" s="42">
-        <f>SUM(J28:J33)</f>
+      <c r="J34" s="33">
+        <f t="shared" si="19"/>
         <v>2672</v>
       </c>
-      <c r="S34" s="42">
+      <c r="S34" s="33">
         <f>SUM(S28:S33)</f>
         <v>2451</v>
       </c>
-      <c r="T34" s="42">
+      <c r="T34" s="33">
         <f>SUM(T28:T33)</f>
         <v>2551</v>
       </c>
-      <c r="U34" s="42">
+      <c r="U34" s="33">
         <f>SUM(U28:U33)</f>
         <v>2469</v>
       </c>
-      <c r="V34" s="42">
+      <c r="V34" s="33">
         <f>SUM(V28:V33)</f>
         <v>2405</v>
       </c>
@@ -3138,38 +3141,38 @@
       <c r="B35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="42">
+      <c r="D35" s="33">
         <v>402</v>
       </c>
-      <c r="E35" s="43">
+      <c r="E35" s="34">
         <v>364</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="33">
         <v>329</v>
       </c>
-      <c r="G35" s="43">
-        <f t="shared" si="9"/>
+      <c r="G35" s="34">
+        <f t="shared" si="18"/>
         <v>302</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="33">
         <v>290</v>
       </c>
-      <c r="I35" s="43">
+      <c r="I35" s="34">
         <v>295</v>
       </c>
       <c r="J35" s="1">
         <v>329</v>
       </c>
-      <c r="S35" s="42">
+      <c r="S35" s="33">
         <v>460</v>
       </c>
-      <c r="T35" s="42">
+      <c r="T35" s="33">
         <v>364</v>
       </c>
-      <c r="U35" s="42">
+      <c r="U35" s="33">
         <v>302</v>
       </c>
-      <c r="V35" s="42">
+      <c r="V35" s="33">
         <v>295</v>
       </c>
     </row>
@@ -3177,38 +3180,38 @@
       <c r="B36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="42">
+      <c r="D36" s="33">
         <v>4</v>
       </c>
-      <c r="E36" s="43">
+      <c r="E36" s="34">
         <v>3</v>
       </c>
-      <c r="F36" s="42">
+      <c r="F36" s="33">
         <v>15</v>
       </c>
-      <c r="G36" s="43">
-        <f t="shared" si="9"/>
+      <c r="G36" s="34">
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="H36" s="42">
+      <c r="H36" s="33">
         <v>13</v>
       </c>
-      <c r="I36" s="43">
+      <c r="I36" s="34">
         <v>37</v>
       </c>
       <c r="J36" s="1">
         <v>28</v>
       </c>
-      <c r="S36" s="42">
+      <c r="S36" s="33">
         <v>4</v>
       </c>
-      <c r="T36" s="42">
+      <c r="T36" s="33">
         <v>3</v>
       </c>
-      <c r="U36" s="42">
+      <c r="U36" s="33">
         <v>5</v>
       </c>
-      <c r="V36" s="42">
+      <c r="V36" s="33">
         <v>37</v>
       </c>
     </row>
@@ -3216,44 +3219,44 @@
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="47">
+      <c r="D37" s="38">
         <v>351</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E37" s="39">
         <v>371</v>
       </c>
-      <c r="F37" s="47">
+      <c r="F37" s="38">
         <v>912</v>
       </c>
-      <c r="G37" s="48">
+      <c r="G37" s="39">
         <f>U37</f>
         <v>831</v>
       </c>
-      <c r="H37" s="47">
+      <c r="H37" s="38">
         <v>693</v>
       </c>
-      <c r="I37" s="48">
+      <c r="I37" s="39">
         <v>553</v>
       </c>
       <c r="J37" s="2">
         <v>515</v>
       </c>
-      <c r="K37" s="40"/>
+      <c r="K37" s="31"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
-      <c r="S37" s="47">
+      <c r="S37" s="38">
         <v>272</v>
       </c>
-      <c r="T37" s="47">
+      <c r="T37" s="38">
         <v>371</v>
       </c>
-      <c r="U37" s="47">
+      <c r="U37" s="38">
         <v>831</v>
       </c>
-      <c r="V37" s="47">
+      <c r="V37" s="38">
         <v>553</v>
       </c>
     </row>
@@ -3261,38 +3264,38 @@
       <c r="B38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="42">
+      <c r="D38" s="33">
         <v>0</v>
       </c>
-      <c r="E38" s="43">
+      <c r="E38" s="34">
         <v>63</v>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="33">
         <v>0</v>
       </c>
-      <c r="G38" s="43">
-        <f t="shared" si="9"/>
+      <c r="G38" s="34">
+        <f t="shared" si="18"/>
         <v>108</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="33">
         <v>95</v>
       </c>
-      <c r="I38" s="43">
+      <c r="I38" s="34">
         <v>39</v>
       </c>
       <c r="J38" s="1">
         <v>2</v>
       </c>
-      <c r="S38" s="42">
+      <c r="S38" s="33">
         <v>113</v>
       </c>
-      <c r="T38" s="42">
+      <c r="T38" s="33">
         <v>63</v>
       </c>
-      <c r="U38" s="42">
+      <c r="U38" s="33">
         <v>108</v>
       </c>
-      <c r="V38" s="42">
+      <c r="V38" s="33">
         <v>39</v>
       </c>
     </row>
@@ -3300,95 +3303,95 @@
       <c r="B39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="42">
-        <f>D34+SUM(D35:D38)</f>
+      <c r="D39" s="33">
+        <f t="shared" ref="D39:J39" si="20">D34+SUM(D35:D38)</f>
         <v>3228</v>
       </c>
-      <c r="E39" s="43">
-        <f>E34+SUM(E35:E38)</f>
+      <c r="E39" s="34">
+        <f t="shared" si="20"/>
         <v>3352</v>
       </c>
-      <c r="F39" s="42">
-        <f>F34+SUM(F35:F38)</f>
+      <c r="F39" s="33">
+        <f t="shared" si="20"/>
         <v>3841</v>
       </c>
-      <c r="G39" s="43">
-        <f>G34+SUM(G35:G38)</f>
+      <c r="G39" s="34">
+        <f t="shared" si="20"/>
         <v>3715</v>
       </c>
-      <c r="H39" s="42">
-        <f>H34+SUM(H35:H38)</f>
+      <c r="H39" s="33">
+        <f t="shared" si="20"/>
         <v>3444</v>
       </c>
-      <c r="I39" s="43">
-        <f>I34+SUM(I35:I38)</f>
+      <c r="I39" s="34">
+        <f t="shared" si="20"/>
         <v>3329</v>
       </c>
-      <c r="J39" s="42">
-        <f>J34+SUM(J35:J38)</f>
+      <c r="J39" s="33">
+        <f t="shared" si="20"/>
         <v>3546</v>
       </c>
-      <c r="S39" s="42">
+      <c r="S39" s="33">
         <f>S34+SUM(S35:S38)</f>
         <v>3300</v>
       </c>
-      <c r="T39" s="42">
+      <c r="T39" s="33">
         <f>T34+SUM(T35:T38)</f>
         <v>3352</v>
       </c>
-      <c r="U39" s="42">
+      <c r="U39" s="33">
         <f>U34+SUM(U35:U38)</f>
         <v>3715</v>
       </c>
-      <c r="V39" s="42">
+      <c r="V39" s="33">
         <f>V34+SUM(V35:V38)</f>
         <v>3329</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="H40" s="42"/>
-      <c r="I40" s="43"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="34"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="42">
+      <c r="D41" s="33">
         <v>276</v>
       </c>
-      <c r="E41" s="43">
+      <c r="E41" s="34">
         <v>291</v>
       </c>
-      <c r="F41" s="42">
+      <c r="F41" s="33">
         <v>242</v>
       </c>
-      <c r="G41" s="43">
-        <f t="shared" ref="G41:G46" si="10">U41</f>
+      <c r="G41" s="34">
+        <f t="shared" ref="G41:G46" si="21">U41</f>
         <v>297</v>
       </c>
-      <c r="H41" s="42">
+      <c r="H41" s="33">
         <v>529</v>
       </c>
-      <c r="I41" s="43">
+      <c r="I41" s="34">
         <v>592</v>
       </c>
-      <c r="J41" s="42">
+      <c r="J41" s="33">
         <v>311</v>
       </c>
-      <c r="S41" s="42">
+      <c r="S41" s="33">
         <v>249</v>
       </c>
-      <c r="T41" s="42">
+      <c r="T41" s="33">
         <v>291</v>
       </c>
-      <c r="U41" s="42">
+      <c r="U41" s="33">
         <v>297</v>
       </c>
-      <c r="V41" s="42">
+      <c r="V41" s="33">
         <v>592</v>
       </c>
     </row>
@@ -3396,38 +3399,38 @@
       <c r="B42" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42" s="33">
         <v>47</v>
       </c>
-      <c r="E42" s="43">
+      <c r="E42" s="34">
         <v>32</v>
       </c>
-      <c r="F42" s="42">
+      <c r="F42" s="33">
         <v>46</v>
       </c>
-      <c r="G42" s="43">
-        <f t="shared" si="10"/>
+      <c r="G42" s="34">
+        <f t="shared" si="21"/>
         <v>13</v>
       </c>
-      <c r="H42" s="42">
+      <c r="H42" s="33">
         <v>24</v>
       </c>
-      <c r="I42" s="43">
+      <c r="I42" s="34">
         <v>31</v>
       </c>
-      <c r="J42" s="42">
+      <c r="J42" s="33">
         <v>23</v>
       </c>
-      <c r="S42" s="42">
+      <c r="S42" s="33">
         <v>39</v>
       </c>
-      <c r="T42" s="42">
+      <c r="T42" s="33">
         <v>32</v>
       </c>
-      <c r="U42" s="42">
+      <c r="U42" s="33">
         <v>13</v>
       </c>
-      <c r="V42" s="42">
+      <c r="V42" s="33">
         <v>31</v>
       </c>
     </row>
@@ -3435,44 +3438,44 @@
       <c r="B43" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="47">
+      <c r="D43" s="38">
         <v>5</v>
       </c>
-      <c r="E43" s="48">
+      <c r="E43" s="39">
         <v>122</v>
       </c>
-      <c r="F43" s="47">
+      <c r="F43" s="38">
         <v>149</v>
       </c>
-      <c r="G43" s="48">
+      <c r="G43" s="39">
         <f>U43</f>
         <v>20</v>
       </c>
-      <c r="H43" s="47">
+      <c r="H43" s="38">
         <v>65</v>
       </c>
-      <c r="I43" s="48">
+      <c r="I43" s="39">
         <v>65</v>
       </c>
-      <c r="J43" s="47">
+      <c r="J43" s="38">
         <v>42</v>
       </c>
-      <c r="K43" s="40"/>
+      <c r="K43" s="31"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
-      <c r="S43" s="47">
+      <c r="S43" s="38">
         <v>8</v>
       </c>
-      <c r="T43" s="47">
+      <c r="T43" s="38">
         <v>122</v>
       </c>
-      <c r="U43" s="47">
+      <c r="U43" s="38">
         <v>20</v>
       </c>
-      <c r="V43" s="47">
+      <c r="V43" s="38">
         <v>65</v>
       </c>
     </row>
@@ -3480,38 +3483,38 @@
       <c r="B44" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D44" s="33">
         <v>15</v>
       </c>
-      <c r="E44" s="43">
+      <c r="E44" s="34">
         <v>11</v>
       </c>
-      <c r="F44" s="42">
+      <c r="F44" s="33">
         <v>9</v>
       </c>
-      <c r="G44" s="43">
-        <f t="shared" si="10"/>
+      <c r="G44" s="34">
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
-      <c r="H44" s="42">
+      <c r="H44" s="33">
         <v>14</v>
       </c>
-      <c r="I44" s="43">
+      <c r="I44" s="34">
         <v>68</v>
       </c>
-      <c r="J44" s="42">
+      <c r="J44" s="33">
         <v>44</v>
       </c>
-      <c r="S44" s="42">
+      <c r="S44" s="33">
         <v>26</v>
       </c>
-      <c r="T44" s="42">
+      <c r="T44" s="33">
         <v>11</v>
       </c>
-      <c r="U44" s="42">
+      <c r="U44" s="33">
         <v>19</v>
       </c>
-      <c r="V44" s="42">
+      <c r="V44" s="33">
         <v>68</v>
       </c>
     </row>
@@ -3519,38 +3522,38 @@
       <c r="B45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="42">
+      <c r="D45" s="33">
         <v>660</v>
       </c>
-      <c r="E45" s="43">
+      <c r="E45" s="34">
         <v>637</v>
       </c>
-      <c r="F45" s="42">
+      <c r="F45" s="33">
         <v>691</v>
       </c>
-      <c r="G45" s="43">
-        <f t="shared" si="10"/>
+      <c r="G45" s="34">
+        <f t="shared" si="21"/>
         <v>593</v>
       </c>
-      <c r="H45" s="42">
+      <c r="H45" s="33">
         <v>638</v>
       </c>
-      <c r="I45" s="43">
+      <c r="I45" s="34">
         <v>611</v>
       </c>
-      <c r="J45" s="42">
+      <c r="J45" s="33">
         <v>705</v>
       </c>
-      <c r="S45" s="42">
+      <c r="S45" s="33">
         <v>620</v>
       </c>
-      <c r="T45" s="42">
+      <c r="T45" s="33">
         <v>637</v>
       </c>
-      <c r="U45" s="42">
+      <c r="U45" s="33">
         <v>593</v>
       </c>
-      <c r="V45" s="42">
+      <c r="V45" s="33">
         <v>611</v>
       </c>
     </row>
@@ -3558,38 +3561,38 @@
       <c r="B46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="42">
+      <c r="D46" s="33">
         <v>0</v>
       </c>
-      <c r="E46" s="43">
+      <c r="E46" s="34">
         <v>33</v>
       </c>
-      <c r="F46" s="42">
+      <c r="F46" s="33">
         <v>0</v>
       </c>
-      <c r="G46" s="43">
-        <f t="shared" si="10"/>
+      <c r="G46" s="34">
+        <f t="shared" si="21"/>
         <v>73</v>
       </c>
-      <c r="H46" s="42">
+      <c r="H46" s="33">
         <v>52</v>
       </c>
-      <c r="I46" s="43">
+      <c r="I46" s="34">
         <v>13</v>
       </c>
-      <c r="J46" s="42">
+      <c r="J46" s="33">
         <v>0</v>
       </c>
-      <c r="S46" s="42">
+      <c r="S46" s="33">
         <v>63</v>
       </c>
-      <c r="T46" s="42">
+      <c r="T46" s="33">
         <v>33</v>
       </c>
-      <c r="U46" s="42">
+      <c r="U46" s="33">
         <v>73</v>
       </c>
-      <c r="V46" s="42">
+      <c r="V46" s="33">
         <v>13</v>
       </c>
     </row>
@@ -3597,47 +3600,47 @@
       <c r="B47" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="42">
-        <f>SUM(D41:D46)</f>
+      <c r="D47" s="33">
+        <f t="shared" ref="D47:J47" si="22">SUM(D41:D46)</f>
         <v>1003</v>
       </c>
-      <c r="E47" s="43">
-        <f>SUM(E41:E46)</f>
+      <c r="E47" s="34">
+        <f t="shared" si="22"/>
         <v>1126</v>
       </c>
-      <c r="F47" s="42">
-        <f>SUM(F41:F46)</f>
+      <c r="F47" s="33">
+        <f t="shared" si="22"/>
         <v>1137</v>
       </c>
-      <c r="G47" s="43">
-        <f>SUM(G41:G46)</f>
+      <c r="G47" s="34">
+        <f t="shared" si="22"/>
         <v>1015</v>
       </c>
-      <c r="H47" s="42">
-        <f>SUM(H41:H46)</f>
+      <c r="H47" s="33">
+        <f t="shared" si="22"/>
         <v>1322</v>
       </c>
-      <c r="I47" s="43">
-        <f>SUM(I41:I46)</f>
+      <c r="I47" s="34">
+        <f t="shared" si="22"/>
         <v>1380</v>
       </c>
-      <c r="J47" s="42">
-        <f>SUM(J41:J46)</f>
+      <c r="J47" s="33">
+        <f t="shared" si="22"/>
         <v>1125</v>
       </c>
-      <c r="S47" s="42">
+      <c r="S47" s="33">
         <f>SUM(S41:S46)</f>
         <v>1005</v>
       </c>
-      <c r="T47" s="42">
+      <c r="T47" s="33">
         <f>SUM(T41:T46)</f>
         <v>1126</v>
       </c>
-      <c r="U47" s="42">
+      <c r="U47" s="33">
         <f>SUM(U41:U46)</f>
         <v>1015</v>
       </c>
-      <c r="V47" s="42">
+      <c r="V47" s="33">
         <f>SUM(V41:V46)</f>
         <v>1380</v>
       </c>
@@ -3646,44 +3649,44 @@
       <c r="B48" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="47">
+      <c r="D48" s="38">
         <v>768</v>
       </c>
-      <c r="E48" s="48">
+      <c r="E48" s="39">
         <v>643</v>
       </c>
-      <c r="F48" s="47">
+      <c r="F48" s="38">
         <v>1001</v>
       </c>
-      <c r="G48" s="48">
+      <c r="G48" s="39">
         <f>U48</f>
         <v>970</v>
       </c>
-      <c r="H48" s="47">
+      <c r="H48" s="38">
         <v>742</v>
       </c>
-      <c r="I48" s="48">
+      <c r="I48" s="39">
         <v>749</v>
       </c>
-      <c r="J48" s="47">
+      <c r="J48" s="38">
         <v>1123</v>
       </c>
-      <c r="K48" s="40"/>
+      <c r="K48" s="31"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
-      <c r="S48" s="47">
+      <c r="S48" s="38">
         <v>913</v>
       </c>
-      <c r="T48" s="47">
+      <c r="T48" s="38">
         <v>643</v>
       </c>
-      <c r="U48" s="47">
+      <c r="U48" s="38">
         <v>970</v>
       </c>
-      <c r="V48" s="47">
+      <c r="V48" s="38">
         <v>749</v>
       </c>
     </row>
@@ -3691,38 +3694,38 @@
       <c r="B49" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D49" s="42">
+      <c r="D49" s="33">
         <v>22</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="34">
         <v>25</v>
       </c>
-      <c r="F49" s="42">
+      <c r="F49" s="33">
         <v>26</v>
       </c>
-      <c r="G49" s="43">
-        <f t="shared" ref="G49:G53" si="11">U49</f>
+      <c r="G49" s="34">
+        <f t="shared" ref="G49:G53" si="23">U49</f>
         <v>23</v>
       </c>
-      <c r="H49" s="42">
+      <c r="H49" s="33">
         <v>23</v>
       </c>
-      <c r="I49" s="43">
+      <c r="I49" s="34">
         <v>22</v>
       </c>
-      <c r="J49" s="42">
+      <c r="J49" s="33">
         <v>23</v>
       </c>
-      <c r="S49" s="42">
+      <c r="S49" s="33">
         <v>22</v>
       </c>
-      <c r="T49" s="42">
+      <c r="T49" s="33">
         <v>25</v>
       </c>
-      <c r="U49" s="42">
+      <c r="U49" s="33">
         <v>23</v>
       </c>
-      <c r="V49" s="42">
+      <c r="V49" s="33">
         <v>22</v>
       </c>
     </row>
@@ -3730,38 +3733,38 @@
       <c r="B50" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="42">
+      <c r="D50" s="33">
         <v>26</v>
       </c>
-      <c r="E50" s="43">
+      <c r="E50" s="34">
         <v>24</v>
       </c>
-      <c r="F50" s="42">
+      <c r="F50" s="33">
         <v>27</v>
       </c>
-      <c r="G50" s="43">
-        <f t="shared" si="11"/>
+      <c r="G50" s="34">
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
-      <c r="H50" s="42">
+      <c r="H50" s="33">
         <v>10</v>
       </c>
-      <c r="I50" s="43">
+      <c r="I50" s="34">
         <v>5</v>
       </c>
-      <c r="J50" s="42">
+      <c r="J50" s="33">
         <v>24</v>
       </c>
-      <c r="S50" s="42">
+      <c r="S50" s="33">
         <v>25</v>
       </c>
-      <c r="T50" s="42">
+      <c r="T50" s="33">
         <v>24</v>
       </c>
-      <c r="U50" s="42">
+      <c r="U50" s="33">
         <v>14</v>
       </c>
-      <c r="V50" s="42">
+      <c r="V50" s="33">
         <v>5</v>
       </c>
     </row>
@@ -3769,38 +3772,38 @@
       <c r="B51" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="42">
+      <c r="D51" s="33">
         <v>12</v>
       </c>
-      <c r="E51" s="43">
+      <c r="E51" s="34">
         <v>15</v>
       </c>
-      <c r="F51" s="42">
+      <c r="F51" s="33">
         <v>13</v>
       </c>
-      <c r="G51" s="43">
-        <f t="shared" si="11"/>
+      <c r="G51" s="34">
+        <f t="shared" si="23"/>
         <v>31</v>
       </c>
-      <c r="H51" s="42">
+      <c r="H51" s="33">
         <v>29</v>
       </c>
-      <c r="I51" s="43">
+      <c r="I51" s="34">
         <v>49</v>
       </c>
-      <c r="J51" s="42">
+      <c r="J51" s="33">
         <v>36</v>
       </c>
-      <c r="S51" s="42">
+      <c r="S51" s="33">
         <v>11</v>
       </c>
-      <c r="T51" s="42">
+      <c r="T51" s="33">
         <v>15</v>
       </c>
-      <c r="U51" s="42">
+      <c r="U51" s="33">
         <v>31</v>
       </c>
-      <c r="V51" s="42">
+      <c r="V51" s="33">
         <v>49</v>
       </c>
     </row>
@@ -3808,38 +3811,38 @@
       <c r="B52" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D52" s="42">
+      <c r="D52" s="33">
         <v>7</v>
       </c>
-      <c r="E52" s="43">
+      <c r="E52" s="34">
         <v>7</v>
       </c>
-      <c r="F52" s="42">
+      <c r="F52" s="33">
         <v>6</v>
       </c>
-      <c r="G52" s="43">
-        <f t="shared" si="11"/>
+      <c r="G52" s="34">
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
-      <c r="H52" s="42">
+      <c r="H52" s="33">
         <v>3</v>
       </c>
-      <c r="I52" s="43">
+      <c r="I52" s="34">
         <v>3</v>
       </c>
-      <c r="J52" s="42">
+      <c r="J52" s="33">
         <v>2</v>
       </c>
-      <c r="S52" s="42">
+      <c r="S52" s="33">
         <v>8</v>
       </c>
-      <c r="T52" s="42">
+      <c r="T52" s="33">
         <v>7</v>
       </c>
-      <c r="U52" s="42">
+      <c r="U52" s="33">
         <v>3</v>
       </c>
-      <c r="V52" s="42">
+      <c r="V52" s="33">
         <v>3</v>
       </c>
     </row>
@@ -3847,38 +3850,38 @@
       <c r="B53" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D53" s="42">
+      <c r="D53" s="33">
         <v>7</v>
       </c>
-      <c r="E53" s="43">
+      <c r="E53" s="34">
         <v>8</v>
       </c>
-      <c r="F53" s="42">
+      <c r="F53" s="33">
         <v>7</v>
       </c>
-      <c r="G53" s="43">
-        <f t="shared" si="11"/>
+      <c r="G53" s="34">
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
-      <c r="H53" s="42">
+      <c r="H53" s="33">
         <v>11</v>
       </c>
-      <c r="I53" s="43">
+      <c r="I53" s="34">
         <v>10</v>
       </c>
-      <c r="J53" s="42">
+      <c r="J53" s="33">
         <v>9</v>
       </c>
-      <c r="S53" s="42">
+      <c r="S53" s="33">
         <v>6</v>
       </c>
-      <c r="T53" s="42">
+      <c r="T53" s="33">
         <v>8</v>
       </c>
-      <c r="U53" s="42">
+      <c r="U53" s="33">
         <v>7</v>
       </c>
-      <c r="V53" s="42">
+      <c r="V53" s="33">
         <v>10</v>
       </c>
     </row>
@@ -3886,95 +3889,95 @@
       <c r="B54" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D54" s="42">
-        <f>D47+SUM(D48:D53)</f>
+      <c r="D54" s="33">
+        <f t="shared" ref="D54:J54" si="24">D47+SUM(D48:D53)</f>
         <v>1845</v>
       </c>
-      <c r="E54" s="43">
-        <f>E47+SUM(E48:E53)</f>
+      <c r="E54" s="34">
+        <f t="shared" si="24"/>
         <v>1848</v>
       </c>
-      <c r="F54" s="42">
-        <f>F47+SUM(F48:F53)</f>
+      <c r="F54" s="33">
+        <f t="shared" si="24"/>
         <v>2217</v>
       </c>
-      <c r="G54" s="43">
-        <f>G47+SUM(G48:G53)</f>
+      <c r="G54" s="34">
+        <f t="shared" si="24"/>
         <v>2063</v>
       </c>
-      <c r="H54" s="42">
-        <f>H47+SUM(H48:H53)</f>
+      <c r="H54" s="33">
+        <f t="shared" si="24"/>
         <v>2140</v>
       </c>
-      <c r="I54" s="43">
-        <f>I47+SUM(I48:I53)</f>
+      <c r="I54" s="34">
+        <f t="shared" si="24"/>
         <v>2218</v>
       </c>
-      <c r="J54" s="42">
-        <f>J47+SUM(J48:J53)</f>
+      <c r="J54" s="33">
+        <f t="shared" si="24"/>
         <v>2342</v>
       </c>
-      <c r="S54" s="42">
+      <c r="S54" s="33">
         <f>S47+SUM(S48:S53)</f>
         <v>1990</v>
       </c>
-      <c r="T54" s="42">
+      <c r="T54" s="33">
         <f>T47+SUM(T48:T53)</f>
         <v>1848</v>
       </c>
-      <c r="U54" s="42">
+      <c r="U54" s="33">
         <f>U47+SUM(U48:U53)</f>
         <v>2063</v>
       </c>
-      <c r="V54" s="42">
+      <c r="V54" s="33">
         <f>V47+SUM(V48:V53)</f>
         <v>2218</v>
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="H55" s="42"/>
-      <c r="I55" s="43"/>
-      <c r="S55" s="42"/>
-      <c r="T55" s="42"/>
-      <c r="U55" s="42"/>
-      <c r="V55" s="42"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="34"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="33"/>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D56" s="42">
+      <c r="D56" s="33">
         <v>1383</v>
       </c>
-      <c r="E56" s="43">
+      <c r="E56" s="34">
         <v>1504</v>
       </c>
-      <c r="F56" s="42">
+      <c r="F56" s="33">
         <v>1624</v>
       </c>
-      <c r="G56" s="43">
+      <c r="G56" s="34">
         <f>U56</f>
         <v>1652</v>
       </c>
-      <c r="H56" s="42">
+      <c r="H56" s="33">
         <v>1304</v>
       </c>
-      <c r="I56" s="43">
+      <c r="I56" s="34">
         <v>1111</v>
       </c>
-      <c r="J56" s="42">
+      <c r="J56" s="33">
         <v>1204</v>
       </c>
-      <c r="S56" s="42">
+      <c r="S56" s="33">
         <v>1327</v>
       </c>
-      <c r="T56" s="42">
+      <c r="T56" s="33">
         <v>1504</v>
       </c>
-      <c r="U56" s="42">
+      <c r="U56" s="33">
         <v>1652</v>
       </c>
-      <c r="V56" s="42">
+      <c r="V56" s="33">
         <v>1111</v>
       </c>
     </row>
@@ -3982,100 +3985,100 @@
       <c r="B57" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D57" s="42">
-        <f>D56+D54</f>
+      <c r="D57" s="33">
+        <f t="shared" ref="D57:J57" si="25">D56+D54</f>
         <v>3228</v>
       </c>
-      <c r="E57" s="43">
-        <f>E56+E54</f>
+      <c r="E57" s="34">
+        <f t="shared" si="25"/>
         <v>3352</v>
       </c>
-      <c r="F57" s="42">
-        <f>F56+F54</f>
+      <c r="F57" s="33">
+        <f t="shared" si="25"/>
         <v>3841</v>
       </c>
-      <c r="G57" s="43">
-        <f>G56+G54</f>
+      <c r="G57" s="34">
+        <f t="shared" si="25"/>
         <v>3715</v>
       </c>
-      <c r="H57" s="42">
-        <f>H56+H54</f>
+      <c r="H57" s="33">
+        <f t="shared" si="25"/>
         <v>3444</v>
       </c>
-      <c r="I57" s="43">
-        <f>I56+I54</f>
+      <c r="I57" s="34">
+        <f t="shared" si="25"/>
         <v>3329</v>
       </c>
-      <c r="J57" s="42">
-        <f>J56+J54</f>
+      <c r="J57" s="33">
+        <f t="shared" si="25"/>
         <v>3546</v>
       </c>
-      <c r="S57" s="42">
+      <c r="S57" s="33">
         <f>S56+S54</f>
         <v>3317</v>
       </c>
-      <c r="T57" s="42">
+      <c r="T57" s="33">
         <f>T56+T54</f>
         <v>3352</v>
       </c>
-      <c r="U57" s="42">
+      <c r="U57" s="33">
         <f>U56+U54</f>
         <v>3715</v>
       </c>
-      <c r="V57" s="42">
+      <c r="V57" s="33">
         <f>V56+V54</f>
         <v>3329</v>
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="H58" s="42"/>
-      <c r="I58" s="43"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="34"/>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="42">
-        <f>D39-D54</f>
+      <c r="D59" s="33">
+        <f t="shared" ref="D59:J59" si="26">D39-D54</f>
         <v>1383</v>
       </c>
-      <c r="E59" s="43">
-        <f>E39-E54</f>
+      <c r="E59" s="34">
+        <f t="shared" si="26"/>
         <v>1504</v>
       </c>
-      <c r="F59" s="42">
-        <f>F39-F54</f>
+      <c r="F59" s="33">
+        <f t="shared" si="26"/>
         <v>1624</v>
       </c>
-      <c r="G59" s="43">
-        <f>G39-G54</f>
+      <c r="G59" s="34">
+        <f t="shared" si="26"/>
         <v>1652</v>
       </c>
-      <c r="H59" s="42">
-        <f>H39-H54</f>
+      <c r="H59" s="33">
+        <f t="shared" si="26"/>
         <v>1304</v>
       </c>
-      <c r="I59" s="43">
-        <f>I39-I54</f>
+      <c r="I59" s="34">
+        <f t="shared" si="26"/>
         <v>1111</v>
       </c>
-      <c r="J59" s="42">
-        <f>J39-J54</f>
+      <c r="J59" s="33">
+        <f t="shared" si="26"/>
         <v>1204</v>
       </c>
-      <c r="S59" s="42">
+      <c r="S59" s="33">
         <f>S39-S54</f>
         <v>1310</v>
       </c>
-      <c r="T59" s="42">
+      <c r="T59" s="33">
         <f>T39-T54</f>
         <v>1504</v>
       </c>
-      <c r="U59" s="42">
+      <c r="U59" s="33">
         <f>U39-U54</f>
         <v>1652</v>
       </c>
-      <c r="V59" s="42">
+      <c r="V59" s="33">
         <f>V39-V54</f>
         <v>1111</v>
       </c>
@@ -4085,31 +4088,31 @@
         <v>91</v>
       </c>
       <c r="D60" s="1">
-        <f>D59/D15</f>
+        <f t="shared" ref="D60:J60" si="27">D59/D15</f>
         <v>1.2734806629834254</v>
       </c>
-      <c r="E60" s="33">
-        <f>E59/E15</f>
+      <c r="E60" s="24">
+        <f t="shared" si="27"/>
         <v>1.3848987108655617</v>
       </c>
       <c r="F60" s="1">
-        <f>F59/F15</f>
+        <f t="shared" si="27"/>
         <v>1.489908256880734</v>
       </c>
-      <c r="G60" s="33">
-        <f>G59/G15</f>
+      <c r="G60" s="24">
+        <f t="shared" si="27"/>
         <v>1.5142071494042164</v>
       </c>
       <c r="H60" s="1">
-        <f>H59/H15</f>
+        <f t="shared" si="27"/>
         <v>1.1919561243144423</v>
       </c>
-      <c r="I60" s="33">
-        <f>I59/I15</f>
+      <c r="I60" s="24">
+        <f t="shared" si="27"/>
         <v>1.0287037037037037</v>
       </c>
       <c r="J60" s="1">
-        <f>J59/J15</f>
+        <f t="shared" si="27"/>
         <v>1.1769305962854351</v>
       </c>
       <c r="S60" s="1">
@@ -4130,104 +4133,104 @@
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="H61" s="42"/>
-    </row>
-    <row r="62" spans="2:22" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="50" t="s">
+      <c r="H61" s="33"/>
+    </row>
+    <row r="62" spans="2:22" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="52">
-        <f>D37+D30+D31</f>
+      <c r="D62" s="43">
+        <f t="shared" ref="D62:J62" si="28">D37+D30+D31</f>
         <v>354</v>
       </c>
-      <c r="E62" s="53">
-        <f>E37+E30+E31</f>
+      <c r="E62" s="44">
+        <f t="shared" si="28"/>
         <v>375</v>
       </c>
-      <c r="F62" s="52">
-        <f>F37+F30+F31</f>
+      <c r="F62" s="43">
+        <f t="shared" si="28"/>
         <v>915</v>
       </c>
-      <c r="G62" s="53">
-        <f>G37+G30+G31</f>
+      <c r="G62" s="44">
+        <f t="shared" si="28"/>
         <v>832</v>
       </c>
-      <c r="H62" s="52">
-        <f>H37+H30+H31</f>
+      <c r="H62" s="43">
+        <f t="shared" si="28"/>
         <v>713</v>
       </c>
-      <c r="I62" s="53">
-        <f>I37+I30+I31</f>
+      <c r="I62" s="44">
+        <f t="shared" si="28"/>
         <v>574</v>
       </c>
-      <c r="J62" s="52">
-        <f>J37+J30+J31</f>
+      <c r="J62" s="43">
+        <f t="shared" si="28"/>
         <v>519</v>
       </c>
-      <c r="K62" s="51"/>
-      <c r="S62" s="52">
+      <c r="K62" s="42"/>
+      <c r="S62" s="43">
         <f>S37+S30+S31</f>
         <v>273</v>
       </c>
-      <c r="T62" s="52">
+      <c r="T62" s="43">
         <f>T37+T30+T31</f>
         <v>375</v>
       </c>
-      <c r="U62" s="52">
+      <c r="U62" s="43">
         <f>U37+U30+U31</f>
         <v>832</v>
       </c>
-      <c r="V62" s="52">
+      <c r="V62" s="43">
         <f>V37+V30+V31</f>
         <v>574</v>
       </c>
     </row>
-    <row r="63" spans="2:22" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="50" t="s">
+    <row r="63" spans="2:22" s="41" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="52">
-        <f>D43+D48</f>
+      <c r="D63" s="43">
+        <f t="shared" ref="D63:J63" si="29">D43+D48</f>
         <v>773</v>
       </c>
-      <c r="E63" s="53">
-        <f>E43+E48</f>
+      <c r="E63" s="44">
+        <f t="shared" si="29"/>
         <v>765</v>
       </c>
-      <c r="F63" s="52">
-        <f>F43+F48</f>
+      <c r="F63" s="43">
+        <f t="shared" si="29"/>
         <v>1150</v>
       </c>
-      <c r="G63" s="53">
-        <f>G43+G48</f>
+      <c r="G63" s="44">
+        <f t="shared" si="29"/>
         <v>990</v>
       </c>
-      <c r="H63" s="52">
-        <f>H43+H48</f>
+      <c r="H63" s="43">
+        <f t="shared" si="29"/>
         <v>807</v>
       </c>
-      <c r="I63" s="53">
-        <f>I43+I48</f>
+      <c r="I63" s="44">
+        <f t="shared" si="29"/>
         <v>814</v>
       </c>
-      <c r="J63" s="52">
-        <f>J43+J48</f>
+      <c r="J63" s="43">
+        <f t="shared" si="29"/>
         <v>1165</v>
       </c>
-      <c r="K63" s="51"/>
-      <c r="S63" s="52">
+      <c r="K63" s="42"/>
+      <c r="S63" s="43">
         <f>S43+S48</f>
         <v>921</v>
       </c>
-      <c r="T63" s="52">
+      <c r="T63" s="43">
         <f>T43+T48</f>
         <v>765</v>
       </c>
-      <c r="U63" s="52">
+      <c r="U63" s="43">
         <f>U43+U48</f>
         <v>990</v>
       </c>
-      <c r="V63" s="52">
+      <c r="V63" s="43">
         <f>V43+V48</f>
         <v>814</v>
       </c>
@@ -4236,53 +4239,53 @@
       <c r="B64" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="42">
-        <f>D62-D63</f>
+      <c r="D64" s="33">
+        <f t="shared" ref="D64:J64" si="30">D62-D63</f>
         <v>-419</v>
       </c>
-      <c r="E64" s="43">
-        <f>E62-E63</f>
+      <c r="E64" s="34">
+        <f t="shared" si="30"/>
         <v>-390</v>
       </c>
-      <c r="F64" s="42">
-        <f>F62-F63</f>
+      <c r="F64" s="33">
+        <f t="shared" si="30"/>
         <v>-235</v>
       </c>
-      <c r="G64" s="43">
-        <f>G62-G63</f>
+      <c r="G64" s="34">
+        <f t="shared" si="30"/>
         <v>-158</v>
       </c>
-      <c r="H64" s="42">
-        <f>H62-H63</f>
+      <c r="H64" s="33">
+        <f t="shared" si="30"/>
         <v>-94</v>
       </c>
-      <c r="I64" s="43">
-        <f>I62-I63</f>
+      <c r="I64" s="34">
+        <f t="shared" si="30"/>
         <v>-240</v>
       </c>
-      <c r="J64" s="42">
-        <f>J62-J63</f>
+      <c r="J64" s="33">
+        <f t="shared" si="30"/>
         <v>-646</v>
       </c>
-      <c r="S64" s="42">
+      <c r="S64" s="33">
         <f>S62-S63</f>
         <v>-648</v>
       </c>
-      <c r="T64" s="42">
+      <c r="T64" s="33">
         <f>T62-T63</f>
         <v>-390</v>
       </c>
-      <c r="U64" s="42">
+      <c r="U64" s="33">
         <f>U62-U63</f>
         <v>-158</v>
       </c>
-      <c r="V64" s="42">
+      <c r="V64" s="33">
         <f>V62-V63</f>
         <v>-240</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H65" s="42"/>
+      <c r="H65" s="33"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">

--- a/£SGE.xlsx
+++ b/£SGE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8C8B4C-81E8-4098-885A-D4EB67DAFD0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8787C7-550A-41B4-8D88-DD5B623AAED7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -637,26 +637,6 @@
     <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -675,10 +655,34 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1217,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB50BB21-6927-4998-A7CD-B755108AED34}">
   <dimension ref="A2:X34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1231,14 +1235,14 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1246,30 +1250,30 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="H5" s="53" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="H5" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="55"/>
-      <c r="T5" s="53" t="s">
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="60"/>
+      <c r="T5" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="55"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
+      <c r="W5" s="59"/>
+      <c r="X5" s="60"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1484,11 +1488,11 @@
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
       <c r="H15" s="13"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1507,10 +1511,10 @@
       <c r="B16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="63"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1532,10 +1536,10 @@
       <c r="B17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="63"/>
+      <c r="D17" s="55"/>
       <c r="H17" s="13"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1551,10 +1555,10 @@
       <c r="B18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="63"/>
+      <c r="D18" s="55"/>
       <c r="H18" s="13"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1570,10 +1574,10 @@
       <c r="B19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="65"/>
+      <c r="D19" s="57"/>
       <c r="H19" s="13"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1610,11 +1614,11 @@
       <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
       <c r="H22" s="13"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -1630,10 +1634,10 @@
       <c r="B23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="63"/>
+      <c r="D23" s="55"/>
       <c r="H23" s="13"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1649,10 +1653,10 @@
       <c r="B24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="62">
+      <c r="C24" s="54">
         <v>1981</v>
       </c>
-      <c r="D24" s="63"/>
+      <c r="D24" s="55"/>
       <c r="H24" s="13"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -1666,8 +1670,8 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
       <c r="H25" s="13"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -1681,8 +1685,8 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
       <c r="H26" s="13"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -1719,10 +1723,10 @@
       <c r="B28" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="67"/>
+      <c r="D28" s="62"/>
       <c r="H28" s="13"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -1759,11 +1763,11 @@
       <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="60"/>
       <c r="H31" s="13"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -1779,11 +1783,11 @@
       <c r="B32" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="56">
+      <c r="C32" s="64">
         <f>C6/(('Financial Model'!J14+'Financial Model'!I14))</f>
         <v>24.617155279624747</v>
       </c>
-      <c r="D32" s="57"/>
+      <c r="D32" s="65"/>
       <c r="H32" s="13"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -1799,8 +1803,11 @@
       <c r="B33" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
+      <c r="C33" s="66">
+        <f>C8/SUM('Financial Model'!I4:J4)</f>
+        <v>3.7889300054259358</v>
+      </c>
+      <c r="D33" s="67"/>
       <c r="H33" s="13"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -1816,11 +1823,11 @@
       <c r="B34" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="60">
+      <c r="C34" s="52">
         <f>C6/'Financial Model'!J60</f>
         <v>5.7998322259136206</v>
       </c>
-      <c r="D34" s="61"/>
+      <c r="D34" s="53"/>
       <c r="H34" s="14"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
@@ -1834,6 +1841,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C16:D16"/>
@@ -1846,13 +1860,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28:D28" r:id="rId1" display="Link" xr:uid="{E398FABE-A8E2-41B0-BEEF-891546DA9EBE}"/>
@@ -1867,11 +1874,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBB68F3-0B4D-4779-B224-181DBEE6F8C1}">
   <dimension ref="B1:AF68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="I13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2710,47 +2717,47 @@
         <v>100</v>
       </c>
       <c r="D20" s="32">
-        <f>D12/D11</f>
+        <f t="shared" ref="D20:J20" si="15">D12/D11</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="E20" s="46">
-        <f>E12/E11</f>
+        <f t="shared" si="15"/>
         <v>0.31288343558282211</v>
       </c>
       <c r="F20" s="32">
-        <f>F12/F11</f>
+        <f t="shared" si="15"/>
         <v>0.18545454545454546</v>
       </c>
       <c r="G20" s="46">
-        <f>G12/G11</f>
+        <f t="shared" si="15"/>
         <v>0.12244897959183673</v>
       </c>
       <c r="H20" s="32">
-        <f>H12/H11</f>
+        <f t="shared" si="15"/>
         <v>0.23157894736842105</v>
       </c>
       <c r="I20" s="46">
-        <f>I12/I11</f>
+        <f t="shared" si="15"/>
         <v>0.11464968152866242</v>
       </c>
       <c r="J20" s="32">
-        <f>J12/J11</f>
+        <f t="shared" si="15"/>
         <v>0.19576719576719576</v>
       </c>
       <c r="S20" s="32">
-        <f t="shared" ref="S20:V20" si="15">S12/S11</f>
+        <f t="shared" ref="S20:V20" si="16">S12/S11</f>
         <v>0.25879396984924624</v>
       </c>
       <c r="T20" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="U20" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.16890080428954424</v>
       </c>
       <c r="V20" s="32">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.17867435158501441</v>
       </c>
     </row>
@@ -2784,11 +2791,11 @@
         <v>92</v>
       </c>
       <c r="T22" s="45">
-        <f t="shared" ref="T22:U22" si="16">T4/S4-1</f>
+        <f t="shared" ref="T22:U22" si="17">T4/S4-1</f>
         <v>4.8754062838569867E-2</v>
       </c>
       <c r="U22" s="45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1.7045454545454586E-2</v>
       </c>
       <c r="V22" s="45">
@@ -2801,27 +2808,27 @@
         <v>51</v>
       </c>
       <c r="E23" s="46">
-        <f t="shared" ref="E23:J23" si="17">E4/D4-1</f>
+        <f t="shared" ref="E23:J23" si="18">E4/D4-1</f>
         <v>2.2988505747126409E-2</v>
       </c>
       <c r="F23" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-4.0858018386108474E-3</v>
       </c>
       <c r="G23" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-4.8205128205128234E-2</v>
       </c>
       <c r="H23" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.6982758620689502E-3</v>
       </c>
       <c r="I23" s="46">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-2.9882604055496254E-2</v>
       </c>
       <c r="J23" s="32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.7502750275027577E-2</v>
       </c>
       <c r="S23" s="20" t="s">
@@ -3024,7 +3031,7 @@
         <v>83</v>
       </c>
       <c r="G32" s="34">
-        <f t="shared" ref="G32:G38" si="18">U32</f>
+        <f t="shared" ref="G32:G38" si="19">U32</f>
         <v>86</v>
       </c>
       <c r="H32" s="33">
@@ -3063,7 +3070,7 @@
         <v>26</v>
       </c>
       <c r="G33" s="34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>35</v>
       </c>
       <c r="H33" s="33">
@@ -3093,31 +3100,31 @@
         <v>76</v>
       </c>
       <c r="D34" s="33">
-        <f t="shared" ref="D34:J34" si="19">SUM(D28:D33)</f>
+        <f t="shared" ref="D34:J34" si="20">SUM(D28:D33)</f>
         <v>2471</v>
       </c>
       <c r="E34" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2551</v>
       </c>
       <c r="F34" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2585</v>
       </c>
       <c r="G34" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2469</v>
       </c>
       <c r="H34" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2353</v>
       </c>
       <c r="I34" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2405</v>
       </c>
       <c r="J34" s="33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2672</v>
       </c>
       <c r="S34" s="33">
@@ -3151,7 +3158,7 @@
         <v>329</v>
       </c>
       <c r="G35" s="34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>302</v>
       </c>
       <c r="H35" s="33">
@@ -3190,7 +3197,7 @@
         <v>15</v>
       </c>
       <c r="G36" s="34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="H36" s="33">
@@ -3274,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="34">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>108</v>
       </c>
       <c r="H38" s="33">
@@ -3304,31 +3311,31 @@
         <v>79</v>
       </c>
       <c r="D39" s="33">
-        <f t="shared" ref="D39:J39" si="20">D34+SUM(D35:D38)</f>
+        <f t="shared" ref="D39:J39" si="21">D34+SUM(D35:D38)</f>
         <v>3228</v>
       </c>
       <c r="E39" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3352</v>
       </c>
       <c r="F39" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3841</v>
       </c>
       <c r="G39" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3715</v>
       </c>
       <c r="H39" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3444</v>
       </c>
       <c r="I39" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3329</v>
       </c>
       <c r="J39" s="33">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3546</v>
       </c>
       <c r="S39" s="33">
@@ -3370,7 +3377,7 @@
         <v>242</v>
       </c>
       <c r="G41" s="34">
-        <f t="shared" ref="G41:G46" si="21">U41</f>
+        <f t="shared" ref="G41:G46" si="22">U41</f>
         <v>297</v>
       </c>
       <c r="H41" s="33">
@@ -3409,7 +3416,7 @@
         <v>46</v>
       </c>
       <c r="G42" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>13</v>
       </c>
       <c r="H42" s="33">
@@ -3493,7 +3500,7 @@
         <v>9</v>
       </c>
       <c r="G44" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>19</v>
       </c>
       <c r="H44" s="33">
@@ -3532,7 +3539,7 @@
         <v>691</v>
       </c>
       <c r="G45" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>593</v>
       </c>
       <c r="H45" s="33">
@@ -3571,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>73</v>
       </c>
       <c r="H46" s="33">
@@ -3601,31 +3608,31 @@
         <v>87</v>
       </c>
       <c r="D47" s="33">
-        <f t="shared" ref="D47:J47" si="22">SUM(D41:D46)</f>
+        <f t="shared" ref="D47:J47" si="23">SUM(D41:D46)</f>
         <v>1003</v>
       </c>
       <c r="E47" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1126</v>
       </c>
       <c r="F47" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1137</v>
       </c>
       <c r="G47" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1015</v>
       </c>
       <c r="H47" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1322</v>
       </c>
       <c r="I47" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1380</v>
       </c>
       <c r="J47" s="33">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1125</v>
       </c>
       <c r="S47" s="33">
@@ -3704,7 +3711,7 @@
         <v>26</v>
       </c>
       <c r="G49" s="34">
-        <f t="shared" ref="G49:G53" si="23">U49</f>
+        <f t="shared" ref="G49:G53" si="24">U49</f>
         <v>23</v>
       </c>
       <c r="H49" s="33">
@@ -3743,7 +3750,7 @@
         <v>27</v>
       </c>
       <c r="G50" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="H50" s="33">
@@ -3782,7 +3789,7 @@
         <v>13</v>
       </c>
       <c r="G51" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>31</v>
       </c>
       <c r="H51" s="33">
@@ -3821,7 +3828,7 @@
         <v>6</v>
       </c>
       <c r="G52" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="H52" s="33">
@@ -3860,7 +3867,7 @@
         <v>7</v>
       </c>
       <c r="G53" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="H53" s="33">
@@ -3890,31 +3897,31 @@
         <v>84</v>
       </c>
       <c r="D54" s="33">
-        <f t="shared" ref="D54:J54" si="24">D47+SUM(D48:D53)</f>
+        <f t="shared" ref="D54:J54" si="25">D47+SUM(D48:D53)</f>
         <v>1845</v>
       </c>
       <c r="E54" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1848</v>
       </c>
       <c r="F54" s="33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2217</v>
       </c>
       <c r="G54" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2063</v>
       </c>
       <c r="H54" s="33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2140</v>
       </c>
       <c r="I54" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2218</v>
       </c>
       <c r="J54" s="33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2342</v>
       </c>
       <c r="S54" s="33">
@@ -3986,31 +3993,31 @@
         <v>89</v>
       </c>
       <c r="D57" s="33">
-        <f t="shared" ref="D57:J57" si="25">D56+D54</f>
+        <f t="shared" ref="D57:J57" si="26">D56+D54</f>
         <v>3228</v>
       </c>
       <c r="E57" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3352</v>
       </c>
       <c r="F57" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3841</v>
       </c>
       <c r="G57" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3715</v>
       </c>
       <c r="H57" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3444</v>
       </c>
       <c r="I57" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3329</v>
       </c>
       <c r="J57" s="33">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3546</v>
       </c>
       <c r="S57" s="33">
@@ -4039,31 +4046,31 @@
         <v>90</v>
       </c>
       <c r="D59" s="33">
-        <f t="shared" ref="D59:J59" si="26">D39-D54</f>
+        <f t="shared" ref="D59:J59" si="27">D39-D54</f>
         <v>1383</v>
       </c>
       <c r="E59" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1504</v>
       </c>
       <c r="F59" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1624</v>
       </c>
       <c r="G59" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1652</v>
       </c>
       <c r="H59" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1304</v>
       </c>
       <c r="I59" s="34">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1111</v>
       </c>
       <c r="J59" s="33">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1204</v>
       </c>
       <c r="S59" s="33">
@@ -4088,31 +4095,31 @@
         <v>91</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" ref="D60:J60" si="27">D59/D15</f>
+        <f t="shared" ref="D60:J60" si="28">D59/D15</f>
         <v>1.2734806629834254</v>
       </c>
       <c r="E60" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.3848987108655617</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.489908256880734</v>
       </c>
       <c r="G60" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.5142071494042164</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.1919561243144423</v>
       </c>
       <c r="I60" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.0287037037037037</v>
       </c>
       <c r="J60" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.1769305962854351</v>
       </c>
       <c r="S60" s="1">
@@ -4140,31 +4147,31 @@
         <v>6</v>
       </c>
       <c r="D62" s="43">
-        <f t="shared" ref="D62:J62" si="28">D37+D30+D31</f>
+        <f t="shared" ref="D62:J62" si="29">D37+D30+D31</f>
         <v>354</v>
       </c>
       <c r="E62" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>375</v>
       </c>
       <c r="F62" s="43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>915</v>
       </c>
       <c r="G62" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>832</v>
       </c>
       <c r="H62" s="43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>713</v>
       </c>
       <c r="I62" s="44">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>574</v>
       </c>
       <c r="J62" s="43">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>519</v>
       </c>
       <c r="K62" s="42"/>
@@ -4190,31 +4197,31 @@
         <v>7</v>
       </c>
       <c r="D63" s="43">
-        <f t="shared" ref="D63:J63" si="29">D43+D48</f>
+        <f t="shared" ref="D63:J63" si="30">D43+D48</f>
         <v>773</v>
       </c>
       <c r="E63" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>765</v>
       </c>
       <c r="F63" s="43">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1150</v>
       </c>
       <c r="G63" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>990</v>
       </c>
       <c r="H63" s="43">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>807</v>
       </c>
       <c r="I63" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>814</v>
       </c>
       <c r="J63" s="43">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1165</v>
       </c>
       <c r="K63" s="42"/>
@@ -4240,31 +4247,31 @@
         <v>8</v>
       </c>
       <c r="D64" s="33">
-        <f t="shared" ref="D64:J64" si="30">D62-D63</f>
+        <f t="shared" ref="D64:J64" si="31">D62-D63</f>
         <v>-419</v>
       </c>
       <c r="E64" s="34">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-390</v>
       </c>
       <c r="F64" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-235</v>
       </c>
       <c r="G64" s="34">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-158</v>
       </c>
       <c r="H64" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-94</v>
       </c>
       <c r="I64" s="34">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-240</v>
       </c>
       <c r="J64" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-646</v>
       </c>
       <c r="S64" s="33">

--- a/£SGE.xlsx
+++ b/£SGE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8787C7-550A-41B4-8D88-DD5B623AAED7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8428E47-851E-AE40-9DB2-B9FC615FD7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33080" windowHeight="18480" activeTab="1" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
   <si>
     <t>£SGE</t>
   </si>
@@ -329,6 +339,12 @@
   </si>
   <si>
     <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Derivative Financial Instruments</t>
+  </si>
+  <si>
+    <t>H123</t>
   </si>
 </sst>
 </file>
@@ -546,13 +562,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -625,7 +640,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -637,6 +651,30 @@
     <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="167" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -655,36 +693,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -822,14 +837,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>6350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -845,8 +860,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6705600" y="9525"/>
-          <a:ext cx="0" cy="11963400"/>
+          <a:off x="9569450" y="9525"/>
+          <a:ext cx="0" cy="12030075"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -879,7 +894,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -895,8 +910,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14001750" y="0"/>
-          <a:ext cx="0" cy="12449175"/>
+          <a:off x="16725900" y="0"/>
+          <a:ext cx="0" cy="12360275"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1221,633 +1236,626 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB50BB21-6927-4998-A7CD-B755108AED34}">
   <dimension ref="A2:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="58" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="H5" s="58" t="s">
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
+      <c r="H5" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="60"/>
-      <c r="T5" s="58" t="s">
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="53"/>
+      <c r="T5" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="60"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="53"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
-        <v>6.8259999999999996</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
-      <c r="T6" s="50" t="s">
+      <c r="C6" s="66">
+        <v>8.0571999999999999</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="8"/>
+      <c r="T6" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="9"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="8"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17">
-        <v>1023</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="9"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="9"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C7" s="16">
+        <v>1020</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="8"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <f>C6*C7</f>
-        <v>6982.9979999999996</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="9"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="9"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+        <v>8218.3439999999991</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="8"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="8"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="17">
-        <f>'Financial Model'!J62</f>
-        <v>519</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="9"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="9"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C9" s="16">
+        <f>'Financial Model'!V63</f>
+        <v>493</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="8"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="8"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="17">
-        <f>'Financial Model'!J63</f>
-        <v>1165</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="9"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="9"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C10" s="16">
+        <f>'Financial Model'!V64</f>
+        <v>1222</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="8"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="8"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <f>C9-C10</f>
-        <v>-646</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="9"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="9"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+        <v>-729</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="8"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <f>C8-C11</f>
-        <v>7628.9979999999996</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="9"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="9"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="H13" s="13"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="9"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="12"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="H14" s="13"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="58" t="s">
+        <v>8947.3439999999991</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="8"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="8"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="H13" s="12"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="8"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="11"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="H14" s="12"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="B15" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="9"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="55"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="9"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="H16" s="12"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="9"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="7" t="s">
+      <c r="D17" s="61"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="9"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="10" t="s">
+      <c r="D18" s="61"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="9"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H20" s="13"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="9"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H21" s="13"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="9"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="58" t="s">
+      <c r="D19" s="63"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H20" s="12"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H21" s="12"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B22" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="9"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="13" t="s">
+      <c r="C22" s="52"/>
+      <c r="D22" s="53"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="9"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="13" t="s">
+      <c r="D23" s="61"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="60">
         <v>1981</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="9"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="9"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="9"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="13" t="s">
+      <c r="D24" s="61"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B25" s="12"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="8"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B26" s="12"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="8"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="21">
-        <v>44694</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="9"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="14" t="s">
+      <c r="C27" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="20">
+        <v>44881</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="8"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="62"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="9"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H29" s="13"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="9"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="H30" s="13"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="9"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="58" t="s">
+      <c r="D28" s="65"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="8"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H29" s="12"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="8"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="H30" s="12"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="8"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B31" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="60"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="9"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="13" t="s">
+      <c r="C31" s="52"/>
+      <c r="D31" s="53"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="8"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="64">
-        <f>C6/(('Financial Model'!J14+'Financial Model'!I14))</f>
-        <v>24.617155279624747</v>
-      </c>
-      <c r="D32" s="65"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="9"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B33" s="13" t="s">
+      <c r="C32" s="54">
+        <f>C6/(('Financial Model'!I14+'Financial Model'!H14))</f>
+        <v>29.057331309550619</v>
+      </c>
+      <c r="D32" s="55"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="8"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="66">
-        <f>C8/SUM('Financial Model'!I4:J4)</f>
-        <v>3.7889300054259358</v>
-      </c>
-      <c r="D33" s="67"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="9"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="14" t="s">
+      <c r="C33" s="56">
+        <f>C8/SUM('Financial Model'!H4:I4)</f>
+        <v>4.4592208355941398</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="8"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B34" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="52">
-        <f>C6/'Financial Model'!J60</f>
-        <v>5.7998322259136206</v>
-      </c>
-      <c r="D34" s="53"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="12"/>
+      <c r="C34" s="58">
+        <f>C6/'Financial Model'!I61</f>
+        <v>6.8459431893687706</v>
+      </c>
+      <c r="D34" s="59"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C16:D16"/>
@@ -1860,6 +1868,13 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28:D28" r:id="rId1" display="Link" xr:uid="{E398FABE-A8E2-41B0-BEEF-891546DA9EBE}"/>
@@ -1872,2454 +1887,2886 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBB68F3-0B4D-4779-B224-181DBEE6F8C1}">
-  <dimension ref="B1:AF68"/>
+  <dimension ref="B1:AE69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="I13:J13"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="9.140625" style="24"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="9.140625" style="24"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="9.140625" style="24"/>
-    <col min="10" max="10" width="9.140625" style="1"/>
-    <col min="11" max="11" width="9.140625" style="24"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="9.1640625" style="23"/>
+    <col min="5" max="5" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="9.1640625" style="23"/>
+    <col min="7" max="7" width="9.1640625" style="1"/>
+    <col min="8" max="8" width="9.1640625" style="23"/>
+    <col min="9" max="9" width="9.1640625" style="1"/>
+    <col min="10" max="10" width="9.1640625" style="23"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:31" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="D1" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>35</v>
       </c>
+      <c r="G1" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="H1" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="K1" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="S1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="T1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="U1" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="V1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="W1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="X1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="Y1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="Z1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AA1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AC1" s="22" t="s">
+      <c r="AB1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AC1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AD1" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AE1" s="21" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="2:32" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="26"/>
-      <c r="D2" s="30">
+    <row r="2" spans="2:31" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="25"/>
+      <c r="C2" s="29">
         <v>43555</v>
       </c>
-      <c r="E2" s="40">
+      <c r="D2" s="39">
         <v>43738</v>
       </c>
-      <c r="F2" s="30">
+      <c r="E2" s="29">
         <v>43921</v>
       </c>
-      <c r="G2" s="40">
-        <f>U2</f>
+      <c r="F2" s="39">
+        <f>T2</f>
         <v>44104</v>
       </c>
-      <c r="H2" s="30">
+      <c r="G2" s="29">
         <v>44286</v>
       </c>
-      <c r="I2" s="40">
+      <c r="H2" s="39">
         <v>44469</v>
       </c>
-      <c r="J2" s="30">
+      <c r="I2" s="29">
         <v>44651</v>
       </c>
-      <c r="K2" s="28"/>
-      <c r="S2" s="30">
+      <c r="J2" s="39">
+        <f>V2</f>
+        <v>44834</v>
+      </c>
+      <c r="R2" s="29">
         <v>43373</v>
       </c>
-      <c r="T2" s="30">
+      <c r="S2" s="29">
         <v>43738</v>
       </c>
-      <c r="U2" s="30">
+      <c r="T2" s="29">
         <v>44104</v>
       </c>
-      <c r="V2" s="30">
+      <c r="U2" s="29">
         <v>44469</v>
       </c>
-    </row>
-    <row r="3" spans="2:32" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="26"/>
-      <c r="E3" s="48">
-        <f>T3</f>
+      <c r="V2" s="29">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="3" spans="2:31" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="25"/>
+      <c r="D3" s="46">
+        <f>S3</f>
         <v>43789</v>
       </c>
-      <c r="F3" s="29">
+      <c r="E3" s="28">
         <v>43964</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="I3" s="48">
-        <f>V3</f>
+      <c r="F3" s="27"/>
+      <c r="H3" s="46">
+        <f>U3</f>
         <v>44517</v>
       </c>
-      <c r="J3" s="29">
+      <c r="I3" s="28">
         <v>44694</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="T3" s="29">
+      <c r="J3" s="46">
+        <v>44881</v>
+      </c>
+      <c r="S3" s="28">
         <v>43789</v>
       </c>
-      <c r="V3" s="29">
+      <c r="U3" s="28">
         <v>44517</v>
       </c>
-    </row>
-    <row r="4" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V3" s="28">
+        <v>44881</v>
+      </c>
+    </row>
+    <row r="4" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="2">
+      <c r="C4" s="2">
         <v>957</v>
       </c>
-      <c r="E4" s="39">
-        <f>T4-D4</f>
+      <c r="D4" s="38">
+        <f>S4-C4</f>
         <v>979</v>
       </c>
-      <c r="F4" s="2">
+      <c r="E4" s="2">
         <v>975</v>
       </c>
-      <c r="G4" s="39">
-        <f>U4-F4</f>
+      <c r="F4" s="38">
+        <f>T4-E4</f>
         <v>928</v>
       </c>
-      <c r="H4" s="2">
+      <c r="G4" s="2">
         <v>937</v>
       </c>
-      <c r="I4" s="39">
-        <f>V4-H4</f>
+      <c r="H4" s="38">
+        <f>U4-G4</f>
         <v>909</v>
       </c>
-      <c r="J4" s="2">
+      <c r="I4" s="2">
         <v>934</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="S4" s="38">
+      <c r="J4" s="38">
+        <f>V4-I4</f>
+        <v>1013</v>
+      </c>
+      <c r="R4" s="37">
         <v>1846</v>
       </c>
-      <c r="T4" s="38">
+      <c r="S4" s="37">
         <v>1936</v>
       </c>
-      <c r="U4" s="38">
+      <c r="T4" s="37">
         <v>1903</v>
       </c>
-      <c r="V4" s="38">
+      <c r="U4" s="37">
         <v>1846</v>
       </c>
-    </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="V4" s="2">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5" s="1">
         <v>70</v>
       </c>
-      <c r="E5" s="34">
-        <f>T5-D5</f>
+      <c r="D5" s="33">
+        <f>S5-C5</f>
         <v>68</v>
       </c>
-      <c r="F5" s="1">
+      <c r="E5" s="1">
         <v>64</v>
       </c>
-      <c r="G5" s="34">
-        <f>U5-F5</f>
+      <c r="F5" s="33">
+        <f>T5-E5</f>
         <v>62</v>
       </c>
-      <c r="H5" s="1">
+      <c r="G5" s="1">
         <v>72</v>
       </c>
-      <c r="I5" s="34">
-        <f>V5-H5</f>
+      <c r="H5" s="33">
+        <f>U5-G5</f>
         <v>59</v>
       </c>
-      <c r="J5" s="1">
+      <c r="I5" s="1">
         <v>68</v>
       </c>
-      <c r="S5" s="33">
+      <c r="J5" s="33">
+        <f>V5-I5</f>
+        <v>70</v>
+      </c>
+      <c r="R5" s="32">
         <v>130</v>
       </c>
-      <c r="T5" s="33">
+      <c r="S5" s="32">
         <v>138</v>
       </c>
-      <c r="U5" s="33">
+      <c r="T5" s="32">
         <v>126</v>
       </c>
-      <c r="V5" s="33">
+      <c r="U5" s="32">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V5" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="2">
-        <f t="shared" ref="D6:J6" si="0">D4-D5</f>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:J6" si="0">C4-C5</f>
         <v>887</v>
       </c>
-      <c r="E6" s="39">
+      <c r="D6" s="38">
         <f t="shared" si="0"/>
         <v>911</v>
       </c>
-      <c r="F6" s="2">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>911</v>
       </c>
-      <c r="G6" s="39">
+      <c r="F6" s="38">
         <f t="shared" si="0"/>
         <v>866</v>
       </c>
-      <c r="H6" s="2">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>865</v>
       </c>
-      <c r="I6" s="39">
+      <c r="H6" s="38">
         <f t="shared" si="0"/>
         <v>850</v>
       </c>
-      <c r="J6" s="2">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>866</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="S6" s="38">
+      <c r="J6" s="38">
+        <f t="shared" si="0"/>
+        <v>943</v>
+      </c>
+      <c r="R6" s="37">
+        <f>R4-R5</f>
+        <v>1716</v>
+      </c>
+      <c r="S6" s="37">
         <f>S4-S5</f>
-        <v>1716</v>
-      </c>
-      <c r="T6" s="38">
+        <v>1798</v>
+      </c>
+      <c r="T6" s="37">
         <f>T4-T5</f>
-        <v>1798</v>
-      </c>
-      <c r="U6" s="38">
+        <v>1777</v>
+      </c>
+      <c r="U6" s="37">
         <f>U4-U5</f>
-        <v>1777</v>
-      </c>
-      <c r="V6" s="38">
+        <v>1715</v>
+      </c>
+      <c r="V6" s="37">
         <f>V4-V5</f>
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C7" s="1">
         <v>677</v>
       </c>
-      <c r="E7" s="34">
-        <f>T7-D7</f>
+      <c r="D7" s="33">
+        <f>S7-C7</f>
         <v>739</v>
       </c>
-      <c r="F7" s="1">
+      <c r="E7" s="1">
         <v>622</v>
       </c>
-      <c r="G7" s="34">
-        <f>U7-F7</f>
+      <c r="F7" s="33">
+        <f>T7-E7</f>
         <v>751</v>
       </c>
-      <c r="H7" s="1">
+      <c r="G7" s="1">
         <v>662</v>
       </c>
-      <c r="I7" s="34">
-        <f>V7-H7</f>
+      <c r="H7" s="33">
+        <f>U7-G7</f>
         <v>680</v>
       </c>
-      <c r="J7" s="1">
+      <c r="I7" s="1">
         <v>662</v>
       </c>
-      <c r="S7" s="33">
+      <c r="J7" s="33">
+        <f>V7-I7</f>
+        <v>780</v>
+      </c>
+      <c r="R7" s="32">
         <v>1289</v>
       </c>
-      <c r="T7" s="33">
+      <c r="S7" s="32">
         <v>1416</v>
       </c>
-      <c r="U7" s="33">
+      <c r="T7" s="32">
         <v>1373</v>
       </c>
-      <c r="V7" s="33">
+      <c r="U7" s="32">
         <v>1342</v>
       </c>
-    </row>
-    <row r="8" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V7" s="1">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" ref="D8:J8" si="1">D6-D7</f>
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:J8" si="1">C6-C7</f>
         <v>210</v>
       </c>
-      <c r="E8" s="39">
+      <c r="D8" s="38">
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="F8" s="2">
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>289</v>
       </c>
-      <c r="G8" s="39">
+      <c r="F8" s="38">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="H8" s="2">
+      <c r="G8" s="2">
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
-      <c r="I8" s="39">
+      <c r="H8" s="38">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="J8" s="2">
+      <c r="I8" s="2">
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
-      <c r="K8" s="31"/>
-      <c r="S8" s="38">
+      <c r="J8" s="38">
+        <f t="shared" si="1"/>
+        <v>163</v>
+      </c>
+      <c r="R8" s="37">
+        <f>R6-R7</f>
+        <v>427</v>
+      </c>
+      <c r="S8" s="37">
         <f>S6-S7</f>
-        <v>427</v>
-      </c>
-      <c r="T8" s="38">
+        <v>382</v>
+      </c>
+      <c r="T8" s="37">
         <f>T6-T7</f>
-        <v>382</v>
-      </c>
-      <c r="U8" s="38">
+        <v>404</v>
+      </c>
+      <c r="U8" s="37">
         <f>U6-U7</f>
-        <v>404</v>
-      </c>
-      <c r="V8" s="38">
+        <v>373</v>
+      </c>
+      <c r="V8" s="37">
         <f>V6-V7</f>
-        <v>373</v>
-      </c>
-    </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1">
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="34">
-        <f t="shared" ref="E9:E12" si="2">T9-D9</f>
+      <c r="D9" s="33">
+        <f>S9-C9</f>
         <v>4</v>
       </c>
-      <c r="F9" s="1">
+      <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="G9" s="34">
-        <f t="shared" ref="G9:G12" si="3">U9-F9</f>
+      <c r="F9" s="33">
+        <f>T9-E9</f>
         <v>1</v>
       </c>
-      <c r="H9" s="1">
+      <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="34">
-        <f t="shared" ref="I9:I12" si="4">V9-H9</f>
+      <c r="H9" s="33">
+        <f>U9-G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="1">
+      <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="33">
+      <c r="J9" s="33">
+        <f t="shared" ref="J9:J10" si="2">V9-I9</f>
+        <v>1</v>
+      </c>
+      <c r="R9" s="32">
         <v>5</v>
       </c>
-      <c r="T9" s="33">
+      <c r="S9" s="32">
         <v>8</v>
       </c>
-      <c r="U9" s="33">
+      <c r="T9" s="32">
         <v>3</v>
       </c>
-      <c r="V9" s="33">
+      <c r="U9" s="32">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="V9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="1">
+      <c r="C10" s="1">
         <v>16</v>
       </c>
-      <c r="E10" s="34">
+      <c r="D10" s="33">
+        <f>S10-C10</f>
+        <v>13</v>
+      </c>
+      <c r="E10" s="1">
+        <v>16</v>
+      </c>
+      <c r="F10" s="33">
+        <f>T10-E10</f>
+        <v>18</v>
+      </c>
+      <c r="G10" s="1">
+        <v>14</v>
+      </c>
+      <c r="H10" s="33">
+        <f>U10-G10</f>
+        <v>13</v>
+      </c>
+      <c r="I10" s="1">
+        <v>15</v>
+      </c>
+      <c r="J10" s="33">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="F10" s="1">
         <v>16</v>
       </c>
-      <c r="G10" s="34">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="H10" s="1">
-        <v>14</v>
-      </c>
-      <c r="I10" s="34">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="J10" s="1">
-        <v>15</v>
-      </c>
-      <c r="S10" s="33">
+      <c r="R10" s="32">
         <v>34</v>
       </c>
-      <c r="T10" s="33">
+      <c r="S10" s="32">
         <v>29</v>
       </c>
-      <c r="U10" s="33">
+      <c r="T10" s="32">
         <v>34</v>
       </c>
-      <c r="V10" s="33">
+      <c r="U10" s="32">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="V10" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" ref="D11:J11" si="5">D8+D9-D10</f>
+      <c r="C11" s="1">
+        <f t="shared" ref="C11:J11" si="3">C8+C9-C10</f>
         <v>198</v>
       </c>
-      <c r="E11" s="34">
-        <f t="shared" si="5"/>
+      <c r="D11" s="33">
+        <f t="shared" si="3"/>
         <v>163</v>
       </c>
-      <c r="F11" s="1">
-        <f t="shared" si="5"/>
+      <c r="E11" s="1">
+        <f t="shared" si="3"/>
         <v>275</v>
       </c>
-      <c r="G11" s="34">
-        <f t="shared" si="5"/>
+      <c r="F11" s="33">
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="H11" s="1">
-        <f t="shared" si="5"/>
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="I11" s="34">
-        <f t="shared" si="5"/>
+      <c r="H11" s="33">
+        <f t="shared" si="3"/>
         <v>157</v>
       </c>
-      <c r="J11" s="1">
-        <f t="shared" si="5"/>
+      <c r="I11" s="1">
+        <f t="shared" si="3"/>
         <v>189</v>
       </c>
-      <c r="S11" s="33">
+      <c r="J11" s="33">
+        <f t="shared" si="3"/>
+        <v>148</v>
+      </c>
+      <c r="R11" s="32">
+        <f>R8+R9-R10</f>
+        <v>398</v>
+      </c>
+      <c r="S11" s="32">
         <f>S8+S9-S10</f>
-        <v>398</v>
-      </c>
-      <c r="T11" s="33">
+        <v>361</v>
+      </c>
+      <c r="T11" s="32">
         <f>T8+T9-T10</f>
-        <v>361</v>
-      </c>
-      <c r="U11" s="33">
+        <v>373</v>
+      </c>
+      <c r="U11" s="32">
         <f>U8+U9-U10</f>
-        <v>373</v>
-      </c>
-      <c r="V11" s="33">
+        <v>347</v>
+      </c>
+      <c r="V11" s="32">
         <f>V8+V9-V10</f>
-        <v>347</v>
-      </c>
-    </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="1">
+      <c r="C12" s="1">
         <v>44</v>
       </c>
-      <c r="E12" s="34">
-        <f t="shared" si="2"/>
+      <c r="D12" s="33">
+        <f>S12-C12</f>
         <v>51</v>
       </c>
-      <c r="F12" s="1">
+      <c r="E12" s="1">
         <v>51</v>
       </c>
-      <c r="G12" s="34">
-        <f t="shared" si="3"/>
+      <c r="F12" s="33">
+        <f>T12-E12</f>
         <v>12</v>
       </c>
-      <c r="H12" s="1">
+      <c r="G12" s="1">
         <v>44</v>
       </c>
-      <c r="I12" s="34">
-        <f t="shared" si="4"/>
+      <c r="H12" s="33">
+        <f>U12-G12</f>
         <v>18</v>
       </c>
-      <c r="J12" s="1">
+      <c r="I12" s="1">
         <v>37</v>
       </c>
-      <c r="S12" s="33">
+      <c r="J12" s="33">
+        <f>V12-I12</f>
+        <v>46</v>
+      </c>
+      <c r="R12" s="32">
         <v>103</v>
       </c>
-      <c r="T12" s="33">
+      <c r="S12" s="32">
         <v>95</v>
       </c>
-      <c r="U12" s="33">
+      <c r="T12" s="32">
         <v>63</v>
       </c>
-      <c r="V12" s="33">
+      <c r="U12" s="32">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="2:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V12" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:J13" si="6">D11-D12</f>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13:J13" si="4">C11-C12</f>
         <v>154</v>
       </c>
-      <c r="E13" s="39">
-        <f t="shared" si="6"/>
+      <c r="D13" s="38">
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="6"/>
+      <c r="E13" s="2">
+        <f t="shared" si="4"/>
         <v>224</v>
       </c>
-      <c r="G13" s="39">
-        <f t="shared" si="6"/>
+      <c r="F13" s="38">
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
-      <c r="H13" s="2">
-        <f t="shared" si="6"/>
+      <c r="G13" s="2">
+        <f t="shared" si="4"/>
         <v>146</v>
       </c>
-      <c r="I13" s="39">
-        <f t="shared" si="6"/>
+      <c r="H13" s="38">
+        <f t="shared" si="4"/>
         <v>139</v>
       </c>
-      <c r="J13" s="2">
-        <f t="shared" si="6"/>
+      <c r="I13" s="2">
+        <f t="shared" si="4"/>
         <v>152</v>
       </c>
-      <c r="K13" s="31"/>
-      <c r="S13" s="38">
+      <c r="J13" s="38">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="R13" s="37">
+        <f>R11-R12</f>
+        <v>295</v>
+      </c>
+      <c r="S13" s="37">
         <f>S11-S12</f>
-        <v>295</v>
-      </c>
-      <c r="T13" s="38">
+        <v>266</v>
+      </c>
+      <c r="T13" s="37">
         <f>T11-T12</f>
-        <v>266</v>
-      </c>
-      <c r="U13" s="38">
+        <v>310</v>
+      </c>
+      <c r="U13" s="37">
         <f>U11-U12</f>
-        <v>310</v>
-      </c>
-      <c r="V13" s="38">
+        <v>285</v>
+      </c>
+      <c r="V13" s="37">
         <f>V11-V12</f>
-        <v>285</v>
-      </c>
-      <c r="W13" s="45"/>
-    </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="35">
-        <f t="shared" ref="D14:J14" si="7">D13/D15</f>
+      <c r="C14" s="34">
+        <f t="shared" ref="C14:J14" si="5">C13/C15</f>
         <v>0.14180478821362799</v>
       </c>
-      <c r="E14" s="49">
-        <f t="shared" si="7"/>
+      <c r="D14" s="47">
+        <f t="shared" si="5"/>
         <v>0.10313075506445672</v>
       </c>
-      <c r="F14" s="35">
-        <f t="shared" si="7"/>
+      <c r="E14" s="34">
+        <f t="shared" si="5"/>
         <v>0.20550458715596331</v>
       </c>
-      <c r="G14" s="49">
-        <f t="shared" si="7"/>
+      <c r="F14" s="47">
+        <f t="shared" si="5"/>
         <v>7.8826764436296978E-2</v>
       </c>
-      <c r="H14" s="35">
-        <f t="shared" si="7"/>
+      <c r="G14" s="34">
+        <f t="shared" si="5"/>
         <v>0.13345521023765997</v>
       </c>
-      <c r="I14" s="49">
-        <f t="shared" si="7"/>
+      <c r="H14" s="47">
+        <f t="shared" si="5"/>
         <v>0.12870370370370371</v>
       </c>
-      <c r="J14" s="35">
-        <f t="shared" si="7"/>
+      <c r="I14" s="34">
+        <f t="shared" si="5"/>
         <v>0.14858260019550343</v>
       </c>
-      <c r="S14" s="35">
-        <f t="shared" ref="S14:T14" si="8">S13/S15</f>
+      <c r="J14" s="47">
+        <f t="shared" si="5"/>
+        <v>0.1</v>
+      </c>
+      <c r="R14" s="34">
+        <f t="shared" ref="R14:S14" si="6">R13/R15</f>
         <v>0.2723915050784857</v>
       </c>
-      <c r="T14" s="35">
-        <f t="shared" si="8"/>
+      <c r="S14" s="34">
+        <f t="shared" si="6"/>
         <v>0.24493554327808473</v>
       </c>
-      <c r="U14" s="35">
+      <c r="T14" s="34">
+        <f>T13/T15</f>
+        <v>0.28414298808432631</v>
+      </c>
+      <c r="U14" s="34">
         <f>U13/U15</f>
-        <v>0.28414298808432631</v>
-      </c>
-      <c r="V14" s="35">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="V14" s="34">
         <f>V13/V15</f>
-        <v>0.2638888888888889</v>
-      </c>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+        <v>0.24901960784313726</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="33"/>
+      <c r="C15" s="32">
+        <v>1086</v>
+      </c>
       <c r="D15" s="33">
+        <f>S15</f>
         <v>1086</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="32">
+        <v>1090</v>
+      </c>
+      <c r="F15" s="33">
         <f>T15</f>
+        <v>1091</v>
+      </c>
+      <c r="G15" s="32">
+        <v>1094</v>
+      </c>
+      <c r="H15" s="33">
+        <f>U15</f>
+        <v>1080</v>
+      </c>
+      <c r="I15" s="32">
+        <v>1023</v>
+      </c>
+      <c r="J15" s="33">
+        <f>V15</f>
+        <v>1020</v>
+      </c>
+      <c r="R15" s="32">
+        <v>1083</v>
+      </c>
+      <c r="S15" s="32">
         <v>1086</v>
       </c>
-      <c r="F15" s="33">
-        <v>1090</v>
-      </c>
-      <c r="G15" s="34">
-        <f>U15</f>
+      <c r="T15" s="32">
         <v>1091</v>
       </c>
-      <c r="H15" s="33">
-        <v>1094</v>
-      </c>
-      <c r="I15" s="34">
-        <f>V15</f>
+      <c r="U15" s="32">
         <v>1080</v>
       </c>
-      <c r="J15" s="33">
-        <v>1023</v>
-      </c>
-      <c r="S15" s="33">
-        <v>1083</v>
-      </c>
-      <c r="T15" s="33">
-        <v>1086</v>
-      </c>
-      <c r="U15" s="33">
-        <v>1091</v>
-      </c>
-      <c r="V15" s="33">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V15" s="32">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="32">
-        <f t="shared" ref="D17:J17" si="9">D6/D4</f>
+      <c r="C17" s="31">
+        <f t="shared" ref="C17:I17" si="7">C6/C4</f>
         <v>0.92685475444096133</v>
       </c>
-      <c r="E17" s="46">
+      <c r="D17" s="44">
+        <f t="shared" si="7"/>
+        <v>0.93054136874361593</v>
+      </c>
+      <c r="E17" s="31">
+        <f t="shared" si="7"/>
+        <v>0.9343589743589743</v>
+      </c>
+      <c r="F17" s="44">
+        <f t="shared" si="7"/>
+        <v>0.93318965517241381</v>
+      </c>
+      <c r="G17" s="31">
+        <f t="shared" si="7"/>
+        <v>0.9231590181430096</v>
+      </c>
+      <c r="H17" s="44">
+        <f t="shared" si="7"/>
+        <v>0.93509350935093505</v>
+      </c>
+      <c r="I17" s="31">
+        <f t="shared" si="7"/>
+        <v>0.9271948608137045</v>
+      </c>
+      <c r="J17" s="44">
+        <f t="shared" ref="J17" si="8">J6/J4</f>
+        <v>0.93089832181638699</v>
+      </c>
+      <c r="R17" s="31">
+        <f t="shared" ref="R17:S17" si="9">R6/R4</f>
+        <v>0.92957746478873238</v>
+      </c>
+      <c r="S17" s="31">
         <f t="shared" si="9"/>
-        <v>0.93054136874361593</v>
-      </c>
-      <c r="F17" s="32">
-        <f t="shared" si="9"/>
-        <v>0.9343589743589743</v>
-      </c>
-      <c r="G17" s="46">
-        <f t="shared" si="9"/>
-        <v>0.93318965517241381</v>
-      </c>
-      <c r="H17" s="32">
-        <f t="shared" si="9"/>
-        <v>0.9231590181430096</v>
-      </c>
-      <c r="I17" s="46">
-        <f t="shared" si="9"/>
-        <v>0.93509350935093505</v>
-      </c>
-      <c r="J17" s="32">
-        <f t="shared" si="9"/>
-        <v>0.9271948608137045</v>
-      </c>
-      <c r="S17" s="32">
-        <f t="shared" ref="S17:T17" si="10">S6/S4</f>
-        <v>0.92957746478873238</v>
-      </c>
-      <c r="T17" s="32">
-        <f t="shared" si="10"/>
         <v>0.92871900826446285</v>
       </c>
-      <c r="U17" s="32">
+      <c r="T17" s="31">
+        <f>T6/T4</f>
+        <v>0.93378875459800315</v>
+      </c>
+      <c r="U17" s="31">
         <f>U6/U4</f>
-        <v>0.93378875459800315</v>
-      </c>
-      <c r="V17" s="32">
-        <f>V6/V4</f>
         <v>0.92903575297941499</v>
       </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V17" s="31">
+        <f t="shared" ref="V17" si="10">V6/V4</f>
+        <v>0.92912172573189522</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="32">
-        <f t="shared" ref="D18:J18" si="11">D8/D4</f>
+      <c r="C18" s="31">
+        <f t="shared" ref="C18:I18" si="11">C8/C4</f>
         <v>0.21943573667711599</v>
       </c>
-      <c r="E18" s="46">
+      <c r="D18" s="44">
         <f t="shared" si="11"/>
         <v>0.17568947906026558</v>
       </c>
-      <c r="F18" s="32">
+      <c r="E18" s="31">
         <f t="shared" si="11"/>
         <v>0.29641025641025642</v>
       </c>
-      <c r="G18" s="46">
+      <c r="F18" s="44">
         <f t="shared" si="11"/>
         <v>0.12392241379310345</v>
       </c>
-      <c r="H18" s="32">
+      <c r="G18" s="31">
         <f t="shared" si="11"/>
         <v>0.21664887940234792</v>
       </c>
-      <c r="I18" s="46">
+      <c r="H18" s="44">
         <f t="shared" si="11"/>
         <v>0.18701870187018702</v>
       </c>
-      <c r="J18" s="32">
+      <c r="I18" s="31">
         <f t="shared" si="11"/>
         <v>0.21841541755888652</v>
       </c>
-      <c r="S18" s="32">
-        <f t="shared" ref="S18:T18" si="12">S8/S4</f>
+      <c r="J18" s="44">
+        <f t="shared" ref="J18" si="12">J8/J4</f>
+        <v>0.16090819348469892</v>
+      </c>
+      <c r="R18" s="31">
+        <f t="shared" ref="R18:S18" si="13">R8/R4</f>
         <v>0.2313109425785482</v>
       </c>
-      <c r="T18" s="32">
-        <f t="shared" si="12"/>
+      <c r="S18" s="31">
+        <f t="shared" si="13"/>
         <v>0.19731404958677687</v>
       </c>
-      <c r="U18" s="32">
+      <c r="T18" s="31">
+        <f>T8/T4</f>
+        <v>0.21229637414608513</v>
+      </c>
+      <c r="U18" s="31">
         <f>U8/U4</f>
-        <v>0.21229637414608513</v>
-      </c>
-      <c r="V18" s="32">
-        <f>V8/V4</f>
         <v>0.20205850487540628</v>
       </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V18" s="31">
+        <f t="shared" ref="V18" si="14">V8/V4</f>
+        <v>0.18849512069851052</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="32">
-        <f t="shared" ref="D19:J19" si="13">D13/D4</f>
+      <c r="C19" s="31">
+        <f t="shared" ref="C19:I19" si="15">C13/C4</f>
         <v>0.16091954022988506</v>
       </c>
-      <c r="E19" s="46">
-        <f t="shared" si="13"/>
+      <c r="D19" s="44">
+        <f t="shared" si="15"/>
         <v>0.11440245148110317</v>
       </c>
-      <c r="F19" s="32">
-        <f t="shared" si="13"/>
+      <c r="E19" s="31">
+        <f t="shared" si="15"/>
         <v>0.22974358974358974</v>
       </c>
-      <c r="G19" s="46">
-        <f t="shared" si="13"/>
+      <c r="F19" s="44">
+        <f t="shared" si="15"/>
         <v>9.2672413793103453E-2</v>
       </c>
-      <c r="H19" s="32">
-        <f t="shared" si="13"/>
+      <c r="G19" s="31">
+        <f t="shared" si="15"/>
         <v>0.15581643543223053</v>
       </c>
-      <c r="I19" s="46">
-        <f t="shared" si="13"/>
+      <c r="H19" s="44">
+        <f t="shared" si="15"/>
         <v>0.15291529152915292</v>
       </c>
-      <c r="J19" s="32">
-        <f t="shared" si="13"/>
+      <c r="I19" s="31">
+        <f t="shared" si="15"/>
         <v>0.16274089935760172</v>
       </c>
-      <c r="S19" s="32">
-        <f t="shared" ref="S19:T19" si="14">S13/S4</f>
+      <c r="J19" s="44">
+        <f t="shared" ref="J19" si="16">J13/J4</f>
+        <v>0.10069101678183613</v>
+      </c>
+      <c r="R19" s="31">
+        <f t="shared" ref="R19:S19" si="17">R13/R4</f>
         <v>0.15980498374864571</v>
       </c>
-      <c r="T19" s="32">
-        <f t="shared" si="14"/>
+      <c r="S19" s="31">
+        <f t="shared" si="17"/>
         <v>0.13739669421487602</v>
       </c>
-      <c r="U19" s="32">
+      <c r="T19" s="31">
+        <f>T13/T4</f>
+        <v>0.16290068313189701</v>
+      </c>
+      <c r="U19" s="31">
         <f>U13/U4</f>
-        <v>0.16290068313189701</v>
-      </c>
-      <c r="V19" s="32">
-        <f>V13/V4</f>
         <v>0.1543878656554713</v>
       </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V19" s="31">
+        <f t="shared" ref="V19" si="18">V13/V4</f>
+        <v>0.13045711350796096</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="32">
-        <f t="shared" ref="D20:J20" si="15">D12/D11</f>
+      <c r="C20" s="31">
+        <f t="shared" ref="C20:I20" si="19">C12/C11</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="E20" s="46">
-        <f t="shared" si="15"/>
+      <c r="D20" s="44">
+        <f t="shared" si="19"/>
         <v>0.31288343558282211</v>
       </c>
-      <c r="F20" s="32">
-        <f t="shared" si="15"/>
+      <c r="E20" s="31">
+        <f t="shared" si="19"/>
         <v>0.18545454545454546</v>
       </c>
-      <c r="G20" s="46">
-        <f t="shared" si="15"/>
+      <c r="F20" s="44">
+        <f t="shared" si="19"/>
         <v>0.12244897959183673</v>
       </c>
-      <c r="H20" s="32">
-        <f t="shared" si="15"/>
+      <c r="G20" s="31">
+        <f t="shared" si="19"/>
         <v>0.23157894736842105</v>
       </c>
-      <c r="I20" s="46">
-        <f t="shared" si="15"/>
+      <c r="H20" s="44">
+        <f t="shared" si="19"/>
         <v>0.11464968152866242</v>
       </c>
-      <c r="J20" s="32">
-        <f t="shared" si="15"/>
+      <c r="I20" s="31">
+        <f t="shared" si="19"/>
         <v>0.19576719576719576</v>
       </c>
-      <c r="S20" s="32">
-        <f t="shared" ref="S20:V20" si="16">S12/S11</f>
+      <c r="J20" s="44">
+        <f t="shared" ref="J20" si="20">J12/J11</f>
+        <v>0.3108108108108108</v>
+      </c>
+      <c r="R20" s="31">
+        <f t="shared" ref="R20:U20" si="21">R12/R11</f>
         <v>0.25879396984924624</v>
       </c>
-      <c r="T20" s="32">
-        <f t="shared" si="16"/>
+      <c r="S20" s="31">
+        <f t="shared" si="21"/>
         <v>0.26315789473684209</v>
       </c>
-      <c r="U20" s="32">
-        <f t="shared" si="16"/>
+      <c r="T20" s="31">
+        <f t="shared" si="21"/>
         <v>0.16890080428954424</v>
       </c>
-      <c r="V20" s="32">
-        <f t="shared" si="16"/>
+      <c r="U20" s="31">
+        <f t="shared" si="21"/>
         <v>0.17867435158501441</v>
       </c>
-    </row>
-    <row r="22" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V20" s="31">
+        <f t="shared" ref="V20" si="22">V12/V11</f>
+        <v>0.24629080118694363</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="36">
+      <c r="C22" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="35">
+        <f>E4/C4-1</f>
+        <v>1.8808777429467183E-2</v>
+      </c>
+      <c r="F22" s="45">
         <f>F4/D4-1</f>
-        <v>1.8808777429467183E-2</v>
-      </c>
-      <c r="G22" s="47">
+        <v>-5.2093973442288055E-2</v>
+      </c>
+      <c r="G22" s="35">
         <f>G4/E4-1</f>
-        <v>-5.2093973442288055E-2</v>
-      </c>
-      <c r="H22" s="36">
+        <v>-3.8974358974358969E-2</v>
+      </c>
+      <c r="H22" s="45">
         <f>H4/F4-1</f>
-        <v>-3.8974358974358969E-2</v>
-      </c>
-      <c r="I22" s="47">
+        <v>-2.0474137931034475E-2</v>
+      </c>
+      <c r="I22" s="35">
         <f>I4/G4-1</f>
-        <v>-2.0474137931034475E-2</v>
-      </c>
-      <c r="J22" s="36">
+        <v>-3.2017075773745907E-3</v>
+      </c>
+      <c r="J22" s="45">
         <f>J4/H4-1</f>
-        <v>-3.2017075773745907E-3</v>
-      </c>
-      <c r="K22" s="31"/>
-      <c r="S22" s="20" t="s">
+        <v>0.11441144114411439</v>
+      </c>
+      <c r="R22" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="T22" s="45">
-        <f t="shared" ref="T22:U22" si="17">T4/S4-1</f>
+      <c r="S22" s="43">
+        <f t="shared" ref="S22:T22" si="23">S4/R4-1</f>
         <v>4.8754062838569867E-2</v>
       </c>
-      <c r="U22" s="45">
-        <f t="shared" si="17"/>
+      <c r="T22" s="43">
+        <f t="shared" si="23"/>
         <v>-1.7045454545454586E-2</v>
       </c>
-      <c r="V22" s="45">
-        <f>V4/U4-1</f>
+      <c r="U22" s="43">
+        <f>U4/T4-1</f>
         <v>-2.9952706253284278E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V22" s="43">
+        <f t="shared" ref="V22" si="24">V4/U4-1</f>
+        <v>5.4712892741061836E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="46">
-        <f t="shared" ref="E23:J23" si="18">E4/D4-1</f>
+      <c r="C23" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="44">
+        <f t="shared" ref="D23:J23" si="25">D4/C4-1</f>
         <v>2.2988505747126409E-2</v>
       </c>
-      <c r="F23" s="32">
-        <f t="shared" si="18"/>
+      <c r="E23" s="31">
+        <f t="shared" si="25"/>
         <v>-4.0858018386108474E-3</v>
       </c>
-      <c r="G23" s="46">
-        <f t="shared" si="18"/>
+      <c r="F23" s="44">
+        <f t="shared" si="25"/>
         <v>-4.8205128205128234E-2</v>
       </c>
-      <c r="H23" s="32">
-        <f t="shared" si="18"/>
+      <c r="G23" s="31">
+        <f t="shared" si="25"/>
         <v>9.6982758620689502E-3</v>
       </c>
-      <c r="I23" s="46">
-        <f t="shared" si="18"/>
+      <c r="H23" s="44">
+        <f t="shared" si="25"/>
         <v>-2.9882604055496254E-2</v>
       </c>
-      <c r="J23" s="32">
-        <f t="shared" si="18"/>
+      <c r="I23" s="31">
+        <f t="shared" si="25"/>
         <v>2.7502750275027577E-2</v>
       </c>
-      <c r="S23" s="20" t="s">
+      <c r="J23" s="44">
+        <f t="shared" si="25"/>
+        <v>8.4582441113490336E-2</v>
+      </c>
+      <c r="R23" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="T23" s="20" t="s">
+      <c r="S23" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="U23" s="20" t="s">
+      <c r="T23" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="V23" s="20" t="s">
+      <c r="U23" s="19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="37" t="s">
+      <c r="V23" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B27" s="36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="33">
+      <c r="C28" s="32">
         <f>2002+238</f>
         <v>2240</v>
       </c>
-      <c r="E28" s="34">
+      <c r="D28" s="33">
         <f>2098+228</f>
         <v>2326</v>
       </c>
-      <c r="F28" s="33">
+      <c r="E28" s="32">
         <f>2059+216</f>
         <v>2275</v>
       </c>
-      <c r="G28" s="34">
-        <f>U28</f>
+      <c r="F28" s="33">
+        <f>T28</f>
         <v>2174</v>
       </c>
-      <c r="H28" s="33">
+      <c r="G28" s="32">
         <f>1843+188</f>
         <v>2031</v>
       </c>
-      <c r="I28" s="34">
+      <c r="H28" s="33">
         <f>1877+190</f>
         <v>2067</v>
       </c>
-      <c r="J28" s="33">
+      <c r="I28" s="32">
         <f>2082+281</f>
         <v>2363</v>
       </c>
-      <c r="S28" s="33">
+      <c r="J28" s="23">
+        <f>V28</f>
+        <v>2710</v>
+      </c>
+      <c r="R28" s="32">
         <f>2008+260</f>
         <v>2268</v>
       </c>
-      <c r="T28" s="33">
+      <c r="S28" s="32">
         <f>2098+228</f>
         <v>2326</v>
       </c>
-      <c r="U28" s="33">
+      <c r="T28" s="32">
         <f>1962+212</f>
         <v>2174</v>
       </c>
-      <c r="V28" s="33">
+      <c r="U28" s="32">
         <f>1877+190</f>
         <v>2067</v>
       </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V28" s="1">
+        <f>2416+294</f>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="C29" s="32">
+        <v>131</v>
+      </c>
       <c r="D29" s="33">
-        <v>131</v>
-      </c>
-      <c r="E29" s="34">
         <v>117</v>
       </c>
+      <c r="E29" s="32">
+        <v>198</v>
+      </c>
       <c r="F29" s="33">
-        <v>198</v>
-      </c>
-      <c r="G29" s="34">
-        <f>U29</f>
+        <f>T29</f>
         <v>173</v>
       </c>
+      <c r="G29" s="32">
+        <v>165</v>
+      </c>
       <c r="H29" s="33">
-        <v>165</v>
-      </c>
-      <c r="I29" s="34">
         <v>164</v>
       </c>
-      <c r="J29" s="33">
+      <c r="I29" s="32">
         <v>155</v>
       </c>
-      <c r="S29" s="33">
+      <c r="J29" s="23">
+        <f>-V29</f>
+        <v>-152</v>
+      </c>
+      <c r="R29" s="32">
         <v>129</v>
       </c>
-      <c r="T29" s="33">
+      <c r="S29" s="32">
         <v>117</v>
       </c>
-      <c r="U29" s="33">
+      <c r="T29" s="32">
         <v>173</v>
       </c>
-      <c r="V29" s="33">
+      <c r="U29" s="32">
         <v>164</v>
       </c>
-    </row>
-    <row r="30" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V29" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="C30" s="37">
+        <v>0</v>
+      </c>
       <c r="D30" s="38">
         <v>0</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="37">
         <v>0</v>
       </c>
       <c r="F30" s="38">
+        <f>T30</f>
         <v>0</v>
       </c>
-      <c r="G30" s="39">
-        <f>U30</f>
+      <c r="G30" s="37">
+        <v>19</v>
+      </c>
+      <c r="H30" s="38">
+        <v>21</v>
+      </c>
+      <c r="I30" s="37">
+        <v>4</v>
+      </c>
+      <c r="J30" s="30">
+        <f>V30</f>
+        <v>4</v>
+      </c>
+      <c r="R30" s="37">
         <v>0</v>
       </c>
-      <c r="H30" s="38">
-        <v>19</v>
-      </c>
-      <c r="I30" s="39">
+      <c r="S30" s="37">
+        <v>0</v>
+      </c>
+      <c r="T30" s="37">
+        <v>0</v>
+      </c>
+      <c r="U30" s="37">
         <v>21</v>
       </c>
-      <c r="J30" s="38">
+      <c r="V30" s="2">
         <v>4</v>
       </c>
-      <c r="K30" s="31"/>
-      <c r="S30" s="38">
-        <v>0</v>
-      </c>
-      <c r="T30" s="38">
-        <v>0</v>
-      </c>
-      <c r="U30" s="38">
-        <v>0</v>
-      </c>
-      <c r="V30" s="38">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="C31" s="37">
+        <v>3</v>
+      </c>
       <c r="D31" s="38">
+        <v>4</v>
+      </c>
+      <c r="E31" s="37">
         <v>3</v>
       </c>
-      <c r="E31" s="39">
+      <c r="F31" s="38">
+        <f>T31</f>
+        <v>1</v>
+      </c>
+      <c r="G31" s="37">
+        <v>1</v>
+      </c>
+      <c r="H31" s="38">
+        <v>0</v>
+      </c>
+      <c r="I31" s="37">
+        <v>0</v>
+      </c>
+      <c r="J31" s="23">
+        <f t="shared" ref="J31:J38" si="26">-V31</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="37">
+        <v>1</v>
+      </c>
+      <c r="S31" s="37">
         <v>4</v>
       </c>
-      <c r="F31" s="38">
-        <v>3</v>
-      </c>
-      <c r="G31" s="39">
-        <f>U31</f>
+      <c r="T31" s="37">
         <v>1</v>
       </c>
-      <c r="H31" s="38">
-        <v>1</v>
-      </c>
-      <c r="I31" s="39">
+      <c r="U31" s="37">
         <v>0</v>
       </c>
-      <c r="J31" s="38">
+      <c r="V31" s="2">
         <v>0</v>
       </c>
-      <c r="K31" s="31"/>
-      <c r="S31" s="38">
-        <v>1</v>
-      </c>
-      <c r="T31" s="38">
-        <v>4</v>
-      </c>
-      <c r="U31" s="38">
-        <v>1</v>
-      </c>
-      <c r="V31" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="C32" s="32">
+        <v>40</v>
+      </c>
       <c r="D32" s="33">
-        <v>40</v>
-      </c>
-      <c r="E32" s="34">
         <v>73</v>
       </c>
+      <c r="E32" s="32">
+        <v>83</v>
+      </c>
       <c r="F32" s="33">
-        <v>83</v>
-      </c>
-      <c r="G32" s="34">
-        <f t="shared" ref="G32:G38" si="19">U32</f>
+        <f t="shared" ref="F32:F38" si="27">T32</f>
         <v>86</v>
       </c>
+      <c r="G32" s="32">
+        <v>101</v>
+      </c>
       <c r="H32" s="33">
-        <v>101</v>
-      </c>
-      <c r="I32" s="34">
         <v>113</v>
       </c>
-      <c r="J32" s="33">
+      <c r="I32" s="32">
         <v>116</v>
       </c>
-      <c r="S32" s="33">
+      <c r="J32" s="23">
+        <f t="shared" si="26"/>
+        <v>-128</v>
+      </c>
+      <c r="R32" s="32">
         <v>2</v>
       </c>
-      <c r="T32" s="33">
+      <c r="S32" s="32">
         <v>73</v>
       </c>
-      <c r="U32" s="33">
+      <c r="T32" s="32">
         <v>86</v>
       </c>
-      <c r="V32" s="33">
+      <c r="U32" s="32">
         <v>113</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V32" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="C33" s="32">
+        <v>57</v>
+      </c>
       <c r="D33" s="33">
-        <v>57</v>
-      </c>
-      <c r="E33" s="34">
         <v>31</v>
       </c>
+      <c r="E33" s="32">
+        <v>26</v>
+      </c>
       <c r="F33" s="33">
-        <v>26</v>
-      </c>
-      <c r="G33" s="34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>35</v>
       </c>
+      <c r="G33" s="32">
+        <v>36</v>
+      </c>
       <c r="H33" s="33">
-        <v>36</v>
-      </c>
-      <c r="I33" s="34">
         <v>40</v>
       </c>
-      <c r="J33" s="33">
+      <c r="I33" s="32">
         <v>34</v>
       </c>
-      <c r="S33" s="33">
+      <c r="J33" s="23">
+        <f t="shared" si="26"/>
+        <v>-19</v>
+      </c>
+      <c r="R33" s="32">
         <v>51</v>
       </c>
-      <c r="T33" s="33">
+      <c r="S33" s="32">
         <v>31</v>
       </c>
-      <c r="U33" s="33">
+      <c r="T33" s="32">
         <v>35</v>
       </c>
-      <c r="V33" s="33">
+      <c r="U33" s="32">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V33" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="C34" s="32">
+        <f t="shared" ref="C34:J34" si="28">SUM(C28:C33)</f>
+        <v>2471</v>
+      </c>
       <c r="D34" s="33">
-        <f t="shared" ref="D34:J34" si="20">SUM(D28:D33)</f>
-        <v>2471</v>
-      </c>
-      <c r="E34" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>2551</v>
       </c>
+      <c r="E34" s="32">
+        <f t="shared" si="28"/>
+        <v>2585</v>
+      </c>
       <c r="F34" s="33">
-        <f t="shared" si="20"/>
-        <v>2585</v>
-      </c>
-      <c r="G34" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>2469</v>
       </c>
+      <c r="G34" s="32">
+        <f t="shared" si="28"/>
+        <v>2353</v>
+      </c>
       <c r="H34" s="33">
-        <f t="shared" si="20"/>
-        <v>2353</v>
-      </c>
-      <c r="I34" s="34">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>2405</v>
       </c>
+      <c r="I34" s="32">
+        <f t="shared" si="28"/>
+        <v>2672</v>
+      </c>
       <c r="J34" s="33">
-        <f t="shared" si="20"/>
-        <v>2672</v>
-      </c>
-      <c r="S34" s="33">
+        <f t="shared" si="28"/>
+        <v>2415</v>
+      </c>
+      <c r="R34" s="32">
+        <f>SUM(R28:R33)</f>
+        <v>2451</v>
+      </c>
+      <c r="S34" s="32">
         <f>SUM(S28:S33)</f>
-        <v>2451</v>
-      </c>
-      <c r="T34" s="33">
+        <v>2551</v>
+      </c>
+      <c r="T34" s="32">
         <f>SUM(T28:T33)</f>
-        <v>2551</v>
-      </c>
-      <c r="U34" s="33">
+        <v>2469</v>
+      </c>
+      <c r="U34" s="32">
         <f>SUM(U28:U33)</f>
-        <v>2469</v>
-      </c>
-      <c r="V34" s="33">
+        <v>2405</v>
+      </c>
+      <c r="V34" s="32">
         <f>SUM(V28:V33)</f>
-        <v>2405</v>
-      </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="C35" s="32">
+        <v>402</v>
+      </c>
       <c r="D35" s="33">
-        <v>402</v>
-      </c>
-      <c r="E35" s="34">
         <v>364</v>
       </c>
+      <c r="E35" s="32">
+        <v>329</v>
+      </c>
       <c r="F35" s="33">
+        <f t="shared" si="27"/>
+        <v>302</v>
+      </c>
+      <c r="G35" s="32">
+        <v>290</v>
+      </c>
+      <c r="H35" s="33">
+        <v>295</v>
+      </c>
+      <c r="I35" s="1">
         <v>329</v>
       </c>
-      <c r="G35" s="34">
-        <f t="shared" si="19"/>
+      <c r="J35" s="23">
+        <f t="shared" si="26"/>
+        <v>-335</v>
+      </c>
+      <c r="R35" s="32">
+        <v>460</v>
+      </c>
+      <c r="S35" s="32">
+        <v>364</v>
+      </c>
+      <c r="T35" s="32">
         <v>302</v>
       </c>
-      <c r="H35" s="33">
-        <v>290</v>
-      </c>
-      <c r="I35" s="34">
+      <c r="U35" s="32">
         <v>295</v>
       </c>
-      <c r="J35" s="1">
-        <v>329</v>
-      </c>
-      <c r="S35" s="33">
-        <v>460</v>
-      </c>
-      <c r="T35" s="33">
-        <v>364</v>
-      </c>
-      <c r="U35" s="33">
-        <v>302</v>
-      </c>
-      <c r="V35" s="33">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V35" s="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="C36" s="32">
+        <v>4</v>
+      </c>
       <c r="D36" s="33">
+        <v>3</v>
+      </c>
+      <c r="E36" s="32">
+        <v>15</v>
+      </c>
+      <c r="F36" s="33">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+      <c r="G36" s="32">
+        <v>13</v>
+      </c>
+      <c r="H36" s="33">
+        <v>37</v>
+      </c>
+      <c r="I36" s="1">
+        <v>28</v>
+      </c>
+      <c r="J36" s="23">
+        <f t="shared" si="26"/>
+        <v>-39</v>
+      </c>
+      <c r="R36" s="32">
         <v>4</v>
       </c>
-      <c r="E36" s="34">
+      <c r="S36" s="32">
         <v>3</v>
       </c>
-      <c r="F36" s="33">
-        <v>15</v>
-      </c>
-      <c r="G36" s="34">
-        <f t="shared" si="19"/>
+      <c r="T36" s="32">
         <v>5</v>
       </c>
-      <c r="H36" s="33">
-        <v>13</v>
-      </c>
-      <c r="I36" s="34">
+      <c r="U36" s="32">
         <v>37</v>
       </c>
-      <c r="J36" s="1">
-        <v>28</v>
-      </c>
-      <c r="S36" s="33">
-        <v>4</v>
-      </c>
-      <c r="T36" s="33">
-        <v>3</v>
-      </c>
-      <c r="U36" s="33">
-        <v>5</v>
-      </c>
-      <c r="V36" s="33">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V36" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C37" s="37">
+        <v>351</v>
+      </c>
       <c r="D37" s="38">
-        <v>351</v>
-      </c>
-      <c r="E37" s="39">
         <v>371</v>
       </c>
+      <c r="E37" s="37">
+        <v>912</v>
+      </c>
       <c r="F37" s="38">
-        <v>912</v>
-      </c>
-      <c r="G37" s="39">
-        <f>U37</f>
+        <f>T37</f>
         <v>831</v>
       </c>
+      <c r="G37" s="37">
+        <v>693</v>
+      </c>
       <c r="H37" s="38">
-        <v>693</v>
-      </c>
-      <c r="I37" s="39">
         <v>553</v>
       </c>
-      <c r="J37" s="2">
+      <c r="I37" s="2">
         <v>515</v>
       </c>
-      <c r="K37" s="31"/>
+      <c r="J37" s="30">
+        <f>V37</f>
+        <v>489</v>
+      </c>
+      <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="38">
+      <c r="R37" s="37">
         <v>272</v>
       </c>
-      <c r="T37" s="38">
+      <c r="S37" s="37">
         <v>371</v>
       </c>
-      <c r="U37" s="38">
+      <c r="T37" s="37">
         <v>831</v>
       </c>
-      <c r="V37" s="38">
+      <c r="U37" s="37">
         <v>553</v>
       </c>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V37" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="C38" s="32">
+        <v>0</v>
+      </c>
       <c r="D38" s="33">
+        <v>63</v>
+      </c>
+      <c r="E38" s="32">
         <v>0</v>
       </c>
-      <c r="E38" s="34">
+      <c r="F38" s="33">
+        <f t="shared" si="27"/>
+        <v>108</v>
+      </c>
+      <c r="G38" s="32">
+        <v>95</v>
+      </c>
+      <c r="H38" s="33">
+        <v>39</v>
+      </c>
+      <c r="I38" s="1">
+        <v>2</v>
+      </c>
+      <c r="J38" s="23">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="32">
+        <v>113</v>
+      </c>
+      <c r="S38" s="32">
         <v>63</v>
       </c>
-      <c r="F38" s="33">
+      <c r="T38" s="32">
+        <v>108</v>
+      </c>
+      <c r="U38" s="32">
+        <v>39</v>
+      </c>
+      <c r="V38" s="1">
         <v>0</v>
       </c>
-      <c r="G38" s="34">
-        <f t="shared" si="19"/>
-        <v>108</v>
-      </c>
-      <c r="H38" s="33">
-        <v>95</v>
-      </c>
-      <c r="I38" s="34">
-        <v>39</v>
-      </c>
-      <c r="J38" s="1">
-        <v>2</v>
-      </c>
-      <c r="S38" s="33">
-        <v>113</v>
-      </c>
-      <c r="T38" s="33">
-        <v>63</v>
-      </c>
-      <c r="U38" s="33">
-        <v>108</v>
-      </c>
-      <c r="V38" s="33">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="C39" s="32">
+        <f t="shared" ref="C39:J39" si="29">C34+SUM(C35:C38)</f>
+        <v>3228</v>
+      </c>
       <c r="D39" s="33">
-        <f t="shared" ref="D39:J39" si="21">D34+SUM(D35:D38)</f>
-        <v>3228</v>
-      </c>
-      <c r="E39" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>3352</v>
       </c>
+      <c r="E39" s="32">
+        <f t="shared" si="29"/>
+        <v>3841</v>
+      </c>
       <c r="F39" s="33">
-        <f t="shared" si="21"/>
-        <v>3841</v>
-      </c>
-      <c r="G39" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>3715</v>
       </c>
+      <c r="G39" s="32">
+        <f t="shared" si="29"/>
+        <v>3444</v>
+      </c>
       <c r="H39" s="33">
-        <f t="shared" si="21"/>
-        <v>3444</v>
-      </c>
-      <c r="I39" s="34">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>3329</v>
       </c>
+      <c r="I39" s="32">
+        <f t="shared" si="29"/>
+        <v>3546</v>
+      </c>
       <c r="J39" s="33">
-        <f t="shared" si="21"/>
-        <v>3546</v>
-      </c>
-      <c r="S39" s="33">
+        <f t="shared" si="29"/>
+        <v>2530</v>
+      </c>
+      <c r="R39" s="32">
+        <f>R34+SUM(R35:R38)</f>
+        <v>3300</v>
+      </c>
+      <c r="S39" s="32">
         <f>S34+SUM(S35:S38)</f>
-        <v>3300</v>
-      </c>
-      <c r="T39" s="33">
+        <v>3352</v>
+      </c>
+      <c r="T39" s="32">
         <f>T34+SUM(T35:T38)</f>
-        <v>3352</v>
-      </c>
-      <c r="U39" s="33">
+        <v>3715</v>
+      </c>
+      <c r="U39" s="32">
         <f>U34+SUM(U35:U38)</f>
-        <v>3715</v>
-      </c>
-      <c r="V39" s="33">
+        <v>3329</v>
+      </c>
+      <c r="V39" s="32">
         <f>V34+SUM(V35:V38)</f>
-        <v>3329</v>
-      </c>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="G40" s="32"/>
       <c r="H40" s="33"/>
-      <c r="I40" s="34"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="33"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="33"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="C41" s="32">
+        <v>276</v>
+      </c>
       <c r="D41" s="33">
-        <v>276</v>
-      </c>
-      <c r="E41" s="34">
         <v>291</v>
       </c>
+      <c r="E41" s="32">
+        <v>242</v>
+      </c>
       <c r="F41" s="33">
-        <v>242</v>
-      </c>
-      <c r="G41" s="34">
-        <f t="shared" ref="G41:G46" si="22">U41</f>
+        <f t="shared" ref="F41:F46" si="30">T41</f>
         <v>297</v>
       </c>
+      <c r="G41" s="32">
+        <v>529</v>
+      </c>
       <c r="H41" s="33">
-        <v>529</v>
-      </c>
-      <c r="I41" s="34">
         <v>592</v>
       </c>
-      <c r="J41" s="33">
+      <c r="I41" s="32">
         <v>311</v>
       </c>
-      <c r="S41" s="33">
+      <c r="J41" s="23">
+        <f>V41</f>
+        <v>368</v>
+      </c>
+      <c r="R41" s="32">
         <v>249</v>
       </c>
-      <c r="T41" s="33">
+      <c r="S41" s="32">
         <v>291</v>
       </c>
-      <c r="U41" s="33">
+      <c r="T41" s="32">
         <v>297</v>
       </c>
-      <c r="V41" s="33">
+      <c r="U41" s="32">
         <v>592</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V41" s="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B42" s="1" t="s">
         <v>77</v>
       </c>
+      <c r="C42" s="32">
+        <v>47</v>
+      </c>
       <c r="D42" s="33">
-        <v>47</v>
-      </c>
-      <c r="E42" s="34">
         <v>32</v>
       </c>
+      <c r="E42" s="32">
+        <v>46</v>
+      </c>
       <c r="F42" s="33">
-        <v>46</v>
-      </c>
-      <c r="G42" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>13</v>
       </c>
+      <c r="G42" s="32">
+        <v>24</v>
+      </c>
       <c r="H42" s="33">
-        <v>24</v>
-      </c>
-      <c r="I42" s="34">
         <v>31</v>
       </c>
-      <c r="J42" s="33">
+      <c r="I42" s="32">
         <v>23</v>
       </c>
-      <c r="S42" s="33">
+      <c r="J42" s="23">
+        <f>V42</f>
+        <v>13</v>
+      </c>
+      <c r="R42" s="32">
         <v>39</v>
       </c>
-      <c r="T42" s="33">
+      <c r="S42" s="32">
         <v>32</v>
       </c>
-      <c r="U42" s="33">
+      <c r="T42" s="32">
         <v>13</v>
       </c>
-      <c r="V42" s="33">
+      <c r="U42" s="32">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V42" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="C43" s="37">
+        <v>5</v>
+      </c>
       <c r="D43" s="38">
-        <v>5</v>
-      </c>
-      <c r="E43" s="39">
         <v>122</v>
       </c>
+      <c r="E43" s="37">
+        <v>149</v>
+      </c>
       <c r="F43" s="38">
-        <v>149</v>
-      </c>
-      <c r="G43" s="39">
-        <f>U43</f>
+        <f>T43</f>
         <v>20</v>
+      </c>
+      <c r="G43" s="37">
+        <v>65</v>
       </c>
       <c r="H43" s="38">
         <v>65</v>
       </c>
-      <c r="I43" s="39">
-        <v>65</v>
-      </c>
-      <c r="J43" s="38">
+      <c r="I43" s="37">
         <v>42</v>
       </c>
-      <c r="K43" s="31"/>
+      <c r="J43" s="30">
+        <f>V43</f>
+        <v>178</v>
+      </c>
+      <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="38">
+      <c r="R43" s="37">
         <v>8</v>
       </c>
-      <c r="T43" s="38">
+      <c r="S43" s="37">
         <v>122</v>
       </c>
-      <c r="U43" s="38">
+      <c r="T43" s="37">
         <v>20</v>
       </c>
-      <c r="V43" s="38">
+      <c r="U43" s="37">
         <v>65</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V43" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="C44" s="32">
+        <v>15</v>
+      </c>
       <c r="D44" s="33">
-        <v>15</v>
-      </c>
-      <c r="E44" s="34">
         <v>11</v>
       </c>
+      <c r="E44" s="32">
+        <v>9</v>
+      </c>
       <c r="F44" s="33">
-        <v>9</v>
-      </c>
-      <c r="G44" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>19</v>
       </c>
+      <c r="G44" s="32">
+        <v>14</v>
+      </c>
       <c r="H44" s="33">
-        <v>14</v>
-      </c>
-      <c r="I44" s="34">
         <v>68</v>
       </c>
-      <c r="J44" s="33">
+      <c r="I44" s="32">
         <v>44</v>
       </c>
-      <c r="S44" s="33">
+      <c r="J44" s="23">
+        <f>V44</f>
+        <v>33</v>
+      </c>
+      <c r="R44" s="32">
         <v>26</v>
       </c>
-      <c r="T44" s="33">
+      <c r="S44" s="32">
         <v>11</v>
       </c>
-      <c r="U44" s="33">
+      <c r="T44" s="32">
         <v>19</v>
       </c>
-      <c r="V44" s="33">
+      <c r="U44" s="32">
         <v>68</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V44" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="C45" s="32">
+        <v>660</v>
+      </c>
       <c r="D45" s="33">
-        <v>660</v>
-      </c>
-      <c r="E45" s="34">
         <v>637</v>
       </c>
+      <c r="E45" s="32">
+        <v>691</v>
+      </c>
       <c r="F45" s="33">
-        <v>691</v>
-      </c>
-      <c r="G45" s="34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>593</v>
       </c>
+      <c r="G45" s="32">
+        <v>638</v>
+      </c>
       <c r="H45" s="33">
-        <v>638</v>
-      </c>
-      <c r="I45" s="34">
         <v>611</v>
       </c>
-      <c r="J45" s="33">
+      <c r="I45" s="32">
         <v>705</v>
       </c>
-      <c r="S45" s="33">
+      <c r="J45" s="23">
+        <f>V45</f>
+        <v>734</v>
+      </c>
+      <c r="R45" s="32">
         <v>620</v>
       </c>
-      <c r="T45" s="33">
+      <c r="S45" s="32">
         <v>637</v>
       </c>
-      <c r="U45" s="33">
+      <c r="T45" s="32">
         <v>593</v>
       </c>
-      <c r="V45" s="33">
+      <c r="U45" s="32">
         <v>611</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V45" s="1">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>86</v>
       </c>
+      <c r="C46" s="32">
+        <v>0</v>
+      </c>
       <c r="D46" s="33">
+        <v>33</v>
+      </c>
+      <c r="E46" s="32">
         <v>0</v>
       </c>
-      <c r="E46" s="34">
+      <c r="F46" s="33">
+        <f t="shared" si="30"/>
+        <v>73</v>
+      </c>
+      <c r="G46" s="32">
+        <v>52</v>
+      </c>
+      <c r="H46" s="33">
+        <v>13</v>
+      </c>
+      <c r="I46" s="32">
+        <v>0</v>
+      </c>
+      <c r="J46" s="23">
+        <f>V46</f>
+        <v>0</v>
+      </c>
+      <c r="R46" s="32">
+        <v>63</v>
+      </c>
+      <c r="S46" s="32">
         <v>33</v>
       </c>
-      <c r="F46" s="33">
+      <c r="T46" s="32">
+        <v>73</v>
+      </c>
+      <c r="U46" s="32">
+        <v>13</v>
+      </c>
+      <c r="V46" s="1">
         <v>0</v>
       </c>
-      <c r="G46" s="34">
-        <f t="shared" si="22"/>
-        <v>73</v>
-      </c>
-      <c r="H46" s="33">
-        <v>52</v>
-      </c>
-      <c r="I46" s="34">
-        <v>13</v>
-      </c>
-      <c r="J46" s="33">
-        <v>0</v>
-      </c>
-      <c r="S46" s="33">
-        <v>63</v>
-      </c>
-      <c r="T46" s="33">
-        <v>33</v>
-      </c>
-      <c r="U46" s="33">
-        <v>73</v>
-      </c>
-      <c r="V46" s="33">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="C47" s="32">
+        <f t="shared" ref="C47:J47" si="31">SUM(C41:C46)</f>
+        <v>1003</v>
+      </c>
       <c r="D47" s="33">
-        <f t="shared" ref="D47:J47" si="23">SUM(D41:D46)</f>
-        <v>1003</v>
-      </c>
-      <c r="E47" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>1126</v>
       </c>
+      <c r="E47" s="32">
+        <f t="shared" si="31"/>
+        <v>1137</v>
+      </c>
       <c r="F47" s="33">
-        <f t="shared" si="23"/>
-        <v>1137</v>
-      </c>
-      <c r="G47" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>1015</v>
       </c>
+      <c r="G47" s="32">
+        <f t="shared" si="31"/>
+        <v>1322</v>
+      </c>
       <c r="H47" s="33">
-        <f t="shared" si="23"/>
-        <v>1322</v>
-      </c>
-      <c r="I47" s="34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>1380</v>
       </c>
+      <c r="I47" s="32">
+        <f t="shared" si="31"/>
+        <v>1125</v>
+      </c>
       <c r="J47" s="33">
-        <f t="shared" si="23"/>
-        <v>1125</v>
-      </c>
-      <c r="S47" s="33">
+        <f t="shared" si="31"/>
+        <v>1326</v>
+      </c>
+      <c r="R47" s="32">
+        <f>SUM(R41:R46)</f>
+        <v>1005</v>
+      </c>
+      <c r="S47" s="32">
         <f>SUM(S41:S46)</f>
-        <v>1005</v>
-      </c>
-      <c r="T47" s="33">
+        <v>1126</v>
+      </c>
+      <c r="T47" s="32">
         <f>SUM(T41:T46)</f>
-        <v>1126</v>
-      </c>
-      <c r="U47" s="33">
+        <v>1015</v>
+      </c>
+      <c r="U47" s="32">
         <f>SUM(U41:U46)</f>
-        <v>1015</v>
-      </c>
-      <c r="V47" s="33">
+        <v>1380</v>
+      </c>
+      <c r="V47" s="32">
         <f>SUM(V41:V46)</f>
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="48" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
         <v>81</v>
       </c>
+      <c r="C48" s="37">
+        <v>768</v>
+      </c>
       <c r="D48" s="38">
-        <v>768</v>
-      </c>
-      <c r="E48" s="39">
         <v>643</v>
       </c>
+      <c r="E48" s="37">
+        <v>1001</v>
+      </c>
       <c r="F48" s="38">
-        <v>1001</v>
-      </c>
-      <c r="G48" s="39">
-        <f>U48</f>
+        <f>T48</f>
         <v>970</v>
       </c>
+      <c r="G48" s="37">
+        <v>742</v>
+      </c>
       <c r="H48" s="38">
-        <v>742</v>
-      </c>
-      <c r="I48" s="39">
         <v>749</v>
       </c>
-      <c r="J48" s="38">
+      <c r="I48" s="37">
         <v>1123</v>
       </c>
-      <c r="K48" s="31"/>
+      <c r="J48" s="30">
+        <f>V48</f>
+        <v>1044</v>
+      </c>
+      <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="38">
+      <c r="R48" s="37">
         <v>913</v>
       </c>
-      <c r="T48" s="38">
+      <c r="S48" s="37">
         <v>643</v>
       </c>
-      <c r="U48" s="38">
+      <c r="T48" s="37">
         <v>970</v>
       </c>
-      <c r="V48" s="38">
+      <c r="U48" s="37">
         <v>749</v>
       </c>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V48" s="2">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="C49" s="32">
+        <v>22</v>
+      </c>
       <c r="D49" s="33">
+        <v>25</v>
+      </c>
+      <c r="E49" s="32">
+        <v>26</v>
+      </c>
+      <c r="F49" s="33">
+        <f t="shared" ref="F49:F53" si="32">T49</f>
+        <v>23</v>
+      </c>
+      <c r="G49" s="32">
+        <v>23</v>
+      </c>
+      <c r="H49" s="33">
         <v>22</v>
       </c>
-      <c r="E49" s="34">
+      <c r="I49" s="32">
+        <v>23</v>
+      </c>
+      <c r="J49" s="23">
+        <f>V49</f>
+        <v>19</v>
+      </c>
+      <c r="R49" s="32">
+        <v>22</v>
+      </c>
+      <c r="S49" s="32">
         <v>25</v>
       </c>
-      <c r="F49" s="33">
-        <v>26</v>
-      </c>
-      <c r="G49" s="34">
-        <f t="shared" ref="G49:G53" si="24">U49</f>
+      <c r="T49" s="32">
         <v>23</v>
       </c>
-      <c r="H49" s="33">
-        <v>23</v>
-      </c>
-      <c r="I49" s="34">
+      <c r="U49" s="32">
         <v>22</v>
       </c>
-      <c r="J49" s="33">
-        <v>23</v>
-      </c>
-      <c r="S49" s="33">
-        <v>22</v>
-      </c>
-      <c r="T49" s="33">
-        <v>25</v>
-      </c>
-      <c r="U49" s="33">
-        <v>23</v>
-      </c>
-      <c r="V49" s="33">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V49" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="C50" s="32">
+        <v>26</v>
+      </c>
       <c r="D50" s="33">
-        <v>26</v>
-      </c>
-      <c r="E50" s="34">
         <v>24</v>
       </c>
+      <c r="E50" s="32">
+        <v>27</v>
+      </c>
       <c r="F50" s="33">
-        <v>27</v>
-      </c>
-      <c r="G50" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>14</v>
       </c>
+      <c r="G50" s="32">
+        <v>10</v>
+      </c>
       <c r="H50" s="33">
-        <v>10</v>
-      </c>
-      <c r="I50" s="34">
         <v>5</v>
       </c>
-      <c r="J50" s="33">
+      <c r="I50" s="32">
         <v>24</v>
       </c>
-      <c r="S50" s="33">
+      <c r="J50" s="23">
+        <f>V50</f>
+        <v>16</v>
+      </c>
+      <c r="R50" s="32">
         <v>25</v>
       </c>
-      <c r="T50" s="33">
+      <c r="S50" s="32">
         <v>24</v>
       </c>
-      <c r="U50" s="33">
+      <c r="T50" s="32">
         <v>14</v>
       </c>
-      <c r="V50" s="33">
+      <c r="U50" s="32">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V50" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="C51" s="32">
+        <v>12</v>
+      </c>
       <c r="D51" s="33">
-        <v>12</v>
-      </c>
-      <c r="E51" s="34">
         <v>15</v>
       </c>
+      <c r="E51" s="32">
+        <v>13</v>
+      </c>
       <c r="F51" s="33">
-        <v>13</v>
-      </c>
-      <c r="G51" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>31</v>
       </c>
+      <c r="G51" s="32">
+        <v>29</v>
+      </c>
       <c r="H51" s="33">
-        <v>29</v>
-      </c>
-      <c r="I51" s="34">
         <v>49</v>
       </c>
-      <c r="J51" s="33">
+      <c r="I51" s="32">
         <v>36</v>
       </c>
-      <c r="S51" s="33">
+      <c r="J51" s="23">
+        <f>V51</f>
+        <v>20</v>
+      </c>
+      <c r="R51" s="32">
         <v>11</v>
       </c>
-      <c r="T51" s="33">
+      <c r="S51" s="32">
         <v>15</v>
       </c>
-      <c r="U51" s="33">
+      <c r="T51" s="32">
         <v>31</v>
       </c>
-      <c r="V51" s="33">
+      <c r="U51" s="32">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V51" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="C52" s="32">
+        <v>7</v>
+      </c>
       <c r="D52" s="33">
         <v>7</v>
       </c>
-      <c r="E52" s="34">
-        <v>7</v>
+      <c r="E52" s="32">
+        <v>6</v>
       </c>
       <c r="F52" s="33">
-        <v>6</v>
-      </c>
-      <c r="G52" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
+        <v>3</v>
+      </c>
+      <c r="G52" s="32">
         <v>3</v>
       </c>
       <c r="H52" s="33">
         <v>3</v>
       </c>
-      <c r="I52" s="34">
+      <c r="I52" s="32">
+        <v>2</v>
+      </c>
+      <c r="J52" s="23">
+        <f>V52</f>
+        <v>6</v>
+      </c>
+      <c r="R52" s="32">
+        <v>8</v>
+      </c>
+      <c r="S52" s="32">
+        <v>7</v>
+      </c>
+      <c r="T52" s="32">
         <v>3</v>
       </c>
-      <c r="J52" s="33">
-        <v>2</v>
-      </c>
-      <c r="S52" s="33">
-        <v>8</v>
-      </c>
-      <c r="T52" s="33">
-        <v>7</v>
-      </c>
-      <c r="U52" s="33">
+      <c r="U52" s="32">
         <v>3</v>
       </c>
-      <c r="V52" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="V52" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="C53" s="32">
+        <v>7</v>
+      </c>
       <c r="D53" s="33">
+        <v>8</v>
+      </c>
+      <c r="E53" s="32">
         <v>7</v>
       </c>
-      <c r="E53" s="34">
+      <c r="F53" s="33">
+        <f t="shared" si="32"/>
+        <v>7</v>
+      </c>
+      <c r="G53" s="32">
+        <v>11</v>
+      </c>
+      <c r="H53" s="33">
+        <v>10</v>
+      </c>
+      <c r="I53" s="32">
+        <v>9</v>
+      </c>
+      <c r="J53" s="23">
+        <f>V53</f>
         <v>8</v>
       </c>
-      <c r="F53" s="33">
+      <c r="R53" s="32">
+        <v>6</v>
+      </c>
+      <c r="S53" s="32">
+        <v>8</v>
+      </c>
+      <c r="T53" s="32">
         <v>7</v>
       </c>
-      <c r="G53" s="34">
-        <f t="shared" si="24"/>
+      <c r="U53" s="32">
+        <v>10</v>
+      </c>
+      <c r="V53" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="32">
+        <v>0</v>
+      </c>
+      <c r="D54" s="33">
+        <v>0</v>
+      </c>
+      <c r="E54" s="32">
+        <v>0</v>
+      </c>
+      <c r="F54" s="33">
+        <v>0</v>
+      </c>
+      <c r="G54" s="32">
+        <v>0</v>
+      </c>
+      <c r="H54" s="33">
+        <v>0</v>
+      </c>
+      <c r="I54" s="32">
+        <v>0</v>
+      </c>
+      <c r="J54" s="23">
+        <f>V54</f>
+        <v>60</v>
+      </c>
+      <c r="R54" s="32">
+        <v>0</v>
+      </c>
+      <c r="S54" s="32">
+        <v>0</v>
+      </c>
+      <c r="T54" s="32">
+        <v>0</v>
+      </c>
+      <c r="U54" s="32">
+        <v>0</v>
+      </c>
+      <c r="V54" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B55" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="32">
+        <f>C47+SUM(C48:C54)</f>
+        <v>1845</v>
+      </c>
+      <c r="D55" s="33">
+        <f>D47+SUM(D48:D54)</f>
+        <v>1848</v>
+      </c>
+      <c r="E55" s="32">
+        <f>E47+SUM(E48:E54)</f>
+        <v>2217</v>
+      </c>
+      <c r="F55" s="33">
+        <f>F47+SUM(F48:F54)</f>
+        <v>2063</v>
+      </c>
+      <c r="G55" s="32">
+        <f>G47+SUM(G48:G54)</f>
+        <v>2140</v>
+      </c>
+      <c r="H55" s="33">
+        <f>H47+SUM(H48:H54)</f>
+        <v>2218</v>
+      </c>
+      <c r="I55" s="32">
+        <f>I47+SUM(I48:I54)</f>
+        <v>2342</v>
+      </c>
+      <c r="J55" s="33">
+        <f>J47+SUM(J48:J54)</f>
+        <v>2499</v>
+      </c>
+      <c r="R55" s="32">
+        <f>R47+SUM(R48:R54)</f>
+        <v>1990</v>
+      </c>
+      <c r="S55" s="32">
+        <f>S47+SUM(S48:S54)</f>
+        <v>1848</v>
+      </c>
+      <c r="T55" s="32">
+        <f>T47+SUM(T48:T54)</f>
+        <v>2063</v>
+      </c>
+      <c r="U55" s="32">
+        <f>U47+SUM(U48:U54)</f>
+        <v>2218</v>
+      </c>
+      <c r="V55" s="32">
+        <f>V47+SUM(V48:V54)</f>
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="G56" s="32"/>
+      <c r="H56" s="33"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+    </row>
+    <row r="57" spans="2:22" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="32">
+        <v>1383</v>
+      </c>
+      <c r="D57" s="33">
+        <v>1504</v>
+      </c>
+      <c r="E57" s="32">
+        <v>1624</v>
+      </c>
+      <c r="F57" s="33">
+        <f>T57</f>
+        <v>1652</v>
+      </c>
+      <c r="G57" s="32">
+        <v>1304</v>
+      </c>
+      <c r="H57" s="33">
+        <v>1111</v>
+      </c>
+      <c r="I57" s="32">
+        <v>1204</v>
+      </c>
+      <c r="J57" s="33">
+        <f>V57</f>
+        <v>1397</v>
+      </c>
+      <c r="R57" s="32">
+        <v>1327</v>
+      </c>
+      <c r="S57" s="32">
+        <v>1504</v>
+      </c>
+      <c r="T57" s="32">
+        <v>1652</v>
+      </c>
+      <c r="U57" s="32">
+        <v>1111</v>
+      </c>
+      <c r="V57" s="32">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="32">
+        <f t="shared" ref="C58:J58" si="33">C57+C55</f>
+        <v>3228</v>
+      </c>
+      <c r="D58" s="33">
+        <f t="shared" si="33"/>
+        <v>3352</v>
+      </c>
+      <c r="E58" s="32">
+        <f t="shared" si="33"/>
+        <v>3841</v>
+      </c>
+      <c r="F58" s="33">
+        <f t="shared" si="33"/>
+        <v>3715</v>
+      </c>
+      <c r="G58" s="32">
+        <f t="shared" si="33"/>
+        <v>3444</v>
+      </c>
+      <c r="H58" s="33">
+        <f t="shared" si="33"/>
+        <v>3329</v>
+      </c>
+      <c r="I58" s="32">
+        <f t="shared" si="33"/>
+        <v>3546</v>
+      </c>
+      <c r="J58" s="33">
+        <f t="shared" si="33"/>
+        <v>3896</v>
+      </c>
+      <c r="R58" s="32">
+        <f>R57+R55</f>
+        <v>3317</v>
+      </c>
+      <c r="S58" s="32">
+        <f>S57+S55</f>
+        <v>3352</v>
+      </c>
+      <c r="T58" s="32">
+        <f>T57+T55</f>
+        <v>3715</v>
+      </c>
+      <c r="U58" s="32">
+        <f>U57+U55</f>
+        <v>3329</v>
+      </c>
+      <c r="V58" s="32">
+        <f>V57+V55</f>
+        <v>3896</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="G59" s="32"/>
+      <c r="H59" s="33"/>
+    </row>
+    <row r="60" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B60" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C60" s="32">
+        <f t="shared" ref="C60:I60" si="34">C39-C55</f>
+        <v>1383</v>
+      </c>
+      <c r="D60" s="33">
+        <f t="shared" si="34"/>
+        <v>1504</v>
+      </c>
+      <c r="E60" s="32">
+        <f t="shared" si="34"/>
+        <v>1624</v>
+      </c>
+      <c r="F60" s="33">
+        <f t="shared" si="34"/>
+        <v>1652</v>
+      </c>
+      <c r="G60" s="32">
+        <f t="shared" si="34"/>
+        <v>1304</v>
+      </c>
+      <c r="H60" s="33">
+        <f t="shared" si="34"/>
+        <v>1111</v>
+      </c>
+      <c r="I60" s="32">
+        <f t="shared" si="34"/>
+        <v>1204</v>
+      </c>
+      <c r="J60" s="33">
+        <f t="shared" ref="J60" si="35">J39-J55</f>
+        <v>31</v>
+      </c>
+      <c r="R60" s="32">
+        <f>R39-R55</f>
+        <v>1310</v>
+      </c>
+      <c r="S60" s="32">
+        <f>S39-S55</f>
+        <v>1504</v>
+      </c>
+      <c r="T60" s="32">
+        <f>T39-T55</f>
+        <v>1652</v>
+      </c>
+      <c r="U60" s="32">
+        <f>U39-U55</f>
+        <v>1111</v>
+      </c>
+      <c r="V60" s="32">
+        <f t="shared" ref="V60" si="36">V39-V55</f>
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="61" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" ref="C61:I61" si="37">C60/C15</f>
+        <v>1.2734806629834254</v>
+      </c>
+      <c r="D61" s="23">
+        <f t="shared" si="37"/>
+        <v>1.3848987108655617</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="37"/>
+        <v>1.489908256880734</v>
+      </c>
+      <c r="F61" s="23">
+        <f t="shared" si="37"/>
+        <v>1.5142071494042164</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="37"/>
+        <v>1.1919561243144423</v>
+      </c>
+      <c r="H61" s="23">
+        <f t="shared" si="37"/>
+        <v>1.0287037037037037</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="37"/>
+        <v>1.1769305962854351</v>
+      </c>
+      <c r="J61" s="23">
+        <f t="shared" ref="J61" si="38">J60/J15</f>
+        <v>3.0392156862745098E-2</v>
+      </c>
+      <c r="R61" s="1">
+        <f>R60/R15</f>
+        <v>1.2096029547553093</v>
+      </c>
+      <c r="S61" s="1">
+        <f>S60/S15</f>
+        <v>1.3848987108655617</v>
+      </c>
+      <c r="T61" s="1">
+        <f>T60/T15</f>
+        <v>1.5142071494042164</v>
+      </c>
+      <c r="U61" s="1">
+        <f>U60/U15</f>
+        <v>1.0287037037037037</v>
+      </c>
+      <c r="V61" s="1">
+        <f t="shared" ref="V61" si="39">V60/V15</f>
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="G62" s="32"/>
+    </row>
+    <row r="63" spans="2:22" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="41">
+        <f t="shared" ref="C63:I63" si="40">C37+C30+C31</f>
+        <v>354</v>
+      </c>
+      <c r="D63" s="42">
+        <f t="shared" si="40"/>
+        <v>375</v>
+      </c>
+      <c r="E63" s="41">
+        <f t="shared" si="40"/>
+        <v>915</v>
+      </c>
+      <c r="F63" s="42">
+        <f t="shared" si="40"/>
+        <v>832</v>
+      </c>
+      <c r="G63" s="41">
+        <f t="shared" si="40"/>
+        <v>713</v>
+      </c>
+      <c r="H63" s="42">
+        <f t="shared" si="40"/>
+        <v>574</v>
+      </c>
+      <c r="I63" s="41">
+        <f t="shared" si="40"/>
+        <v>519</v>
+      </c>
+      <c r="J63" s="42">
+        <f t="shared" ref="J63" si="41">J37+J30+J31</f>
+        <v>493</v>
+      </c>
+      <c r="R63" s="41">
+        <f>R37+R30+R31</f>
+        <v>273</v>
+      </c>
+      <c r="S63" s="41">
+        <f>S37+S30+S31</f>
+        <v>375</v>
+      </c>
+      <c r="T63" s="41">
+        <f>T37+T30+T31</f>
+        <v>832</v>
+      </c>
+      <c r="U63" s="41">
+        <f>U37+U30+U31</f>
+        <v>574</v>
+      </c>
+      <c r="V63" s="41">
+        <f t="shared" ref="V63" si="42">V37+V30+V31</f>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="33">
-        <v>11</v>
-      </c>
-      <c r="I53" s="34">
-        <v>10</v>
-      </c>
-      <c r="J53" s="33">
-        <v>9</v>
-      </c>
-      <c r="S53" s="33">
-        <v>6</v>
-      </c>
-      <c r="T53" s="33">
+      <c r="C64" s="41">
+        <f t="shared" ref="C64:I64" si="43">C43+C48</f>
+        <v>773</v>
+      </c>
+      <c r="D64" s="42">
+        <f t="shared" si="43"/>
+        <v>765</v>
+      </c>
+      <c r="E64" s="41">
+        <f t="shared" si="43"/>
+        <v>1150</v>
+      </c>
+      <c r="F64" s="42">
+        <f t="shared" si="43"/>
+        <v>990</v>
+      </c>
+      <c r="G64" s="41">
+        <f t="shared" si="43"/>
+        <v>807</v>
+      </c>
+      <c r="H64" s="42">
+        <f t="shared" si="43"/>
+        <v>814</v>
+      </c>
+      <c r="I64" s="41">
+        <f t="shared" si="43"/>
+        <v>1165</v>
+      </c>
+      <c r="J64" s="42">
+        <f t="shared" ref="J64" si="44">J43+J48</f>
+        <v>1222</v>
+      </c>
+      <c r="R64" s="41">
+        <f>R43+R48</f>
+        <v>921</v>
+      </c>
+      <c r="S64" s="41">
+        <f>S43+S48</f>
+        <v>765</v>
+      </c>
+      <c r="T64" s="41">
+        <f>T43+T48</f>
+        <v>990</v>
+      </c>
+      <c r="U64" s="41">
+        <f>U43+U48</f>
+        <v>814</v>
+      </c>
+      <c r="V64" s="41">
+        <f t="shared" ref="V64" si="45">V43+V48</f>
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="U53" s="33">
-        <v>7</v>
-      </c>
-      <c r="V53" s="33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="33">
-        <f t="shared" ref="D54:J54" si="25">D47+SUM(D48:D53)</f>
-        <v>1845</v>
-      </c>
-      <c r="E54" s="34">
-        <f t="shared" si="25"/>
-        <v>1848</v>
-      </c>
-      <c r="F54" s="33">
-        <f t="shared" si="25"/>
-        <v>2217</v>
-      </c>
-      <c r="G54" s="34">
-        <f t="shared" si="25"/>
-        <v>2063</v>
-      </c>
-      <c r="H54" s="33">
-        <f t="shared" si="25"/>
-        <v>2140</v>
-      </c>
-      <c r="I54" s="34">
-        <f t="shared" si="25"/>
-        <v>2218</v>
-      </c>
-      <c r="J54" s="33">
-        <f t="shared" si="25"/>
-        <v>2342</v>
-      </c>
-      <c r="S54" s="33">
-        <f>S47+SUM(S48:S53)</f>
-        <v>1990</v>
-      </c>
-      <c r="T54" s="33">
-        <f>T47+SUM(T48:T53)</f>
-        <v>1848</v>
-      </c>
-      <c r="U54" s="33">
-        <f>U47+SUM(U48:U53)</f>
-        <v>2063</v>
-      </c>
-      <c r="V54" s="33">
-        <f>V47+SUM(V48:V53)</f>
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="H55" s="33"/>
-      <c r="I55" s="34"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="33"/>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" s="33">
-        <v>1383</v>
-      </c>
-      <c r="E56" s="34">
-        <v>1504</v>
-      </c>
-      <c r="F56" s="33">
-        <v>1624</v>
-      </c>
-      <c r="G56" s="34">
-        <f>U56</f>
-        <v>1652</v>
-      </c>
-      <c r="H56" s="33">
-        <v>1304</v>
-      </c>
-      <c r="I56" s="34">
-        <v>1111</v>
-      </c>
-      <c r="J56" s="33">
-        <v>1204</v>
-      </c>
-      <c r="S56" s="33">
-        <v>1327</v>
-      </c>
-      <c r="T56" s="33">
-        <v>1504</v>
-      </c>
-      <c r="U56" s="33">
-        <v>1652</v>
-      </c>
-      <c r="V56" s="33">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D57" s="33">
-        <f t="shared" ref="D57:J57" si="26">D56+D54</f>
-        <v>3228</v>
-      </c>
-      <c r="E57" s="34">
-        <f t="shared" si="26"/>
-        <v>3352</v>
-      </c>
-      <c r="F57" s="33">
-        <f t="shared" si="26"/>
-        <v>3841</v>
-      </c>
-      <c r="G57" s="34">
-        <f t="shared" si="26"/>
-        <v>3715</v>
-      </c>
-      <c r="H57" s="33">
-        <f t="shared" si="26"/>
-        <v>3444</v>
-      </c>
-      <c r="I57" s="34">
-        <f t="shared" si="26"/>
-        <v>3329</v>
-      </c>
-      <c r="J57" s="33">
-        <f t="shared" si="26"/>
-        <v>3546</v>
-      </c>
-      <c r="S57" s="33">
-        <f>S56+S54</f>
-        <v>3317</v>
-      </c>
-      <c r="T57" s="33">
-        <f>T56+T54</f>
-        <v>3352</v>
-      </c>
-      <c r="U57" s="33">
-        <f>U56+U54</f>
-        <v>3715</v>
-      </c>
-      <c r="V57" s="33">
-        <f>V56+V54</f>
-        <v>3329</v>
-      </c>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="H58" s="33"/>
-      <c r="I58" s="34"/>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" s="33">
-        <f t="shared" ref="D59:J59" si="27">D39-D54</f>
-        <v>1383</v>
-      </c>
-      <c r="E59" s="34">
-        <f t="shared" si="27"/>
-        <v>1504</v>
-      </c>
-      <c r="F59" s="33">
-        <f t="shared" si="27"/>
-        <v>1624</v>
-      </c>
-      <c r="G59" s="34">
-        <f t="shared" si="27"/>
-        <v>1652</v>
-      </c>
-      <c r="H59" s="33">
-        <f t="shared" si="27"/>
-        <v>1304</v>
-      </c>
-      <c r="I59" s="34">
-        <f t="shared" si="27"/>
-        <v>1111</v>
-      </c>
-      <c r="J59" s="33">
-        <f t="shared" si="27"/>
-        <v>1204</v>
-      </c>
-      <c r="S59" s="33">
-        <f>S39-S54</f>
-        <v>1310</v>
-      </c>
-      <c r="T59" s="33">
-        <f>T39-T54</f>
-        <v>1504</v>
-      </c>
-      <c r="U59" s="33">
-        <f>U39-U54</f>
-        <v>1652</v>
-      </c>
-      <c r="V59" s="33">
-        <f>V39-V54</f>
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D60" s="1">
-        <f t="shared" ref="D60:J60" si="28">D59/D15</f>
-        <v>1.2734806629834254</v>
-      </c>
-      <c r="E60" s="24">
-        <f t="shared" si="28"/>
-        <v>1.3848987108655617</v>
-      </c>
-      <c r="F60" s="1">
-        <f t="shared" si="28"/>
-        <v>1.489908256880734</v>
-      </c>
-      <c r="G60" s="24">
-        <f t="shared" si="28"/>
-        <v>1.5142071494042164</v>
-      </c>
-      <c r="H60" s="1">
-        <f t="shared" si="28"/>
-        <v>1.1919561243144423</v>
-      </c>
-      <c r="I60" s="24">
-        <f t="shared" si="28"/>
-        <v>1.0287037037037037</v>
-      </c>
-      <c r="J60" s="1">
-        <f t="shared" si="28"/>
-        <v>1.1769305962854351</v>
-      </c>
-      <c r="S60" s="1">
-        <f>S59/S15</f>
-        <v>1.2096029547553093</v>
-      </c>
-      <c r="T60" s="1">
-        <f>T59/T15</f>
-        <v>1.3848987108655617</v>
-      </c>
-      <c r="U60" s="1">
-        <f>U59/U15</f>
-        <v>1.5142071494042164</v>
-      </c>
-      <c r="V60" s="1">
-        <f>V59/V15</f>
-        <v>1.0287037037037037</v>
-      </c>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="H61" s="33"/>
-    </row>
-    <row r="62" spans="2:22" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="43">
-        <f t="shared" ref="D62:J62" si="29">D37+D30+D31</f>
-        <v>354</v>
-      </c>
-      <c r="E62" s="44">
-        <f t="shared" si="29"/>
-        <v>375</v>
-      </c>
-      <c r="F62" s="43">
-        <f t="shared" si="29"/>
-        <v>915</v>
-      </c>
-      <c r="G62" s="44">
-        <f t="shared" si="29"/>
-        <v>832</v>
-      </c>
-      <c r="H62" s="43">
-        <f t="shared" si="29"/>
-        <v>713</v>
-      </c>
-      <c r="I62" s="44">
-        <f t="shared" si="29"/>
-        <v>574</v>
-      </c>
-      <c r="J62" s="43">
-        <f t="shared" si="29"/>
-        <v>519</v>
-      </c>
-      <c r="K62" s="42"/>
-      <c r="S62" s="43">
-        <f>S37+S30+S31</f>
-        <v>273</v>
-      </c>
-      <c r="T62" s="43">
-        <f>T37+T30+T31</f>
-        <v>375</v>
-      </c>
-      <c r="U62" s="43">
-        <f>U37+U30+U31</f>
-        <v>832</v>
-      </c>
-      <c r="V62" s="43">
-        <f>V37+V30+V31</f>
-        <v>574</v>
-      </c>
-    </row>
-    <row r="63" spans="2:22" s="41" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="43">
-        <f t="shared" ref="D63:J63" si="30">D43+D48</f>
-        <v>773</v>
-      </c>
-      <c r="E63" s="44">
-        <f t="shared" si="30"/>
-        <v>765</v>
-      </c>
-      <c r="F63" s="43">
-        <f t="shared" si="30"/>
-        <v>1150</v>
-      </c>
-      <c r="G63" s="44">
-        <f t="shared" si="30"/>
-        <v>990</v>
-      </c>
-      <c r="H63" s="43">
-        <f t="shared" si="30"/>
-        <v>807</v>
-      </c>
-      <c r="I63" s="44">
-        <f t="shared" si="30"/>
-        <v>814</v>
-      </c>
-      <c r="J63" s="43">
-        <f t="shared" si="30"/>
-        <v>1165</v>
-      </c>
-      <c r="K63" s="42"/>
-      <c r="S63" s="43">
-        <f>S43+S48</f>
-        <v>921</v>
-      </c>
-      <c r="T63" s="43">
-        <f>T43+T48</f>
-        <v>765</v>
-      </c>
-      <c r="U63" s="43">
-        <f>U43+U48</f>
-        <v>990</v>
-      </c>
-      <c r="V63" s="43">
-        <f>V43+V48</f>
-        <v>814</v>
-      </c>
-    </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="33">
-        <f t="shared" ref="D64:J64" si="31">D62-D63</f>
+      <c r="C65" s="32">
+        <f t="shared" ref="C65:I65" si="46">C63-C64</f>
         <v>-419</v>
       </c>
-      <c r="E64" s="34">
-        <f t="shared" si="31"/>
+      <c r="D65" s="33">
+        <f t="shared" si="46"/>
         <v>-390</v>
       </c>
-      <c r="F64" s="33">
-        <f t="shared" si="31"/>
+      <c r="E65" s="32">
+        <f t="shared" si="46"/>
         <v>-235</v>
       </c>
-      <c r="G64" s="34">
-        <f t="shared" si="31"/>
+      <c r="F65" s="33">
+        <f t="shared" si="46"/>
         <v>-158</v>
       </c>
-      <c r="H64" s="33">
-        <f t="shared" si="31"/>
+      <c r="G65" s="32">
+        <f t="shared" si="46"/>
         <v>-94</v>
       </c>
-      <c r="I64" s="34">
-        <f t="shared" si="31"/>
+      <c r="H65" s="33">
+        <f t="shared" si="46"/>
         <v>-240</v>
       </c>
-      <c r="J64" s="33">
-        <f t="shared" si="31"/>
+      <c r="I65" s="32">
+        <f t="shared" si="46"/>
         <v>-646</v>
       </c>
-      <c r="S64" s="33">
-        <f>S62-S63</f>
+      <c r="J65" s="33">
+        <f t="shared" ref="J65" si="47">J63-J64</f>
+        <v>-729</v>
+      </c>
+      <c r="R65" s="32">
+        <f>R63-R64</f>
         <v>-648</v>
       </c>
-      <c r="T64" s="33">
-        <f>T62-T63</f>
+      <c r="S65" s="32">
+        <f>S63-S64</f>
         <v>-390</v>
       </c>
-      <c r="U64" s="33">
-        <f>U62-U63</f>
+      <c r="T65" s="32">
+        <f>T63-T64</f>
         <v>-158</v>
       </c>
-      <c r="V64" s="33">
-        <f>V62-V63</f>
+      <c r="U65" s="32">
+        <f>U63-U64</f>
         <v>-240</v>
       </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="H65" s="33"/>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
+      <c r="V65" s="32">
+        <f t="shared" ref="V65" si="48">V63-V64</f>
+        <v>-729</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="G66" s="32"/>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B68" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B69" s="1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1" xr:uid="{ABB9BCB2-B255-4966-A56C-8C06AE53AAB4}"/>
-    <hyperlink ref="F1" r:id="rId2" xr:uid="{8788A2F1-131A-4DB6-BFAD-60E157C05804}"/>
-    <hyperlink ref="V1" r:id="rId3" xr:uid="{1BA11437-DB7B-46AF-B538-540ADD6514E3}"/>
-    <hyperlink ref="T1" r:id="rId4" xr:uid="{621E12A8-EF21-434E-ABD4-566CA080C868}"/>
+    <hyperlink ref="I1" r:id="rId1" xr:uid="{ABB9BCB2-B255-4966-A56C-8C06AE53AAB4}"/>
+    <hyperlink ref="E1" r:id="rId2" xr:uid="{8788A2F1-131A-4DB6-BFAD-60E157C05804}"/>
+    <hyperlink ref="U1" r:id="rId3" xr:uid="{1BA11437-DB7B-46AF-B538-540ADD6514E3}"/>
+    <hyperlink ref="S1" r:id="rId4" xr:uid="{621E12A8-EF21-434E-ABD4-566CA080C868}"/>
+    <hyperlink ref="V1" r:id="rId5" xr:uid="{868025EF-C9E4-3A47-BE7A-AE4B223C1AF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="I6:I7 I8 G6:G7 E6:E7 I11 G8 G11 G13 E8 E11 G34:G54" formula="1"/>
+    <ignoredError sqref="H6:H8 H11 F6:F8 F11 F13 D6:D8 D11 J6:J11 F34:F53 J29:J39 J47" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
--- a/£SGE.xlsx
+++ b/£SGE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8428E47-851E-AE40-9DB2-B9FC615FD7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA68B143-821E-46FB-B186-0A6961700E26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33080" windowHeight="18480" activeTab="1" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33075" windowHeight="18480" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,22 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
   <si>
     <t>£SGE</t>
   </si>
@@ -345,18 +335,20 @@
   </si>
   <si>
     <t>H123</t>
+  </si>
+  <si>
+    <t>EV/S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0\x"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -651,24 +643,7 @@
     <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,13 +668,26 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -844,8 +832,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -860,8 +848,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9569450" y="9525"/>
-          <a:ext cx="0" cy="12030075"/>
+          <a:off x="6940550" y="9525"/>
+          <a:ext cx="0" cy="13439775"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -894,8 +882,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -910,8 +898,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16725900" y="0"/>
-          <a:ext cx="0" cy="12360275"/>
+          <a:off x="14249400" y="0"/>
+          <a:ext cx="0" cy="13677900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1236,65 +1224,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB50BB21-6927-4998-A7CD-B755108AED34}">
   <dimension ref="A2:X34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B5" s="51" t="s">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="H5" s="51" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="H5" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="53"/>
-      <c r="T5" s="51" t="s">
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
+      <c r="T5" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="53"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="U5" s="60"/>
+      <c r="V5" s="60"/>
+      <c r="W5" s="60"/>
+      <c r="X5" s="61"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="66">
+      <c r="C6" s="50">
         <v>8.0571999999999999</v>
       </c>
       <c r="D6" s="14"/>
@@ -1316,7 +1304,7 @@
       <c r="W6" s="7"/>
       <c r="X6" s="8"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1342,7 +1330,7 @@
       <c r="W7" s="7"/>
       <c r="X7" s="8"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1367,7 +1355,7 @@
       <c r="W8" s="7"/>
       <c r="X8" s="8"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1394,7 +1382,7 @@
       <c r="W9" s="7"/>
       <c r="X9" s="8"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1421,7 +1409,7 @@
       <c r="W10" s="7"/>
       <c r="X10" s="8"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1448,7 +1436,7 @@
       <c r="W11" s="7"/>
       <c r="X11" s="8"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1473,7 +1461,7 @@
       <c r="W12" s="7"/>
       <c r="X12" s="8"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H13" s="12"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -1490,7 +1478,7 @@
       <c r="W13" s="10"/>
       <c r="X13" s="11"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="H14" s="12"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -1502,12 +1490,12 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="B15" s="51" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
       <c r="H15" s="12"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1519,17 +1507,17 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="61"/>
+      <c r="D16" s="56"/>
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,17 +1532,17 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="61"/>
+      <c r="D17" s="56"/>
       <c r="H17" s="12"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1566,14 +1554,14 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="61"/>
+      <c r="D18" s="56"/>
       <c r="H18" s="12"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1585,14 +1573,14 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="63"/>
+      <c r="D19" s="58"/>
       <c r="H19" s="12"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1604,7 +1592,7 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H20" s="12"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1616,7 +1604,7 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H21" s="12"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -1628,12 +1616,12 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B22" s="51" t="s">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
       <c r="H22" s="12"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1645,14 +1633,14 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="61"/>
+      <c r="D23" s="56"/>
       <c r="H23" s="12"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1664,14 +1652,14 @@
       <c r="P23" s="7"/>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="60">
+      <c r="C24" s="55">
         <v>1981</v>
       </c>
-      <c r="D24" s="61"/>
+      <c r="D24" s="56"/>
       <c r="H24" s="12"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1683,10 +1671,10 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" s="12"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
       <c r="H25" s="12"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1698,10 +1686,10 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
       <c r="H26" s="12"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -1713,7 +1701,7 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
         <v>17</v>
       </c>
@@ -1734,14 +1722,14 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="8"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="65"/>
+      <c r="D28" s="63"/>
       <c r="H28" s="12"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -1753,7 +1741,7 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="8"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H29" s="12"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -1765,7 +1753,7 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="8"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="H30" s="12"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -1777,12 +1765,12 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="8"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B31" s="51" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B31" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="53"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="61"/>
       <c r="H31" s="12"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -1794,15 +1782,15 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="54">
-        <f>C6/(('Financial Model'!I14+'Financial Model'!H14))</f>
-        <v>29.057331309550619</v>
-      </c>
-      <c r="D32" s="55"/>
+      <c r="C32" s="51">
+        <f>C6/'Financial Model'!V14</f>
+        <v>32.35568503937008</v>
+      </c>
+      <c r="D32" s="52"/>
       <c r="H32" s="12"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -1814,15 +1802,15 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="8"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="56">
-        <f>C8/SUM('Financial Model'!H4:I4)</f>
-        <v>4.4592208355941398</v>
-      </c>
-      <c r="D33" s="57"/>
+      <c r="C33" s="51">
+        <f>C8/'Financial Model'!V4</f>
+        <v>4.2210292758089363</v>
+      </c>
+      <c r="D33" s="52"/>
       <c r="H33" s="12"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -1834,15 +1822,15 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="58">
-        <f>C6/'Financial Model'!I61</f>
-        <v>6.8459431893687706</v>
-      </c>
-      <c r="D34" s="59"/>
+      <c r="C34" s="53">
+        <f>C6/'Financial Model'!V61</f>
+        <v>5.9682962962962955</v>
+      </c>
+      <c r="D34" s="54"/>
       <c r="H34" s="13"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -1856,6 +1844,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C16:D16"/>
@@ -1868,13 +1863,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28:D28" r:id="rId1" display="Link" xr:uid="{E398FABE-A8E2-41B0-BEEF-891546DA9EBE}"/>
@@ -1887,31 +1875,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBB68F3-0B4D-4779-B224-181DBEE6F8C1}">
-  <dimension ref="B1:AE69"/>
+  <dimension ref="B1:AE74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="Z70" sqref="Z70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="1"/>
-    <col min="4" max="4" width="9.1640625" style="23"/>
-    <col min="5" max="5" width="9.1640625" style="1"/>
-    <col min="6" max="6" width="9.1640625" style="23"/>
-    <col min="7" max="7" width="9.1640625" style="1"/>
-    <col min="8" max="8" width="9.1640625" style="23"/>
-    <col min="9" max="9" width="9.1640625" style="1"/>
-    <col min="10" max="10" width="9.1640625" style="23"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="23"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.140625" style="23"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="9.140625" style="23"/>
+    <col min="9" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="23"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:31" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="21" t="s">
         <v>32</v>
       </c>
@@ -1982,7 +1970,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="2:31" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:31" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="25"/>
       <c r="C2" s="29">
         <v>43555</v>
@@ -2026,7 +2014,7 @@
         <v>44834</v>
       </c>
     </row>
-    <row r="3" spans="2:31" s="26" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:31" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="25"/>
       <c r="D3" s="46">
         <f>S3</f>
@@ -2056,7 +2044,7 @@
         <v>44881</v>
       </c>
     </row>
-    <row r="4" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -2104,7 +2092,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
@@ -2152,7 +2140,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
@@ -2209,7 +2197,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
@@ -2257,7 +2245,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="8" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
@@ -2314,7 +2302,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
@@ -2362,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
@@ -2410,7 +2398,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
@@ -2467,7 +2455,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
@@ -2515,7 +2503,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
@@ -2572,7 +2560,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
@@ -2629,7 +2617,7 @@
         <v>0.24901960784313726</v>
       </c>
     </row>
-    <row r="15" spans="2:31" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
         <v>4</v>
       </c>
@@ -2677,7 +2665,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
@@ -2734,7 +2722,7 @@
         <v>0.92912172573189522</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
@@ -2791,7 +2779,7 @@
         <v>0.18849512069851052</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
@@ -2848,7 +2836,7 @@
         <v>0.13045711350796096</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>100</v>
       </c>
@@ -2905,7 +2893,7 @@
         <v>0.24629080118694363</v>
       </c>
     </row>
-    <row r="22" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
@@ -2916,38 +2904,38 @@
         <v>92</v>
       </c>
       <c r="E22" s="35">
-        <f>E4/C4-1</f>
+        <f t="shared" ref="E22:J22" si="23">E4/C4-1</f>
         <v>1.8808777429467183E-2</v>
       </c>
       <c r="F22" s="45">
-        <f>F4/D4-1</f>
+        <f t="shared" si="23"/>
         <v>-5.2093973442288055E-2</v>
       </c>
       <c r="G22" s="35">
-        <f>G4/E4-1</f>
+        <f t="shared" si="23"/>
         <v>-3.8974358974358969E-2</v>
       </c>
       <c r="H22" s="45">
-        <f>H4/F4-1</f>
+        <f t="shared" si="23"/>
         <v>-2.0474137931034475E-2</v>
       </c>
       <c r="I22" s="35">
-        <f>I4/G4-1</f>
+        <f t="shared" si="23"/>
         <v>-3.2017075773745907E-3</v>
       </c>
       <c r="J22" s="45">
-        <f>J4/H4-1</f>
+        <f t="shared" si="23"/>
         <v>0.11441144114411439</v>
       </c>
       <c r="R22" s="19" t="s">
         <v>92</v>
       </c>
       <c r="S22" s="43">
-        <f t="shared" ref="S22:T22" si="23">S4/R4-1</f>
+        <f t="shared" ref="S22:T22" si="24">S4/R4-1</f>
         <v>4.8754062838569867E-2</v>
       </c>
       <c r="T22" s="43">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>-1.7045454545454586E-2</v>
       </c>
       <c r="U22" s="43">
@@ -2955,11 +2943,11 @@
         <v>-2.9952706253284278E-2</v>
       </c>
       <c r="V22" s="43">
-        <f t="shared" ref="V22" si="24">V4/U4-1</f>
+        <f t="shared" ref="V22" si="25">V4/U4-1</f>
         <v>5.4712892741061836E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
@@ -2967,31 +2955,31 @@
         <v>92</v>
       </c>
       <c r="D23" s="44">
-        <f t="shared" ref="D23:J23" si="25">D4/C4-1</f>
+        <f t="shared" ref="D23:J23" si="26">D4/C4-1</f>
         <v>2.2988505747126409E-2</v>
       </c>
       <c r="E23" s="31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-4.0858018386108474E-3</v>
       </c>
       <c r="F23" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-4.8205128205128234E-2</v>
       </c>
       <c r="G23" s="31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>9.6982758620689502E-3</v>
       </c>
       <c r="H23" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-2.9882604055496254E-2</v>
       </c>
       <c r="I23" s="31">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>2.7502750275027577E-2</v>
       </c>
       <c r="J23" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>8.4582441113490336E-2</v>
       </c>
       <c r="R23" s="19" t="s">
@@ -3010,12 +2998,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>70</v>
       </c>
@@ -3072,7 +3060,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>71</v>
       </c>
@@ -3118,7 +3106,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>72</v>
       </c>
@@ -3164,7 +3152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>73</v>
       </c>
@@ -3191,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="23">
-        <f t="shared" ref="J31:J38" si="26">-V31</f>
+        <f t="shared" ref="J31:J38" si="27">-V31</f>
         <v>0</v>
       </c>
       <c r="R31" s="37">
@@ -3210,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>74</v>
       </c>
@@ -3224,7 +3212,7 @@
         <v>83</v>
       </c>
       <c r="F32" s="33">
-        <f t="shared" ref="F32:F38" si="27">T32</f>
+        <f t="shared" ref="F32:F38" si="28">T32</f>
         <v>86</v>
       </c>
       <c r="G32" s="32">
@@ -3237,7 +3225,7 @@
         <v>116</v>
       </c>
       <c r="J32" s="23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-128</v>
       </c>
       <c r="R32" s="32">
@@ -3256,7 +3244,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>75</v>
       </c>
@@ -3270,7 +3258,7 @@
         <v>26</v>
       </c>
       <c r="F33" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>35</v>
       </c>
       <c r="G33" s="32">
@@ -3283,7 +3271,7 @@
         <v>34</v>
       </c>
       <c r="J33" s="23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-19</v>
       </c>
       <c r="R33" s="32">
@@ -3302,40 +3290,40 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="32">
-        <f t="shared" ref="C34:J34" si="28">SUM(C28:C33)</f>
+        <f t="shared" ref="C34:J34" si="29">SUM(C28:C33)</f>
         <v>2471</v>
       </c>
       <c r="D34" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2551</v>
       </c>
       <c r="E34" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2585</v>
       </c>
       <c r="F34" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2469</v>
       </c>
       <c r="G34" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2353</v>
       </c>
       <c r="H34" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2405</v>
       </c>
       <c r="I34" s="32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2672</v>
       </c>
       <c r="J34" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2415</v>
       </c>
       <c r="R34" s="32">
@@ -3359,7 +3347,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>74</v>
       </c>
@@ -3373,7 +3361,7 @@
         <v>329</v>
       </c>
       <c r="F35" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>302</v>
       </c>
       <c r="G35" s="32">
@@ -3386,7 +3374,7 @@
         <v>329</v>
       </c>
       <c r="J35" s="23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-335</v>
       </c>
       <c r="R35" s="32">
@@ -3405,7 +3393,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>77</v>
       </c>
@@ -3419,7 +3407,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="G36" s="32">
@@ -3432,7 +3420,7 @@
         <v>28</v>
       </c>
       <c r="J36" s="23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>-39</v>
       </c>
       <c r="R36" s="32">
@@ -3451,7 +3439,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
@@ -3502,7 +3490,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>78</v>
       </c>
@@ -3516,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="33">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>108</v>
       </c>
       <c r="G38" s="32">
@@ -3529,7 +3517,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="23">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R38" s="32">
@@ -3548,40 +3536,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C39" s="32">
-        <f t="shared" ref="C39:J39" si="29">C34+SUM(C35:C38)</f>
+        <f t="shared" ref="C39:J39" si="30">C34+SUM(C35:C38)</f>
         <v>3228</v>
       </c>
       <c r="D39" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3352</v>
       </c>
       <c r="E39" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3841</v>
       </c>
       <c r="F39" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3715</v>
       </c>
       <c r="G39" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3444</v>
       </c>
       <c r="H39" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3329</v>
       </c>
       <c r="I39" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>3546</v>
       </c>
       <c r="J39" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>2530</v>
       </c>
       <c r="R39" s="32">
@@ -3605,7 +3593,7 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="G40" s="32"/>
       <c r="H40" s="33"/>
       <c r="R40" s="32"/>
@@ -3613,7 +3601,7 @@
       <c r="T40" s="32"/>
       <c r="U40" s="32"/>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>80</v>
       </c>
@@ -3627,7 +3615,7 @@
         <v>242</v>
       </c>
       <c r="F41" s="33">
-        <f t="shared" ref="F41:F46" si="30">T41</f>
+        <f t="shared" ref="F41:F46" si="31">T41</f>
         <v>297</v>
       </c>
       <c r="G41" s="32">
@@ -3640,7 +3628,7 @@
         <v>311</v>
       </c>
       <c r="J41" s="23">
-        <f>V41</f>
+        <f t="shared" ref="J41:J46" si="32">V41</f>
         <v>368</v>
       </c>
       <c r="R41" s="32">
@@ -3659,7 +3647,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>77</v>
       </c>
@@ -3673,7 +3661,7 @@
         <v>46</v>
       </c>
       <c r="F42" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>13</v>
       </c>
       <c r="G42" s="32">
@@ -3686,7 +3674,7 @@
         <v>23</v>
       </c>
       <c r="J42" s="23">
-        <f>V42</f>
+        <f t="shared" si="32"/>
         <v>13</v>
       </c>
       <c r="R42" s="32">
@@ -3705,7 +3693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>81</v>
       </c>
@@ -3732,7 +3720,7 @@
         <v>42</v>
       </c>
       <c r="J43" s="30">
-        <f>V43</f>
+        <f t="shared" si="32"/>
         <v>178</v>
       </c>
       <c r="M43" s="1"/>
@@ -3756,7 +3744,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>82</v>
       </c>
@@ -3770,7 +3758,7 @@
         <v>9</v>
       </c>
       <c r="F44" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>19</v>
       </c>
       <c r="G44" s="32">
@@ -3783,7 +3771,7 @@
         <v>44</v>
       </c>
       <c r="J44" s="23">
-        <f>V44</f>
+        <f t="shared" si="32"/>
         <v>33</v>
       </c>
       <c r="R44" s="32">
@@ -3802,7 +3790,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>83</v>
       </c>
@@ -3816,7 +3804,7 @@
         <v>691</v>
       </c>
       <c r="F45" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>593</v>
       </c>
       <c r="G45" s="32">
@@ -3829,7 +3817,7 @@
         <v>705</v>
       </c>
       <c r="J45" s="23">
-        <f>V45</f>
+        <f t="shared" si="32"/>
         <v>734</v>
       </c>
       <c r="R45" s="32">
@@ -3848,7 +3836,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>86</v>
       </c>
@@ -3862,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>73</v>
       </c>
       <c r="G46" s="32">
@@ -3875,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="23">
-        <f>V46</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R46" s="32">
@@ -3894,40 +3882,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C47" s="32">
-        <f t="shared" ref="C47:J47" si="31">SUM(C41:C46)</f>
+        <f t="shared" ref="C47:J47" si="33">SUM(C41:C46)</f>
         <v>1003</v>
       </c>
       <c r="D47" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1126</v>
       </c>
       <c r="E47" s="32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1137</v>
       </c>
       <c r="F47" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1015</v>
       </c>
       <c r="G47" s="32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1322</v>
       </c>
       <c r="H47" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1380</v>
       </c>
       <c r="I47" s="32">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1125</v>
       </c>
       <c r="J47" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>1326</v>
       </c>
       <c r="R47" s="32">
@@ -3951,7 +3939,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="48" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>81</v>
       </c>
@@ -3978,7 +3966,7 @@
         <v>1123</v>
       </c>
       <c r="J48" s="30">
-        <f>V48</f>
+        <f t="shared" ref="J48:J54" si="34">V48</f>
         <v>1044</v>
       </c>
       <c r="M48" s="1"/>
@@ -4002,7 +3990,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>85</v>
       </c>
@@ -4016,7 +4004,7 @@
         <v>26</v>
       </c>
       <c r="F49" s="33">
-        <f t="shared" ref="F49:F53" si="32">T49</f>
+        <f t="shared" ref="F49:F53" si="35">T49</f>
         <v>23</v>
       </c>
       <c r="G49" s="32">
@@ -4029,7 +4017,7 @@
         <v>23</v>
       </c>
       <c r="J49" s="23">
-        <f>V49</f>
+        <f t="shared" si="34"/>
         <v>19</v>
       </c>
       <c r="R49" s="32">
@@ -4048,7 +4036,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>75</v>
       </c>
@@ -4062,7 +4050,7 @@
         <v>27</v>
       </c>
       <c r="F50" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="G50" s="32">
@@ -4075,7 +4063,7 @@
         <v>24</v>
       </c>
       <c r="J50" s="23">
-        <f>V50</f>
+        <f t="shared" si="34"/>
         <v>16</v>
       </c>
       <c r="R50" s="32">
@@ -4094,7 +4082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>82</v>
       </c>
@@ -4108,7 +4096,7 @@
         <v>13</v>
       </c>
       <c r="F51" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>31</v>
       </c>
       <c r="G51" s="32">
@@ -4121,7 +4109,7 @@
         <v>36</v>
       </c>
       <c r="J51" s="23">
-        <f>V51</f>
+        <f t="shared" si="34"/>
         <v>20</v>
       </c>
       <c r="R51" s="32">
@@ -4140,7 +4128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>80</v>
       </c>
@@ -4154,7 +4142,7 @@
         <v>6</v>
       </c>
       <c r="F52" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="G52" s="32">
@@ -4167,7 +4155,7 @@
         <v>2</v>
       </c>
       <c r="J52" s="23">
-        <f>V52</f>
+        <f t="shared" si="34"/>
         <v>6</v>
       </c>
       <c r="R52" s="32">
@@ -4186,7 +4174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>83</v>
       </c>
@@ -4200,7 +4188,7 @@
         <v>7</v>
       </c>
       <c r="F53" s="33">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="G53" s="32">
@@ -4213,7 +4201,7 @@
         <v>9</v>
       </c>
       <c r="J53" s="23">
-        <f>V53</f>
+        <f t="shared" si="34"/>
         <v>8</v>
       </c>
       <c r="R53" s="32">
@@ -4232,7 +4220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>101</v>
       </c>
@@ -4258,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="23">
-        <f>V54</f>
+        <f t="shared" si="34"/>
         <v>60</v>
       </c>
       <c r="R54" s="32">
@@ -4277,40 +4265,40 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C55" s="32">
-        <f>C47+SUM(C48:C54)</f>
+        <f t="shared" ref="C55:J55" si="36">C47+SUM(C48:C54)</f>
         <v>1845</v>
       </c>
       <c r="D55" s="33">
-        <f>D47+SUM(D48:D54)</f>
+        <f t="shared" si="36"/>
         <v>1848</v>
       </c>
       <c r="E55" s="32">
-        <f>E47+SUM(E48:E54)</f>
+        <f t="shared" si="36"/>
         <v>2217</v>
       </c>
       <c r="F55" s="33">
-        <f>F47+SUM(F48:F54)</f>
+        <f t="shared" si="36"/>
         <v>2063</v>
       </c>
       <c r="G55" s="32">
-        <f>G47+SUM(G48:G54)</f>
+        <f t="shared" si="36"/>
         <v>2140</v>
       </c>
       <c r="H55" s="33">
-        <f>H47+SUM(H48:H54)</f>
+        <f t="shared" si="36"/>
         <v>2218</v>
       </c>
       <c r="I55" s="32">
-        <f>I47+SUM(I48:I54)</f>
+        <f t="shared" si="36"/>
         <v>2342</v>
       </c>
       <c r="J55" s="33">
-        <f>J47+SUM(J48:J54)</f>
+        <f t="shared" si="36"/>
         <v>2499</v>
       </c>
       <c r="R55" s="32">
@@ -4334,7 +4322,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
       <c r="G56" s="32"/>
       <c r="H56" s="33"/>
       <c r="R56" s="32"/>
@@ -4342,7 +4330,7 @@
       <c r="T56" s="32"/>
       <c r="U56" s="32"/>
     </row>
-    <row r="57" spans="2:22" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:22" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="32" t="s">
         <v>88</v>
       </c>
@@ -4388,40 +4376,40 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C58" s="32">
-        <f t="shared" ref="C58:J58" si="33">C57+C55</f>
+        <f t="shared" ref="C58:J58" si="37">C57+C55</f>
         <v>3228</v>
       </c>
       <c r="D58" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>3352</v>
       </c>
       <c r="E58" s="32">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>3841</v>
       </c>
       <c r="F58" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>3715</v>
       </c>
       <c r="G58" s="32">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>3444</v>
       </c>
       <c r="H58" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>3329</v>
       </c>
       <c r="I58" s="32">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>3546</v>
       </c>
       <c r="J58" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>3896</v>
       </c>
       <c r="R58" s="32">
@@ -4445,44 +4433,44 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
       <c r="G59" s="32"/>
       <c r="H59" s="33"/>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C60" s="32">
-        <f t="shared" ref="C60:I60" si="34">C39-C55</f>
+        <f t="shared" ref="C60:I60" si="38">C39-C55</f>
         <v>1383</v>
       </c>
       <c r="D60" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1504</v>
       </c>
       <c r="E60" s="32">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1624</v>
       </c>
       <c r="F60" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1652</v>
       </c>
       <c r="G60" s="32">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1304</v>
       </c>
       <c r="H60" s="33">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1111</v>
       </c>
       <c r="I60" s="32">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1204</v>
       </c>
       <c r="J60" s="33">
-        <f t="shared" ref="J60" si="35">J39-J55</f>
+        <f t="shared" ref="J60" si="39">J39-J55</f>
         <v>31</v>
       </c>
       <c r="R60" s="32">
@@ -4502,44 +4490,44 @@
         <v>1111</v>
       </c>
       <c r="V60" s="32">
-        <f t="shared" ref="V60" si="36">V39-V55</f>
+        <f t="shared" ref="V60" si="40">V39-V55</f>
         <v>1377</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" ref="C61:I61" si="37">C60/C15</f>
+        <f t="shared" ref="C61:I61" si="41">C60/C15</f>
         <v>1.2734806629834254</v>
       </c>
       <c r="D61" s="23">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>1.3848987108655617</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>1.489908256880734</v>
       </c>
       <c r="F61" s="23">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>1.5142071494042164</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>1.1919561243144423</v>
       </c>
       <c r="H61" s="23">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>1.0287037037037037</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>1.1769305962854351</v>
       </c>
       <c r="J61" s="23">
-        <f t="shared" ref="J61" si="38">J60/J15</f>
+        <f t="shared" ref="J61" si="42">J60/J15</f>
         <v>3.0392156862745098E-2</v>
       </c>
       <c r="R61" s="1">
@@ -4559,47 +4547,47 @@
         <v>1.0287037037037037</v>
       </c>
       <c r="V61" s="1">
-        <f t="shared" ref="V61" si="39">V60/V15</f>
+        <f t="shared" ref="V61" si="43">V60/V15</f>
         <v>1.35</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
       <c r="G62" s="32"/>
     </row>
-    <row r="63" spans="2:22" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:22" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C63" s="41">
-        <f t="shared" ref="C63:I63" si="40">C37+C30+C31</f>
+        <f t="shared" ref="C63:I63" si="44">C37+C30+C31</f>
         <v>354</v>
       </c>
       <c r="D63" s="42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>375</v>
       </c>
       <c r="E63" s="41">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>915</v>
       </c>
       <c r="F63" s="42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>832</v>
       </c>
       <c r="G63" s="41">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>713</v>
       </c>
       <c r="H63" s="42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>574</v>
       </c>
       <c r="I63" s="41">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>519</v>
       </c>
       <c r="J63" s="42">
-        <f t="shared" ref="J63" si="41">J37+J30+J31</f>
+        <f t="shared" ref="J63" si="45">J37+J30+J31</f>
         <v>493</v>
       </c>
       <c r="R63" s="41">
@@ -4619,44 +4607,44 @@
         <v>574</v>
       </c>
       <c r="V63" s="41">
-        <f t="shared" ref="V63" si="42">V37+V30+V31</f>
+        <f t="shared" ref="V63" si="46">V37+V30+V31</f>
         <v>493</v>
       </c>
     </row>
-    <row r="64" spans="2:22" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:22" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="40" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="41">
-        <f t="shared" ref="C64:I64" si="43">C43+C48</f>
+        <f t="shared" ref="C64:I64" si="47">C43+C48</f>
         <v>773</v>
       </c>
       <c r="D64" s="42">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>765</v>
       </c>
       <c r="E64" s="41">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1150</v>
       </c>
       <c r="F64" s="42">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>990</v>
       </c>
       <c r="G64" s="41">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>807</v>
       </c>
       <c r="H64" s="42">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>814</v>
       </c>
       <c r="I64" s="41">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1165</v>
       </c>
       <c r="J64" s="42">
-        <f t="shared" ref="J64" si="44">J43+J48</f>
+        <f t="shared" ref="J64" si="48">J43+J48</f>
         <v>1222</v>
       </c>
       <c r="R64" s="41">
@@ -4676,44 +4664,44 @@
         <v>814</v>
       </c>
       <c r="V64" s="41">
-        <f t="shared" ref="V64" si="45">V43+V48</f>
+        <f t="shared" ref="V64" si="49">V43+V48</f>
         <v>1222</v>
       </c>
     </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="32">
-        <f t="shared" ref="C65:I65" si="46">C63-C64</f>
+        <f t="shared" ref="C65:I65" si="50">C63-C64</f>
         <v>-419</v>
       </c>
       <c r="D65" s="33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-390</v>
       </c>
       <c r="E65" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-235</v>
       </c>
       <c r="F65" s="33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-158</v>
       </c>
       <c r="G65" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-94</v>
       </c>
       <c r="H65" s="33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-240</v>
       </c>
       <c r="I65" s="32">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>-646</v>
       </c>
       <c r="J65" s="33">
-        <f t="shared" ref="J65" si="47">J63-J64</f>
+        <f t="shared" ref="J65" si="51">J63-J64</f>
         <v>-729</v>
       </c>
       <c r="R65" s="32">
@@ -4733,26 +4721,181 @@
         <v>-240</v>
       </c>
       <c r="V65" s="32">
-        <f t="shared" ref="V65" si="48">V63-V64</f>
+        <f t="shared" ref="V65" si="52">V63-V64</f>
         <v>-729</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="G66" s="32"/>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="R67" s="1">
+        <v>5.3022</v>
+      </c>
+      <c r="S67" s="1">
+        <v>6.9139999999999997</v>
+      </c>
+      <c r="T67" s="1">
+        <v>7.2080000000000002</v>
+      </c>
+      <c r="U67" s="1">
+        <v>7.0960000000000001</v>
+      </c>
+      <c r="V67" s="1">
+        <v>6.9720000000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="R68" s="65">
+        <f t="shared" ref="R68:U68" si="53">R67*R15</f>
+        <v>5742.2826000000005</v>
+      </c>
+      <c r="S68" s="65">
+        <f t="shared" si="53"/>
+        <v>7508.6039999999994</v>
+      </c>
+      <c r="T68" s="65">
+        <f t="shared" si="53"/>
+        <v>7863.9279999999999</v>
+      </c>
+      <c r="U68" s="65">
+        <f t="shared" si="53"/>
+        <v>7663.68</v>
+      </c>
+      <c r="V68" s="65">
+        <f>V67*V15</f>
+        <v>7111.4400000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="R69" s="32">
+        <f t="shared" ref="R69:U69" si="54">R68-R65</f>
+        <v>6390.2826000000005</v>
+      </c>
+      <c r="S69" s="32">
+        <f t="shared" si="54"/>
+        <v>7898.6039999999994</v>
+      </c>
+      <c r="T69" s="32">
+        <f t="shared" si="54"/>
+        <v>8021.9279999999999</v>
+      </c>
+      <c r="U69" s="32">
+        <f t="shared" si="54"/>
+        <v>7903.68</v>
+      </c>
+      <c r="V69" s="32">
+        <f>V68-V65</f>
+        <v>7840.4400000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R71" s="66">
+        <f t="shared" ref="R71:V71" si="55">R67/R61</f>
+        <v>4.3834218320610692</v>
+      </c>
+      <c r="S71" s="66">
+        <f t="shared" si="55"/>
+        <v>4.9924228723404251</v>
+      </c>
+      <c r="T71" s="66">
+        <f t="shared" si="55"/>
+        <v>4.760246973365617</v>
+      </c>
+      <c r="U71" s="66">
+        <f t="shared" si="55"/>
+        <v>6.8980018001800181</v>
+      </c>
+      <c r="V71" s="66">
+        <f>V67/V61</f>
+        <v>5.1644444444444444</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R72" s="66">
+        <f t="shared" ref="R72:V72" si="56">R68/R4</f>
+        <v>3.1106622968580719</v>
+      </c>
+      <c r="S72" s="66">
+        <f t="shared" si="56"/>
+        <v>3.878411157024793</v>
+      </c>
+      <c r="T72" s="66">
+        <f t="shared" si="56"/>
+        <v>4.1323846558066206</v>
+      </c>
+      <c r="U72" s="66">
+        <f t="shared" si="56"/>
+        <v>4.1515059588299028</v>
+      </c>
+      <c r="V72" s="66">
+        <f>V68/V4</f>
+        <v>3.6525115562403703</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="R73" s="66">
+        <f t="shared" ref="R73:V73" si="57">R69/R4</f>
+        <v>3.4616915492957747</v>
+      </c>
+      <c r="S73" s="66">
+        <f t="shared" si="57"/>
+        <v>4.0798574380165284</v>
+      </c>
+      <c r="T73" s="66">
+        <f t="shared" si="57"/>
+        <v>4.2154114555964268</v>
+      </c>
+      <c r="U73" s="66">
+        <f t="shared" si="57"/>
+        <v>4.2815167930660891</v>
+      </c>
+      <c r="V73" s="66">
+        <f>V69/V4</f>
+        <v>4.0269337442218802</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R74" s="66">
+        <f t="shared" ref="R74:V74" si="58">R67/R14</f>
+        <v>19.465364745762713</v>
+      </c>
+      <c r="S74" s="66">
+        <f t="shared" si="58"/>
+        <v>28.227834586466162</v>
+      </c>
+      <c r="T74" s="66">
+        <f t="shared" si="58"/>
+        <v>25.367509677419356</v>
+      </c>
+      <c r="U74" s="66">
+        <f t="shared" si="58"/>
+        <v>26.890105263157896</v>
+      </c>
+      <c r="V74" s="66">
+        <f>V67/V14</f>
+        <v>27.997795275590551</v>
       </c>
     </row>
   </sheetData>
@@ -4764,9 +4907,10 @@
     <hyperlink ref="V1" r:id="rId5" xr:uid="{868025EF-C9E4-3A47-BE7A-AE4B223C1AF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
   <ignoredErrors>
     <ignoredError sqref="H6:H8 H11 F6:F8 F11 F13 D6:D8 D11 J6:J11 F34:F53 J29:J39 J47" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/£SGE.xlsx
+++ b/£SGE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA68B143-821E-46FB-B186-0A6961700E26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7289A0CE-0EE4-4884-BD0B-B5379375727D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33075" windowHeight="18480" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
   <si>
     <t>£SGE</t>
   </si>
@@ -338,17 +338,22 @@
   </si>
   <si>
     <t>EV/S</t>
+  </si>
+  <si>
+    <t>IPO</t>
+  </si>
+  <si>
+    <t>H223</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0\x"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -554,7 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -623,8 +628,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -636,24 +640,33 @@
     <xf numFmtId="3" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -686,8 +699,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1225,7 +1236,7 @@
   <dimension ref="A2:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1238,14 +1249,14 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1253,37 +1264,37 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="H5" s="59" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
+      <c r="H5" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="T5" s="59" t="s">
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
+      <c r="T5" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="60"/>
-      <c r="X5" s="61"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="65"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="50">
-        <v>8.0571999999999999</v>
+      <c r="C6" s="48">
+        <v>7.4459999999999997</v>
       </c>
       <c r="D6" s="14"/>
       <c r="H6" s="12"/>
@@ -1296,7 +1307,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="8"/>
-      <c r="T6" s="48" t="s">
+      <c r="T6" s="46" t="s">
         <v>96</v>
       </c>
       <c r="U6" s="7"/>
@@ -1324,7 +1335,7 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="8"/>
-      <c r="T7" s="48"/>
+      <c r="T7" s="46"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
@@ -1336,7 +1347,7 @@
       </c>
       <c r="C8" s="16">
         <f>C6*C7</f>
-        <v>8218.3439999999991</v>
+        <v>7594.92</v>
       </c>
       <c r="D8" s="14"/>
       <c r="H8" s="12"/>
@@ -1349,7 +1360,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="8"/>
-      <c r="T8" s="48"/>
+      <c r="T8" s="46"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
@@ -1376,7 +1387,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="8"/>
-      <c r="T9" s="48"/>
+      <c r="T9" s="46"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
@@ -1403,7 +1414,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="8"/>
-      <c r="T10" s="48"/>
+      <c r="T10" s="46"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
@@ -1430,7 +1441,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="8"/>
-      <c r="T11" s="48"/>
+      <c r="T11" s="46"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
@@ -1442,7 +1453,7 @@
       </c>
       <c r="C12" s="17">
         <f>C8-C11</f>
-        <v>8947.3439999999991</v>
+        <v>8323.92</v>
       </c>
       <c r="D12" s="15"/>
       <c r="H12" s="12"/>
@@ -1455,7 +1466,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="8"/>
-      <c r="T12" s="48"/>
+      <c r="T12" s="46"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
@@ -1472,7 +1483,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="8"/>
-      <c r="T13" s="49"/>
+      <c r="T13" s="47"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
@@ -1491,11 +1502,11 @@
       <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
       <c r="H15" s="12"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1514,10 +1525,10 @@
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="56"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1539,10 +1550,10 @@
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="56"/>
+      <c r="D17" s="60"/>
       <c r="H17" s="12"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1558,10 +1569,10 @@
       <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="56"/>
+      <c r="D18" s="60"/>
       <c r="H18" s="12"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1577,10 +1588,10 @@
       <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="58"/>
+      <c r="D19" s="62"/>
       <c r="H19" s="12"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1617,11 +1628,11 @@
       <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
       <c r="H22" s="12"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1637,10 +1648,10 @@
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="56"/>
+      <c r="D23" s="60"/>
       <c r="H23" s="12"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1656,10 +1667,10 @@
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="59">
         <v>1981</v>
       </c>
-      <c r="D24" s="56"/>
+      <c r="D24" s="60"/>
       <c r="H24" s="12"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1672,9 +1683,13 @@
       <c r="Q24" s="8"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="12"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
+      <c r="B25" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="59">
+        <v>1989</v>
+      </c>
+      <c r="D25" s="60"/>
       <c r="H25" s="12"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1688,8 +1703,8 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
       <c r="H26" s="12"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -1726,10 +1741,10 @@
       <c r="B28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="63"/>
+      <c r="D28" s="67"/>
       <c r="H28" s="12"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -1766,11 +1781,11 @@
       <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="61"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
       <c r="H31" s="12"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -1786,11 +1801,11 @@
       <c r="B32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="51">
+      <c r="C32" s="55">
         <f>C6/'Financial Model'!V14</f>
-        <v>32.35568503937008</v>
-      </c>
-      <c r="D32" s="52"/>
+        <v>29.901259842519682</v>
+      </c>
+      <c r="D32" s="56"/>
       <c r="H32" s="12"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -1806,11 +1821,11 @@
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="55">
         <f>C8/'Financial Model'!V4</f>
-        <v>4.2210292758089363</v>
-      </c>
-      <c r="D33" s="52"/>
+        <v>3.9008320493066257</v>
+      </c>
+      <c r="D33" s="56"/>
       <c r="H33" s="12"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -1826,11 +1841,11 @@
       <c r="B34" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="57">
         <f>C6/'Financial Model'!V61</f>
-        <v>5.9682962962962955</v>
-      </c>
-      <c r="D34" s="54"/>
+        <v>5.5155555555555553</v>
+      </c>
+      <c r="D34" s="58"/>
       <c r="H34" s="13"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -1878,10 +1893,10 @@
   <dimension ref="B1:AE74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C34" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z70" sqref="Z70"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1896,7 +1911,9 @@
     <col min="8" max="8" width="9.140625" style="23"/>
     <col min="9" max="9" width="9.140625" style="1"/>
     <col min="10" max="10" width="9.140625" style="23"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="9.140625" style="23"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:31" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -1927,6 +1944,9 @@
       <c r="K1" s="21" t="s">
         <v>102</v>
       </c>
+      <c r="L1" s="22" t="s">
+        <v>105</v>
+      </c>
       <c r="R1" s="21" t="s">
         <v>55</v>
       </c>
@@ -1975,29 +1995,30 @@
       <c r="C2" s="29">
         <v>43555</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="38">
         <v>43738</v>
       </c>
       <c r="E2" s="29">
         <v>43921</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="38">
         <f>T2</f>
         <v>44104</v>
       </c>
       <c r="G2" s="29">
         <v>44286</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="38">
         <v>44469</v>
       </c>
       <c r="I2" s="29">
         <v>44651</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="38">
         <f>V2</f>
         <v>44834</v>
       </c>
+      <c r="L2" s="27"/>
       <c r="R2" s="29">
         <v>43373</v>
       </c>
@@ -2016,7 +2037,7 @@
     </row>
     <row r="3" spans="2:31" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="25"/>
-      <c r="D3" s="46">
+      <c r="D3" s="44">
         <f>S3</f>
         <v>43789</v>
       </c>
@@ -2024,16 +2045,17 @@
         <v>43964</v>
       </c>
       <c r="F3" s="27"/>
-      <c r="H3" s="46">
+      <c r="H3" s="44">
         <f>U3</f>
         <v>44517</v>
       </c>
       <c r="I3" s="28">
         <v>44694</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3" s="44">
         <v>44881</v>
       </c>
+      <c r="L3" s="27"/>
       <c r="S3" s="28">
         <v>43789</v>
       </c>
@@ -2051,44 +2073,45 @@
       <c r="C4" s="2">
         <v>957</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="37">
         <f>S4-C4</f>
         <v>979</v>
       </c>
       <c r="E4" s="2">
         <v>975</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="37">
         <f>T4-E4</f>
         <v>928</v>
       </c>
       <c r="G4" s="2">
         <v>937</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="37">
         <f>U4-G4</f>
         <v>909</v>
       </c>
       <c r="I4" s="2">
         <v>934</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="37">
         <f>V4-I4</f>
         <v>1013</v>
       </c>
-      <c r="R4" s="37">
+      <c r="L4" s="30"/>
+      <c r="R4" s="36">
         <v>1846</v>
       </c>
-      <c r="S4" s="37">
+      <c r="S4" s="36">
         <v>1936</v>
       </c>
-      <c r="T4" s="37">
+      <c r="T4" s="36">
         <v>1903</v>
       </c>
-      <c r="U4" s="37">
+      <c r="U4" s="36">
         <v>1846</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="36">
         <v>1947</v>
       </c>
     </row>
@@ -2136,7 +2159,7 @@
       <c r="U5" s="32">
         <v>131</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="32">
         <v>138</v>
       </c>
     </row>
@@ -2148,7 +2171,7 @@
         <f t="shared" ref="C6:J6" si="0">C4-C5</f>
         <v>887</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <f t="shared" si="0"/>
         <v>911</v>
       </c>
@@ -2156,7 +2179,7 @@
         <f t="shared" si="0"/>
         <v>911</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="37">
         <f t="shared" si="0"/>
         <v>866</v>
       </c>
@@ -2164,7 +2187,7 @@
         <f t="shared" si="0"/>
         <v>865</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="37">
         <f t="shared" si="0"/>
         <v>850</v>
       </c>
@@ -2172,27 +2195,28 @@
         <f t="shared" si="0"/>
         <v>866</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="37">
         <f t="shared" si="0"/>
         <v>943</v>
       </c>
-      <c r="R6" s="37">
+      <c r="L6" s="30"/>
+      <c r="R6" s="36">
         <f>R4-R5</f>
         <v>1716</v>
       </c>
-      <c r="S6" s="37">
+      <c r="S6" s="36">
         <f>S4-S5</f>
         <v>1798</v>
       </c>
-      <c r="T6" s="37">
+      <c r="T6" s="36">
         <f>T4-T5</f>
         <v>1777</v>
       </c>
-      <c r="U6" s="37">
+      <c r="U6" s="36">
         <f>U4-U5</f>
         <v>1715</v>
       </c>
-      <c r="V6" s="37">
+      <c r="V6" s="36">
         <f>V4-V5</f>
         <v>1809</v>
       </c>
@@ -2241,7 +2265,7 @@
       <c r="U7" s="32">
         <v>1342</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="32">
         <v>1442</v>
       </c>
     </row>
@@ -2253,7 +2277,7 @@
         <f t="shared" ref="C8:J8" si="1">C6-C7</f>
         <v>210</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <f t="shared" si="1"/>
         <v>172</v>
       </c>
@@ -2261,7 +2285,7 @@
         <f t="shared" si="1"/>
         <v>289</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="37">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
@@ -2269,7 +2293,7 @@
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="37">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
@@ -2277,27 +2301,28 @@
         <f t="shared" si="1"/>
         <v>204</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="37">
         <f t="shared" si="1"/>
         <v>163</v>
       </c>
-      <c r="R8" s="37">
+      <c r="L8" s="30"/>
+      <c r="R8" s="36">
         <f>R6-R7</f>
         <v>427</v>
       </c>
-      <c r="S8" s="37">
+      <c r="S8" s="36">
         <f>S6-S7</f>
         <v>382</v>
       </c>
-      <c r="T8" s="37">
+      <c r="T8" s="36">
         <f>T6-T7</f>
         <v>404</v>
       </c>
-      <c r="U8" s="37">
+      <c r="U8" s="36">
         <f>U6-U7</f>
         <v>373</v>
       </c>
-      <c r="V8" s="37">
+      <c r="V8" s="36">
         <f>V6-V7</f>
         <v>367</v>
       </c>
@@ -2346,7 +2371,7 @@
       <c r="U9" s="32">
         <v>1</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="32">
         <v>1</v>
       </c>
     </row>
@@ -2394,7 +2419,7 @@
       <c r="U10" s="32">
         <v>27</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="32">
         <v>31</v>
       </c>
     </row>
@@ -2499,7 +2524,7 @@
       <c r="U12" s="32">
         <v>62</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="32">
         <v>83</v>
       </c>
     </row>
@@ -2511,7 +2536,7 @@
         <f t="shared" ref="C13:J13" si="4">C11-C12</f>
         <v>154</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <f t="shared" si="4"/>
         <v>112</v>
       </c>
@@ -2519,7 +2544,7 @@
         <f t="shared" si="4"/>
         <v>224</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="37">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
@@ -2527,7 +2552,7 @@
         <f t="shared" si="4"/>
         <v>146</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="37">
         <f t="shared" si="4"/>
         <v>139</v>
       </c>
@@ -2535,27 +2560,28 @@
         <f t="shared" si="4"/>
         <v>152</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="37">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="R13" s="37">
+      <c r="L13" s="30"/>
+      <c r="R13" s="36">
         <f>R11-R12</f>
         <v>295</v>
       </c>
-      <c r="S13" s="37">
+      <c r="S13" s="36">
         <f>S11-S12</f>
         <v>266</v>
       </c>
-      <c r="T13" s="37">
+      <c r="T13" s="36">
         <f>T11-T12</f>
         <v>310</v>
       </c>
-      <c r="U13" s="37">
+      <c r="U13" s="36">
         <f>U11-U12</f>
         <v>285</v>
       </c>
-      <c r="V13" s="37">
+      <c r="V13" s="36">
         <f>V11-V12</f>
         <v>254</v>
       </c>
@@ -2568,7 +2594,7 @@
         <f t="shared" ref="C14:J14" si="5">C13/C15</f>
         <v>0.14180478821362799</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="45">
         <f t="shared" si="5"/>
         <v>0.10313075506445672</v>
       </c>
@@ -2576,7 +2602,7 @@
         <f t="shared" si="5"/>
         <v>0.20550458715596331</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="45">
         <f t="shared" si="5"/>
         <v>7.8826764436296978E-2</v>
       </c>
@@ -2584,7 +2610,7 @@
         <f t="shared" si="5"/>
         <v>0.13345521023765997</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="45">
         <f t="shared" si="5"/>
         <v>0.12870370370370371</v>
       </c>
@@ -2592,7 +2618,7 @@
         <f t="shared" si="5"/>
         <v>0.14858260019550343</v>
       </c>
-      <c r="J14" s="47">
+      <c r="J14" s="45">
         <f t="shared" si="5"/>
         <v>0.1</v>
       </c>
@@ -2612,7 +2638,7 @@
         <f>U13/U15</f>
         <v>0.2638888888888889</v>
       </c>
-      <c r="V14" s="34">
+      <c r="V14" s="32">
         <f>V13/V15</f>
         <v>0.24901960784313726</v>
       </c>
@@ -2649,6 +2675,7 @@
         <f>V15</f>
         <v>1020</v>
       </c>
+      <c r="L15" s="33"/>
       <c r="R15" s="32">
         <v>1083</v>
       </c>
@@ -2673,7 +2700,7 @@
         <f t="shared" ref="C17:I17" si="7">C6/C4</f>
         <v>0.92685475444096133</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="43">
         <f t="shared" si="7"/>
         <v>0.93054136874361593</v>
       </c>
@@ -2681,7 +2708,7 @@
         <f t="shared" si="7"/>
         <v>0.9343589743589743</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="43">
         <f t="shared" si="7"/>
         <v>0.93318965517241381</v>
       </c>
@@ -2689,7 +2716,7 @@
         <f t="shared" si="7"/>
         <v>0.9231590181430096</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="43">
         <f t="shared" si="7"/>
         <v>0.93509350935093505</v>
       </c>
@@ -2697,7 +2724,7 @@
         <f t="shared" si="7"/>
         <v>0.9271948608137045</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="43">
         <f t="shared" ref="J17" si="8">J6/J4</f>
         <v>0.93089832181638699</v>
       </c>
@@ -2730,7 +2757,7 @@
         <f t="shared" ref="C18:I18" si="11">C8/C4</f>
         <v>0.21943573667711599</v>
       </c>
-      <c r="D18" s="44">
+      <c r="D18" s="43">
         <f t="shared" si="11"/>
         <v>0.17568947906026558</v>
       </c>
@@ -2738,7 +2765,7 @@
         <f t="shared" si="11"/>
         <v>0.29641025641025642</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="43">
         <f t="shared" si="11"/>
         <v>0.12392241379310345</v>
       </c>
@@ -2746,7 +2773,7 @@
         <f t="shared" si="11"/>
         <v>0.21664887940234792</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="43">
         <f t="shared" si="11"/>
         <v>0.18701870187018702</v>
       </c>
@@ -2754,7 +2781,7 @@
         <f t="shared" si="11"/>
         <v>0.21841541755888652</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="43">
         <f t="shared" ref="J18" si="12">J8/J4</f>
         <v>0.16090819348469892</v>
       </c>
@@ -2787,7 +2814,7 @@
         <f t="shared" ref="C19:I19" si="15">C13/C4</f>
         <v>0.16091954022988506</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="43">
         <f t="shared" si="15"/>
         <v>0.11440245148110317</v>
       </c>
@@ -2795,7 +2822,7 @@
         <f t="shared" si="15"/>
         <v>0.22974358974358974</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="43">
         <f t="shared" si="15"/>
         <v>9.2672413793103453E-2</v>
       </c>
@@ -2803,7 +2830,7 @@
         <f t="shared" si="15"/>
         <v>0.15581643543223053</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="43">
         <f t="shared" si="15"/>
         <v>0.15291529152915292</v>
       </c>
@@ -2811,7 +2838,7 @@
         <f t="shared" si="15"/>
         <v>0.16274089935760172</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="43">
         <f t="shared" ref="J19" si="16">J13/J4</f>
         <v>0.10069101678183613</v>
       </c>
@@ -2844,7 +2871,7 @@
         <f t="shared" ref="C20:I20" si="19">C12/C11</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="43">
         <f t="shared" si="19"/>
         <v>0.31288343558282211</v>
       </c>
@@ -2852,7 +2879,7 @@
         <f t="shared" si="19"/>
         <v>0.18545454545454546</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="43">
         <f t="shared" si="19"/>
         <v>0.12244897959183673</v>
       </c>
@@ -2860,7 +2887,7 @@
         <f t="shared" si="19"/>
         <v>0.23157894736842105</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="43">
         <f t="shared" si="19"/>
         <v>0.11464968152866242</v>
       </c>
@@ -2868,7 +2895,7 @@
         <f t="shared" si="19"/>
         <v>0.19576719576719576</v>
       </c>
-      <c r="J20" s="44">
+      <c r="J20" s="43">
         <f t="shared" ref="J20" si="20">J12/J11</f>
         <v>0.3108108108108108</v>
       </c>
@@ -2897,52 +2924,53 @@
       <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="42">
         <f t="shared" ref="E22:J22" si="23">E4/C4-1</f>
         <v>1.8808777429467183E-2</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="53">
         <f t="shared" si="23"/>
         <v>-5.2093973442288055E-2</v>
       </c>
-      <c r="G22" s="35">
+      <c r="G22" s="42">
         <f t="shared" si="23"/>
         <v>-3.8974358974358969E-2</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="53">
         <f t="shared" si="23"/>
         <v>-2.0474137931034475E-2</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="42">
         <f t="shared" si="23"/>
         <v>-3.2017075773745907E-3</v>
       </c>
-      <c r="J22" s="45">
+      <c r="J22" s="53">
         <f t="shared" si="23"/>
         <v>0.11441144114411439</v>
       </c>
+      <c r="L22" s="30"/>
       <c r="R22" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="S22" s="43">
+      <c r="S22" s="42">
         <f t="shared" ref="S22:T22" si="24">S4/R4-1</f>
         <v>4.8754062838569867E-2</v>
       </c>
-      <c r="T22" s="43">
+      <c r="T22" s="42">
         <f t="shared" si="24"/>
         <v>-1.7045454545454586E-2</v>
       </c>
-      <c r="U22" s="43">
+      <c r="U22" s="42">
         <f>U4/T4-1</f>
         <v>-2.9952706253284278E-2</v>
       </c>
-      <c r="V22" s="43">
+      <c r="V22" s="42">
         <f t="shared" ref="V22" si="25">V4/U4-1</f>
         <v>5.4712892741061836E-2</v>
       </c>
@@ -2954,7 +2982,7 @@
       <c r="C23" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="43">
         <f t="shared" ref="D23:J23" si="26">D4/C4-1</f>
         <v>2.2988505747126409E-2</v>
       </c>
@@ -2962,7 +2990,7 @@
         <f t="shared" si="26"/>
         <v>-4.0858018386108474E-3</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="43">
         <f t="shared" si="26"/>
         <v>-4.8205128205128234E-2</v>
       </c>
@@ -2970,7 +2998,7 @@
         <f t="shared" si="26"/>
         <v>9.6982758620689502E-3</v>
       </c>
-      <c r="H23" s="44">
+      <c r="H23" s="43">
         <f t="shared" si="26"/>
         <v>-2.9882604055496254E-2</v>
       </c>
@@ -2978,7 +3006,7 @@
         <f t="shared" si="26"/>
         <v>2.7502750275027577E-2</v>
       </c>
-      <c r="J23" s="44">
+      <c r="J23" s="43">
         <f t="shared" si="26"/>
         <v>8.4582441113490336E-2</v>
       </c>
@@ -2999,7 +3027,7 @@
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="35" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3110,42 +3138,43 @@
       <c r="B30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="36">
         <v>0</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="37">
         <v>0</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="36">
         <v>0</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="37">
         <f>T30</f>
         <v>0</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="36">
         <v>19</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="37">
         <v>21</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="36">
         <v>4</v>
       </c>
       <c r="J30" s="30">
         <f>V30</f>
         <v>4</v>
       </c>
-      <c r="R30" s="37">
+      <c r="L30" s="30"/>
+      <c r="R30" s="36">
         <v>0</v>
       </c>
-      <c r="S30" s="37">
+      <c r="S30" s="36">
         <v>0</v>
       </c>
-      <c r="T30" s="37">
+      <c r="T30" s="36">
         <v>0</v>
       </c>
-      <c r="U30" s="37">
+      <c r="U30" s="36">
         <v>21</v>
       </c>
       <c r="V30" s="2">
@@ -3156,42 +3185,43 @@
       <c r="B31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="36">
         <v>3</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="37">
         <v>4</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="36">
         <v>3</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="37">
         <f>T31</f>
         <v>1</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="36">
         <v>1</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="37">
         <v>0</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="36">
         <v>0</v>
       </c>
       <c r="J31" s="23">
         <f t="shared" ref="J31:J38" si="27">-V31</f>
         <v>0</v>
       </c>
-      <c r="R31" s="37">
+      <c r="L31" s="30"/>
+      <c r="R31" s="36">
         <v>1</v>
       </c>
-      <c r="S31" s="37">
+      <c r="S31" s="36">
         <v>4</v>
       </c>
-      <c r="T31" s="37">
+      <c r="T31" s="36">
         <v>1</v>
       </c>
-      <c r="U31" s="37">
+      <c r="U31" s="36">
         <v>0</v>
       </c>
       <c r="V31" s="2">
@@ -3443,23 +3473,23 @@
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="36">
         <v>351</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="37">
         <v>371</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="36">
         <v>912</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="37">
         <f>T37</f>
         <v>831</v>
       </c>
-      <c r="G37" s="37">
+      <c r="G37" s="36">
         <v>693</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H37" s="37">
         <v>553</v>
       </c>
       <c r="I37" s="2">
@@ -3469,21 +3499,22 @@
         <f>V37</f>
         <v>489</v>
       </c>
+      <c r="L37" s="30"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="37">
+      <c r="R37" s="36">
         <v>272</v>
       </c>
-      <c r="S37" s="37">
+      <c r="S37" s="36">
         <v>371</v>
       </c>
-      <c r="T37" s="37">
+      <c r="T37" s="36">
         <v>831</v>
       </c>
-      <c r="U37" s="37">
+      <c r="U37" s="36">
         <v>553</v>
       </c>
       <c r="V37" s="2">
@@ -3697,47 +3728,48 @@
       <c r="B43" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="36">
         <v>5</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="37">
         <v>122</v>
       </c>
-      <c r="E43" s="37">
+      <c r="E43" s="36">
         <v>149</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="37">
         <f>T43</f>
         <v>20</v>
       </c>
-      <c r="G43" s="37">
+      <c r="G43" s="36">
         <v>65</v>
       </c>
-      <c r="H43" s="38">
+      <c r="H43" s="37">
         <v>65</v>
       </c>
-      <c r="I43" s="37">
+      <c r="I43" s="36">
         <v>42</v>
       </c>
       <c r="J43" s="30">
         <f t="shared" si="32"/>
         <v>178</v>
       </c>
+      <c r="L43" s="30"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-      <c r="R43" s="37">
+      <c r="R43" s="36">
         <v>8</v>
       </c>
-      <c r="S43" s="37">
+      <c r="S43" s="36">
         <v>122</v>
       </c>
-      <c r="T43" s="37">
+      <c r="T43" s="36">
         <v>20</v>
       </c>
-      <c r="U43" s="37">
+      <c r="U43" s="36">
         <v>65</v>
       </c>
       <c r="V43" s="2">
@@ -3943,47 +3975,48 @@
       <c r="B48" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C48" s="36">
         <v>768</v>
       </c>
-      <c r="D48" s="38">
+      <c r="D48" s="37">
         <v>643</v>
       </c>
-      <c r="E48" s="37">
+      <c r="E48" s="36">
         <v>1001</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="37">
         <f>T48</f>
         <v>970</v>
       </c>
-      <c r="G48" s="37">
+      <c r="G48" s="36">
         <v>742</v>
       </c>
-      <c r="H48" s="38">
+      <c r="H48" s="37">
         <v>749</v>
       </c>
-      <c r="I48" s="37">
+      <c r="I48" s="36">
         <v>1123</v>
       </c>
       <c r="J48" s="30">
         <f t="shared" ref="J48:J54" si="34">V48</f>
         <v>1044</v>
       </c>
+      <c r="L48" s="30"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="37">
+      <c r="R48" s="36">
         <v>913</v>
       </c>
-      <c r="S48" s="37">
+      <c r="S48" s="36">
         <v>643</v>
       </c>
-      <c r="T48" s="37">
+      <c r="T48" s="36">
         <v>970</v>
       </c>
-      <c r="U48" s="37">
+      <c r="U48" s="36">
         <v>749</v>
       </c>
       <c r="V48" s="2">
@@ -4360,6 +4393,7 @@
         <f>V57</f>
         <v>1397</v>
       </c>
+      <c r="L57" s="33"/>
       <c r="R57" s="32">
         <v>1327</v>
       </c>
@@ -4554,116 +4588,118 @@
     <row r="62" spans="2:22" x14ac:dyDescent="0.2">
       <c r="G62" s="32"/>
     </row>
-    <row r="63" spans="2:22" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="40" t="s">
+    <row r="63" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="41">
+      <c r="C63" s="40">
         <f t="shared" ref="C63:I63" si="44">C37+C30+C31</f>
         <v>354</v>
       </c>
-      <c r="D63" s="42">
+      <c r="D63" s="41">
         <f t="shared" si="44"/>
         <v>375</v>
       </c>
-      <c r="E63" s="41">
+      <c r="E63" s="40">
         <f t="shared" si="44"/>
         <v>915</v>
       </c>
-      <c r="F63" s="42">
+      <c r="F63" s="41">
         <f t="shared" si="44"/>
         <v>832</v>
       </c>
-      <c r="G63" s="41">
+      <c r="G63" s="40">
         <f t="shared" si="44"/>
         <v>713</v>
       </c>
-      <c r="H63" s="42">
+      <c r="H63" s="41">
         <f t="shared" si="44"/>
         <v>574</v>
       </c>
-      <c r="I63" s="41">
+      <c r="I63" s="40">
         <f t="shared" si="44"/>
         <v>519</v>
       </c>
-      <c r="J63" s="42">
+      <c r="J63" s="41">
         <f t="shared" ref="J63" si="45">J37+J30+J31</f>
         <v>493</v>
       </c>
-      <c r="R63" s="41">
+      <c r="L63" s="54"/>
+      <c r="R63" s="40">
         <f>R37+R30+R31</f>
         <v>273</v>
       </c>
-      <c r="S63" s="41">
+      <c r="S63" s="40">
         <f>S37+S30+S31</f>
         <v>375</v>
       </c>
-      <c r="T63" s="41">
+      <c r="T63" s="40">
         <f>T37+T30+T31</f>
         <v>832</v>
       </c>
-      <c r="U63" s="41">
+      <c r="U63" s="40">
         <f>U37+U30+U31</f>
         <v>574</v>
       </c>
-      <c r="V63" s="41">
+      <c r="V63" s="40">
         <f t="shared" ref="V63" si="46">V37+V30+V31</f>
         <v>493</v>
       </c>
     </row>
-    <row r="64" spans="2:22" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="40" t="s">
+    <row r="64" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="41">
+      <c r="C64" s="40">
         <f t="shared" ref="C64:I64" si="47">C43+C48</f>
         <v>773</v>
       </c>
-      <c r="D64" s="42">
+      <c r="D64" s="41">
         <f t="shared" si="47"/>
         <v>765</v>
       </c>
-      <c r="E64" s="41">
+      <c r="E64" s="40">
         <f t="shared" si="47"/>
         <v>1150</v>
       </c>
-      <c r="F64" s="42">
+      <c r="F64" s="41">
         <f t="shared" si="47"/>
         <v>990</v>
       </c>
-      <c r="G64" s="41">
+      <c r="G64" s="40">
         <f t="shared" si="47"/>
         <v>807</v>
       </c>
-      <c r="H64" s="42">
+      <c r="H64" s="41">
         <f t="shared" si="47"/>
         <v>814</v>
       </c>
-      <c r="I64" s="41">
+      <c r="I64" s="40">
         <f t="shared" si="47"/>
         <v>1165</v>
       </c>
-      <c r="J64" s="42">
+      <c r="J64" s="41">
         <f t="shared" ref="J64" si="48">J43+J48</f>
         <v>1222</v>
       </c>
-      <c r="R64" s="41">
+      <c r="L64" s="54"/>
+      <c r="R64" s="40">
         <f>R43+R48</f>
         <v>921</v>
       </c>
-      <c r="S64" s="41">
+      <c r="S64" s="40">
         <f>S43+S48</f>
         <v>765</v>
       </c>
-      <c r="T64" s="41">
+      <c r="T64" s="40">
         <f>T43+T48</f>
         <v>990</v>
       </c>
-      <c r="U64" s="41">
+      <c r="U64" s="40">
         <f>U43+U48</f>
         <v>814</v>
       </c>
-      <c r="V64" s="41">
+      <c r="V64" s="40">
         <f t="shared" ref="V64" si="49">V43+V48</f>
         <v>1222</v>
       </c>
@@ -4752,23 +4788,23 @@
       <c r="B68" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="R68" s="65">
+      <c r="R68" s="49">
         <f t="shared" ref="R68:U68" si="53">R67*R15</f>
         <v>5742.2826000000005</v>
       </c>
-      <c r="S68" s="65">
+      <c r="S68" s="49">
         <f t="shared" si="53"/>
         <v>7508.6039999999994</v>
       </c>
-      <c r="T68" s="65">
+      <c r="T68" s="49">
         <f t="shared" si="53"/>
         <v>7863.9279999999999</v>
       </c>
-      <c r="U68" s="65">
+      <c r="U68" s="49">
         <f t="shared" si="53"/>
         <v>7663.68</v>
       </c>
-      <c r="V68" s="65">
+      <c r="V68" s="49">
         <f>V67*V15</f>
         <v>7111.4400000000005</v>
       </c>
@@ -4802,23 +4838,23 @@
       <c r="B71" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R71" s="66">
-        <f t="shared" ref="R71:V71" si="55">R67/R61</f>
+      <c r="R71" s="50">
+        <f t="shared" ref="R71:U71" si="55">R67/R61</f>
         <v>4.3834218320610692</v>
       </c>
-      <c r="S71" s="66">
+      <c r="S71" s="50">
         <f t="shared" si="55"/>
         <v>4.9924228723404251</v>
       </c>
-      <c r="T71" s="66">
+      <c r="T71" s="50">
         <f t="shared" si="55"/>
         <v>4.760246973365617</v>
       </c>
-      <c r="U71" s="66">
+      <c r="U71" s="50">
         <f t="shared" si="55"/>
         <v>6.8980018001800181</v>
       </c>
-      <c r="V71" s="66">
+      <c r="V71" s="50">
         <f>V67/V61</f>
         <v>5.1644444444444444</v>
       </c>
@@ -4827,23 +4863,23 @@
       <c r="B72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R72" s="66">
-        <f t="shared" ref="R72:V72" si="56">R68/R4</f>
+      <c r="R72" s="50">
+        <f t="shared" ref="R72:U72" si="56">R68/R4</f>
         <v>3.1106622968580719</v>
       </c>
-      <c r="S72" s="66">
+      <c r="S72" s="50">
         <f t="shared" si="56"/>
         <v>3.878411157024793</v>
       </c>
-      <c r="T72" s="66">
+      <c r="T72" s="50">
         <f t="shared" si="56"/>
         <v>4.1323846558066206</v>
       </c>
-      <c r="U72" s="66">
+      <c r="U72" s="50">
         <f t="shared" si="56"/>
         <v>4.1515059588299028</v>
       </c>
-      <c r="V72" s="66">
+      <c r="V72" s="50">
         <f>V68/V4</f>
         <v>3.6525115562403703</v>
       </c>
@@ -4852,23 +4888,23 @@
       <c r="B73" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="R73" s="66">
-        <f t="shared" ref="R73:V73" si="57">R69/R4</f>
+      <c r="R73" s="50">
+        <f t="shared" ref="R73:U73" si="57">R69/R4</f>
         <v>3.4616915492957747</v>
       </c>
-      <c r="S73" s="66">
+      <c r="S73" s="50">
         <f t="shared" si="57"/>
         <v>4.0798574380165284</v>
       </c>
-      <c r="T73" s="66">
+      <c r="T73" s="50">
         <f t="shared" si="57"/>
         <v>4.2154114555964268</v>
       </c>
-      <c r="U73" s="66">
+      <c r="U73" s="50">
         <f t="shared" si="57"/>
         <v>4.2815167930660891</v>
       </c>
-      <c r="V73" s="66">
+      <c r="V73" s="50">
         <f>V69/V4</f>
         <v>4.0269337442218802</v>
       </c>
@@ -4877,23 +4913,23 @@
       <c r="B74" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R74" s="66">
-        <f t="shared" ref="R74:V74" si="58">R67/R14</f>
+      <c r="R74" s="50">
+        <f t="shared" ref="R74:U74" si="58">R67/R14</f>
         <v>19.465364745762713</v>
       </c>
-      <c r="S74" s="66">
+      <c r="S74" s="50">
         <f t="shared" si="58"/>
         <v>28.227834586466162</v>
       </c>
-      <c r="T74" s="66">
+      <c r="T74" s="50">
         <f t="shared" si="58"/>
         <v>25.367509677419356</v>
       </c>
-      <c r="U74" s="66">
+      <c r="U74" s="50">
         <f t="shared" si="58"/>
         <v>26.890105263157896</v>
       </c>
-      <c r="V74" s="66">
+      <c r="V74" s="50">
         <f>V67/V14</f>
         <v>27.997795275590551</v>
       </c>

--- a/£SGE.xlsx
+++ b/£SGE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7289A0CE-0EE4-4884-BD0B-B5379375727D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CE09FC-D823-40F2-8ED2-45B693704670}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33075" windowHeight="18480" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="107">
   <si>
     <t>£SGE</t>
   </si>
@@ -344,16 +344,20 @@
   </si>
   <si>
     <t>H223</t>
+  </si>
+  <si>
+    <t>EV/E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0\x"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -559,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -657,6 +661,18 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,24 +697,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1233,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB50BB21-6927-4998-A7CD-B755108AED34}">
-  <dimension ref="A2:X34"/>
+  <dimension ref="A2:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B31" sqref="B31:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1249,14 +1254,14 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1264,30 +1269,30 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
-      <c r="H5" s="63" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
+      <c r="H5" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="65"/>
-      <c r="T5" s="63" t="s">
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="58"/>
+      <c r="T5" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="65"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="58"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1502,11 +1507,11 @@
       <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
       <c r="H15" s="12"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1525,10 +1530,10 @@
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="60"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1550,10 +1555,10 @@
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="60"/>
+      <c r="D17" s="64"/>
       <c r="H17" s="12"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1569,10 +1574,10 @@
       <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="60"/>
+      <c r="D18" s="64"/>
       <c r="H18" s="12"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1588,10 +1593,10 @@
       <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="62"/>
+      <c r="D19" s="66"/>
       <c r="H19" s="12"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1628,11 +1633,11 @@
       <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
       <c r="H22" s="12"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1648,10 +1653,10 @@
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="60"/>
+      <c r="D23" s="64"/>
       <c r="H23" s="12"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1667,10 +1672,10 @@
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="59">
+      <c r="C24" s="63">
         <v>1981</v>
       </c>
-      <c r="D24" s="60"/>
+      <c r="D24" s="64"/>
       <c r="H24" s="12"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1686,10 +1691,10 @@
       <c r="B25" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="59">
+      <c r="C25" s="63">
         <v>1989</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="64"/>
       <c r="H25" s="12"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1703,8 +1708,8 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
       <c r="H26" s="12"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -1741,10 +1746,10 @@
       <c r="B28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="67"/>
+      <c r="D28" s="68"/>
       <c r="H28" s="12"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -1781,11 +1786,11 @@
       <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
       <c r="H31" s="12"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -1801,11 +1806,11 @@
       <c r="B32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="55">
+      <c r="C32" s="59">
         <f>C6/'Financial Model'!V14</f>
         <v>29.901259842519682</v>
       </c>
-      <c r="D32" s="56"/>
+      <c r="D32" s="60"/>
       <c r="H32" s="12"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -1821,11 +1826,11 @@
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="55">
+      <c r="C33" s="59">
         <f>C8/'Financial Model'!V4</f>
         <v>3.9008320493066257</v>
       </c>
-      <c r="D33" s="56"/>
+      <c r="D33" s="60"/>
       <c r="H33" s="12"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -1838,14 +1843,14 @@
       <c r="Q33" s="8"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="57">
+      <c r="C34" s="59">
         <f>C6/'Financial Model'!V61</f>
         <v>5.5155555555555553</v>
       </c>
-      <c r="D34" s="58"/>
+      <c r="D34" s="60"/>
       <c r="H34" s="13"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -1857,15 +1862,30 @@
       <c r="P34" s="10"/>
       <c r="Q34" s="11"/>
     </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B35" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="59">
+        <f>C12/'Financial Model'!V4</f>
+        <v>4.2752542372881353</v>
+      </c>
+      <c r="D35" s="60"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B36" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="61">
+        <f>C12/'Financial Model'!V13</f>
+        <v>32.771338582677167</v>
+      </c>
+      <c r="D36" s="62"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
+  <mergeCells count="21">
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C16:D16"/>
@@ -1878,6 +1898,13 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28:D28" r:id="rId1" display="Link" xr:uid="{E398FABE-A8E2-41B0-BEEF-891546DA9EBE}"/>
@@ -1896,7 +1923,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2638,7 +2665,7 @@
         <f>U13/U15</f>
         <v>0.2638888888888889</v>
       </c>
-      <c r="V14" s="32">
+      <c r="V14" s="69">
         <f>V13/V15</f>
         <v>0.24901960784313726</v>
       </c>

--- a/£SGE.xlsx
+++ b/£SGE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CE09FC-D823-40F2-8ED2-45B693704670}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558C1D57-84FD-4DA6-A5F2-8F49D15BCAFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33075" windowHeight="18480" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33075" windowHeight="18480" activeTab="1" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
   <si>
     <t>£SGE</t>
   </si>
@@ -347,19 +347,42 @@
   </si>
   <si>
     <t>EV/E</t>
+  </si>
+  <si>
+    <t>(Projected)</t>
+  </si>
+  <si>
+    <t>Maturity Rate</t>
+  </si>
+  <si>
+    <t>Discount Rate</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>Per Share</t>
+  </si>
+  <si>
+    <t>Current SP</t>
+  </si>
+  <si>
+    <t>Upside</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0\x"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,8 +454,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,6 +505,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,7 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -632,7 +677,6 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -647,7 +691,6 @@
     <xf numFmtId="15" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -661,18 +704,6 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -697,13 +728,60 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1240,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB50BB21-6927-4998-A7CD-B755108AED34}">
   <dimension ref="A2:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1254,14 +1332,14 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1269,36 +1347,36 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="H5" s="56" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="H5" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="58"/>
-      <c r="T5" s="56" t="s">
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="63"/>
+      <c r="T5" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="58"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="63"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="46">
         <v>7.4459999999999997</v>
       </c>
       <c r="D6" s="14"/>
@@ -1312,7 +1390,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="8"/>
-      <c r="T6" s="46" t="s">
+      <c r="T6" s="44" t="s">
         <v>96</v>
       </c>
       <c r="U6" s="7"/>
@@ -1340,7 +1418,7 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="8"/>
-      <c r="T7" s="46"/>
+      <c r="T7" s="44"/>
       <c r="U7" s="7"/>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
@@ -1365,7 +1443,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="8"/>
-      <c r="T8" s="46"/>
+      <c r="T8" s="44"/>
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
@@ -1392,7 +1470,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="8"/>
-      <c r="T9" s="46"/>
+      <c r="T9" s="44"/>
       <c r="U9" s="7"/>
       <c r="V9" s="7"/>
       <c r="W9" s="7"/>
@@ -1419,7 +1497,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="8"/>
-      <c r="T10" s="46"/>
+      <c r="T10" s="44"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
@@ -1446,7 +1524,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="8"/>
-      <c r="T11" s="46"/>
+      <c r="T11" s="44"/>
       <c r="U11" s="7"/>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
@@ -1471,7 +1549,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="8"/>
-      <c r="T12" s="46"/>
+      <c r="T12" s="44"/>
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
@@ -1488,7 +1566,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="8"/>
-      <c r="T13" s="47"/>
+      <c r="T13" s="45"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
@@ -1507,11 +1585,11 @@
       <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
       <c r="H15" s="12"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1530,10 +1608,10 @@
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="64"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1555,10 +1633,10 @@
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="63" t="s">
+      <c r="C17" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="64"/>
+      <c r="D17" s="58"/>
       <c r="H17" s="12"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1574,10 +1652,10 @@
       <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="64"/>
+      <c r="D18" s="58"/>
       <c r="H18" s="12"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1593,10 +1671,10 @@
       <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="66"/>
+      <c r="D19" s="60"/>
       <c r="H19" s="12"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1633,11 +1711,11 @@
       <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
       <c r="H22" s="12"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1653,10 +1731,10 @@
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="64"/>
+      <c r="D23" s="58"/>
       <c r="H23" s="12"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1672,10 +1750,10 @@
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="63">
+      <c r="C24" s="57">
         <v>1981</v>
       </c>
-      <c r="D24" s="64"/>
+      <c r="D24" s="58"/>
       <c r="H24" s="12"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1691,10 +1769,10 @@
       <c r="B25" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C25" s="57">
         <v>1989</v>
       </c>
-      <c r="D25" s="64"/>
+      <c r="D25" s="58"/>
       <c r="H25" s="12"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1708,8 +1786,8 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
       <c r="H26" s="12"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -1746,10 +1824,10 @@
       <c r="B28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="68"/>
+      <c r="D28" s="65"/>
       <c r="H28" s="12"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -1786,11 +1864,11 @@
       <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="58"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="63"/>
       <c r="H31" s="12"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -1806,11 +1884,11 @@
       <c r="B32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="53">
         <f>C6/'Financial Model'!V14</f>
         <v>29.901259842519682</v>
       </c>
-      <c r="D32" s="60"/>
+      <c r="D32" s="54"/>
       <c r="H32" s="12"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -1826,11 +1904,11 @@
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="59">
+      <c r="C33" s="53">
         <f>C8/'Financial Model'!V4</f>
         <v>3.9008320493066257</v>
       </c>
-      <c r="D33" s="60"/>
+      <c r="D33" s="54"/>
       <c r="H33" s="12"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -1846,11 +1924,11 @@
       <c r="B34" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="59">
+      <c r="C34" s="53">
         <f>C6/'Financial Model'!V61</f>
         <v>5.5155555555555553</v>
       </c>
-      <c r="D34" s="60"/>
+      <c r="D34" s="54"/>
       <c r="H34" s="13"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -1866,24 +1944,31 @@
       <c r="B35" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="59">
+      <c r="C35" s="53">
         <f>C12/'Financial Model'!V4</f>
         <v>4.2752542372881353</v>
       </c>
-      <c r="D35" s="60"/>
+      <c r="D35" s="54"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="55">
         <f>C12/'Financial Model'!V13</f>
         <v>32.771338582677167</v>
       </c>
-      <c r="D36" s="62"/>
+      <c r="D36" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C33:D33"/>
@@ -1898,13 +1983,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28:D28" r:id="rId1" display="Link" xr:uid="{E398FABE-A8E2-41B0-BEEF-891546DA9EBE}"/>
@@ -1917,13 +1995,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBB68F3-0B4D-4779-B224-181DBEE6F8C1}">
-  <dimension ref="B1:AE74"/>
+  <dimension ref="B1:BZ74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
+      <selection pane="bottomRight" activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1940,10 +2018,15 @@
     <col min="10" max="10" width="9.140625" style="23"/>
     <col min="11" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="9.140625" style="23"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="9.140625" style="67"/>
+    <col min="24" max="31" width="9.140625" style="38"/>
+    <col min="32" max="32" width="9.140625" style="1"/>
+    <col min="33" max="33" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:78" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="21" t="s">
         <v>32</v>
       </c>
@@ -1989,59 +2072,59 @@
       <c r="V1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AC1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AD1" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="AE1" s="72" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="2:31" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:78" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="25"/>
       <c r="C2" s="29">
         <v>43555</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>43738</v>
       </c>
       <c r="E2" s="29">
         <v>43921</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="37">
         <f>T2</f>
         <v>44104</v>
       </c>
       <c r="G2" s="29">
         <v>44286</v>
       </c>
-      <c r="H2" s="38">
+      <c r="H2" s="37">
         <v>44469</v>
       </c>
       <c r="I2" s="29">
         <v>44651</v>
       </c>
-      <c r="J2" s="38">
+      <c r="J2" s="37">
         <f>V2</f>
         <v>44834</v>
       </c>
@@ -2061,10 +2144,21 @@
       <c r="V2" s="29">
         <v>44834</v>
       </c>
-    </row>
-    <row r="3" spans="2:31" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W2" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+    </row>
+    <row r="3" spans="2:78" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="25"/>
-      <c r="D3" s="44">
+      <c r="D3" s="43">
         <f>S3</f>
         <v>43789</v>
       </c>
@@ -2072,14 +2166,14 @@
         <v>43964</v>
       </c>
       <c r="F3" s="27"/>
-      <c r="H3" s="44">
+      <c r="H3" s="43">
         <f>U3</f>
         <v>44517</v>
       </c>
       <c r="I3" s="28">
         <v>44694</v>
       </c>
-      <c r="J3" s="44">
+      <c r="J3" s="43">
         <v>44881</v>
       </c>
       <c r="L3" s="27"/>
@@ -2092,57 +2186,102 @@
       <c r="V3" s="28">
         <v>44881</v>
       </c>
-    </row>
-    <row r="4" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W3" s="68"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+    </row>
+    <row r="4" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="2">
         <v>957</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <f>S4-C4</f>
         <v>979</v>
       </c>
       <c r="E4" s="2">
         <v>975</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="36">
         <f>T4-E4</f>
         <v>928</v>
       </c>
       <c r="G4" s="2">
         <v>937</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="36">
         <f>U4-G4</f>
         <v>909</v>
       </c>
       <c r="I4" s="2">
         <v>934</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="36">
         <f>V4-I4</f>
         <v>1013</v>
       </c>
       <c r="L4" s="30"/>
-      <c r="R4" s="36">
+      <c r="R4" s="35">
         <v>1846</v>
       </c>
-      <c r="S4" s="36">
+      <c r="S4" s="35">
         <v>1936</v>
       </c>
-      <c r="T4" s="36">
+      <c r="T4" s="35">
         <v>1903</v>
       </c>
-      <c r="U4" s="36">
+      <c r="U4" s="35">
         <v>1846</v>
       </c>
-      <c r="V4" s="36">
+      <c r="V4" s="35">
         <v>1947</v>
       </c>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W4" s="74">
+        <f>V4*(1+W22)</f>
+        <v>2024.88</v>
+      </c>
+      <c r="X4" s="75">
+        <f t="shared" ref="X4:AE4" si="0">W4*(1+X22)</f>
+        <v>2085.6264000000001</v>
+      </c>
+      <c r="Y4" s="75">
+        <f t="shared" si="0"/>
+        <v>2127.3389280000001</v>
+      </c>
+      <c r="Z4" s="75">
+        <f t="shared" si="0"/>
+        <v>2169.88570656</v>
+      </c>
+      <c r="AA4" s="75">
+        <f t="shared" si="0"/>
+        <v>2213.2834206912003</v>
+      </c>
+      <c r="AB4" s="75">
+        <f t="shared" si="0"/>
+        <v>2257.5490891050244</v>
+      </c>
+      <c r="AC4" s="75">
+        <f t="shared" si="0"/>
+        <v>2302.7000708871251</v>
+      </c>
+      <c r="AD4" s="75">
+        <f t="shared" si="0"/>
+        <v>2348.7540723048678</v>
+      </c>
+      <c r="AE4" s="75">
+        <f t="shared" si="0"/>
+        <v>2395.729153750965</v>
+      </c>
+    </row>
+    <row r="5" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>40</v>
       </c>
@@ -2189,66 +2328,138 @@
       <c r="V5" s="32">
         <v>138</v>
       </c>
-    </row>
-    <row r="6" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W5" s="76">
+        <f>W4-W6</f>
+        <v>141.74159999999983</v>
+      </c>
+      <c r="X5" s="39">
+        <f t="shared" ref="X5:AE5" si="1">X4-X6</f>
+        <v>145.99384799999984</v>
+      </c>
+      <c r="Y5" s="39">
+        <f t="shared" si="1"/>
+        <v>148.91372495999985</v>
+      </c>
+      <c r="Z5" s="39">
+        <f t="shared" si="1"/>
+        <v>151.89199945919995</v>
+      </c>
+      <c r="AA5" s="39">
+        <f t="shared" si="1"/>
+        <v>154.92983944838397</v>
+      </c>
+      <c r="AB5" s="39">
+        <f t="shared" si="1"/>
+        <v>158.0284362373518</v>
+      </c>
+      <c r="AC5" s="39">
+        <f t="shared" si="1"/>
+        <v>161.18900496209881</v>
+      </c>
+      <c r="AD5" s="39">
+        <f t="shared" si="1"/>
+        <v>164.41278506134086</v>
+      </c>
+      <c r="AE5" s="39">
+        <f t="shared" si="1"/>
+        <v>167.70104076256757</v>
+      </c>
+    </row>
+    <row r="6" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:J6" si="0">C4-C5</f>
+        <f t="shared" ref="C6:J6" si="2">C4-C5</f>
         <v>887</v>
       </c>
-      <c r="D6" s="37">
-        <f t="shared" si="0"/>
+      <c r="D6" s="36">
+        <f t="shared" si="2"/>
         <v>911</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>911</v>
       </c>
-      <c r="F6" s="37">
-        <f t="shared" si="0"/>
+      <c r="F6" s="36">
+        <f t="shared" si="2"/>
         <v>866</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>865</v>
       </c>
-      <c r="H6" s="37">
-        <f t="shared" si="0"/>
+      <c r="H6" s="36">
+        <f t="shared" si="2"/>
         <v>850</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>866</v>
       </c>
-      <c r="J6" s="37">
-        <f t="shared" si="0"/>
+      <c r="J6" s="36">
+        <f t="shared" si="2"/>
         <v>943</v>
       </c>
       <c r="L6" s="30"/>
-      <c r="R6" s="36">
+      <c r="R6" s="35">
         <f>R4-R5</f>
         <v>1716</v>
       </c>
-      <c r="S6" s="36">
+      <c r="S6" s="35">
         <f>S4-S5</f>
         <v>1798</v>
       </c>
-      <c r="T6" s="36">
+      <c r="T6" s="35">
         <f>T4-T5</f>
         <v>1777</v>
       </c>
-      <c r="U6" s="36">
+      <c r="U6" s="35">
         <f>U4-U5</f>
         <v>1715</v>
       </c>
-      <c r="V6" s="36">
+      <c r="V6" s="35">
         <f>V4-V5</f>
         <v>1809</v>
       </c>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W6" s="74">
+        <f>W4*W17</f>
+        <v>1883.1384000000003</v>
+      </c>
+      <c r="X6" s="75">
+        <f t="shared" ref="X6:AE6" si="3">X4*X17</f>
+        <v>1939.6325520000003</v>
+      </c>
+      <c r="Y6" s="75">
+        <f t="shared" si="3"/>
+        <v>1978.4252030400003</v>
+      </c>
+      <c r="Z6" s="75">
+        <f t="shared" si="3"/>
+        <v>2017.9937071008001</v>
+      </c>
+      <c r="AA6" s="75">
+        <f t="shared" si="3"/>
+        <v>2058.3535812428163</v>
+      </c>
+      <c r="AB6" s="75">
+        <f t="shared" si="3"/>
+        <v>2099.5206528676727</v>
+      </c>
+      <c r="AC6" s="75">
+        <f t="shared" si="3"/>
+        <v>2141.5110659250263</v>
+      </c>
+      <c r="AD6" s="75">
+        <f t="shared" si="3"/>
+        <v>2184.3412872435269</v>
+      </c>
+      <c r="AE6" s="75">
+        <f t="shared" si="3"/>
+        <v>2228.0281129883974</v>
+      </c>
+    </row>
+    <row r="7" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
@@ -2295,66 +2506,138 @@
       <c r="V7" s="32">
         <v>1442</v>
       </c>
-    </row>
-    <row r="8" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W7" s="76">
+        <f>W6-W8</f>
+        <v>1478.1624000000002</v>
+      </c>
+      <c r="X7" s="39">
+        <f t="shared" ref="X7:AE7" si="4">X6-X8</f>
+        <v>1522.5072720000003</v>
+      </c>
+      <c r="Y7" s="39">
+        <f t="shared" si="4"/>
+        <v>1552.9574174400002</v>
+      </c>
+      <c r="Z7" s="39">
+        <f t="shared" si="4"/>
+        <v>1584.0165657888001</v>
+      </c>
+      <c r="AA7" s="39">
+        <f t="shared" si="4"/>
+        <v>1615.6968971045762</v>
+      </c>
+      <c r="AB7" s="39">
+        <f t="shared" si="4"/>
+        <v>1648.0108350466678</v>
+      </c>
+      <c r="AC7" s="39">
+        <f t="shared" si="4"/>
+        <v>1680.9710517476012</v>
+      </c>
+      <c r="AD7" s="39">
+        <f t="shared" si="4"/>
+        <v>1714.5904727825534</v>
+      </c>
+      <c r="AE7" s="39">
+        <f t="shared" si="4"/>
+        <v>1748.8822822382044</v>
+      </c>
+    </row>
+    <row r="8" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:J8" si="1">C6-C7</f>
+        <f t="shared" ref="C8:J8" si="5">C6-C7</f>
         <v>210</v>
       </c>
-      <c r="D8" s="37">
-        <f t="shared" si="1"/>
+      <c r="D8" s="36">
+        <f t="shared" si="5"/>
         <v>172</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>289</v>
       </c>
-      <c r="F8" s="37">
-        <f t="shared" si="1"/>
+      <c r="F8" s="36">
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>203</v>
       </c>
-      <c r="H8" s="37">
-        <f t="shared" si="1"/>
+      <c r="H8" s="36">
+        <f t="shared" si="5"/>
         <v>170</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>204</v>
       </c>
-      <c r="J8" s="37">
-        <f t="shared" si="1"/>
+      <c r="J8" s="36">
+        <f t="shared" si="5"/>
         <v>163</v>
       </c>
       <c r="L8" s="30"/>
-      <c r="R8" s="36">
+      <c r="R8" s="35">
         <f>R6-R7</f>
         <v>427</v>
       </c>
-      <c r="S8" s="36">
+      <c r="S8" s="35">
         <f>S6-S7</f>
         <v>382</v>
       </c>
-      <c r="T8" s="36">
+      <c r="T8" s="35">
         <f>T6-T7</f>
         <v>404</v>
       </c>
-      <c r="U8" s="36">
+      <c r="U8" s="35">
         <f>U6-U7</f>
         <v>373</v>
       </c>
-      <c r="V8" s="36">
+      <c r="V8" s="35">
         <f>V6-V7</f>
         <v>367</v>
       </c>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W8" s="74">
+        <f>W4*W18</f>
+        <v>404.97600000000006</v>
+      </c>
+      <c r="X8" s="75">
+        <f t="shared" ref="X8:AE8" si="6">X4*X18</f>
+        <v>417.12528000000003</v>
+      </c>
+      <c r="Y8" s="75">
+        <f t="shared" si="6"/>
+        <v>425.46778560000007</v>
+      </c>
+      <c r="Z8" s="75">
+        <f t="shared" si="6"/>
+        <v>433.97714131200001</v>
+      </c>
+      <c r="AA8" s="75">
+        <f t="shared" si="6"/>
+        <v>442.65668413824005</v>
+      </c>
+      <c r="AB8" s="75">
+        <f t="shared" si="6"/>
+        <v>451.5098178210049</v>
+      </c>
+      <c r="AC8" s="75">
+        <f t="shared" si="6"/>
+        <v>460.54001417742506</v>
+      </c>
+      <c r="AD8" s="75">
+        <f t="shared" si="6"/>
+        <v>469.75081446097357</v>
+      </c>
+      <c r="AE8" s="75">
+        <f t="shared" si="6"/>
+        <v>479.145830750193</v>
+      </c>
+    </row>
+    <row r="9" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>44</v>
       </c>
@@ -2383,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="33">
-        <f t="shared" ref="J9:J10" si="2">V9-I9</f>
+        <f t="shared" ref="J9:J10" si="7">V9-I9</f>
         <v>1</v>
       </c>
       <c r="R9" s="32">
@@ -2401,8 +2684,44 @@
       <c r="V9" s="32">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W9" s="76">
+        <f>AVERAGE(R9:V9)</f>
+        <v>3.6</v>
+      </c>
+      <c r="X9" s="77">
+        <f t="shared" ref="X9:AE9" si="8">AVERAGE(S9:W9)</f>
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="Y9" s="77">
+        <f t="shared" si="8"/>
+        <v>2.3839999999999999</v>
+      </c>
+      <c r="Z9" s="77">
+        <f t="shared" si="8"/>
+        <v>2.2608000000000001</v>
+      </c>
+      <c r="AA9" s="77">
+        <f t="shared" si="8"/>
+        <v>2.5129600000000001</v>
+      </c>
+      <c r="AB9" s="77">
+        <f t="shared" si="8"/>
+        <v>2.8155519999999998</v>
+      </c>
+      <c r="AC9" s="77">
+        <f t="shared" si="8"/>
+        <v>2.6586623999999999</v>
+      </c>
+      <c r="AD9" s="77">
+        <f t="shared" si="8"/>
+        <v>2.5263948800000002</v>
+      </c>
+      <c r="AE9" s="77">
+        <f t="shared" si="8"/>
+        <v>2.5548738559999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
@@ -2431,7 +2750,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="R10" s="32">
@@ -2449,41 +2768,77 @@
       <c r="V10" s="32">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W10" s="76">
+        <f t="shared" ref="W10" si="9">AVERAGE(R10:V10)</f>
+        <v>31</v>
+      </c>
+      <c r="X10" s="77">
+        <f t="shared" ref="X10" si="10">AVERAGE(S10:W10)</f>
+        <v>30.4</v>
+      </c>
+      <c r="Y10" s="77">
+        <f t="shared" ref="Y10" si="11">AVERAGE(T10:X10)</f>
+        <v>30.68</v>
+      </c>
+      <c r="Z10" s="77">
+        <f t="shared" ref="Z10" si="12">AVERAGE(U10:Y10)</f>
+        <v>30.016000000000002</v>
+      </c>
+      <c r="AA10" s="77">
+        <f t="shared" ref="AA10" si="13">AVERAGE(V10:Z10)</f>
+        <v>30.619199999999999</v>
+      </c>
+      <c r="AB10" s="77">
+        <f t="shared" ref="AB10" si="14">AVERAGE(W10:AA10)</f>
+        <v>30.543040000000001</v>
+      </c>
+      <c r="AC10" s="77">
+        <f t="shared" ref="AC10" si="15">AVERAGE(X10:AB10)</f>
+        <v>30.451647999999999</v>
+      </c>
+      <c r="AD10" s="77">
+        <f t="shared" ref="AD10" si="16">AVERAGE(Y10:AC10)</f>
+        <v>30.461977600000001</v>
+      </c>
+      <c r="AE10" s="77">
+        <f t="shared" ref="AE10" si="17">AVERAGE(Z10:AD10)</f>
+        <v>30.418373120000002</v>
+      </c>
+    </row>
+    <row r="11" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:J11" si="3">C8+C9-C10</f>
+        <f t="shared" ref="C11:J11" si="18">C8+C9-C10</f>
         <v>198</v>
       </c>
       <c r="D11" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>163</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>275</v>
       </c>
       <c r="F11" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>98</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>190</v>
       </c>
       <c r="H11" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>157</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>189</v>
       </c>
       <c r="J11" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="18"/>
         <v>148</v>
       </c>
       <c r="R11" s="32">
@@ -2506,8 +2861,44 @@
         <f>V8+V9-V10</f>
         <v>337</v>
       </c>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="W11" s="76">
+        <f>W8+W9-W10</f>
+        <v>377.57600000000008</v>
+      </c>
+      <c r="X11" s="39">
+        <f>X8+X9-X10</f>
+        <v>390.04528000000005</v>
+      </c>
+      <c r="Y11" s="39">
+        <f t="shared" ref="Y11:AE11" si="19">Y8+Y9-Y10</f>
+        <v>397.17178560000008</v>
+      </c>
+      <c r="Z11" s="39">
+        <f t="shared" si="19"/>
+        <v>406.22194131200001</v>
+      </c>
+      <c r="AA11" s="39">
+        <f t="shared" si="19"/>
+        <v>414.5504441382401</v>
+      </c>
+      <c r="AB11" s="39">
+        <f t="shared" si="19"/>
+        <v>423.78232982100491</v>
+      </c>
+      <c r="AC11" s="39">
+        <f t="shared" si="19"/>
+        <v>432.74702857742511</v>
+      </c>
+      <c r="AD11" s="39">
+        <f t="shared" si="19"/>
+        <v>441.81523174097356</v>
+      </c>
+      <c r="AE11" s="39">
+        <f t="shared" si="19"/>
+        <v>451.28233148619296</v>
+      </c>
+    </row>
+    <row r="12" spans="2:78" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>47</v>
       </c>
@@ -2554,114 +2945,375 @@
       <c r="V12" s="32">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W12" s="76">
+        <f>W11*W20</f>
+        <v>94.39400000000002</v>
+      </c>
+      <c r="X12" s="39">
+        <f>X11*X20</f>
+        <v>97.511320000000012</v>
+      </c>
+      <c r="Y12" s="39">
+        <f t="shared" ref="Y12:AE12" si="20">Y11*Y20</f>
+        <v>99.292946400000019</v>
+      </c>
+      <c r="Z12" s="39">
+        <f t="shared" si="20"/>
+        <v>101.555485328</v>
+      </c>
+      <c r="AA12" s="39">
+        <f t="shared" si="20"/>
+        <v>103.63761103456002</v>
+      </c>
+      <c r="AB12" s="39">
+        <f t="shared" si="20"/>
+        <v>105.94558245525123</v>
+      </c>
+      <c r="AC12" s="39">
+        <f t="shared" si="20"/>
+        <v>108.18675714435628</v>
+      </c>
+      <c r="AD12" s="39">
+        <f t="shared" si="20"/>
+        <v>110.45380793524339</v>
+      </c>
+      <c r="AE12" s="39">
+        <f t="shared" si="20"/>
+        <v>112.82058287154824</v>
+      </c>
+    </row>
+    <row r="13" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" ref="C13:J13" si="4">C11-C12</f>
+        <f t="shared" ref="C13:J13" si="21">C11-C12</f>
         <v>154</v>
       </c>
-      <c r="D13" s="37">
-        <f t="shared" si="4"/>
+      <c r="D13" s="36">
+        <f t="shared" si="21"/>
         <v>112</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>224</v>
       </c>
-      <c r="F13" s="37">
-        <f t="shared" si="4"/>
+      <c r="F13" s="36">
+        <f t="shared" si="21"/>
         <v>86</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>146</v>
       </c>
-      <c r="H13" s="37">
-        <f t="shared" si="4"/>
+      <c r="H13" s="36">
+        <f t="shared" si="21"/>
         <v>139</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>152</v>
       </c>
-      <c r="J13" s="37">
-        <f t="shared" si="4"/>
+      <c r="J13" s="36">
+        <f t="shared" si="21"/>
         <v>102</v>
       </c>
       <c r="L13" s="30"/>
-      <c r="R13" s="36">
+      <c r="R13" s="35">
         <f>R11-R12</f>
         <v>295</v>
       </c>
-      <c r="S13" s="36">
+      <c r="S13" s="35">
         <f>S11-S12</f>
         <v>266</v>
       </c>
-      <c r="T13" s="36">
+      <c r="T13" s="35">
         <f>T11-T12</f>
         <v>310</v>
       </c>
-      <c r="U13" s="36">
+      <c r="U13" s="35">
         <f>U11-U12</f>
         <v>285</v>
       </c>
-      <c r="V13" s="36">
+      <c r="V13" s="35">
         <f>V11-V12</f>
         <v>254</v>
       </c>
-    </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+      <c r="W13" s="74">
+        <f>W11-W12</f>
+        <v>283.18200000000007</v>
+      </c>
+      <c r="X13" s="75">
+        <f>X11-X12</f>
+        <v>292.53396000000004</v>
+      </c>
+      <c r="Y13" s="75">
+        <f t="shared" ref="Y13:AE13" si="22">Y11-Y12</f>
+        <v>297.87883920000007</v>
+      </c>
+      <c r="Z13" s="75">
+        <f t="shared" si="22"/>
+        <v>304.66645598399998</v>
+      </c>
+      <c r="AA13" s="75">
+        <f t="shared" si="22"/>
+        <v>310.9128331036801</v>
+      </c>
+      <c r="AB13" s="75">
+        <f t="shared" si="22"/>
+        <v>317.83674736575369</v>
+      </c>
+      <c r="AC13" s="75">
+        <f t="shared" si="22"/>
+        <v>324.56027143306881</v>
+      </c>
+      <c r="AD13" s="75">
+        <f t="shared" si="22"/>
+        <v>331.36142380573017</v>
+      </c>
+      <c r="AE13" s="75">
+        <f t="shared" si="22"/>
+        <v>338.4617486146447</v>
+      </c>
+      <c r="AF13" s="35">
+        <f>AE13*(1+$AH$17)</f>
+        <v>341.84636610079116</v>
+      </c>
+      <c r="AG13" s="35">
+        <f t="shared" ref="AG13:BZ13" si="23">AF13*(1+$AH$17)</f>
+        <v>345.26482976179909</v>
+      </c>
+      <c r="AH13" s="35">
+        <f t="shared" si="23"/>
+        <v>348.71747805941709</v>
+      </c>
+      <c r="AI13" s="35">
+        <f t="shared" si="23"/>
+        <v>352.20465284001125</v>
+      </c>
+      <c r="AJ13" s="35">
+        <f t="shared" si="23"/>
+        <v>355.72669936841135</v>
+      </c>
+      <c r="AK13" s="35">
+        <f t="shared" si="23"/>
+        <v>359.28396636209544</v>
+      </c>
+      <c r="AL13" s="35">
+        <f t="shared" si="23"/>
+        <v>362.87680602571641</v>
+      </c>
+      <c r="AM13" s="35">
+        <f t="shared" si="23"/>
+        <v>366.50557408597359</v>
+      </c>
+      <c r="AN13" s="35">
+        <f t="shared" si="23"/>
+        <v>370.17062982683331</v>
+      </c>
+      <c r="AO13" s="35">
+        <f t="shared" si="23"/>
+        <v>373.87233612510164</v>
+      </c>
+      <c r="AP13" s="35">
+        <f t="shared" si="23"/>
+        <v>377.61105948635264</v>
+      </c>
+      <c r="AQ13" s="35">
+        <f t="shared" si="23"/>
+        <v>381.3871700812162</v>
+      </c>
+      <c r="AR13" s="35">
+        <f t="shared" si="23"/>
+        <v>385.20104178202837</v>
+      </c>
+      <c r="AS13" s="35">
+        <f t="shared" si="23"/>
+        <v>389.05305219984865</v>
+      </c>
+      <c r="AT13" s="35">
+        <f t="shared" si="23"/>
+        <v>392.94358272184712</v>
+      </c>
+      <c r="AU13" s="35">
+        <f t="shared" si="23"/>
+        <v>396.87301854906559</v>
+      </c>
+      <c r="AV13" s="35">
+        <f t="shared" si="23"/>
+        <v>400.84174873455623</v>
+      </c>
+      <c r="AW13" s="35">
+        <f t="shared" si="23"/>
+        <v>404.85016622190182</v>
+      </c>
+      <c r="AX13" s="35">
+        <f t="shared" si="23"/>
+        <v>408.89866788412081</v>
+      </c>
+      <c r="AY13" s="35">
+        <f t="shared" si="23"/>
+        <v>412.98765456296201</v>
+      </c>
+      <c r="AZ13" s="35">
+        <f t="shared" si="23"/>
+        <v>417.11753110859161</v>
+      </c>
+      <c r="BA13" s="35">
+        <f t="shared" si="23"/>
+        <v>421.28870641967751</v>
+      </c>
+      <c r="BB13" s="35">
+        <f t="shared" si="23"/>
+        <v>425.50159348387427</v>
+      </c>
+      <c r="BC13" s="35">
+        <f t="shared" si="23"/>
+        <v>429.75660941871303</v>
+      </c>
+      <c r="BD13" s="35">
+        <f t="shared" si="23"/>
+        <v>434.05417551290014</v>
+      </c>
+      <c r="BE13" s="35">
+        <f t="shared" si="23"/>
+        <v>438.39471726802913</v>
+      </c>
+      <c r="BF13" s="35">
+        <f t="shared" si="23"/>
+        <v>442.77866444070941</v>
+      </c>
+      <c r="BG13" s="35">
+        <f t="shared" si="23"/>
+        <v>447.2064510851165</v>
+      </c>
+      <c r="BH13" s="35">
+        <f t="shared" si="23"/>
+        <v>451.67851559596767</v>
+      </c>
+      <c r="BI13" s="35">
+        <f t="shared" si="23"/>
+        <v>456.19530075192733</v>
+      </c>
+      <c r="BJ13" s="35">
+        <f t="shared" si="23"/>
+        <v>460.7572537594466</v>
+      </c>
+      <c r="BK13" s="35">
+        <f t="shared" si="23"/>
+        <v>465.36482629704108</v>
+      </c>
+      <c r="BL13" s="35">
+        <f t="shared" si="23"/>
+        <v>470.0184745600115</v>
+      </c>
+      <c r="BM13" s="35">
+        <f t="shared" si="23"/>
+        <v>474.7186593056116</v>
+      </c>
+      <c r="BN13" s="35">
+        <f t="shared" si="23"/>
+        <v>479.46584589866774</v>
+      </c>
+      <c r="BO13" s="35">
+        <f t="shared" si="23"/>
+        <v>484.26050435765444</v>
+      </c>
+      <c r="BP13" s="35">
+        <f t="shared" si="23"/>
+        <v>489.10310940123099</v>
+      </c>
+      <c r="BQ13" s="35">
+        <f t="shared" si="23"/>
+        <v>493.9941404952433</v>
+      </c>
+      <c r="BR13" s="35">
+        <f t="shared" si="23"/>
+        <v>498.93408190019574</v>
+      </c>
+      <c r="BS13" s="35">
+        <f t="shared" si="23"/>
+        <v>503.92342271919767</v>
+      </c>
+      <c r="BT13" s="35">
+        <f t="shared" si="23"/>
+        <v>508.96265694638964</v>
+      </c>
+      <c r="BU13" s="35">
+        <f t="shared" si="23"/>
+        <v>514.05228351585356</v>
+      </c>
+      <c r="BV13" s="35">
+        <f t="shared" si="23"/>
+        <v>519.19280635101211</v>
+      </c>
+      <c r="BW13" s="35">
+        <f t="shared" si="23"/>
+        <v>524.3847344145222</v>
+      </c>
+      <c r="BX13" s="35">
+        <f t="shared" si="23"/>
+        <v>529.62858175866745</v>
+      </c>
+      <c r="BY13" s="35">
+        <f t="shared" si="23"/>
+        <v>534.92486757625409</v>
+      </c>
+      <c r="BZ13" s="35">
+        <f t="shared" si="23"/>
+        <v>540.2741162520166</v>
+      </c>
+    </row>
+    <row r="14" spans="2:78" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="34">
-        <f t="shared" ref="C14:J14" si="5">C13/C15</f>
+      <c r="C14" s="69">
+        <f t="shared" ref="C14:J14" si="24">C13/C15</f>
         <v>0.14180478821362799</v>
       </c>
-      <c r="D14" s="45">
-        <f t="shared" si="5"/>
+      <c r="D14" s="70">
+        <f t="shared" si="24"/>
         <v>0.10313075506445672</v>
       </c>
-      <c r="E14" s="34">
-        <f t="shared" si="5"/>
+      <c r="E14" s="69">
+        <f t="shared" si="24"/>
         <v>0.20550458715596331</v>
       </c>
-      <c r="F14" s="45">
-        <f t="shared" si="5"/>
+      <c r="F14" s="70">
+        <f t="shared" si="24"/>
         <v>7.8826764436296978E-2</v>
       </c>
-      <c r="G14" s="34">
-        <f t="shared" si="5"/>
+      <c r="G14" s="69">
+        <f t="shared" si="24"/>
         <v>0.13345521023765997</v>
       </c>
-      <c r="H14" s="45">
-        <f t="shared" si="5"/>
+      <c r="H14" s="70">
+        <f t="shared" si="24"/>
         <v>0.12870370370370371</v>
       </c>
-      <c r="I14" s="34">
-        <f t="shared" si="5"/>
+      <c r="I14" s="69">
+        <f t="shared" si="24"/>
         <v>0.14858260019550343</v>
       </c>
-      <c r="J14" s="45">
-        <f t="shared" si="5"/>
+      <c r="J14" s="70">
+        <f t="shared" si="24"/>
         <v>0.1</v>
       </c>
-      <c r="R14" s="34">
-        <f t="shared" ref="R14:S14" si="6">R13/R15</f>
+      <c r="L14" s="70"/>
+      <c r="R14" s="69">
+        <f t="shared" ref="R14:S14" si="25">R13/R15</f>
         <v>0.2723915050784857</v>
       </c>
-      <c r="S14" s="34">
-        <f t="shared" si="6"/>
+      <c r="S14" s="69">
+        <f t="shared" si="25"/>
         <v>0.24493554327808473</v>
       </c>
-      <c r="T14" s="34">
+      <c r="T14" s="69">
         <f>T13/T15</f>
         <v>0.28414298808432631</v>
       </c>
-      <c r="U14" s="34">
+      <c r="U14" s="69">
         <f>U13/U15</f>
         <v>0.2638888888888889</v>
       </c>
@@ -2669,8 +3321,44 @@
         <f>V13/V15</f>
         <v>0.24901960784313726</v>
       </c>
-    </row>
-    <row r="15" spans="2:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W14" s="78">
+        <f>W13/W15</f>
+        <v>0.27762941176470596</v>
+      </c>
+      <c r="X14" s="79">
+        <f>X13/X15</f>
+        <v>0.28679800000000005</v>
+      </c>
+      <c r="Y14" s="79">
+        <f t="shared" ref="Y14:AE14" si="26">Y13/Y15</f>
+        <v>0.29203807764705891</v>
+      </c>
+      <c r="Z14" s="79">
+        <f t="shared" si="26"/>
+        <v>0.29869260390588231</v>
+      </c>
+      <c r="AA14" s="79">
+        <f t="shared" si="26"/>
+        <v>0.30481650304282365</v>
+      </c>
+      <c r="AB14" s="79">
+        <f t="shared" si="26"/>
+        <v>0.31160465428015066</v>
+      </c>
+      <c r="AC14" s="79">
+        <f t="shared" si="26"/>
+        <v>0.31819634454222434</v>
+      </c>
+      <c r="AD14" s="79">
+        <f t="shared" si="26"/>
+        <v>0.32486414098600996</v>
+      </c>
+      <c r="AE14" s="79">
+        <f t="shared" si="26"/>
+        <v>0.33182524373984773</v>
+      </c>
+    </row>
+    <row r="15" spans="2:78" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
         <v>4</v>
       </c>
@@ -2718,49 +3406,85 @@
       <c r="V15" s="32">
         <v>1020</v>
       </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="76">
+        <f>V15</f>
+        <v>1020</v>
+      </c>
+      <c r="X15" s="39">
+        <f>W15</f>
+        <v>1020</v>
+      </c>
+      <c r="Y15" s="39">
+        <f t="shared" ref="Y15:AE15" si="27">X15</f>
+        <v>1020</v>
+      </c>
+      <c r="Z15" s="39">
+        <f t="shared" si="27"/>
+        <v>1020</v>
+      </c>
+      <c r="AA15" s="39">
+        <f t="shared" si="27"/>
+        <v>1020</v>
+      </c>
+      <c r="AB15" s="39">
+        <f t="shared" si="27"/>
+        <v>1020</v>
+      </c>
+      <c r="AC15" s="39">
+        <f t="shared" si="27"/>
+        <v>1020</v>
+      </c>
+      <c r="AD15" s="39">
+        <f t="shared" si="27"/>
+        <v>1020</v>
+      </c>
+      <c r="AE15" s="39">
+        <f t="shared" si="27"/>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="31">
-        <f t="shared" ref="C17:I17" si="7">C6/C4</f>
+        <f t="shared" ref="C17:I17" si="28">C6/C4</f>
         <v>0.92685475444096133</v>
       </c>
-      <c r="D17" s="43">
-        <f t="shared" si="7"/>
+      <c r="D17" s="42">
+        <f t="shared" si="28"/>
         <v>0.93054136874361593</v>
       </c>
       <c r="E17" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.9343589743589743</v>
       </c>
-      <c r="F17" s="43">
-        <f t="shared" si="7"/>
+      <c r="F17" s="42">
+        <f t="shared" si="28"/>
         <v>0.93318965517241381</v>
       </c>
       <c r="G17" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.9231590181430096</v>
       </c>
-      <c r="H17" s="43">
-        <f t="shared" si="7"/>
+      <c r="H17" s="42">
+        <f t="shared" si="28"/>
         <v>0.93509350935093505</v>
       </c>
       <c r="I17" s="31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.9271948608137045</v>
       </c>
-      <c r="J17" s="43">
-        <f t="shared" ref="J17" si="8">J6/J4</f>
+      <c r="J17" s="42">
+        <f t="shared" ref="J17" si="29">J6/J4</f>
         <v>0.93089832181638699</v>
       </c>
       <c r="R17" s="31">
-        <f t="shared" ref="R17:S17" si="9">R6/R4</f>
+        <f t="shared" ref="R17:S17" si="30">R6/R4</f>
         <v>0.92957746478873238</v>
       </c>
       <c r="S17" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>0.92871900826446285</v>
       </c>
       <c r="T17" s="31">
@@ -2772,52 +3496,85 @@
         <v>0.92903575297941499</v>
       </c>
       <c r="V17" s="31">
-        <f t="shared" ref="V17" si="10">V6/V4</f>
+        <f t="shared" ref="V17" si="31">V6/V4</f>
         <v>0.92912172573189522</v>
       </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="80">
+        <v>0.93</v>
+      </c>
+      <c r="X17" s="81">
+        <v>0.93</v>
+      </c>
+      <c r="Y17" s="81">
+        <v>0.93</v>
+      </c>
+      <c r="Z17" s="81">
+        <v>0.93</v>
+      </c>
+      <c r="AA17" s="81">
+        <v>0.93</v>
+      </c>
+      <c r="AB17" s="81">
+        <v>0.93</v>
+      </c>
+      <c r="AC17" s="81">
+        <v>0.93</v>
+      </c>
+      <c r="AD17" s="81">
+        <v>0.93</v>
+      </c>
+      <c r="AE17" s="81">
+        <v>0.93</v>
+      </c>
+      <c r="AG17" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH17" s="87">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="31">
-        <f t="shared" ref="C18:I18" si="11">C8/C4</f>
+        <f t="shared" ref="C18:I18" si="32">C8/C4</f>
         <v>0.21943573667711599</v>
       </c>
-      <c r="D18" s="43">
-        <f t="shared" si="11"/>
+      <c r="D18" s="42">
+        <f t="shared" si="32"/>
         <v>0.17568947906026558</v>
       </c>
       <c r="E18" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>0.29641025641025642</v>
       </c>
-      <c r="F18" s="43">
-        <f t="shared" si="11"/>
+      <c r="F18" s="42">
+        <f t="shared" si="32"/>
         <v>0.12392241379310345</v>
       </c>
       <c r="G18" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>0.21664887940234792</v>
       </c>
-      <c r="H18" s="43">
-        <f t="shared" si="11"/>
+      <c r="H18" s="42">
+        <f t="shared" si="32"/>
         <v>0.18701870187018702</v>
       </c>
       <c r="I18" s="31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>0.21841541755888652</v>
       </c>
-      <c r="J18" s="43">
-        <f t="shared" ref="J18" si="12">J8/J4</f>
+      <c r="J18" s="42">
+        <f t="shared" ref="J18" si="33">J8/J4</f>
         <v>0.16090819348469892</v>
       </c>
       <c r="R18" s="31">
-        <f t="shared" ref="R18:S18" si="13">R8/R4</f>
+        <f t="shared" ref="R18:S18" si="34">R8/R4</f>
         <v>0.2313109425785482</v>
       </c>
       <c r="S18" s="31">
-        <f t="shared" si="13"/>
+        <f t="shared" si="34"/>
         <v>0.19731404958677687</v>
       </c>
       <c r="T18" s="31">
@@ -2829,52 +3586,85 @@
         <v>0.20205850487540628</v>
       </c>
       <c r="V18" s="31">
-        <f t="shared" ref="V18" si="14">V8/V4</f>
+        <f t="shared" ref="V18" si="35">V8/V4</f>
         <v>0.18849512069851052</v>
       </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="80">
+        <v>0.2</v>
+      </c>
+      <c r="X18" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="Y18" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="Z18" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="AA18" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="AB18" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="AC18" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="AD18" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="AE18" s="81">
+        <v>0.2</v>
+      </c>
+      <c r="AG18" s="88" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH18" s="89">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="31">
-        <f t="shared" ref="C19:I19" si="15">C13/C4</f>
+        <f t="shared" ref="C19:I19" si="36">C13/C4</f>
         <v>0.16091954022988506</v>
       </c>
-      <c r="D19" s="43">
-        <f t="shared" si="15"/>
+      <c r="D19" s="42">
+        <f t="shared" si="36"/>
         <v>0.11440245148110317</v>
       </c>
       <c r="E19" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="36"/>
         <v>0.22974358974358974</v>
       </c>
-      <c r="F19" s="43">
-        <f t="shared" si="15"/>
+      <c r="F19" s="42">
+        <f t="shared" si="36"/>
         <v>9.2672413793103453E-2</v>
       </c>
       <c r="G19" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="36"/>
         <v>0.15581643543223053</v>
       </c>
-      <c r="H19" s="43">
-        <f t="shared" si="15"/>
+      <c r="H19" s="42">
+        <f t="shared" si="36"/>
         <v>0.15291529152915292</v>
       </c>
       <c r="I19" s="31">
-        <f t="shared" si="15"/>
+        <f t="shared" si="36"/>
         <v>0.16274089935760172</v>
       </c>
-      <c r="J19" s="43">
-        <f t="shared" ref="J19" si="16">J13/J4</f>
+      <c r="J19" s="42">
+        <f t="shared" ref="J19" si="37">J13/J4</f>
         <v>0.10069101678183613</v>
       </c>
       <c r="R19" s="31">
-        <f t="shared" ref="R19:S19" si="17">R13/R4</f>
+        <f t="shared" ref="R19:S19" si="38">R13/R4</f>
         <v>0.15980498374864571</v>
       </c>
       <c r="S19" s="31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="38"/>
         <v>0.13739669421487602</v>
       </c>
       <c r="T19" s="31">
@@ -2886,155 +3676,239 @@
         <v>0.1543878656554713</v>
       </c>
       <c r="V19" s="31">
-        <f t="shared" ref="V19" si="18">V13/V4</f>
+        <f t="shared" ref="V19" si="39">V13/V4</f>
         <v>0.13045711350796096</v>
       </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="AG19" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH19" s="94">
+        <f>NPV(AH18,W13:BZ13)</f>
+        <v>5728.5102119431367</v>
+      </c>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C20" s="31">
-        <f t="shared" ref="C20:I20" si="19">C12/C11</f>
+        <f t="shared" ref="C20:I20" si="40">C12/C11</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D20" s="43">
-        <f t="shared" si="19"/>
+      <c r="D20" s="42">
+        <f t="shared" si="40"/>
         <v>0.31288343558282211</v>
       </c>
       <c r="E20" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>0.18545454545454546</v>
       </c>
-      <c r="F20" s="43">
-        <f t="shared" si="19"/>
+      <c r="F20" s="42">
+        <f t="shared" si="40"/>
         <v>0.12244897959183673</v>
       </c>
       <c r="G20" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>0.23157894736842105</v>
       </c>
-      <c r="H20" s="43">
-        <f t="shared" si="19"/>
+      <c r="H20" s="42">
+        <f t="shared" si="40"/>
         <v>0.11464968152866242</v>
       </c>
       <c r="I20" s="31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>0.19576719576719576</v>
       </c>
-      <c r="J20" s="43">
-        <f t="shared" ref="J20" si="20">J12/J11</f>
+      <c r="J20" s="42">
+        <f t="shared" ref="J20" si="41">J12/J11</f>
         <v>0.3108108108108108</v>
       </c>
       <c r="R20" s="31">
-        <f t="shared" ref="R20:U20" si="21">R12/R11</f>
+        <f t="shared" ref="R20:U20" si="42">R12/R11</f>
         <v>0.25879396984924624</v>
       </c>
       <c r="S20" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="T20" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>0.16890080428954424</v>
       </c>
       <c r="U20" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="42"/>
         <v>0.17867435158501441</v>
       </c>
       <c r="V20" s="31">
-        <f t="shared" ref="V20" si="22">V12/V11</f>
+        <f t="shared" ref="V20" si="43">V12/V11</f>
         <v>0.24629080118694363</v>
       </c>
-    </row>
-    <row r="22" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W20" s="80">
+        <v>0.25</v>
+      </c>
+      <c r="X20" s="81">
+        <v>0.25</v>
+      </c>
+      <c r="Y20" s="81">
+        <v>0.25</v>
+      </c>
+      <c r="Z20" s="81">
+        <v>0.25</v>
+      </c>
+      <c r="AA20" s="81">
+        <v>0.25</v>
+      </c>
+      <c r="AB20" s="81">
+        <v>0.25</v>
+      </c>
+      <c r="AC20" s="81">
+        <v>0.25</v>
+      </c>
+      <c r="AD20" s="81">
+        <v>0.25</v>
+      </c>
+      <c r="AE20" s="81">
+        <v>0.25</v>
+      </c>
+      <c r="AG20" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH20" s="94">
+        <f>Main!C11</f>
+        <v>-729</v>
+      </c>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AG21" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH21" s="94">
+        <f>AH19-AH20</f>
+        <v>6457.5102119431367</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="42">
-        <f t="shared" ref="E22:J22" si="23">E4/C4-1</f>
+      <c r="E22" s="41">
+        <f t="shared" ref="E22:J22" si="44">E4/C4-1</f>
         <v>1.8808777429467183E-2</v>
       </c>
-      <c r="F22" s="53">
-        <f t="shared" si="23"/>
+      <c r="F22" s="51">
+        <f t="shared" si="44"/>
         <v>-5.2093973442288055E-2</v>
       </c>
-      <c r="G22" s="42">
-        <f t="shared" si="23"/>
+      <c r="G22" s="41">
+        <f t="shared" si="44"/>
         <v>-3.8974358974358969E-2</v>
       </c>
-      <c r="H22" s="53">
-        <f t="shared" si="23"/>
+      <c r="H22" s="51">
+        <f t="shared" si="44"/>
         <v>-2.0474137931034475E-2</v>
       </c>
-      <c r="I22" s="42">
-        <f t="shared" si="23"/>
+      <c r="I22" s="41">
+        <f t="shared" si="44"/>
         <v>-3.2017075773745907E-3</v>
       </c>
-      <c r="J22" s="53">
-        <f t="shared" si="23"/>
+      <c r="J22" s="51">
+        <f t="shared" si="44"/>
         <v>0.11441144114411439</v>
       </c>
       <c r="L22" s="30"/>
       <c r="R22" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="S22" s="42">
-        <f t="shared" ref="S22:T22" si="24">S4/R4-1</f>
+      <c r="S22" s="41">
+        <f t="shared" ref="S22:T22" si="45">S4/R4-1</f>
         <v>4.8754062838569867E-2</v>
       </c>
-      <c r="T22" s="42">
-        <f t="shared" si="24"/>
+      <c r="T22" s="41">
+        <f t="shared" si="45"/>
         <v>-1.7045454545454586E-2</v>
       </c>
-      <c r="U22" s="42">
+      <c r="U22" s="41">
         <f>U4/T4-1</f>
         <v>-2.9952706253284278E-2</v>
       </c>
-      <c r="V22" s="42">
-        <f t="shared" ref="V22" si="25">V4/U4-1</f>
+      <c r="V22" s="41">
+        <f t="shared" ref="V22" si="46">V4/U4-1</f>
         <v>5.4712892741061836E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="82">
+        <v>0.04</v>
+      </c>
+      <c r="X22" s="83">
+        <v>0.03</v>
+      </c>
+      <c r="Y22" s="83">
+        <v>0.02</v>
+      </c>
+      <c r="Z22" s="83">
+        <v>0.02</v>
+      </c>
+      <c r="AA22" s="83">
+        <v>0.02</v>
+      </c>
+      <c r="AB22" s="83">
+        <v>0.02</v>
+      </c>
+      <c r="AC22" s="83">
+        <v>0.02</v>
+      </c>
+      <c r="AD22" s="83">
+        <v>0.02</v>
+      </c>
+      <c r="AE22" s="83">
+        <v>0.02</v>
+      </c>
+      <c r="AG22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH22" s="93">
+        <f>AH21/Main!C7</f>
+        <v>6.3308923646501336</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="43">
-        <f t="shared" ref="D23:J23" si="26">D4/C4-1</f>
+      <c r="D23" s="42">
+        <f t="shared" ref="D23:J23" si="47">D4/C4-1</f>
         <v>2.2988505747126409E-2</v>
       </c>
       <c r="E23" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="47"/>
         <v>-4.0858018386108474E-3</v>
       </c>
-      <c r="F23" s="43">
-        <f t="shared" si="26"/>
+      <c r="F23" s="42">
+        <f t="shared" si="47"/>
         <v>-4.8205128205128234E-2</v>
       </c>
       <c r="G23" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="47"/>
         <v>9.6982758620689502E-3</v>
       </c>
-      <c r="H23" s="43">
-        <f t="shared" si="26"/>
+      <c r="H23" s="42">
+        <f t="shared" si="47"/>
         <v>-2.9882604055496254E-2</v>
       </c>
       <c r="I23" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" si="47"/>
         <v>2.7502750275027577E-2</v>
       </c>
-      <c r="J23" s="43">
-        <f t="shared" si="26"/>
+      <c r="J23" s="42">
+        <f t="shared" si="47"/>
         <v>8.4582441113490336E-2</v>
       </c>
       <c r="R23" s="19" t="s">
@@ -3052,13 +3926,29 @@
       <c r="V23" s="19" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="35" t="s">
+      <c r="AG23" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH23" s="90">
+        <f>Main!C6</f>
+        <v>7.4459999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AG24" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH24" s="92">
+        <f>AH22/AH23-1</f>
+        <v>-0.14975928489791379</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B27" s="34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>70</v>
       </c>
@@ -3115,7 +4005,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>71</v>
       </c>
@@ -3161,30 +4051,30 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="35">
         <v>0</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="36">
         <v>0</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="35">
         <v>0</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="36">
         <f>T30</f>
         <v>0</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="35">
         <v>19</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="36">
         <v>21</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="35">
         <v>4</v>
       </c>
       <c r="J30" s="30">
@@ -3192,70 +4082,88 @@
         <v>4</v>
       </c>
       <c r="L30" s="30"/>
-      <c r="R30" s="36">
+      <c r="R30" s="35">
         <v>0</v>
       </c>
-      <c r="S30" s="36">
+      <c r="S30" s="35">
         <v>0</v>
       </c>
-      <c r="T30" s="36">
+      <c r="T30" s="35">
         <v>0</v>
       </c>
-      <c r="U30" s="36">
+      <c r="U30" s="35">
         <v>21</v>
       </c>
       <c r="V30" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W30" s="84"/>
+      <c r="X30" s="85"/>
+      <c r="Y30" s="85"/>
+      <c r="Z30" s="85"/>
+      <c r="AA30" s="85"/>
+      <c r="AB30" s="85"/>
+      <c r="AC30" s="85"/>
+      <c r="AD30" s="85"/>
+      <c r="AE30" s="85"/>
+    </row>
+    <row r="31" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="35">
         <v>3</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="36">
         <v>4</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="35">
         <v>3</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="36">
         <f>T31</f>
         <v>1</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="35">
         <v>1</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="36">
         <v>0</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="35">
         <v>0</v>
       </c>
       <c r="J31" s="23">
-        <f t="shared" ref="J31:J38" si="27">-V31</f>
+        <f t="shared" ref="J31:J38" si="48">-V31</f>
         <v>0</v>
       </c>
       <c r="L31" s="30"/>
-      <c r="R31" s="36">
+      <c r="R31" s="35">
         <v>1</v>
       </c>
-      <c r="S31" s="36">
+      <c r="S31" s="35">
         <v>4</v>
       </c>
-      <c r="T31" s="36">
+      <c r="T31" s="35">
         <v>1</v>
       </c>
-      <c r="U31" s="36">
+      <c r="U31" s="35">
         <v>0</v>
       </c>
       <c r="V31" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="84"/>
+      <c r="X31" s="85"/>
+      <c r="Y31" s="85"/>
+      <c r="Z31" s="85"/>
+      <c r="AA31" s="85"/>
+      <c r="AB31" s="85"/>
+      <c r="AC31" s="85"/>
+      <c r="AD31" s="85"/>
+      <c r="AE31" s="85"/>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>74</v>
       </c>
@@ -3269,7 +4177,7 @@
         <v>83</v>
       </c>
       <c r="F32" s="33">
-        <f t="shared" ref="F32:F38" si="28">T32</f>
+        <f t="shared" ref="F32:F38" si="49">T32</f>
         <v>86</v>
       </c>
       <c r="G32" s="32">
@@ -3282,7 +4190,7 @@
         <v>116</v>
       </c>
       <c r="J32" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="48"/>
         <v>-128</v>
       </c>
       <c r="R32" s="32">
@@ -3301,7 +4209,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>75</v>
       </c>
@@ -3315,7 +4223,7 @@
         <v>26</v>
       </c>
       <c r="F33" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="49"/>
         <v>35</v>
       </c>
       <c r="G33" s="32">
@@ -3328,7 +4236,7 @@
         <v>34</v>
       </c>
       <c r="J33" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="48"/>
         <v>-19</v>
       </c>
       <c r="R33" s="32">
@@ -3347,40 +4255,40 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C34" s="32">
-        <f t="shared" ref="C34:J34" si="29">SUM(C28:C33)</f>
+        <f t="shared" ref="C34:J34" si="50">SUM(C28:C33)</f>
         <v>2471</v>
       </c>
       <c r="D34" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="50"/>
         <v>2551</v>
       </c>
       <c r="E34" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="50"/>
         <v>2585</v>
       </c>
       <c r="F34" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="50"/>
         <v>2469</v>
       </c>
       <c r="G34" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="50"/>
         <v>2353</v>
       </c>
       <c r="H34" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="50"/>
         <v>2405</v>
       </c>
       <c r="I34" s="32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="50"/>
         <v>2672</v>
       </c>
       <c r="J34" s="33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="50"/>
         <v>2415</v>
       </c>
       <c r="R34" s="32">
@@ -3404,7 +4312,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>74</v>
       </c>
@@ -3418,7 +4326,7 @@
         <v>329</v>
       </c>
       <c r="F35" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="49"/>
         <v>302</v>
       </c>
       <c r="G35" s="32">
@@ -3431,7 +4339,7 @@
         <v>329</v>
       </c>
       <c r="J35" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="48"/>
         <v>-335</v>
       </c>
       <c r="R35" s="32">
@@ -3450,7 +4358,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>77</v>
       </c>
@@ -3464,7 +4372,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="49"/>
         <v>5</v>
       </c>
       <c r="G36" s="32">
@@ -3477,7 +4385,7 @@
         <v>28</v>
       </c>
       <c r="J36" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="48"/>
         <v>-39</v>
       </c>
       <c r="R36" s="32">
@@ -3496,27 +4404,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="35">
         <v>351</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="36">
         <v>371</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="35">
         <v>912</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="36">
         <f>T37</f>
         <v>831</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="35">
         <v>693</v>
       </c>
-      <c r="H37" s="37">
+      <c r="H37" s="36">
         <v>553</v>
       </c>
       <c r="I37" s="2">
@@ -3532,23 +4440,32 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="36">
+      <c r="R37" s="35">
         <v>272</v>
       </c>
-      <c r="S37" s="36">
+      <c r="S37" s="35">
         <v>371</v>
       </c>
-      <c r="T37" s="36">
+      <c r="T37" s="35">
         <v>831</v>
       </c>
-      <c r="U37" s="36">
+      <c r="U37" s="35">
         <v>553</v>
       </c>
       <c r="V37" s="2">
         <v>489</v>
       </c>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W37" s="84"/>
+      <c r="X37" s="85"/>
+      <c r="Y37" s="85"/>
+      <c r="Z37" s="85"/>
+      <c r="AA37" s="85"/>
+      <c r="AB37" s="85"/>
+      <c r="AC37" s="85"/>
+      <c r="AD37" s="85"/>
+      <c r="AE37" s="85"/>
+    </row>
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>78</v>
       </c>
@@ -3562,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="49"/>
         <v>108</v>
       </c>
       <c r="G38" s="32">
@@ -3575,7 +4492,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="R38" s="32">
@@ -3594,40 +4511,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C39" s="32">
-        <f t="shared" ref="C39:J39" si="30">C34+SUM(C35:C38)</f>
+        <f t="shared" ref="C39:J39" si="51">C34+SUM(C35:C38)</f>
         <v>3228</v>
       </c>
       <c r="D39" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="51"/>
         <v>3352</v>
       </c>
       <c r="E39" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="51"/>
         <v>3841</v>
       </c>
       <c r="F39" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="51"/>
         <v>3715</v>
       </c>
       <c r="G39" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="51"/>
         <v>3444</v>
       </c>
       <c r="H39" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="51"/>
         <v>3329</v>
       </c>
       <c r="I39" s="32">
-        <f t="shared" si="30"/>
+        <f t="shared" si="51"/>
         <v>3546</v>
       </c>
       <c r="J39" s="33">
-        <f t="shared" si="30"/>
+        <f t="shared" si="51"/>
         <v>2530</v>
       </c>
       <c r="R39" s="32">
@@ -3651,7 +4568,7 @@
         <v>3876</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="G40" s="32"/>
       <c r="H40" s="33"/>
       <c r="R40" s="32"/>
@@ -3659,7 +4576,7 @@
       <c r="T40" s="32"/>
       <c r="U40" s="32"/>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>80</v>
       </c>
@@ -3673,7 +4590,7 @@
         <v>242</v>
       </c>
       <c r="F41" s="33">
-        <f t="shared" ref="F41:F46" si="31">T41</f>
+        <f t="shared" ref="F41:F46" si="52">T41</f>
         <v>297</v>
       </c>
       <c r="G41" s="32">
@@ -3686,7 +4603,7 @@
         <v>311</v>
       </c>
       <c r="J41" s="23">
-        <f t="shared" ref="J41:J46" si="32">V41</f>
+        <f t="shared" ref="J41:J46" si="53">V41</f>
         <v>368</v>
       </c>
       <c r="R41" s="32">
@@ -3705,7 +4622,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>77</v>
       </c>
@@ -3719,7 +4636,7 @@
         <v>46</v>
       </c>
       <c r="F42" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="52"/>
         <v>13</v>
       </c>
       <c r="G42" s="32">
@@ -3732,7 +4649,7 @@
         <v>23</v>
       </c>
       <c r="J42" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="53"/>
         <v>13</v>
       </c>
       <c r="R42" s="32">
@@ -3751,34 +4668,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="36">
+      <c r="C43" s="35">
         <v>5</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="36">
         <v>122</v>
       </c>
-      <c r="E43" s="36">
+      <c r="E43" s="35">
         <v>149</v>
       </c>
-      <c r="F43" s="37">
+      <c r="F43" s="36">
         <f>T43</f>
         <v>20</v>
       </c>
-      <c r="G43" s="36">
+      <c r="G43" s="35">
         <v>65</v>
       </c>
-      <c r="H43" s="37">
+      <c r="H43" s="36">
         <v>65</v>
       </c>
-      <c r="I43" s="36">
+      <c r="I43" s="35">
         <v>42</v>
       </c>
       <c r="J43" s="30">
-        <f t="shared" si="32"/>
+        <f t="shared" si="53"/>
         <v>178</v>
       </c>
       <c r="L43" s="30"/>
@@ -3787,23 +4704,32 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
-      <c r="R43" s="36">
+      <c r="R43" s="35">
         <v>8</v>
       </c>
-      <c r="S43" s="36">
+      <c r="S43" s="35">
         <v>122</v>
       </c>
-      <c r="T43" s="36">
+      <c r="T43" s="35">
         <v>20</v>
       </c>
-      <c r="U43" s="36">
+      <c r="U43" s="35">
         <v>65</v>
       </c>
       <c r="V43" s="2">
         <v>178</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="84"/>
+      <c r="X43" s="85"/>
+      <c r="Y43" s="85"/>
+      <c r="Z43" s="85"/>
+      <c r="AA43" s="85"/>
+      <c r="AB43" s="85"/>
+      <c r="AC43" s="85"/>
+      <c r="AD43" s="85"/>
+      <c r="AE43" s="85"/>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>82</v>
       </c>
@@ -3817,7 +4743,7 @@
         <v>9</v>
       </c>
       <c r="F44" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="52"/>
         <v>19</v>
       </c>
       <c r="G44" s="32">
@@ -3830,7 +4756,7 @@
         <v>44</v>
       </c>
       <c r="J44" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="53"/>
         <v>33</v>
       </c>
       <c r="R44" s="32">
@@ -3849,7 +4775,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>83</v>
       </c>
@@ -3863,7 +4789,7 @@
         <v>691</v>
       </c>
       <c r="F45" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="52"/>
         <v>593</v>
       </c>
       <c r="G45" s="32">
@@ -3876,7 +4802,7 @@
         <v>705</v>
       </c>
       <c r="J45" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="53"/>
         <v>734</v>
       </c>
       <c r="R45" s="32">
@@ -3895,7 +4821,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>86</v>
       </c>
@@ -3909,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="33">
-        <f t="shared" si="31"/>
+        <f t="shared" si="52"/>
         <v>73</v>
       </c>
       <c r="G46" s="32">
@@ -3922,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="R46" s="32">
@@ -3941,40 +4867,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C47" s="32">
-        <f t="shared" ref="C47:J47" si="33">SUM(C41:C46)</f>
+        <f t="shared" ref="C47:J47" si="54">SUM(C41:C46)</f>
         <v>1003</v>
       </c>
       <c r="D47" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="54"/>
         <v>1126</v>
       </c>
       <c r="E47" s="32">
-        <f t="shared" si="33"/>
+        <f t="shared" si="54"/>
         <v>1137</v>
       </c>
       <c r="F47" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="54"/>
         <v>1015</v>
       </c>
       <c r="G47" s="32">
-        <f t="shared" si="33"/>
+        <f t="shared" si="54"/>
         <v>1322</v>
       </c>
       <c r="H47" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="54"/>
         <v>1380</v>
       </c>
       <c r="I47" s="32">
-        <f t="shared" si="33"/>
+        <f t="shared" si="54"/>
         <v>1125</v>
       </c>
       <c r="J47" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="54"/>
         <v>1326</v>
       </c>
       <c r="R47" s="32">
@@ -3998,34 +4924,34 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="48" spans="2:22" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C48" s="35">
         <v>768</v>
       </c>
-      <c r="D48" s="37">
+      <c r="D48" s="36">
         <v>643</v>
       </c>
-      <c r="E48" s="36">
+      <c r="E48" s="35">
         <v>1001</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="36">
         <f>T48</f>
         <v>970</v>
       </c>
-      <c r="G48" s="36">
+      <c r="G48" s="35">
         <v>742</v>
       </c>
-      <c r="H48" s="37">
+      <c r="H48" s="36">
         <v>749</v>
       </c>
-      <c r="I48" s="36">
+      <c r="I48" s="35">
         <v>1123</v>
       </c>
       <c r="J48" s="30">
-        <f t="shared" ref="J48:J54" si="34">V48</f>
+        <f t="shared" ref="J48:J54" si="55">V48</f>
         <v>1044</v>
       </c>
       <c r="L48" s="30"/>
@@ -4034,23 +4960,32 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="36">
+      <c r="R48" s="35">
         <v>913</v>
       </c>
-      <c r="S48" s="36">
+      <c r="S48" s="35">
         <v>643</v>
       </c>
-      <c r="T48" s="36">
+      <c r="T48" s="35">
         <v>970</v>
       </c>
-      <c r="U48" s="36">
+      <c r="U48" s="35">
         <v>749</v>
       </c>
       <c r="V48" s="2">
         <v>1044</v>
       </c>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="84"/>
+      <c r="X48" s="85"/>
+      <c r="Y48" s="85"/>
+      <c r="Z48" s="85"/>
+      <c r="AA48" s="85"/>
+      <c r="AB48" s="85"/>
+      <c r="AC48" s="85"/>
+      <c r="AD48" s="85"/>
+      <c r="AE48" s="85"/>
+    </row>
+    <row r="49" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>85</v>
       </c>
@@ -4064,7 +4999,7 @@
         <v>26</v>
       </c>
       <c r="F49" s="33">
-        <f t="shared" ref="F49:F53" si="35">T49</f>
+        <f t="shared" ref="F49:F53" si="56">T49</f>
         <v>23</v>
       </c>
       <c r="G49" s="32">
@@ -4077,7 +5012,7 @@
         <v>23</v>
       </c>
       <c r="J49" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="55"/>
         <v>19</v>
       </c>
       <c r="R49" s="32">
@@ -4096,7 +5031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>75</v>
       </c>
@@ -4110,7 +5045,7 @@
         <v>27</v>
       </c>
       <c r="F50" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="56"/>
         <v>14</v>
       </c>
       <c r="G50" s="32">
@@ -4123,7 +5058,7 @@
         <v>24</v>
       </c>
       <c r="J50" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="55"/>
         <v>16</v>
       </c>
       <c r="R50" s="32">
@@ -4142,7 +5077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>82</v>
       </c>
@@ -4156,7 +5091,7 @@
         <v>13</v>
       </c>
       <c r="F51" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="56"/>
         <v>31</v>
       </c>
       <c r="G51" s="32">
@@ -4169,7 +5104,7 @@
         <v>36</v>
       </c>
       <c r="J51" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="55"/>
         <v>20</v>
       </c>
       <c r="R51" s="32">
@@ -4188,7 +5123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>80</v>
       </c>
@@ -4202,7 +5137,7 @@
         <v>6</v>
       </c>
       <c r="F52" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="G52" s="32">
@@ -4215,7 +5150,7 @@
         <v>2</v>
       </c>
       <c r="J52" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="55"/>
         <v>6</v>
       </c>
       <c r="R52" s="32">
@@ -4234,7 +5169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>83</v>
       </c>
@@ -4248,7 +5183,7 @@
         <v>7</v>
       </c>
       <c r="F53" s="33">
-        <f t="shared" si="35"/>
+        <f t="shared" si="56"/>
         <v>7</v>
       </c>
       <c r="G53" s="32">
@@ -4261,7 +5196,7 @@
         <v>9</v>
       </c>
       <c r="J53" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="55"/>
         <v>8</v>
       </c>
       <c r="R53" s="32">
@@ -4280,7 +5215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>101</v>
       </c>
@@ -4306,7 +5241,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="23">
-        <f t="shared" si="34"/>
+        <f t="shared" si="55"/>
         <v>60</v>
       </c>
       <c r="R54" s="32">
@@ -4325,40 +5260,40 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C55" s="32">
-        <f t="shared" ref="C55:J55" si="36">C47+SUM(C48:C54)</f>
+        <f t="shared" ref="C55:J55" si="57">C47+SUM(C48:C54)</f>
         <v>1845</v>
       </c>
       <c r="D55" s="33">
-        <f t="shared" si="36"/>
+        <f t="shared" si="57"/>
         <v>1848</v>
       </c>
       <c r="E55" s="32">
-        <f t="shared" si="36"/>
+        <f t="shared" si="57"/>
         <v>2217</v>
       </c>
       <c r="F55" s="33">
-        <f t="shared" si="36"/>
+        <f t="shared" si="57"/>
         <v>2063</v>
       </c>
       <c r="G55" s="32">
-        <f t="shared" si="36"/>
+        <f t="shared" si="57"/>
         <v>2140</v>
       </c>
       <c r="H55" s="33">
-        <f t="shared" si="36"/>
+        <f t="shared" si="57"/>
         <v>2218</v>
       </c>
       <c r="I55" s="32">
-        <f t="shared" si="36"/>
+        <f t="shared" si="57"/>
         <v>2342</v>
       </c>
       <c r="J55" s="33">
-        <f t="shared" si="36"/>
+        <f t="shared" si="57"/>
         <v>2499</v>
       </c>
       <c r="R55" s="32">
@@ -4382,7 +5317,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:31" x14ac:dyDescent="0.2">
       <c r="G56" s="32"/>
       <c r="H56" s="33"/>
       <c r="R56" s="32"/>
@@ -4390,7 +5325,7 @@
       <c r="T56" s="32"/>
       <c r="U56" s="32"/>
     </row>
-    <row r="57" spans="2:22" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="32" t="s">
         <v>88</v>
       </c>
@@ -4436,41 +5371,50 @@
       <c r="V57" s="32">
         <v>1397</v>
       </c>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="76"/>
+      <c r="X57" s="39"/>
+      <c r="Y57" s="39"/>
+      <c r="Z57" s="39"/>
+      <c r="AA57" s="39"/>
+      <c r="AB57" s="39"/>
+      <c r="AC57" s="39"/>
+      <c r="AD57" s="39"/>
+      <c r="AE57" s="39"/>
+    </row>
+    <row r="58" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C58" s="32">
-        <f t="shared" ref="C58:J58" si="37">C57+C55</f>
+        <f t="shared" ref="C58:J58" si="58">C57+C55</f>
         <v>3228</v>
       </c>
       <c r="D58" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>3352</v>
       </c>
       <c r="E58" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>3841</v>
       </c>
       <c r="F58" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>3715</v>
       </c>
       <c r="G58" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>3444</v>
       </c>
       <c r="H58" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>3329</v>
       </c>
       <c r="I58" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>3546</v>
       </c>
       <c r="J58" s="33">
-        <f t="shared" si="37"/>
+        <f t="shared" si="58"/>
         <v>3896</v>
       </c>
       <c r="R58" s="32">
@@ -4494,44 +5438,44 @@
         <v>3896</v>
       </c>
     </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:31" x14ac:dyDescent="0.2">
       <c r="G59" s="32"/>
       <c r="H59" s="33"/>
     </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C60" s="32">
-        <f t="shared" ref="C60:I60" si="38">C39-C55</f>
+        <f t="shared" ref="C60:I60" si="59">C39-C55</f>
         <v>1383</v>
       </c>
       <c r="D60" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="59"/>
         <v>1504</v>
       </c>
       <c r="E60" s="32">
-        <f t="shared" si="38"/>
+        <f t="shared" si="59"/>
         <v>1624</v>
       </c>
       <c r="F60" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="59"/>
         <v>1652</v>
       </c>
       <c r="G60" s="32">
-        <f t="shared" si="38"/>
+        <f t="shared" si="59"/>
         <v>1304</v>
       </c>
       <c r="H60" s="33">
-        <f t="shared" si="38"/>
+        <f t="shared" si="59"/>
         <v>1111</v>
       </c>
       <c r="I60" s="32">
-        <f t="shared" si="38"/>
+        <f t="shared" si="59"/>
         <v>1204</v>
       </c>
       <c r="J60" s="33">
-        <f t="shared" ref="J60" si="39">J39-J55</f>
+        <f t="shared" ref="J60" si="60">J39-J55</f>
         <v>31</v>
       </c>
       <c r="R60" s="32">
@@ -4551,44 +5495,44 @@
         <v>1111</v>
       </c>
       <c r="V60" s="32">
-        <f t="shared" ref="V60" si="40">V39-V55</f>
+        <f t="shared" ref="V60" si="61">V39-V55</f>
         <v>1377</v>
       </c>
     </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" ref="C61:I61" si="41">C60/C15</f>
+        <f t="shared" ref="C61:I61" si="62">C60/C15</f>
         <v>1.2734806629834254</v>
       </c>
       <c r="D61" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>1.3848987108655617</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>1.489908256880734</v>
       </c>
       <c r="F61" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>1.5142071494042164</v>
       </c>
       <c r="G61" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>1.1919561243144423</v>
       </c>
       <c r="H61" s="23">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>1.0287037037037037</v>
       </c>
       <c r="I61" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="62"/>
         <v>1.1769305962854351</v>
       </c>
       <c r="J61" s="23">
-        <f t="shared" ref="J61" si="42">J60/J15</f>
+        <f t="shared" ref="J61" si="63">J60/J15</f>
         <v>3.0392156862745098E-2</v>
       </c>
       <c r="R61" s="1">
@@ -4608,163 +5552,165 @@
         <v>1.0287037037037037</v>
       </c>
       <c r="V61" s="1">
-        <f t="shared" ref="V61" si="43">V60/V15</f>
+        <f t="shared" ref="V61" si="64">V60/V15</f>
         <v>1.35</v>
       </c>
     </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:31" x14ac:dyDescent="0.2">
       <c r="G62" s="32"/>
     </row>
-    <row r="63" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="39" t="s">
+    <row r="63" spans="2:31" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="40">
-        <f t="shared" ref="C63:I63" si="44">C37+C30+C31</f>
+      <c r="C63" s="39">
+        <f t="shared" ref="C63:I63" si="65">C37+C30+C31</f>
         <v>354</v>
       </c>
-      <c r="D63" s="41">
-        <f t="shared" si="44"/>
+      <c r="D63" s="40">
+        <f t="shared" si="65"/>
         <v>375</v>
       </c>
-      <c r="E63" s="40">
-        <f t="shared" si="44"/>
+      <c r="E63" s="39">
+        <f t="shared" si="65"/>
         <v>915</v>
       </c>
-      <c r="F63" s="41">
-        <f t="shared" si="44"/>
+      <c r="F63" s="40">
+        <f t="shared" si="65"/>
         <v>832</v>
       </c>
-      <c r="G63" s="40">
-        <f t="shared" si="44"/>
+      <c r="G63" s="39">
+        <f t="shared" si="65"/>
         <v>713</v>
       </c>
-      <c r="H63" s="41">
-        <f t="shared" si="44"/>
+      <c r="H63" s="40">
+        <f t="shared" si="65"/>
         <v>574</v>
       </c>
-      <c r="I63" s="40">
-        <f t="shared" si="44"/>
+      <c r="I63" s="39">
+        <f t="shared" si="65"/>
         <v>519</v>
       </c>
-      <c r="J63" s="41">
-        <f t="shared" ref="J63" si="45">J37+J30+J31</f>
+      <c r="J63" s="40">
+        <f t="shared" ref="J63" si="66">J37+J30+J31</f>
         <v>493</v>
       </c>
-      <c r="L63" s="54"/>
-      <c r="R63" s="40">
+      <c r="L63" s="52"/>
+      <c r="R63" s="39">
         <f>R37+R30+R31</f>
         <v>273</v>
       </c>
-      <c r="S63" s="40">
+      <c r="S63" s="39">
         <f>S37+S30+S31</f>
         <v>375</v>
       </c>
-      <c r="T63" s="40">
+      <c r="T63" s="39">
         <f>T37+T30+T31</f>
         <v>832</v>
       </c>
-      <c r="U63" s="40">
+      <c r="U63" s="39">
         <f>U37+U30+U31</f>
         <v>574</v>
       </c>
-      <c r="V63" s="40">
-        <f t="shared" ref="V63" si="46">V37+V30+V31</f>
+      <c r="V63" s="39">
+        <f t="shared" ref="V63" si="67">V37+V30+V31</f>
         <v>493</v>
       </c>
-    </row>
-    <row r="64" spans="2:22" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="39" t="s">
+      <c r="W63" s="67"/>
+    </row>
+    <row r="64" spans="2:31" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="40">
-        <f t="shared" ref="C64:I64" si="47">C43+C48</f>
+      <c r="C64" s="39">
+        <f t="shared" ref="C64:I64" si="68">C43+C48</f>
         <v>773</v>
       </c>
-      <c r="D64" s="41">
-        <f t="shared" si="47"/>
+      <c r="D64" s="40">
+        <f t="shared" si="68"/>
         <v>765</v>
       </c>
-      <c r="E64" s="40">
-        <f t="shared" si="47"/>
+      <c r="E64" s="39">
+        <f t="shared" si="68"/>
         <v>1150</v>
       </c>
-      <c r="F64" s="41">
-        <f t="shared" si="47"/>
+      <c r="F64" s="40">
+        <f t="shared" si="68"/>
         <v>990</v>
       </c>
-      <c r="G64" s="40">
-        <f t="shared" si="47"/>
+      <c r="G64" s="39">
+        <f t="shared" si="68"/>
         <v>807</v>
       </c>
-      <c r="H64" s="41">
-        <f t="shared" si="47"/>
+      <c r="H64" s="40">
+        <f t="shared" si="68"/>
         <v>814</v>
       </c>
-      <c r="I64" s="40">
-        <f t="shared" si="47"/>
+      <c r="I64" s="39">
+        <f t="shared" si="68"/>
         <v>1165</v>
       </c>
-      <c r="J64" s="41">
-        <f t="shared" ref="J64" si="48">J43+J48</f>
+      <c r="J64" s="40">
+        <f t="shared" ref="J64" si="69">J43+J48</f>
         <v>1222</v>
       </c>
-      <c r="L64" s="54"/>
-      <c r="R64" s="40">
+      <c r="L64" s="52"/>
+      <c r="R64" s="39">
         <f>R43+R48</f>
         <v>921</v>
       </c>
-      <c r="S64" s="40">
+      <c r="S64" s="39">
         <f>S43+S48</f>
         <v>765</v>
       </c>
-      <c r="T64" s="40">
+      <c r="T64" s="39">
         <f>T43+T48</f>
         <v>990</v>
       </c>
-      <c r="U64" s="40">
+      <c r="U64" s="39">
         <f>U43+U48</f>
         <v>814</v>
       </c>
-      <c r="V64" s="40">
-        <f t="shared" ref="V64" si="49">V43+V48</f>
+      <c r="V64" s="39">
+        <f t="shared" ref="V64" si="70">V43+V48</f>
         <v>1222</v>
       </c>
+      <c r="W64" s="67"/>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="32">
-        <f t="shared" ref="C65:I65" si="50">C63-C64</f>
+        <f t="shared" ref="C65:I65" si="71">C63-C64</f>
         <v>-419</v>
       </c>
       <c r="D65" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="71"/>
         <v>-390</v>
       </c>
       <c r="E65" s="32">
-        <f t="shared" si="50"/>
+        <f t="shared" si="71"/>
         <v>-235</v>
       </c>
       <c r="F65" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="71"/>
         <v>-158</v>
       </c>
       <c r="G65" s="32">
-        <f t="shared" si="50"/>
+        <f t="shared" si="71"/>
         <v>-94</v>
       </c>
       <c r="H65" s="33">
-        <f t="shared" si="50"/>
+        <f t="shared" si="71"/>
         <v>-240</v>
       </c>
       <c r="I65" s="32">
-        <f t="shared" si="50"/>
+        <f t="shared" si="71"/>
         <v>-646</v>
       </c>
       <c r="J65" s="33">
-        <f t="shared" ref="J65" si="51">J63-J64</f>
+        <f t="shared" ref="J65" si="72">J63-J64</f>
         <v>-729</v>
       </c>
       <c r="R65" s="32">
@@ -4784,7 +5730,7 @@
         <v>-240</v>
       </c>
       <c r="V65" s="32">
-        <f t="shared" ref="V65" si="52">V63-V64</f>
+        <f t="shared" ref="V65" si="73">V63-V64</f>
         <v>-729</v>
       </c>
     </row>
@@ -4815,23 +5761,23 @@
       <c r="B68" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="R68" s="49">
-        <f t="shared" ref="R68:U68" si="53">R67*R15</f>
+      <c r="R68" s="47">
+        <f t="shared" ref="R68:U68" si="74">R67*R15</f>
         <v>5742.2826000000005</v>
       </c>
-      <c r="S68" s="49">
-        <f t="shared" si="53"/>
+      <c r="S68" s="47">
+        <f t="shared" si="74"/>
         <v>7508.6039999999994</v>
       </c>
-      <c r="T68" s="49">
-        <f t="shared" si="53"/>
+      <c r="T68" s="47">
+        <f t="shared" si="74"/>
         <v>7863.9279999999999</v>
       </c>
-      <c r="U68" s="49">
-        <f t="shared" si="53"/>
+      <c r="U68" s="47">
+        <f t="shared" si="74"/>
         <v>7663.68</v>
       </c>
-      <c r="V68" s="49">
+      <c r="V68" s="47">
         <f>V67*V15</f>
         <v>7111.4400000000005</v>
       </c>
@@ -4841,19 +5787,19 @@
         <v>9</v>
       </c>
       <c r="R69" s="32">
-        <f t="shared" ref="R69:U69" si="54">R68-R65</f>
+        <f t="shared" ref="R69:U69" si="75">R68-R65</f>
         <v>6390.2826000000005</v>
       </c>
       <c r="S69" s="32">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>7898.6039999999994</v>
       </c>
       <c r="T69" s="32">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>8021.9279999999999</v>
       </c>
       <c r="U69" s="32">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>7903.68</v>
       </c>
       <c r="V69" s="32">
@@ -4865,23 +5811,23 @@
       <c r="B71" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R71" s="50">
-        <f t="shared" ref="R71:U71" si="55">R67/R61</f>
+      <c r="R71" s="48">
+        <f t="shared" ref="R71:U71" si="76">R67/R61</f>
         <v>4.3834218320610692</v>
       </c>
-      <c r="S71" s="50">
-        <f t="shared" si="55"/>
+      <c r="S71" s="48">
+        <f t="shared" si="76"/>
         <v>4.9924228723404251</v>
       </c>
-      <c r="T71" s="50">
-        <f t="shared" si="55"/>
+      <c r="T71" s="48">
+        <f t="shared" si="76"/>
         <v>4.760246973365617</v>
       </c>
-      <c r="U71" s="50">
-        <f t="shared" si="55"/>
+      <c r="U71" s="48">
+        <f t="shared" si="76"/>
         <v>6.8980018001800181</v>
       </c>
-      <c r="V71" s="50">
+      <c r="V71" s="48">
         <f>V67/V61</f>
         <v>5.1644444444444444</v>
       </c>
@@ -4890,23 +5836,23 @@
       <c r="B72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R72" s="50">
-        <f t="shared" ref="R72:U72" si="56">R68/R4</f>
+      <c r="R72" s="48">
+        <f t="shared" ref="R72:U72" si="77">R68/R4</f>
         <v>3.1106622968580719</v>
       </c>
-      <c r="S72" s="50">
-        <f t="shared" si="56"/>
+      <c r="S72" s="48">
+        <f t="shared" si="77"/>
         <v>3.878411157024793</v>
       </c>
-      <c r="T72" s="50">
-        <f t="shared" si="56"/>
+      <c r="T72" s="48">
+        <f t="shared" si="77"/>
         <v>4.1323846558066206</v>
       </c>
-      <c r="U72" s="50">
-        <f t="shared" si="56"/>
+      <c r="U72" s="48">
+        <f t="shared" si="77"/>
         <v>4.1515059588299028</v>
       </c>
-      <c r="V72" s="50">
+      <c r="V72" s="48">
         <f>V68/V4</f>
         <v>3.6525115562403703</v>
       </c>
@@ -4915,23 +5861,23 @@
       <c r="B73" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="R73" s="50">
-        <f t="shared" ref="R73:U73" si="57">R69/R4</f>
+      <c r="R73" s="48">
+        <f t="shared" ref="R73:U73" si="78">R69/R4</f>
         <v>3.4616915492957747</v>
       </c>
-      <c r="S73" s="50">
-        <f t="shared" si="57"/>
+      <c r="S73" s="48">
+        <f t="shared" si="78"/>
         <v>4.0798574380165284</v>
       </c>
-      <c r="T73" s="50">
-        <f t="shared" si="57"/>
+      <c r="T73" s="48">
+        <f t="shared" si="78"/>
         <v>4.2154114555964268</v>
       </c>
-      <c r="U73" s="50">
-        <f t="shared" si="57"/>
+      <c r="U73" s="48">
+        <f t="shared" si="78"/>
         <v>4.2815167930660891</v>
       </c>
-      <c r="V73" s="50">
+      <c r="V73" s="48">
         <f>V69/V4</f>
         <v>4.0269337442218802</v>
       </c>
@@ -4940,23 +5886,23 @@
       <c r="B74" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R74" s="50">
-        <f t="shared" ref="R74:U74" si="58">R67/R14</f>
+      <c r="R74" s="48">
+        <f t="shared" ref="R74:U74" si="79">R67/R14</f>
         <v>19.465364745762713</v>
       </c>
-      <c r="S74" s="50">
-        <f t="shared" si="58"/>
+      <c r="S74" s="48">
+        <f t="shared" si="79"/>
         <v>28.227834586466162</v>
       </c>
-      <c r="T74" s="50">
-        <f t="shared" si="58"/>
+      <c r="T74" s="48">
+        <f t="shared" si="79"/>
         <v>25.367509677419356</v>
       </c>
-      <c r="U74" s="50">
-        <f t="shared" si="58"/>
+      <c r="U74" s="48">
+        <f t="shared" si="79"/>
         <v>26.890105263157896</v>
       </c>
-      <c r="V74" s="50">
+      <c r="V74" s="48">
         <f>V67/V14</f>
         <v>27.997795275590551</v>
       </c>
@@ -4972,7 +5918,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
   <ignoredErrors>
-    <ignoredError sqref="H6:H8 H11 F6:F8 F11 F13 D6:D8 D11 J6:J11 F34:F53 J29:J39 J47" formula="1"/>
+    <ignoredError sqref="H6:H8 H11 F6:F8 F11 F13 D6:D8 D11 J6:J11 F34:F53 J29:J39 J47 W6:AE8" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId7"/>
 </worksheet>

--- a/£SGE.xlsx
+++ b/£SGE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558C1D57-84FD-4DA6-A5F2-8F49D15BCAFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82F31C8-F555-496B-B7A7-D4E03F85BA18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33075" windowHeight="18480" activeTab="1" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33075" windowHeight="18480" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="118">
   <si>
     <t>£SGE</t>
   </si>
@@ -371,6 +371,15 @@
   </si>
   <si>
     <t>Upside</t>
+  </si>
+  <si>
+    <t>Non-Finance Metrics</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Emply.</t>
   </si>
 </sst>
 </file>
@@ -379,8 +388,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0\x"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0\x"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -608,7 +617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -695,7 +704,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -704,16 +713,55 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -746,42 +794,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -926,7 +941,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -976,7 +991,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1318,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB50BB21-6927-4998-A7CD-B755108AED34}">
   <dimension ref="A2:X36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1332,14 +1347,14 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1347,37 +1362,37 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="H5" s="61" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
+      <c r="H5" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="63"/>
-      <c r="T5" s="61" t="s">
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="92"/>
+      <c r="T5" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="63"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="92"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="46">
-        <v>7.4459999999999997</v>
+        <v>7.62</v>
       </c>
       <c r="D6" s="14"/>
       <c r="H6" s="12"/>
@@ -1430,7 +1445,7 @@
       </c>
       <c r="C8" s="16">
         <f>C6*C7</f>
-        <v>7594.92</v>
+        <v>7772.4000000000005</v>
       </c>
       <c r="D8" s="14"/>
       <c r="H8" s="12"/>
@@ -1454,7 +1469,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="16">
-        <f>'Financial Model'!V63</f>
+        <f>'Financial Model'!V67</f>
         <v>493</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -1481,7 +1496,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="16">
-        <f>'Financial Model'!V64</f>
+        <f>'Financial Model'!V68</f>
         <v>1222</v>
       </c>
       <c r="D10" s="14" t="s">
@@ -1536,7 +1551,7 @@
       </c>
       <c r="C12" s="17">
         <f>C8-C11</f>
-        <v>8323.92</v>
+        <v>8501.4000000000015</v>
       </c>
       <c r="D12" s="15"/>
       <c r="H12" s="12"/>
@@ -1585,11 +1600,11 @@
       <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="92"/>
       <c r="H15" s="12"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1608,10 +1623,10 @@
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="58"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1633,10 +1648,10 @@
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="58"/>
+      <c r="D17" s="87"/>
       <c r="H17" s="12"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1652,10 +1667,10 @@
       <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="58"/>
+      <c r="D18" s="87"/>
       <c r="H18" s="12"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1671,10 +1686,10 @@
       <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="89"/>
       <c r="H19" s="12"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1711,11 +1726,11 @@
       <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
       <c r="H22" s="12"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1731,10 +1746,10 @@
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="58"/>
+      <c r="D23" s="87"/>
       <c r="H23" s="12"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1750,10 +1765,10 @@
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="86">
         <v>1981</v>
       </c>
-      <c r="D24" s="58"/>
+      <c r="D24" s="87"/>
       <c r="H24" s="12"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1769,10 +1784,10 @@
       <c r="B25" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="86">
         <v>1989</v>
       </c>
-      <c r="D25" s="58"/>
+      <c r="D25" s="87"/>
       <c r="H25" s="12"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1785,9 +1800,14 @@
       <c r="Q25" s="8"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="12"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
+      <c r="B26" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="96">
+        <f>'Financial Model'!V27</f>
+        <v>11228</v>
+      </c>
+      <c r="D26" s="87"/>
       <c r="H26" s="12"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -1824,10 +1844,10 @@
       <c r="B28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="65"/>
+      <c r="D28" s="94"/>
       <c r="H28" s="12"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -1864,11 +1884,11 @@
       <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="63"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="92"/>
       <c r="H31" s="12"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -1884,11 +1904,11 @@
       <c r="B32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="53">
+      <c r="C32" s="82">
         <f>C6/'Financial Model'!V14</f>
-        <v>29.901259842519682</v>
-      </c>
-      <c r="D32" s="54"/>
+        <v>30.6</v>
+      </c>
+      <c r="D32" s="83"/>
       <c r="H32" s="12"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -1904,11 +1924,11 @@
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="53">
+      <c r="C33" s="82">
         <f>C8/'Financial Model'!V4</f>
-        <v>3.9008320493066257</v>
-      </c>
-      <c r="D33" s="54"/>
+        <v>3.9919876733436057</v>
+      </c>
+      <c r="D33" s="83"/>
       <c r="H33" s="12"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -1924,11 +1944,11 @@
       <c r="B34" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="53">
-        <f>C6/'Financial Model'!V61</f>
-        <v>5.5155555555555553</v>
-      </c>
-      <c r="D34" s="54"/>
+      <c r="C34" s="82">
+        <f>C6/'Financial Model'!V65</f>
+        <v>5.6444444444444439</v>
+      </c>
+      <c r="D34" s="83"/>
       <c r="H34" s="13"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -1944,21 +1964,21 @@
       <c r="B35" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="53">
+      <c r="C35" s="82">
         <f>C12/'Financial Model'!V4</f>
-        <v>4.2752542372881353</v>
-      </c>
-      <c r="D35" s="54"/>
+        <v>4.3664098613251161</v>
+      </c>
+      <c r="D35" s="83"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="55">
+      <c r="C36" s="84">
         <f>C12/'Financial Model'!V13</f>
-        <v>32.771338582677167</v>
-      </c>
-      <c r="D36" s="56"/>
+        <v>33.470078740157483</v>
+      </c>
+      <c r="D36" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -1995,13 +2015,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBB68F3-0B4D-4779-B224-181DBEE6F8C1}">
-  <dimension ref="B1:BZ74"/>
+  <dimension ref="B1:BZ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="S4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH17" sqref="AH17"/>
+      <selection pane="bottomRight" activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2019,7 +2039,7 @@
     <col min="11" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="9.140625" style="23"/>
     <col min="13" max="22" width="9.140625" style="1"/>
-    <col min="23" max="23" width="9.140625" style="67"/>
+    <col min="23" max="23" width="9.140625" style="53"/>
     <col min="24" max="31" width="9.140625" style="38"/>
     <col min="32" max="32" width="9.140625" style="1"/>
     <col min="33" max="33" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -2072,31 +2092,31 @@
       <c r="V1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="71" t="s">
+      <c r="W1" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="72" t="s">
+      <c r="X1" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="72" t="s">
+      <c r="Y1" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="72" t="s">
+      <c r="Z1" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" s="72" t="s">
+      <c r="AA1" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="AB1" s="72" t="s">
+      <c r="AB1" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="AC1" s="72" t="s">
+      <c r="AC1" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="72" t="s">
+      <c r="AD1" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" s="72" t="s">
+      <c r="AE1" s="58" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2144,17 +2164,17 @@
       <c r="V2" s="29">
         <v>44834</v>
       </c>
-      <c r="W2" s="68" t="s">
+      <c r="W2" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
     </row>
     <row r="3" spans="2:78" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="25"/>
@@ -2186,15 +2206,15 @@
       <c r="V3" s="28">
         <v>44881</v>
       </c>
-      <c r="W3" s="68"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
     </row>
     <row r="4" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -2244,39 +2264,39 @@
       <c r="V4" s="35">
         <v>1947</v>
       </c>
-      <c r="W4" s="74">
+      <c r="W4" s="60">
         <f>V4*(1+W22)</f>
         <v>2024.88</v>
       </c>
-      <c r="X4" s="75">
+      <c r="X4" s="61">
         <f t="shared" ref="X4:AE4" si="0">W4*(1+X22)</f>
         <v>2085.6264000000001</v>
       </c>
-      <c r="Y4" s="75">
+      <c r="Y4" s="61">
         <f t="shared" si="0"/>
         <v>2127.3389280000001</v>
       </c>
-      <c r="Z4" s="75">
+      <c r="Z4" s="61">
         <f t="shared" si="0"/>
         <v>2169.88570656</v>
       </c>
-      <c r="AA4" s="75">
+      <c r="AA4" s="61">
         <f t="shared" si="0"/>
         <v>2213.2834206912003</v>
       </c>
-      <c r="AB4" s="75">
+      <c r="AB4" s="61">
         <f t="shared" si="0"/>
         <v>2257.5490891050244</v>
       </c>
-      <c r="AC4" s="75">
+      <c r="AC4" s="61">
         <f t="shared" si="0"/>
         <v>2302.7000708871251</v>
       </c>
-      <c r="AD4" s="75">
+      <c r="AD4" s="61">
         <f t="shared" si="0"/>
         <v>2348.7540723048678</v>
       </c>
-      <c r="AE4" s="75">
+      <c r="AE4" s="61">
         <f t="shared" si="0"/>
         <v>2395.729153750965</v>
       </c>
@@ -2328,7 +2348,7 @@
       <c r="V5" s="32">
         <v>138</v>
       </c>
-      <c r="W5" s="76">
+      <c r="W5" s="62">
         <f>W4-W6</f>
         <v>141.74159999999983</v>
       </c>
@@ -2422,39 +2442,39 @@
         <f>V4-V5</f>
         <v>1809</v>
       </c>
-      <c r="W6" s="74">
+      <c r="W6" s="60">
         <f>W4*W17</f>
         <v>1883.1384000000003</v>
       </c>
-      <c r="X6" s="75">
+      <c r="X6" s="61">
         <f t="shared" ref="X6:AE6" si="3">X4*X17</f>
         <v>1939.6325520000003</v>
       </c>
-      <c r="Y6" s="75">
+      <c r="Y6" s="61">
         <f t="shared" si="3"/>
         <v>1978.4252030400003</v>
       </c>
-      <c r="Z6" s="75">
+      <c r="Z6" s="61">
         <f t="shared" si="3"/>
         <v>2017.9937071008001</v>
       </c>
-      <c r="AA6" s="75">
+      <c r="AA6" s="61">
         <f t="shared" si="3"/>
         <v>2058.3535812428163</v>
       </c>
-      <c r="AB6" s="75">
+      <c r="AB6" s="61">
         <f t="shared" si="3"/>
         <v>2099.5206528676727</v>
       </c>
-      <c r="AC6" s="75">
+      <c r="AC6" s="61">
         <f t="shared" si="3"/>
         <v>2141.5110659250263</v>
       </c>
-      <c r="AD6" s="75">
+      <c r="AD6" s="61">
         <f t="shared" si="3"/>
         <v>2184.3412872435269</v>
       </c>
-      <c r="AE6" s="75">
+      <c r="AE6" s="61">
         <f t="shared" si="3"/>
         <v>2228.0281129883974</v>
       </c>
@@ -2506,7 +2526,7 @@
       <c r="V7" s="32">
         <v>1442</v>
       </c>
-      <c r="W7" s="76">
+      <c r="W7" s="62">
         <f>W6-W8</f>
         <v>1478.1624000000002</v>
       </c>
@@ -2600,39 +2620,39 @@
         <f>V6-V7</f>
         <v>367</v>
       </c>
-      <c r="W8" s="74">
+      <c r="W8" s="60">
         <f>W4*W18</f>
         <v>404.97600000000006</v>
       </c>
-      <c r="X8" s="75">
+      <c r="X8" s="61">
         <f t="shared" ref="X8:AE8" si="6">X4*X18</f>
         <v>417.12528000000003</v>
       </c>
-      <c r="Y8" s="75">
+      <c r="Y8" s="61">
         <f t="shared" si="6"/>
         <v>425.46778560000007</v>
       </c>
-      <c r="Z8" s="75">
+      <c r="Z8" s="61">
         <f t="shared" si="6"/>
         <v>433.97714131200001</v>
       </c>
-      <c r="AA8" s="75">
+      <c r="AA8" s="61">
         <f t="shared" si="6"/>
         <v>442.65668413824005</v>
       </c>
-      <c r="AB8" s="75">
+      <c r="AB8" s="61">
         <f t="shared" si="6"/>
         <v>451.5098178210049</v>
       </c>
-      <c r="AC8" s="75">
+      <c r="AC8" s="61">
         <f t="shared" si="6"/>
         <v>460.54001417742506</v>
       </c>
-      <c r="AD8" s="75">
+      <c r="AD8" s="61">
         <f t="shared" si="6"/>
         <v>469.75081446097357</v>
       </c>
-      <c r="AE8" s="75">
+      <c r="AE8" s="61">
         <f t="shared" si="6"/>
         <v>479.145830750193</v>
       </c>
@@ -2684,39 +2704,39 @@
       <c r="V9" s="32">
         <v>1</v>
       </c>
-      <c r="W9" s="76">
+      <c r="W9" s="62">
         <f>AVERAGE(R9:V9)</f>
         <v>3.6</v>
       </c>
-      <c r="X9" s="77">
+      <c r="X9" s="63">
         <f t="shared" ref="X9:AE9" si="8">AVERAGE(S9:W9)</f>
         <v>3.3200000000000003</v>
       </c>
-      <c r="Y9" s="77">
+      <c r="Y9" s="63">
         <f t="shared" si="8"/>
         <v>2.3839999999999999</v>
       </c>
-      <c r="Z9" s="77">
+      <c r="Z9" s="63">
         <f t="shared" si="8"/>
         <v>2.2608000000000001</v>
       </c>
-      <c r="AA9" s="77">
+      <c r="AA9" s="63">
         <f t="shared" si="8"/>
         <v>2.5129600000000001</v>
       </c>
-      <c r="AB9" s="77">
+      <c r="AB9" s="63">
         <f t="shared" si="8"/>
         <v>2.8155519999999998</v>
       </c>
-      <c r="AC9" s="77">
+      <c r="AC9" s="63">
         <f t="shared" si="8"/>
         <v>2.6586623999999999</v>
       </c>
-      <c r="AD9" s="77">
+      <c r="AD9" s="63">
         <f t="shared" si="8"/>
         <v>2.5263948800000002</v>
       </c>
-      <c r="AE9" s="77">
+      <c r="AE9" s="63">
         <f t="shared" si="8"/>
         <v>2.5548738559999999</v>
       </c>
@@ -2768,39 +2788,39 @@
       <c r="V10" s="32">
         <v>31</v>
       </c>
-      <c r="W10" s="76">
+      <c r="W10" s="62">
         <f t="shared" ref="W10" si="9">AVERAGE(R10:V10)</f>
         <v>31</v>
       </c>
-      <c r="X10" s="77">
+      <c r="X10" s="63">
         <f t="shared" ref="X10" si="10">AVERAGE(S10:W10)</f>
         <v>30.4</v>
       </c>
-      <c r="Y10" s="77">
+      <c r="Y10" s="63">
         <f t="shared" ref="Y10" si="11">AVERAGE(T10:X10)</f>
         <v>30.68</v>
       </c>
-      <c r="Z10" s="77">
+      <c r="Z10" s="63">
         <f t="shared" ref="Z10" si="12">AVERAGE(U10:Y10)</f>
         <v>30.016000000000002</v>
       </c>
-      <c r="AA10" s="77">
+      <c r="AA10" s="63">
         <f t="shared" ref="AA10" si="13">AVERAGE(V10:Z10)</f>
         <v>30.619199999999999</v>
       </c>
-      <c r="AB10" s="77">
+      <c r="AB10" s="63">
         <f t="shared" ref="AB10" si="14">AVERAGE(W10:AA10)</f>
         <v>30.543040000000001</v>
       </c>
-      <c r="AC10" s="77">
+      <c r="AC10" s="63">
         <f t="shared" ref="AC10" si="15">AVERAGE(X10:AB10)</f>
         <v>30.451647999999999</v>
       </c>
-      <c r="AD10" s="77">
+      <c r="AD10" s="63">
         <f t="shared" ref="AD10" si="16">AVERAGE(Y10:AC10)</f>
         <v>30.461977600000001</v>
       </c>
-      <c r="AE10" s="77">
+      <c r="AE10" s="63">
         <f t="shared" ref="AE10" si="17">AVERAGE(Z10:AD10)</f>
         <v>30.418373120000002</v>
       </c>
@@ -2842,59 +2862,59 @@
         <v>148</v>
       </c>
       <c r="R11" s="32">
-        <f>R8+R9-R10</f>
+        <f t="shared" ref="R11:X11" si="19">R8+R9-R10</f>
         <v>398</v>
       </c>
       <c r="S11" s="32">
-        <f>S8+S9-S10</f>
+        <f t="shared" si="19"/>
         <v>361</v>
       </c>
       <c r="T11" s="32">
-        <f>T8+T9-T10</f>
+        <f t="shared" si="19"/>
         <v>373</v>
       </c>
       <c r="U11" s="32">
-        <f>U8+U9-U10</f>
+        <f t="shared" si="19"/>
         <v>347</v>
       </c>
       <c r="V11" s="32">
-        <f>V8+V9-V10</f>
+        <f t="shared" si="19"/>
         <v>337</v>
       </c>
-      <c r="W11" s="76">
-        <f>W8+W9-W10</f>
+      <c r="W11" s="62">
+        <f t="shared" si="19"/>
         <v>377.57600000000008</v>
       </c>
       <c r="X11" s="39">
-        <f>X8+X9-X10</f>
+        <f t="shared" si="19"/>
         <v>390.04528000000005</v>
       </c>
       <c r="Y11" s="39">
-        <f t="shared" ref="Y11:AE11" si="19">Y8+Y9-Y10</f>
+        <f t="shared" ref="Y11:AE11" si="20">Y8+Y9-Y10</f>
         <v>397.17178560000008</v>
       </c>
       <c r="Z11" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>406.22194131200001</v>
       </c>
       <c r="AA11" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>414.5504441382401</v>
       </c>
       <c r="AB11" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>423.78232982100491</v>
       </c>
       <c r="AC11" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>432.74702857742511</v>
       </c>
       <c r="AD11" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>441.81523174097356</v>
       </c>
       <c r="AE11" s="39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>451.28233148619296</v>
       </c>
     </row>
@@ -2945,7 +2965,7 @@
       <c r="V12" s="32">
         <v>83</v>
       </c>
-      <c r="W12" s="76">
+      <c r="W12" s="62">
         <f>W11*W20</f>
         <v>94.39400000000002</v>
       </c>
@@ -2954,31 +2974,31 @@
         <v>97.511320000000012</v>
       </c>
       <c r="Y12" s="39">
-        <f t="shared" ref="Y12:AE12" si="20">Y11*Y20</f>
+        <f t="shared" ref="Y12:AE12" si="21">Y11*Y20</f>
         <v>99.292946400000019</v>
       </c>
       <c r="Z12" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>101.555485328</v>
       </c>
       <c r="AA12" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>103.63761103456002</v>
       </c>
       <c r="AB12" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>105.94558245525123</v>
       </c>
       <c r="AC12" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>108.18675714435628</v>
       </c>
       <c r="AD12" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>110.45380793524339</v>
       </c>
       <c r="AE12" s="39">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>112.82058287154824</v>
       </c>
     </row>
@@ -2987,92 +3007,92 @@
         <v>48</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" ref="C13:J13" si="21">C11-C12</f>
+        <f t="shared" ref="C13:J13" si="22">C11-C12</f>
         <v>154</v>
       </c>
       <c r="D13" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>112</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>224</v>
       </c>
       <c r="F13" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>86</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>146</v>
       </c>
       <c r="H13" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>139</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>152</v>
       </c>
       <c r="J13" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>102</v>
       </c>
       <c r="L13" s="30"/>
       <c r="R13" s="35">
-        <f>R11-R12</f>
+        <f t="shared" ref="R13:X13" si="23">R11-R12</f>
         <v>295</v>
       </c>
       <c r="S13" s="35">
-        <f>S11-S12</f>
+        <f t="shared" si="23"/>
         <v>266</v>
       </c>
       <c r="T13" s="35">
-        <f>T11-T12</f>
+        <f t="shared" si="23"/>
         <v>310</v>
       </c>
       <c r="U13" s="35">
-        <f>U11-U12</f>
+        <f t="shared" si="23"/>
         <v>285</v>
       </c>
       <c r="V13" s="35">
-        <f>V11-V12</f>
+        <f t="shared" si="23"/>
         <v>254</v>
       </c>
-      <c r="W13" s="74">
-        <f>W11-W12</f>
+      <c r="W13" s="60">
+        <f t="shared" si="23"/>
         <v>283.18200000000007</v>
       </c>
-      <c r="X13" s="75">
-        <f>X11-X12</f>
+      <c r="X13" s="61">
+        <f t="shared" si="23"/>
         <v>292.53396000000004</v>
       </c>
-      <c r="Y13" s="75">
-        <f t="shared" ref="Y13:AE13" si="22">Y11-Y12</f>
+      <c r="Y13" s="61">
+        <f t="shared" ref="Y13:AE13" si="24">Y11-Y12</f>
         <v>297.87883920000007</v>
       </c>
-      <c r="Z13" s="75">
-        <f t="shared" si="22"/>
+      <c r="Z13" s="61">
+        <f t="shared" si="24"/>
         <v>304.66645598399998</v>
       </c>
-      <c r="AA13" s="75">
-        <f t="shared" si="22"/>
+      <c r="AA13" s="61">
+        <f t="shared" si="24"/>
         <v>310.9128331036801</v>
       </c>
-      <c r="AB13" s="75">
-        <f t="shared" si="22"/>
+      <c r="AB13" s="61">
+        <f t="shared" si="24"/>
         <v>317.83674736575369</v>
       </c>
-      <c r="AC13" s="75">
-        <f t="shared" si="22"/>
+      <c r="AC13" s="61">
+        <f t="shared" si="24"/>
         <v>324.56027143306881</v>
       </c>
-      <c r="AD13" s="75">
-        <f t="shared" si="22"/>
+      <c r="AD13" s="61">
+        <f t="shared" si="24"/>
         <v>331.36142380573017</v>
       </c>
-      <c r="AE13" s="75">
-        <f t="shared" si="22"/>
+      <c r="AE13" s="61">
+        <f t="shared" si="24"/>
         <v>338.4617486146447</v>
       </c>
       <c r="AF13" s="35">
@@ -3080,281 +3100,281 @@
         <v>341.84636610079116</v>
       </c>
       <c r="AG13" s="35">
-        <f t="shared" ref="AG13:BZ13" si="23">AF13*(1+$AH$17)</f>
+        <f t="shared" ref="AG13:BZ13" si="25">AF13*(1+$AH$17)</f>
         <v>345.26482976179909</v>
       </c>
       <c r="AH13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>348.71747805941709</v>
       </c>
       <c r="AI13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>352.20465284001125</v>
       </c>
       <c r="AJ13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>355.72669936841135</v>
       </c>
       <c r="AK13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>359.28396636209544</v>
       </c>
       <c r="AL13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>362.87680602571641</v>
       </c>
       <c r="AM13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>366.50557408597359</v>
       </c>
       <c r="AN13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>370.17062982683331</v>
       </c>
       <c r="AO13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>373.87233612510164</v>
       </c>
       <c r="AP13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>377.61105948635264</v>
       </c>
       <c r="AQ13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>381.3871700812162</v>
       </c>
       <c r="AR13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>385.20104178202837</v>
       </c>
       <c r="AS13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>389.05305219984865</v>
       </c>
       <c r="AT13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>392.94358272184712</v>
       </c>
       <c r="AU13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>396.87301854906559</v>
       </c>
       <c r="AV13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>400.84174873455623</v>
       </c>
       <c r="AW13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>404.85016622190182</v>
       </c>
       <c r="AX13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>408.89866788412081</v>
       </c>
       <c r="AY13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>412.98765456296201</v>
       </c>
       <c r="AZ13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>417.11753110859161</v>
       </c>
       <c r="BA13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>421.28870641967751</v>
       </c>
       <c r="BB13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>425.50159348387427</v>
       </c>
       <c r="BC13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>429.75660941871303</v>
       </c>
       <c r="BD13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>434.05417551290014</v>
       </c>
       <c r="BE13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>438.39471726802913</v>
       </c>
       <c r="BF13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>442.77866444070941</v>
       </c>
       <c r="BG13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>447.2064510851165</v>
       </c>
       <c r="BH13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>451.67851559596767</v>
       </c>
       <c r="BI13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>456.19530075192733</v>
       </c>
       <c r="BJ13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>460.7572537594466</v>
       </c>
       <c r="BK13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>465.36482629704108</v>
       </c>
       <c r="BL13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>470.0184745600115</v>
       </c>
       <c r="BM13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>474.7186593056116</v>
       </c>
       <c r="BN13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>479.46584589866774</v>
       </c>
       <c r="BO13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>484.26050435765444</v>
       </c>
       <c r="BP13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>489.10310940123099</v>
       </c>
       <c r="BQ13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>493.9941404952433</v>
       </c>
       <c r="BR13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>498.93408190019574</v>
       </c>
       <c r="BS13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>503.92342271919767</v>
       </c>
       <c r="BT13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>508.96265694638964</v>
       </c>
       <c r="BU13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>514.05228351585356</v>
       </c>
       <c r="BV13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>519.19280635101211</v>
       </c>
       <c r="BW13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>524.3847344145222</v>
       </c>
       <c r="BX13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>529.62858175866745</v>
       </c>
       <c r="BY13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>534.92486757625409</v>
       </c>
       <c r="BZ13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>540.2741162520166</v>
       </c>
     </row>
-    <row r="14" spans="2:78" s="69" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="69" t="s">
+    <row r="14" spans="2:78" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="69">
-        <f t="shared" ref="C14:J14" si="24">C13/C15</f>
+      <c r="C14" s="55">
+        <f t="shared" ref="C14:J14" si="26">C13/C15</f>
         <v>0.14180478821362799</v>
       </c>
-      <c r="D14" s="70">
-        <f t="shared" si="24"/>
+      <c r="D14" s="56">
+        <f t="shared" si="26"/>
         <v>0.10313075506445672</v>
       </c>
-      <c r="E14" s="69">
-        <f t="shared" si="24"/>
+      <c r="E14" s="55">
+        <f t="shared" si="26"/>
         <v>0.20550458715596331</v>
       </c>
-      <c r="F14" s="70">
-        <f t="shared" si="24"/>
+      <c r="F14" s="56">
+        <f t="shared" si="26"/>
         <v>7.8826764436296978E-2</v>
       </c>
-      <c r="G14" s="69">
-        <f t="shared" si="24"/>
+      <c r="G14" s="55">
+        <f t="shared" si="26"/>
         <v>0.13345521023765997</v>
       </c>
-      <c r="H14" s="70">
-        <f t="shared" si="24"/>
+      <c r="H14" s="56">
+        <f t="shared" si="26"/>
         <v>0.12870370370370371</v>
       </c>
-      <c r="I14" s="69">
-        <f t="shared" si="24"/>
+      <c r="I14" s="55">
+        <f t="shared" si="26"/>
         <v>0.14858260019550343</v>
       </c>
-      <c r="J14" s="70">
-        <f t="shared" si="24"/>
+      <c r="J14" s="56">
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
-      <c r="L14" s="70"/>
-      <c r="R14" s="69">
-        <f t="shared" ref="R14:S14" si="25">R13/R15</f>
+      <c r="L14" s="56"/>
+      <c r="R14" s="55">
+        <f t="shared" ref="R14:S14" si="27">R13/R15</f>
         <v>0.2723915050784857</v>
       </c>
-      <c r="S14" s="69">
-        <f t="shared" si="25"/>
+      <c r="S14" s="55">
+        <f t="shared" si="27"/>
         <v>0.24493554327808473</v>
       </c>
-      <c r="T14" s="69">
+      <c r="T14" s="55">
         <f>T13/T15</f>
         <v>0.28414298808432631</v>
       </c>
-      <c r="U14" s="69">
+      <c r="U14" s="55">
         <f>U13/U15</f>
         <v>0.2638888888888889</v>
       </c>
-      <c r="V14" s="69">
+      <c r="V14" s="55">
         <f>V13/V15</f>
         <v>0.24901960784313726</v>
       </c>
-      <c r="W14" s="78">
+      <c r="W14" s="64">
         <f>W13/W15</f>
         <v>0.27762941176470596</v>
       </c>
-      <c r="X14" s="79">
+      <c r="X14" s="65">
         <f>X13/X15</f>
         <v>0.28679800000000005</v>
       </c>
-      <c r="Y14" s="79">
-        <f t="shared" ref="Y14:AE14" si="26">Y13/Y15</f>
+      <c r="Y14" s="65">
+        <f t="shared" ref="Y14:AE14" si="28">Y13/Y15</f>
         <v>0.29203807764705891</v>
       </c>
-      <c r="Z14" s="79">
-        <f t="shared" si="26"/>
+      <c r="Z14" s="65">
+        <f t="shared" si="28"/>
         <v>0.29869260390588231</v>
       </c>
-      <c r="AA14" s="79">
-        <f t="shared" si="26"/>
+      <c r="AA14" s="65">
+        <f t="shared" si="28"/>
         <v>0.30481650304282365</v>
       </c>
-      <c r="AB14" s="79">
-        <f t="shared" si="26"/>
+      <c r="AB14" s="65">
+        <f t="shared" si="28"/>
         <v>0.31160465428015066</v>
       </c>
-      <c r="AC14" s="79">
-        <f t="shared" si="26"/>
+      <c r="AC14" s="65">
+        <f t="shared" si="28"/>
         <v>0.31819634454222434</v>
       </c>
-      <c r="AD14" s="79">
-        <f t="shared" si="26"/>
+      <c r="AD14" s="65">
+        <f t="shared" si="28"/>
         <v>0.32486414098600996</v>
       </c>
-      <c r="AE14" s="79">
-        <f t="shared" si="26"/>
+      <c r="AE14" s="65">
+        <f t="shared" si="28"/>
         <v>0.33182524373984773</v>
       </c>
     </row>
@@ -3406,7 +3426,7 @@
       <c r="V15" s="32">
         <v>1020</v>
       </c>
-      <c r="W15" s="76">
+      <c r="W15" s="62">
         <f>V15</f>
         <v>1020</v>
       </c>
@@ -3415,31 +3435,31 @@
         <v>1020</v>
       </c>
       <c r="Y15" s="39">
-        <f t="shared" ref="Y15:AE15" si="27">X15</f>
+        <f t="shared" ref="Y15:AE15" si="29">X15</f>
         <v>1020</v>
       </c>
       <c r="Z15" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1020</v>
       </c>
       <c r="AA15" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1020</v>
       </c>
       <c r="AB15" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1020</v>
       </c>
       <c r="AC15" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1020</v>
       </c>
       <c r="AD15" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1020</v>
       </c>
       <c r="AE15" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>1020</v>
       </c>
     </row>
@@ -3448,43 +3468,43 @@
         <v>52</v>
       </c>
       <c r="C17" s="31">
-        <f t="shared" ref="C17:I17" si="28">C6/C4</f>
+        <f t="shared" ref="C17:I17" si="30">C6/C4</f>
         <v>0.92685475444096133</v>
       </c>
       <c r="D17" s="42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.93054136874361593</v>
       </c>
       <c r="E17" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.9343589743589743</v>
       </c>
       <c r="F17" s="42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.93318965517241381</v>
       </c>
       <c r="G17" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.9231590181430096</v>
       </c>
       <c r="H17" s="42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.93509350935093505</v>
       </c>
       <c r="I17" s="31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0.9271948608137045</v>
       </c>
       <c r="J17" s="42">
-        <f t="shared" ref="J17" si="29">J6/J4</f>
+        <f t="shared" ref="J17" si="31">J6/J4</f>
         <v>0.93089832181638699</v>
       </c>
       <c r="R17" s="31">
-        <f t="shared" ref="R17:S17" si="30">R6/R4</f>
+        <f t="shared" ref="R17:S17" si="32">R6/R4</f>
         <v>0.92957746478873238</v>
       </c>
       <c r="S17" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>0.92871900826446285</v>
       </c>
       <c r="T17" s="31">
@@ -3496,40 +3516,40 @@
         <v>0.92903575297941499</v>
       </c>
       <c r="V17" s="31">
-        <f t="shared" ref="V17" si="31">V6/V4</f>
+        <f t="shared" ref="V17" si="33">V6/V4</f>
         <v>0.92912172573189522</v>
       </c>
-      <c r="W17" s="80">
+      <c r="W17" s="66">
         <v>0.93</v>
       </c>
-      <c r="X17" s="81">
+      <c r="X17" s="67">
         <v>0.93</v>
       </c>
-      <c r="Y17" s="81">
+      <c r="Y17" s="67">
         <v>0.93</v>
       </c>
-      <c r="Z17" s="81">
+      <c r="Z17" s="67">
         <v>0.93</v>
       </c>
-      <c r="AA17" s="81">
+      <c r="AA17" s="67">
         <v>0.93</v>
       </c>
-      <c r="AB17" s="81">
+      <c r="AB17" s="67">
         <v>0.93</v>
       </c>
-      <c r="AC17" s="81">
+      <c r="AC17" s="67">
         <v>0.93</v>
       </c>
-      <c r="AD17" s="81">
+      <c r="AD17" s="67">
         <v>0.93</v>
       </c>
-      <c r="AE17" s="81">
+      <c r="AE17" s="67">
         <v>0.93</v>
       </c>
-      <c r="AG17" s="86" t="s">
+      <c r="AG17" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="AH17" s="87">
+      <c r="AH17" s="73">
         <v>0.01</v>
       </c>
     </row>
@@ -3538,43 +3558,43 @@
         <v>53</v>
       </c>
       <c r="C18" s="31">
-        <f t="shared" ref="C18:I18" si="32">C8/C4</f>
+        <f t="shared" ref="C18:I18" si="34">C8/C4</f>
         <v>0.21943573667711599</v>
       </c>
       <c r="D18" s="42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.17568947906026558</v>
       </c>
       <c r="E18" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.29641025641025642</v>
       </c>
       <c r="F18" s="42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.12392241379310345</v>
       </c>
       <c r="G18" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.21664887940234792</v>
       </c>
       <c r="H18" s="42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.18701870187018702</v>
       </c>
       <c r="I18" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>0.21841541755888652</v>
       </c>
       <c r="J18" s="42">
-        <f t="shared" ref="J18" si="33">J8/J4</f>
+        <f t="shared" ref="J18" si="35">J8/J4</f>
         <v>0.16090819348469892</v>
       </c>
       <c r="R18" s="31">
-        <f t="shared" ref="R18:S18" si="34">R8/R4</f>
+        <f t="shared" ref="R18:S18" si="36">R8/R4</f>
         <v>0.2313109425785482</v>
       </c>
       <c r="S18" s="31">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0.19731404958677687</v>
       </c>
       <c r="T18" s="31">
@@ -3586,40 +3606,40 @@
         <v>0.20205850487540628</v>
       </c>
       <c r="V18" s="31">
-        <f t="shared" ref="V18" si="35">V8/V4</f>
+        <f t="shared" ref="V18" si="37">V8/V4</f>
         <v>0.18849512069851052</v>
       </c>
-      <c r="W18" s="80">
+      <c r="W18" s="66">
         <v>0.2</v>
       </c>
-      <c r="X18" s="81">
+      <c r="X18" s="67">
         <v>0.2</v>
       </c>
-      <c r="Y18" s="81">
+      <c r="Y18" s="67">
         <v>0.2</v>
       </c>
-      <c r="Z18" s="81">
+      <c r="Z18" s="67">
         <v>0.2</v>
       </c>
-      <c r="AA18" s="81">
+      <c r="AA18" s="67">
         <v>0.2</v>
       </c>
-      <c r="AB18" s="81">
+      <c r="AB18" s="67">
         <v>0.2</v>
       </c>
-      <c r="AC18" s="81">
+      <c r="AC18" s="67">
         <v>0.2</v>
       </c>
-      <c r="AD18" s="81">
+      <c r="AD18" s="67">
         <v>0.2</v>
       </c>
-      <c r="AE18" s="81">
+      <c r="AE18" s="67">
         <v>0.2</v>
       </c>
-      <c r="AG18" s="88" t="s">
+      <c r="AG18" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="AH18" s="89">
+      <c r="AH18" s="75">
         <v>0.06</v>
       </c>
     </row>
@@ -3628,43 +3648,43 @@
         <v>54</v>
       </c>
       <c r="C19" s="31">
-        <f t="shared" ref="C19:I19" si="36">C13/C4</f>
+        <f t="shared" ref="C19:I19" si="38">C13/C4</f>
         <v>0.16091954022988506</v>
       </c>
       <c r="D19" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.11440245148110317</v>
       </c>
       <c r="E19" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.22974358974358974</v>
       </c>
       <c r="F19" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>9.2672413793103453E-2</v>
       </c>
       <c r="G19" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.15581643543223053</v>
       </c>
       <c r="H19" s="42">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.15291529152915292</v>
       </c>
       <c r="I19" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.16274089935760172</v>
       </c>
       <c r="J19" s="42">
-        <f t="shared" ref="J19" si="37">J13/J4</f>
+        <f t="shared" ref="J19" si="39">J13/J4</f>
         <v>0.10069101678183613</v>
       </c>
       <c r="R19" s="31">
-        <f t="shared" ref="R19:S19" si="38">R13/R4</f>
+        <f t="shared" ref="R19:S19" si="40">R13/R4</f>
         <v>0.15980498374864571</v>
       </c>
       <c r="S19" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.13739669421487602</v>
       </c>
       <c r="T19" s="31">
@@ -3676,13 +3696,13 @@
         <v>0.1543878656554713</v>
       </c>
       <c r="V19" s="31">
-        <f t="shared" ref="V19" si="39">V13/V4</f>
+        <f t="shared" ref="V19" si="41">V13/V4</f>
         <v>0.13045711350796096</v>
       </c>
-      <c r="AG19" s="88" t="s">
+      <c r="AG19" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="AH19" s="94">
+      <c r="AH19" s="80">
         <f>NPV(AH18,W13:BZ13)</f>
         <v>5728.5102119431367</v>
       </c>
@@ -3692,97 +3712,97 @@
         <v>100</v>
       </c>
       <c r="C20" s="31">
-        <f t="shared" ref="C20:I20" si="40">C12/C11</f>
+        <f t="shared" ref="C20:I20" si="42">C12/C11</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D20" s="42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.31288343558282211</v>
       </c>
       <c r="E20" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.18545454545454546</v>
       </c>
       <c r="F20" s="42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.12244897959183673</v>
       </c>
       <c r="G20" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.23157894736842105</v>
       </c>
       <c r="H20" s="42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.11464968152866242</v>
       </c>
       <c r="I20" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0.19576719576719576</v>
       </c>
       <c r="J20" s="42">
-        <f t="shared" ref="J20" si="41">J12/J11</f>
+        <f t="shared" ref="J20" si="43">J12/J11</f>
         <v>0.3108108108108108</v>
       </c>
       <c r="R20" s="31">
-        <f t="shared" ref="R20:U20" si="42">R12/R11</f>
+        <f t="shared" ref="R20:U20" si="44">R12/R11</f>
         <v>0.25879396984924624</v>
       </c>
       <c r="S20" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="T20" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.16890080428954424</v>
       </c>
       <c r="U20" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.17867435158501441</v>
       </c>
       <c r="V20" s="31">
-        <f t="shared" ref="V20" si="43">V12/V11</f>
+        <f t="shared" ref="V20" si="45">V12/V11</f>
         <v>0.24629080118694363</v>
       </c>
-      <c r="W20" s="80">
+      <c r="W20" s="66">
         <v>0.25</v>
       </c>
-      <c r="X20" s="81">
+      <c r="X20" s="67">
         <v>0.25</v>
       </c>
-      <c r="Y20" s="81">
+      <c r="Y20" s="67">
         <v>0.25</v>
       </c>
-      <c r="Z20" s="81">
+      <c r="Z20" s="67">
         <v>0.25</v>
       </c>
-      <c r="AA20" s="81">
+      <c r="AA20" s="67">
         <v>0.25</v>
       </c>
-      <c r="AB20" s="81">
+      <c r="AB20" s="67">
         <v>0.25</v>
       </c>
-      <c r="AC20" s="81">
+      <c r="AC20" s="67">
         <v>0.25</v>
       </c>
-      <c r="AD20" s="81">
+      <c r="AD20" s="67">
         <v>0.25</v>
       </c>
-      <c r="AE20" s="81">
+      <c r="AE20" s="67">
         <v>0.25</v>
       </c>
-      <c r="AG20" s="88" t="s">
+      <c r="AG20" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="AH20" s="94">
+      <c r="AH20" s="80">
         <f>Main!C11</f>
         <v>-729</v>
       </c>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AG21" s="88" t="s">
+      <c r="AG21" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="AH21" s="94">
+      <c r="AH21" s="80">
         <f>AH19-AH20</f>
         <v>6457.5102119431367</v>
       </c>
@@ -3798,27 +3818,27 @@
         <v>92</v>
       </c>
       <c r="E22" s="41">
-        <f t="shared" ref="E22:J22" si="44">E4/C4-1</f>
+        <f t="shared" ref="E22:J22" si="46">E4/C4-1</f>
         <v>1.8808777429467183E-2</v>
       </c>
       <c r="F22" s="51">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-5.2093973442288055E-2</v>
       </c>
       <c r="G22" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-3.8974358974358969E-2</v>
       </c>
       <c r="H22" s="51">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-2.0474137931034475E-2</v>
       </c>
       <c r="I22" s="41">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-3.2017075773745907E-3</v>
       </c>
       <c r="J22" s="51">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.11441144114411439</v>
       </c>
       <c r="L22" s="30"/>
@@ -3826,11 +3846,11 @@
         <v>92</v>
       </c>
       <c r="S22" s="41">
-        <f t="shared" ref="S22:T22" si="45">S4/R4-1</f>
+        <f t="shared" ref="S22:T22" si="47">S4/R4-1</f>
         <v>4.8754062838569867E-2</v>
       </c>
       <c r="T22" s="41">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>-1.7045454545454586E-2</v>
       </c>
       <c r="U22" s="41">
@@ -3838,40 +3858,40 @@
         <v>-2.9952706253284278E-2</v>
       </c>
       <c r="V22" s="41">
-        <f t="shared" ref="V22" si="46">V4/U4-1</f>
+        <f t="shared" ref="V22" si="48">V4/U4-1</f>
         <v>5.4712892741061836E-2</v>
       </c>
-      <c r="W22" s="82">
+      <c r="W22" s="68">
         <v>0.04</v>
       </c>
-      <c r="X22" s="83">
+      <c r="X22" s="69">
         <v>0.03</v>
       </c>
-      <c r="Y22" s="83">
+      <c r="Y22" s="69">
         <v>0.02</v>
       </c>
-      <c r="Z22" s="83">
+      <c r="Z22" s="69">
         <v>0.02</v>
       </c>
-      <c r="AA22" s="83">
+      <c r="AA22" s="69">
         <v>0.02</v>
       </c>
-      <c r="AB22" s="83">
+      <c r="AB22" s="69">
         <v>0.02</v>
       </c>
-      <c r="AC22" s="83">
+      <c r="AC22" s="69">
         <v>0.02</v>
       </c>
-      <c r="AD22" s="83">
+      <c r="AD22" s="69">
         <v>0.02</v>
       </c>
-      <c r="AE22" s="83">
+      <c r="AE22" s="69">
         <v>0.02</v>
       </c>
       <c r="AG22" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AH22" s="93">
+      <c r="AH22" s="79">
         <f>AH21/Main!C7</f>
         <v>6.3308923646501336</v>
       </c>
@@ -3884,31 +3904,31 @@
         <v>92</v>
       </c>
       <c r="D23" s="42">
-        <f t="shared" ref="D23:J23" si="47">D4/C4-1</f>
+        <f t="shared" ref="D23:J23" si="49">D4/C4-1</f>
         <v>2.2988505747126409E-2</v>
       </c>
       <c r="E23" s="31">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-4.0858018386108474E-3</v>
       </c>
       <c r="F23" s="42">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-4.8205128205128234E-2</v>
       </c>
       <c r="G23" s="31">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>9.6982758620689502E-3</v>
       </c>
       <c r="H23" s="42">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-2.9882604055496254E-2</v>
       </c>
       <c r="I23" s="31">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>2.7502750275027577E-2</v>
       </c>
       <c r="J23" s="42">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>8.4582441113490336E-2</v>
       </c>
       <c r="R23" s="19" t="s">
@@ -3926,1984 +3946,2063 @@
       <c r="V23" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AG23" s="88" t="s">
+      <c r="AG23" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="AH23" s="90">
+      <c r="AH23" s="76">
         <f>Main!C6</f>
-        <v>7.4459999999999997</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="24" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AG24" s="91" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="42"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="AG24" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="AH24" s="92">
+      <c r="AH24" s="78">
         <f>AH22/AH23-1</f>
-        <v>-0.14975928489791379</v>
-      </c>
-    </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B27" s="34" t="s">
+        <v>-0.16917423036087487</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="C25" s="19"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="42"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B26" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="42"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+    </row>
+    <row r="27" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="81"/>
+      <c r="D27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81">
+        <v>12755</v>
+      </c>
+      <c r="T27" s="81">
+        <v>12506</v>
+      </c>
+      <c r="U27" s="81">
+        <v>11785</v>
+      </c>
+      <c r="V27" s="81">
+        <v>11228</v>
+      </c>
+      <c r="W27" s="62"/>
+      <c r="X27" s="39"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="39"/>
+      <c r="AD27" s="39"/>
+      <c r="AE27" s="39"/>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B31" s="34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C32" s="32">
         <f>2002+238</f>
         <v>2240</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D32" s="33">
         <f>2098+228</f>
         <v>2326</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E32" s="32">
         <f>2059+216</f>
         <v>2275</v>
       </c>
-      <c r="F28" s="33">
-        <f>T28</f>
+      <c r="F32" s="33">
+        <f>T32</f>
         <v>2174</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G32" s="32">
         <f>1843+188</f>
         <v>2031</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H32" s="33">
         <f>1877+190</f>
         <v>2067</v>
       </c>
-      <c r="I28" s="32">
+      <c r="I32" s="32">
         <f>2082+281</f>
         <v>2363</v>
       </c>
-      <c r="J28" s="23">
-        <f>V28</f>
+      <c r="J32" s="23">
+        <f>V32</f>
         <v>2710</v>
       </c>
-      <c r="R28" s="32">
+      <c r="R32" s="32">
         <f>2008+260</f>
         <v>2268</v>
       </c>
-      <c r="S28" s="32">
+      <c r="S32" s="32">
         <f>2098+228</f>
         <v>2326</v>
       </c>
-      <c r="T28" s="32">
+      <c r="T32" s="32">
         <f>1962+212</f>
         <v>2174</v>
       </c>
-      <c r="U28" s="32">
+      <c r="U32" s="32">
         <f>1877+190</f>
         <v>2067</v>
       </c>
-      <c r="V28" s="1">
+      <c r="V32" s="1">
         <f>2416+294</f>
         <v>2710</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="32">
-        <v>131</v>
-      </c>
-      <c r="D29" s="33">
-        <v>117</v>
-      </c>
-      <c r="E29" s="32">
-        <v>198</v>
-      </c>
-      <c r="F29" s="33">
-        <f>T29</f>
-        <v>173</v>
-      </c>
-      <c r="G29" s="32">
-        <v>165</v>
-      </c>
-      <c r="H29" s="33">
-        <v>164</v>
-      </c>
-      <c r="I29" s="32">
-        <v>155</v>
-      </c>
-      <c r="J29" s="23">
-        <f>-V29</f>
-        <v>-152</v>
-      </c>
-      <c r="R29" s="32">
-        <v>129</v>
-      </c>
-      <c r="S29" s="32">
-        <v>117</v>
-      </c>
-      <c r="T29" s="32">
-        <v>173</v>
-      </c>
-      <c r="U29" s="32">
-        <v>164</v>
-      </c>
-      <c r="V29" s="1">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="35">
-        <v>0</v>
-      </c>
-      <c r="D30" s="36">
-        <v>0</v>
-      </c>
-      <c r="E30" s="35">
-        <v>0</v>
-      </c>
-      <c r="F30" s="36">
-        <f>T30</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="35">
-        <v>19</v>
-      </c>
-      <c r="H30" s="36">
-        <v>21</v>
-      </c>
-      <c r="I30" s="35">
-        <v>4</v>
-      </c>
-      <c r="J30" s="30">
-        <f>V30</f>
-        <v>4</v>
-      </c>
-      <c r="L30" s="30"/>
-      <c r="R30" s="35">
-        <v>0</v>
-      </c>
-      <c r="S30" s="35">
-        <v>0</v>
-      </c>
-      <c r="T30" s="35">
-        <v>0</v>
-      </c>
-      <c r="U30" s="35">
-        <v>21</v>
-      </c>
-      <c r="V30" s="2">
-        <v>4</v>
-      </c>
-      <c r="W30" s="84"/>
-      <c r="X30" s="85"/>
-      <c r="Y30" s="85"/>
-      <c r="Z30" s="85"/>
-      <c r="AA30" s="85"/>
-      <c r="AB30" s="85"/>
-      <c r="AC30" s="85"/>
-      <c r="AD30" s="85"/>
-      <c r="AE30" s="85"/>
-    </row>
-    <row r="31" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="35">
-        <v>3</v>
-      </c>
-      <c r="D31" s="36">
-        <v>4</v>
-      </c>
-      <c r="E31" s="35">
-        <v>3</v>
-      </c>
-      <c r="F31" s="36">
-        <f>T31</f>
-        <v>1</v>
-      </c>
-      <c r="G31" s="35">
-        <v>1</v>
-      </c>
-      <c r="H31" s="36">
-        <v>0</v>
-      </c>
-      <c r="I31" s="35">
-        <v>0</v>
-      </c>
-      <c r="J31" s="23">
-        <f t="shared" ref="J31:J38" si="48">-V31</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="30"/>
-      <c r="R31" s="35">
-        <v>1</v>
-      </c>
-      <c r="S31" s="35">
-        <v>4</v>
-      </c>
-      <c r="T31" s="35">
-        <v>1</v>
-      </c>
-      <c r="U31" s="35">
-        <v>0</v>
-      </c>
-      <c r="V31" s="2">
-        <v>0</v>
-      </c>
-      <c r="W31" s="84"/>
-      <c r="X31" s="85"/>
-      <c r="Y31" s="85"/>
-      <c r="Z31" s="85"/>
-      <c r="AA31" s="85"/>
-      <c r="AB31" s="85"/>
-      <c r="AC31" s="85"/>
-      <c r="AD31" s="85"/>
-      <c r="AE31" s="85"/>
-    </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="32">
-        <v>40</v>
-      </c>
-      <c r="D32" s="33">
-        <v>73</v>
-      </c>
-      <c r="E32" s="32">
-        <v>83</v>
-      </c>
-      <c r="F32" s="33">
-        <f t="shared" ref="F32:F38" si="49">T32</f>
-        <v>86</v>
-      </c>
-      <c r="G32" s="32">
-        <v>101</v>
-      </c>
-      <c r="H32" s="33">
-        <v>113</v>
-      </c>
-      <c r="I32" s="32">
-        <v>116</v>
-      </c>
-      <c r="J32" s="23">
-        <f t="shared" si="48"/>
-        <v>-128</v>
-      </c>
-      <c r="R32" s="32">
-        <v>2</v>
-      </c>
-      <c r="S32" s="32">
-        <v>73</v>
-      </c>
-      <c r="T32" s="32">
-        <v>86</v>
-      </c>
-      <c r="U32" s="32">
-        <v>113</v>
-      </c>
-      <c r="V32" s="1">
-        <v>128</v>
-      </c>
-    </row>
     <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C33" s="32">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="D33" s="33">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="E33" s="32">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="F33" s="33">
-        <f t="shared" si="49"/>
-        <v>35</v>
+        <f>T33</f>
+        <v>173</v>
       </c>
       <c r="G33" s="32">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="H33" s="33">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="I33" s="32">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="J33" s="23">
-        <f t="shared" si="48"/>
-        <v>-19</v>
+        <f>-V33</f>
+        <v>-152</v>
       </c>
       <c r="R33" s="32">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="S33" s="32">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="T33" s="32">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="U33" s="32">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="V33" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="35">
+        <v>0</v>
+      </c>
+      <c r="D34" s="36">
+        <v>0</v>
+      </c>
+      <c r="E34" s="35">
+        <v>0</v>
+      </c>
+      <c r="F34" s="36">
+        <f>T34</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="35">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="32">
-        <f t="shared" ref="C34:J34" si="50">SUM(C28:C33)</f>
-        <v>2471</v>
-      </c>
-      <c r="D34" s="33">
-        <f t="shared" si="50"/>
-        <v>2551</v>
-      </c>
-      <c r="E34" s="32">
-        <f t="shared" si="50"/>
-        <v>2585</v>
-      </c>
-      <c r="F34" s="33">
-        <f t="shared" si="50"/>
-        <v>2469</v>
-      </c>
-      <c r="G34" s="32">
-        <f t="shared" si="50"/>
-        <v>2353</v>
-      </c>
-      <c r="H34" s="33">
-        <f t="shared" si="50"/>
-        <v>2405</v>
-      </c>
-      <c r="I34" s="32">
-        <f t="shared" si="50"/>
-        <v>2672</v>
-      </c>
-      <c r="J34" s="33">
-        <f t="shared" si="50"/>
-        <v>2415</v>
-      </c>
-      <c r="R34" s="32">
-        <f>SUM(R28:R33)</f>
-        <v>2451</v>
-      </c>
-      <c r="S34" s="32">
-        <f>SUM(S28:S33)</f>
-        <v>2551</v>
-      </c>
-      <c r="T34" s="32">
-        <f>SUM(T28:T33)</f>
-        <v>2469</v>
-      </c>
-      <c r="U34" s="32">
-        <f>SUM(U28:U33)</f>
-        <v>2405</v>
-      </c>
-      <c r="V34" s="32">
-        <f>SUM(V28:V33)</f>
-        <v>3013</v>
-      </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="32">
-        <v>402</v>
-      </c>
-      <c r="D35" s="33">
-        <v>364</v>
-      </c>
-      <c r="E35" s="32">
-        <v>329</v>
-      </c>
-      <c r="F35" s="33">
-        <f t="shared" si="49"/>
-        <v>302</v>
-      </c>
-      <c r="G35" s="32">
-        <v>290</v>
-      </c>
-      <c r="H35" s="33">
-        <v>295</v>
-      </c>
-      <c r="I35" s="1">
-        <v>329</v>
+      <c r="H34" s="36">
+        <v>21</v>
+      </c>
+      <c r="I34" s="35">
+        <v>4</v>
+      </c>
+      <c r="J34" s="30">
+        <f>V34</f>
+        <v>4</v>
+      </c>
+      <c r="L34" s="30"/>
+      <c r="R34" s="35">
+        <v>0</v>
+      </c>
+      <c r="S34" s="35">
+        <v>0</v>
+      </c>
+      <c r="T34" s="35">
+        <v>0</v>
+      </c>
+      <c r="U34" s="35">
+        <v>21</v>
+      </c>
+      <c r="V34" s="2">
+        <v>4</v>
+      </c>
+      <c r="W34" s="70"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="71"/>
+      <c r="AD34" s="71"/>
+      <c r="AE34" s="71"/>
+    </row>
+    <row r="35" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="35">
+        <v>3</v>
+      </c>
+      <c r="D35" s="36">
+        <v>4</v>
+      </c>
+      <c r="E35" s="35">
+        <v>3</v>
+      </c>
+      <c r="F35" s="36">
+        <f>T35</f>
+        <v>1</v>
+      </c>
+      <c r="G35" s="35">
+        <v>1</v>
+      </c>
+      <c r="H35" s="36">
+        <v>0</v>
+      </c>
+      <c r="I35" s="35">
+        <v>0</v>
       </c>
       <c r="J35" s="23">
-        <f t="shared" si="48"/>
-        <v>-335</v>
-      </c>
-      <c r="R35" s="32">
-        <v>460</v>
-      </c>
-      <c r="S35" s="32">
-        <v>364</v>
-      </c>
-      <c r="T35" s="32">
-        <v>302</v>
-      </c>
-      <c r="U35" s="32">
-        <v>295</v>
-      </c>
-      <c r="V35" s="1">
-        <v>335</v>
-      </c>
+        <f t="shared" ref="J35:J42" si="50">-V35</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="30"/>
+      <c r="R35" s="35">
+        <v>1</v>
+      </c>
+      <c r="S35" s="35">
+        <v>4</v>
+      </c>
+      <c r="T35" s="35">
+        <v>1</v>
+      </c>
+      <c r="U35" s="35">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="70"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="71"/>
+      <c r="AA35" s="71"/>
+      <c r="AB35" s="71"/>
+      <c r="AC35" s="71"/>
+      <c r="AD35" s="71"/>
+      <c r="AE35" s="71"/>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C36" s="32">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D36" s="33">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E36" s="32">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="F36" s="33">
-        <f t="shared" si="49"/>
-        <v>5</v>
+        <f t="shared" ref="F36:F42" si="51">T36</f>
+        <v>86</v>
       </c>
       <c r="G36" s="32">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="H36" s="33">
-        <v>37</v>
-      </c>
-      <c r="I36" s="1">
-        <v>28</v>
+        <v>113</v>
+      </c>
+      <c r="I36" s="32">
+        <v>116</v>
       </c>
       <c r="J36" s="23">
-        <f t="shared" si="48"/>
-        <v>-39</v>
+        <f t="shared" si="50"/>
+        <v>-128</v>
       </c>
       <c r="R36" s="32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S36" s="32">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="T36" s="32">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="U36" s="32">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="V36" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="35">
-        <v>351</v>
-      </c>
-      <c r="D37" s="36">
-        <v>371</v>
-      </c>
-      <c r="E37" s="35">
-        <v>912</v>
-      </c>
-      <c r="F37" s="36">
-        <f>T37</f>
-        <v>831</v>
-      </c>
-      <c r="G37" s="35">
-        <v>693</v>
-      </c>
-      <c r="H37" s="36">
-        <v>553</v>
-      </c>
-      <c r="I37" s="2">
-        <v>515</v>
-      </c>
-      <c r="J37" s="30">
-        <f>V37</f>
-        <v>489</v>
-      </c>
-      <c r="L37" s="30"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="35">
-        <v>272</v>
-      </c>
-      <c r="S37" s="35">
-        <v>371</v>
-      </c>
-      <c r="T37" s="35">
-        <v>831</v>
-      </c>
-      <c r="U37" s="35">
-        <v>553</v>
-      </c>
-      <c r="V37" s="2">
-        <v>489</v>
-      </c>
-      <c r="W37" s="84"/>
-      <c r="X37" s="85"/>
-      <c r="Y37" s="85"/>
-      <c r="Z37" s="85"/>
-      <c r="AA37" s="85"/>
-      <c r="AB37" s="85"/>
-      <c r="AC37" s="85"/>
-      <c r="AD37" s="85"/>
-      <c r="AE37" s="85"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="32">
+        <v>57</v>
+      </c>
+      <c r="D37" s="33">
+        <v>31</v>
+      </c>
+      <c r="E37" s="32">
+        <v>26</v>
+      </c>
+      <c r="F37" s="33">
+        <f t="shared" si="51"/>
+        <v>35</v>
+      </c>
+      <c r="G37" s="32">
+        <v>36</v>
+      </c>
+      <c r="H37" s="33">
+        <v>40</v>
+      </c>
+      <c r="I37" s="32">
+        <v>34</v>
+      </c>
+      <c r="J37" s="23">
+        <f t="shared" si="50"/>
+        <v>-19</v>
+      </c>
+      <c r="R37" s="32">
+        <v>51</v>
+      </c>
+      <c r="S37" s="32">
+        <v>31</v>
+      </c>
+      <c r="T37" s="32">
+        <v>35</v>
+      </c>
+      <c r="U37" s="32">
+        <v>40</v>
+      </c>
+      <c r="V37" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C38" s="32">
-        <v>0</v>
+        <f t="shared" ref="C38:J38" si="52">SUM(C32:C37)</f>
+        <v>2471</v>
       </c>
       <c r="D38" s="33">
-        <v>63</v>
+        <f t="shared" si="52"/>
+        <v>2551</v>
       </c>
       <c r="E38" s="32">
-        <v>0</v>
+        <f t="shared" si="52"/>
+        <v>2585</v>
       </c>
       <c r="F38" s="33">
-        <f t="shared" si="49"/>
-        <v>108</v>
+        <f t="shared" si="52"/>
+        <v>2469</v>
       </c>
       <c r="G38" s="32">
-        <v>95</v>
+        <f t="shared" si="52"/>
+        <v>2353</v>
       </c>
       <c r="H38" s="33">
-        <v>39</v>
-      </c>
-      <c r="I38" s="1">
-        <v>2</v>
-      </c>
-      <c r="J38" s="23">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" si="52"/>
+        <v>2405</v>
+      </c>
+      <c r="I38" s="32">
+        <f t="shared" si="52"/>
+        <v>2672</v>
+      </c>
+      <c r="J38" s="33">
+        <f t="shared" si="52"/>
+        <v>2415</v>
       </c>
       <c r="R38" s="32">
-        <v>113</v>
+        <f>SUM(R32:R37)</f>
+        <v>2451</v>
       </c>
       <c r="S38" s="32">
-        <v>63</v>
+        <f>SUM(S32:S37)</f>
+        <v>2551</v>
       </c>
       <c r="T38" s="32">
-        <v>108</v>
+        <f>SUM(T32:T37)</f>
+        <v>2469</v>
       </c>
       <c r="U38" s="32">
-        <v>39</v>
-      </c>
-      <c r="V38" s="1">
-        <v>0</v>
+        <f>SUM(U32:U37)</f>
+        <v>2405</v>
+      </c>
+      <c r="V38" s="32">
+        <f>SUM(V32:V37)</f>
+        <v>3013</v>
       </c>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C39" s="32">
-        <f t="shared" ref="C39:J39" si="51">C34+SUM(C35:C38)</f>
-        <v>3228</v>
+        <v>402</v>
       </c>
       <c r="D39" s="33">
-        <f t="shared" si="51"/>
-        <v>3352</v>
+        <v>364</v>
       </c>
       <c r="E39" s="32">
-        <f t="shared" si="51"/>
-        <v>3841</v>
+        <v>329</v>
       </c>
       <c r="F39" s="33">
         <f t="shared" si="51"/>
-        <v>3715</v>
+        <v>302</v>
       </c>
       <c r="G39" s="32">
+        <v>290</v>
+      </c>
+      <c r="H39" s="33">
+        <v>295</v>
+      </c>
+      <c r="I39" s="1">
+        <v>329</v>
+      </c>
+      <c r="J39" s="23">
+        <f t="shared" si="50"/>
+        <v>-335</v>
+      </c>
+      <c r="R39" s="32">
+        <v>460</v>
+      </c>
+      <c r="S39" s="32">
+        <v>364</v>
+      </c>
+      <c r="T39" s="32">
+        <v>302</v>
+      </c>
+      <c r="U39" s="32">
+        <v>295</v>
+      </c>
+      <c r="V39" s="1">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="32">
+        <v>4</v>
+      </c>
+      <c r="D40" s="33">
+        <v>3</v>
+      </c>
+      <c r="E40" s="32">
+        <v>15</v>
+      </c>
+      <c r="F40" s="33">
         <f t="shared" si="51"/>
-        <v>3444</v>
-      </c>
-      <c r="H39" s="33">
-        <f t="shared" si="51"/>
-        <v>3329</v>
-      </c>
-      <c r="I39" s="32">
-        <f t="shared" si="51"/>
-        <v>3546</v>
-      </c>
-      <c r="J39" s="33">
-        <f t="shared" si="51"/>
-        <v>2530</v>
-      </c>
-      <c r="R39" s="32">
-        <f>R34+SUM(R35:R38)</f>
-        <v>3300</v>
-      </c>
-      <c r="S39" s="32">
-        <f>S34+SUM(S35:S38)</f>
-        <v>3352</v>
-      </c>
-      <c r="T39" s="32">
-        <f>T34+SUM(T35:T38)</f>
-        <v>3715</v>
-      </c>
-      <c r="U39" s="32">
-        <f>U34+SUM(U35:U38)</f>
-        <v>3329</v>
-      </c>
-      <c r="V39" s="32">
-        <f>V34+SUM(V35:V38)</f>
-        <v>3876</v>
-      </c>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="G40" s="32"/>
-      <c r="H40" s="33"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="32">
-        <v>276</v>
-      </c>
-      <c r="D41" s="33">
-        <v>291</v>
-      </c>
-      <c r="E41" s="32">
-        <v>242</v>
-      </c>
-      <c r="F41" s="33">
-        <f t="shared" ref="F41:F46" si="52">T41</f>
-        <v>297</v>
-      </c>
-      <c r="G41" s="32">
-        <v>529</v>
-      </c>
-      <c r="H41" s="33">
-        <v>592</v>
-      </c>
-      <c r="I41" s="32">
-        <v>311</v>
-      </c>
-      <c r="J41" s="23">
-        <f t="shared" ref="J41:J46" si="53">V41</f>
-        <v>368</v>
-      </c>
-      <c r="R41" s="32">
-        <v>249</v>
-      </c>
-      <c r="S41" s="32">
-        <v>291</v>
-      </c>
-      <c r="T41" s="32">
-        <v>297</v>
-      </c>
-      <c r="U41" s="32">
-        <v>592</v>
-      </c>
-      <c r="V41" s="1">
-        <v>368</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G40" s="32">
+        <v>13</v>
+      </c>
+      <c r="H40" s="33">
+        <v>37</v>
+      </c>
+      <c r="I40" s="1">
+        <v>28</v>
+      </c>
+      <c r="J40" s="23">
+        <f t="shared" si="50"/>
+        <v>-39</v>
+      </c>
+      <c r="R40" s="32">
+        <v>4</v>
+      </c>
+      <c r="S40" s="32">
+        <v>3</v>
+      </c>
+      <c r="T40" s="32">
+        <v>5</v>
+      </c>
+      <c r="U40" s="32">
+        <v>37</v>
+      </c>
+      <c r="V40" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="35">
+        <v>351</v>
+      </c>
+      <c r="D41" s="36">
+        <v>371</v>
+      </c>
+      <c r="E41" s="35">
+        <v>912</v>
+      </c>
+      <c r="F41" s="36">
+        <f>T41</f>
+        <v>831</v>
+      </c>
+      <c r="G41" s="35">
+        <v>693</v>
+      </c>
+      <c r="H41" s="36">
+        <v>553</v>
+      </c>
+      <c r="I41" s="2">
+        <v>515</v>
+      </c>
+      <c r="J41" s="30">
+        <f>V41</f>
+        <v>489</v>
+      </c>
+      <c r="L41" s="30"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="35">
+        <v>272</v>
+      </c>
+      <c r="S41" s="35">
+        <v>371</v>
+      </c>
+      <c r="T41" s="35">
+        <v>831</v>
+      </c>
+      <c r="U41" s="35">
+        <v>553</v>
+      </c>
+      <c r="V41" s="2">
+        <v>489</v>
+      </c>
+      <c r="W41" s="70"/>
+      <c r="X41" s="71"/>
+      <c r="Y41" s="71"/>
+      <c r="Z41" s="71"/>
+      <c r="AA41" s="71"/>
+      <c r="AB41" s="71"/>
+      <c r="AC41" s="71"/>
+      <c r="AD41" s="71"/>
+      <c r="AE41" s="71"/>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C42" s="32">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D42" s="33">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="E42" s="32">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F42" s="33">
-        <f t="shared" si="52"/>
-        <v>13</v>
+        <f t="shared" si="51"/>
+        <v>108</v>
       </c>
       <c r="G42" s="32">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="H42" s="33">
-        <v>31</v>
-      </c>
-      <c r="I42" s="32">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="I42" s="1">
+        <v>2</v>
       </c>
       <c r="J42" s="23">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="32">
+        <v>113</v>
+      </c>
+      <c r="S42" s="32">
+        <v>63</v>
+      </c>
+      <c r="T42" s="32">
+        <v>108</v>
+      </c>
+      <c r="U42" s="32">
+        <v>39</v>
+      </c>
+      <c r="V42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="32">
+        <f t="shared" ref="C43:J43" si="53">C38+SUM(C39:C42)</f>
+        <v>3228</v>
+      </c>
+      <c r="D43" s="33">
         <f t="shared" si="53"/>
-        <v>13</v>
-      </c>
-      <c r="R42" s="32">
-        <v>39</v>
-      </c>
-      <c r="S42" s="32">
-        <v>32</v>
-      </c>
-      <c r="T42" s="32">
-        <v>13</v>
-      </c>
-      <c r="U42" s="32">
-        <v>31</v>
-      </c>
-      <c r="V42" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="35">
-        <v>5</v>
-      </c>
-      <c r="D43" s="36">
-        <v>122</v>
-      </c>
-      <c r="E43" s="35">
-        <v>149</v>
-      </c>
-      <c r="F43" s="36">
-        <f>T43</f>
-        <v>20</v>
-      </c>
-      <c r="G43" s="35">
-        <v>65</v>
-      </c>
-      <c r="H43" s="36">
-        <v>65</v>
-      </c>
-      <c r="I43" s="35">
-        <v>42</v>
-      </c>
-      <c r="J43" s="30">
+        <v>3352</v>
+      </c>
+      <c r="E43" s="32">
         <f t="shared" si="53"/>
-        <v>178</v>
-      </c>
-      <c r="L43" s="30"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="35">
-        <v>8</v>
-      </c>
-      <c r="S43" s="35">
-        <v>122</v>
-      </c>
-      <c r="T43" s="35">
-        <v>20</v>
-      </c>
-      <c r="U43" s="35">
-        <v>65</v>
-      </c>
-      <c r="V43" s="2">
-        <v>178</v>
-      </c>
-      <c r="W43" s="84"/>
-      <c r="X43" s="85"/>
-      <c r="Y43" s="85"/>
-      <c r="Z43" s="85"/>
-      <c r="AA43" s="85"/>
-      <c r="AB43" s="85"/>
-      <c r="AC43" s="85"/>
-      <c r="AD43" s="85"/>
-      <c r="AE43" s="85"/>
+        <v>3841</v>
+      </c>
+      <c r="F43" s="33">
+        <f t="shared" si="53"/>
+        <v>3715</v>
+      </c>
+      <c r="G43" s="32">
+        <f t="shared" si="53"/>
+        <v>3444</v>
+      </c>
+      <c r="H43" s="33">
+        <f t="shared" si="53"/>
+        <v>3329</v>
+      </c>
+      <c r="I43" s="32">
+        <f t="shared" si="53"/>
+        <v>3546</v>
+      </c>
+      <c r="J43" s="33">
+        <f t="shared" si="53"/>
+        <v>2530</v>
+      </c>
+      <c r="R43" s="32">
+        <f>R38+SUM(R39:R42)</f>
+        <v>3300</v>
+      </c>
+      <c r="S43" s="32">
+        <f>S38+SUM(S39:S42)</f>
+        <v>3352</v>
+      </c>
+      <c r="T43" s="32">
+        <f>T38+SUM(T39:T42)</f>
+        <v>3715</v>
+      </c>
+      <c r="U43" s="32">
+        <f>U38+SUM(U39:U42)</f>
+        <v>3329</v>
+      </c>
+      <c r="V43" s="32">
+        <f>V38+SUM(V39:V42)</f>
+        <v>3876</v>
+      </c>
     </row>
     <row r="44" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="32">
-        <v>15</v>
-      </c>
-      <c r="D44" s="33">
-        <v>11</v>
-      </c>
-      <c r="E44" s="32">
-        <v>9</v>
-      </c>
-      <c r="F44" s="33">
-        <f t="shared" si="52"/>
-        <v>19</v>
-      </c>
-      <c r="G44" s="32">
-        <v>14</v>
-      </c>
-      <c r="H44" s="33">
-        <v>68</v>
-      </c>
-      <c r="I44" s="32">
-        <v>44</v>
-      </c>
-      <c r="J44" s="23">
-        <f t="shared" si="53"/>
-        <v>33</v>
-      </c>
-      <c r="R44" s="32">
-        <v>26</v>
-      </c>
-      <c r="S44" s="32">
-        <v>11</v>
-      </c>
-      <c r="T44" s="32">
-        <v>19</v>
-      </c>
-      <c r="U44" s="32">
-        <v>68</v>
-      </c>
-      <c r="V44" s="1">
-        <v>33</v>
-      </c>
+      <c r="G44" s="32"/>
+      <c r="H44" s="33"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C45" s="32">
-        <v>660</v>
+        <v>276</v>
       </c>
       <c r="D45" s="33">
-        <v>637</v>
+        <v>291</v>
       </c>
       <c r="E45" s="32">
-        <v>691</v>
+        <v>242</v>
       </c>
       <c r="F45" s="33">
-        <f t="shared" si="52"/>
-        <v>593</v>
+        <f t="shared" ref="F45:F50" si="54">T45</f>
+        <v>297</v>
       </c>
       <c r="G45" s="32">
-        <v>638</v>
+        <v>529</v>
       </c>
       <c r="H45" s="33">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="I45" s="32">
-        <v>705</v>
+        <v>311</v>
       </c>
       <c r="J45" s="23">
-        <f t="shared" si="53"/>
-        <v>734</v>
+        <f t="shared" ref="J45:J50" si="55">V45</f>
+        <v>368</v>
       </c>
       <c r="R45" s="32">
-        <v>620</v>
+        <v>249</v>
       </c>
       <c r="S45" s="32">
-        <v>637</v>
+        <v>291</v>
       </c>
       <c r="T45" s="32">
-        <v>593</v>
+        <v>297</v>
       </c>
       <c r="U45" s="32">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="V45" s="1">
-        <v>734</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C46" s="32">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D46" s="33">
+        <v>32</v>
+      </c>
+      <c r="E46" s="32">
+        <v>46</v>
+      </c>
+      <c r="F46" s="33">
+        <f t="shared" si="54"/>
+        <v>13</v>
+      </c>
+      <c r="G46" s="32">
+        <v>24</v>
+      </c>
+      <c r="H46" s="33">
+        <v>31</v>
+      </c>
+      <c r="I46" s="32">
+        <v>23</v>
+      </c>
+      <c r="J46" s="23">
+        <f t="shared" si="55"/>
+        <v>13</v>
+      </c>
+      <c r="R46" s="32">
+        <v>39</v>
+      </c>
+      <c r="S46" s="32">
+        <v>32</v>
+      </c>
+      <c r="T46" s="32">
+        <v>13</v>
+      </c>
+      <c r="U46" s="32">
+        <v>31</v>
+      </c>
+      <c r="V46" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="35">
+        <v>5</v>
+      </c>
+      <c r="D47" s="36">
+        <v>122</v>
+      </c>
+      <c r="E47" s="35">
+        <v>149</v>
+      </c>
+      <c r="F47" s="36">
+        <f>T47</f>
+        <v>20</v>
+      </c>
+      <c r="G47" s="35">
+        <v>65</v>
+      </c>
+      <c r="H47" s="36">
+        <v>65</v>
+      </c>
+      <c r="I47" s="35">
+        <v>42</v>
+      </c>
+      <c r="J47" s="30">
+        <f t="shared" si="55"/>
+        <v>178</v>
+      </c>
+      <c r="L47" s="30"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="35">
+        <v>8</v>
+      </c>
+      <c r="S47" s="35">
+        <v>122</v>
+      </c>
+      <c r="T47" s="35">
+        <v>20</v>
+      </c>
+      <c r="U47" s="35">
+        <v>65</v>
+      </c>
+      <c r="V47" s="2">
+        <v>178</v>
+      </c>
+      <c r="W47" s="70"/>
+      <c r="X47" s="71"/>
+      <c r="Y47" s="71"/>
+      <c r="Z47" s="71"/>
+      <c r="AA47" s="71"/>
+      <c r="AB47" s="71"/>
+      <c r="AC47" s="71"/>
+      <c r="AD47" s="71"/>
+      <c r="AE47" s="71"/>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="32">
+        <v>15</v>
+      </c>
+      <c r="D48" s="33">
+        <v>11</v>
+      </c>
+      <c r="E48" s="32">
+        <v>9</v>
+      </c>
+      <c r="F48" s="33">
+        <f t="shared" si="54"/>
+        <v>19</v>
+      </c>
+      <c r="G48" s="32">
+        <v>14</v>
+      </c>
+      <c r="H48" s="33">
+        <v>68</v>
+      </c>
+      <c r="I48" s="32">
+        <v>44</v>
+      </c>
+      <c r="J48" s="23">
+        <f t="shared" si="55"/>
         <v>33</v>
       </c>
-      <c r="E46" s="32">
-        <v>0</v>
-      </c>
-      <c r="F46" s="33">
-        <f t="shared" si="52"/>
-        <v>73</v>
-      </c>
-      <c r="G46" s="32">
-        <v>52</v>
-      </c>
-      <c r="H46" s="33">
-        <v>13</v>
-      </c>
-      <c r="I46" s="32">
-        <v>0</v>
-      </c>
-      <c r="J46" s="23">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="32">
-        <v>63</v>
-      </c>
-      <c r="S46" s="32">
+      <c r="R48" s="32">
+        <v>26</v>
+      </c>
+      <c r="S48" s="32">
+        <v>11</v>
+      </c>
+      <c r="T48" s="32">
+        <v>19</v>
+      </c>
+      <c r="U48" s="32">
+        <v>68</v>
+      </c>
+      <c r="V48" s="1">
         <v>33</v>
       </c>
-      <c r="T46" s="32">
-        <v>73</v>
-      </c>
-      <c r="U46" s="32">
-        <v>13</v>
-      </c>
-      <c r="V46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="32">
-        <f t="shared" ref="C47:J47" si="54">SUM(C41:C46)</f>
-        <v>1003</v>
-      </c>
-      <c r="D47" s="33">
-        <f t="shared" si="54"/>
-        <v>1126</v>
-      </c>
-      <c r="E47" s="32">
-        <f t="shared" si="54"/>
-        <v>1137</v>
-      </c>
-      <c r="F47" s="33">
-        <f t="shared" si="54"/>
-        <v>1015</v>
-      </c>
-      <c r="G47" s="32">
-        <f t="shared" si="54"/>
-        <v>1322</v>
-      </c>
-      <c r="H47" s="33">
-        <f t="shared" si="54"/>
-        <v>1380</v>
-      </c>
-      <c r="I47" s="32">
-        <f t="shared" si="54"/>
-        <v>1125</v>
-      </c>
-      <c r="J47" s="33">
-        <f t="shared" si="54"/>
-        <v>1326</v>
-      </c>
-      <c r="R47" s="32">
-        <f>SUM(R41:R46)</f>
-        <v>1005</v>
-      </c>
-      <c r="S47" s="32">
-        <f>SUM(S41:S46)</f>
-        <v>1126</v>
-      </c>
-      <c r="T47" s="32">
-        <f>SUM(T41:T46)</f>
-        <v>1015</v>
-      </c>
-      <c r="U47" s="32">
-        <f>SUM(U41:U46)</f>
-        <v>1380</v>
-      </c>
-      <c r="V47" s="32">
-        <f>SUM(V41:V46)</f>
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="48" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="35">
-        <v>768</v>
-      </c>
-      <c r="D48" s="36">
-        <v>643</v>
-      </c>
-      <c r="E48" s="35">
-        <v>1001</v>
-      </c>
-      <c r="F48" s="36">
-        <f>T48</f>
-        <v>970</v>
-      </c>
-      <c r="G48" s="35">
-        <v>742</v>
-      </c>
-      <c r="H48" s="36">
-        <v>749</v>
-      </c>
-      <c r="I48" s="35">
-        <v>1123</v>
-      </c>
-      <c r="J48" s="30">
-        <f t="shared" ref="J48:J54" si="55">V48</f>
-        <v>1044</v>
-      </c>
-      <c r="L48" s="30"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="35">
-        <v>913</v>
-      </c>
-      <c r="S48" s="35">
-        <v>643</v>
-      </c>
-      <c r="T48" s="35">
-        <v>970</v>
-      </c>
-      <c r="U48" s="35">
-        <v>749</v>
-      </c>
-      <c r="V48" s="2">
-        <v>1044</v>
-      </c>
-      <c r="W48" s="84"/>
-      <c r="X48" s="85"/>
-      <c r="Y48" s="85"/>
-      <c r="Z48" s="85"/>
-      <c r="AA48" s="85"/>
-      <c r="AB48" s="85"/>
-      <c r="AC48" s="85"/>
-      <c r="AD48" s="85"/>
-      <c r="AE48" s="85"/>
     </row>
     <row r="49" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C49" s="32">
-        <v>22</v>
+        <v>660</v>
       </c>
       <c r="D49" s="33">
-        <v>25</v>
+        <v>637</v>
       </c>
       <c r="E49" s="32">
-        <v>26</v>
+        <v>691</v>
       </c>
       <c r="F49" s="33">
-        <f t="shared" ref="F49:F53" si="56">T49</f>
-        <v>23</v>
+        <f t="shared" si="54"/>
+        <v>593</v>
       </c>
       <c r="G49" s="32">
-        <v>23</v>
+        <v>638</v>
       </c>
       <c r="H49" s="33">
-        <v>22</v>
+        <v>611</v>
       </c>
       <c r="I49" s="32">
-        <v>23</v>
+        <v>705</v>
       </c>
       <c r="J49" s="23">
         <f t="shared" si="55"/>
-        <v>19</v>
+        <v>734</v>
       </c>
       <c r="R49" s="32">
-        <v>22</v>
+        <v>620</v>
       </c>
       <c r="S49" s="32">
-        <v>25</v>
+        <v>637</v>
       </c>
       <c r="T49" s="32">
-        <v>23</v>
+        <v>593</v>
       </c>
       <c r="U49" s="32">
-        <v>22</v>
+        <v>611</v>
       </c>
       <c r="V49" s="1">
-        <v>19</v>
+        <v>734</v>
       </c>
     </row>
     <row r="50" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C50" s="32">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D50" s="33">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E50" s="32">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F50" s="33">
-        <f t="shared" si="56"/>
-        <v>14</v>
+        <f t="shared" si="54"/>
+        <v>73</v>
       </c>
       <c r="G50" s="32">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="H50" s="33">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I50" s="32">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J50" s="23">
         <f t="shared" si="55"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="R50" s="32">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="S50" s="32">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="T50" s="32">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="U50" s="32">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="V50" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C51" s="32">
-        <v>12</v>
+        <f t="shared" ref="C51:J51" si="56">SUM(C45:C50)</f>
+        <v>1003</v>
       </c>
       <c r="D51" s="33">
-        <v>15</v>
+        <f t="shared" si="56"/>
+        <v>1126</v>
       </c>
       <c r="E51" s="32">
-        <v>13</v>
+        <f t="shared" si="56"/>
+        <v>1137</v>
       </c>
       <c r="F51" s="33">
         <f t="shared" si="56"/>
-        <v>31</v>
+        <v>1015</v>
       </c>
       <c r="G51" s="32">
-        <v>29</v>
+        <f t="shared" si="56"/>
+        <v>1322</v>
       </c>
       <c r="H51" s="33">
-        <v>49</v>
+        <f t="shared" si="56"/>
+        <v>1380</v>
       </c>
       <c r="I51" s="32">
-        <v>36</v>
-      </c>
-      <c r="J51" s="23">
-        <f t="shared" si="55"/>
-        <v>20</v>
+        <f t="shared" si="56"/>
+        <v>1125</v>
+      </c>
+      <c r="J51" s="33">
+        <f t="shared" si="56"/>
+        <v>1326</v>
       </c>
       <c r="R51" s="32">
-        <v>11</v>
+        <f>SUM(R45:R50)</f>
+        <v>1005</v>
       </c>
       <c r="S51" s="32">
-        <v>15</v>
+        <f>SUM(S45:S50)</f>
+        <v>1126</v>
       </c>
       <c r="T51" s="32">
-        <v>31</v>
+        <f>SUM(T45:T50)</f>
+        <v>1015</v>
       </c>
       <c r="U51" s="32">
-        <v>49</v>
-      </c>
-      <c r="V51" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B52" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="32">
-        <v>7</v>
-      </c>
-      <c r="D52" s="33">
-        <v>7</v>
-      </c>
-      <c r="E52" s="32">
-        <v>6</v>
-      </c>
-      <c r="F52" s="33">
-        <f t="shared" si="56"/>
-        <v>3</v>
-      </c>
-      <c r="G52" s="32">
-        <v>3</v>
-      </c>
-      <c r="H52" s="33">
-        <v>3</v>
-      </c>
-      <c r="I52" s="32">
-        <v>2</v>
-      </c>
-      <c r="J52" s="23">
-        <f t="shared" si="55"/>
-        <v>6</v>
-      </c>
-      <c r="R52" s="32">
-        <v>8</v>
-      </c>
-      <c r="S52" s="32">
-        <v>7</v>
-      </c>
-      <c r="T52" s="32">
-        <v>3</v>
-      </c>
-      <c r="U52" s="32">
-        <v>3</v>
-      </c>
-      <c r="V52" s="1">
-        <v>6</v>
-      </c>
+        <f>SUM(U45:U50)</f>
+        <v>1380</v>
+      </c>
+      <c r="V51" s="32">
+        <f>SUM(V45:V50)</f>
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="52" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="35">
+        <v>768</v>
+      </c>
+      <c r="D52" s="36">
+        <v>643</v>
+      </c>
+      <c r="E52" s="35">
+        <v>1001</v>
+      </c>
+      <c r="F52" s="36">
+        <f>T52</f>
+        <v>970</v>
+      </c>
+      <c r="G52" s="35">
+        <v>742</v>
+      </c>
+      <c r="H52" s="36">
+        <v>749</v>
+      </c>
+      <c r="I52" s="35">
+        <v>1123</v>
+      </c>
+      <c r="J52" s="30">
+        <f t="shared" ref="J52:J58" si="57">V52</f>
+        <v>1044</v>
+      </c>
+      <c r="L52" s="30"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="35">
+        <v>913</v>
+      </c>
+      <c r="S52" s="35">
+        <v>643</v>
+      </c>
+      <c r="T52" s="35">
+        <v>970</v>
+      </c>
+      <c r="U52" s="35">
+        <v>749</v>
+      </c>
+      <c r="V52" s="2">
+        <v>1044</v>
+      </c>
+      <c r="W52" s="70"/>
+      <c r="X52" s="71"/>
+      <c r="Y52" s="71"/>
+      <c r="Z52" s="71"/>
+      <c r="AA52" s="71"/>
+      <c r="AB52" s="71"/>
+      <c r="AC52" s="71"/>
+      <c r="AD52" s="71"/>
+      <c r="AE52" s="71"/>
     </row>
     <row r="53" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C53" s="32">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D53" s="33">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E53" s="32">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F53" s="33">
-        <f t="shared" si="56"/>
-        <v>7</v>
+        <f t="shared" ref="F53:F57" si="58">T53</f>
+        <v>23</v>
       </c>
       <c r="G53" s="32">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H53" s="33">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I53" s="32">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J53" s="23">
-        <f t="shared" si="55"/>
-        <v>8</v>
+        <f t="shared" si="57"/>
+        <v>19</v>
       </c>
       <c r="R53" s="32">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="S53" s="32">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="T53" s="32">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="U53" s="32">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="V53" s="1">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="C54" s="32">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D54" s="33">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E54" s="32">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F54" s="33">
-        <v>0</v>
+        <f t="shared" si="58"/>
+        <v>14</v>
       </c>
       <c r="G54" s="32">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H54" s="33">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I54" s="32">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J54" s="23">
-        <f t="shared" si="55"/>
-        <v>60</v>
+        <f t="shared" si="57"/>
+        <v>16</v>
       </c>
       <c r="R54" s="32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S54" s="32">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="T54" s="32">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U54" s="32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V54" s="1">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C55" s="32">
-        <f t="shared" ref="C55:J55" si="57">C47+SUM(C48:C54)</f>
-        <v>1845</v>
+        <v>12</v>
       </c>
       <c r="D55" s="33">
+        <v>15</v>
+      </c>
+      <c r="E55" s="32">
+        <v>13</v>
+      </c>
+      <c r="F55" s="33">
+        <f t="shared" si="58"/>
+        <v>31</v>
+      </c>
+      <c r="G55" s="32">
+        <v>29</v>
+      </c>
+      <c r="H55" s="33">
+        <v>49</v>
+      </c>
+      <c r="I55" s="32">
+        <v>36</v>
+      </c>
+      <c r="J55" s="23">
         <f t="shared" si="57"/>
-        <v>1848</v>
-      </c>
-      <c r="E55" s="32">
+        <v>20</v>
+      </c>
+      <c r="R55" s="32">
+        <v>11</v>
+      </c>
+      <c r="S55" s="32">
+        <v>15</v>
+      </c>
+      <c r="T55" s="32">
+        <v>31</v>
+      </c>
+      <c r="U55" s="32">
+        <v>49</v>
+      </c>
+      <c r="V55" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="32">
+        <v>7</v>
+      </c>
+      <c r="D56" s="33">
+        <v>7</v>
+      </c>
+      <c r="E56" s="32">
+        <v>6</v>
+      </c>
+      <c r="F56" s="33">
+        <f t="shared" si="58"/>
+        <v>3</v>
+      </c>
+      <c r="G56" s="32">
+        <v>3</v>
+      </c>
+      <c r="H56" s="33">
+        <v>3</v>
+      </c>
+      <c r="I56" s="32">
+        <v>2</v>
+      </c>
+      <c r="J56" s="23">
         <f t="shared" si="57"/>
-        <v>2217</v>
-      </c>
-      <c r="F55" s="33">
+        <v>6</v>
+      </c>
+      <c r="R56" s="32">
+        <v>8</v>
+      </c>
+      <c r="S56" s="32">
+        <v>7</v>
+      </c>
+      <c r="T56" s="32">
+        <v>3</v>
+      </c>
+      <c r="U56" s="32">
+        <v>3</v>
+      </c>
+      <c r="V56" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="32">
+        <v>7</v>
+      </c>
+      <c r="D57" s="33">
+        <v>8</v>
+      </c>
+      <c r="E57" s="32">
+        <v>7</v>
+      </c>
+      <c r="F57" s="33">
+        <f t="shared" si="58"/>
+        <v>7</v>
+      </c>
+      <c r="G57" s="32">
+        <v>11</v>
+      </c>
+      <c r="H57" s="33">
+        <v>10</v>
+      </c>
+      <c r="I57" s="32">
+        <v>9</v>
+      </c>
+      <c r="J57" s="23">
         <f t="shared" si="57"/>
-        <v>2063</v>
-      </c>
-      <c r="G55" s="32">
-        <f t="shared" si="57"/>
-        <v>2140</v>
-      </c>
-      <c r="H55" s="33">
-        <f t="shared" si="57"/>
-        <v>2218</v>
-      </c>
-      <c r="I55" s="32">
-        <f t="shared" si="57"/>
-        <v>2342</v>
-      </c>
-      <c r="J55" s="33">
-        <f t="shared" si="57"/>
-        <v>2499</v>
-      </c>
-      <c r="R55" s="32">
-        <f>R47+SUM(R48:R54)</f>
-        <v>1990</v>
-      </c>
-      <c r="S55" s="32">
-        <f>S47+SUM(S48:S54)</f>
-        <v>1848</v>
-      </c>
-      <c r="T55" s="32">
-        <f>T47+SUM(T48:T54)</f>
-        <v>2063</v>
-      </c>
-      <c r="U55" s="32">
-        <f>U47+SUM(U48:U54)</f>
-        <v>2218</v>
-      </c>
-      <c r="V55" s="32">
-        <f>V47+SUM(V48:V54)</f>
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="56" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="G56" s="32"/>
-      <c r="H56" s="33"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="32"/>
-    </row>
-    <row r="57" spans="2:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="32">
-        <v>1383</v>
-      </c>
-      <c r="D57" s="33">
-        <v>1504</v>
-      </c>
-      <c r="E57" s="32">
-        <v>1624</v>
-      </c>
-      <c r="F57" s="33">
-        <f>T57</f>
-        <v>1652</v>
-      </c>
-      <c r="G57" s="32">
-        <v>1304</v>
-      </c>
-      <c r="H57" s="33">
-        <v>1111</v>
-      </c>
-      <c r="I57" s="32">
-        <v>1204</v>
-      </c>
-      <c r="J57" s="33">
-        <f>V57</f>
-        <v>1397</v>
-      </c>
-      <c r="L57" s="33"/>
+        <v>8</v>
+      </c>
       <c r="R57" s="32">
-        <v>1327</v>
+        <v>6</v>
       </c>
       <c r="S57" s="32">
-        <v>1504</v>
+        <v>8</v>
       </c>
       <c r="T57" s="32">
-        <v>1652</v>
+        <v>7</v>
       </c>
       <c r="U57" s="32">
-        <v>1111</v>
-      </c>
-      <c r="V57" s="32">
-        <v>1397</v>
-      </c>
-      <c r="W57" s="76"/>
-      <c r="X57" s="39"/>
-      <c r="Y57" s="39"/>
-      <c r="Z57" s="39"/>
-      <c r="AA57" s="39"/>
-      <c r="AB57" s="39"/>
-      <c r="AC57" s="39"/>
-      <c r="AD57" s="39"/>
-      <c r="AE57" s="39"/>
+        <v>10</v>
+      </c>
+      <c r="V57" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="58" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="32">
+        <v>0</v>
+      </c>
+      <c r="D58" s="33">
+        <v>0</v>
+      </c>
+      <c r="E58" s="32">
+        <v>0</v>
+      </c>
+      <c r="F58" s="33">
+        <v>0</v>
+      </c>
+      <c r="G58" s="32">
+        <v>0</v>
+      </c>
+      <c r="H58" s="33">
+        <v>0</v>
+      </c>
+      <c r="I58" s="32">
+        <v>0</v>
+      </c>
+      <c r="J58" s="23">
+        <f t="shared" si="57"/>
+        <v>60</v>
+      </c>
+      <c r="R58" s="32">
+        <v>0</v>
+      </c>
+      <c r="S58" s="32">
+        <v>0</v>
+      </c>
+      <c r="T58" s="32">
+        <v>0</v>
+      </c>
+      <c r="U58" s="32">
+        <v>0</v>
+      </c>
+      <c r="V58" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="32">
+        <f t="shared" ref="C59:J59" si="59">C51+SUM(C52:C58)</f>
+        <v>1845</v>
+      </c>
+      <c r="D59" s="33">
+        <f t="shared" si="59"/>
+        <v>1848</v>
+      </c>
+      <c r="E59" s="32">
+        <f t="shared" si="59"/>
+        <v>2217</v>
+      </c>
+      <c r="F59" s="33">
+        <f t="shared" si="59"/>
+        <v>2063</v>
+      </c>
+      <c r="G59" s="32">
+        <f t="shared" si="59"/>
+        <v>2140</v>
+      </c>
+      <c r="H59" s="33">
+        <f t="shared" si="59"/>
+        <v>2218</v>
+      </c>
+      <c r="I59" s="32">
+        <f t="shared" si="59"/>
+        <v>2342</v>
+      </c>
+      <c r="J59" s="33">
+        <f t="shared" si="59"/>
+        <v>2499</v>
+      </c>
+      <c r="R59" s="32">
+        <f>R51+SUM(R52:R58)</f>
+        <v>1990</v>
+      </c>
+      <c r="S59" s="32">
+        <f>S51+SUM(S52:S58)</f>
+        <v>1848</v>
+      </c>
+      <c r="T59" s="32">
+        <f>T51+SUM(T52:T58)</f>
+        <v>2063</v>
+      </c>
+      <c r="U59" s="32">
+        <f>U51+SUM(U52:U58)</f>
+        <v>2218</v>
+      </c>
+      <c r="V59" s="32">
+        <f>V51+SUM(V52:V58)</f>
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="60" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="G60" s="32"/>
+      <c r="H60" s="33"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="32"/>
+    </row>
+    <row r="61" spans="2:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="32">
+        <v>1383</v>
+      </c>
+      <c r="D61" s="33">
+        <v>1504</v>
+      </c>
+      <c r="E61" s="32">
+        <v>1624</v>
+      </c>
+      <c r="F61" s="33">
+        <f>T61</f>
+        <v>1652</v>
+      </c>
+      <c r="G61" s="32">
+        <v>1304</v>
+      </c>
+      <c r="H61" s="33">
+        <v>1111</v>
+      </c>
+      <c r="I61" s="32">
+        <v>1204</v>
+      </c>
+      <c r="J61" s="33">
+        <f>V61</f>
+        <v>1397</v>
+      </c>
+      <c r="L61" s="33"/>
+      <c r="R61" s="32">
+        <v>1327</v>
+      </c>
+      <c r="S61" s="32">
+        <v>1504</v>
+      </c>
+      <c r="T61" s="32">
+        <v>1652</v>
+      </c>
+      <c r="U61" s="32">
+        <v>1111</v>
+      </c>
+      <c r="V61" s="32">
+        <v>1397</v>
+      </c>
+      <c r="W61" s="62"/>
+      <c r="X61" s="39"/>
+      <c r="Y61" s="39"/>
+      <c r="Z61" s="39"/>
+      <c r="AA61" s="39"/>
+      <c r="AB61" s="39"/>
+      <c r="AC61" s="39"/>
+      <c r="AD61" s="39"/>
+      <c r="AE61" s="39"/>
+    </row>
+    <row r="62" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="32">
-        <f t="shared" ref="C58:J58" si="58">C57+C55</f>
+      <c r="C62" s="32">
+        <f t="shared" ref="C62:J62" si="60">C61+C59</f>
         <v>3228</v>
       </c>
-      <c r="D58" s="33">
-        <f t="shared" si="58"/>
+      <c r="D62" s="33">
+        <f t="shared" si="60"/>
         <v>3352</v>
       </c>
-      <c r="E58" s="32">
-        <f t="shared" si="58"/>
+      <c r="E62" s="32">
+        <f t="shared" si="60"/>
         <v>3841</v>
       </c>
-      <c r="F58" s="33">
-        <f t="shared" si="58"/>
+      <c r="F62" s="33">
+        <f t="shared" si="60"/>
         <v>3715</v>
       </c>
-      <c r="G58" s="32">
-        <f t="shared" si="58"/>
+      <c r="G62" s="32">
+        <f t="shared" si="60"/>
         <v>3444</v>
       </c>
-      <c r="H58" s="33">
-        <f t="shared" si="58"/>
+      <c r="H62" s="33">
+        <f t="shared" si="60"/>
         <v>3329</v>
       </c>
-      <c r="I58" s="32">
-        <f t="shared" si="58"/>
+      <c r="I62" s="32">
+        <f t="shared" si="60"/>
         <v>3546</v>
       </c>
-      <c r="J58" s="33">
-        <f t="shared" si="58"/>
+      <c r="J62" s="33">
+        <f t="shared" si="60"/>
         <v>3896</v>
       </c>
-      <c r="R58" s="32">
-        <f>R57+R55</f>
+      <c r="R62" s="32">
+        <f>R61+R59</f>
         <v>3317</v>
       </c>
-      <c r="S58" s="32">
-        <f>S57+S55</f>
+      <c r="S62" s="32">
+        <f>S61+S59</f>
         <v>3352</v>
       </c>
-      <c r="T58" s="32">
-        <f>T57+T55</f>
+      <c r="T62" s="32">
+        <f>T61+T59</f>
         <v>3715</v>
       </c>
-      <c r="U58" s="32">
-        <f>U57+U55</f>
+      <c r="U62" s="32">
+        <f>U61+U59</f>
         <v>3329</v>
       </c>
-      <c r="V58" s="32">
-        <f>V57+V55</f>
+      <c r="V62" s="32">
+        <f>V61+V59</f>
         <v>3896</v>
       </c>
     </row>
-    <row r="59" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="G59" s="32"/>
-      <c r="H59" s="33"/>
-    </row>
-    <row r="60" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
+    <row r="63" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="G63" s="32"/>
+      <c r="H63" s="33"/>
+    </row>
+    <row r="64" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="32">
-        <f t="shared" ref="C60:I60" si="59">C39-C55</f>
+      <c r="C64" s="32">
+        <f t="shared" ref="C64:I64" si="61">C43-C59</f>
         <v>1383</v>
       </c>
-      <c r="D60" s="33">
-        <f t="shared" si="59"/>
+      <c r="D64" s="33">
+        <f t="shared" si="61"/>
         <v>1504</v>
       </c>
-      <c r="E60" s="32">
-        <f t="shared" si="59"/>
+      <c r="E64" s="32">
+        <f t="shared" si="61"/>
         <v>1624</v>
       </c>
-      <c r="F60" s="33">
-        <f t="shared" si="59"/>
+      <c r="F64" s="33">
+        <f t="shared" si="61"/>
         <v>1652</v>
       </c>
-      <c r="G60" s="32">
-        <f t="shared" si="59"/>
+      <c r="G64" s="32">
+        <f t="shared" si="61"/>
         <v>1304</v>
       </c>
-      <c r="H60" s="33">
-        <f t="shared" si="59"/>
+      <c r="H64" s="33">
+        <f t="shared" si="61"/>
         <v>1111</v>
       </c>
-      <c r="I60" s="32">
-        <f t="shared" si="59"/>
+      <c r="I64" s="32">
+        <f t="shared" si="61"/>
         <v>1204</v>
       </c>
-      <c r="J60" s="33">
-        <f t="shared" ref="J60" si="60">J39-J55</f>
+      <c r="J64" s="33">
+        <f t="shared" ref="J64" si="62">J43-J59</f>
         <v>31</v>
       </c>
-      <c r="R60" s="32">
-        <f>R39-R55</f>
+      <c r="R64" s="32">
+        <f>R43-R59</f>
         <v>1310</v>
       </c>
-      <c r="S60" s="32">
-        <f>S39-S55</f>
+      <c r="S64" s="32">
+        <f>S43-S59</f>
         <v>1504</v>
       </c>
-      <c r="T60" s="32">
-        <f>T39-T55</f>
+      <c r="T64" s="32">
+        <f>T43-T59</f>
         <v>1652</v>
       </c>
-      <c r="U60" s="32">
-        <f>U39-U55</f>
+      <c r="U64" s="32">
+        <f>U43-U59</f>
         <v>1111</v>
       </c>
-      <c r="V60" s="32">
-        <f t="shared" ref="V60" si="61">V39-V55</f>
+      <c r="V64" s="32">
+        <f t="shared" ref="V64" si="63">V43-V59</f>
         <v>1377</v>
       </c>
     </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C61" s="1">
-        <f t="shared" ref="C61:I61" si="62">C60/C15</f>
+      <c r="C65" s="1">
+        <f t="shared" ref="C65:I65" si="64">C64/C15</f>
         <v>1.2734806629834254</v>
       </c>
-      <c r="D61" s="23">
-        <f t="shared" si="62"/>
+      <c r="D65" s="23">
+        <f t="shared" si="64"/>
         <v>1.3848987108655617</v>
       </c>
-      <c r="E61" s="1">
-        <f t="shared" si="62"/>
+      <c r="E65" s="1">
+        <f t="shared" si="64"/>
         <v>1.489908256880734</v>
       </c>
-      <c r="F61" s="23">
-        <f t="shared" si="62"/>
+      <c r="F65" s="23">
+        <f t="shared" si="64"/>
         <v>1.5142071494042164</v>
       </c>
-      <c r="G61" s="1">
-        <f t="shared" si="62"/>
+      <c r="G65" s="1">
+        <f t="shared" si="64"/>
         <v>1.1919561243144423</v>
       </c>
-      <c r="H61" s="23">
-        <f t="shared" si="62"/>
+      <c r="H65" s="23">
+        <f t="shared" si="64"/>
         <v>1.0287037037037037</v>
       </c>
-      <c r="I61" s="1">
-        <f t="shared" si="62"/>
+      <c r="I65" s="1">
+        <f t="shared" si="64"/>
         <v>1.1769305962854351</v>
       </c>
-      <c r="J61" s="23">
-        <f t="shared" ref="J61" si="63">J60/J15</f>
+      <c r="J65" s="23">
+        <f t="shared" ref="J65" si="65">J64/J15</f>
         <v>3.0392156862745098E-2</v>
       </c>
-      <c r="R61" s="1">
-        <f>R60/R15</f>
+      <c r="R65" s="1">
+        <f>R64/R15</f>
         <v>1.2096029547553093</v>
       </c>
-      <c r="S61" s="1">
-        <f>S60/S15</f>
+      <c r="S65" s="1">
+        <f>S64/S15</f>
         <v>1.3848987108655617</v>
       </c>
-      <c r="T61" s="1">
-        <f>T60/T15</f>
+      <c r="T65" s="1">
+        <f>T64/T15</f>
         <v>1.5142071494042164</v>
       </c>
-      <c r="U61" s="1">
-        <f>U60/U15</f>
+      <c r="U65" s="1">
+        <f>U64/U15</f>
         <v>1.0287037037037037</v>
       </c>
-      <c r="V61" s="1">
-        <f t="shared" ref="V61" si="64">V60/V15</f>
+      <c r="V65" s="1">
+        <f t="shared" ref="V65" si="66">V64/V15</f>
         <v>1.35</v>
       </c>
     </row>
-    <row r="62" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="G62" s="32"/>
-    </row>
-    <row r="63" spans="2:31" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="38" t="s">
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="G66" s="32"/>
+    </row>
+    <row r="67" spans="2:23" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="39">
-        <f t="shared" ref="C63:I63" si="65">C37+C30+C31</f>
+      <c r="C67" s="39">
+        <f t="shared" ref="C67:I67" si="67">C41+C34+C35</f>
         <v>354</v>
       </c>
-      <c r="D63" s="40">
-        <f t="shared" si="65"/>
+      <c r="D67" s="40">
+        <f t="shared" si="67"/>
         <v>375</v>
       </c>
-      <c r="E63" s="39">
-        <f t="shared" si="65"/>
+      <c r="E67" s="39">
+        <f t="shared" si="67"/>
         <v>915</v>
       </c>
-      <c r="F63" s="40">
-        <f t="shared" si="65"/>
+      <c r="F67" s="40">
+        <f t="shared" si="67"/>
         <v>832</v>
       </c>
-      <c r="G63" s="39">
-        <f t="shared" si="65"/>
+      <c r="G67" s="39">
+        <f t="shared" si="67"/>
         <v>713</v>
       </c>
-      <c r="H63" s="40">
-        <f t="shared" si="65"/>
+      <c r="H67" s="40">
+        <f t="shared" si="67"/>
         <v>574</v>
       </c>
-      <c r="I63" s="39">
-        <f t="shared" si="65"/>
+      <c r="I67" s="39">
+        <f t="shared" si="67"/>
         <v>519</v>
       </c>
-      <c r="J63" s="40">
-        <f t="shared" ref="J63" si="66">J37+J30+J31</f>
+      <c r="J67" s="40">
+        <f t="shared" ref="J67" si="68">J41+J34+J35</f>
         <v>493</v>
       </c>
-      <c r="L63" s="52"/>
-      <c r="R63" s="39">
-        <f>R37+R30+R31</f>
+      <c r="L67" s="52"/>
+      <c r="R67" s="39">
+        <f>R41+R34+R35</f>
         <v>273</v>
       </c>
-      <c r="S63" s="39">
-        <f>S37+S30+S31</f>
+      <c r="S67" s="39">
+        <f>S41+S34+S35</f>
         <v>375</v>
       </c>
-      <c r="T63" s="39">
-        <f>T37+T30+T31</f>
+      <c r="T67" s="39">
+        <f>T41+T34+T35</f>
         <v>832</v>
       </c>
-      <c r="U63" s="39">
-        <f>U37+U30+U31</f>
+      <c r="U67" s="39">
+        <f>U41+U34+U35</f>
         <v>574</v>
       </c>
-      <c r="V63" s="39">
-        <f t="shared" ref="V63" si="67">V37+V30+V31</f>
+      <c r="V67" s="39">
+        <f t="shared" ref="V67" si="69">V41+V34+V35</f>
         <v>493</v>
       </c>
-      <c r="W63" s="67"/>
-    </row>
-    <row r="64" spans="2:31" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="38" t="s">
+      <c r="W67" s="53"/>
+    </row>
+    <row r="68" spans="2:23" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="39">
-        <f t="shared" ref="C64:I64" si="68">C43+C48</f>
+      <c r="C68" s="39">
+        <f t="shared" ref="C68:I68" si="70">C47+C52</f>
         <v>773</v>
       </c>
-      <c r="D64" s="40">
-        <f t="shared" si="68"/>
+      <c r="D68" s="40">
+        <f t="shared" si="70"/>
         <v>765</v>
       </c>
-      <c r="E64" s="39">
-        <f t="shared" si="68"/>
+      <c r="E68" s="39">
+        <f t="shared" si="70"/>
         <v>1150</v>
       </c>
-      <c r="F64" s="40">
-        <f t="shared" si="68"/>
+      <c r="F68" s="40">
+        <f t="shared" si="70"/>
         <v>990</v>
       </c>
-      <c r="G64" s="39">
-        <f t="shared" si="68"/>
+      <c r="G68" s="39">
+        <f t="shared" si="70"/>
         <v>807</v>
       </c>
-      <c r="H64" s="40">
-        <f t="shared" si="68"/>
+      <c r="H68" s="40">
+        <f t="shared" si="70"/>
         <v>814</v>
       </c>
-      <c r="I64" s="39">
-        <f t="shared" si="68"/>
+      <c r="I68" s="39">
+        <f t="shared" si="70"/>
         <v>1165</v>
       </c>
-      <c r="J64" s="40">
-        <f t="shared" ref="J64" si="69">J43+J48</f>
+      <c r="J68" s="40">
+        <f t="shared" ref="J68" si="71">J47+J52</f>
         <v>1222</v>
       </c>
-      <c r="L64" s="52"/>
-      <c r="R64" s="39">
-        <f>R43+R48</f>
+      <c r="L68" s="52"/>
+      <c r="R68" s="39">
+        <f>R47+R52</f>
         <v>921</v>
       </c>
-      <c r="S64" s="39">
-        <f>S43+S48</f>
+      <c r="S68" s="39">
+        <f>S47+S52</f>
         <v>765</v>
       </c>
-      <c r="T64" s="39">
-        <f>T43+T48</f>
+      <c r="T68" s="39">
+        <f>T47+T52</f>
         <v>990</v>
       </c>
-      <c r="U64" s="39">
-        <f>U43+U48</f>
+      <c r="U68" s="39">
+        <f>U47+U52</f>
         <v>814</v>
       </c>
-      <c r="V64" s="39">
-        <f t="shared" ref="V64" si="70">V43+V48</f>
+      <c r="V68" s="39">
+        <f t="shared" ref="V68" si="72">V47+V52</f>
         <v>1222</v>
       </c>
-      <c r="W64" s="67"/>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
+      <c r="W68" s="53"/>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="32">
-        <f t="shared" ref="C65:I65" si="71">C63-C64</f>
+      <c r="C69" s="32">
+        <f t="shared" ref="C69:I69" si="73">C67-C68</f>
         <v>-419</v>
       </c>
-      <c r="D65" s="33">
-        <f t="shared" si="71"/>
+      <c r="D69" s="33">
+        <f t="shared" si="73"/>
         <v>-390</v>
       </c>
-      <c r="E65" s="32">
-        <f t="shared" si="71"/>
+      <c r="E69" s="32">
+        <f t="shared" si="73"/>
         <v>-235</v>
       </c>
-      <c r="F65" s="33">
-        <f t="shared" si="71"/>
+      <c r="F69" s="33">
+        <f t="shared" si="73"/>
         <v>-158</v>
       </c>
-      <c r="G65" s="32">
-        <f t="shared" si="71"/>
+      <c r="G69" s="32">
+        <f t="shared" si="73"/>
         <v>-94</v>
       </c>
-      <c r="H65" s="33">
-        <f t="shared" si="71"/>
+      <c r="H69" s="33">
+        <f t="shared" si="73"/>
         <v>-240</v>
       </c>
-      <c r="I65" s="32">
-        <f t="shared" si="71"/>
+      <c r="I69" s="32">
+        <f t="shared" si="73"/>
         <v>-646</v>
       </c>
-      <c r="J65" s="33">
-        <f t="shared" ref="J65" si="72">J63-J64</f>
+      <c r="J69" s="33">
+        <f t="shared" ref="J69" si="74">J67-J68</f>
         <v>-729</v>
       </c>
-      <c r="R65" s="32">
-        <f>R63-R64</f>
+      <c r="R69" s="32">
+        <f>R67-R68</f>
         <v>-648</v>
       </c>
-      <c r="S65" s="32">
-        <f>S63-S64</f>
+      <c r="S69" s="32">
+        <f>S67-S68</f>
         <v>-390</v>
       </c>
-      <c r="T65" s="32">
-        <f>T63-T64</f>
+      <c r="T69" s="32">
+        <f>T67-T68</f>
         <v>-158</v>
       </c>
-      <c r="U65" s="32">
-        <f>U63-U64</f>
+      <c r="U69" s="32">
+        <f>U67-U68</f>
         <v>-240</v>
       </c>
-      <c r="V65" s="32">
-        <f t="shared" ref="V65" si="73">V63-V64</f>
+      <c r="V69" s="32">
+        <f t="shared" ref="V69" si="75">V67-V68</f>
         <v>-729</v>
       </c>
     </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="G66" s="32"/>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="G70" s="32"/>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="R67" s="1">
+      <c r="R71" s="1">
         <v>5.3022</v>
       </c>
-      <c r="S67" s="1">
+      <c r="S71" s="1">
         <v>6.9139999999999997</v>
       </c>
-      <c r="T67" s="1">
+      <c r="T71" s="1">
         <v>7.2080000000000002</v>
       </c>
-      <c r="U67" s="1">
+      <c r="U71" s="1">
         <v>7.0960000000000001</v>
       </c>
-      <c r="V67" s="1">
+      <c r="V71" s="1">
         <v>6.9720000000000004</v>
       </c>
     </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="R68" s="47">
-        <f t="shared" ref="R68:U68" si="74">R67*R15</f>
+      <c r="R72" s="47">
+        <f t="shared" ref="R72:U72" si="76">R71*R15</f>
         <v>5742.2826000000005</v>
       </c>
-      <c r="S68" s="47">
-        <f t="shared" si="74"/>
+      <c r="S72" s="47">
+        <f t="shared" si="76"/>
         <v>7508.6039999999994</v>
       </c>
-      <c r="T68" s="47">
-        <f t="shared" si="74"/>
+      <c r="T72" s="47">
+        <f t="shared" si="76"/>
         <v>7863.9279999999999</v>
       </c>
-      <c r="U68" s="47">
-        <f t="shared" si="74"/>
+      <c r="U72" s="47">
+        <f t="shared" si="76"/>
         <v>7663.68</v>
       </c>
-      <c r="V68" s="47">
-        <f>V67*V15</f>
+      <c r="V72" s="47">
+        <f>V71*V15</f>
         <v>7111.4400000000005</v>
       </c>
     </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R69" s="32">
-        <f t="shared" ref="R69:U69" si="75">R68-R65</f>
+      <c r="R73" s="32">
+        <f t="shared" ref="R73:U73" si="77">R72-R69</f>
         <v>6390.2826000000005</v>
       </c>
-      <c r="S69" s="32">
-        <f t="shared" si="75"/>
+      <c r="S73" s="32">
+        <f t="shared" si="77"/>
         <v>7898.6039999999994</v>
       </c>
-      <c r="T69" s="32">
-        <f t="shared" si="75"/>
+      <c r="T73" s="32">
+        <f t="shared" si="77"/>
         <v>8021.9279999999999</v>
       </c>
-      <c r="U69" s="32">
-        <f t="shared" si="75"/>
+      <c r="U73" s="32">
+        <f t="shared" si="77"/>
         <v>7903.68</v>
       </c>
-      <c r="V69" s="32">
-        <f>V68-V65</f>
+      <c r="V73" s="32">
+        <f>V72-V69</f>
         <v>7840.4400000000005</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R71" s="48">
-        <f t="shared" ref="R71:U71" si="76">R67/R61</f>
+      <c r="R75" s="48">
+        <f t="shared" ref="R75:U75" si="78">R71/R65</f>
         <v>4.3834218320610692</v>
       </c>
-      <c r="S71" s="48">
-        <f t="shared" si="76"/>
+      <c r="S75" s="48">
+        <f t="shared" si="78"/>
         <v>4.9924228723404251</v>
       </c>
-      <c r="T71" s="48">
-        <f t="shared" si="76"/>
+      <c r="T75" s="48">
+        <f t="shared" si="78"/>
         <v>4.760246973365617</v>
       </c>
-      <c r="U71" s="48">
-        <f t="shared" si="76"/>
+      <c r="U75" s="48">
+        <f t="shared" si="78"/>
         <v>6.8980018001800181</v>
       </c>
-      <c r="V71" s="48">
-        <f>V67/V61</f>
+      <c r="V75" s="48">
+        <f>V71/V65</f>
         <v>5.1644444444444444</v>
       </c>
     </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R72" s="48">
-        <f t="shared" ref="R72:U72" si="77">R68/R4</f>
+      <c r="R76" s="48">
+        <f t="shared" ref="R76:U76" si="79">R72/R4</f>
         <v>3.1106622968580719</v>
       </c>
-      <c r="S72" s="48">
-        <f t="shared" si="77"/>
+      <c r="S76" s="48">
+        <f t="shared" si="79"/>
         <v>3.878411157024793</v>
       </c>
-      <c r="T72" s="48">
-        <f t="shared" si="77"/>
+      <c r="T76" s="48">
+        <f t="shared" si="79"/>
         <v>4.1323846558066206</v>
       </c>
-      <c r="U72" s="48">
-        <f t="shared" si="77"/>
+      <c r="U76" s="48">
+        <f t="shared" si="79"/>
         <v>4.1515059588299028</v>
       </c>
-      <c r="V72" s="48">
-        <f>V68/V4</f>
+      <c r="V76" s="48">
+        <f>V72/V4</f>
         <v>3.6525115562403703</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="R73" s="48">
-        <f t="shared" ref="R73:U73" si="78">R69/R4</f>
+      <c r="R77" s="48">
+        <f t="shared" ref="R77:U77" si="80">R73/R4</f>
         <v>3.4616915492957747</v>
       </c>
-      <c r="S73" s="48">
-        <f t="shared" si="78"/>
+      <c r="S77" s="48">
+        <f t="shared" si="80"/>
         <v>4.0798574380165284</v>
       </c>
-      <c r="T73" s="48">
-        <f t="shared" si="78"/>
+      <c r="T77" s="48">
+        <f t="shared" si="80"/>
         <v>4.2154114555964268</v>
       </c>
-      <c r="U73" s="48">
-        <f t="shared" si="78"/>
+      <c r="U77" s="48">
+        <f t="shared" si="80"/>
         <v>4.2815167930660891</v>
       </c>
-      <c r="V73" s="48">
-        <f>V69/V4</f>
+      <c r="V77" s="48">
+        <f>V73/V4</f>
         <v>4.0269337442218802</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
+    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R74" s="48">
-        <f t="shared" ref="R74:U74" si="79">R67/R14</f>
+      <c r="R78" s="48">
+        <f t="shared" ref="R78:U78" si="81">R71/R14</f>
         <v>19.465364745762713</v>
       </c>
-      <c r="S74" s="48">
-        <f t="shared" si="79"/>
+      <c r="S78" s="48">
+        <f t="shared" si="81"/>
         <v>28.227834586466162</v>
       </c>
-      <c r="T74" s="48">
-        <f t="shared" si="79"/>
+      <c r="T78" s="48">
+        <f t="shared" si="81"/>
         <v>25.367509677419356</v>
       </c>
-      <c r="U74" s="48">
-        <f t="shared" si="79"/>
+      <c r="U78" s="48">
+        <f t="shared" si="81"/>
         <v>26.890105263157896</v>
       </c>
-      <c r="V74" s="48">
-        <f>V67/V14</f>
+      <c r="V78" s="48">
+        <f>V71/V14</f>
         <v>27.997795275590551</v>
       </c>
     </row>
@@ -5918,7 +6017,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
   <ignoredErrors>
-    <ignoredError sqref="H6:H8 H11 F6:F8 F11 F13 D6:D8 D11 J6:J11 F34:F53 J29:J39 J47 W6:AE8" formula="1"/>
+    <ignoredError sqref="H6:H8 H11 F6:F8 F11 F13 D6:D8 D11 J6:J11 F38:F57 J33:J43 J51 W6:AE8" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId7"/>
 </worksheet>

--- a/£SGE.xlsx
+++ b/£SGE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82F31C8-F555-496B-B7A7-D4E03F85BA18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71441EA8-4997-42EC-BC87-DF82FD22869D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="33075" windowHeight="18480" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
   </bookViews>
@@ -791,10 +791,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -933,14 +933,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -957,8 +957,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6940550" y="9525"/>
-          <a:ext cx="0" cy="13439775"/>
+          <a:off x="7559675" y="9525"/>
+          <a:ext cx="0" cy="14087475"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1334,7 +1334,7 @@
   <dimension ref="A2:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C32" sqref="C32:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1347,14 +1347,14 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="95" t="s">
+      <c r="G2" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="46">
-        <v>7.62</v>
+        <v>8.6059999999999999</v>
       </c>
       <c r="D6" s="14"/>
       <c r="H6" s="12"/>
@@ -1418,10 +1418,11 @@
         <v>4</v>
       </c>
       <c r="C7" s="16">
-        <v>1020</v>
+        <f>'Financial Model'!K15</f>
+        <v>1018</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="7"/>
@@ -1445,7 +1446,7 @@
       </c>
       <c r="C8" s="16">
         <f>C6*C7</f>
-        <v>7772.4000000000005</v>
+        <v>8760.9079999999994</v>
       </c>
       <c r="D8" s="14"/>
       <c r="H8" s="12"/>
@@ -1469,11 +1470,11 @@
         <v>6</v>
       </c>
       <c r="C9" s="16">
-        <f>'Financial Model'!V67</f>
-        <v>493</v>
+        <f>'Financial Model'!K67</f>
+        <v>581</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="7"/>
@@ -1496,11 +1497,11 @@
         <v>7</v>
       </c>
       <c r="C10" s="16">
-        <f>'Financial Model'!V68</f>
-        <v>1222</v>
+        <f>'Financial Model'!K68</f>
+        <v>1266</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="7"/>
@@ -1524,10 +1525,10 @@
       </c>
       <c r="C11" s="16">
         <f>C9-C10</f>
-        <v>-729</v>
+        <v>-685</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="7"/>
@@ -1551,7 +1552,7 @@
       </c>
       <c r="C12" s="17">
         <f>C8-C11</f>
-        <v>8501.4000000000015</v>
+        <v>9445.9079999999994</v>
       </c>
       <c r="D12" s="15"/>
       <c r="H12" s="12"/>
@@ -1803,7 +1804,7 @@
       <c r="B26" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="96">
+      <c r="C26" s="95">
         <f>'Financial Model'!V27</f>
         <v>11228</v>
       </c>
@@ -1824,10 +1825,11 @@
         <v>17</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="D27" s="20">
-        <v>44881</v>
+        <f>'Financial Model'!K3</f>
+        <v>45063</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="7"/>
@@ -1905,8 +1907,8 @@
         <v>21</v>
       </c>
       <c r="C32" s="82">
-        <f>C6/'Financial Model'!V14</f>
-        <v>30.6</v>
+        <f>C6/SUM('Financial Model'!J14:K14)</f>
+        <v>43.413815659068383</v>
       </c>
       <c r="D32" s="83"/>
       <c r="H32" s="12"/>
@@ -1925,8 +1927,8 @@
         <v>22</v>
       </c>
       <c r="C33" s="82">
-        <f>C8/'Financial Model'!V4</f>
-        <v>3.9919876733436057</v>
+        <f>C8/SUM('Financial Model'!J4:K4)</f>
+        <v>4.1718609523809524</v>
       </c>
       <c r="D33" s="83"/>
       <c r="H33" s="12"/>
@@ -1945,8 +1947,8 @@
         <v>23</v>
       </c>
       <c r="C34" s="82">
-        <f>C6/'Financial Model'!V65</f>
-        <v>5.6444444444444439</v>
+        <f>C6/'Financial Model'!K65</f>
+        <v>6.7081990811638583</v>
       </c>
       <c r="D34" s="83"/>
       <c r="H34" s="13"/>
@@ -1965,8 +1967,8 @@
         <v>103</v>
       </c>
       <c r="C35" s="82">
-        <f>C12/'Financial Model'!V4</f>
-        <v>4.3664098613251161</v>
+        <f>C12/SUM('Financial Model'!J4:K4)</f>
+        <v>4.4980514285714284</v>
       </c>
       <c r="D35" s="83"/>
     </row>
@@ -1975,8 +1977,8 @@
         <v>106</v>
       </c>
       <c r="C36" s="84">
-        <f>C12/'Financial Model'!V13</f>
-        <v>33.470078740157483</v>
+        <f>C12/SUM('Financial Model'!J13:K13)</f>
+        <v>46.761920792079202</v>
       </c>
       <c r="D36" s="85"/>
     </row>
@@ -2018,10 +2020,10 @@
   <dimension ref="B1:BZ78"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S28" sqref="S28"/>
+      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2071,7 +2073,7 @@
       <c r="J1" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="24" t="s">
         <v>102</v>
       </c>
       <c r="L1" s="22" t="s">
@@ -2147,6 +2149,9 @@
       <c r="J2" s="37">
         <f>V2</f>
         <v>44834</v>
+      </c>
+      <c r="K2" s="29">
+        <v>45016</v>
       </c>
       <c r="L2" s="27"/>
       <c r="R2" s="29">
@@ -2195,6 +2200,9 @@
       </c>
       <c r="J3" s="43">
         <v>44881</v>
+      </c>
+      <c r="K3" s="28">
+        <v>45063</v>
       </c>
       <c r="L3" s="27"/>
       <c r="S3" s="28">
@@ -2248,6 +2256,9 @@
         <f>V4-I4</f>
         <v>1013</v>
       </c>
+      <c r="K4" s="35">
+        <v>1087</v>
+      </c>
       <c r="L4" s="30"/>
       <c r="R4" s="35">
         <v>1846</v>
@@ -2266,39 +2277,39 @@
       </c>
       <c r="W4" s="60">
         <f>V4*(1+W22)</f>
-        <v>2024.88</v>
+        <v>2141.7000000000003</v>
       </c>
       <c r="X4" s="61">
         <f t="shared" ref="X4:AE4" si="0">W4*(1+X22)</f>
-        <v>2085.6264000000001</v>
+        <v>2248.7850000000003</v>
       </c>
       <c r="Y4" s="61">
         <f t="shared" si="0"/>
-        <v>2127.3389280000001</v>
+        <v>2338.7364000000002</v>
       </c>
       <c r="Z4" s="61">
         <f t="shared" si="0"/>
-        <v>2169.88570656</v>
+        <v>2408.8984920000003</v>
       </c>
       <c r="AA4" s="61">
         <f t="shared" si="0"/>
-        <v>2213.2834206912003</v>
+        <v>2457.0764618400003</v>
       </c>
       <c r="AB4" s="61">
         <f t="shared" si="0"/>
-        <v>2257.5490891050244</v>
+        <v>2506.2179910768004</v>
       </c>
       <c r="AC4" s="61">
         <f t="shared" si="0"/>
-        <v>2302.7000708871251</v>
+        <v>2556.3423508983365</v>
       </c>
       <c r="AD4" s="61">
         <f t="shared" si="0"/>
-        <v>2348.7540723048678</v>
+        <v>2607.4691979163031</v>
       </c>
       <c r="AE4" s="61">
         <f t="shared" si="0"/>
-        <v>2395.729153750965</v>
+        <v>2659.6185818746294</v>
       </c>
     </row>
     <row r="5" spans="2:78" x14ac:dyDescent="0.2">
@@ -2333,6 +2344,9 @@
         <f>V5-I5</f>
         <v>70</v>
       </c>
+      <c r="K5" s="32">
+        <v>76</v>
+      </c>
       <c r="R5" s="32">
         <v>130</v>
       </c>
@@ -2350,39 +2364,39 @@
       </c>
       <c r="W5" s="62">
         <f>W4-W6</f>
-        <v>141.74159999999983</v>
+        <v>149.91899999999987</v>
       </c>
       <c r="X5" s="39">
         <f t="shared" ref="X5:AE5" si="1">X4-X6</f>
-        <v>145.99384799999984</v>
+        <v>157.41494999999986</v>
       </c>
       <c r="Y5" s="39">
         <f t="shared" si="1"/>
-        <v>148.91372495999985</v>
+        <v>163.71154799999977</v>
       </c>
       <c r="Z5" s="39">
         <f t="shared" si="1"/>
-        <v>151.89199945919995</v>
+        <v>168.62289443999998</v>
       </c>
       <c r="AA5" s="39">
         <f t="shared" si="1"/>
-        <v>154.92983944838397</v>
+        <v>171.99535232879998</v>
       </c>
       <c r="AB5" s="39">
         <f t="shared" si="1"/>
-        <v>158.0284362373518</v>
+        <v>175.43525937537606</v>
       </c>
       <c r="AC5" s="39">
         <f t="shared" si="1"/>
-        <v>161.18900496209881</v>
+        <v>178.94396456288359</v>
       </c>
       <c r="AD5" s="39">
         <f t="shared" si="1"/>
-        <v>164.41278506134086</v>
+        <v>182.52284385414123</v>
       </c>
       <c r="AE5" s="39">
         <f t="shared" si="1"/>
-        <v>167.70104076256757</v>
+        <v>186.17330073122412</v>
       </c>
     </row>
     <row r="6" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2390,7 +2404,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:J6" si="2">C4-C5</f>
+        <f t="shared" ref="C6:K6" si="2">C4-C5</f>
         <v>887</v>
       </c>
       <c r="D6" s="36">
@@ -2420,6 +2434,10 @@
       <c r="J6" s="36">
         <f t="shared" si="2"/>
         <v>943</v>
+      </c>
+      <c r="K6" s="35">
+        <f t="shared" si="2"/>
+        <v>1011</v>
       </c>
       <c r="L6" s="30"/>
       <c r="R6" s="35">
@@ -2444,39 +2462,39 @@
       </c>
       <c r="W6" s="60">
         <f>W4*W17</f>
-        <v>1883.1384000000003</v>
+        <v>1991.7810000000004</v>
       </c>
       <c r="X6" s="61">
         <f t="shared" ref="X6:AE6" si="3">X4*X17</f>
-        <v>1939.6325520000003</v>
+        <v>2091.3700500000004</v>
       </c>
       <c r="Y6" s="61">
         <f t="shared" si="3"/>
-        <v>1978.4252030400003</v>
+        <v>2175.0248520000005</v>
       </c>
       <c r="Z6" s="61">
         <f t="shared" si="3"/>
-        <v>2017.9937071008001</v>
+        <v>2240.2755975600003</v>
       </c>
       <c r="AA6" s="61">
         <f t="shared" si="3"/>
-        <v>2058.3535812428163</v>
+        <v>2285.0811095112003</v>
       </c>
       <c r="AB6" s="61">
         <f t="shared" si="3"/>
-        <v>2099.5206528676727</v>
+        <v>2330.7827317014244</v>
       </c>
       <c r="AC6" s="61">
         <f t="shared" si="3"/>
-        <v>2141.5110659250263</v>
+        <v>2377.3983863354529</v>
       </c>
       <c r="AD6" s="61">
         <f t="shared" si="3"/>
-        <v>2184.3412872435269</v>
+        <v>2424.9463540621618</v>
       </c>
       <c r="AE6" s="61">
         <f t="shared" si="3"/>
-        <v>2228.0281129883974</v>
+        <v>2473.4452811434053</v>
       </c>
     </row>
     <row r="7" spans="2:78" x14ac:dyDescent="0.2">
@@ -2511,6 +2529,9 @@
         <f>V7-I7</f>
         <v>780</v>
       </c>
+      <c r="K7" s="32">
+        <v>854</v>
+      </c>
       <c r="R7" s="32">
         <v>1289</v>
       </c>
@@ -2528,39 +2549,39 @@
       </c>
       <c r="W7" s="62">
         <f>W6-W8</f>
-        <v>1478.1624000000002</v>
+        <v>1563.4410000000003</v>
       </c>
       <c r="X7" s="39">
         <f t="shared" ref="X7:AE7" si="4">X6-X8</f>
-        <v>1522.5072720000003</v>
+        <v>1641.6130500000004</v>
       </c>
       <c r="Y7" s="39">
         <f t="shared" si="4"/>
-        <v>1552.9574174400002</v>
+        <v>1707.2775720000004</v>
       </c>
       <c r="Z7" s="39">
         <f t="shared" si="4"/>
-        <v>1584.0165657888001</v>
+        <v>1758.4958991600001</v>
       </c>
       <c r="AA7" s="39">
         <f t="shared" si="4"/>
-        <v>1615.6968971045762</v>
+        <v>1793.6658171432002</v>
       </c>
       <c r="AB7" s="39">
         <f t="shared" si="4"/>
-        <v>1648.0108350466678</v>
+        <v>1829.5391334860642</v>
       </c>
       <c r="AC7" s="39">
         <f t="shared" si="4"/>
-        <v>1680.9710517476012</v>
+        <v>1866.1299161557856</v>
       </c>
       <c r="AD7" s="39">
         <f t="shared" si="4"/>
-        <v>1714.5904727825534</v>
+        <v>1903.4525144789013</v>
       </c>
       <c r="AE7" s="39">
         <f t="shared" si="4"/>
-        <v>1748.8822822382044</v>
+        <v>1941.5215647684795</v>
       </c>
     </row>
     <row r="8" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2568,7 +2589,7 @@
         <v>43</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:J8" si="5">C6-C7</f>
+        <f t="shared" ref="C8:K8" si="5">C6-C7</f>
         <v>210</v>
       </c>
       <c r="D8" s="36">
@@ -2598,6 +2619,10 @@
       <c r="J8" s="36">
         <f t="shared" si="5"/>
         <v>163</v>
+      </c>
+      <c r="K8" s="35">
+        <f t="shared" si="5"/>
+        <v>157</v>
       </c>
       <c r="L8" s="30"/>
       <c r="R8" s="35">
@@ -2622,39 +2647,39 @@
       </c>
       <c r="W8" s="60">
         <f>W4*W18</f>
-        <v>404.97600000000006</v>
+        <v>428.34000000000009</v>
       </c>
       <c r="X8" s="61">
         <f t="shared" ref="X8:AE8" si="6">X4*X18</f>
-        <v>417.12528000000003</v>
+        <v>449.75700000000006</v>
       </c>
       <c r="Y8" s="61">
         <f t="shared" si="6"/>
-        <v>425.46778560000007</v>
+        <v>467.74728000000005</v>
       </c>
       <c r="Z8" s="61">
         <f t="shared" si="6"/>
-        <v>433.97714131200001</v>
+        <v>481.77969840000009</v>
       </c>
       <c r="AA8" s="61">
         <f t="shared" si="6"/>
-        <v>442.65668413824005</v>
+        <v>491.41529236800011</v>
       </c>
       <c r="AB8" s="61">
         <f t="shared" si="6"/>
-        <v>451.5098178210049</v>
+        <v>501.24359821536012</v>
       </c>
       <c r="AC8" s="61">
         <f t="shared" si="6"/>
-        <v>460.54001417742506</v>
+        <v>511.2684701796673</v>
       </c>
       <c r="AD8" s="61">
         <f t="shared" si="6"/>
-        <v>469.75081446097357</v>
+        <v>521.49383958326064</v>
       </c>
       <c r="AE8" s="61">
         <f t="shared" si="6"/>
-        <v>479.145830750193</v>
+        <v>531.9237163749259</v>
       </c>
     </row>
     <row r="9" spans="2:78" x14ac:dyDescent="0.2">
@@ -2689,6 +2714,9 @@
         <f t="shared" ref="J9:J10" si="7">V9-I9</f>
         <v>1</v>
       </c>
+      <c r="K9" s="32">
+        <v>4</v>
+      </c>
       <c r="R9" s="32">
         <v>5</v>
       </c>
@@ -2773,6 +2801,9 @@
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
+      <c r="K10" s="32">
+        <v>22</v>
+      </c>
       <c r="R10" s="32">
         <v>34</v>
       </c>
@@ -2830,7 +2861,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:J11" si="18">C8+C9-C10</f>
+        <f t="shared" ref="C11:K11" si="18">C8+C9-C10</f>
         <v>198</v>
       </c>
       <c r="D11" s="33">
@@ -2861,6 +2892,10 @@
         <f t="shared" si="18"/>
         <v>148</v>
       </c>
+      <c r="K11" s="32">
+        <f t="shared" si="18"/>
+        <v>139</v>
+      </c>
       <c r="R11" s="32">
         <f t="shared" ref="R11:X11" si="19">R8+R9-R10</f>
         <v>398</v>
@@ -2883,39 +2918,39 @@
       </c>
       <c r="W11" s="62">
         <f t="shared" si="19"/>
-        <v>377.57600000000008</v>
+        <v>400.94000000000011</v>
       </c>
       <c r="X11" s="39">
         <f t="shared" si="19"/>
-        <v>390.04528000000005</v>
+        <v>422.67700000000008</v>
       </c>
       <c r="Y11" s="39">
         <f t="shared" ref="Y11:AE11" si="20">Y8+Y9-Y10</f>
-        <v>397.17178560000008</v>
+        <v>439.45128000000005</v>
       </c>
       <c r="Z11" s="39">
         <f t="shared" si="20"/>
-        <v>406.22194131200001</v>
+        <v>454.02449840000008</v>
       </c>
       <c r="AA11" s="39">
         <f t="shared" si="20"/>
-        <v>414.5504441382401</v>
+        <v>463.30905236800015</v>
       </c>
       <c r="AB11" s="39">
         <f t="shared" si="20"/>
-        <v>423.78232982100491</v>
+        <v>473.51611021536013</v>
       </c>
       <c r="AC11" s="39">
         <f t="shared" si="20"/>
-        <v>432.74702857742511</v>
+        <v>483.4754845796673</v>
       </c>
       <c r="AD11" s="39">
         <f t="shared" si="20"/>
-        <v>441.81523174097356</v>
+        <v>493.55825686326062</v>
       </c>
       <c r="AE11" s="39">
         <f t="shared" si="20"/>
-        <v>451.28233148619296</v>
+        <v>504.06021711092586</v>
       </c>
     </row>
     <row r="12" spans="2:78" x14ac:dyDescent="0.2">
@@ -2950,6 +2985,9 @@
         <f>V12-I12</f>
         <v>46</v>
       </c>
+      <c r="K12" s="32">
+        <v>39</v>
+      </c>
       <c r="R12" s="32">
         <v>103</v>
       </c>
@@ -2967,39 +3005,39 @@
       </c>
       <c r="W12" s="62">
         <f>W11*W20</f>
-        <v>94.39400000000002</v>
+        <v>100.23500000000003</v>
       </c>
       <c r="X12" s="39">
         <f>X11*X20</f>
-        <v>97.511320000000012</v>
+        <v>105.66925000000002</v>
       </c>
       <c r="Y12" s="39">
         <f t="shared" ref="Y12:AE12" si="21">Y11*Y20</f>
-        <v>99.292946400000019</v>
+        <v>109.86282000000001</v>
       </c>
       <c r="Z12" s="39">
         <f t="shared" si="21"/>
-        <v>101.555485328</v>
+        <v>113.50612460000002</v>
       </c>
       <c r="AA12" s="39">
         <f t="shared" si="21"/>
-        <v>103.63761103456002</v>
+        <v>115.82726309200004</v>
       </c>
       <c r="AB12" s="39">
         <f t="shared" si="21"/>
-        <v>105.94558245525123</v>
+        <v>118.37902755384003</v>
       </c>
       <c r="AC12" s="39">
         <f t="shared" si="21"/>
-        <v>108.18675714435628</v>
+        <v>120.86887114491682</v>
       </c>
       <c r="AD12" s="39">
         <f t="shared" si="21"/>
-        <v>110.45380793524339</v>
+        <v>123.38956421581516</v>
       </c>
       <c r="AE12" s="39">
         <f t="shared" si="21"/>
-        <v>112.82058287154824</v>
+        <v>126.01505427773147</v>
       </c>
     </row>
     <row r="13" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3007,7 +3045,7 @@
         <v>48</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" ref="C13:J13" si="22">C11-C12</f>
+        <f t="shared" ref="C13:K13" si="22">C11-C12</f>
         <v>154</v>
       </c>
       <c r="D13" s="36">
@@ -3037,6 +3075,10 @@
       <c r="J13" s="36">
         <f t="shared" si="22"/>
         <v>102</v>
+      </c>
+      <c r="K13" s="35">
+        <f t="shared" si="22"/>
+        <v>100</v>
       </c>
       <c r="L13" s="30"/>
       <c r="R13" s="35">
@@ -3061,227 +3103,227 @@
       </c>
       <c r="W13" s="60">
         <f t="shared" si="23"/>
-        <v>283.18200000000007</v>
+        <v>300.7050000000001</v>
       </c>
       <c r="X13" s="61">
         <f t="shared" si="23"/>
-        <v>292.53396000000004</v>
+        <v>317.00775000000004</v>
       </c>
       <c r="Y13" s="61">
         <f t="shared" ref="Y13:AE13" si="24">Y11-Y12</f>
-        <v>297.87883920000007</v>
+        <v>329.58846000000005</v>
       </c>
       <c r="Z13" s="61">
         <f t="shared" si="24"/>
-        <v>304.66645598399998</v>
+        <v>340.51837380000006</v>
       </c>
       <c r="AA13" s="61">
         <f t="shared" si="24"/>
-        <v>310.9128331036801</v>
+        <v>347.48178927600009</v>
       </c>
       <c r="AB13" s="61">
         <f t="shared" si="24"/>
-        <v>317.83674736575369</v>
+        <v>355.13708266152008</v>
       </c>
       <c r="AC13" s="61">
         <f t="shared" si="24"/>
-        <v>324.56027143306881</v>
+        <v>362.60661343475044</v>
       </c>
       <c r="AD13" s="61">
         <f t="shared" si="24"/>
-        <v>331.36142380573017</v>
+        <v>370.16869264744548</v>
       </c>
       <c r="AE13" s="61">
         <f t="shared" si="24"/>
-        <v>338.4617486146447</v>
+        <v>378.04516283319441</v>
       </c>
       <c r="AF13" s="35">
         <f>AE13*(1+$AH$17)</f>
-        <v>341.84636610079116</v>
+        <v>381.82561446152636</v>
       </c>
       <c r="AG13" s="35">
         <f t="shared" ref="AG13:BZ13" si="25">AF13*(1+$AH$17)</f>
-        <v>345.26482976179909</v>
+        <v>385.6438706061416</v>
       </c>
       <c r="AH13" s="35">
         <f t="shared" si="25"/>
-        <v>348.71747805941709</v>
+        <v>389.500309312203</v>
       </c>
       <c r="AI13" s="35">
         <f t="shared" si="25"/>
-        <v>352.20465284001125</v>
+        <v>393.39531240532506</v>
       </c>
       <c r="AJ13" s="35">
         <f t="shared" si="25"/>
-        <v>355.72669936841135</v>
+        <v>397.32926552937829</v>
       </c>
       <c r="AK13" s="35">
         <f t="shared" si="25"/>
-        <v>359.28396636209544</v>
+        <v>401.30255818467208</v>
       </c>
       <c r="AL13" s="35">
         <f t="shared" si="25"/>
-        <v>362.87680602571641</v>
+        <v>405.31558376651878</v>
       </c>
       <c r="AM13" s="35">
         <f t="shared" si="25"/>
-        <v>366.50557408597359</v>
+        <v>409.36873960418399</v>
       </c>
       <c r="AN13" s="35">
         <f t="shared" si="25"/>
-        <v>370.17062982683331</v>
+        <v>413.46242700022583</v>
       </c>
       <c r="AO13" s="35">
         <f t="shared" si="25"/>
-        <v>373.87233612510164</v>
+        <v>417.59705127022806</v>
       </c>
       <c r="AP13" s="35">
         <f t="shared" si="25"/>
-        <v>377.61105948635264</v>
+        <v>421.77302178293036</v>
       </c>
       <c r="AQ13" s="35">
         <f t="shared" si="25"/>
-        <v>381.3871700812162</v>
+        <v>425.99075200075964</v>
       </c>
       <c r="AR13" s="35">
         <f t="shared" si="25"/>
-        <v>385.20104178202837</v>
+        <v>430.25065952076721</v>
       </c>
       <c r="AS13" s="35">
         <f t="shared" si="25"/>
-        <v>389.05305219984865</v>
+        <v>434.55316611597488</v>
       </c>
       <c r="AT13" s="35">
         <f t="shared" si="25"/>
-        <v>392.94358272184712</v>
+        <v>438.8986977771346</v>
       </c>
       <c r="AU13" s="35">
         <f t="shared" si="25"/>
-        <v>396.87301854906559</v>
+        <v>443.28768475490597</v>
       </c>
       <c r="AV13" s="35">
         <f t="shared" si="25"/>
-        <v>400.84174873455623</v>
+        <v>447.72056160245501</v>
       </c>
       <c r="AW13" s="35">
         <f t="shared" si="25"/>
-        <v>404.85016622190182</v>
+        <v>452.19776721847956</v>
       </c>
       <c r="AX13" s="35">
         <f t="shared" si="25"/>
-        <v>408.89866788412081</v>
+        <v>456.71974489066434</v>
       </c>
       <c r="AY13" s="35">
         <f t="shared" si="25"/>
-        <v>412.98765456296201</v>
+        <v>461.286942339571</v>
       </c>
       <c r="AZ13" s="35">
         <f t="shared" si="25"/>
-        <v>417.11753110859161</v>
+        <v>465.89981176296669</v>
       </c>
       <c r="BA13" s="35">
         <f t="shared" si="25"/>
-        <v>421.28870641967751</v>
+        <v>470.55880988059636</v>
       </c>
       <c r="BB13" s="35">
         <f t="shared" si="25"/>
-        <v>425.50159348387427</v>
+        <v>475.2643979794023</v>
       </c>
       <c r="BC13" s="35">
         <f t="shared" si="25"/>
-        <v>429.75660941871303</v>
+        <v>480.01704195919632</v>
       </c>
       <c r="BD13" s="35">
         <f t="shared" si="25"/>
-        <v>434.05417551290014</v>
+        <v>484.81721237878827</v>
       </c>
       <c r="BE13" s="35">
         <f t="shared" si="25"/>
-        <v>438.39471726802913</v>
+        <v>489.66538450257616</v>
       </c>
       <c r="BF13" s="35">
         <f t="shared" si="25"/>
-        <v>442.77866444070941</v>
+        <v>494.56203834760191</v>
       </c>
       <c r="BG13" s="35">
         <f t="shared" si="25"/>
-        <v>447.2064510851165</v>
+        <v>499.50765873107792</v>
       </c>
       <c r="BH13" s="35">
         <f t="shared" si="25"/>
-        <v>451.67851559596767</v>
+        <v>504.50273531838872</v>
       </c>
       <c r="BI13" s="35">
         <f t="shared" si="25"/>
-        <v>456.19530075192733</v>
+        <v>509.54776267157263</v>
       </c>
       <c r="BJ13" s="35">
         <f t="shared" si="25"/>
-        <v>460.7572537594466</v>
+        <v>514.64324029828833</v>
       </c>
       <c r="BK13" s="35">
         <f t="shared" si="25"/>
-        <v>465.36482629704108</v>
+        <v>519.78967270127123</v>
       </c>
       <c r="BL13" s="35">
         <f t="shared" si="25"/>
-        <v>470.0184745600115</v>
+        <v>524.9875694282839</v>
       </c>
       <c r="BM13" s="35">
         <f t="shared" si="25"/>
-        <v>474.7186593056116</v>
+        <v>530.23744512256678</v>
       </c>
       <c r="BN13" s="35">
         <f t="shared" si="25"/>
-        <v>479.46584589866774</v>
+        <v>535.53981957379244</v>
       </c>
       <c r="BO13" s="35">
         <f t="shared" si="25"/>
-        <v>484.26050435765444</v>
+        <v>540.8952177695304</v>
       </c>
       <c r="BP13" s="35">
         <f t="shared" si="25"/>
-        <v>489.10310940123099</v>
+        <v>546.30416994722566</v>
       </c>
       <c r="BQ13" s="35">
         <f t="shared" si="25"/>
-        <v>493.9941404952433</v>
+        <v>551.76721164669789</v>
       </c>
       <c r="BR13" s="35">
         <f t="shared" si="25"/>
-        <v>498.93408190019574</v>
+        <v>557.28488376316488</v>
       </c>
       <c r="BS13" s="35">
         <f t="shared" si="25"/>
-        <v>503.92342271919767</v>
+        <v>562.85773260079657</v>
       </c>
       <c r="BT13" s="35">
         <f t="shared" si="25"/>
-        <v>508.96265694638964</v>
+        <v>568.48630992680455</v>
       </c>
       <c r="BU13" s="35">
         <f t="shared" si="25"/>
-        <v>514.05228351585356</v>
+        <v>574.17117302607255</v>
       </c>
       <c r="BV13" s="35">
         <f t="shared" si="25"/>
-        <v>519.19280635101211</v>
+        <v>579.91288475633326</v>
       </c>
       <c r="BW13" s="35">
         <f t="shared" si="25"/>
-        <v>524.3847344145222</v>
+        <v>585.71201360389659</v>
       </c>
       <c r="BX13" s="35">
         <f t="shared" si="25"/>
-        <v>529.62858175866745</v>
+        <v>591.56913373993552</v>
       </c>
       <c r="BY13" s="35">
         <f t="shared" si="25"/>
-        <v>534.92486757625409</v>
+        <v>597.4848250773349</v>
       </c>
       <c r="BZ13" s="35">
         <f t="shared" si="25"/>
-        <v>540.2741162520166</v>
+        <v>603.45967332810824</v>
       </c>
     </row>
     <row r="14" spans="2:78" s="55" customFormat="1" x14ac:dyDescent="0.2">
@@ -3289,7 +3331,7 @@
         <v>49</v>
       </c>
       <c r="C14" s="55">
-        <f t="shared" ref="C14:J14" si="26">C13/C15</f>
+        <f t="shared" ref="C14:K14" si="26">C13/C15</f>
         <v>0.14180478821362799</v>
       </c>
       <c r="D14" s="56">
@@ -3319,6 +3361,10 @@
       <c r="J14" s="56">
         <f t="shared" si="26"/>
         <v>0.1</v>
+      </c>
+      <c r="K14" s="55">
+        <f t="shared" si="26"/>
+        <v>9.8231827111984277E-2</v>
       </c>
       <c r="L14" s="56"/>
       <c r="R14" s="55">
@@ -3343,39 +3389,39 @@
       </c>
       <c r="W14" s="64">
         <f>W13/W15</f>
-        <v>0.27762941176470596</v>
+        <v>0.29480882352941185</v>
       </c>
       <c r="X14" s="65">
         <f>X13/X15</f>
-        <v>0.28679800000000005</v>
+        <v>0.31079191176470594</v>
       </c>
       <c r="Y14" s="65">
         <f t="shared" ref="Y14:AE14" si="28">Y13/Y15</f>
-        <v>0.29203807764705891</v>
+        <v>0.32312594117647064</v>
       </c>
       <c r="Z14" s="65">
         <f t="shared" si="28"/>
-        <v>0.29869260390588231</v>
+        <v>0.33384154294117652</v>
       </c>
       <c r="AA14" s="65">
         <f t="shared" si="28"/>
-        <v>0.30481650304282365</v>
+        <v>0.3406684208588236</v>
       </c>
       <c r="AB14" s="65">
         <f t="shared" si="28"/>
-        <v>0.31160465428015066</v>
+        <v>0.34817361045247069</v>
       </c>
       <c r="AC14" s="65">
         <f t="shared" si="28"/>
-        <v>0.31819634454222434</v>
+        <v>0.3554966798379906</v>
       </c>
       <c r="AD14" s="65">
         <f t="shared" si="28"/>
-        <v>0.32486414098600996</v>
+        <v>0.36291048298769163</v>
       </c>
       <c r="AE14" s="65">
         <f t="shared" si="28"/>
-        <v>0.33182524373984773</v>
+        <v>0.37063251258156316</v>
       </c>
     </row>
     <row r="15" spans="2:78" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -3410,6 +3456,9 @@
         <f>V15</f>
         <v>1020</v>
       </c>
+      <c r="K15" s="32">
+        <v>1018</v>
+      </c>
       <c r="L15" s="33"/>
       <c r="R15" s="32">
         <v>1083</v>
@@ -3496,8 +3545,12 @@
         <v>0.9271948608137045</v>
       </c>
       <c r="J17" s="42">
-        <f t="shared" ref="J17" si="31">J6/J4</f>
+        <f t="shared" ref="J17:K17" si="31">J6/J4</f>
         <v>0.93089832181638699</v>
+      </c>
+      <c r="K17" s="31">
+        <f t="shared" si="31"/>
+        <v>0.93008279668813243</v>
       </c>
       <c r="R17" s="31">
         <f t="shared" ref="R17:S17" si="32">R6/R4</f>
@@ -3586,8 +3639,12 @@
         <v>0.21841541755888652</v>
       </c>
       <c r="J18" s="42">
-        <f t="shared" ref="J18" si="35">J8/J4</f>
+        <f t="shared" ref="J18:K18" si="35">J8/J4</f>
         <v>0.16090819348469892</v>
+      </c>
+      <c r="K18" s="31">
+        <f t="shared" si="35"/>
+        <v>0.14443422263109476</v>
       </c>
       <c r="R18" s="31">
         <f t="shared" ref="R18:S18" si="36">R8/R4</f>
@@ -3640,7 +3697,7 @@
         <v>109</v>
       </c>
       <c r="AH18" s="75">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="2:34" x14ac:dyDescent="0.2">
@@ -3676,8 +3733,12 @@
         <v>0.16274089935760172</v>
       </c>
       <c r="J19" s="42">
-        <f t="shared" ref="J19" si="39">J13/J4</f>
+        <f t="shared" ref="J19:K19" si="39">J13/J4</f>
         <v>0.10069101678183613</v>
+      </c>
+      <c r="K19" s="31">
+        <f t="shared" si="39"/>
+        <v>9.1996320147194111E-2</v>
       </c>
       <c r="R19" s="31">
         <f t="shared" ref="R19:S19" si="40">R13/R4</f>
@@ -3704,7 +3765,7 @@
       </c>
       <c r="AH19" s="80">
         <f>NPV(AH18,W13:BZ13)</f>
-        <v>5728.5102119431367</v>
+        <v>7589.6488817349109</v>
       </c>
     </row>
     <row r="20" spans="2:34" x14ac:dyDescent="0.2">
@@ -3740,8 +3801,12 @@
         <v>0.19576719576719576</v>
       </c>
       <c r="J20" s="42">
-        <f t="shared" ref="J20" si="43">J12/J11</f>
+        <f t="shared" ref="J20:K20" si="43">J12/J11</f>
         <v>0.3108108108108108</v>
+      </c>
+      <c r="K20" s="31">
+        <f t="shared" si="43"/>
+        <v>0.2805755395683453</v>
       </c>
       <c r="R20" s="31">
         <f t="shared" ref="R20:U20" si="44">R12/R11</f>
@@ -3795,7 +3860,7 @@
       </c>
       <c r="AH20" s="80">
         <f>Main!C11</f>
-        <v>-729</v>
+        <v>-685</v>
       </c>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.2">
@@ -3804,7 +3869,7 @@
       </c>
       <c r="AH21" s="80">
         <f>AH19-AH20</f>
-        <v>6457.5102119431367</v>
+        <v>8274.6488817349109</v>
       </c>
     </row>
     <row r="22" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3818,7 +3883,7 @@
         <v>92</v>
       </c>
       <c r="E22" s="41">
-        <f t="shared" ref="E22:J22" si="46">E4/C4-1</f>
+        <f t="shared" ref="E22:K22" si="46">E4/C4-1</f>
         <v>1.8808777429467183E-2</v>
       </c>
       <c r="F22" s="51">
@@ -3841,6 +3906,10 @@
         <f t="shared" si="46"/>
         <v>0.11441144114411439</v>
       </c>
+      <c r="K22" s="41">
+        <f t="shared" si="46"/>
+        <v>0.16381156316916479</v>
+      </c>
       <c r="L22" s="30"/>
       <c r="R22" s="19" t="s">
         <v>92</v>
@@ -3862,16 +3931,16 @@
         <v>5.4712892741061836E-2</v>
       </c>
       <c r="W22" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="X22" s="69">
+        <v>0.05</v>
+      </c>
+      <c r="Y22" s="69">
         <v>0.04</v>
       </c>
-      <c r="X22" s="69">
+      <c r="Z22" s="69">
         <v>0.03</v>
-      </c>
-      <c r="Y22" s="69">
-        <v>0.02</v>
-      </c>
-      <c r="Z22" s="69">
-        <v>0.02</v>
       </c>
       <c r="AA22" s="69">
         <v>0.02</v>
@@ -3893,7 +3962,7 @@
       </c>
       <c r="AH22" s="79">
         <f>AH21/Main!C7</f>
-        <v>6.3308923646501336</v>
+        <v>8.1283387836295784</v>
       </c>
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.2">
@@ -3904,7 +3973,7 @@
         <v>92</v>
       </c>
       <c r="D23" s="42">
-        <f t="shared" ref="D23:J23" si="49">D4/C4-1</f>
+        <f t="shared" ref="D23:K23" si="49">D4/C4-1</f>
         <v>2.2988505747126409E-2</v>
       </c>
       <c r="E23" s="31">
@@ -3931,6 +4000,10 @@
         <f t="shared" si="49"/>
         <v>8.4582441113490336E-2</v>
       </c>
+      <c r="K23" s="31">
+        <f t="shared" si="49"/>
+        <v>7.3050345508390846E-2</v>
+      </c>
       <c r="R23" s="19" t="s">
         <v>92</v>
       </c>
@@ -3951,7 +4024,7 @@
       </c>
       <c r="AH23" s="76">
         <f>Main!C6</f>
-        <v>7.62</v>
+        <v>8.6059999999999999</v>
       </c>
     </row>
     <row r="24" spans="2:34" x14ac:dyDescent="0.2">
@@ -3973,7 +4046,7 @@
       </c>
       <c r="AH24" s="78">
         <f>AH22/AH23-1</f>
-        <v>-0.16917423036087487</v>
+        <v>-5.5503278685849589E-2</v>
       </c>
     </row>
     <row r="25" spans="2:34" x14ac:dyDescent="0.2">
@@ -4079,9 +4152,13 @@
         <f>2082+281</f>
         <v>2363</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="33">
         <f>V32</f>
         <v>2710</v>
+      </c>
+      <c r="K32" s="32">
+        <f>2238+288</f>
+        <v>2526</v>
       </c>
       <c r="R32" s="32">
         <f>2008+260</f>
@@ -4134,6 +4211,9 @@
         <f>-V33</f>
         <v>-152</v>
       </c>
+      <c r="K33" s="32">
+        <v>124</v>
+      </c>
       <c r="R33" s="32">
         <v>129</v>
       </c>
@@ -4178,6 +4258,9 @@
       </c>
       <c r="J34" s="30">
         <f>V34</f>
+        <v>4</v>
+      </c>
+      <c r="K34" s="35">
         <v>4</v>
       </c>
       <c r="L34" s="30"/>
@@ -4236,6 +4319,9 @@
         <f t="shared" ref="J35:J42" si="50">-V35</f>
         <v>0</v>
       </c>
+      <c r="K35" s="35">
+        <v>2</v>
+      </c>
       <c r="L35" s="30"/>
       <c r="R35" s="35">
         <v>1</v>
@@ -4292,6 +4378,9 @@
         <f t="shared" si="50"/>
         <v>-128</v>
       </c>
+      <c r="K36" s="32">
+        <v>125</v>
+      </c>
       <c r="R36" s="32">
         <v>2</v>
       </c>
@@ -4338,6 +4427,9 @@
         <f t="shared" si="50"/>
         <v>-19</v>
       </c>
+      <c r="K37" s="32">
+        <v>35</v>
+      </c>
       <c r="R37" s="32">
         <v>51</v>
       </c>
@@ -4359,7 +4451,7 @@
         <v>76</v>
       </c>
       <c r="C38" s="32">
-        <f t="shared" ref="C38:J38" si="52">SUM(C32:C37)</f>
+        <f t="shared" ref="C38:K38" si="52">SUM(C32:C37)</f>
         <v>2471</v>
       </c>
       <c r="D38" s="33">
@@ -4390,6 +4482,10 @@
         <f t="shared" si="52"/>
         <v>2415</v>
       </c>
+      <c r="K38" s="32">
+        <f t="shared" si="52"/>
+        <v>2816</v>
+      </c>
       <c r="R38" s="32">
         <f>SUM(R32:R37)</f>
         <v>2451</v>
@@ -4441,6 +4537,9 @@
         <f t="shared" si="50"/>
         <v>-335</v>
       </c>
+      <c r="K39" s="32">
+        <v>367</v>
+      </c>
       <c r="R39" s="32">
         <v>460</v>
       </c>
@@ -4487,6 +4586,9 @@
         <f t="shared" si="50"/>
         <v>-39</v>
       </c>
+      <c r="K40" s="32">
+        <v>37</v>
+      </c>
       <c r="R40" s="32">
         <v>4</v>
       </c>
@@ -4532,6 +4634,9 @@
       <c r="J41" s="30">
         <f>V41</f>
         <v>489</v>
+      </c>
+      <c r="K41" s="35">
+        <v>575</v>
       </c>
       <c r="L41" s="30"/>
       <c r="M41" s="1"/>
@@ -4594,6 +4699,9 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
+      <c r="K42" s="32">
+        <v>0</v>
+      </c>
       <c r="R42" s="32">
         <v>113</v>
       </c>
@@ -4615,7 +4723,7 @@
         <v>79</v>
       </c>
       <c r="C43" s="32">
-        <f t="shared" ref="C43:J43" si="53">C38+SUM(C39:C42)</f>
+        <f t="shared" ref="C43:K43" si="53">C38+SUM(C39:C42)</f>
         <v>3228</v>
       </c>
       <c r="D43" s="33">
@@ -4646,6 +4754,10 @@
         <f t="shared" si="53"/>
         <v>2530</v>
       </c>
+      <c r="K43" s="32">
+        <f t="shared" si="53"/>
+        <v>3795</v>
+      </c>
       <c r="R43" s="32">
         <f>R38+SUM(R39:R42)</f>
         <v>3300</v>
@@ -4670,6 +4782,7 @@
     <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="G44" s="32"/>
       <c r="H44" s="33"/>
+      <c r="K44" s="32"/>
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
       <c r="T44" s="32"/>
@@ -4705,6 +4818,9 @@
         <f t="shared" ref="J45:J50" si="55">V45</f>
         <v>368</v>
       </c>
+      <c r="K45" s="32">
+        <v>302</v>
+      </c>
       <c r="R45" s="32">
         <v>249</v>
       </c>
@@ -4751,6 +4867,9 @@
         <f t="shared" si="55"/>
         <v>13</v>
       </c>
+      <c r="K46" s="32">
+        <v>33</v>
+      </c>
       <c r="R46" s="32">
         <v>39</v>
       </c>
@@ -4796,6 +4915,9 @@
       <c r="J47" s="30">
         <f t="shared" si="55"/>
         <v>178</v>
+      </c>
+      <c r="K47" s="35">
+        <v>16</v>
       </c>
       <c r="L47" s="30"/>
       <c r="M47" s="1"/>
@@ -4858,6 +4980,9 @@
         <f t="shared" si="55"/>
         <v>33</v>
       </c>
+      <c r="K48" s="32">
+        <v>20</v>
+      </c>
       <c r="R48" s="32">
         <v>26</v>
       </c>
@@ -4904,6 +5029,9 @@
         <f t="shared" si="55"/>
         <v>734</v>
       </c>
+      <c r="K49" s="32">
+        <v>770</v>
+      </c>
       <c r="R49" s="32">
         <v>620</v>
       </c>
@@ -4950,6 +5078,9 @@
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
+      <c r="K50" s="32">
+        <v>0</v>
+      </c>
       <c r="R50" s="32">
         <v>63</v>
       </c>
@@ -4971,7 +5102,7 @@
         <v>87</v>
       </c>
       <c r="C51" s="32">
-        <f t="shared" ref="C51:J51" si="56">SUM(C45:C50)</f>
+        <f t="shared" ref="C51:K51" si="56">SUM(C45:C50)</f>
         <v>1003</v>
       </c>
       <c r="D51" s="33">
@@ -5002,6 +5133,10 @@
         <f t="shared" si="56"/>
         <v>1326</v>
       </c>
+      <c r="K51" s="32">
+        <f t="shared" si="56"/>
+        <v>1141</v>
+      </c>
       <c r="R51" s="32">
         <f>SUM(R45:R50)</f>
         <v>1005</v>
@@ -5052,6 +5187,9 @@
       <c r="J52" s="30">
         <f t="shared" ref="J52:J58" si="57">V52</f>
         <v>1044</v>
+      </c>
+      <c r="K52" s="35">
+        <v>1250</v>
       </c>
       <c r="L52" s="30"/>
       <c r="M52" s="1"/>
@@ -5114,6 +5252,9 @@
         <f t="shared" si="57"/>
         <v>19</v>
       </c>
+      <c r="K53" s="32">
+        <v>19</v>
+      </c>
       <c r="R53" s="32">
         <v>22</v>
       </c>
@@ -5160,6 +5301,9 @@
         <f t="shared" si="57"/>
         <v>16</v>
       </c>
+      <c r="K54" s="32">
+        <v>14</v>
+      </c>
       <c r="R54" s="32">
         <v>25</v>
       </c>
@@ -5206,6 +5350,9 @@
         <f t="shared" si="57"/>
         <v>20</v>
       </c>
+      <c r="K55" s="32">
+        <v>24</v>
+      </c>
       <c r="R55" s="32">
         <v>11</v>
       </c>
@@ -5252,6 +5399,9 @@
         <f t="shared" si="57"/>
         <v>6</v>
       </c>
+      <c r="K56" s="32">
+        <v>14</v>
+      </c>
       <c r="R56" s="32">
         <v>8</v>
       </c>
@@ -5298,6 +5448,9 @@
         <f t="shared" si="57"/>
         <v>8</v>
       </c>
+      <c r="K57" s="32">
+        <v>7</v>
+      </c>
       <c r="R57" s="32">
         <v>6</v>
       </c>
@@ -5343,6 +5496,9 @@
         <f t="shared" si="57"/>
         <v>60</v>
       </c>
+      <c r="K58" s="32">
+        <v>20</v>
+      </c>
       <c r="R58" s="32">
         <v>0</v>
       </c>
@@ -5364,7 +5520,7 @@
         <v>84</v>
       </c>
       <c r="C59" s="32">
-        <f t="shared" ref="C59:J59" si="59">C51+SUM(C52:C58)</f>
+        <f t="shared" ref="C59:K59" si="59">C51+SUM(C52:C58)</f>
         <v>1845</v>
       </c>
       <c r="D59" s="33">
@@ -5394,6 +5550,10 @@
       <c r="J59" s="33">
         <f t="shared" si="59"/>
         <v>2499</v>
+      </c>
+      <c r="K59" s="32">
+        <f t="shared" si="59"/>
+        <v>2489</v>
       </c>
       <c r="R59" s="32">
         <f>R51+SUM(R52:R58)</f>
@@ -5453,6 +5613,9 @@
       <c r="J61" s="33">
         <f>V61</f>
         <v>1397</v>
+      </c>
+      <c r="K61" s="32">
+        <v>1306</v>
       </c>
       <c r="L61" s="33"/>
       <c r="R61" s="32">
@@ -5485,7 +5648,7 @@
         <v>89</v>
       </c>
       <c r="C62" s="32">
-        <f t="shared" ref="C62:J62" si="60">C61+C59</f>
+        <f t="shared" ref="C62:K62" si="60">C61+C59</f>
         <v>3228</v>
       </c>
       <c r="D62" s="33">
@@ -5516,6 +5679,10 @@
         <f t="shared" si="60"/>
         <v>3896</v>
       </c>
+      <c r="K62" s="32">
+        <f t="shared" si="60"/>
+        <v>3795</v>
+      </c>
       <c r="R62" s="32">
         <f>R61+R59</f>
         <v>3317</v>
@@ -5574,8 +5741,12 @@
         <v>1204</v>
       </c>
       <c r="J64" s="33">
-        <f t="shared" ref="J64" si="62">J43-J59</f>
+        <f t="shared" ref="J64:K64" si="62">J43-J59</f>
         <v>31</v>
+      </c>
+      <c r="K64" s="32">
+        <f t="shared" si="62"/>
+        <v>1306</v>
       </c>
       <c r="R64" s="32">
         <f>R43-R59</f>
@@ -5631,8 +5802,12 @@
         <v>1.1769305962854351</v>
       </c>
       <c r="J65" s="23">
-        <f t="shared" ref="J65" si="65">J64/J15</f>
+        <f t="shared" ref="J65:K65" si="65">J64/J15</f>
         <v>3.0392156862745098E-2</v>
+      </c>
+      <c r="K65" s="1">
+        <f t="shared" si="65"/>
+        <v>1.2829076620825148</v>
       </c>
       <c r="R65" s="1">
         <f>R64/R15</f>
@@ -5691,8 +5866,12 @@
         <v>519</v>
       </c>
       <c r="J67" s="40">
-        <f t="shared" ref="J67" si="68">J41+J34+J35</f>
+        <f t="shared" ref="J67:K67" si="68">J41+J34+J35</f>
         <v>493</v>
+      </c>
+      <c r="K67" s="39">
+        <f t="shared" si="68"/>
+        <v>581</v>
       </c>
       <c r="L67" s="52"/>
       <c r="R67" s="39">
@@ -5750,8 +5929,12 @@
         <v>1165</v>
       </c>
       <c r="J68" s="40">
-        <f t="shared" ref="J68" si="71">J47+J52</f>
+        <f t="shared" ref="J68:K68" si="71">J47+J52</f>
         <v>1222</v>
+      </c>
+      <c r="K68" s="39">
+        <f t="shared" si="71"/>
+        <v>1266</v>
       </c>
       <c r="L68" s="52"/>
       <c r="R68" s="39">
@@ -5809,8 +5992,12 @@
         <v>-646</v>
       </c>
       <c r="J69" s="33">
-        <f t="shared" ref="J69" si="74">J67-J68</f>
+        <f t="shared" ref="J69:K69" si="74">J67-J68</f>
         <v>-729</v>
+      </c>
+      <c r="K69" s="32">
+        <f t="shared" si="74"/>
+        <v>-685</v>
       </c>
       <c r="R69" s="32">
         <f>R67-R68</f>
@@ -6013,12 +6200,13 @@
     <hyperlink ref="U1" r:id="rId3" xr:uid="{1BA11437-DB7B-46AF-B538-540ADD6514E3}"/>
     <hyperlink ref="S1" r:id="rId4" xr:uid="{621E12A8-EF21-434E-ABD4-566CA080C868}"/>
     <hyperlink ref="V1" r:id="rId5" xr:uid="{868025EF-C9E4-3A47-BE7A-AE4B223C1AF9}"/>
+    <hyperlink ref="K1" r:id="rId6" xr:uid="{EAE8E190-3EE7-45DA-93BE-DF62CC9877E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId6"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId7"/>
   <ignoredErrors>
     <ignoredError sqref="H6:H8 H11 F6:F8 F11 F13 D6:D8 D11 J6:J11 F38:F57 J33:J43 J51 W6:AE8" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/£SGE.xlsx
+++ b/£SGE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71441EA8-4997-42EC-BC87-DF82FD22869D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4084D334-8533-4108-89DF-0137B3CA1BC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33075" windowHeight="18480" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="33075" windowHeight="18480" activeTab="1" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -752,6 +752,18 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -776,15 +788,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -792,9 +795,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1333,7 +1333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB50BB21-6927-4998-A7CD-B755108AED34}">
   <dimension ref="A2:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32:D32"/>
     </sheetView>
   </sheetViews>
@@ -1347,14 +1347,14 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1362,30 +1362,30 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
-      <c r="H5" s="90" t="s">
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="H5" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="92"/>
-      <c r="T5" s="90" t="s">
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="85"/>
+      <c r="T5" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="91"/>
-      <c r="V5" s="91"/>
-      <c r="W5" s="91"/>
-      <c r="X5" s="92"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="85"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -1601,11 +1601,11 @@
       <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="92"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
       <c r="H15" s="12"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1624,10 +1624,10 @@
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="87"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1649,10 +1649,10 @@
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="87"/>
+      <c r="D17" s="91"/>
       <c r="H17" s="12"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1668,10 +1668,10 @@
       <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="87"/>
+      <c r="D18" s="91"/>
       <c r="H18" s="12"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1687,10 +1687,10 @@
       <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="92" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="89"/>
+      <c r="D19" s="93"/>
       <c r="H19" s="12"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1727,11 +1727,11 @@
       <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="85"/>
       <c r="H22" s="12"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1747,10 +1747,10 @@
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="87"/>
+      <c r="D23" s="91"/>
       <c r="H23" s="12"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1766,10 +1766,10 @@
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="86">
+      <c r="C24" s="90">
         <v>1981</v>
       </c>
-      <c r="D24" s="87"/>
+      <c r="D24" s="91"/>
       <c r="H24" s="12"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1785,10 +1785,10 @@
       <c r="B25" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="86">
+      <c r="C25" s="90">
         <v>1989</v>
       </c>
-      <c r="D25" s="87"/>
+      <c r="D25" s="91"/>
       <c r="H25" s="12"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1804,11 +1804,11 @@
       <c r="B26" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="95">
+      <c r="C26" s="96">
         <f>'Financial Model'!V27</f>
         <v>11228</v>
       </c>
-      <c r="D26" s="87"/>
+      <c r="D26" s="91"/>
       <c r="H26" s="12"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -1846,10 +1846,10 @@
       <c r="B28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="93" t="s">
+      <c r="C28" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="94"/>
+      <c r="D28" s="95"/>
       <c r="H28" s="12"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -1886,11 +1886,11 @@
       <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="85"/>
       <c r="H31" s="12"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -1906,11 +1906,11 @@
       <c r="B32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="82">
+      <c r="C32" s="86">
         <f>C6/SUM('Financial Model'!J14:K14)</f>
         <v>43.413815659068383</v>
       </c>
-      <c r="D32" s="83"/>
+      <c r="D32" s="87"/>
       <c r="H32" s="12"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -1926,11 +1926,11 @@
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="82">
+      <c r="C33" s="86">
         <f>C8/SUM('Financial Model'!J4:K4)</f>
         <v>4.1718609523809524</v>
       </c>
-      <c r="D33" s="83"/>
+      <c r="D33" s="87"/>
       <c r="H33" s="12"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -1946,11 +1946,11 @@
       <c r="B34" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="82">
+      <c r="C34" s="86">
         <f>C6/'Financial Model'!K65</f>
         <v>6.7081990811638583</v>
       </c>
-      <c r="D34" s="83"/>
+      <c r="D34" s="87"/>
       <c r="H34" s="13"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -1966,31 +1966,24 @@
       <c r="B35" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="82">
+      <c r="C35" s="86">
         <f>C12/SUM('Financial Model'!J4:K4)</f>
         <v>4.4980514285714284</v>
       </c>
-      <c r="D35" s="83"/>
+      <c r="D35" s="87"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="84">
+      <c r="C36" s="88">
         <f>C12/SUM('Financial Model'!J13:K13)</f>
         <v>46.761920792079202</v>
       </c>
-      <c r="D36" s="85"/>
+      <c r="D36" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C33:D33"/>
@@ -2005,6 +1998,13 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28:D28" r:id="rId1" display="Link" xr:uid="{E398FABE-A8E2-41B0-BEEF-891546DA9EBE}"/>
@@ -2019,11 +2019,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBB68F3-0B4D-4779-B224-181DBEE6F8C1}">
   <dimension ref="B1:BZ78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C40" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomRight" activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/£SGE.xlsx
+++ b/£SGE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4084D334-8533-4108-89DF-0137B3CA1BC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692D85DB-B62B-4DEC-9873-458D2782F8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="33075" windowHeight="18480" activeTab="1" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="129">
   <si>
     <t>£SGE</t>
   </si>
@@ -349,9 +358,6 @@
     <t>EV/E</t>
   </si>
   <si>
-    <t>(Projected)</t>
-  </si>
-  <si>
     <t>Maturity Rate</t>
   </si>
   <si>
@@ -380,6 +386,42 @@
   </si>
   <si>
     <t>Emply.</t>
+  </si>
+  <si>
+    <t>Sage acquires supply-chain software platform Anvyl</t>
+  </si>
+  <si>
+    <t>Sage acquires French company Infineo who specialise in SMB accounting, financial, HR &amp; payroll</t>
+  </si>
+  <si>
+    <t>H124</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>UK &amp; Ireland</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Africa &amp; APAC</t>
+  </si>
+  <si>
+    <t>Employees Y/Y</t>
+  </si>
+  <si>
+    <t>Cashflow Statement</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>FCF</t>
   </si>
 </sst>
 </file>
@@ -391,7 +433,7 @@
     <numFmt numFmtId="165" formatCode="0.0\x"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,8 +521,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,12 +576,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -627,7 +683,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,9 +702,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -702,8 +758,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -712,33 +767,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -749,10 +789,28 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -764,39 +822,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -933,16 +987,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -957,7 +1011,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7559675" y="9525"/>
+          <a:off x="8778875" y="0"/>
           <a:ext cx="0" cy="14087475"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -983,15 +1037,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1007,8 +1061,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14249400" y="0"/>
-          <a:ext cx="0" cy="13677900"/>
+          <a:off x="14878050" y="0"/>
+          <a:ext cx="0" cy="14325600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1333,7 +1387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB50BB21-6927-4998-A7CD-B755108AED34}">
   <dimension ref="A2:X36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C32" sqref="C32:D32"/>
     </sheetView>
   </sheetViews>
@@ -1347,14 +1401,14 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1362,37 +1416,37 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
-      <c r="H5" s="83" t="s">
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
+      <c r="H5" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="85"/>
-      <c r="T5" s="83" t="s">
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
+      <c r="T5" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="85"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="79"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="46">
-        <v>8.6059999999999999</v>
+        <v>9.8859999999999992</v>
       </c>
       <c r="D6" s="14"/>
       <c r="H6" s="12"/>
@@ -1418,14 +1472,19 @@
         <v>4</v>
       </c>
       <c r="C7" s="16">
-        <f>'Financial Model'!K15</f>
-        <v>1018</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="7"/>
+        <f>'Financial Model'!M15</f>
+        <v>1016</v>
+      </c>
+      <c r="D7" s="14" t="str">
+        <f>+$C$27</f>
+        <v>H124</v>
+      </c>
+      <c r="H7" s="84">
+        <v>45566</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -1446,7 +1505,7 @@
       </c>
       <c r="C8" s="16">
         <f>C6*C7</f>
-        <v>8760.9079999999994</v>
+        <v>10044.175999999999</v>
       </c>
       <c r="D8" s="14"/>
       <c r="H8" s="12"/>
@@ -1470,14 +1529,19 @@
         <v>6</v>
       </c>
       <c r="C9" s="16">
-        <f>'Financial Model'!K67</f>
-        <v>581</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="7"/>
+        <f>'Financial Model'!M70</f>
+        <v>467</v>
+      </c>
+      <c r="D9" s="14" t="str">
+        <f t="shared" ref="D9:D11" si="0">+$C$27</f>
+        <v>H124</v>
+      </c>
+      <c r="H9" s="84">
+        <v>45536</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -1497,11 +1561,12 @@
         <v>7</v>
       </c>
       <c r="C10" s="16">
-        <f>'Financial Model'!K68</f>
-        <v>1266</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>102</v>
+        <f>'Financial Model'!M71</f>
+        <v>1259</v>
+      </c>
+      <c r="D10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>H124</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="7"/>
@@ -1525,10 +1590,11 @@
       </c>
       <c r="C11" s="16">
         <f>C9-C10</f>
-        <v>-685</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>102</v>
+        <v>-792</v>
+      </c>
+      <c r="D11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>H124</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="7"/>
@@ -1552,7 +1618,7 @@
       </c>
       <c r="C12" s="17">
         <f>C8-C11</f>
-        <v>9445.9079999999994</v>
+        <v>10836.175999999999</v>
       </c>
       <c r="D12" s="15"/>
       <c r="H12" s="12"/>
@@ -1601,11 +1667,11 @@
       <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
       <c r="H15" s="12"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1624,10 +1690,10 @@
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="91"/>
+      <c r="D16" s="74"/>
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1649,10 +1715,10 @@
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="91"/>
+      <c r="D17" s="74"/>
       <c r="H17" s="12"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1668,10 +1734,10 @@
       <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="91"/>
+      <c r="D18" s="74"/>
       <c r="H18" s="12"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1687,10 +1753,10 @@
       <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="93"/>
+      <c r="D19" s="76"/>
       <c r="H19" s="12"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1727,11 +1793,11 @@
       <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
       <c r="H22" s="12"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1747,10 +1813,10 @@
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="91"/>
+      <c r="D23" s="74"/>
       <c r="H23" s="12"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1766,10 +1832,10 @@
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="90">
+      <c r="C24" s="73">
         <v>1981</v>
       </c>
-      <c r="D24" s="91"/>
+      <c r="D24" s="74"/>
       <c r="H24" s="12"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1785,10 +1851,10 @@
       <c r="B25" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="90">
+      <c r="C25" s="73">
         <v>1989</v>
       </c>
-      <c r="D25" s="91"/>
+      <c r="D25" s="74"/>
       <c r="H25" s="12"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1802,13 +1868,13 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="96">
-        <f>'Financial Model'!V27</f>
-        <v>11228</v>
-      </c>
-      <c r="D26" s="91"/>
+        <v>116</v>
+      </c>
+      <c r="C26" s="82">
+        <f>+'Financial Model'!W27</f>
+        <v>11565</v>
+      </c>
+      <c r="D26" s="74"/>
       <c r="H26" s="12"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -1825,11 +1891,11 @@
         <v>17</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D27" s="20">
-        <f>'Financial Model'!K3</f>
-        <v>45063</v>
+        <f>+'Financial Model'!M3</f>
+        <v>45428</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="7"/>
@@ -1846,10 +1912,10 @@
       <c r="B28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="94" t="s">
+      <c r="C28" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="95"/>
+      <c r="D28" s="81"/>
       <c r="H28" s="12"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -1886,11 +1952,11 @@
       <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
       <c r="H31" s="12"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -1906,11 +1972,11 @@
       <c r="B32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="86">
-        <f>C6/SUM('Financial Model'!J14:K14)</f>
-        <v>43.413815659068383</v>
-      </c>
-      <c r="D32" s="87"/>
+      <c r="C32" s="69">
+        <f>C6/SUM('Financial Model'!L14:M14)</f>
+        <v>26.149764972535884</v>
+      </c>
+      <c r="D32" s="70"/>
       <c r="H32" s="12"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -1926,11 +1992,11 @@
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="86">
-        <f>C8/SUM('Financial Model'!J4:K4)</f>
-        <v>4.1718609523809524</v>
-      </c>
-      <c r="D33" s="87"/>
+      <c r="C33" s="69">
+        <f>C8/SUM('Financial Model'!L4:M4)</f>
+        <v>4.4660631391729657</v>
+      </c>
+      <c r="D33" s="70"/>
       <c r="H33" s="12"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -1946,11 +2012,11 @@
       <c r="B34" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="86">
-        <f>C6/'Financial Model'!K65</f>
-        <v>6.7081990811638583</v>
-      </c>
-      <c r="D34" s="87"/>
+      <c r="C34" s="69">
+        <f>C6/'Financial Model'!M68</f>
+        <v>9.2317794117647036</v>
+      </c>
+      <c r="D34" s="70"/>
       <c r="H34" s="13"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -1966,24 +2032,31 @@
       <c r="B35" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="86">
-        <f>C12/SUM('Financial Model'!J4:K4)</f>
-        <v>4.4980514285714284</v>
-      </c>
-      <c r="D35" s="87"/>
+      <c r="C35" s="69">
+        <f>C12/SUM('Financial Model'!L4:M4)</f>
+        <v>4.8182196531791908</v>
+      </c>
+      <c r="D35" s="70"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="88">
-        <f>C12/SUM('Financial Model'!J13:K13)</f>
-        <v>46.761920792079202</v>
-      </c>
-      <c r="D36" s="89"/>
+      <c r="C36" s="71">
+        <f>C12/SUM('Financial Model'!L13:M13)</f>
+        <v>28.145911688311688</v>
+      </c>
+      <c r="D36" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C33:D33"/>
@@ -1998,13 +2071,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28:D28" r:id="rId1" display="Link" xr:uid="{E398FABE-A8E2-41B0-BEEF-891546DA9EBE}"/>
@@ -2017,13 +2083,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBB68F3-0B4D-4779-B224-181DBEE6F8C1}">
-  <dimension ref="B1:BZ78"/>
+  <dimension ref="B1:BZ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U27" sqref="U27"/>
+      <selection pane="bottomRight" activeCell="K81" sqref="K81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2040,8 +2106,7 @@
     <col min="10" max="10" width="9.140625" style="23"/>
     <col min="11" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="9.140625" style="23"/>
-    <col min="13" max="22" width="9.140625" style="1"/>
-    <col min="23" max="23" width="9.140625" style="53"/>
+    <col min="13" max="23" width="9.140625" style="1"/>
     <col min="24" max="31" width="9.140625" style="38"/>
     <col min="32" max="32" width="9.140625" style="1"/>
     <col min="33" max="33" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -2079,6 +2144,9 @@
       <c r="L1" s="22" t="s">
         <v>105</v>
       </c>
+      <c r="M1" s="24" t="s">
+        <v>119</v>
+      </c>
       <c r="R1" s="21" t="s">
         <v>55</v>
       </c>
@@ -2094,31 +2162,31 @@
       <c r="V1" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="57" t="s">
+      <c r="W1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="58" t="s">
+      <c r="X1" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="58" t="s">
+      <c r="Y1" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="58" t="s">
+      <c r="Z1" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" s="58" t="s">
+      <c r="AA1" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="AB1" s="58" t="s">
+      <c r="AB1" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="AC1" s="58" t="s">
+      <c r="AC1" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="AD1" s="58" t="s">
+      <c r="AD1" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" s="58" t="s">
+      <c r="AE1" s="53" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2153,7 +2221,13 @@
       <c r="K2" s="29">
         <v>45016</v>
       </c>
-      <c r="L2" s="27"/>
+      <c r="L2" s="37">
+        <f>W2</f>
+        <v>45199</v>
+      </c>
+      <c r="M2" s="29">
+        <v>45382</v>
+      </c>
       <c r="R2" s="29">
         <v>43373</v>
       </c>
@@ -2169,17 +2243,17 @@
       <c r="V2" s="29">
         <v>44834</v>
       </c>
-      <c r="W2" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
+      <c r="W2" s="29">
+        <v>45199</v>
+      </c>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
     </row>
     <row r="3" spans="2:78" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="25"/>
@@ -2204,7 +2278,13 @@
       <c r="K3" s="28">
         <v>45063</v>
       </c>
-      <c r="L3" s="27"/>
+      <c r="L3" s="43">
+        <f>W3</f>
+        <v>45252</v>
+      </c>
+      <c r="M3" s="28">
+        <v>45428</v>
+      </c>
       <c r="S3" s="28">
         <v>43789</v>
       </c>
@@ -2214,15 +2294,17 @@
       <c r="V3" s="28">
         <v>44881</v>
       </c>
-      <c r="W3" s="54"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
+      <c r="W3" s="28">
+        <v>45252</v>
+      </c>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
     </row>
     <row r="4" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
@@ -2259,7 +2341,17 @@
       <c r="K4" s="35">
         <v>1087</v>
       </c>
-      <c r="L4" s="30"/>
+      <c r="L4" s="36">
+        <f>W4-K4</f>
+        <v>1097</v>
+      </c>
+      <c r="M4" s="35">
+        <v>1152</v>
+      </c>
+      <c r="N4" s="35">
+        <f>M4*(1+N23)</f>
+        <v>1209.6000000000001</v>
+      </c>
       <c r="R4" s="35">
         <v>1846</v>
       </c>
@@ -2275,41 +2367,40 @@
       <c r="V4" s="35">
         <v>1947</v>
       </c>
-      <c r="W4" s="60">
-        <f>V4*(1+W22)</f>
-        <v>2141.7000000000003</v>
-      </c>
-      <c r="X4" s="61">
-        <f t="shared" ref="X4:AE4" si="0">W4*(1+X22)</f>
-        <v>2248.7850000000003</v>
-      </c>
-      <c r="Y4" s="61">
+      <c r="W4" s="35">
+        <v>2184</v>
+      </c>
+      <c r="X4" s="55">
+        <f>N4+M4</f>
+        <v>2361.6000000000004</v>
+      </c>
+      <c r="Y4" s="55">
+        <f t="shared" ref="X4:AE4" si="0">X4*(1+Y22)</f>
+        <v>2456.0640000000003</v>
+      </c>
+      <c r="Z4" s="55">
         <f t="shared" si="0"/>
-        <v>2338.7364000000002</v>
-      </c>
-      <c r="Z4" s="61">
+        <v>2529.7459200000003</v>
+      </c>
+      <c r="AA4" s="55">
         <f t="shared" si="0"/>
-        <v>2408.8984920000003</v>
-      </c>
-      <c r="AA4" s="61">
+        <v>2580.3408384000004</v>
+      </c>
+      <c r="AB4" s="55">
         <f t="shared" si="0"/>
-        <v>2457.0764618400003</v>
-      </c>
-      <c r="AB4" s="61">
+        <v>2631.9476551680004</v>
+      </c>
+      <c r="AC4" s="55">
         <f t="shared" si="0"/>
-        <v>2506.2179910768004</v>
-      </c>
-      <c r="AC4" s="61">
+        <v>2684.5866082713605</v>
+      </c>
+      <c r="AD4" s="55">
         <f t="shared" si="0"/>
-        <v>2556.3423508983365</v>
-      </c>
-      <c r="AD4" s="61">
+        <v>2738.2783404367879</v>
+      </c>
+      <c r="AE4" s="55">
         <f t="shared" si="0"/>
-        <v>2607.4691979163031</v>
-      </c>
-      <c r="AE4" s="61">
-        <f t="shared" si="0"/>
-        <v>2659.6185818746294</v>
+        <v>2793.0439072455238</v>
       </c>
     </row>
     <row r="5" spans="2:78" x14ac:dyDescent="0.2">
@@ -2347,6 +2438,14 @@
       <c r="K5" s="32">
         <v>76</v>
       </c>
+      <c r="L5" s="33">
+        <f>W5-K5</f>
+        <v>80</v>
+      </c>
+      <c r="M5" s="32">
+        <v>82</v>
+      </c>
+      <c r="N5" s="32"/>
       <c r="R5" s="32">
         <v>130</v>
       </c>
@@ -2362,41 +2461,40 @@
       <c r="V5" s="32">
         <v>138</v>
       </c>
-      <c r="W5" s="62">
-        <f>W4-W6</f>
-        <v>149.91899999999987</v>
+      <c r="W5" s="32">
+        <v>156</v>
       </c>
       <c r="X5" s="39">
         <f t="shared" ref="X5:AE5" si="1">X4-X6</f>
-        <v>157.41494999999986</v>
+        <v>165.3119999999999</v>
       </c>
       <c r="Y5" s="39">
         <f t="shared" si="1"/>
-        <v>163.71154799999977</v>
+        <v>171.92447999999968</v>
       </c>
       <c r="Z5" s="39">
         <f t="shared" si="1"/>
-        <v>168.62289443999998</v>
+        <v>177.08221439999988</v>
       </c>
       <c r="AA5" s="39">
         <f t="shared" si="1"/>
-        <v>171.99535232879998</v>
+        <v>180.62385868799993</v>
       </c>
       <c r="AB5" s="39">
         <f t="shared" si="1"/>
-        <v>175.43525937537606</v>
+        <v>184.23633586175993</v>
       </c>
       <c r="AC5" s="39">
         <f t="shared" si="1"/>
-        <v>178.94396456288359</v>
+        <v>187.92106257899513</v>
       </c>
       <c r="AD5" s="39">
         <f t="shared" si="1"/>
-        <v>182.52284385414123</v>
+        <v>191.67948383057501</v>
       </c>
       <c r="AE5" s="39">
         <f t="shared" si="1"/>
-        <v>186.17330073122412</v>
+        <v>195.51307350718662</v>
       </c>
     </row>
     <row r="6" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2404,7 +2502,7 @@
         <v>41</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" ref="C6:K6" si="2">C4-C5</f>
+        <f t="shared" ref="C6:L6" si="2">C4-C5</f>
         <v>887</v>
       </c>
       <c r="D6" s="36">
@@ -2439,7 +2537,15 @@
         <f t="shared" si="2"/>
         <v>1011</v>
       </c>
-      <c r="L6" s="30"/>
+      <c r="L6" s="36">
+        <f t="shared" si="2"/>
+        <v>1017</v>
+      </c>
+      <c r="M6" s="35">
+        <f t="shared" ref="M6" si="3">M4-M5</f>
+        <v>1070</v>
+      </c>
+      <c r="N6" s="35"/>
       <c r="R6" s="35">
         <f>R4-R5</f>
         <v>1716</v>
@@ -2460,41 +2566,41 @@
         <f>V4-V5</f>
         <v>1809</v>
       </c>
-      <c r="W6" s="60">
-        <f>W4*W17</f>
-        <v>1991.7810000000004</v>
-      </c>
-      <c r="X6" s="61">
-        <f t="shared" ref="X6:AE6" si="3">X4*X17</f>
-        <v>2091.3700500000004</v>
-      </c>
-      <c r="Y6" s="61">
-        <f t="shared" si="3"/>
-        <v>2175.0248520000005</v>
-      </c>
-      <c r="Z6" s="61">
-        <f t="shared" si="3"/>
-        <v>2240.2755975600003</v>
-      </c>
-      <c r="AA6" s="61">
-        <f t="shared" si="3"/>
-        <v>2285.0811095112003</v>
-      </c>
-      <c r="AB6" s="61">
-        <f t="shared" si="3"/>
-        <v>2330.7827317014244</v>
-      </c>
-      <c r="AC6" s="61">
-        <f t="shared" si="3"/>
-        <v>2377.3983863354529</v>
-      </c>
-      <c r="AD6" s="61">
-        <f t="shared" si="3"/>
-        <v>2424.9463540621618</v>
-      </c>
-      <c r="AE6" s="61">
-        <f t="shared" si="3"/>
-        <v>2473.4452811434053</v>
+      <c r="W6" s="35">
+        <f t="shared" ref="W6" si="4">W4-W5</f>
+        <v>2028</v>
+      </c>
+      <c r="X6" s="55">
+        <f t="shared" ref="X6:AE6" si="5">X4*X17</f>
+        <v>2196.2880000000005</v>
+      </c>
+      <c r="Y6" s="55">
+        <f t="shared" si="5"/>
+        <v>2284.1395200000006</v>
+      </c>
+      <c r="Z6" s="55">
+        <f t="shared" si="5"/>
+        <v>2352.6637056000004</v>
+      </c>
+      <c r="AA6" s="55">
+        <f t="shared" si="5"/>
+        <v>2399.7169797120005</v>
+      </c>
+      <c r="AB6" s="55">
+        <f t="shared" si="5"/>
+        <v>2447.7113193062405</v>
+      </c>
+      <c r="AC6" s="55">
+        <f t="shared" si="5"/>
+        <v>2496.6655456923654</v>
+      </c>
+      <c r="AD6" s="55">
+        <f t="shared" si="5"/>
+        <v>2546.5988566062128</v>
+      </c>
+      <c r="AE6" s="55">
+        <f t="shared" si="5"/>
+        <v>2597.5308337383372</v>
       </c>
     </row>
     <row r="7" spans="2:78" x14ac:dyDescent="0.2">
@@ -2532,6 +2638,14 @@
       <c r="K7" s="32">
         <v>854</v>
       </c>
+      <c r="L7" s="33">
+        <f>W7-K7</f>
+        <v>718</v>
+      </c>
+      <c r="M7" s="32">
+        <v>855</v>
+      </c>
+      <c r="N7" s="32"/>
       <c r="R7" s="32">
         <v>1289</v>
       </c>
@@ -2547,41 +2661,40 @@
       <c r="V7" s="32">
         <v>1442</v>
       </c>
-      <c r="W7" s="62">
-        <f>W6-W8</f>
-        <v>1563.4410000000003</v>
+      <c r="W7" s="32">
+        <v>1572</v>
       </c>
       <c r="X7" s="39">
-        <f t="shared" ref="X7:AE7" si="4">X6-X8</f>
-        <v>1641.6130500000004</v>
+        <f t="shared" ref="X7:AE7" si="6">X6-X8</f>
+        <v>1723.9680000000003</v>
       </c>
       <c r="Y7" s="39">
-        <f t="shared" si="4"/>
-        <v>1707.2775720000004</v>
+        <f t="shared" si="6"/>
+        <v>1792.9267200000006</v>
       </c>
       <c r="Z7" s="39">
-        <f t="shared" si="4"/>
-        <v>1758.4958991600001</v>
+        <f t="shared" si="6"/>
+        <v>1846.7145216000004</v>
       </c>
       <c r="AA7" s="39">
-        <f t="shared" si="4"/>
-        <v>1793.6658171432002</v>
+        <f t="shared" si="6"/>
+        <v>1883.6488120320005</v>
       </c>
       <c r="AB7" s="39">
-        <f t="shared" si="4"/>
-        <v>1829.5391334860642</v>
+        <f t="shared" si="6"/>
+        <v>1921.3217882726403</v>
       </c>
       <c r="AC7" s="39">
-        <f t="shared" si="4"/>
-        <v>1866.1299161557856</v>
+        <f t="shared" si="6"/>
+        <v>1959.7482240380932</v>
       </c>
       <c r="AD7" s="39">
-        <f t="shared" si="4"/>
-        <v>1903.4525144789013</v>
+        <f t="shared" si="6"/>
+        <v>1998.9431885188551</v>
       </c>
       <c r="AE7" s="39">
-        <f t="shared" si="4"/>
-        <v>1941.5215647684795</v>
+        <f t="shared" si="6"/>
+        <v>2038.9220522892324</v>
       </c>
     </row>
     <row r="8" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2589,42 +2702,50 @@
         <v>43</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:K8" si="5">C6-C7</f>
+        <f t="shared" ref="C8:L8" si="7">C6-C7</f>
         <v>210</v>
       </c>
       <c r="D8" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>172</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>289</v>
       </c>
       <c r="F8" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>115</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>203</v>
       </c>
       <c r="H8" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>170</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>204</v>
       </c>
       <c r="J8" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>163</v>
       </c>
       <c r="K8" s="35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>157</v>
       </c>
-      <c r="L8" s="30"/>
+      <c r="L8" s="36">
+        <f t="shared" si="7"/>
+        <v>299</v>
+      </c>
+      <c r="M8" s="35">
+        <f t="shared" ref="M8" si="8">M6-M7</f>
+        <v>215</v>
+      </c>
+      <c r="N8" s="35"/>
       <c r="R8" s="35">
         <f>R6-R7</f>
         <v>427</v>
@@ -2645,41 +2766,41 @@
         <f>V6-V7</f>
         <v>367</v>
       </c>
-      <c r="W8" s="60">
-        <f>W4*W18</f>
-        <v>428.34000000000009</v>
-      </c>
-      <c r="X8" s="61">
-        <f t="shared" ref="X8:AE8" si="6">X4*X18</f>
-        <v>449.75700000000006</v>
-      </c>
-      <c r="Y8" s="61">
-        <f t="shared" si="6"/>
-        <v>467.74728000000005</v>
-      </c>
-      <c r="Z8" s="61">
-        <f t="shared" si="6"/>
-        <v>481.77969840000009</v>
-      </c>
-      <c r="AA8" s="61">
-        <f t="shared" si="6"/>
-        <v>491.41529236800011</v>
-      </c>
-      <c r="AB8" s="61">
-        <f t="shared" si="6"/>
-        <v>501.24359821536012</v>
-      </c>
-      <c r="AC8" s="61">
-        <f t="shared" si="6"/>
-        <v>511.2684701796673</v>
-      </c>
-      <c r="AD8" s="61">
-        <f t="shared" si="6"/>
-        <v>521.49383958326064</v>
-      </c>
-      <c r="AE8" s="61">
-        <f t="shared" si="6"/>
-        <v>531.9237163749259</v>
+      <c r="W8" s="35">
+        <f t="shared" ref="W8" si="9">W6-W7</f>
+        <v>456</v>
+      </c>
+      <c r="X8" s="55">
+        <f t="shared" ref="X8:AE8" si="10">X4*X18</f>
+        <v>472.32000000000011</v>
+      </c>
+      <c r="Y8" s="55">
+        <f t="shared" si="10"/>
+        <v>491.21280000000007</v>
+      </c>
+      <c r="Z8" s="55">
+        <f t="shared" si="10"/>
+        <v>505.94918400000006</v>
+      </c>
+      <c r="AA8" s="55">
+        <f t="shared" si="10"/>
+        <v>516.0681676800001</v>
+      </c>
+      <c r="AB8" s="55">
+        <f t="shared" si="10"/>
+        <v>526.38953103360006</v>
+      </c>
+      <c r="AC8" s="55">
+        <f t="shared" si="10"/>
+        <v>536.91732165427209</v>
+      </c>
+      <c r="AD8" s="55">
+        <f t="shared" si="10"/>
+        <v>547.65566808735764</v>
+      </c>
+      <c r="AE8" s="55">
+        <f t="shared" si="10"/>
+        <v>558.60878144910475</v>
       </c>
     </row>
     <row r="9" spans="2:78" x14ac:dyDescent="0.2">
@@ -2711,12 +2832,20 @@
         <v>0</v>
       </c>
       <c r="J9" s="33">
-        <f t="shared" ref="J9:J10" si="7">V9-I9</f>
+        <f t="shared" ref="J9:J10" si="11">V9-I9</f>
         <v>1</v>
       </c>
       <c r="K9" s="32">
         <v>4</v>
       </c>
+      <c r="L9" s="33">
+        <f>W9-K9</f>
+        <v>8</v>
+      </c>
+      <c r="M9" s="32">
+        <v>10</v>
+      </c>
+      <c r="N9" s="32"/>
       <c r="R9" s="32">
         <v>5</v>
       </c>
@@ -2732,41 +2861,40 @@
       <c r="V9" s="32">
         <v>1</v>
       </c>
-      <c r="W9" s="62">
-        <f>AVERAGE(R9:V9)</f>
-        <v>3.6</v>
-      </c>
-      <c r="X9" s="63">
-        <f t="shared" ref="X9:AE9" si="8">AVERAGE(S9:W9)</f>
-        <v>3.3200000000000003</v>
-      </c>
-      <c r="Y9" s="63">
-        <f t="shared" si="8"/>
-        <v>2.3839999999999999</v>
-      </c>
-      <c r="Z9" s="63">
-        <f t="shared" si="8"/>
-        <v>2.2608000000000001</v>
-      </c>
-      <c r="AA9" s="63">
-        <f t="shared" si="8"/>
-        <v>2.5129600000000001</v>
-      </c>
-      <c r="AB9" s="63">
-        <f t="shared" si="8"/>
-        <v>2.8155519999999998</v>
-      </c>
-      <c r="AC9" s="63">
-        <f t="shared" si="8"/>
-        <v>2.6586623999999999</v>
-      </c>
-      <c r="AD9" s="63">
-        <f t="shared" si="8"/>
-        <v>2.5263948800000002</v>
-      </c>
-      <c r="AE9" s="63">
-        <f t="shared" si="8"/>
-        <v>2.5548738559999999</v>
+      <c r="W9" s="32">
+        <v>12</v>
+      </c>
+      <c r="X9" s="39">
+        <f t="shared" ref="X9:AE9" si="12">AVERAGE(S9:W9)</f>
+        <v>5</v>
+      </c>
+      <c r="Y9" s="39">
+        <f t="shared" si="12"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Z9" s="39">
+        <f t="shared" si="12"/>
+        <v>4.68</v>
+      </c>
+      <c r="AA9" s="39">
+        <f t="shared" si="12"/>
+        <v>5.4159999999999995</v>
+      </c>
+      <c r="AB9" s="39">
+        <f t="shared" si="12"/>
+        <v>6.2991999999999999</v>
+      </c>
+      <c r="AC9" s="39">
+        <f t="shared" si="12"/>
+        <v>5.1590399999999992</v>
+      </c>
+      <c r="AD9" s="39">
+        <f t="shared" si="12"/>
+        <v>5.1908479999999999</v>
+      </c>
+      <c r="AE9" s="39">
+        <f t="shared" si="12"/>
+        <v>5.3490175999999998</v>
       </c>
     </row>
     <row r="10" spans="2:78" x14ac:dyDescent="0.2">
@@ -2798,12 +2926,20 @@
         <v>15</v>
       </c>
       <c r="J10" s="33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="K10" s="32">
         <v>22</v>
       </c>
+      <c r="L10" s="33">
+        <f>W10-K10</f>
+        <v>22</v>
+      </c>
+      <c r="M10" s="32">
+        <v>22</v>
+      </c>
+      <c r="N10" s="32"/>
       <c r="R10" s="32">
         <v>34</v>
       </c>
@@ -2819,41 +2955,40 @@
       <c r="V10" s="32">
         <v>31</v>
       </c>
-      <c r="W10" s="62">
-        <f t="shared" ref="W10" si="9">AVERAGE(R10:V10)</f>
-        <v>31</v>
-      </c>
-      <c r="X10" s="63">
-        <f t="shared" ref="X10" si="10">AVERAGE(S10:W10)</f>
-        <v>30.4</v>
-      </c>
-      <c r="Y10" s="63">
-        <f t="shared" ref="Y10" si="11">AVERAGE(T10:X10)</f>
-        <v>30.68</v>
-      </c>
-      <c r="Z10" s="63">
-        <f t="shared" ref="Z10" si="12">AVERAGE(U10:Y10)</f>
-        <v>30.016000000000002</v>
-      </c>
-      <c r="AA10" s="63">
-        <f t="shared" ref="AA10" si="13">AVERAGE(V10:Z10)</f>
-        <v>30.619199999999999</v>
-      </c>
-      <c r="AB10" s="63">
-        <f t="shared" ref="AB10" si="14">AVERAGE(W10:AA10)</f>
-        <v>30.543040000000001</v>
-      </c>
-      <c r="AC10" s="63">
-        <f t="shared" ref="AC10" si="15">AVERAGE(X10:AB10)</f>
-        <v>30.451647999999999</v>
-      </c>
-      <c r="AD10" s="63">
-        <f t="shared" ref="AD10" si="16">AVERAGE(Y10:AC10)</f>
-        <v>30.461977600000001</v>
-      </c>
-      <c r="AE10" s="63">
-        <f t="shared" ref="AE10" si="17">AVERAGE(Z10:AD10)</f>
-        <v>30.418373120000002</v>
+      <c r="W10" s="32">
+        <v>44</v>
+      </c>
+      <c r="X10" s="39">
+        <f t="shared" ref="X10" si="13">AVERAGE(S10:W10)</f>
+        <v>33</v>
+      </c>
+      <c r="Y10" s="39">
+        <f t="shared" ref="Y10" si="14">AVERAGE(T10:X10)</f>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="Z10" s="39">
+        <f t="shared" ref="Z10" si="15">AVERAGE(U10:Y10)</f>
+        <v>33.760000000000005</v>
+      </c>
+      <c r="AA10" s="39">
+        <f t="shared" ref="AA10" si="16">AVERAGE(V10:Z10)</f>
+        <v>35.112000000000002</v>
+      </c>
+      <c r="AB10" s="39">
+        <f t="shared" ref="AB10" si="17">AVERAGE(W10:AA10)</f>
+        <v>35.934399999999997</v>
+      </c>
+      <c r="AC10" s="39">
+        <f t="shared" ref="AC10" si="18">AVERAGE(X10:AB10)</f>
+        <v>34.321280000000002</v>
+      </c>
+      <c r="AD10" s="39">
+        <f t="shared" ref="AD10" si="19">AVERAGE(Y10:AC10)</f>
+        <v>34.585536000000005</v>
+      </c>
+      <c r="AE10" s="39">
+        <f t="shared" ref="AE10" si="20">AVERAGE(Z10:AD10)</f>
+        <v>34.742643199999996</v>
       </c>
     </row>
     <row r="11" spans="2:78" x14ac:dyDescent="0.2">
@@ -2861,96 +2996,105 @@
         <v>46</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:K11" si="18">C8+C9-C10</f>
+        <f t="shared" ref="C11:L11" si="21">C8+C9-C10</f>
         <v>198</v>
       </c>
       <c r="D11" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>163</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>275</v>
       </c>
       <c r="F11" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>98</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>190</v>
       </c>
       <c r="H11" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>157</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>189</v>
       </c>
       <c r="J11" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>148</v>
       </c>
       <c r="K11" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>139</v>
       </c>
+      <c r="L11" s="33">
+        <f t="shared" si="21"/>
+        <v>285</v>
+      </c>
+      <c r="M11" s="32">
+        <f t="shared" ref="M11" si="22">M8+M9-M10</f>
+        <v>203</v>
+      </c>
+      <c r="N11" s="32"/>
       <c r="R11" s="32">
-        <f t="shared" ref="R11:X11" si="19">R8+R9-R10</f>
+        <f t="shared" ref="R11:X11" si="23">R8+R9-R10</f>
         <v>398</v>
       </c>
       <c r="S11" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>361</v>
       </c>
       <c r="T11" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>373</v>
       </c>
       <c r="U11" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>347</v>
       </c>
       <c r="V11" s="32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>337</v>
       </c>
-      <c r="W11" s="62">
-        <f t="shared" si="19"/>
-        <v>400.94000000000011</v>
+      <c r="W11" s="32">
+        <f t="shared" ref="W11" si="24">W8+W9-W10</f>
+        <v>424</v>
       </c>
       <c r="X11" s="39">
-        <f t="shared" si="19"/>
-        <v>422.67700000000008</v>
+        <f t="shared" si="23"/>
+        <v>444.32000000000011</v>
       </c>
       <c r="Y11" s="39">
-        <f t="shared" ref="Y11:AE11" si="20">Y8+Y9-Y10</f>
-        <v>439.45128000000005</v>
+        <f t="shared" ref="Y11:AE11" si="25">Y8+Y9-Y10</f>
+        <v>461.81280000000004</v>
       </c>
       <c r="Z11" s="39">
-        <f t="shared" si="20"/>
-        <v>454.02449840000008</v>
+        <f t="shared" si="25"/>
+        <v>476.86918400000008</v>
       </c>
       <c r="AA11" s="39">
-        <f t="shared" si="20"/>
-        <v>463.30905236800015</v>
+        <f t="shared" si="25"/>
+        <v>486.37216768000013</v>
       </c>
       <c r="AB11" s="39">
-        <f t="shared" si="20"/>
-        <v>473.51611021536013</v>
+        <f t="shared" si="25"/>
+        <v>496.75433103360012</v>
       </c>
       <c r="AC11" s="39">
-        <f t="shared" si="20"/>
-        <v>483.4754845796673</v>
+        <f t="shared" si="25"/>
+        <v>507.75508165427209</v>
       </c>
       <c r="AD11" s="39">
-        <f t="shared" si="20"/>
-        <v>493.55825686326062</v>
+        <f t="shared" si="25"/>
+        <v>518.26098008735755</v>
       </c>
       <c r="AE11" s="39">
-        <f t="shared" si="20"/>
-        <v>504.06021711092586</v>
+        <f t="shared" si="25"/>
+        <v>529.2151558491048</v>
       </c>
     </row>
     <row r="12" spans="2:78" x14ac:dyDescent="0.2">
@@ -2988,6 +3132,14 @@
       <c r="K12" s="32">
         <v>39</v>
       </c>
+      <c r="L12" s="33">
+        <f>W12-K12</f>
+        <v>56</v>
+      </c>
+      <c r="M12" s="32">
+        <v>47</v>
+      </c>
+      <c r="N12" s="32"/>
       <c r="R12" s="32">
         <v>103</v>
       </c>
@@ -3003,41 +3155,40 @@
       <c r="V12" s="32">
         <v>83</v>
       </c>
-      <c r="W12" s="62">
-        <f>W11*W20</f>
-        <v>100.23500000000003</v>
+      <c r="W12" s="32">
+        <v>95</v>
       </c>
       <c r="X12" s="39">
         <f>X11*X20</f>
-        <v>105.66925000000002</v>
+        <v>111.08000000000003</v>
       </c>
       <c r="Y12" s="39">
-        <f t="shared" ref="Y12:AE12" si="21">Y11*Y20</f>
-        <v>109.86282000000001</v>
+        <f t="shared" ref="Y12:AE12" si="26">Y11*Y20</f>
+        <v>115.45320000000001</v>
       </c>
       <c r="Z12" s="39">
-        <f t="shared" si="21"/>
-        <v>113.50612460000002</v>
+        <f t="shared" si="26"/>
+        <v>119.21729600000002</v>
       </c>
       <c r="AA12" s="39">
-        <f t="shared" si="21"/>
-        <v>115.82726309200004</v>
+        <f t="shared" si="26"/>
+        <v>121.59304192000003</v>
       </c>
       <c r="AB12" s="39">
-        <f t="shared" si="21"/>
-        <v>118.37902755384003</v>
+        <f t="shared" si="26"/>
+        <v>124.18858275840003</v>
       </c>
       <c r="AC12" s="39">
-        <f t="shared" si="21"/>
-        <v>120.86887114491682</v>
+        <f t="shared" si="26"/>
+        <v>126.93877041356802</v>
       </c>
       <c r="AD12" s="39">
-        <f t="shared" si="21"/>
-        <v>123.38956421581516</v>
+        <f t="shared" si="26"/>
+        <v>129.56524502183939</v>
       </c>
       <c r="AE12" s="39">
-        <f t="shared" si="21"/>
-        <v>126.01505427773147</v>
+        <f t="shared" si="26"/>
+        <v>132.3037889622762</v>
       </c>
     </row>
     <row r="13" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3045,383 +3196,398 @@
         <v>48</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" ref="C13:K13" si="22">C11-C12</f>
+        <f t="shared" ref="C13:L13" si="27">C11-C12</f>
         <v>154</v>
       </c>
       <c r="D13" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>112</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>224</v>
       </c>
       <c r="F13" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>86</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>146</v>
       </c>
       <c r="H13" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>139</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>152</v>
       </c>
       <c r="J13" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>102</v>
       </c>
       <c r="K13" s="35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
-      <c r="L13" s="30"/>
+      <c r="L13" s="36">
+        <f t="shared" si="27"/>
+        <v>229</v>
+      </c>
+      <c r="M13" s="35">
+        <f t="shared" ref="M13" si="28">M11-M12</f>
+        <v>156</v>
+      </c>
+      <c r="N13" s="35"/>
       <c r="R13" s="35">
-        <f t="shared" ref="R13:X13" si="23">R11-R12</f>
+        <f t="shared" ref="R13:X13" si="29">R11-R12</f>
         <v>295</v>
       </c>
       <c r="S13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>266</v>
       </c>
       <c r="T13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>310</v>
       </c>
       <c r="U13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>285</v>
       </c>
       <c r="V13" s="35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>254</v>
       </c>
-      <c r="W13" s="60">
-        <f t="shared" si="23"/>
-        <v>300.7050000000001</v>
-      </c>
-      <c r="X13" s="61">
-        <f t="shared" si="23"/>
-        <v>317.00775000000004</v>
-      </c>
-      <c r="Y13" s="61">
-        <f t="shared" ref="Y13:AE13" si="24">Y11-Y12</f>
-        <v>329.58846000000005</v>
-      </c>
-      <c r="Z13" s="61">
-        <f t="shared" si="24"/>
-        <v>340.51837380000006</v>
-      </c>
-      <c r="AA13" s="61">
-        <f t="shared" si="24"/>
-        <v>347.48178927600009</v>
-      </c>
-      <c r="AB13" s="61">
-        <f t="shared" si="24"/>
-        <v>355.13708266152008</v>
-      </c>
-      <c r="AC13" s="61">
-        <f t="shared" si="24"/>
-        <v>362.60661343475044</v>
-      </c>
-      <c r="AD13" s="61">
-        <f t="shared" si="24"/>
-        <v>370.16869264744548</v>
-      </c>
-      <c r="AE13" s="61">
-        <f t="shared" si="24"/>
-        <v>378.04516283319441</v>
+      <c r="W13" s="35">
+        <f t="shared" ref="W13" si="30">W11-W12</f>
+        <v>329</v>
+      </c>
+      <c r="X13" s="55">
+        <f t="shared" si="29"/>
+        <v>333.24000000000007</v>
+      </c>
+      <c r="Y13" s="55">
+        <f t="shared" ref="Y13:AE13" si="31">Y11-Y12</f>
+        <v>346.3596</v>
+      </c>
+      <c r="Z13" s="55">
+        <f t="shared" si="31"/>
+        <v>357.65188800000004</v>
+      </c>
+      <c r="AA13" s="55">
+        <f t="shared" si="31"/>
+        <v>364.77912576000011</v>
+      </c>
+      <c r="AB13" s="55">
+        <f t="shared" si="31"/>
+        <v>372.56574827520012</v>
+      </c>
+      <c r="AC13" s="55">
+        <f t="shared" si="31"/>
+        <v>380.81631124070407</v>
+      </c>
+      <c r="AD13" s="55">
+        <f t="shared" si="31"/>
+        <v>388.69573506551819</v>
+      </c>
+      <c r="AE13" s="55">
+        <f t="shared" si="31"/>
+        <v>396.9113668868286</v>
       </c>
       <c r="AF13" s="35">
         <f>AE13*(1+$AH$17)</f>
-        <v>381.82561446152636</v>
+        <v>400.88048055569692</v>
       </c>
       <c r="AG13" s="35">
-        <f t="shared" ref="AG13:BZ13" si="25">AF13*(1+$AH$17)</f>
-        <v>385.6438706061416</v>
+        <f t="shared" ref="AG13:BZ13" si="32">AF13*(1+$AH$17)</f>
+        <v>404.88928536125388</v>
       </c>
       <c r="AH13" s="35">
-        <f t="shared" si="25"/>
-        <v>389.500309312203</v>
+        <f t="shared" si="32"/>
+        <v>408.93817821486641</v>
       </c>
       <c r="AI13" s="35">
-        <f t="shared" si="25"/>
-        <v>393.39531240532506</v>
+        <f t="shared" si="32"/>
+        <v>413.02755999701509</v>
       </c>
       <c r="AJ13" s="35">
-        <f t="shared" si="25"/>
-        <v>397.32926552937829</v>
+        <f t="shared" si="32"/>
+        <v>417.15783559698525</v>
       </c>
       <c r="AK13" s="35">
-        <f t="shared" si="25"/>
-        <v>401.30255818467208</v>
+        <f t="shared" si="32"/>
+        <v>421.32941395295512</v>
       </c>
       <c r="AL13" s="35">
-        <f t="shared" si="25"/>
-        <v>405.31558376651878</v>
+        <f t="shared" si="32"/>
+        <v>425.5427080924847</v>
       </c>
       <c r="AM13" s="35">
-        <f t="shared" si="25"/>
-        <v>409.36873960418399</v>
+        <f t="shared" si="32"/>
+        <v>429.79813517340955</v>
       </c>
       <c r="AN13" s="35">
-        <f t="shared" si="25"/>
-        <v>413.46242700022583</v>
+        <f t="shared" si="32"/>
+        <v>434.09611652514366</v>
       </c>
       <c r="AO13" s="35">
-        <f t="shared" si="25"/>
-        <v>417.59705127022806</v>
+        <f t="shared" si="32"/>
+        <v>438.43707769039509</v>
       </c>
       <c r="AP13" s="35">
-        <f t="shared" si="25"/>
-        <v>421.77302178293036</v>
+        <f t="shared" si="32"/>
+        <v>442.82144846729904</v>
       </c>
       <c r="AQ13" s="35">
-        <f t="shared" si="25"/>
-        <v>425.99075200075964</v>
+        <f t="shared" si="32"/>
+        <v>447.24966295197203</v>
       </c>
       <c r="AR13" s="35">
-        <f t="shared" si="25"/>
-        <v>430.25065952076721</v>
+        <f t="shared" si="32"/>
+        <v>451.72215958149172</v>
       </c>
       <c r="AS13" s="35">
-        <f t="shared" si="25"/>
-        <v>434.55316611597488</v>
+        <f t="shared" si="32"/>
+        <v>456.23938117730665</v>
       </c>
       <c r="AT13" s="35">
-        <f t="shared" si="25"/>
-        <v>438.8986977771346</v>
+        <f t="shared" si="32"/>
+        <v>460.80177498907972</v>
       </c>
       <c r="AU13" s="35">
-        <f t="shared" si="25"/>
-        <v>443.28768475490597</v>
+        <f t="shared" si="32"/>
+        <v>465.40979273897051</v>
       </c>
       <c r="AV13" s="35">
-        <f t="shared" si="25"/>
-        <v>447.72056160245501</v>
+        <f t="shared" si="32"/>
+        <v>470.06389066636024</v>
       </c>
       <c r="AW13" s="35">
-        <f t="shared" si="25"/>
-        <v>452.19776721847956</v>
+        <f t="shared" si="32"/>
+        <v>474.76452957302382</v>
       </c>
       <c r="AX13" s="35">
-        <f t="shared" si="25"/>
-        <v>456.71974489066434</v>
+        <f t="shared" si="32"/>
+        <v>479.51217486875407</v>
       </c>
       <c r="AY13" s="35">
-        <f t="shared" si="25"/>
-        <v>461.286942339571</v>
+        <f t="shared" si="32"/>
+        <v>484.30729661744164</v>
       </c>
       <c r="AZ13" s="35">
-        <f t="shared" si="25"/>
-        <v>465.89981176296669</v>
+        <f t="shared" si="32"/>
+        <v>489.15036958361605</v>
       </c>
       <c r="BA13" s="35">
-        <f t="shared" si="25"/>
-        <v>470.55880988059636</v>
+        <f t="shared" si="32"/>
+        <v>494.0418732794522</v>
       </c>
       <c r="BB13" s="35">
-        <f t="shared" si="25"/>
-        <v>475.2643979794023</v>
+        <f t="shared" si="32"/>
+        <v>498.98229201224672</v>
       </c>
       <c r="BC13" s="35">
-        <f t="shared" si="25"/>
-        <v>480.01704195919632</v>
+        <f t="shared" si="32"/>
+        <v>503.97211493236921</v>
       </c>
       <c r="BD13" s="35">
-        <f t="shared" si="25"/>
-        <v>484.81721237878827</v>
+        <f t="shared" si="32"/>
+        <v>509.01183608169288</v>
       </c>
       <c r="BE13" s="35">
-        <f t="shared" si="25"/>
-        <v>489.66538450257616</v>
+        <f t="shared" si="32"/>
+        <v>514.10195444250985</v>
       </c>
       <c r="BF13" s="35">
-        <f t="shared" si="25"/>
-        <v>494.56203834760191</v>
+        <f t="shared" si="32"/>
+        <v>519.242973986935</v>
       </c>
       <c r="BG13" s="35">
-        <f t="shared" si="25"/>
-        <v>499.50765873107792</v>
+        <f t="shared" si="32"/>
+        <v>524.43540372680434</v>
       </c>
       <c r="BH13" s="35">
-        <f t="shared" si="25"/>
-        <v>504.50273531838872</v>
+        <f t="shared" si="32"/>
+        <v>529.67975776407241</v>
       </c>
       <c r="BI13" s="35">
-        <f t="shared" si="25"/>
-        <v>509.54776267157263</v>
+        <f t="shared" si="32"/>
+        <v>534.97655534171315</v>
       </c>
       <c r="BJ13" s="35">
-        <f t="shared" si="25"/>
-        <v>514.64324029828833</v>
+        <f t="shared" si="32"/>
+        <v>540.32632089513027</v>
       </c>
       <c r="BK13" s="35">
-        <f t="shared" si="25"/>
-        <v>519.78967270127123</v>
+        <f t="shared" si="32"/>
+        <v>545.7295841040816</v>
       </c>
       <c r="BL13" s="35">
-        <f t="shared" si="25"/>
-        <v>524.9875694282839</v>
+        <f t="shared" si="32"/>
+        <v>551.18687994512243</v>
       </c>
       <c r="BM13" s="35">
-        <f t="shared" si="25"/>
-        <v>530.23744512256678</v>
+        <f t="shared" si="32"/>
+        <v>556.69874874457366</v>
       </c>
       <c r="BN13" s="35">
-        <f t="shared" si="25"/>
-        <v>535.53981957379244</v>
+        <f t="shared" si="32"/>
+        <v>562.26573623201944</v>
       </c>
       <c r="BO13" s="35">
-        <f t="shared" si="25"/>
-        <v>540.8952177695304</v>
+        <f t="shared" si="32"/>
+        <v>567.88839359433962</v>
       </c>
       <c r="BP13" s="35">
-        <f t="shared" si="25"/>
-        <v>546.30416994722566</v>
+        <f t="shared" si="32"/>
+        <v>573.56727753028304</v>
       </c>
       <c r="BQ13" s="35">
-        <f t="shared" si="25"/>
-        <v>551.76721164669789</v>
+        <f t="shared" si="32"/>
+        <v>579.30295030558591</v>
       </c>
       <c r="BR13" s="35">
-        <f t="shared" si="25"/>
-        <v>557.28488376316488</v>
+        <f t="shared" si="32"/>
+        <v>585.0959798086418</v>
       </c>
       <c r="BS13" s="35">
-        <f t="shared" si="25"/>
-        <v>562.85773260079657</v>
+        <f t="shared" si="32"/>
+        <v>590.94693960672828</v>
       </c>
       <c r="BT13" s="35">
-        <f t="shared" si="25"/>
-        <v>568.48630992680455</v>
+        <f t="shared" si="32"/>
+        <v>596.85640900279554</v>
       </c>
       <c r="BU13" s="35">
-        <f t="shared" si="25"/>
-        <v>574.17117302607255</v>
+        <f t="shared" si="32"/>
+        <v>602.82497309282348</v>
       </c>
       <c r="BV13" s="35">
-        <f t="shared" si="25"/>
-        <v>579.91288475633326</v>
+        <f t="shared" si="32"/>
+        <v>608.85322282375171</v>
       </c>
       <c r="BW13" s="35">
-        <f t="shared" si="25"/>
-        <v>585.71201360389659</v>
+        <f t="shared" si="32"/>
+        <v>614.94175505198928</v>
       </c>
       <c r="BX13" s="35">
-        <f t="shared" si="25"/>
-        <v>591.56913373993552</v>
+        <f t="shared" si="32"/>
+        <v>621.09117260250912</v>
       </c>
       <c r="BY13" s="35">
-        <f t="shared" si="25"/>
-        <v>597.4848250773349</v>
+        <f t="shared" si="32"/>
+        <v>627.30208432853419</v>
       </c>
       <c r="BZ13" s="35">
-        <f t="shared" si="25"/>
-        <v>603.45967332810824</v>
-      </c>
-    </row>
-    <row r="14" spans="2:78" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="55" t="s">
+        <f t="shared" si="32"/>
+        <v>633.57510517181959</v>
+      </c>
+    </row>
+    <row r="14" spans="2:78" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="55">
-        <f t="shared" ref="C14:K14" si="26">C13/C15</f>
+      <c r="C14" s="51">
+        <f t="shared" ref="C14:L14" si="33">C13/C15</f>
         <v>0.14180478821362799</v>
       </c>
-      <c r="D14" s="56">
-        <f t="shared" si="26"/>
+      <c r="D14" s="52">
+        <f t="shared" si="33"/>
         <v>0.10313075506445672</v>
       </c>
-      <c r="E14" s="55">
-        <f t="shared" si="26"/>
+      <c r="E14" s="51">
+        <f t="shared" si="33"/>
         <v>0.20550458715596331</v>
       </c>
-      <c r="F14" s="56">
-        <f t="shared" si="26"/>
+      <c r="F14" s="52">
+        <f t="shared" si="33"/>
         <v>7.8826764436296978E-2</v>
       </c>
-      <c r="G14" s="55">
-        <f t="shared" si="26"/>
+      <c r="G14" s="51">
+        <f t="shared" si="33"/>
         <v>0.13345521023765997</v>
       </c>
-      <c r="H14" s="56">
-        <f t="shared" si="26"/>
+      <c r="H14" s="52">
+        <f t="shared" si="33"/>
         <v>0.12870370370370371</v>
       </c>
-      <c r="I14" s="55">
-        <f t="shared" si="26"/>
+      <c r="I14" s="51">
+        <f t="shared" si="33"/>
         <v>0.14858260019550343</v>
       </c>
-      <c r="J14" s="56">
-        <f t="shared" si="26"/>
+      <c r="J14" s="52">
+        <f t="shared" si="33"/>
         <v>0.1</v>
       </c>
-      <c r="K14" s="55">
-        <f t="shared" si="26"/>
+      <c r="K14" s="51">
+        <f t="shared" si="33"/>
         <v>9.8231827111984277E-2</v>
       </c>
-      <c r="L14" s="56"/>
-      <c r="R14" s="55">
-        <f t="shared" ref="R14:S14" si="27">R13/R15</f>
+      <c r="L14" s="52">
+        <f t="shared" si="33"/>
+        <v>0.22450980392156863</v>
+      </c>
+      <c r="M14" s="51">
+        <f t="shared" ref="M14" si="34">M13/M15</f>
+        <v>0.15354330708661418</v>
+      </c>
+      <c r="R14" s="51">
+        <f t="shared" ref="R14:S14" si="35">R13/R15</f>
         <v>0.2723915050784857</v>
       </c>
-      <c r="S14" s="55">
-        <f t="shared" si="27"/>
+      <c r="S14" s="51">
+        <f t="shared" si="35"/>
         <v>0.24493554327808473</v>
       </c>
-      <c r="T14" s="55">
+      <c r="T14" s="51">
         <f>T13/T15</f>
         <v>0.28414298808432631</v>
       </c>
-      <c r="U14" s="55">
+      <c r="U14" s="51">
         <f>U13/U15</f>
         <v>0.2638888888888889</v>
       </c>
-      <c r="V14" s="55">
+      <c r="V14" s="51">
         <f>V13/V15</f>
         <v>0.24901960784313726</v>
       </c>
-      <c r="W14" s="64">
-        <f>W13/W15</f>
-        <v>0.29480882352941185</v>
-      </c>
-      <c r="X14" s="65">
+      <c r="W14" s="51">
+        <f t="shared" ref="W14" si="36">W13/W15</f>
+        <v>0.32254901960784316</v>
+      </c>
+      <c r="X14" s="56">
         <f>X13/X15</f>
-        <v>0.31079191176470594</v>
-      </c>
-      <c r="Y14" s="65">
-        <f t="shared" ref="Y14:AE14" si="28">Y13/Y15</f>
-        <v>0.32312594117647064</v>
-      </c>
-      <c r="Z14" s="65">
-        <f t="shared" si="28"/>
-        <v>0.33384154294117652</v>
-      </c>
-      <c r="AA14" s="65">
-        <f t="shared" si="28"/>
-        <v>0.3406684208588236</v>
-      </c>
-      <c r="AB14" s="65">
-        <f t="shared" si="28"/>
-        <v>0.34817361045247069</v>
-      </c>
-      <c r="AC14" s="65">
-        <f t="shared" si="28"/>
-        <v>0.3554966798379906</v>
-      </c>
-      <c r="AD14" s="65">
-        <f t="shared" si="28"/>
-        <v>0.36291048298769163</v>
-      </c>
-      <c r="AE14" s="65">
-        <f t="shared" si="28"/>
-        <v>0.37063251258156316</v>
+        <v>0.32670588235294123</v>
+      </c>
+      <c r="Y14" s="56">
+        <f t="shared" ref="Y14:AE14" si="37">Y13/Y15</f>
+        <v>0.33956823529411767</v>
+      </c>
+      <c r="Z14" s="56">
+        <f t="shared" si="37"/>
+        <v>0.35063910588235297</v>
+      </c>
+      <c r="AA14" s="56">
+        <f t="shared" si="37"/>
+        <v>0.35762659388235307</v>
+      </c>
+      <c r="AB14" s="56">
+        <f t="shared" si="37"/>
+        <v>0.365260537524706</v>
+      </c>
+      <c r="AC14" s="56">
+        <f t="shared" si="37"/>
+        <v>0.3733493247457883</v>
+      </c>
+      <c r="AD14" s="56">
+        <f t="shared" si="37"/>
+        <v>0.38107425006423351</v>
+      </c>
+      <c r="AE14" s="56">
+        <f t="shared" si="37"/>
+        <v>0.38912879106551823</v>
       </c>
     </row>
     <row r="15" spans="2:78" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -3459,7 +3625,13 @@
       <c r="K15" s="32">
         <v>1018</v>
       </c>
-      <c r="L15" s="33"/>
+      <c r="L15" s="33">
+        <f>W15</f>
+        <v>1020</v>
+      </c>
+      <c r="M15" s="32">
+        <v>1016</v>
+      </c>
       <c r="R15" s="32">
         <v>1083</v>
       </c>
@@ -3475,8 +3647,7 @@
       <c r="V15" s="32">
         <v>1020</v>
       </c>
-      <c r="W15" s="62">
-        <f>V15</f>
+      <c r="W15" s="32">
         <v>1020</v>
       </c>
       <c r="X15" s="39">
@@ -3484,31 +3655,31 @@
         <v>1020</v>
       </c>
       <c r="Y15" s="39">
-        <f t="shared" ref="Y15:AE15" si="29">X15</f>
+        <f t="shared" ref="Y15:AE15" si="38">X15</f>
         <v>1020</v>
       </c>
       <c r="Z15" s="39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>1020</v>
       </c>
       <c r="AA15" s="39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>1020</v>
       </c>
       <c r="AB15" s="39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>1020</v>
       </c>
       <c r="AC15" s="39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>1020</v>
       </c>
       <c r="AD15" s="39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>1020</v>
       </c>
       <c r="AE15" s="39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>1020</v>
       </c>
     </row>
@@ -3517,47 +3688,55 @@
         <v>52</v>
       </c>
       <c r="C17" s="31">
-        <f t="shared" ref="C17:I17" si="30">C6/C4</f>
+        <f t="shared" ref="C17:I17" si="39">C6/C4</f>
         <v>0.92685475444096133</v>
       </c>
       <c r="D17" s="42">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>0.93054136874361593</v>
       </c>
       <c r="E17" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>0.9343589743589743</v>
       </c>
       <c r="F17" s="42">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>0.93318965517241381</v>
       </c>
       <c r="G17" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>0.9231590181430096</v>
       </c>
       <c r="H17" s="42">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>0.93509350935093505</v>
       </c>
       <c r="I17" s="31">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>0.9271948608137045</v>
       </c>
       <c r="J17" s="42">
-        <f t="shared" ref="J17:K17" si="31">J6/J4</f>
+        <f t="shared" ref="J17:K17" si="40">J6/J4</f>
         <v>0.93089832181638699</v>
       </c>
       <c r="K17" s="31">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>0.93008279668813243</v>
       </c>
+      <c r="L17" s="42">
+        <f t="shared" ref="L17" si="41">L6/L4</f>
+        <v>0.92707383773928898</v>
+      </c>
+      <c r="M17" s="31">
+        <f t="shared" ref="M17" si="42">M6/M4</f>
+        <v>0.92881944444444442</v>
+      </c>
       <c r="R17" s="31">
-        <f t="shared" ref="R17:S17" si="32">R6/R4</f>
+        <f t="shared" ref="R17:S17" si="43">R6/R4</f>
         <v>0.92957746478873238</v>
       </c>
       <c r="S17" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="43"/>
         <v>0.92871900826446285</v>
       </c>
       <c r="T17" s="31">
@@ -3569,40 +3748,41 @@
         <v>0.92903575297941499</v>
       </c>
       <c r="V17" s="31">
-        <f t="shared" ref="V17" si="33">V6/V4</f>
+        <f t="shared" ref="V17:W17" si="44">V6/V4</f>
         <v>0.92912172573189522</v>
       </c>
-      <c r="W17" s="66">
+      <c r="W17" s="31">
+        <f t="shared" si="44"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="X17" s="57">
         <v>0.93</v>
       </c>
-      <c r="X17" s="67">
+      <c r="Y17" s="57">
         <v>0.93</v>
       </c>
-      <c r="Y17" s="67">
+      <c r="Z17" s="57">
         <v>0.93</v>
       </c>
-      <c r="Z17" s="67">
+      <c r="AA17" s="57">
         <v>0.93</v>
       </c>
-      <c r="AA17" s="67">
+      <c r="AB17" s="57">
         <v>0.93</v>
       </c>
-      <c r="AB17" s="67">
+      <c r="AC17" s="57">
         <v>0.93</v>
       </c>
-      <c r="AC17" s="67">
+      <c r="AD17" s="57">
         <v>0.93</v>
       </c>
-      <c r="AD17" s="67">
+      <c r="AE17" s="57">
         <v>0.93</v>
       </c>
-      <c r="AE17" s="67">
-        <v>0.93</v>
-      </c>
-      <c r="AG17" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH17" s="73">
+      <c r="AG17" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH17" s="61">
         <v>0.01</v>
       </c>
     </row>
@@ -3611,47 +3791,55 @@
         <v>53</v>
       </c>
       <c r="C18" s="31">
-        <f t="shared" ref="C18:I18" si="34">C8/C4</f>
+        <f t="shared" ref="C18:I18" si="45">C8/C4</f>
         <v>0.21943573667711599</v>
       </c>
       <c r="D18" s="42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>0.17568947906026558</v>
       </c>
       <c r="E18" s="31">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>0.29641025641025642</v>
       </c>
       <c r="F18" s="42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>0.12392241379310345</v>
       </c>
       <c r="G18" s="31">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>0.21664887940234792</v>
       </c>
       <c r="H18" s="42">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>0.18701870187018702</v>
       </c>
       <c r="I18" s="31">
-        <f t="shared" si="34"/>
+        <f t="shared" si="45"/>
         <v>0.21841541755888652</v>
       </c>
       <c r="J18" s="42">
-        <f t="shared" ref="J18:K18" si="35">J8/J4</f>
+        <f t="shared" ref="J18:K18" si="46">J8/J4</f>
         <v>0.16090819348469892</v>
       </c>
       <c r="K18" s="31">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>0.14443422263109476</v>
       </c>
+      <c r="L18" s="42">
+        <f t="shared" ref="L18" si="47">L8/L4</f>
+        <v>0.27256153144940748</v>
+      </c>
+      <c r="M18" s="31">
+        <f t="shared" ref="M18" si="48">M8/M4</f>
+        <v>0.18663194444444445</v>
+      </c>
       <c r="R18" s="31">
-        <f t="shared" ref="R18:S18" si="36">R8/R4</f>
+        <f t="shared" ref="R18:S18" si="49">R8/R4</f>
         <v>0.2313109425785482</v>
       </c>
       <c r="S18" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="49"/>
         <v>0.19731404958677687</v>
       </c>
       <c r="T18" s="31">
@@ -3663,40 +3851,41 @@
         <v>0.20205850487540628</v>
       </c>
       <c r="V18" s="31">
-        <f t="shared" ref="V18" si="37">V8/V4</f>
+        <f t="shared" ref="V18:W18" si="50">V8/V4</f>
         <v>0.18849512069851052</v>
       </c>
-      <c r="W18" s="66">
+      <c r="W18" s="31">
+        <f t="shared" si="50"/>
+        <v>0.2087912087912088</v>
+      </c>
+      <c r="X18" s="57">
         <v>0.2</v>
       </c>
-      <c r="X18" s="67">
+      <c r="Y18" s="57">
         <v>0.2</v>
       </c>
-      <c r="Y18" s="67">
+      <c r="Z18" s="57">
         <v>0.2</v>
       </c>
-      <c r="Z18" s="67">
+      <c r="AA18" s="57">
         <v>0.2</v>
       </c>
-      <c r="AA18" s="67">
+      <c r="AB18" s="57">
         <v>0.2</v>
       </c>
-      <c r="AB18" s="67">
+      <c r="AC18" s="57">
         <v>0.2</v>
       </c>
-      <c r="AC18" s="67">
+      <c r="AD18" s="57">
         <v>0.2</v>
       </c>
-      <c r="AD18" s="67">
+      <c r="AE18" s="57">
         <v>0.2</v>
       </c>
-      <c r="AE18" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="AG18" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH18" s="75">
+      <c r="AG18" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH18" s="63">
         <v>0.05</v>
       </c>
     </row>
@@ -3705,47 +3894,55 @@
         <v>54</v>
       </c>
       <c r="C19" s="31">
-        <f t="shared" ref="C19:I19" si="38">C13/C4</f>
+        <f t="shared" ref="C19:I19" si="51">C13/C4</f>
         <v>0.16091954022988506</v>
       </c>
       <c r="D19" s="42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0.11440245148110317</v>
       </c>
       <c r="E19" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0.22974358974358974</v>
       </c>
       <c r="F19" s="42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>9.2672413793103453E-2</v>
       </c>
       <c r="G19" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0.15581643543223053</v>
       </c>
       <c r="H19" s="42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0.15291529152915292</v>
       </c>
       <c r="I19" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0.16274089935760172</v>
       </c>
       <c r="J19" s="42">
-        <f t="shared" ref="J19:K19" si="39">J13/J4</f>
+        <f t="shared" ref="J19:K19" si="52">J13/J4</f>
         <v>0.10069101678183613</v>
       </c>
       <c r="K19" s="31">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>9.1996320147194111E-2</v>
       </c>
+      <c r="L19" s="42">
+        <f t="shared" ref="L19" si="53">L13/L4</f>
+        <v>0.20875113947128532</v>
+      </c>
+      <c r="M19" s="31">
+        <f t="shared" ref="M19" si="54">M13/M4</f>
+        <v>0.13541666666666666</v>
+      </c>
       <c r="R19" s="31">
-        <f t="shared" ref="R19:S19" si="40">R13/R4</f>
+        <f t="shared" ref="R19:S19" si="55">R13/R4</f>
         <v>0.15980498374864571</v>
       </c>
       <c r="S19" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="55"/>
         <v>0.13739669421487602</v>
       </c>
       <c r="T19" s="31">
@@ -3757,15 +3954,19 @@
         <v>0.1543878656554713</v>
       </c>
       <c r="V19" s="31">
-        <f t="shared" ref="V19" si="41">V13/V4</f>
+        <f t="shared" ref="V19:W19" si="56">V13/V4</f>
         <v>0.13045711350796096</v>
       </c>
-      <c r="AG19" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH19" s="80">
+      <c r="W19" s="31">
+        <f t="shared" si="56"/>
+        <v>0.15064102564102563</v>
+      </c>
+      <c r="AG19" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH19" s="68">
         <f>NPV(AH18,W13:BZ13)</f>
-        <v>7589.6488817349109</v>
+        <v>7981.6949888519939</v>
       </c>
     </row>
     <row r="20" spans="2:34" x14ac:dyDescent="0.2">
@@ -3773,153 +3974,169 @@
         <v>100</v>
       </c>
       <c r="C20" s="31">
-        <f t="shared" ref="C20:I20" si="42">C12/C11</f>
+        <f t="shared" ref="C20:I20" si="57">C12/C11</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D20" s="42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>0.31288343558282211</v>
       </c>
       <c r="E20" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>0.18545454545454546</v>
       </c>
       <c r="F20" s="42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>0.12244897959183673</v>
       </c>
       <c r="G20" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>0.23157894736842105</v>
       </c>
       <c r="H20" s="42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>0.11464968152866242</v>
       </c>
       <c r="I20" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="57"/>
         <v>0.19576719576719576</v>
       </c>
       <c r="J20" s="42">
-        <f t="shared" ref="J20:K20" si="43">J12/J11</f>
+        <f t="shared" ref="J20:K20" si="58">J12/J11</f>
         <v>0.3108108108108108</v>
       </c>
       <c r="K20" s="31">
-        <f t="shared" si="43"/>
+        <f t="shared" si="58"/>
         <v>0.2805755395683453</v>
       </c>
+      <c r="L20" s="42">
+        <f t="shared" ref="L20" si="59">L12/L11</f>
+        <v>0.19649122807017544</v>
+      </c>
+      <c r="M20" s="31">
+        <f t="shared" ref="M20" si="60">M12/M11</f>
+        <v>0.23152709359605911</v>
+      </c>
       <c r="R20" s="31">
-        <f t="shared" ref="R20:U20" si="44">R12/R11</f>
+        <f t="shared" ref="R20:U20" si="61">R12/R11</f>
         <v>0.25879396984924624</v>
       </c>
       <c r="S20" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="61"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="T20" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="61"/>
         <v>0.16890080428954424</v>
       </c>
       <c r="U20" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="61"/>
         <v>0.17867435158501441</v>
       </c>
       <c r="V20" s="31">
-        <f t="shared" ref="V20" si="45">V12/V11</f>
+        <f t="shared" ref="V20:W20" si="62">V12/V11</f>
         <v>0.24629080118694363</v>
       </c>
-      <c r="W20" s="66">
+      <c r="W20" s="31">
+        <f t="shared" si="62"/>
+        <v>0.22405660377358491</v>
+      </c>
+      <c r="X20" s="57">
         <v>0.25</v>
       </c>
-      <c r="X20" s="67">
+      <c r="Y20" s="57">
         <v>0.25</v>
       </c>
-      <c r="Y20" s="67">
+      <c r="Z20" s="57">
         <v>0.25</v>
       </c>
-      <c r="Z20" s="67">
+      <c r="AA20" s="57">
         <v>0.25</v>
       </c>
-      <c r="AA20" s="67">
+      <c r="AB20" s="57">
         <v>0.25</v>
       </c>
-      <c r="AB20" s="67">
+      <c r="AC20" s="57">
         <v>0.25</v>
       </c>
-      <c r="AC20" s="67">
+      <c r="AD20" s="57">
         <v>0.25</v>
       </c>
-      <c r="AD20" s="67">
+      <c r="AE20" s="57">
         <v>0.25</v>
       </c>
-      <c r="AE20" s="67">
-        <v>0.25</v>
-      </c>
-      <c r="AG20" s="74" t="s">
+      <c r="AG20" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="AH20" s="80">
+      <c r="AH20" s="68">
         <f>Main!C11</f>
-        <v>-685</v>
+        <v>-792</v>
       </c>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AG21" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH21" s="80">
+      <c r="AG21" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH21" s="68">
         <f>AH19-AH20</f>
-        <v>8274.6488817349109</v>
+        <v>8773.6949888519939</v>
       </c>
     </row>
     <row r="22" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="49" t="s">
+      <c r="C22" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="49" t="s">
         <v>92</v>
       </c>
       <c r="E22" s="41">
-        <f t="shared" ref="E22:K22" si="46">E4/C4-1</f>
+        <f t="shared" ref="E22:M22" si="63">E4/C4-1</f>
         <v>1.8808777429467183E-2</v>
       </c>
-      <c r="F22" s="51">
-        <f t="shared" si="46"/>
+      <c r="F22" s="50">
+        <f t="shared" si="63"/>
         <v>-5.2093973442288055E-2</v>
       </c>
       <c r="G22" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="63"/>
         <v>-3.8974358974358969E-2</v>
       </c>
-      <c r="H22" s="51">
-        <f t="shared" si="46"/>
+      <c r="H22" s="50">
+        <f t="shared" si="63"/>
         <v>-2.0474137931034475E-2</v>
       </c>
       <c r="I22" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="63"/>
         <v>-3.2017075773745907E-3</v>
       </c>
-      <c r="J22" s="51">
-        <f t="shared" si="46"/>
+      <c r="J22" s="50">
+        <f t="shared" si="63"/>
         <v>0.11441144114411439</v>
       </c>
       <c r="K22" s="41">
-        <f t="shared" si="46"/>
+        <f t="shared" si="63"/>
         <v>0.16381156316916479</v>
       </c>
-      <c r="L22" s="30"/>
+      <c r="L22" s="50">
+        <f t="shared" si="63"/>
+        <v>8.2922013820335705E-2</v>
+      </c>
+      <c r="M22" s="41">
+        <f t="shared" si="63"/>
+        <v>5.9797608095676136E-2</v>
+      </c>
       <c r="R22" s="19" t="s">
         <v>92</v>
       </c>
       <c r="S22" s="41">
-        <f t="shared" ref="S22:T22" si="47">S4/R4-1</f>
+        <f t="shared" ref="S22:T22" si="64">S4/R4-1</f>
         <v>4.8754062838569867E-2</v>
       </c>
       <c r="T22" s="41">
-        <f t="shared" si="47"/>
+        <f t="shared" si="64"/>
         <v>-1.7045454545454586E-2</v>
       </c>
       <c r="U22" s="41">
@@ -3927,42 +4144,43 @@
         <v>-2.9952706253284278E-2</v>
       </c>
       <c r="V22" s="41">
-        <f t="shared" ref="V22" si="48">V4/U4-1</f>
+        <f t="shared" ref="V22:W22" si="65">V4/U4-1</f>
         <v>5.4712892741061836E-2</v>
       </c>
-      <c r="W22" s="68">
-        <v>0.1</v>
-      </c>
-      <c r="X22" s="69">
+      <c r="W22" s="41">
+        <f t="shared" si="65"/>
+        <v>0.1217257318952234</v>
+      </c>
+      <c r="X22" s="58">
         <v>0.05</v>
       </c>
-      <c r="Y22" s="69">
+      <c r="Y22" s="58">
         <v>0.04</v>
       </c>
-      <c r="Z22" s="69">
+      <c r="Z22" s="58">
         <v>0.03</v>
       </c>
-      <c r="AA22" s="69">
+      <c r="AA22" s="58">
         <v>0.02</v>
       </c>
-      <c r="AB22" s="69">
+      <c r="AB22" s="58">
         <v>0.02</v>
       </c>
-      <c r="AC22" s="69">
+      <c r="AC22" s="58">
         <v>0.02</v>
       </c>
-      <c r="AD22" s="69">
+      <c r="AD22" s="58">
         <v>0.02</v>
       </c>
-      <c r="AE22" s="69">
+      <c r="AE22" s="58">
         <v>0.02</v>
       </c>
       <c r="AG22" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH22" s="79">
+        <v>111</v>
+      </c>
+      <c r="AH22" s="67">
         <f>AH21/Main!C7</f>
-        <v>8.1283387836295784</v>
+        <v>8.6355265638307035</v>
       </c>
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.2">
@@ -3973,36 +4191,47 @@
         <v>92</v>
       </c>
       <c r="D23" s="42">
-        <f t="shared" ref="D23:K23" si="49">D4/C4-1</f>
+        <f t="shared" ref="D23:M23" si="66">D4/C4-1</f>
         <v>2.2988505747126409E-2</v>
       </c>
       <c r="E23" s="31">
-        <f t="shared" si="49"/>
+        <f t="shared" si="66"/>
         <v>-4.0858018386108474E-3</v>
       </c>
       <c r="F23" s="42">
-        <f t="shared" si="49"/>
+        <f t="shared" si="66"/>
         <v>-4.8205128205128234E-2</v>
       </c>
       <c r="G23" s="31">
-        <f t="shared" si="49"/>
+        <f t="shared" si="66"/>
         <v>9.6982758620689502E-3</v>
       </c>
       <c r="H23" s="42">
-        <f t="shared" si="49"/>
+        <f t="shared" si="66"/>
         <v>-2.9882604055496254E-2</v>
       </c>
       <c r="I23" s="31">
-        <f t="shared" si="49"/>
+        <f t="shared" si="66"/>
         <v>2.7502750275027577E-2</v>
       </c>
       <c r="J23" s="42">
-        <f t="shared" si="49"/>
+        <f t="shared" si="66"/>
         <v>8.4582441113490336E-2</v>
       </c>
       <c r="K23" s="31">
-        <f t="shared" si="49"/>
+        <f t="shared" si="66"/>
         <v>7.3050345508390846E-2</v>
+      </c>
+      <c r="L23" s="42">
+        <f t="shared" si="66"/>
+        <v>9.1996320147194055E-3</v>
+      </c>
+      <c r="M23" s="31">
+        <f t="shared" si="66"/>
+        <v>5.0136736554238892E-2</v>
+      </c>
+      <c r="N23" s="31">
+        <v>0.05</v>
       </c>
       <c r="R23" s="19" t="s">
         <v>92</v>
@@ -4019,12 +4248,15 @@
       <c r="V23" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AG23" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH23" s="76">
+      <c r="W23" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG23" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH23" s="64">
         <f>Main!C6</f>
-        <v>8.6059999999999999</v>
+        <v>9.8859999999999992</v>
       </c>
     </row>
     <row r="24" spans="2:34" x14ac:dyDescent="0.2">
@@ -4041,12 +4273,13 @@
       <c r="T24" s="19"/>
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
-      <c r="AG24" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH24" s="78">
+      <c r="W24" s="19"/>
+      <c r="AG24" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH24" s="66">
         <f>AH22/AH23-1</f>
-        <v>-5.5503278685849589E-2</v>
+        <v>-0.12648932188643491</v>
       </c>
     </row>
     <row r="25" spans="2:34" x14ac:dyDescent="0.2">
@@ -4063,10 +4296,11 @@
       <c r="T25" s="19"/>
       <c r="U25" s="19"/>
       <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
     </row>
     <row r="26" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B26" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="42"/>
@@ -4081,2116 +4315,2852 @@
       <c r="T26" s="19"/>
       <c r="U26" s="19"/>
       <c r="V26" s="19"/>
-    </row>
-    <row r="27" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81">
+      <c r="W26" s="19"/>
+    </row>
+    <row r="27" spans="2:34" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="92"/>
+      <c r="D27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92">
         <v>12755</v>
       </c>
-      <c r="T27" s="81">
+      <c r="T27" s="92">
         <v>12506</v>
       </c>
-      <c r="U27" s="81">
+      <c r="U27" s="92">
         <v>11785</v>
       </c>
-      <c r="V27" s="81">
+      <c r="V27" s="92">
         <v>11228</v>
       </c>
-      <c r="W27" s="62"/>
-      <c r="X27" s="39"/>
-      <c r="Y27" s="39"/>
-      <c r="Z27" s="39"/>
-      <c r="AA27" s="39"/>
-      <c r="AB27" s="39"/>
-      <c r="AC27" s="39"/>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-    </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B31" s="34" t="s">
+      <c r="W27" s="92">
+        <f>SUM(W28:W31)</f>
+        <v>11565</v>
+      </c>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="55"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="55"/>
+      <c r="AE27" s="55"/>
+    </row>
+    <row r="28" spans="2:34" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="V28" s="86">
+        <v>2640</v>
+      </c>
+      <c r="W28" s="86">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="V29" s="86">
+        <v>3686</v>
+      </c>
+      <c r="W29" s="86">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="V30" s="86">
+        <v>3715</v>
+      </c>
+      <c r="W30" s="86">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" s="86" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="V31" s="86">
+        <v>1187</v>
+      </c>
+      <c r="W31" s="86">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" s="88" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="W32" s="91">
+        <f>W27/V27-1</f>
+        <v>3.0014250089062999E-2</v>
+      </c>
+      <c r="X32" s="90"/>
+      <c r="Y32" s="90"/>
+      <c r="Z32" s="90"/>
+      <c r="AA32" s="90"/>
+      <c r="AB32" s="90"/>
+      <c r="AC32" s="90"/>
+      <c r="AD32" s="90"/>
+      <c r="AE32" s="90"/>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B34" s="34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="32">
+      <c r="C35" s="32">
         <f>2002+238</f>
         <v>2240</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D35" s="33">
         <f>2098+228</f>
         <v>2326</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E35" s="32">
         <f>2059+216</f>
         <v>2275</v>
       </c>
-      <c r="F32" s="33">
-        <f>T32</f>
+      <c r="F35" s="33">
+        <f>T35</f>
         <v>2174</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G35" s="32">
         <f>1843+188</f>
         <v>2031</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H35" s="33">
         <f>1877+190</f>
         <v>2067</v>
       </c>
-      <c r="I32" s="32">
+      <c r="I35" s="32">
         <f>2082+281</f>
         <v>2363</v>
       </c>
-      <c r="J32" s="33">
-        <f>V32</f>
+      <c r="J35" s="33">
+        <f>V35</f>
         <v>2710</v>
       </c>
-      <c r="K32" s="32">
+      <c r="K35" s="32">
         <f>2238+288</f>
         <v>2526</v>
       </c>
-      <c r="R32" s="32">
+      <c r="L35" s="33">
+        <f>W35</f>
+        <v>2519</v>
+      </c>
+      <c r="M35" s="32">
+        <f>2190+245</f>
+        <v>2435</v>
+      </c>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32">
         <f>2008+260</f>
         <v>2268</v>
       </c>
-      <c r="S32" s="32">
+      <c r="S35" s="32">
         <f>2098+228</f>
         <v>2326</v>
       </c>
-      <c r="T32" s="32">
+      <c r="T35" s="32">
         <f>1962+212</f>
         <v>2174</v>
       </c>
-      <c r="U32" s="32">
+      <c r="U35" s="32">
         <f>1877+190</f>
         <v>2067</v>
       </c>
-      <c r="V32" s="1">
+      <c r="V35" s="32">
         <f>2416+294</f>
         <v>2710</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="32">
-        <v>131</v>
-      </c>
-      <c r="D33" s="33">
-        <v>117</v>
-      </c>
-      <c r="E33" s="32">
-        <v>198</v>
-      </c>
-      <c r="F33" s="33">
-        <f>T33</f>
-        <v>173</v>
-      </c>
-      <c r="G33" s="32">
-        <v>165</v>
-      </c>
-      <c r="H33" s="33">
-        <v>164</v>
-      </c>
-      <c r="I33" s="32">
-        <v>155</v>
-      </c>
-      <c r="J33" s="23">
-        <f>-V33</f>
-        <v>-152</v>
-      </c>
-      <c r="K33" s="32">
-        <v>124</v>
-      </c>
-      <c r="R33" s="32">
-        <v>129</v>
-      </c>
-      <c r="S33" s="32">
-        <v>117</v>
-      </c>
-      <c r="T33" s="32">
-        <v>173</v>
-      </c>
-      <c r="U33" s="32">
-        <v>164</v>
-      </c>
-      <c r="V33" s="1">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="34" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="35">
-        <v>0</v>
-      </c>
-      <c r="D34" s="36">
-        <v>0</v>
-      </c>
-      <c r="E34" s="35">
-        <v>0</v>
-      </c>
-      <c r="F34" s="36">
-        <f>T34</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="35">
-        <v>19</v>
-      </c>
-      <c r="H34" s="36">
-        <v>21</v>
-      </c>
-      <c r="I34" s="35">
-        <v>4</v>
-      </c>
-      <c r="J34" s="30">
-        <f>V34</f>
-        <v>4</v>
-      </c>
-      <c r="K34" s="35">
-        <v>4</v>
-      </c>
-      <c r="L34" s="30"/>
-      <c r="R34" s="35">
-        <v>0</v>
-      </c>
-      <c r="S34" s="35">
-        <v>0</v>
-      </c>
-      <c r="T34" s="35">
-        <v>0</v>
-      </c>
-      <c r="U34" s="35">
-        <v>21</v>
-      </c>
-      <c r="V34" s="2">
-        <v>4</v>
-      </c>
-      <c r="W34" s="70"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="71"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="71"/>
-      <c r="AC34" s="71"/>
-      <c r="AD34" s="71"/>
-      <c r="AE34" s="71"/>
-    </row>
-    <row r="35" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="35">
-        <v>3</v>
-      </c>
-      <c r="D35" s="36">
-        <v>4</v>
-      </c>
-      <c r="E35" s="35">
-        <v>3</v>
-      </c>
-      <c r="F35" s="36">
-        <f>T35</f>
-        <v>1</v>
-      </c>
-      <c r="G35" s="35">
-        <v>1</v>
-      </c>
-      <c r="H35" s="36">
-        <v>0</v>
-      </c>
-      <c r="I35" s="35">
-        <v>0</v>
-      </c>
-      <c r="J35" s="23">
-        <f t="shared" ref="J35:J42" si="50">-V35</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="35">
-        <v>2</v>
-      </c>
-      <c r="L35" s="30"/>
-      <c r="R35" s="35">
-        <v>1</v>
-      </c>
-      <c r="S35" s="35">
-        <v>4</v>
-      </c>
-      <c r="T35" s="35">
-        <v>1</v>
-      </c>
-      <c r="U35" s="35">
-        <v>0</v>
-      </c>
-      <c r="V35" s="2">
-        <v>0</v>
-      </c>
-      <c r="W35" s="70"/>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="71"/>
-      <c r="Z35" s="71"/>
-      <c r="AA35" s="71"/>
-      <c r="AB35" s="71"/>
-      <c r="AC35" s="71"/>
-      <c r="AD35" s="71"/>
-      <c r="AE35" s="71"/>
+      <c r="W35" s="32">
+        <f>2245+274</f>
+        <v>2519</v>
+      </c>
     </row>
     <row r="36" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C36" s="32">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="D36" s="33">
+        <v>117</v>
+      </c>
+      <c r="E36" s="32">
+        <v>198</v>
+      </c>
+      <c r="F36" s="33">
+        <f>T36</f>
+        <v>173</v>
+      </c>
+      <c r="G36" s="32">
+        <v>165</v>
+      </c>
+      <c r="H36" s="33">
+        <v>164</v>
+      </c>
+      <c r="I36" s="32">
+        <v>155</v>
+      </c>
+      <c r="J36" s="23">
+        <f>-V36</f>
+        <v>-152</v>
+      </c>
+      <c r="K36" s="32">
+        <v>124</v>
+      </c>
+      <c r="L36" s="33">
+        <f>W36</f>
+        <v>104</v>
+      </c>
+      <c r="M36" s="32">
+        <v>101</v>
+      </c>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32">
+        <v>129</v>
+      </c>
+      <c r="S36" s="32">
+        <v>117</v>
+      </c>
+      <c r="T36" s="32">
+        <v>173</v>
+      </c>
+      <c r="U36" s="32">
+        <v>164</v>
+      </c>
+      <c r="V36" s="32">
+        <v>152</v>
+      </c>
+      <c r="W36" s="32">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="35">
+        <v>0</v>
+      </c>
+      <c r="D37" s="36">
+        <v>0</v>
+      </c>
+      <c r="E37" s="35">
+        <v>0</v>
+      </c>
+      <c r="F37" s="36">
+        <f>T37</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="35">
+        <v>19</v>
+      </c>
+      <c r="H37" s="36">
+        <v>21</v>
+      </c>
+      <c r="I37" s="35">
+        <v>4</v>
+      </c>
+      <c r="J37" s="30">
+        <f>V37</f>
+        <v>4</v>
+      </c>
+      <c r="K37" s="35">
+        <v>4</v>
+      </c>
+      <c r="L37" s="36">
+        <f t="shared" ref="L37:L38" si="67">W37</f>
+        <v>4</v>
+      </c>
+      <c r="M37" s="35">
+        <v>6</v>
+      </c>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35">
+        <v>0</v>
+      </c>
+      <c r="S37" s="35">
+        <v>0</v>
+      </c>
+      <c r="T37" s="35">
+        <v>0</v>
+      </c>
+      <c r="U37" s="35">
+        <v>21</v>
+      </c>
+      <c r="V37" s="35">
+        <v>4</v>
+      </c>
+      <c r="W37" s="35">
+        <v>4</v>
+      </c>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59"/>
+    </row>
+    <row r="38" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E36" s="32">
-        <v>83</v>
-      </c>
-      <c r="F36" s="33">
-        <f t="shared" ref="F36:F42" si="51">T36</f>
-        <v>86</v>
-      </c>
-      <c r="G36" s="32">
-        <v>101</v>
-      </c>
-      <c r="H36" s="33">
-        <v>113</v>
-      </c>
-      <c r="I36" s="32">
-        <v>116</v>
-      </c>
-      <c r="J36" s="23">
-        <f t="shared" si="50"/>
-        <v>-128</v>
-      </c>
-      <c r="K36" s="32">
-        <v>125</v>
-      </c>
-      <c r="R36" s="32">
+      <c r="C38" s="35">
+        <v>3</v>
+      </c>
+      <c r="D38" s="36">
+        <v>4</v>
+      </c>
+      <c r="E38" s="35">
+        <v>3</v>
+      </c>
+      <c r="F38" s="36">
+        <f>T38</f>
+        <v>1</v>
+      </c>
+      <c r="G38" s="35">
+        <v>1</v>
+      </c>
+      <c r="H38" s="36">
+        <v>0</v>
+      </c>
+      <c r="I38" s="35">
+        <v>0</v>
+      </c>
+      <c r="J38" s="23">
+        <f t="shared" ref="J38:J45" si="68">-V38</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="35">
         <v>2</v>
       </c>
-      <c r="S36" s="32">
-        <v>73</v>
-      </c>
-      <c r="T36" s="32">
-        <v>86</v>
-      </c>
-      <c r="U36" s="32">
-        <v>113</v>
-      </c>
-      <c r="V36" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="32">
-        <v>57</v>
-      </c>
-      <c r="D37" s="33">
-        <v>31</v>
-      </c>
-      <c r="E37" s="32">
-        <v>26</v>
-      </c>
-      <c r="F37" s="33">
-        <f t="shared" si="51"/>
-        <v>35</v>
-      </c>
-      <c r="G37" s="32">
-        <v>36</v>
-      </c>
-      <c r="H37" s="33">
-        <v>40</v>
-      </c>
-      <c r="I37" s="32">
-        <v>34</v>
-      </c>
-      <c r="J37" s="23">
-        <f t="shared" si="50"/>
-        <v>-19</v>
-      </c>
-      <c r="K37" s="32">
-        <v>35</v>
-      </c>
-      <c r="R37" s="32">
-        <v>51</v>
-      </c>
-      <c r="S37" s="32">
-        <v>31</v>
-      </c>
-      <c r="T37" s="32">
-        <v>35</v>
-      </c>
-      <c r="U37" s="32">
-        <v>40</v>
-      </c>
-      <c r="V37" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" s="32">
-        <f t="shared" ref="C38:K38" si="52">SUM(C32:C37)</f>
-        <v>2471</v>
-      </c>
-      <c r="D38" s="33">
-        <f t="shared" si="52"/>
-        <v>2551</v>
-      </c>
-      <c r="E38" s="32">
-        <f t="shared" si="52"/>
-        <v>2585</v>
-      </c>
-      <c r="F38" s="33">
-        <f t="shared" si="52"/>
-        <v>2469</v>
-      </c>
-      <c r="G38" s="32">
-        <f t="shared" si="52"/>
-        <v>2353</v>
-      </c>
-      <c r="H38" s="33">
-        <f t="shared" si="52"/>
-        <v>2405</v>
-      </c>
-      <c r="I38" s="32">
-        <f t="shared" si="52"/>
-        <v>2672</v>
-      </c>
-      <c r="J38" s="33">
-        <f t="shared" si="52"/>
-        <v>2415</v>
-      </c>
-      <c r="K38" s="32">
-        <f t="shared" si="52"/>
-        <v>2816</v>
-      </c>
-      <c r="R38" s="32">
-        <f>SUM(R32:R37)</f>
-        <v>2451</v>
-      </c>
-      <c r="S38" s="32">
-        <f>SUM(S32:S37)</f>
-        <v>2551</v>
-      </c>
-      <c r="T38" s="32">
-        <f>SUM(T32:T37)</f>
-        <v>2469</v>
-      </c>
-      <c r="U38" s="32">
-        <f>SUM(U32:U37)</f>
-        <v>2405</v>
-      </c>
-      <c r="V38" s="32">
-        <f>SUM(V32:V37)</f>
-        <v>3013</v>
-      </c>
+      <c r="L38" s="36">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="M38" s="35">
+        <v>13</v>
+      </c>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35">
+        <v>1</v>
+      </c>
+      <c r="S38" s="35">
+        <v>4</v>
+      </c>
+      <c r="T38" s="35">
+        <v>1</v>
+      </c>
+      <c r="U38" s="35">
+        <v>0</v>
+      </c>
+      <c r="V38" s="35">
+        <v>0</v>
+      </c>
+      <c r="W38" s="35">
+        <v>1</v>
+      </c>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59"/>
     </row>
     <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C39" s="32">
-        <v>402</v>
+        <v>40</v>
       </c>
       <c r="D39" s="33">
-        <v>364</v>
+        <v>73</v>
       </c>
       <c r="E39" s="32">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="F39" s="33">
-        <f t="shared" si="51"/>
-        <v>302</v>
+        <f t="shared" ref="F39:F45" si="69">T39</f>
+        <v>86</v>
       </c>
       <c r="G39" s="32">
-        <v>290</v>
+        <v>101</v>
       </c>
       <c r="H39" s="33">
-        <v>295</v>
-      </c>
-      <c r="I39" s="1">
-        <v>329</v>
+        <v>113</v>
+      </c>
+      <c r="I39" s="32">
+        <v>116</v>
       </c>
       <c r="J39" s="23">
-        <f t="shared" si="50"/>
-        <v>-335</v>
+        <f t="shared" si="68"/>
+        <v>-128</v>
       </c>
       <c r="K39" s="32">
-        <v>367</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="L39" s="33">
+        <f>W39</f>
+        <v>138</v>
+      </c>
+      <c r="M39" s="32">
+        <v>136</v>
+      </c>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
       <c r="R39" s="32">
-        <v>460</v>
+        <v>2</v>
       </c>
       <c r="S39" s="32">
-        <v>364</v>
+        <v>73</v>
       </c>
       <c r="T39" s="32">
-        <v>302</v>
+        <v>86</v>
       </c>
       <c r="U39" s="32">
-        <v>295</v>
-      </c>
-      <c r="V39" s="1">
-        <v>335</v>
+        <v>113</v>
+      </c>
+      <c r="V39" s="32">
+        <v>128</v>
+      </c>
+      <c r="W39" s="32">
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C40" s="32">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D40" s="33">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E40" s="32">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F40" s="33">
-        <f t="shared" si="51"/>
-        <v>5</v>
+        <f t="shared" si="69"/>
+        <v>35</v>
       </c>
       <c r="G40" s="32">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H40" s="33">
-        <v>37</v>
-      </c>
-      <c r="I40" s="1">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="I40" s="32">
+        <v>34</v>
       </c>
       <c r="J40" s="23">
-        <f t="shared" si="50"/>
-        <v>-39</v>
+        <f t="shared" si="68"/>
+        <v>-19</v>
       </c>
       <c r="K40" s="32">
-        <v>37</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="L40" s="33">
+        <f>W40</f>
+        <v>56</v>
+      </c>
+      <c r="M40" s="32">
+        <v>73</v>
+      </c>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
       <c r="R40" s="32">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="S40" s="32">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="T40" s="32">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="U40" s="32">
-        <v>37</v>
-      </c>
-      <c r="V40" s="1">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="35">
-        <v>351</v>
-      </c>
-      <c r="D41" s="36">
-        <v>371</v>
-      </c>
-      <c r="E41" s="35">
-        <v>912</v>
-      </c>
-      <c r="F41" s="36">
-        <f>T41</f>
-        <v>831</v>
-      </c>
-      <c r="G41" s="35">
-        <v>693</v>
-      </c>
-      <c r="H41" s="36">
-        <v>553</v>
-      </c>
-      <c r="I41" s="2">
-        <v>515</v>
-      </c>
-      <c r="J41" s="30">
-        <f>V41</f>
-        <v>489</v>
-      </c>
-      <c r="K41" s="35">
-        <v>575</v>
-      </c>
-      <c r="L41" s="30"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="35">
-        <v>272</v>
-      </c>
-      <c r="S41" s="35">
-        <v>371</v>
-      </c>
-      <c r="T41" s="35">
-        <v>831</v>
-      </c>
-      <c r="U41" s="35">
-        <v>553</v>
-      </c>
-      <c r="V41" s="2">
-        <v>489</v>
-      </c>
-      <c r="W41" s="70"/>
-      <c r="X41" s="71"/>
-      <c r="Y41" s="71"/>
-      <c r="Z41" s="71"/>
-      <c r="AA41" s="71"/>
-      <c r="AB41" s="71"/>
-      <c r="AC41" s="71"/>
-      <c r="AD41" s="71"/>
-      <c r="AE41" s="71"/>
+        <v>40</v>
+      </c>
+      <c r="V40" s="32">
+        <v>19</v>
+      </c>
+      <c r="W40" s="32">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="32">
+        <f t="shared" ref="C41:M41" si="70">SUM(C35:C40)</f>
+        <v>2471</v>
+      </c>
+      <c r="D41" s="33">
+        <f t="shared" si="70"/>
+        <v>2551</v>
+      </c>
+      <c r="E41" s="32">
+        <f t="shared" si="70"/>
+        <v>2585</v>
+      </c>
+      <c r="F41" s="33">
+        <f t="shared" si="70"/>
+        <v>2469</v>
+      </c>
+      <c r="G41" s="32">
+        <f t="shared" si="70"/>
+        <v>2353</v>
+      </c>
+      <c r="H41" s="33">
+        <f t="shared" si="70"/>
+        <v>2405</v>
+      </c>
+      <c r="I41" s="32">
+        <f t="shared" si="70"/>
+        <v>2672</v>
+      </c>
+      <c r="J41" s="33">
+        <f t="shared" si="70"/>
+        <v>2415</v>
+      </c>
+      <c r="K41" s="32">
+        <f t="shared" si="70"/>
+        <v>2816</v>
+      </c>
+      <c r="L41" s="33">
+        <f t="shared" si="70"/>
+        <v>2822</v>
+      </c>
+      <c r="M41" s="32">
+        <f t="shared" si="70"/>
+        <v>2764</v>
+      </c>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32">
+        <f>SUM(R35:R40)</f>
+        <v>2451</v>
+      </c>
+      <c r="S41" s="32">
+        <f>SUM(S35:S40)</f>
+        <v>2551</v>
+      </c>
+      <c r="T41" s="32">
+        <f>SUM(T35:T40)</f>
+        <v>2469</v>
+      </c>
+      <c r="U41" s="32">
+        <f>SUM(U35:U40)</f>
+        <v>2405</v>
+      </c>
+      <c r="V41" s="32">
+        <f>SUM(V35:V40)</f>
+        <v>3013</v>
+      </c>
+      <c r="W41" s="32">
+        <f>SUM(W35:W40)</f>
+        <v>2822</v>
+      </c>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C42" s="32">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="D42" s="33">
-        <v>63</v>
+        <v>364</v>
       </c>
       <c r="E42" s="32">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="F42" s="33">
-        <f t="shared" si="51"/>
-        <v>108</v>
+        <f t="shared" si="69"/>
+        <v>302</v>
       </c>
       <c r="G42" s="32">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="H42" s="33">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="I42" s="1">
-        <v>2</v>
+        <v>329</v>
       </c>
       <c r="J42" s="23">
-        <f t="shared" si="50"/>
-        <v>0</v>
+        <f t="shared" si="68"/>
+        <v>-335</v>
       </c>
       <c r="K42" s="32">
-        <v>0</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="L42" s="33">
+        <f>W42</f>
+        <v>376</v>
+      </c>
+      <c r="M42" s="32">
+        <v>391</v>
+      </c>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
       <c r="R42" s="32">
-        <v>113</v>
+        <v>460</v>
       </c>
       <c r="S42" s="32">
-        <v>63</v>
+        <v>364</v>
       </c>
       <c r="T42" s="32">
-        <v>108</v>
+        <v>302</v>
       </c>
       <c r="U42" s="32">
-        <v>39</v>
-      </c>
-      <c r="V42" s="1">
-        <v>0</v>
+        <v>295</v>
+      </c>
+      <c r="V42" s="32">
+        <v>335</v>
+      </c>
+      <c r="W42" s="32">
+        <v>376</v>
       </c>
     </row>
     <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C43" s="32">
-        <f t="shared" ref="C43:K43" si="53">C38+SUM(C39:C42)</f>
-        <v>3228</v>
+        <v>4</v>
       </c>
       <c r="D43" s="33">
-        <f t="shared" si="53"/>
-        <v>3352</v>
+        <v>3</v>
       </c>
       <c r="E43" s="32">
-        <f t="shared" si="53"/>
-        <v>3841</v>
+        <v>15</v>
       </c>
       <c r="F43" s="33">
-        <f t="shared" si="53"/>
-        <v>3715</v>
+        <f t="shared" si="69"/>
+        <v>5</v>
       </c>
       <c r="G43" s="32">
-        <f t="shared" si="53"/>
-        <v>3444</v>
+        <v>13</v>
       </c>
       <c r="H43" s="33">
-        <f t="shared" si="53"/>
-        <v>3329</v>
-      </c>
-      <c r="I43" s="32">
-        <f t="shared" si="53"/>
-        <v>3546</v>
-      </c>
-      <c r="J43" s="33">
-        <f t="shared" si="53"/>
-        <v>2530</v>
+        <v>37</v>
+      </c>
+      <c r="I43" s="1">
+        <v>28</v>
+      </c>
+      <c r="J43" s="23">
+        <f t="shared" si="68"/>
+        <v>-39</v>
       </c>
       <c r="K43" s="32">
-        <f t="shared" si="53"/>
-        <v>3795</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="L43" s="33">
+        <f>W43</f>
+        <v>42</v>
+      </c>
+      <c r="M43" s="32">
+        <v>37</v>
+      </c>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
       <c r="R43" s="32">
-        <f>R38+SUM(R39:R42)</f>
-        <v>3300</v>
+        <v>4</v>
       </c>
       <c r="S43" s="32">
-        <f>S38+SUM(S39:S42)</f>
-        <v>3352</v>
+        <v>3</v>
       </c>
       <c r="T43" s="32">
-        <f>T38+SUM(T39:T42)</f>
-        <v>3715</v>
+        <v>5</v>
       </c>
       <c r="U43" s="32">
-        <f>U38+SUM(U39:U42)</f>
-        <v>3329</v>
+        <v>37</v>
       </c>
       <c r="V43" s="32">
-        <f>V38+SUM(V39:V42)</f>
-        <v>3876</v>
-      </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="G44" s="32"/>
-      <c r="H44" s="33"/>
-      <c r="K44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="32"/>
+        <v>39</v>
+      </c>
+      <c r="W43" s="32">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="35">
+        <v>351</v>
+      </c>
+      <c r="D44" s="36">
+        <v>371</v>
+      </c>
+      <c r="E44" s="35">
+        <v>912</v>
+      </c>
+      <c r="F44" s="36">
+        <f>T44</f>
+        <v>831</v>
+      </c>
+      <c r="G44" s="35">
+        <v>693</v>
+      </c>
+      <c r="H44" s="36">
+        <v>553</v>
+      </c>
+      <c r="I44" s="2">
+        <v>515</v>
+      </c>
+      <c r="J44" s="30">
+        <f>V44</f>
+        <v>489</v>
+      </c>
+      <c r="K44" s="35">
+        <v>575</v>
+      </c>
+      <c r="L44" s="36">
+        <f>W44</f>
+        <v>696</v>
+      </c>
+      <c r="M44" s="35">
+        <v>448</v>
+      </c>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="35">
+        <v>272</v>
+      </c>
+      <c r="S44" s="35">
+        <v>371</v>
+      </c>
+      <c r="T44" s="35">
+        <v>831</v>
+      </c>
+      <c r="U44" s="35">
+        <v>553</v>
+      </c>
+      <c r="V44" s="35">
+        <v>489</v>
+      </c>
+      <c r="W44" s="35">
+        <v>696</v>
+      </c>
+      <c r="X44" s="59"/>
+      <c r="Y44" s="59"/>
+      <c r="Z44" s="59"/>
+      <c r="AA44" s="59"/>
+      <c r="AB44" s="59"/>
+      <c r="AC44" s="59"/>
+      <c r="AD44" s="59"/>
+      <c r="AE44" s="59"/>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C45" s="32">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="D45" s="33">
-        <v>291</v>
+        <v>63</v>
       </c>
       <c r="E45" s="32">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="F45" s="33">
-        <f t="shared" ref="F45:F50" si="54">T45</f>
-        <v>297</v>
+        <f t="shared" si="69"/>
+        <v>108</v>
       </c>
       <c r="G45" s="32">
-        <v>529</v>
+        <v>95</v>
       </c>
       <c r="H45" s="33">
-        <v>592</v>
-      </c>
-      <c r="I45" s="32">
-        <v>311</v>
+        <v>39</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2</v>
       </c>
       <c r="J45" s="23">
-        <f t="shared" ref="J45:J50" si="55">V45</f>
-        <v>368</v>
+        <f t="shared" si="68"/>
+        <v>0</v>
       </c>
       <c r="K45" s="32">
-        <v>302</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L45" s="33">
+        <f>W45</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="32">
+        <v>7</v>
+      </c>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
       <c r="R45" s="32">
-        <v>249</v>
+        <v>113</v>
       </c>
       <c r="S45" s="32">
-        <v>291</v>
+        <v>63</v>
       </c>
       <c r="T45" s="32">
-        <v>297</v>
+        <v>108</v>
       </c>
       <c r="U45" s="32">
-        <v>592</v>
-      </c>
-      <c r="V45" s="1">
-        <v>368</v>
+        <v>39</v>
+      </c>
+      <c r="V45" s="32">
+        <v>0</v>
+      </c>
+      <c r="W45" s="32">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C46" s="32">
-        <v>47</v>
+        <f t="shared" ref="C46:M46" si="71">C41+SUM(C42:C45)</f>
+        <v>3228</v>
       </c>
       <c r="D46" s="33">
-        <v>32</v>
+        <f t="shared" si="71"/>
+        <v>3352</v>
       </c>
       <c r="E46" s="32">
-        <v>46</v>
+        <f t="shared" si="71"/>
+        <v>3841</v>
       </c>
       <c r="F46" s="33">
-        <f t="shared" si="54"/>
-        <v>13</v>
+        <f t="shared" si="71"/>
+        <v>3715</v>
       </c>
       <c r="G46" s="32">
-        <v>24</v>
+        <f t="shared" si="71"/>
+        <v>3444</v>
       </c>
       <c r="H46" s="33">
-        <v>31</v>
+        <f t="shared" si="71"/>
+        <v>3329</v>
       </c>
       <c r="I46" s="32">
-        <v>23</v>
-      </c>
-      <c r="J46" s="23">
-        <f t="shared" si="55"/>
-        <v>13</v>
+        <f t="shared" si="71"/>
+        <v>3546</v>
+      </c>
+      <c r="J46" s="33">
+        <f t="shared" si="71"/>
+        <v>2530</v>
       </c>
       <c r="K46" s="32">
-        <v>33</v>
-      </c>
+        <f t="shared" si="71"/>
+        <v>3795</v>
+      </c>
+      <c r="L46" s="33">
+        <f t="shared" si="71"/>
+        <v>3936</v>
+      </c>
+      <c r="M46" s="32">
+        <f t="shared" si="71"/>
+        <v>3647</v>
+      </c>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
       <c r="R46" s="32">
-        <v>39</v>
+        <f>R41+SUM(R42:R45)</f>
+        <v>3300</v>
       </c>
       <c r="S46" s="32">
-        <v>32</v>
+        <f>S41+SUM(S42:S45)</f>
+        <v>3352</v>
       </c>
       <c r="T46" s="32">
-        <v>13</v>
+        <f>T41+SUM(T42:T45)</f>
+        <v>3715</v>
       </c>
       <c r="U46" s="32">
-        <v>31</v>
-      </c>
-      <c r="V46" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C47" s="35">
-        <v>5</v>
-      </c>
-      <c r="D47" s="36">
-        <v>122</v>
-      </c>
-      <c r="E47" s="35">
-        <v>149</v>
-      </c>
-      <c r="F47" s="36">
-        <f>T47</f>
-        <v>20</v>
-      </c>
-      <c r="G47" s="35">
-        <v>65</v>
-      </c>
-      <c r="H47" s="36">
-        <v>65</v>
-      </c>
-      <c r="I47" s="35">
-        <v>42</v>
-      </c>
-      <c r="J47" s="30">
-        <f t="shared" si="55"/>
-        <v>178</v>
-      </c>
-      <c r="K47" s="35">
-        <v>16</v>
-      </c>
-      <c r="L47" s="30"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="35">
-        <v>8</v>
-      </c>
-      <c r="S47" s="35">
-        <v>122</v>
-      </c>
-      <c r="T47" s="35">
-        <v>20</v>
-      </c>
-      <c r="U47" s="35">
-        <v>65</v>
-      </c>
-      <c r="V47" s="2">
-        <v>178</v>
-      </c>
-      <c r="W47" s="70"/>
-      <c r="X47" s="71"/>
-      <c r="Y47" s="71"/>
-      <c r="Z47" s="71"/>
-      <c r="AA47" s="71"/>
-      <c r="AB47" s="71"/>
-      <c r="AC47" s="71"/>
-      <c r="AD47" s="71"/>
-      <c r="AE47" s="71"/>
+        <f>U41+SUM(U42:U45)</f>
+        <v>3329</v>
+      </c>
+      <c r="V46" s="32">
+        <f>V41+SUM(V42:V45)</f>
+        <v>3876</v>
+      </c>
+      <c r="W46" s="32">
+        <f>W41+SUM(W42:W45)</f>
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="G47" s="32"/>
+      <c r="H47" s="33"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
     </row>
     <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C48" s="32">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c r="D48" s="33">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="E48" s="32">
-        <v>9</v>
+        <v>242</v>
       </c>
       <c r="F48" s="33">
-        <f t="shared" si="54"/>
-        <v>19</v>
+        <f t="shared" ref="F48:F53" si="72">T48</f>
+        <v>297</v>
       </c>
       <c r="G48" s="32">
-        <v>14</v>
+        <v>529</v>
       </c>
       <c r="H48" s="33">
-        <v>68</v>
+        <v>592</v>
       </c>
       <c r="I48" s="32">
-        <v>44</v>
+        <v>311</v>
       </c>
       <c r="J48" s="23">
-        <f t="shared" si="55"/>
-        <v>33</v>
+        <f t="shared" ref="J48:J53" si="73">V48</f>
+        <v>368</v>
       </c>
       <c r="K48" s="32">
-        <v>20</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="L48" s="33">
+        <f>W48</f>
+        <v>378</v>
+      </c>
+      <c r="M48" s="32">
+        <v>371</v>
+      </c>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
       <c r="R48" s="32">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="S48" s="32">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="T48" s="32">
-        <v>19</v>
+        <v>297</v>
       </c>
       <c r="U48" s="32">
-        <v>68</v>
-      </c>
-      <c r="V48" s="1">
-        <v>33</v>
+        <v>592</v>
+      </c>
+      <c r="V48" s="32">
+        <v>368</v>
+      </c>
+      <c r="W48" s="32">
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C49" s="32">
-        <v>660</v>
+        <v>47</v>
       </c>
       <c r="D49" s="33">
-        <v>637</v>
+        <v>32</v>
       </c>
       <c r="E49" s="32">
-        <v>691</v>
+        <v>46</v>
       </c>
       <c r="F49" s="33">
-        <f t="shared" si="54"/>
-        <v>593</v>
+        <f t="shared" si="72"/>
+        <v>13</v>
       </c>
       <c r="G49" s="32">
-        <v>638</v>
+        <v>24</v>
       </c>
       <c r="H49" s="33">
-        <v>611</v>
+        <v>31</v>
       </c>
       <c r="I49" s="32">
-        <v>705</v>
+        <v>23</v>
       </c>
       <c r="J49" s="23">
-        <f t="shared" si="55"/>
-        <v>734</v>
+        <f t="shared" si="73"/>
+        <v>13</v>
       </c>
       <c r="K49" s="32">
-        <v>770</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="L49" s="33">
+        <f>W49</f>
+        <v>25</v>
+      </c>
+      <c r="M49" s="32">
+        <v>26</v>
+      </c>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
       <c r="R49" s="32">
-        <v>620</v>
+        <v>39</v>
       </c>
       <c r="S49" s="32">
-        <v>637</v>
+        <v>32</v>
       </c>
       <c r="T49" s="32">
-        <v>593</v>
+        <v>13</v>
       </c>
       <c r="U49" s="32">
-        <v>611</v>
-      </c>
-      <c r="V49" s="1">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="50" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" s="32">
-        <v>0</v>
-      </c>
-      <c r="D50" s="33">
-        <v>33</v>
-      </c>
-      <c r="E50" s="32">
-        <v>0</v>
-      </c>
-      <c r="F50" s="33">
-        <f t="shared" si="54"/>
-        <v>73</v>
-      </c>
-      <c r="G50" s="32">
-        <v>52</v>
-      </c>
-      <c r="H50" s="33">
+        <v>31</v>
+      </c>
+      <c r="V49" s="32">
         <v>13</v>
       </c>
-      <c r="I50" s="32">
-        <v>0</v>
-      </c>
-      <c r="J50" s="23">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="K50" s="32">
-        <v>0</v>
-      </c>
-      <c r="R50" s="32">
-        <v>63</v>
-      </c>
-      <c r="S50" s="32">
-        <v>33</v>
-      </c>
-      <c r="T50" s="32">
-        <v>73</v>
-      </c>
-      <c r="U50" s="32">
-        <v>13</v>
-      </c>
-      <c r="V50" s="1">
-        <v>0</v>
-      </c>
+      <c r="W49" s="32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="35">
+        <v>5</v>
+      </c>
+      <c r="D50" s="36">
+        <v>122</v>
+      </c>
+      <c r="E50" s="35">
+        <v>149</v>
+      </c>
+      <c r="F50" s="36">
+        <f>T50</f>
+        <v>20</v>
+      </c>
+      <c r="G50" s="35">
+        <v>65</v>
+      </c>
+      <c r="H50" s="36">
+        <v>65</v>
+      </c>
+      <c r="I50" s="35">
+        <v>42</v>
+      </c>
+      <c r="J50" s="30">
+        <f t="shared" si="73"/>
+        <v>178</v>
+      </c>
+      <c r="K50" s="35">
+        <v>16</v>
+      </c>
+      <c r="L50" s="36">
+        <f>W50</f>
+        <v>14</v>
+      </c>
+      <c r="M50" s="32">
+        <v>15</v>
+      </c>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="35">
+        <v>8</v>
+      </c>
+      <c r="S50" s="35">
+        <v>122</v>
+      </c>
+      <c r="T50" s="35">
+        <v>20</v>
+      </c>
+      <c r="U50" s="35">
+        <v>65</v>
+      </c>
+      <c r="V50" s="35">
+        <v>178</v>
+      </c>
+      <c r="W50" s="35">
+        <v>14</v>
+      </c>
+      <c r="X50" s="59"/>
+      <c r="Y50" s="59"/>
+      <c r="Z50" s="59"/>
+      <c r="AA50" s="59"/>
+      <c r="AB50" s="59"/>
+      <c r="AC50" s="59"/>
+      <c r="AD50" s="59"/>
+      <c r="AE50" s="59"/>
     </row>
     <row r="51" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C51" s="32">
-        <f t="shared" ref="C51:K51" si="56">SUM(C45:C50)</f>
-        <v>1003</v>
+        <v>15</v>
       </c>
       <c r="D51" s="33">
-        <f t="shared" si="56"/>
-        <v>1126</v>
+        <v>11</v>
       </c>
       <c r="E51" s="32">
-        <f t="shared" si="56"/>
-        <v>1137</v>
+        <v>9</v>
       </c>
       <c r="F51" s="33">
-        <f t="shared" si="56"/>
-        <v>1015</v>
+        <f t="shared" si="72"/>
+        <v>19</v>
       </c>
       <c r="G51" s="32">
-        <f t="shared" si="56"/>
-        <v>1322</v>
+        <v>14</v>
       </c>
       <c r="H51" s="33">
-        <f t="shared" si="56"/>
-        <v>1380</v>
+        <v>68</v>
       </c>
       <c r="I51" s="32">
-        <f t="shared" si="56"/>
-        <v>1125</v>
-      </c>
-      <c r="J51" s="33">
-        <f t="shared" si="56"/>
-        <v>1326</v>
+        <v>44</v>
+      </c>
+      <c r="J51" s="23">
+        <f t="shared" si="73"/>
+        <v>33</v>
       </c>
       <c r="K51" s="32">
-        <f t="shared" si="56"/>
-        <v>1141</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L51" s="33">
+        <f>W51</f>
+        <v>23</v>
+      </c>
+      <c r="M51" s="32">
+        <v>15</v>
+      </c>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
       <c r="R51" s="32">
-        <f>SUM(R45:R50)</f>
-        <v>1005</v>
+        <v>26</v>
       </c>
       <c r="S51" s="32">
-        <f>SUM(S45:S50)</f>
-        <v>1126</v>
+        <v>11</v>
       </c>
       <c r="T51" s="32">
-        <f>SUM(T45:T50)</f>
-        <v>1015</v>
+        <v>19</v>
       </c>
       <c r="U51" s="32">
-        <f>SUM(U45:U50)</f>
-        <v>1380</v>
+        <v>68</v>
       </c>
       <c r="V51" s="32">
-        <f>SUM(V45:V50)</f>
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="52" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C52" s="35">
-        <v>768</v>
-      </c>
-      <c r="D52" s="36">
-        <v>643</v>
-      </c>
-      <c r="E52" s="35">
-        <v>1001</v>
-      </c>
-      <c r="F52" s="36">
-        <f>T52</f>
-        <v>970</v>
-      </c>
-      <c r="G52" s="35">
-        <v>742</v>
-      </c>
-      <c r="H52" s="36">
-        <v>749</v>
-      </c>
-      <c r="I52" s="35">
-        <v>1123</v>
-      </c>
-      <c r="J52" s="30">
-        <f t="shared" ref="J52:J58" si="57">V52</f>
-        <v>1044</v>
-      </c>
-      <c r="K52" s="35">
-        <v>1250</v>
-      </c>
-      <c r="L52" s="30"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="35">
-        <v>913</v>
-      </c>
-      <c r="S52" s="35">
-        <v>643</v>
-      </c>
-      <c r="T52" s="35">
-        <v>970</v>
-      </c>
-      <c r="U52" s="35">
-        <v>749</v>
-      </c>
-      <c r="V52" s="2">
-        <v>1044</v>
-      </c>
-      <c r="W52" s="70"/>
-      <c r="X52" s="71"/>
-      <c r="Y52" s="71"/>
-      <c r="Z52" s="71"/>
-      <c r="AA52" s="71"/>
-      <c r="AB52" s="71"/>
-      <c r="AC52" s="71"/>
-      <c r="AD52" s="71"/>
-      <c r="AE52" s="71"/>
+        <v>33</v>
+      </c>
+      <c r="W51" s="32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="32">
+        <v>660</v>
+      </c>
+      <c r="D52" s="33">
+        <v>637</v>
+      </c>
+      <c r="E52" s="32">
+        <v>691</v>
+      </c>
+      <c r="F52" s="33">
+        <f t="shared" si="72"/>
+        <v>593</v>
+      </c>
+      <c r="G52" s="32">
+        <v>638</v>
+      </c>
+      <c r="H52" s="33">
+        <v>611</v>
+      </c>
+      <c r="I52" s="32">
+        <v>705</v>
+      </c>
+      <c r="J52" s="23">
+        <f t="shared" si="73"/>
+        <v>734</v>
+      </c>
+      <c r="K52" s="32">
+        <v>770</v>
+      </c>
+      <c r="L52" s="33">
+        <f>W52</f>
+        <v>745</v>
+      </c>
+      <c r="M52" s="32">
+        <v>803</v>
+      </c>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="Q52" s="32"/>
+      <c r="R52" s="32">
+        <v>620</v>
+      </c>
+      <c r="S52" s="32">
+        <v>637</v>
+      </c>
+      <c r="T52" s="32">
+        <v>593</v>
+      </c>
+      <c r="U52" s="32">
+        <v>611</v>
+      </c>
+      <c r="V52" s="32">
+        <v>734</v>
+      </c>
+      <c r="W52" s="32">
+        <v>745</v>
+      </c>
     </row>
     <row r="53" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C53" s="32">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D53" s="33">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E53" s="32">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F53" s="33">
-        <f t="shared" ref="F53:F57" si="58">T53</f>
-        <v>23</v>
+        <f t="shared" si="72"/>
+        <v>73</v>
       </c>
       <c r="G53" s="32">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="H53" s="33">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I53" s="32">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J53" s="23">
-        <f t="shared" si="57"/>
-        <v>19</v>
+        <f t="shared" si="73"/>
+        <v>0</v>
       </c>
       <c r="K53" s="32">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L53" s="33">
+        <f>W53</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="32">
+        <v>0</v>
+      </c>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="Q53" s="32"/>
       <c r="R53" s="32">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="S53" s="32">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="T53" s="32">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="U53" s="32">
-        <v>22</v>
-      </c>
-      <c r="V53" s="1">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="V53" s="32">
+        <v>0</v>
+      </c>
+      <c r="W53" s="32">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C54" s="32">
-        <v>26</v>
+        <f t="shared" ref="C54:M54" si="74">SUM(C48:C53)</f>
+        <v>1003</v>
       </c>
       <c r="D54" s="33">
-        <v>24</v>
+        <f t="shared" si="74"/>
+        <v>1126</v>
       </c>
       <c r="E54" s="32">
-        <v>27</v>
+        <f t="shared" si="74"/>
+        <v>1137</v>
       </c>
       <c r="F54" s="33">
-        <f t="shared" si="58"/>
-        <v>14</v>
+        <f t="shared" si="74"/>
+        <v>1015</v>
       </c>
       <c r="G54" s="32">
-        <v>10</v>
+        <f t="shared" si="74"/>
+        <v>1322</v>
       </c>
       <c r="H54" s="33">
-        <v>5</v>
+        <f t="shared" si="74"/>
+        <v>1380</v>
       </c>
       <c r="I54" s="32">
-        <v>24</v>
-      </c>
-      <c r="J54" s="23">
-        <f t="shared" si="57"/>
-        <v>16</v>
+        <f t="shared" si="74"/>
+        <v>1125</v>
+      </c>
+      <c r="J54" s="33">
+        <f t="shared" si="74"/>
+        <v>1326</v>
       </c>
       <c r="K54" s="32">
-        <v>14</v>
-      </c>
+        <f t="shared" si="74"/>
+        <v>1141</v>
+      </c>
+      <c r="L54" s="33">
+        <f t="shared" si="74"/>
+        <v>1185</v>
+      </c>
+      <c r="M54" s="32">
+        <f t="shared" si="74"/>
+        <v>1230</v>
+      </c>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
       <c r="R54" s="32">
-        <v>25</v>
+        <f>SUM(R48:R53)</f>
+        <v>1005</v>
       </c>
       <c r="S54" s="32">
-        <v>24</v>
+        <f>SUM(S48:S53)</f>
+        <v>1126</v>
       </c>
       <c r="T54" s="32">
-        <v>14</v>
+        <f>SUM(T48:T53)</f>
+        <v>1015</v>
       </c>
       <c r="U54" s="32">
-        <v>5</v>
-      </c>
-      <c r="V54" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="32">
-        <v>12</v>
-      </c>
-      <c r="D55" s="33">
-        <v>15</v>
-      </c>
-      <c r="E55" s="32">
-        <v>13</v>
-      </c>
-      <c r="F55" s="33">
-        <f t="shared" si="58"/>
-        <v>31</v>
-      </c>
-      <c r="G55" s="32">
-        <v>29</v>
-      </c>
-      <c r="H55" s="33">
-        <v>49</v>
-      </c>
-      <c r="I55" s="32">
-        <v>36</v>
-      </c>
-      <c r="J55" s="23">
-        <f t="shared" si="57"/>
-        <v>20</v>
-      </c>
-      <c r="K55" s="32">
-        <v>24</v>
-      </c>
-      <c r="R55" s="32">
-        <v>11</v>
-      </c>
-      <c r="S55" s="32">
-        <v>15</v>
-      </c>
-      <c r="T55" s="32">
-        <v>31</v>
-      </c>
-      <c r="U55" s="32">
-        <v>49</v>
-      </c>
-      <c r="V55" s="1">
-        <v>20</v>
-      </c>
+        <f>SUM(U48:U53)</f>
+        <v>1380</v>
+      </c>
+      <c r="V54" s="32">
+        <f>SUM(V48:V53)</f>
+        <v>1326</v>
+      </c>
+      <c r="W54" s="32">
+        <f>SUM(W48:W53)</f>
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="55" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="35">
+        <v>768</v>
+      </c>
+      <c r="D55" s="36">
+        <v>643</v>
+      </c>
+      <c r="E55" s="35">
+        <v>1001</v>
+      </c>
+      <c r="F55" s="36">
+        <f>T55</f>
+        <v>970</v>
+      </c>
+      <c r="G55" s="35">
+        <v>742</v>
+      </c>
+      <c r="H55" s="36">
+        <v>749</v>
+      </c>
+      <c r="I55" s="35">
+        <v>1123</v>
+      </c>
+      <c r="J55" s="30">
+        <f t="shared" ref="J55:J61" si="75">V55</f>
+        <v>1044</v>
+      </c>
+      <c r="K55" s="35">
+        <v>1250</v>
+      </c>
+      <c r="L55" s="36">
+        <f>W55</f>
+        <v>1243</v>
+      </c>
+      <c r="M55" s="32">
+        <v>1244</v>
+      </c>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="35">
+        <v>913</v>
+      </c>
+      <c r="S55" s="35">
+        <v>643</v>
+      </c>
+      <c r="T55" s="35">
+        <v>970</v>
+      </c>
+      <c r="U55" s="35">
+        <v>749</v>
+      </c>
+      <c r="V55" s="35">
+        <v>1044</v>
+      </c>
+      <c r="W55" s="35">
+        <v>1243</v>
+      </c>
+      <c r="X55" s="59"/>
+      <c r="Y55" s="59"/>
+      <c r="Z55" s="59"/>
+      <c r="AA55" s="59"/>
+      <c r="AB55" s="59"/>
+      <c r="AC55" s="59"/>
+      <c r="AD55" s="59"/>
+      <c r="AE55" s="59"/>
     </row>
     <row r="56" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C56" s="32">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D56" s="33">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E56" s="32">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F56" s="33">
-        <f t="shared" si="58"/>
-        <v>3</v>
+        <f t="shared" ref="F56:F60" si="76">T56</f>
+        <v>23</v>
       </c>
       <c r="G56" s="32">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H56" s="33">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I56" s="32">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J56" s="23">
-        <f t="shared" si="57"/>
-        <v>6</v>
+        <f t="shared" si="75"/>
+        <v>19</v>
       </c>
       <c r="K56" s="32">
-        <v>14</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="L56" s="33">
+        <f>W56</f>
+        <v>19</v>
+      </c>
+      <c r="M56" s="32">
+        <v>20</v>
+      </c>
+      <c r="N56" s="32"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="32"/>
+      <c r="Q56" s="32"/>
       <c r="R56" s="32">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="S56" s="32">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="T56" s="32">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="U56" s="32">
-        <v>3</v>
-      </c>
-      <c r="V56" s="1">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="V56" s="32">
+        <v>19</v>
+      </c>
+      <c r="W56" s="32">
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C57" s="32">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D57" s="33">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E57" s="32">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F57" s="33">
-        <f t="shared" si="58"/>
-        <v>7</v>
+        <f t="shared" si="76"/>
+        <v>14</v>
       </c>
       <c r="G57" s="32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H57" s="33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I57" s="32">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J57" s="23">
-        <f t="shared" si="57"/>
-        <v>8</v>
+        <f t="shared" si="75"/>
+        <v>16</v>
       </c>
       <c r="K57" s="32">
-        <v>7</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L57" s="33">
+        <f t="shared" ref="L57:L61" si="77">W57</f>
+        <v>18</v>
+      </c>
+      <c r="M57" s="32">
+        <v>19</v>
+      </c>
+      <c r="N57" s="32"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="32"/>
+      <c r="Q57" s="32"/>
       <c r="R57" s="32">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="S57" s="32">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="T57" s="32">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="U57" s="32">
-        <v>10</v>
-      </c>
-      <c r="V57" s="1">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="V57" s="32">
+        <v>16</v>
+      </c>
+      <c r="W57" s="32">
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C58" s="32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D58" s="33">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E58" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F58" s="33">
-        <v>0</v>
+        <f t="shared" si="76"/>
+        <v>31</v>
       </c>
       <c r="G58" s="32">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H58" s="33">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I58" s="32">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J58" s="23">
-        <f t="shared" si="57"/>
-        <v>60</v>
+        <f t="shared" si="75"/>
+        <v>20</v>
       </c>
       <c r="K58" s="32">
+        <v>24</v>
+      </c>
+      <c r="L58" s="33">
+        <f t="shared" si="77"/>
+        <v>24</v>
+      </c>
+      <c r="M58" s="32">
+        <v>27</v>
+      </c>
+      <c r="N58" s="32"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="32"/>
+      <c r="Q58" s="32"/>
+      <c r="R58" s="32">
+        <v>11</v>
+      </c>
+      <c r="S58" s="32">
+        <v>15</v>
+      </c>
+      <c r="T58" s="32">
+        <v>31</v>
+      </c>
+      <c r="U58" s="32">
+        <v>49</v>
+      </c>
+      <c r="V58" s="32">
         <v>20</v>
       </c>
-      <c r="R58" s="32">
-        <v>0</v>
-      </c>
-      <c r="S58" s="32">
-        <v>0</v>
-      </c>
-      <c r="T58" s="32">
-        <v>0</v>
-      </c>
-      <c r="U58" s="32">
-        <v>0</v>
-      </c>
-      <c r="V58" s="1">
-        <v>60</v>
+      <c r="W58" s="32">
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C59" s="32">
-        <f t="shared" ref="C59:K59" si="59">C51+SUM(C52:C58)</f>
-        <v>1845</v>
+        <v>7</v>
       </c>
       <c r="D59" s="33">
-        <f t="shared" si="59"/>
-        <v>1848</v>
+        <v>7</v>
       </c>
       <c r="E59" s="32">
-        <f t="shared" si="59"/>
-        <v>2217</v>
+        <v>6</v>
       </c>
       <c r="F59" s="33">
-        <f t="shared" si="59"/>
-        <v>2063</v>
+        <f t="shared" si="76"/>
+        <v>3</v>
       </c>
       <c r="G59" s="32">
-        <f t="shared" si="59"/>
-        <v>2140</v>
+        <v>3</v>
       </c>
       <c r="H59" s="33">
-        <f t="shared" si="59"/>
-        <v>2218</v>
+        <v>3</v>
       </c>
       <c r="I59" s="32">
-        <f t="shared" si="59"/>
-        <v>2342</v>
-      </c>
-      <c r="J59" s="33">
-        <f t="shared" si="59"/>
-        <v>2499</v>
+        <v>2</v>
+      </c>
+      <c r="J59" s="23">
+        <f t="shared" si="75"/>
+        <v>6</v>
       </c>
       <c r="K59" s="32">
-        <f t="shared" si="59"/>
-        <v>2489</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L59" s="33">
+        <f t="shared" si="77"/>
+        <v>13</v>
+      </c>
+      <c r="M59" s="32">
+        <v>6</v>
+      </c>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="32"/>
       <c r="R59" s="32">
-        <f>R51+SUM(R52:R58)</f>
-        <v>1990</v>
+        <v>8</v>
       </c>
       <c r="S59" s="32">
-        <f>S51+SUM(S52:S58)</f>
-        <v>1848</v>
+        <v>7</v>
       </c>
       <c r="T59" s="32">
-        <f>T51+SUM(T52:T58)</f>
-        <v>2063</v>
+        <v>3</v>
       </c>
       <c r="U59" s="32">
-        <f>U51+SUM(U52:U58)</f>
-        <v>2218</v>
+        <v>3</v>
       </c>
       <c r="V59" s="32">
-        <f>V51+SUM(V52:V58)</f>
-        <v>2499</v>
+        <v>6</v>
+      </c>
+      <c r="W59" s="32">
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="G60" s="32"/>
-      <c r="H60" s="33"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="32"/>
-      <c r="T60" s="32"/>
-      <c r="U60" s="32"/>
-    </row>
-    <row r="61" spans="2:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="32" t="s">
-        <v>88</v>
+      <c r="B60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="32">
+        <v>7</v>
+      </c>
+      <c r="D60" s="33">
+        <v>8</v>
+      </c>
+      <c r="E60" s="32">
+        <v>7</v>
+      </c>
+      <c r="F60" s="33">
+        <f t="shared" si="76"/>
+        <v>7</v>
+      </c>
+      <c r="G60" s="32">
+        <v>11</v>
+      </c>
+      <c r="H60" s="33">
+        <v>10</v>
+      </c>
+      <c r="I60" s="32">
+        <v>9</v>
+      </c>
+      <c r="J60" s="23">
+        <f t="shared" si="75"/>
+        <v>8</v>
+      </c>
+      <c r="K60" s="32">
+        <v>7</v>
+      </c>
+      <c r="L60" s="33">
+        <f t="shared" si="77"/>
+        <v>7</v>
+      </c>
+      <c r="M60" s="32">
+        <v>5</v>
+      </c>
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="32">
+        <v>6</v>
+      </c>
+      <c r="S60" s="32">
+        <v>8</v>
+      </c>
+      <c r="T60" s="32">
+        <v>7</v>
+      </c>
+      <c r="U60" s="32">
+        <v>10</v>
+      </c>
+      <c r="V60" s="32">
+        <v>8</v>
+      </c>
+      <c r="W60" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C61" s="32">
-        <v>1383</v>
+        <v>0</v>
       </c>
       <c r="D61" s="33">
-        <v>1504</v>
+        <v>0</v>
       </c>
       <c r="E61" s="32">
-        <v>1624</v>
+        <v>0</v>
       </c>
       <c r="F61" s="33">
-        <f>T61</f>
-        <v>1652</v>
+        <v>0</v>
       </c>
       <c r="G61" s="32">
-        <v>1304</v>
+        <v>0</v>
       </c>
       <c r="H61" s="33">
-        <v>1111</v>
+        <v>0</v>
       </c>
       <c r="I61" s="32">
-        <v>1204</v>
-      </c>
-      <c r="J61" s="33">
-        <f>V61</f>
-        <v>1397</v>
+        <v>0</v>
+      </c>
+      <c r="J61" s="23">
+        <f t="shared" si="75"/>
+        <v>60</v>
       </c>
       <c r="K61" s="32">
-        <v>1306</v>
-      </c>
-      <c r="L61" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="L61" s="33">
+        <f t="shared" si="77"/>
+        <v>20</v>
+      </c>
+      <c r="M61" s="32">
+        <v>8</v>
+      </c>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
       <c r="R61" s="32">
-        <v>1327</v>
+        <v>0</v>
       </c>
       <c r="S61" s="32">
-        <v>1504</v>
+        <v>0</v>
       </c>
       <c r="T61" s="32">
-        <v>1652</v>
+        <v>0</v>
       </c>
       <c r="U61" s="32">
-        <v>1111</v>
+        <v>0</v>
       </c>
       <c r="V61" s="32">
-        <v>1397</v>
-      </c>
-      <c r="W61" s="62"/>
-      <c r="X61" s="39"/>
-      <c r="Y61" s="39"/>
-      <c r="Z61" s="39"/>
-      <c r="AA61" s="39"/>
-      <c r="AB61" s="39"/>
-      <c r="AC61" s="39"/>
-      <c r="AD61" s="39"/>
-      <c r="AE61" s="39"/>
+        <v>60</v>
+      </c>
+      <c r="W61" s="32">
+        <v>20</v>
+      </c>
     </row>
     <row r="62" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C62" s="32">
-        <f t="shared" ref="C62:K62" si="60">C61+C59</f>
-        <v>3228</v>
+        <f t="shared" ref="C62:M62" si="78">C54+SUM(C55:C61)</f>
+        <v>1845</v>
       </c>
       <c r="D62" s="33">
-        <f t="shared" si="60"/>
-        <v>3352</v>
+        <f t="shared" si="78"/>
+        <v>1848</v>
       </c>
       <c r="E62" s="32">
-        <f t="shared" si="60"/>
-        <v>3841</v>
+        <f t="shared" si="78"/>
+        <v>2217</v>
       </c>
       <c r="F62" s="33">
-        <f t="shared" si="60"/>
-        <v>3715</v>
+        <f t="shared" si="78"/>
+        <v>2063</v>
       </c>
       <c r="G62" s="32">
-        <f t="shared" si="60"/>
-        <v>3444</v>
+        <f t="shared" si="78"/>
+        <v>2140</v>
       </c>
       <c r="H62" s="33">
-        <f t="shared" si="60"/>
-        <v>3329</v>
+        <f t="shared" si="78"/>
+        <v>2218</v>
       </c>
       <c r="I62" s="32">
-        <f t="shared" si="60"/>
-        <v>3546</v>
+        <f t="shared" si="78"/>
+        <v>2342</v>
       </c>
       <c r="J62" s="33">
-        <f t="shared" si="60"/>
-        <v>3896</v>
+        <f t="shared" si="78"/>
+        <v>2499</v>
       </c>
       <c r="K62" s="32">
-        <f t="shared" si="60"/>
-        <v>3795</v>
-      </c>
+        <f t="shared" si="78"/>
+        <v>2489</v>
+      </c>
+      <c r="L62" s="33">
+        <f t="shared" si="78"/>
+        <v>2529</v>
+      </c>
+      <c r="M62" s="32">
+        <f t="shared" si="78"/>
+        <v>2559</v>
+      </c>
+      <c r="N62" s="32"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="32"/>
       <c r="R62" s="32">
-        <f>R61+R59</f>
-        <v>3317</v>
+        <f>R54+SUM(R55:R61)</f>
+        <v>1990</v>
       </c>
       <c r="S62" s="32">
-        <f>S61+S59</f>
-        <v>3352</v>
+        <f>S54+SUM(S55:S61)</f>
+        <v>1848</v>
       </c>
       <c r="T62" s="32">
-        <f>T61+T59</f>
-        <v>3715</v>
+        <f>T54+SUM(T55:T61)</f>
+        <v>2063</v>
       </c>
       <c r="U62" s="32">
-        <f>U61+U59</f>
-        <v>3329</v>
+        <f>U54+SUM(U55:U61)</f>
+        <v>2218</v>
       </c>
       <c r="V62" s="32">
-        <f>V61+V59</f>
-        <v>3896</v>
+        <f>V54+SUM(V55:V61)</f>
+        <v>2499</v>
+      </c>
+      <c r="W62" s="32">
+        <f>W54+SUM(W55:W61)</f>
+        <v>2529</v>
       </c>
     </row>
     <row r="63" spans="2:31" x14ac:dyDescent="0.2">
       <c r="G63" s="32"/>
       <c r="H63" s="33"/>
-    </row>
-    <row r="64" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="32"/>
+      <c r="U63" s="32"/>
+    </row>
+    <row r="64" spans="2:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="32">
+        <v>1383</v>
+      </c>
+      <c r="D64" s="33">
+        <v>1504</v>
+      </c>
+      <c r="E64" s="32">
+        <v>1624</v>
+      </c>
+      <c r="F64" s="33">
+        <f>T64</f>
+        <v>1652</v>
+      </c>
+      <c r="G64" s="32">
+        <v>1304</v>
+      </c>
+      <c r="H64" s="33">
+        <v>1111</v>
+      </c>
+      <c r="I64" s="32">
+        <v>1204</v>
+      </c>
+      <c r="J64" s="33">
+        <f>V64</f>
+        <v>1397</v>
+      </c>
+      <c r="K64" s="32">
+        <v>1306</v>
+      </c>
+      <c r="L64" s="33">
+        <f>W64</f>
+        <v>1407</v>
+      </c>
+      <c r="M64" s="32">
+        <v>1088</v>
+      </c>
+      <c r="R64" s="32">
+        <v>1327</v>
+      </c>
+      <c r="S64" s="32">
+        <v>1504</v>
+      </c>
+      <c r="T64" s="32">
+        <v>1652</v>
+      </c>
+      <c r="U64" s="32">
+        <v>1111</v>
+      </c>
+      <c r="V64" s="32">
+        <v>1397</v>
+      </c>
+      <c r="W64" s="32">
+        <v>1407</v>
+      </c>
+      <c r="X64" s="39"/>
+      <c r="Y64" s="39"/>
+      <c r="Z64" s="39"/>
+      <c r="AA64" s="39"/>
+      <c r="AB64" s="39"/>
+      <c r="AC64" s="39"/>
+      <c r="AD64" s="39"/>
+      <c r="AE64" s="39"/>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="32">
+        <f t="shared" ref="C65:M65" si="79">C64+C62</f>
+        <v>3228</v>
+      </c>
+      <c r="D65" s="33">
+        <f t="shared" si="79"/>
+        <v>3352</v>
+      </c>
+      <c r="E65" s="32">
+        <f t="shared" si="79"/>
+        <v>3841</v>
+      </c>
+      <c r="F65" s="33">
+        <f t="shared" si="79"/>
+        <v>3715</v>
+      </c>
+      <c r="G65" s="32">
+        <f t="shared" si="79"/>
+        <v>3444</v>
+      </c>
+      <c r="H65" s="33">
+        <f t="shared" si="79"/>
+        <v>3329</v>
+      </c>
+      <c r="I65" s="32">
+        <f t="shared" si="79"/>
+        <v>3546</v>
+      </c>
+      <c r="J65" s="33">
+        <f t="shared" si="79"/>
+        <v>3896</v>
+      </c>
+      <c r="K65" s="32">
+        <f t="shared" si="79"/>
+        <v>3795</v>
+      </c>
+      <c r="L65" s="33">
+        <f t="shared" si="79"/>
+        <v>3936</v>
+      </c>
+      <c r="M65" s="32">
+        <f t="shared" si="79"/>
+        <v>3647</v>
+      </c>
+      <c r="R65" s="32">
+        <f>R64+R62</f>
+        <v>3317</v>
+      </c>
+      <c r="S65" s="32">
+        <f>S64+S62</f>
+        <v>3352</v>
+      </c>
+      <c r="T65" s="32">
+        <f>T64+T62</f>
+        <v>3715</v>
+      </c>
+      <c r="U65" s="32">
+        <f>U64+U62</f>
+        <v>3329</v>
+      </c>
+      <c r="V65" s="32">
+        <f>V64+V62</f>
+        <v>3896</v>
+      </c>
+      <c r="W65" s="32">
+        <f>W64+W62</f>
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="G66" s="32"/>
+      <c r="H66" s="33"/>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="32">
-        <f t="shared" ref="C64:I64" si="61">C43-C59</f>
+      <c r="C67" s="32">
+        <f t="shared" ref="C67:I67" si="80">C46-C62</f>
         <v>1383</v>
       </c>
-      <c r="D64" s="33">
-        <f t="shared" si="61"/>
+      <c r="D67" s="33">
+        <f t="shared" si="80"/>
         <v>1504</v>
       </c>
-      <c r="E64" s="32">
-        <f t="shared" si="61"/>
+      <c r="E67" s="32">
+        <f t="shared" si="80"/>
         <v>1624</v>
       </c>
-      <c r="F64" s="33">
-        <f t="shared" si="61"/>
+      <c r="F67" s="33">
+        <f t="shared" si="80"/>
         <v>1652</v>
       </c>
-      <c r="G64" s="32">
-        <f t="shared" si="61"/>
+      <c r="G67" s="32">
+        <f t="shared" si="80"/>
         <v>1304</v>
       </c>
-      <c r="H64" s="33">
-        <f t="shared" si="61"/>
+      <c r="H67" s="33">
+        <f t="shared" si="80"/>
         <v>1111</v>
       </c>
-      <c r="I64" s="32">
-        <f t="shared" si="61"/>
+      <c r="I67" s="32">
+        <f t="shared" si="80"/>
         <v>1204</v>
       </c>
-      <c r="J64" s="33">
-        <f t="shared" ref="J64:K64" si="62">J43-J59</f>
+      <c r="J67" s="33">
+        <f t="shared" ref="J67:L67" si="81">J46-J62</f>
         <v>31</v>
       </c>
-      <c r="K64" s="32">
-        <f t="shared" si="62"/>
+      <c r="K67" s="32">
+        <f t="shared" ref="J67:K67" si="82">K46-K62</f>
         <v>1306</v>
       </c>
-      <c r="R64" s="32">
-        <f>R43-R59</f>
+      <c r="L67" s="33">
+        <f t="shared" si="81"/>
+        <v>1407</v>
+      </c>
+      <c r="M67" s="32">
+        <f t="shared" ref="M67" si="83">M46-M62</f>
+        <v>1088</v>
+      </c>
+      <c r="R67" s="32">
+        <f>R46-R62</f>
         <v>1310</v>
       </c>
-      <c r="S64" s="32">
-        <f>S43-S59</f>
+      <c r="S67" s="32">
+        <f>S46-S62</f>
         <v>1504</v>
       </c>
-      <c r="T64" s="32">
-        <f>T43-T59</f>
+      <c r="T67" s="32">
+        <f>T46-T62</f>
         <v>1652</v>
       </c>
-      <c r="U64" s="32">
-        <f>U43-U59</f>
+      <c r="U67" s="32">
+        <f>U46-U62</f>
         <v>1111</v>
       </c>
-      <c r="V64" s="32">
-        <f t="shared" ref="V64" si="63">V43-V59</f>
+      <c r="V67" s="32">
+        <f t="shared" ref="V67:W67" si="84">V46-V62</f>
         <v>1377</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
+      <c r="W67" s="32">
+        <f t="shared" si="84"/>
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C65" s="1">
-        <f t="shared" ref="C65:I65" si="64">C64/C15</f>
+      <c r="C68" s="1">
+        <f t="shared" ref="C68:I68" si="85">C67/C15</f>
         <v>1.2734806629834254</v>
       </c>
-      <c r="D65" s="23">
-        <f t="shared" si="64"/>
+      <c r="D68" s="23">
+        <f t="shared" si="85"/>
         <v>1.3848987108655617</v>
       </c>
-      <c r="E65" s="1">
-        <f t="shared" si="64"/>
+      <c r="E68" s="1">
+        <f t="shared" si="85"/>
         <v>1.489908256880734</v>
       </c>
-      <c r="F65" s="23">
-        <f t="shared" si="64"/>
+      <c r="F68" s="23">
+        <f t="shared" si="85"/>
         <v>1.5142071494042164</v>
       </c>
-      <c r="G65" s="1">
-        <f t="shared" si="64"/>
+      <c r="G68" s="1">
+        <f t="shared" si="85"/>
         <v>1.1919561243144423</v>
       </c>
-      <c r="H65" s="23">
-        <f t="shared" si="64"/>
+      <c r="H68" s="23">
+        <f t="shared" si="85"/>
         <v>1.0287037037037037</v>
       </c>
-      <c r="I65" s="1">
-        <f t="shared" si="64"/>
+      <c r="I68" s="1">
+        <f t="shared" si="85"/>
         <v>1.1769305962854351</v>
       </c>
-      <c r="J65" s="23">
-        <f t="shared" ref="J65:K65" si="65">J64/J15</f>
+      <c r="J68" s="23">
+        <f t="shared" ref="J68:K68" si="86">J67/J15</f>
         <v>3.0392156862745098E-2</v>
       </c>
-      <c r="K65" s="1">
-        <f t="shared" si="65"/>
+      <c r="K68" s="1">
+        <f t="shared" si="86"/>
         <v>1.2829076620825148</v>
       </c>
-      <c r="R65" s="1">
-        <f>R64/R15</f>
+      <c r="L68" s="23">
+        <f t="shared" ref="L68" si="87">L67/L15</f>
+        <v>1.3794117647058823</v>
+      </c>
+      <c r="M68" s="1">
+        <f t="shared" ref="M68" si="88">M67/M15</f>
+        <v>1.0708661417322836</v>
+      </c>
+      <c r="R68" s="1">
+        <f>R67/R15</f>
         <v>1.2096029547553093</v>
       </c>
-      <c r="S65" s="1">
-        <f>S64/S15</f>
+      <c r="S68" s="1">
+        <f>S67/S15</f>
         <v>1.3848987108655617</v>
       </c>
-      <c r="T65" s="1">
-        <f>T64/T15</f>
+      <c r="T68" s="1">
+        <f>T67/T15</f>
         <v>1.5142071494042164</v>
       </c>
-      <c r="U65" s="1">
-        <f>U64/U15</f>
+      <c r="U68" s="1">
+        <f>U67/U15</f>
         <v>1.0287037037037037</v>
       </c>
-      <c r="V65" s="1">
-        <f t="shared" ref="V65" si="66">V64/V15</f>
+      <c r="V68" s="1">
+        <f t="shared" ref="V68:W68" si="89">V67/V15</f>
         <v>1.35</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="G66" s="32"/>
-    </row>
-    <row r="67" spans="2:23" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="38" t="s">
+      <c r="W68" s="1">
+        <f t="shared" si="89"/>
+        <v>1.3794117647058823</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="G69" s="32"/>
+    </row>
+    <row r="70" spans="2:31" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C67" s="39">
-        <f t="shared" ref="C67:I67" si="67">C41+C34+C35</f>
+      <c r="C70" s="39">
+        <f t="shared" ref="C70:I70" si="90">C44+C37+C38</f>
         <v>354</v>
       </c>
-      <c r="D67" s="40">
-        <f t="shared" si="67"/>
+      <c r="D70" s="40">
+        <f t="shared" si="90"/>
         <v>375</v>
       </c>
-      <c r="E67" s="39">
-        <f t="shared" si="67"/>
+      <c r="E70" s="39">
+        <f t="shared" si="90"/>
         <v>915</v>
       </c>
-      <c r="F67" s="40">
-        <f t="shared" si="67"/>
+      <c r="F70" s="40">
+        <f t="shared" si="90"/>
         <v>832</v>
       </c>
-      <c r="G67" s="39">
-        <f t="shared" si="67"/>
+      <c r="G70" s="39">
+        <f t="shared" si="90"/>
         <v>713</v>
       </c>
-      <c r="H67" s="40">
-        <f t="shared" si="67"/>
+      <c r="H70" s="40">
+        <f t="shared" si="90"/>
         <v>574</v>
       </c>
-      <c r="I67" s="39">
-        <f t="shared" si="67"/>
+      <c r="I70" s="39">
+        <f t="shared" si="90"/>
         <v>519</v>
       </c>
-      <c r="J67" s="40">
-        <f t="shared" ref="J67:K67" si="68">J41+J34+J35</f>
+      <c r="J70" s="40">
+        <f t="shared" ref="J70:K70" si="91">J44+J37+J38</f>
         <v>493</v>
       </c>
-      <c r="K67" s="39">
-        <f t="shared" si="68"/>
+      <c r="K70" s="39">
+        <f t="shared" si="91"/>
         <v>581</v>
       </c>
-      <c r="L67" s="52"/>
-      <c r="R67" s="39">
-        <f>R41+R34+R35</f>
+      <c r="L70" s="40">
+        <f t="shared" ref="L70" si="92">L44+L37+L38</f>
+        <v>701</v>
+      </c>
+      <c r="M70" s="39">
+        <f t="shared" ref="M70" si="93">M44+M37+M38</f>
+        <v>467</v>
+      </c>
+      <c r="R70" s="39">
+        <f>R44+R37+R38</f>
         <v>273</v>
       </c>
-      <c r="S67" s="39">
-        <f>S41+S34+S35</f>
+      <c r="S70" s="39">
+        <f>S44+S37+S38</f>
         <v>375</v>
       </c>
-      <c r="T67" s="39">
-        <f>T41+T34+T35</f>
+      <c r="T70" s="39">
+        <f>T44+T37+T38</f>
         <v>832</v>
       </c>
-      <c r="U67" s="39">
-        <f>U41+U34+U35</f>
+      <c r="U70" s="39">
+        <f>U44+U37+U38</f>
         <v>574</v>
       </c>
-      <c r="V67" s="39">
-        <f t="shared" ref="V67" si="69">V41+V34+V35</f>
+      <c r="V70" s="39">
+        <f t="shared" ref="V70:W70" si="94">V44+V37+V38</f>
         <v>493</v>
       </c>
-      <c r="W67" s="53"/>
-    </row>
-    <row r="68" spans="2:23" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="38" t="s">
+      <c r="W70" s="39">
+        <f t="shared" si="94"/>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="39">
-        <f t="shared" ref="C68:I68" si="70">C47+C52</f>
+      <c r="C71" s="39">
+        <f t="shared" ref="C71:I71" si="95">C50+C55</f>
         <v>773</v>
       </c>
-      <c r="D68" s="40">
-        <f t="shared" si="70"/>
+      <c r="D71" s="40">
+        <f t="shared" si="95"/>
         <v>765</v>
       </c>
-      <c r="E68" s="39">
-        <f t="shared" si="70"/>
+      <c r="E71" s="39">
+        <f t="shared" si="95"/>
         <v>1150</v>
       </c>
-      <c r="F68" s="40">
-        <f t="shared" si="70"/>
+      <c r="F71" s="40">
+        <f t="shared" si="95"/>
         <v>990</v>
       </c>
-      <c r="G68" s="39">
-        <f t="shared" si="70"/>
+      <c r="G71" s="39">
+        <f t="shared" si="95"/>
         <v>807</v>
       </c>
-      <c r="H68" s="40">
-        <f t="shared" si="70"/>
+      <c r="H71" s="40">
+        <f t="shared" si="95"/>
         <v>814</v>
       </c>
-      <c r="I68" s="39">
-        <f t="shared" si="70"/>
+      <c r="I71" s="39">
+        <f t="shared" si="95"/>
         <v>1165</v>
       </c>
-      <c r="J68" s="40">
-        <f t="shared" ref="J68:K68" si="71">J47+J52</f>
+      <c r="J71" s="40">
+        <f t="shared" ref="J71:K71" si="96">J50+J55</f>
         <v>1222</v>
       </c>
-      <c r="K68" s="39">
-        <f t="shared" si="71"/>
+      <c r="K71" s="39">
+        <f t="shared" si="96"/>
         <v>1266</v>
       </c>
-      <c r="L68" s="52"/>
-      <c r="R68" s="39">
-        <f>R47+R52</f>
+      <c r="L71" s="40">
+        <f t="shared" ref="L71" si="97">L50+L55</f>
+        <v>1257</v>
+      </c>
+      <c r="M71" s="39">
+        <f t="shared" ref="M71" si="98">M50+M55</f>
+        <v>1259</v>
+      </c>
+      <c r="R71" s="39">
+        <f>R50+R55</f>
         <v>921</v>
       </c>
-      <c r="S68" s="39">
-        <f>S47+S52</f>
+      <c r="S71" s="39">
+        <f>S50+S55</f>
         <v>765</v>
       </c>
-      <c r="T68" s="39">
-        <f>T47+T52</f>
+      <c r="T71" s="39">
+        <f>T50+T55</f>
         <v>990</v>
       </c>
-      <c r="U68" s="39">
-        <f>U47+U52</f>
+      <c r="U71" s="39">
+        <f>U50+U55</f>
         <v>814</v>
       </c>
-      <c r="V68" s="39">
-        <f t="shared" ref="V68" si="72">V47+V52</f>
+      <c r="V71" s="39">
+        <f t="shared" ref="V71:W71" si="99">V50+V55</f>
         <v>1222</v>
       </c>
-      <c r="W68" s="53"/>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
+      <c r="W71" s="39">
+        <f t="shared" si="99"/>
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="32">
-        <f t="shared" ref="C69:I69" si="73">C67-C68</f>
+      <c r="C72" s="32">
+        <f t="shared" ref="C72:I72" si="100">C70-C71</f>
         <v>-419</v>
       </c>
-      <c r="D69" s="33">
-        <f t="shared" si="73"/>
+      <c r="D72" s="33">
+        <f t="shared" si="100"/>
         <v>-390</v>
       </c>
-      <c r="E69" s="32">
-        <f t="shared" si="73"/>
+      <c r="E72" s="32">
+        <f t="shared" si="100"/>
         <v>-235</v>
       </c>
-      <c r="F69" s="33">
-        <f t="shared" si="73"/>
+      <c r="F72" s="33">
+        <f t="shared" si="100"/>
         <v>-158</v>
       </c>
-      <c r="G69" s="32">
-        <f t="shared" si="73"/>
+      <c r="G72" s="32">
+        <f t="shared" si="100"/>
         <v>-94</v>
       </c>
-      <c r="H69" s="33">
-        <f t="shared" si="73"/>
+      <c r="H72" s="33">
+        <f t="shared" si="100"/>
         <v>-240</v>
       </c>
-      <c r="I69" s="32">
-        <f t="shared" si="73"/>
+      <c r="I72" s="32">
+        <f t="shared" si="100"/>
         <v>-646</v>
       </c>
-      <c r="J69" s="33">
-        <f t="shared" ref="J69:K69" si="74">J67-J68</f>
+      <c r="J72" s="33">
+        <f t="shared" ref="J72:K72" si="101">J70-J71</f>
         <v>-729</v>
       </c>
-      <c r="K69" s="32">
-        <f t="shared" si="74"/>
+      <c r="K72" s="32">
+        <f t="shared" si="101"/>
         <v>-685</v>
       </c>
-      <c r="R69" s="32">
-        <f>R67-R68</f>
+      <c r="L72" s="33">
+        <f t="shared" ref="L72" si="102">L70-L71</f>
+        <v>-556</v>
+      </c>
+      <c r="M72" s="32">
+        <f t="shared" ref="M72" si="103">M70-M71</f>
+        <v>-792</v>
+      </c>
+      <c r="R72" s="32">
+        <f>R70-R71</f>
         <v>-648</v>
       </c>
-      <c r="S69" s="32">
-        <f>S67-S68</f>
+      <c r="S72" s="32">
+        <f>S70-S71</f>
         <v>-390</v>
       </c>
-      <c r="T69" s="32">
-        <f>T67-T68</f>
+      <c r="T72" s="32">
+        <f>T70-T71</f>
         <v>-158</v>
       </c>
-      <c r="U69" s="32">
-        <f>U67-U68</f>
+      <c r="U72" s="32">
+        <f>U70-U71</f>
         <v>-240</v>
       </c>
-      <c r="V69" s="32">
-        <f t="shared" ref="V69" si="75">V67-V68</f>
+      <c r="V72" s="32">
+        <f t="shared" ref="V72:W72" si="104">V70-V71</f>
         <v>-729</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="G70" s="32"/>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
+      <c r="W72" s="32">
+        <f t="shared" si="104"/>
+        <v>-556</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="G73" s="32"/>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="R71" s="1">
+      <c r="K74" s="1">
+        <v>7.56</v>
+      </c>
+      <c r="L74" s="23">
+        <f>W74</f>
+        <v>9.7170000000000005</v>
+      </c>
+      <c r="M74" s="1">
+        <v>12.57</v>
+      </c>
+      <c r="R74" s="1">
         <v>5.3022</v>
       </c>
-      <c r="S71" s="1">
+      <c r="S74" s="1">
         <v>6.9139999999999997</v>
       </c>
-      <c r="T71" s="1">
+      <c r="T74" s="1">
         <v>7.2080000000000002</v>
       </c>
-      <c r="U71" s="1">
+      <c r="U74" s="1">
         <v>7.0960000000000001</v>
       </c>
-      <c r="V71" s="1">
+      <c r="V74" s="1">
         <v>6.9720000000000004</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
+      <c r="W74" s="1">
+        <v>9.7170000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="R72" s="47">
-        <f t="shared" ref="R72:U72" si="76">R71*R15</f>
+      <c r="K75" s="16">
+        <f t="shared" ref="K75" si="105">K74*K15</f>
+        <v>7696.08</v>
+      </c>
+      <c r="L75" s="33">
+        <f>L74*L15</f>
+        <v>9911.34</v>
+      </c>
+      <c r="M75" s="16">
+        <f t="shared" ref="M75" si="106">M74*M15</f>
+        <v>12771.12</v>
+      </c>
+      <c r="R75" s="16">
+        <f t="shared" ref="R75:U75" si="107">R74*R15</f>
         <v>5742.2826000000005</v>
       </c>
-      <c r="S72" s="47">
-        <f t="shared" si="76"/>
+      <c r="S75" s="16">
+        <f t="shared" si="107"/>
         <v>7508.6039999999994</v>
       </c>
-      <c r="T72" s="47">
-        <f t="shared" si="76"/>
+      <c r="T75" s="16">
+        <f t="shared" si="107"/>
         <v>7863.9279999999999</v>
       </c>
-      <c r="U72" s="47">
-        <f t="shared" si="76"/>
+      <c r="U75" s="16">
+        <f t="shared" si="107"/>
         <v>7663.68</v>
       </c>
-      <c r="V72" s="47">
-        <f>V71*V15</f>
+      <c r="V75" s="16">
+        <f>V74*V15</f>
         <v>7111.4400000000005</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
+      <c r="W75" s="16">
+        <f>W74*W15</f>
+        <v>9911.34</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R73" s="32">
-        <f t="shared" ref="R73:U73" si="77">R72-R69</f>
+      <c r="K76" s="32">
+        <f t="shared" ref="K76" si="108">K75-K72</f>
+        <v>8381.08</v>
+      </c>
+      <c r="L76" s="33">
+        <f>L75-L72</f>
+        <v>10467.34</v>
+      </c>
+      <c r="M76" s="32">
+        <f t="shared" ref="M76" si="109">M75-M72</f>
+        <v>13563.12</v>
+      </c>
+      <c r="R76" s="32">
+        <f t="shared" ref="R76:U76" si="110">R75-R72</f>
         <v>6390.2826000000005</v>
       </c>
-      <c r="S73" s="32">
-        <f t="shared" si="77"/>
+      <c r="S76" s="32">
+        <f t="shared" si="110"/>
         <v>7898.6039999999994</v>
       </c>
-      <c r="T73" s="32">
-        <f t="shared" si="77"/>
+      <c r="T76" s="32">
+        <f t="shared" si="110"/>
         <v>8021.9279999999999</v>
       </c>
-      <c r="U73" s="32">
-        <f t="shared" si="77"/>
+      <c r="U76" s="32">
+        <f t="shared" si="110"/>
         <v>7903.68</v>
       </c>
-      <c r="V73" s="32">
-        <f>V72-V69</f>
+      <c r="V76" s="32">
+        <f>V75-V72</f>
         <v>7840.4400000000005</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
+      <c r="W76" s="32">
+        <f>W75-W72</f>
+        <v>10467.34</v>
+      </c>
+    </row>
+    <row r="78" spans="2:31" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="R75" s="48">
-        <f t="shared" ref="R75:U75" si="78">R71/R65</f>
+      <c r="D78" s="93"/>
+      <c r="F78" s="93"/>
+      <c r="H78" s="93"/>
+      <c r="J78" s="93"/>
+      <c r="K78" s="47">
+        <f>K74/K68</f>
+        <v>5.8928637059724345</v>
+      </c>
+      <c r="L78" s="93">
+        <f>L74/L68</f>
+        <v>7.0443070362473348</v>
+      </c>
+      <c r="M78" s="47">
+        <f>M74/M68</f>
+        <v>11.738161764705881</v>
+      </c>
+      <c r="R78" s="47">
+        <f t="shared" ref="R78:U78" si="111">R74/R68</f>
         <v>4.3834218320610692</v>
       </c>
-      <c r="S75" s="48">
-        <f t="shared" si="78"/>
+      <c r="S78" s="47">
+        <f t="shared" si="111"/>
         <v>4.9924228723404251</v>
       </c>
-      <c r="T75" s="48">
-        <f t="shared" si="78"/>
+      <c r="T78" s="47">
+        <f t="shared" si="111"/>
         <v>4.760246973365617</v>
       </c>
-      <c r="U75" s="48">
-        <f t="shared" si="78"/>
+      <c r="U78" s="47">
+        <f t="shared" si="111"/>
         <v>6.8980018001800181</v>
       </c>
-      <c r="V75" s="48">
-        <f>V71/V65</f>
+      <c r="V78" s="47">
+        <f>V74/V68</f>
         <v>5.1644444444444444</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
+      <c r="W78" s="47">
+        <f>W74/W68</f>
+        <v>7.0443070362473348</v>
+      </c>
+      <c r="X78" s="94"/>
+      <c r="Y78" s="94"/>
+      <c r="Z78" s="94"/>
+      <c r="AA78" s="94"/>
+      <c r="AB78" s="94"/>
+      <c r="AC78" s="94"/>
+      <c r="AD78" s="94"/>
+      <c r="AE78" s="94"/>
+    </row>
+    <row r="79" spans="2:31" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="R76" s="48">
-        <f t="shared" ref="R76:U76" si="79">R72/R4</f>
+      <c r="D79" s="93"/>
+      <c r="F79" s="93"/>
+      <c r="H79" s="93"/>
+      <c r="J79" s="93"/>
+      <c r="K79" s="47">
+        <f>K75/SUM(J4:K4)</f>
+        <v>3.6648000000000001</v>
+      </c>
+      <c r="L79" s="93">
+        <f>L75/SUM(K4:L4)</f>
+        <v>4.538159340659341</v>
+      </c>
+      <c r="M79" s="47">
+        <f>M75/SUM(L4:M4)</f>
+        <v>5.6785771453979548</v>
+      </c>
+      <c r="R79" s="47">
+        <f t="shared" ref="R79:U79" si="112">R75/R4</f>
         <v>3.1106622968580719</v>
       </c>
-      <c r="S76" s="48">
-        <f t="shared" si="79"/>
+      <c r="S79" s="47">
+        <f t="shared" si="112"/>
         <v>3.878411157024793</v>
       </c>
-      <c r="T76" s="48">
-        <f t="shared" si="79"/>
+      <c r="T79" s="47">
+        <f t="shared" si="112"/>
         <v>4.1323846558066206</v>
       </c>
-      <c r="U76" s="48">
-        <f t="shared" si="79"/>
+      <c r="U79" s="47">
+        <f t="shared" si="112"/>
         <v>4.1515059588299028</v>
       </c>
-      <c r="V76" s="48">
-        <f>V72/V4</f>
+      <c r="V79" s="47">
+        <f>V75/V4</f>
         <v>3.6525115562403703</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
+      <c r="W79" s="47">
+        <f>W75/W4</f>
+        <v>4.538159340659341</v>
+      </c>
+      <c r="X79" s="94"/>
+      <c r="Y79" s="94"/>
+      <c r="Z79" s="94"/>
+      <c r="AA79" s="94"/>
+      <c r="AB79" s="94"/>
+      <c r="AC79" s="94"/>
+      <c r="AD79" s="94"/>
+      <c r="AE79" s="94"/>
+    </row>
+    <row r="80" spans="2:31" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="R77" s="48">
-        <f t="shared" ref="R77:U77" si="80">R73/R4</f>
+      <c r="D80" s="93"/>
+      <c r="F80" s="93"/>
+      <c r="H80" s="93"/>
+      <c r="J80" s="93"/>
+      <c r="K80" s="47">
+        <f>K76/SUM(J4:K4)</f>
+        <v>3.990990476190476</v>
+      </c>
+      <c r="L80" s="93">
+        <f>L76/SUM(K4:L4)</f>
+        <v>4.7927380952380956</v>
+      </c>
+      <c r="M80" s="47">
+        <f>M76/SUM(L4:M4)</f>
+        <v>6.0307336594041798</v>
+      </c>
+      <c r="R80" s="47">
+        <f t="shared" ref="R80:U80" si="113">R76/R4</f>
         <v>3.4616915492957747</v>
       </c>
-      <c r="S77" s="48">
-        <f t="shared" si="80"/>
+      <c r="S80" s="47">
+        <f t="shared" si="113"/>
         <v>4.0798574380165284</v>
       </c>
-      <c r="T77" s="48">
-        <f t="shared" si="80"/>
+      <c r="T80" s="47">
+        <f t="shared" si="113"/>
         <v>4.2154114555964268</v>
       </c>
-      <c r="U77" s="48">
-        <f t="shared" si="80"/>
+      <c r="U80" s="47">
+        <f t="shared" si="113"/>
         <v>4.2815167930660891</v>
       </c>
-      <c r="V77" s="48">
-        <f>V73/V4</f>
+      <c r="V80" s="47">
+        <f>V76/V4</f>
         <v>4.0269337442218802</v>
       </c>
-    </row>
-    <row r="78" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
+      <c r="W80" s="47">
+        <f>W76/W4</f>
+        <v>4.7927380952380956</v>
+      </c>
+      <c r="X80" s="94"/>
+      <c r="Y80" s="94"/>
+      <c r="Z80" s="94"/>
+      <c r="AA80" s="94"/>
+      <c r="AB80" s="94"/>
+      <c r="AC80" s="94"/>
+      <c r="AD80" s="94"/>
+      <c r="AE80" s="94"/>
+    </row>
+    <row r="81" spans="2:31" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="R78" s="48">
-        <f t="shared" ref="R78:U78" si="81">R71/R14</f>
+      <c r="D81" s="93"/>
+      <c r="F81" s="93"/>
+      <c r="H81" s="93"/>
+      <c r="J81" s="93"/>
+      <c r="K81" s="47">
+        <f>K74/SUM(J14:K14)</f>
+        <v>38.137165510406341</v>
+      </c>
+      <c r="L81" s="93">
+        <f>L74/SUM(K14:L14)</f>
+        <v>30.10767457821331</v>
+      </c>
+      <c r="M81" s="47">
+        <f>M74/SUM(L14:M14)</f>
+        <v>33.249296551160839</v>
+      </c>
+      <c r="R81" s="47">
+        <f t="shared" ref="R81:U81" si="114">R74/R14</f>
         <v>19.465364745762713</v>
       </c>
-      <c r="S78" s="48">
-        <f t="shared" si="81"/>
+      <c r="S81" s="47">
+        <f t="shared" si="114"/>
         <v>28.227834586466162</v>
       </c>
-      <c r="T78" s="48">
-        <f t="shared" si="81"/>
+      <c r="T81" s="47">
+        <f t="shared" si="114"/>
         <v>25.367509677419356</v>
       </c>
-      <c r="U78" s="48">
-        <f t="shared" si="81"/>
+      <c r="U81" s="47">
+        <f t="shared" si="114"/>
         <v>26.890105263157896</v>
       </c>
-      <c r="V78" s="48">
-        <f>V71/V14</f>
+      <c r="V81" s="47">
+        <f>V74/V14</f>
         <v>27.997795275590551</v>
+      </c>
+      <c r="W81" s="47">
+        <f>W74/W14</f>
+        <v>30.12565349544073</v>
+      </c>
+      <c r="X81" s="94"/>
+      <c r="Y81" s="94"/>
+      <c r="Z81" s="94"/>
+      <c r="AA81" s="94"/>
+      <c r="AB81" s="94"/>
+      <c r="AC81" s="94"/>
+      <c r="AD81" s="94"/>
+      <c r="AE81" s="94"/>
+    </row>
+    <row r="84" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B84" s="34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V85" s="1">
+        <v>285</v>
+      </c>
+      <c r="W85" s="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="86" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V86" s="1">
+        <f>40+12-10</f>
+        <v>42</v>
+      </c>
+      <c r="W86" s="1">
+        <f>17+5</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V87" s="1">
+        <f>V85-V86</f>
+        <v>243</v>
+      </c>
+      <c r="W87" s="1">
+        <f>W85-W86</f>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -6201,12 +7171,15 @@
     <hyperlink ref="S1" r:id="rId4" xr:uid="{621E12A8-EF21-434E-ABD4-566CA080C868}"/>
     <hyperlink ref="V1" r:id="rId5" xr:uid="{868025EF-C9E4-3A47-BE7A-AE4B223C1AF9}"/>
     <hyperlink ref="K1" r:id="rId6" xr:uid="{EAE8E190-3EE7-45DA-93BE-DF62CC9877E2}"/>
+    <hyperlink ref="M1" r:id="rId7" xr:uid="{CF6FF048-1BEC-49D5-995D-CD189447E5D2}"/>
+    <hyperlink ref="W1" r:id="rId8" xr:uid="{595D9CB4-21C2-46F0-A481-B81120B90342}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId7"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
   <ignoredErrors>
-    <ignoredError sqref="H6:H8 H11 F6:F8 F11 F13 D6:D8 D11 J6:J11 F38:F57 J33:J43 J51 W6:AE8" formula="1"/>
+    <ignoredError sqref="H6:H8 H11 F6:F8 F11 F13 D6:D8 D11 J6:J11 F41:F60 J36:J46 J54 X6:AE8 L6:L16 L41:L44 L54:L62" formula="1"/>
+    <ignoredError sqref="X9:X10" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/£SGE.xlsx
+++ b/£SGE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242C4363-6864-426F-8244-57B80CCE66EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDBD4D4-1575-4A27-8598-708D2BEC3335}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
+    <workbookView xWindow="945" yWindow="570" windowWidth="27165" windowHeight="14100" activeTab="1" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="137">
   <si>
     <t>£SGE</t>
   </si>
@@ -428,6 +428,15 @@
   </si>
   <si>
     <t>H224</t>
+  </si>
+  <si>
+    <t>North America Y/Y</t>
+  </si>
+  <si>
+    <t>Northern Europe Y/Y</t>
+  </si>
+  <si>
+    <t>International Y/Y</t>
   </si>
 </sst>
 </file>
@@ -439,7 +448,7 @@
     <numFmt numFmtId="165" formatCode="0.0\x"/>
     <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +553,12 @@
       <i/>
       <sz val="10"/>
       <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -679,7 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -812,18 +827,22 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -848,6 +867,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -857,8 +885,8 @@
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1004,7 +1032,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1054,7 +1082,7 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1396,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB50BB21-6927-4998-A7CD-B755108AED34}">
   <dimension ref="A2:X36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1410,14 +1438,14 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1425,37 +1453,37 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="83"/>
-      <c r="H5" s="81" t="s">
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="H5" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="83"/>
-      <c r="T5" s="81" t="s">
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="100"/>
+      <c r="T5" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="83"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
+      <c r="X5" s="100"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="46">
-        <v>9.8859999999999992</v>
+        <v>10.64</v>
       </c>
       <c r="D6" s="14"/>
       <c r="H6" s="12"/>
@@ -1514,7 +1542,7 @@
       </c>
       <c r="C8" s="16">
         <f>C6*C7</f>
-        <v>10044.175999999999</v>
+        <v>10810.24</v>
       </c>
       <c r="D8" s="14"/>
       <c r="H8" s="12"/>
@@ -1538,7 +1566,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="16">
-        <f>'Financial Model'!M73</f>
+        <f>'Financial Model'!M76</f>
         <v>467</v>
       </c>
       <c r="D9" s="14" t="str">
@@ -1570,7 +1598,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="16">
-        <f>'Financial Model'!M74</f>
+        <f>'Financial Model'!M77</f>
         <v>1259</v>
       </c>
       <c r="D10" s="14" t="str">
@@ -1627,7 +1655,7 @@
       </c>
       <c r="C12" s="17">
         <f>C8-C11</f>
-        <v>10836.175999999999</v>
+        <v>11602.24</v>
       </c>
       <c r="D12" s="15"/>
       <c r="H12" s="12"/>
@@ -1676,11 +1704,11 @@
       <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="83"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
       <c r="H15" s="12"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1699,10 +1727,10 @@
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="89"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1724,10 +1752,10 @@
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="89"/>
+      <c r="D17" s="95"/>
       <c r="H17" s="12"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1743,10 +1771,10 @@
       <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="89"/>
+      <c r="D18" s="95"/>
       <c r="H18" s="12"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1762,10 +1790,10 @@
       <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="91"/>
+      <c r="D19" s="97"/>
       <c r="H19" s="12"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1802,11 +1830,11 @@
       <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="82"/>
-      <c r="D22" s="83"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100"/>
       <c r="H22" s="12"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1822,10 +1850,10 @@
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="89"/>
+      <c r="D23" s="95"/>
       <c r="H23" s="12"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1841,10 +1869,10 @@
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="88">
+      <c r="C24" s="94">
         <v>1981</v>
       </c>
-      <c r="D24" s="89"/>
+      <c r="D24" s="95"/>
       <c r="H24" s="12"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1860,10 +1888,10 @@
       <c r="B25" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="88">
+      <c r="C25" s="94">
         <v>1989</v>
       </c>
-      <c r="D25" s="89"/>
+      <c r="D25" s="95"/>
       <c r="H25" s="12"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1879,11 +1907,11 @@
       <c r="B26" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="94">
-        <f>+'Financial Model'!W30</f>
+      <c r="C26" s="103">
+        <f>+'Financial Model'!W33</f>
         <v>11565</v>
       </c>
-      <c r="D26" s="89"/>
+      <c r="D26" s="95"/>
       <c r="H26" s="12"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -1921,10 +1949,10 @@
       <c r="B28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="93"/>
+      <c r="D28" s="102"/>
       <c r="H28" s="12"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -1961,11 +1989,11 @@
       <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="82"/>
-      <c r="D31" s="83"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="100"/>
       <c r="H31" s="12"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -1981,11 +2009,11 @@
       <c r="B32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="84">
+      <c r="C32" s="90">
         <f>C6/SUM('Financial Model'!L17:M17)</f>
-        <v>26.149764972535884</v>
-      </c>
-      <c r="D32" s="85"/>
+        <v>28.144193739407427</v>
+      </c>
+      <c r="D32" s="91"/>
       <c r="H32" s="12"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -2001,11 +2029,11 @@
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="84">
+      <c r="C33" s="90">
         <f>C8/SUM('Financial Model'!L7:M7)</f>
-        <v>4.4660631391729657</v>
-      </c>
-      <c r="D33" s="85"/>
+        <v>4.8066874166296127</v>
+      </c>
+      <c r="D33" s="91"/>
       <c r="H33" s="12"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -2021,11 +2049,11 @@
       <c r="B34" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="84">
-        <f>C6/'Financial Model'!M71</f>
-        <v>9.2317794117647036</v>
-      </c>
-      <c r="D34" s="85"/>
+      <c r="C34" s="90">
+        <f>C6/'Financial Model'!M74</f>
+        <v>9.9358823529411762</v>
+      </c>
+      <c r="D34" s="91"/>
       <c r="H34" s="13"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -2041,24 +2069,31 @@
       <c r="B35" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="84">
+      <c r="C35" s="90">
         <f>C12/SUM('Financial Model'!L7:M7)</f>
-        <v>4.8182196531791908</v>
-      </c>
-      <c r="D35" s="85"/>
+        <v>5.1588439306358378</v>
+      </c>
+      <c r="D35" s="91"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="86">
+      <c r="C36" s="92">
         <f>C12/SUM('Financial Model'!L16:M16)</f>
-        <v>28.145911688311688</v>
-      </c>
-      <c r="D36" s="87"/>
+        <v>30.135688311688313</v>
+      </c>
+      <c r="D36" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C33:D33"/>
@@ -2073,13 +2108,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28:D28" r:id="rId1" display="Link" xr:uid="{E398FABE-A8E2-41B0-BEEF-891546DA9EBE}"/>
@@ -2092,13 +2120,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBB68F3-0B4D-4779-B224-181DBEE6F8C1}">
-  <dimension ref="B1:BZ93"/>
+  <dimension ref="B1:BZ96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="R26" sqref="R26:R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2319,7 +2347,7 @@
       <c r="AE3" s="54"/>
     </row>
     <row r="4" spans="2:78" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="80" t="s">
         <v>120</v>
       </c>
       <c r="D4" s="40"/>
@@ -2365,7 +2393,7 @@
       <c r="AE4" s="39"/>
     </row>
     <row r="5" spans="2:78" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="80" t="s">
         <v>129</v>
       </c>
       <c r="D5" s="40"/>
@@ -2411,7 +2439,7 @@
       <c r="AE5" s="39"/>
     </row>
     <row r="6" spans="2:78" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="80" t="s">
         <v>130</v>
       </c>
       <c r="D6" s="40"/>
@@ -2501,9 +2529,10 @@
         <v>1152</v>
       </c>
       <c r="N7" s="35">
-        <f>M7*(1+N26)</f>
+        <f>M7*(1+N29)</f>
         <v>1209.6000000000001</v>
       </c>
+      <c r="O7" s="35"/>
       <c r="R7" s="35">
         <v>1846</v>
       </c>
@@ -2527,32 +2556,32 @@
         <v>2361.6000000000004</v>
       </c>
       <c r="Y7" s="55">
-        <f>X7*(1+Y25)</f>
-        <v>2456.0640000000003</v>
+        <f t="shared" ref="Y7:AE7" si="0">X7*(1+Y25)</f>
+        <v>2479.6800000000003</v>
       </c>
       <c r="Z7" s="55">
-        <f>Y7*(1+Z25)</f>
-        <v>2529.7459200000003</v>
+        <f t="shared" si="0"/>
+        <v>2603.6640000000002</v>
       </c>
       <c r="AA7" s="55">
-        <f>Z7*(1+AA25)</f>
-        <v>2580.3408384000004</v>
+        <f t="shared" si="0"/>
+        <v>2733.8472000000002</v>
       </c>
       <c r="AB7" s="55">
-        <f>AA7*(1+AB25)</f>
-        <v>2631.9476551680004</v>
+        <f t="shared" si="0"/>
+        <v>2843.2010880000003</v>
       </c>
       <c r="AC7" s="55">
-        <f>AB7*(1+AC25)</f>
-        <v>2684.5866082713605</v>
+        <f t="shared" si="0"/>
+        <v>2928.4971206400005</v>
       </c>
       <c r="AD7" s="55">
-        <f>AC7*(1+AD25)</f>
-        <v>2738.2783404367879</v>
+        <f t="shared" si="0"/>
+        <v>2987.0670630528007</v>
       </c>
       <c r="AE7" s="55">
-        <f>AD7*(1+AE25)</f>
-        <v>2793.0439072455238</v>
+        <f t="shared" si="0"/>
+        <v>3016.9377336833286</v>
       </c>
     </row>
     <row r="8" spans="2:78" x14ac:dyDescent="0.2">
@@ -2617,36 +2646,36 @@
         <v>156</v>
       </c>
       <c r="X8" s="39">
-        <f>X7-X9</f>
+        <f t="shared" ref="X8:AE8" si="1">X7-X9</f>
         <v>165.3119999999999</v>
       </c>
       <c r="Y8" s="39">
-        <f>Y7-Y9</f>
-        <v>171.92447999999968</v>
+        <f t="shared" si="1"/>
+        <v>173.57760000000007</v>
       </c>
       <c r="Z8" s="39">
-        <f>Z7-Z9</f>
-        <v>177.08221439999988</v>
+        <f t="shared" si="1"/>
+        <v>182.25648000000001</v>
       </c>
       <c r="AA8" s="39">
-        <f>AA7-AA9</f>
-        <v>180.62385868799993</v>
+        <f t="shared" si="1"/>
+        <v>191.36930399999983</v>
       </c>
       <c r="AB8" s="39">
-        <f>AB7-AB9</f>
-        <v>184.23633586175993</v>
+        <f t="shared" si="1"/>
+        <v>199.02407615999982</v>
       </c>
       <c r="AC8" s="39">
-        <f>AC7-AC9</f>
-        <v>187.92106257899513</v>
+        <f t="shared" si="1"/>
+        <v>204.99479844479993</v>
       </c>
       <c r="AD8" s="39">
-        <f>AD7-AD9</f>
-        <v>191.67948383057501</v>
+        <f t="shared" si="1"/>
+        <v>209.09469441369583</v>
       </c>
       <c r="AE8" s="39">
-        <f>AE7-AE9</f>
-        <v>195.51307350718662</v>
+        <f t="shared" si="1"/>
+        <v>211.18564135783299</v>
       </c>
     </row>
     <row r="9" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2654,105 +2683,105 @@
         <v>41</v>
       </c>
       <c r="C9" s="2">
-        <f>C7-C8</f>
+        <f t="shared" ref="C9:M9" si="2">C7-C8</f>
         <v>887</v>
       </c>
       <c r="D9" s="36">
-        <f>D7-D8</f>
+        <f t="shared" si="2"/>
         <v>911</v>
       </c>
       <c r="E9" s="2">
-        <f>E7-E8</f>
+        <f t="shared" si="2"/>
         <v>911</v>
       </c>
       <c r="F9" s="36">
-        <f>F7-F8</f>
+        <f t="shared" si="2"/>
         <v>866</v>
       </c>
       <c r="G9" s="2">
-        <f>G7-G8</f>
+        <f t="shared" si="2"/>
         <v>865</v>
       </c>
       <c r="H9" s="36">
-        <f>H7-H8</f>
+        <f t="shared" si="2"/>
         <v>850</v>
       </c>
       <c r="I9" s="2">
-        <f>I7-I8</f>
+        <f t="shared" si="2"/>
         <v>866</v>
       </c>
       <c r="J9" s="36">
-        <f>J7-J8</f>
+        <f t="shared" si="2"/>
         <v>943</v>
       </c>
       <c r="K9" s="35">
-        <f>K7-K8</f>
+        <f t="shared" si="2"/>
         <v>1011</v>
       </c>
       <c r="L9" s="36">
-        <f>L7-L8</f>
+        <f t="shared" si="2"/>
         <v>1017</v>
       </c>
       <c r="M9" s="35">
-        <f>M7-M8</f>
+        <f t="shared" si="2"/>
         <v>1070</v>
       </c>
       <c r="N9" s="35"/>
       <c r="R9" s="35">
-        <f>R7-R8</f>
+        <f t="shared" ref="R9:W9" si="3">R7-R8</f>
         <v>1716</v>
       </c>
       <c r="S9" s="35">
-        <f>S7-S8</f>
+        <f t="shared" si="3"/>
         <v>1798</v>
       </c>
       <c r="T9" s="35">
-        <f>T7-T8</f>
+        <f t="shared" si="3"/>
         <v>1777</v>
       </c>
       <c r="U9" s="35">
-        <f>U7-U8</f>
+        <f t="shared" si="3"/>
         <v>1715</v>
       </c>
       <c r="V9" s="35">
-        <f>V7-V8</f>
+        <f t="shared" si="3"/>
         <v>1809</v>
       </c>
       <c r="W9" s="35">
-        <f>W7-W8</f>
+        <f t="shared" si="3"/>
         <v>2028</v>
       </c>
       <c r="X9" s="55">
-        <f>X7*X20</f>
+        <f t="shared" ref="X9:AE9" si="4">X7*X20</f>
         <v>2196.2880000000005</v>
       </c>
       <c r="Y9" s="55">
-        <f>Y7*Y20</f>
-        <v>2284.1395200000006</v>
+        <f t="shared" si="4"/>
+        <v>2306.1024000000002</v>
       </c>
       <c r="Z9" s="55">
-        <f>Z7*Z20</f>
-        <v>2352.6637056000004</v>
+        <f t="shared" si="4"/>
+        <v>2421.4075200000002</v>
       </c>
       <c r="AA9" s="55">
-        <f>AA7*AA20</f>
-        <v>2399.7169797120005</v>
+        <f t="shared" si="4"/>
+        <v>2542.4778960000003</v>
       </c>
       <c r="AB9" s="55">
-        <f>AB7*AB20</f>
-        <v>2447.7113193062405</v>
+        <f t="shared" si="4"/>
+        <v>2644.1770118400004</v>
       </c>
       <c r="AC9" s="55">
-        <f>AC7*AC20</f>
-        <v>2496.6655456923654</v>
+        <f t="shared" si="4"/>
+        <v>2723.5023221952006</v>
       </c>
       <c r="AD9" s="55">
-        <f>AD7*AD20</f>
-        <v>2546.5988566062128</v>
+        <f t="shared" si="4"/>
+        <v>2777.9723686391048</v>
       </c>
       <c r="AE9" s="55">
-        <f>AE7*AE20</f>
-        <v>2597.5308337383372</v>
+        <f t="shared" si="4"/>
+        <v>2805.7520923254956</v>
       </c>
     </row>
     <row r="10" spans="2:78" x14ac:dyDescent="0.2">
@@ -2817,36 +2846,36 @@
         <v>1572</v>
       </c>
       <c r="X10" s="39">
-        <f t="shared" ref="X10:AE10" si="0">X9-X11</f>
+        <f t="shared" ref="X10:AE10" si="5">X9-X11</f>
         <v>1723.9680000000003</v>
       </c>
       <c r="Y10" s="39">
-        <f t="shared" si="0"/>
-        <v>1792.9267200000006</v>
+        <f t="shared" si="5"/>
+        <v>1810.1664000000001</v>
       </c>
       <c r="Z10" s="39">
-        <f t="shared" si="0"/>
-        <v>1846.7145216000004</v>
+        <f t="shared" si="5"/>
+        <v>1900.67472</v>
       </c>
       <c r="AA10" s="39">
-        <f t="shared" si="0"/>
-        <v>1883.6488120320005</v>
+        <f t="shared" si="5"/>
+        <v>1995.7084560000003</v>
       </c>
       <c r="AB10" s="39">
-        <f t="shared" si="0"/>
-        <v>1921.3217882726403</v>
+        <f t="shared" si="5"/>
+        <v>2075.5367942400003</v>
       </c>
       <c r="AC10" s="39">
-        <f t="shared" si="0"/>
-        <v>1959.7482240380932</v>
+        <f t="shared" si="5"/>
+        <v>2137.8028980672007</v>
       </c>
       <c r="AD10" s="39">
-        <f t="shared" si="0"/>
-        <v>1998.9431885188551</v>
+        <f t="shared" si="5"/>
+        <v>2180.5589560285448</v>
       </c>
       <c r="AE10" s="39">
-        <f t="shared" si="0"/>
-        <v>2038.9220522892324</v>
+        <f t="shared" si="5"/>
+        <v>2202.36454558883</v>
       </c>
     </row>
     <row r="11" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2854,47 +2883,47 @@
         <v>43</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ref="C11:L11" si="1">C9-C10</f>
+        <f t="shared" ref="C11:L11" si="6">C9-C10</f>
         <v>210</v>
       </c>
       <c r="D11" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>172</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>289</v>
       </c>
       <c r="F11" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>115</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>203</v>
       </c>
       <c r="H11" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>204</v>
       </c>
       <c r="J11" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>163</v>
       </c>
       <c r="K11" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>157</v>
       </c>
       <c r="L11" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>299</v>
       </c>
       <c r="M11" s="35">
-        <f t="shared" ref="M11" si="2">M9-M10</f>
+        <f t="shared" ref="M11" si="7">M9-M10</f>
         <v>215</v>
       </c>
       <c r="N11" s="35"/>
@@ -2919,40 +2948,40 @@
         <v>367</v>
       </c>
       <c r="W11" s="35">
-        <f t="shared" ref="W11" si="3">W9-W10</f>
+        <f t="shared" ref="W11" si="8">W9-W10</f>
         <v>456</v>
       </c>
       <c r="X11" s="55">
-        <f>X7*X21</f>
+        <f t="shared" ref="X11:AE11" si="9">X7*X21</f>
         <v>472.32000000000011</v>
       </c>
       <c r="Y11" s="55">
-        <f>Y7*Y21</f>
-        <v>491.21280000000007</v>
+        <f t="shared" si="9"/>
+        <v>495.93600000000009</v>
       </c>
       <c r="Z11" s="55">
-        <f>Z7*Z21</f>
-        <v>505.94918400000006</v>
+        <f t="shared" si="9"/>
+        <v>520.73280000000011</v>
       </c>
       <c r="AA11" s="55">
-        <f>AA7*AA21</f>
-        <v>516.0681676800001</v>
+        <f t="shared" si="9"/>
+        <v>546.76944000000003</v>
       </c>
       <c r="AB11" s="55">
-        <f>AB7*AB21</f>
-        <v>526.38953103360006</v>
+        <f t="shared" si="9"/>
+        <v>568.64021760000003</v>
       </c>
       <c r="AC11" s="55">
-        <f>AC7*AC21</f>
-        <v>536.91732165427209</v>
+        <f t="shared" si="9"/>
+        <v>585.69942412800015</v>
       </c>
       <c r="AD11" s="55">
-        <f>AD7*AD21</f>
-        <v>547.65566808735764</v>
+        <f t="shared" si="9"/>
+        <v>597.41341261056016</v>
       </c>
       <c r="AE11" s="55">
-        <f>AE7*AE21</f>
-        <v>558.60878144910475</v>
+        <f t="shared" si="9"/>
+        <v>603.38754673666574</v>
       </c>
     </row>
     <row r="12" spans="2:78" x14ac:dyDescent="0.2">
@@ -2984,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="33">
-        <f t="shared" ref="J12:J13" si="4">V12-I12</f>
+        <f t="shared" ref="J12:J13" si="10">V12-I12</f>
         <v>1</v>
       </c>
       <c r="K12" s="32">
@@ -3017,35 +3046,35 @@
         <v>12</v>
       </c>
       <c r="X12" s="39">
-        <f t="shared" ref="X12:AE12" si="5">AVERAGE(S12:W12)</f>
+        <f t="shared" ref="X12:AE12" si="11">AVERAGE(S12:W12)</f>
         <v>5</v>
       </c>
       <c r="Y12" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.4000000000000004</v>
       </c>
       <c r="Z12" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>4.68</v>
       </c>
       <c r="AA12" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5.4159999999999995</v>
       </c>
       <c r="AB12" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6.2991999999999999</v>
       </c>
       <c r="AC12" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5.1590399999999992</v>
       </c>
       <c r="AD12" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5.1908479999999999</v>
       </c>
       <c r="AE12" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5.3490175999999998</v>
       </c>
     </row>
@@ -3078,7 +3107,7 @@
         <v>15</v>
       </c>
       <c r="J13" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="K13" s="32">
@@ -3111,35 +3140,35 @@
         <v>44</v>
       </c>
       <c r="X13" s="39">
-        <f t="shared" ref="X13" si="6">AVERAGE(S13:W13)</f>
+        <f t="shared" ref="X13" si="12">AVERAGE(S13:W13)</f>
         <v>33</v>
       </c>
       <c r="Y13" s="39">
-        <f t="shared" ref="Y13" si="7">AVERAGE(T13:X13)</f>
+        <f t="shared" ref="Y13" si="13">AVERAGE(T13:X13)</f>
         <v>33.799999999999997</v>
       </c>
       <c r="Z13" s="39">
-        <f t="shared" ref="Z13" si="8">AVERAGE(U13:Y13)</f>
+        <f t="shared" ref="Z13" si="14">AVERAGE(U13:Y13)</f>
         <v>33.760000000000005</v>
       </c>
       <c r="AA13" s="39">
-        <f t="shared" ref="AA13" si="9">AVERAGE(V13:Z13)</f>
+        <f t="shared" ref="AA13" si="15">AVERAGE(V13:Z13)</f>
         <v>35.112000000000002</v>
       </c>
       <c r="AB13" s="39">
-        <f t="shared" ref="AB13" si="10">AVERAGE(W13:AA13)</f>
+        <f t="shared" ref="AB13" si="16">AVERAGE(W13:AA13)</f>
         <v>35.934399999999997</v>
       </c>
       <c r="AC13" s="39">
-        <f t="shared" ref="AC13" si="11">AVERAGE(X13:AB13)</f>
+        <f t="shared" ref="AC13" si="17">AVERAGE(X13:AB13)</f>
         <v>34.321280000000002</v>
       </c>
       <c r="AD13" s="39">
-        <f t="shared" ref="AD13" si="12">AVERAGE(Y13:AC13)</f>
+        <f t="shared" ref="AD13" si="18">AVERAGE(Y13:AC13)</f>
         <v>34.585536000000005</v>
       </c>
       <c r="AE13" s="39">
-        <f t="shared" ref="AE13" si="13">AVERAGE(Z13:AD13)</f>
+        <f t="shared" ref="AE13" si="19">AVERAGE(Z13:AD13)</f>
         <v>34.742643199999996</v>
       </c>
     </row>
@@ -3148,105 +3177,105 @@
         <v>46</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ref="C14:L14" si="14">C11+C12-C13</f>
+        <f t="shared" ref="C14:L14" si="20">C11+C12-C13</f>
         <v>198</v>
       </c>
       <c r="D14" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>163</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>275</v>
       </c>
       <c r="F14" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>98</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>190</v>
       </c>
       <c r="H14" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>157</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>189</v>
       </c>
       <c r="J14" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>148</v>
       </c>
       <c r="K14" s="32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>139</v>
       </c>
       <c r="L14" s="33">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>285</v>
       </c>
       <c r="M14" s="32">
-        <f t="shared" ref="M14" si="15">M11+M12-M13</f>
+        <f t="shared" ref="M14" si="21">M11+M12-M13</f>
         <v>203</v>
       </c>
       <c r="N14" s="32"/>
       <c r="R14" s="32">
-        <f t="shared" ref="R14:X14" si="16">R11+R12-R13</f>
+        <f t="shared" ref="R14:X14" si="22">R11+R12-R13</f>
         <v>398</v>
       </c>
       <c r="S14" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>361</v>
       </c>
       <c r="T14" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>373</v>
       </c>
       <c r="U14" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>347</v>
       </c>
       <c r="V14" s="32">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>337</v>
       </c>
       <c r="W14" s="32">
-        <f t="shared" ref="W14" si="17">W11+W12-W13</f>
+        <f t="shared" ref="W14" si="23">W11+W12-W13</f>
         <v>424</v>
       </c>
       <c r="X14" s="39">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>444.32000000000011</v>
       </c>
       <c r="Y14" s="39">
-        <f t="shared" ref="Y14:AE14" si="18">Y11+Y12-Y13</f>
-        <v>461.81280000000004</v>
+        <f t="shared" ref="Y14:AE14" si="24">Y11+Y12-Y13</f>
+        <v>466.53600000000006</v>
       </c>
       <c r="Z14" s="39">
-        <f t="shared" si="18"/>
-        <v>476.86918400000008</v>
+        <f t="shared" si="24"/>
+        <v>491.65280000000007</v>
       </c>
       <c r="AA14" s="39">
-        <f t="shared" si="18"/>
-        <v>486.37216768000013</v>
+        <f t="shared" si="24"/>
+        <v>517.07344000000012</v>
       </c>
       <c r="AB14" s="39">
-        <f t="shared" si="18"/>
-        <v>496.75433103360012</v>
+        <f t="shared" si="24"/>
+        <v>539.00501760000009</v>
       </c>
       <c r="AC14" s="39">
-        <f t="shared" si="18"/>
-        <v>507.75508165427209</v>
+        <f t="shared" si="24"/>
+        <v>556.53718412800015</v>
       </c>
       <c r="AD14" s="39">
-        <f t="shared" si="18"/>
-        <v>518.26098008735755</v>
+        <f t="shared" si="24"/>
+        <v>568.01872461056007</v>
       </c>
       <c r="AE14" s="39">
-        <f t="shared" si="18"/>
-        <v>529.2151558491048</v>
+        <f t="shared" si="24"/>
+        <v>573.99392113666579</v>
       </c>
     </row>
     <row r="15" spans="2:78" x14ac:dyDescent="0.2">
@@ -3315,32 +3344,32 @@
         <v>111.08000000000003</v>
       </c>
       <c r="Y15" s="39">
-        <f t="shared" ref="Y15:AE15" si="19">Y14*Y23</f>
-        <v>115.45320000000001</v>
+        <f t="shared" ref="Y15:AE15" si="25">Y14*Y23</f>
+        <v>116.63400000000001</v>
       </c>
       <c r="Z15" s="39">
-        <f t="shared" si="19"/>
-        <v>119.21729600000002</v>
+        <f t="shared" si="25"/>
+        <v>122.91320000000002</v>
       </c>
       <c r="AA15" s="39">
-        <f t="shared" si="19"/>
-        <v>121.59304192000003</v>
+        <f t="shared" si="25"/>
+        <v>129.26836000000003</v>
       </c>
       <c r="AB15" s="39">
-        <f t="shared" si="19"/>
-        <v>124.18858275840003</v>
+        <f t="shared" si="25"/>
+        <v>134.75125440000002</v>
       </c>
       <c r="AC15" s="39">
-        <f t="shared" si="19"/>
-        <v>126.93877041356802</v>
+        <f t="shared" si="25"/>
+        <v>139.13429603200004</v>
       </c>
       <c r="AD15" s="39">
-        <f t="shared" si="19"/>
-        <v>129.56524502183939</v>
+        <f t="shared" si="25"/>
+        <v>142.00468115264002</v>
       </c>
       <c r="AE15" s="39">
-        <f t="shared" si="19"/>
-        <v>132.3037889622762</v>
+        <f t="shared" si="25"/>
+        <v>143.49848028416645</v>
       </c>
     </row>
     <row r="16" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3348,293 +3377,293 @@
         <v>48</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" ref="C16:L16" si="20">C14-C15</f>
+        <f t="shared" ref="C16:L16" si="26">C14-C15</f>
         <v>154</v>
       </c>
       <c r="D16" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>112</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>224</v>
       </c>
       <c r="F16" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>86</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>146</v>
       </c>
       <c r="H16" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>139</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>152</v>
       </c>
       <c r="J16" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>102</v>
       </c>
       <c r="K16" s="35">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="L16" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>229</v>
       </c>
       <c r="M16" s="35">
-        <f t="shared" ref="M16" si="21">M14-M15</f>
+        <f t="shared" ref="M16" si="27">M14-M15</f>
         <v>156</v>
       </c>
       <c r="N16" s="35"/>
       <c r="R16" s="35">
-        <f t="shared" ref="R16:X16" si="22">R14-R15</f>
+        <f t="shared" ref="R16:X16" si="28">R14-R15</f>
         <v>295</v>
       </c>
       <c r="S16" s="35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>266</v>
       </c>
       <c r="T16" s="35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>310</v>
       </c>
       <c r="U16" s="35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>285</v>
       </c>
       <c r="V16" s="35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>254</v>
       </c>
       <c r="W16" s="35">
-        <f t="shared" ref="W16" si="23">W14-W15</f>
+        <f t="shared" ref="W16" si="29">W14-W15</f>
         <v>329</v>
       </c>
       <c r="X16" s="55">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>333.24000000000007</v>
       </c>
       <c r="Y16" s="55">
-        <f t="shared" ref="Y16:AE16" si="24">Y14-Y15</f>
-        <v>346.3596</v>
+        <f t="shared" ref="Y16:AE16" si="30">Y14-Y15</f>
+        <v>349.90200000000004</v>
       </c>
       <c r="Z16" s="55">
-        <f t="shared" si="24"/>
-        <v>357.65188800000004</v>
+        <f t="shared" si="30"/>
+        <v>368.73960000000005</v>
       </c>
       <c r="AA16" s="55">
-        <f t="shared" si="24"/>
-        <v>364.77912576000011</v>
+        <f t="shared" si="30"/>
+        <v>387.80508000000009</v>
       </c>
       <c r="AB16" s="55">
-        <f t="shared" si="24"/>
-        <v>372.56574827520012</v>
+        <f t="shared" si="30"/>
+        <v>404.25376320000009</v>
       </c>
       <c r="AC16" s="55">
-        <f t="shared" si="24"/>
-        <v>380.81631124070407</v>
+        <f t="shared" si="30"/>
+        <v>417.40288809600008</v>
       </c>
       <c r="AD16" s="55">
-        <f t="shared" si="24"/>
-        <v>388.69573506551819</v>
+        <f t="shared" si="30"/>
+        <v>426.01404345792002</v>
       </c>
       <c r="AE16" s="55">
-        <f t="shared" si="24"/>
-        <v>396.9113668868286</v>
+        <f t="shared" si="30"/>
+        <v>430.49544085249931</v>
       </c>
       <c r="AF16" s="35">
         <f>AE16*(1+$AH$20)</f>
-        <v>400.88048055569692</v>
+        <v>434.80039526102433</v>
       </c>
       <c r="AG16" s="35">
-        <f t="shared" ref="AG16:BZ16" si="25">AF16*(1+$AH$20)</f>
-        <v>404.88928536125388</v>
+        <f t="shared" ref="AG16:BZ16" si="31">AF16*(1+$AH$20)</f>
+        <v>439.1483992136346</v>
       </c>
       <c r="AH16" s="35">
-        <f t="shared" si="25"/>
-        <v>408.93817821486641</v>
+        <f t="shared" si="31"/>
+        <v>443.53988320577093</v>
       </c>
       <c r="AI16" s="35">
-        <f t="shared" si="25"/>
-        <v>413.02755999701509</v>
+        <f t="shared" si="31"/>
+        <v>447.97528203782866</v>
       </c>
       <c r="AJ16" s="35">
-        <f t="shared" si="25"/>
-        <v>417.15783559698525</v>
+        <f t="shared" si="31"/>
+        <v>452.45503485820694</v>
       </c>
       <c r="AK16" s="35">
-        <f t="shared" si="25"/>
-        <v>421.32941395295512</v>
+        <f t="shared" si="31"/>
+        <v>456.97958520678901</v>
       </c>
       <c r="AL16" s="35">
-        <f t="shared" si="25"/>
-        <v>425.5427080924847</v>
+        <f t="shared" si="31"/>
+        <v>461.54938105885691</v>
       </c>
       <c r="AM16" s="35">
-        <f t="shared" si="25"/>
-        <v>429.79813517340955</v>
+        <f t="shared" si="31"/>
+        <v>466.1648748694455</v>
       </c>
       <c r="AN16" s="35">
-        <f t="shared" si="25"/>
-        <v>434.09611652514366</v>
+        <f t="shared" si="31"/>
+        <v>470.82652361813996</v>
       </c>
       <c r="AO16" s="35">
-        <f t="shared" si="25"/>
-        <v>438.43707769039509</v>
+        <f t="shared" si="31"/>
+        <v>475.53478885432133</v>
       </c>
       <c r="AP16" s="35">
-        <f t="shared" si="25"/>
-        <v>442.82144846729904</v>
+        <f t="shared" si="31"/>
+        <v>480.29013674286455</v>
       </c>
       <c r="AQ16" s="35">
-        <f t="shared" si="25"/>
-        <v>447.24966295197203</v>
+        <f t="shared" si="31"/>
+        <v>485.09303811029321</v>
       </c>
       <c r="AR16" s="35">
-        <f t="shared" si="25"/>
-        <v>451.72215958149172</v>
+        <f t="shared" si="31"/>
+        <v>489.94396849139616</v>
       </c>
       <c r="AS16" s="35">
-        <f t="shared" si="25"/>
-        <v>456.23938117730665</v>
+        <f t="shared" si="31"/>
+        <v>494.84340817631011</v>
       </c>
       <c r="AT16" s="35">
-        <f t="shared" si="25"/>
-        <v>460.80177498907972</v>
+        <f t="shared" si="31"/>
+        <v>499.79184225807319</v>
       </c>
       <c r="AU16" s="35">
-        <f t="shared" si="25"/>
-        <v>465.40979273897051</v>
+        <f t="shared" si="31"/>
+        <v>504.7897606806539</v>
       </c>
       <c r="AV16" s="35">
-        <f t="shared" si="25"/>
-        <v>470.06389066636024</v>
+        <f t="shared" si="31"/>
+        <v>509.83765828746044</v>
       </c>
       <c r="AW16" s="35">
-        <f t="shared" si="25"/>
-        <v>474.76452957302382</v>
+        <f t="shared" si="31"/>
+        <v>514.93603487033511</v>
       </c>
       <c r="AX16" s="35">
-        <f t="shared" si="25"/>
-        <v>479.51217486875407</v>
+        <f t="shared" si="31"/>
+        <v>520.08539521903845</v>
       </c>
       <c r="AY16" s="35">
-        <f t="shared" si="25"/>
-        <v>484.30729661744164</v>
+        <f t="shared" si="31"/>
+        <v>525.28624917122886</v>
       </c>
       <c r="AZ16" s="35">
-        <f t="shared" si="25"/>
-        <v>489.15036958361605</v>
+        <f t="shared" si="31"/>
+        <v>530.5391116629412</v>
       </c>
       <c r="BA16" s="35">
-        <f t="shared" si="25"/>
-        <v>494.0418732794522</v>
+        <f t="shared" si="31"/>
+        <v>535.84450277957058</v>
       </c>
       <c r="BB16" s="35">
-        <f t="shared" si="25"/>
-        <v>498.98229201224672</v>
+        <f t="shared" si="31"/>
+        <v>541.20294780736629</v>
       </c>
       <c r="BC16" s="35">
-        <f t="shared" si="25"/>
-        <v>503.97211493236921</v>
+        <f t="shared" si="31"/>
+        <v>546.61497728543998</v>
       </c>
       <c r="BD16" s="35">
-        <f t="shared" si="25"/>
-        <v>509.01183608169288</v>
+        <f t="shared" si="31"/>
+        <v>552.08112705829433</v>
       </c>
       <c r="BE16" s="35">
-        <f t="shared" si="25"/>
-        <v>514.10195444250985</v>
+        <f t="shared" si="31"/>
+        <v>557.60193832887728</v>
       </c>
       <c r="BF16" s="35">
-        <f t="shared" si="25"/>
-        <v>519.242973986935</v>
+        <f t="shared" si="31"/>
+        <v>563.17795771216606</v>
       </c>
       <c r="BG16" s="35">
-        <f t="shared" si="25"/>
-        <v>524.43540372680434</v>
+        <f t="shared" si="31"/>
+        <v>568.80973728928768</v>
       </c>
       <c r="BH16" s="35">
-        <f t="shared" si="25"/>
-        <v>529.67975776407241</v>
+        <f t="shared" si="31"/>
+        <v>574.49783466218059</v>
       </c>
       <c r="BI16" s="35">
-        <f t="shared" si="25"/>
-        <v>534.97655534171315</v>
+        <f t="shared" si="31"/>
+        <v>580.24281300880239</v>
       </c>
       <c r="BJ16" s="35">
-        <f t="shared" si="25"/>
-        <v>540.32632089513027</v>
+        <f t="shared" si="31"/>
+        <v>586.04524113889045</v>
       </c>
       <c r="BK16" s="35">
-        <f t="shared" si="25"/>
-        <v>545.7295841040816</v>
+        <f t="shared" si="31"/>
+        <v>591.90569355027935</v>
       </c>
       <c r="BL16" s="35">
-        <f t="shared" si="25"/>
-        <v>551.18687994512243</v>
+        <f t="shared" si="31"/>
+        <v>597.82475048578215</v>
       </c>
       <c r="BM16" s="35">
-        <f t="shared" si="25"/>
-        <v>556.69874874457366</v>
+        <f t="shared" si="31"/>
+        <v>603.80299799063994</v>
       </c>
       <c r="BN16" s="35">
-        <f t="shared" si="25"/>
-        <v>562.26573623201944</v>
+        <f t="shared" si="31"/>
+        <v>609.84102797054629</v>
       </c>
       <c r="BO16" s="35">
-        <f t="shared" si="25"/>
-        <v>567.88839359433962</v>
+        <f t="shared" si="31"/>
+        <v>615.93943825025178</v>
       </c>
       <c r="BP16" s="35">
-        <f t="shared" si="25"/>
-        <v>573.56727753028304</v>
+        <f t="shared" si="31"/>
+        <v>622.09883263275435</v>
       </c>
       <c r="BQ16" s="35">
-        <f t="shared" si="25"/>
-        <v>579.30295030558591</v>
+        <f t="shared" si="31"/>
+        <v>628.31982095908188</v>
       </c>
       <c r="BR16" s="35">
-        <f t="shared" si="25"/>
-        <v>585.0959798086418</v>
+        <f t="shared" si="31"/>
+        <v>634.60301916867274</v>
       </c>
       <c r="BS16" s="35">
-        <f t="shared" si="25"/>
-        <v>590.94693960672828</v>
+        <f t="shared" si="31"/>
+        <v>640.94904936035948</v>
       </c>
       <c r="BT16" s="35">
-        <f t="shared" si="25"/>
-        <v>596.85640900279554</v>
+        <f t="shared" si="31"/>
+        <v>647.35853985396307</v>
       </c>
       <c r="BU16" s="35">
-        <f t="shared" si="25"/>
-        <v>602.82497309282348</v>
+        <f t="shared" si="31"/>
+        <v>653.83212525250269</v>
       </c>
       <c r="BV16" s="35">
-        <f t="shared" si="25"/>
-        <v>608.85322282375171</v>
+        <f t="shared" si="31"/>
+        <v>660.37044650502776</v>
       </c>
       <c r="BW16" s="35">
-        <f t="shared" si="25"/>
-        <v>614.94175505198928</v>
+        <f t="shared" si="31"/>
+        <v>666.97415097007809</v>
       </c>
       <c r="BX16" s="35">
-        <f t="shared" si="25"/>
-        <v>621.09117260250912</v>
+        <f t="shared" si="31"/>
+        <v>673.64389247977886</v>
       </c>
       <c r="BY16" s="35">
-        <f t="shared" si="25"/>
-        <v>627.30208432853419</v>
+        <f t="shared" si="31"/>
+        <v>680.38033140457662</v>
       </c>
       <c r="BZ16" s="35">
-        <f t="shared" si="25"/>
-        <v>633.57510517181959</v>
+        <f t="shared" si="31"/>
+        <v>687.18413471862243</v>
       </c>
     </row>
     <row r="17" spans="2:34" s="51" customFormat="1" x14ac:dyDescent="0.2">
@@ -3642,55 +3671,55 @@
         <v>49</v>
       </c>
       <c r="C17" s="51">
-        <f t="shared" ref="C17:L17" si="26">C16/C18</f>
+        <f t="shared" ref="C17:L17" si="32">C16/C18</f>
         <v>0.14180478821362799</v>
       </c>
       <c r="D17" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.10313075506445672</v>
       </c>
       <c r="E17" s="51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.20550458715596331</v>
       </c>
       <c r="F17" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>7.8826764436296978E-2</v>
       </c>
       <c r="G17" s="51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.13345521023765997</v>
       </c>
       <c r="H17" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.12870370370370371</v>
       </c>
       <c r="I17" s="51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.14858260019550343</v>
       </c>
       <c r="J17" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.1</v>
       </c>
       <c r="K17" s="51">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>9.8231827111984277E-2</v>
       </c>
       <c r="L17" s="52">
-        <f t="shared" si="26"/>
+        <f t="shared" si="32"/>
         <v>0.22450980392156863</v>
       </c>
       <c r="M17" s="51">
-        <f t="shared" ref="M17" si="27">M16/M18</f>
+        <f t="shared" ref="M17" si="33">M16/M18</f>
         <v>0.15354330708661418</v>
       </c>
       <c r="R17" s="51">
-        <f t="shared" ref="R17:S17" si="28">R16/R18</f>
+        <f t="shared" ref="R17:S17" si="34">R16/R18</f>
         <v>0.2723915050784857</v>
       </c>
       <c r="S17" s="51">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0.24493554327808473</v>
       </c>
       <c r="T17" s="51">
@@ -3706,7 +3735,7 @@
         <v>0.24901960784313726</v>
       </c>
       <c r="W17" s="51">
-        <f t="shared" ref="W17" si="29">W16/W18</f>
+        <f t="shared" ref="W17" si="35">W16/W18</f>
         <v>0.32254901960784316</v>
       </c>
       <c r="X17" s="56">
@@ -3714,32 +3743,32 @@
         <v>0.32670588235294123</v>
       </c>
       <c r="Y17" s="56">
-        <f t="shared" ref="Y17:AE17" si="30">Y16/Y18</f>
-        <v>0.33956823529411767</v>
+        <f t="shared" ref="Y17:AE17" si="36">Y16/Y18</f>
+        <v>0.34304117647058829</v>
       </c>
       <c r="Z17" s="56">
-        <f t="shared" si="30"/>
-        <v>0.35063910588235297</v>
+        <f t="shared" si="36"/>
+        <v>0.36150941176470591</v>
       </c>
       <c r="AA17" s="56">
-        <f t="shared" si="30"/>
-        <v>0.35762659388235307</v>
+        <f t="shared" si="36"/>
+        <v>0.3802010588235295</v>
       </c>
       <c r="AB17" s="56">
-        <f t="shared" si="30"/>
-        <v>0.365260537524706</v>
+        <f t="shared" si="36"/>
+        <v>0.3963272188235295</v>
       </c>
       <c r="AC17" s="56">
-        <f t="shared" si="30"/>
-        <v>0.3733493247457883</v>
+        <f t="shared" si="36"/>
+        <v>0.40921851774117657</v>
       </c>
       <c r="AD17" s="56">
-        <f t="shared" si="30"/>
-        <v>0.38107425006423351</v>
+        <f t="shared" si="36"/>
+        <v>0.41766082691952944</v>
       </c>
       <c r="AE17" s="56">
-        <f t="shared" si="30"/>
-        <v>0.38912879106551823</v>
+        <f t="shared" si="36"/>
+        <v>0.4220543537769601</v>
       </c>
     </row>
     <row r="18" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -3807,31 +3836,31 @@
         <v>1020</v>
       </c>
       <c r="Y18" s="39">
-        <f t="shared" ref="Y18:AE18" si="31">X18</f>
+        <f t="shared" ref="Y18:AE18" si="37">X18</f>
         <v>1020</v>
       </c>
       <c r="Z18" s="39">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>1020</v>
       </c>
       <c r="AA18" s="39">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>1020</v>
       </c>
       <c r="AB18" s="39">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>1020</v>
       </c>
       <c r="AC18" s="39">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>1020</v>
       </c>
       <c r="AD18" s="39">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>1020</v>
       </c>
       <c r="AE18" s="39">
-        <f t="shared" si="31"/>
+        <f t="shared" si="37"/>
         <v>1020</v>
       </c>
     </row>
@@ -3840,71 +3869,71 @@
         <v>52</v>
       </c>
       <c r="C20" s="31">
-        <f>C9/C7</f>
+        <f t="shared" ref="C20:M20" si="38">C9/C7</f>
         <v>0.92685475444096133</v>
       </c>
       <c r="D20" s="42">
-        <f>D9/D7</f>
+        <f t="shared" si="38"/>
         <v>0.93054136874361593</v>
       </c>
       <c r="E20" s="31">
-        <f>E9/E7</f>
+        <f t="shared" si="38"/>
         <v>0.9343589743589743</v>
       </c>
       <c r="F20" s="42">
-        <f>F9/F7</f>
+        <f t="shared" si="38"/>
         <v>0.93318965517241381</v>
       </c>
       <c r="G20" s="31">
-        <f>G9/G7</f>
+        <f t="shared" si="38"/>
         <v>0.9231590181430096</v>
       </c>
       <c r="H20" s="42">
-        <f>H9/H7</f>
+        <f t="shared" si="38"/>
         <v>0.93509350935093505</v>
       </c>
       <c r="I20" s="31">
-        <f>I9/I7</f>
+        <f t="shared" si="38"/>
         <v>0.9271948608137045</v>
       </c>
       <c r="J20" s="42">
-        <f>J9/J7</f>
+        <f t="shared" si="38"/>
         <v>0.93089832181638699</v>
       </c>
       <c r="K20" s="31">
-        <f>K9/K7</f>
+        <f t="shared" si="38"/>
         <v>0.93008279668813243</v>
       </c>
       <c r="L20" s="42">
-        <f>L9/L7</f>
+        <f t="shared" si="38"/>
         <v>0.92707383773928898</v>
       </c>
       <c r="M20" s="31">
-        <f>M9/M7</f>
+        <f t="shared" si="38"/>
         <v>0.92881944444444442</v>
       </c>
       <c r="R20" s="31">
-        <f>R9/R7</f>
+        <f t="shared" ref="R20:W20" si="39">R9/R7</f>
         <v>0.92957746478873238</v>
       </c>
       <c r="S20" s="31">
-        <f>S9/S7</f>
+        <f t="shared" si="39"/>
         <v>0.92871900826446285</v>
       </c>
       <c r="T20" s="31">
-        <f>T9/T7</f>
+        <f t="shared" si="39"/>
         <v>0.93378875459800315</v>
       </c>
       <c r="U20" s="31">
-        <f>U9/U7</f>
+        <f t="shared" si="39"/>
         <v>0.92903575297941499</v>
       </c>
       <c r="V20" s="31">
-        <f>V9/V7</f>
+        <f t="shared" si="39"/>
         <v>0.92912172573189522</v>
       </c>
       <c r="W20" s="31">
-        <f>W9/W7</f>
+        <f t="shared" si="39"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="X20" s="57">
@@ -3943,71 +3972,71 @@
         <v>53</v>
       </c>
       <c r="C21" s="31">
-        <f>C11/C7</f>
+        <f t="shared" ref="C21:M21" si="40">C11/C7</f>
         <v>0.21943573667711599</v>
       </c>
       <c r="D21" s="42">
-        <f>D11/D7</f>
+        <f t="shared" si="40"/>
         <v>0.17568947906026558</v>
       </c>
       <c r="E21" s="31">
-        <f>E11/E7</f>
+        <f t="shared" si="40"/>
         <v>0.29641025641025642</v>
       </c>
       <c r="F21" s="42">
-        <f>F11/F7</f>
+        <f t="shared" si="40"/>
         <v>0.12392241379310345</v>
       </c>
       <c r="G21" s="31">
-        <f>G11/G7</f>
+        <f t="shared" si="40"/>
         <v>0.21664887940234792</v>
       </c>
       <c r="H21" s="42">
-        <f>H11/H7</f>
+        <f t="shared" si="40"/>
         <v>0.18701870187018702</v>
       </c>
       <c r="I21" s="31">
-        <f>I11/I7</f>
+        <f t="shared" si="40"/>
         <v>0.21841541755888652</v>
       </c>
       <c r="J21" s="42">
-        <f>J11/J7</f>
+        <f t="shared" si="40"/>
         <v>0.16090819348469892</v>
       </c>
       <c r="K21" s="31">
-        <f>K11/K7</f>
+        <f t="shared" si="40"/>
         <v>0.14443422263109476</v>
       </c>
       <c r="L21" s="42">
-        <f>L11/L7</f>
+        <f t="shared" si="40"/>
         <v>0.27256153144940748</v>
       </c>
       <c r="M21" s="31">
-        <f>M11/M7</f>
+        <f t="shared" si="40"/>
         <v>0.18663194444444445</v>
       </c>
       <c r="R21" s="31">
-        <f>R11/R7</f>
+        <f t="shared" ref="R21:W21" si="41">R11/R7</f>
         <v>0.2313109425785482</v>
       </c>
       <c r="S21" s="31">
-        <f>S11/S7</f>
+        <f t="shared" si="41"/>
         <v>0.19731404958677687</v>
       </c>
       <c r="T21" s="31">
-        <f>T11/T7</f>
+        <f t="shared" si="41"/>
         <v>0.21229637414608513</v>
       </c>
       <c r="U21" s="31">
-        <f>U11/U7</f>
+        <f t="shared" si="41"/>
         <v>0.20205850487540628</v>
       </c>
       <c r="V21" s="31">
-        <f>V11/V7</f>
+        <f t="shared" si="41"/>
         <v>0.18849512069851052</v>
       </c>
       <c r="W21" s="31">
-        <f>W11/W7</f>
+        <f t="shared" si="41"/>
         <v>0.2087912087912088</v>
       </c>
       <c r="X21" s="57">
@@ -4038,7 +4067,7 @@
         <v>108</v>
       </c>
       <c r="AH21" s="63">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.2">
@@ -4046,79 +4075,111 @@
         <v>54</v>
       </c>
       <c r="C22" s="31">
-        <f>C16/C7</f>
+        <f t="shared" ref="C22:M22" si="42">C16/C7</f>
         <v>0.16091954022988506</v>
       </c>
       <c r="D22" s="42">
-        <f>D16/D7</f>
+        <f t="shared" si="42"/>
         <v>0.11440245148110317</v>
       </c>
       <c r="E22" s="31">
-        <f>E16/E7</f>
+        <f t="shared" si="42"/>
         <v>0.22974358974358974</v>
       </c>
       <c r="F22" s="42">
-        <f>F16/F7</f>
+        <f t="shared" si="42"/>
         <v>9.2672413793103453E-2</v>
       </c>
       <c r="G22" s="31">
-        <f>G16/G7</f>
+        <f t="shared" si="42"/>
         <v>0.15581643543223053</v>
       </c>
       <c r="H22" s="42">
-        <f>H16/H7</f>
+        <f t="shared" si="42"/>
         <v>0.15291529152915292</v>
       </c>
       <c r="I22" s="31">
-        <f>I16/I7</f>
+        <f t="shared" si="42"/>
         <v>0.16274089935760172</v>
       </c>
       <c r="J22" s="42">
-        <f>J16/J7</f>
+        <f t="shared" si="42"/>
         <v>0.10069101678183613</v>
       </c>
       <c r="K22" s="31">
-        <f>K16/K7</f>
+        <f t="shared" si="42"/>
         <v>9.1996320147194111E-2</v>
       </c>
       <c r="L22" s="42">
-        <f>L16/L7</f>
+        <f t="shared" si="42"/>
         <v>0.20875113947128532</v>
       </c>
       <c r="M22" s="31">
-        <f>M16/M7</f>
+        <f t="shared" si="42"/>
         <v>0.13541666666666666</v>
       </c>
       <c r="R22" s="31">
-        <f>R16/R7</f>
+        <f t="shared" ref="R22:AE22" si="43">R16/R7</f>
         <v>0.15980498374864571</v>
       </c>
       <c r="S22" s="31">
-        <f>S16/S7</f>
+        <f t="shared" si="43"/>
         <v>0.13739669421487602</v>
       </c>
       <c r="T22" s="31">
-        <f>T16/T7</f>
+        <f t="shared" si="43"/>
         <v>0.16290068313189701</v>
       </c>
       <c r="U22" s="31">
-        <f>U16/U7</f>
+        <f t="shared" si="43"/>
         <v>0.1543878656554713</v>
       </c>
       <c r="V22" s="31">
-        <f>V16/V7</f>
+        <f t="shared" si="43"/>
         <v>0.13045711350796096</v>
       </c>
       <c r="W22" s="31">
-        <f>W16/W7</f>
+        <f t="shared" si="43"/>
         <v>0.15064102564102563</v>
+      </c>
+      <c r="X22" s="31">
+        <f t="shared" si="43"/>
+        <v>0.14110772357723578</v>
+      </c>
+      <c r="Y22" s="31">
+        <f t="shared" si="43"/>
+        <v>0.14110772357723578</v>
+      </c>
+      <c r="Z22" s="31">
+        <f t="shared" si="43"/>
+        <v>0.14162334310417934</v>
+      </c>
+      <c r="AA22" s="31">
+        <f t="shared" si="43"/>
+        <v>0.14185323890815846</v>
+      </c>
+      <c r="AB22" s="31">
+        <f t="shared" si="43"/>
+        <v>0.14218261413383368</v>
+      </c>
+      <c r="AC22" s="31">
+        <f t="shared" si="43"/>
+        <v>0.14253143196015158</v>
+      </c>
+      <c r="AD22" s="31">
+        <f t="shared" si="43"/>
+        <v>0.14261951086646549</v>
+      </c>
+      <c r="AE22" s="31">
+        <f t="shared" si="43"/>
+        <v>0.14269284912516728</v>
       </c>
       <c r="AG22" s="62" t="s">
         <v>109</v>
       </c>
       <c r="AH22" s="68">
         <f>NPV(AH21,W16:BZ16)</f>
-        <v>7981.6949888519939</v>
+        <v>6133.4303478510274</v>
       </c>
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.2">
@@ -4126,71 +4187,71 @@
         <v>100</v>
       </c>
       <c r="C23" s="31">
-        <f t="shared" ref="C23:I23" si="32">C15/C14</f>
+        <f t="shared" ref="C23:I23" si="44">C15/C14</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D23" s="42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0.31288343558282211</v>
       </c>
       <c r="E23" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0.18545454545454546</v>
       </c>
       <c r="F23" s="42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0.12244897959183673</v>
       </c>
       <c r="G23" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0.23157894736842105</v>
       </c>
       <c r="H23" s="42">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0.11464968152866242</v>
       </c>
       <c r="I23" s="31">
-        <f t="shared" si="32"/>
+        <f t="shared" si="44"/>
         <v>0.19576719576719576</v>
       </c>
       <c r="J23" s="42">
-        <f t="shared" ref="J23:K23" si="33">J15/J14</f>
+        <f t="shared" ref="J23:K23" si="45">J15/J14</f>
         <v>0.3108108108108108</v>
       </c>
       <c r="K23" s="31">
-        <f t="shared" si="33"/>
+        <f t="shared" si="45"/>
         <v>0.2805755395683453</v>
       </c>
       <c r="L23" s="42">
-        <f t="shared" ref="L23" si="34">L15/L14</f>
+        <f t="shared" ref="L23" si="46">L15/L14</f>
         <v>0.19649122807017544</v>
       </c>
       <c r="M23" s="31">
-        <f t="shared" ref="M23" si="35">M15/M14</f>
+        <f t="shared" ref="M23" si="47">M15/M14</f>
         <v>0.23152709359605911</v>
       </c>
       <c r="R23" s="31">
-        <f t="shared" ref="R23:U23" si="36">R15/R14</f>
+        <f t="shared" ref="R23:U23" si="48">R15/R14</f>
         <v>0.25879396984924624</v>
       </c>
       <c r="S23" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="T23" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.16890080428954424</v>
       </c>
       <c r="U23" s="31">
-        <f t="shared" si="36"/>
+        <f t="shared" si="48"/>
         <v>0.17867435158501441</v>
       </c>
       <c r="V23" s="31">
-        <f t="shared" ref="V23:W23" si="37">V15/V14</f>
+        <f t="shared" ref="V23:W23" si="49">V15/V14</f>
         <v>0.24629080118694363</v>
       </c>
       <c r="W23" s="31">
-        <f t="shared" si="37"/>
+        <f t="shared" si="49"/>
         <v>0.22405660377358491</v>
       </c>
       <c r="X23" s="57">
@@ -4231,7 +4292,7 @@
       </c>
       <c r="AH24" s="68">
         <f>AH22-AH23</f>
-        <v>8773.6949888519939</v>
+        <v>6925.4303478510274</v>
       </c>
     </row>
     <row r="25" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4245,39 +4306,39 @@
         <v>92</v>
       </c>
       <c r="E25" s="41">
-        <f>E7/C7-1</f>
+        <f t="shared" ref="E25:M25" si="50">E7/C7-1</f>
         <v>1.8808777429467183E-2</v>
       </c>
       <c r="F25" s="50">
-        <f>F7/D7-1</f>
+        <f t="shared" si="50"/>
         <v>-5.2093973442288055E-2</v>
       </c>
       <c r="G25" s="41">
-        <f>G7/E7-1</f>
+        <f t="shared" si="50"/>
         <v>-3.8974358974358969E-2</v>
       </c>
       <c r="H25" s="50">
-        <f>H7/F7-1</f>
+        <f t="shared" si="50"/>
         <v>-2.0474137931034475E-2</v>
       </c>
       <c r="I25" s="41">
-        <f>I7/G7-1</f>
+        <f t="shared" si="50"/>
         <v>-3.2017075773745907E-3</v>
       </c>
       <c r="J25" s="50">
-        <f>J7/H7-1</f>
+        <f t="shared" si="50"/>
         <v>0.11441144114411439</v>
       </c>
       <c r="K25" s="41">
-        <f>K7/I7-1</f>
+        <f t="shared" si="50"/>
         <v>0.16381156316916479</v>
       </c>
       <c r="L25" s="50">
-        <f>L7/J7-1</f>
+        <f t="shared" si="50"/>
         <v>8.2922013820335705E-2</v>
       </c>
       <c r="M25" s="41">
-        <f>M7/K7-1</f>
+        <f t="shared" si="50"/>
         <v>5.9797608095676136E-2</v>
       </c>
       <c r="R25" s="19" t="s">
@@ -4304,301 +4365,367 @@
         <v>0.1217257318952234</v>
       </c>
       <c r="X25" s="58">
+        <f>+X7/W7-1</f>
+        <v>8.1318681318681474E-2</v>
+      </c>
+      <c r="Y25" s="58">
         <v>0.05</v>
       </c>
-      <c r="Y25" s="58">
+      <c r="Z25" s="58">
+        <v>0.05</v>
+      </c>
+      <c r="AA25" s="58">
+        <v>0.05</v>
+      </c>
+      <c r="AB25" s="58">
         <v>0.04</v>
       </c>
-      <c r="Z25" s="58">
+      <c r="AC25" s="58">
         <v>0.03</v>
-      </c>
-      <c r="AA25" s="58">
-        <v>0.02</v>
-      </c>
-      <c r="AB25" s="58">
-        <v>0.02</v>
-      </c>
-      <c r="AC25" s="58">
-        <v>0.02</v>
       </c>
       <c r="AD25" s="58">
         <v>0.02</v>
       </c>
       <c r="AE25" s="58">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AG25" s="4" t="s">
         <v>111</v>
       </c>
       <c r="AH25" s="67">
         <f>AH24/Main!C7</f>
-        <v>8.6355265638307035</v>
-      </c>
-    </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="42">
-        <f>D7/C7-1</f>
-        <v>2.2988505747126409E-2</v>
-      </c>
-      <c r="E26" s="31">
-        <f>E7/D7-1</f>
-        <v>-4.0858018386108474E-3</v>
-      </c>
-      <c r="F26" s="42">
-        <f>F7/E7-1</f>
-        <v>-4.8205128205128234E-2</v>
-      </c>
-      <c r="G26" s="31">
-        <f>G7/F7-1</f>
-        <v>9.6982758620689502E-3</v>
-      </c>
-      <c r="H26" s="42">
-        <f>H7/G7-1</f>
-        <v>-2.9882604055496254E-2</v>
-      </c>
-      <c r="I26" s="31">
-        <f>I7/H7-1</f>
-        <v>2.7502750275027577E-2</v>
-      </c>
-      <c r="J26" s="42">
-        <f>J7/I7-1</f>
-        <v>8.4582441113490336E-2</v>
-      </c>
-      <c r="K26" s="31">
-        <f>K7/J7-1</f>
-        <v>7.3050345508390846E-2</v>
-      </c>
-      <c r="L26" s="42">
-        <f>L7/K7-1</f>
-        <v>9.1996320147194055E-3</v>
-      </c>
-      <c r="M26" s="31">
-        <f>M7/L7-1</f>
-        <v>5.0136736554238892E-2</v>
-      </c>
-      <c r="N26" s="31">
-        <v>0.05</v>
+        <v>6.8163684526092787</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="86"/>
+      <c r="D26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="82">
+        <f>+M4/K4-1</f>
+        <v>7.660455486542439E-2</v>
       </c>
       <c r="R26" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="S26" s="19" t="s">
+      <c r="S26" s="86">
+        <f t="shared" ref="S26:W28" si="51">+S4/R4-1</f>
+        <v>0.14459930313588854</v>
+      </c>
+      <c r="T26" s="86">
+        <f t="shared" si="51"/>
+        <v>5.3272450532724447E-2</v>
+      </c>
+      <c r="U26" s="86">
+        <f t="shared" si="51"/>
+        <v>-7.225433526011571E-3</v>
+      </c>
+      <c r="V26" s="86">
+        <f t="shared" si="51"/>
+        <v>0.19068413391557493</v>
+      </c>
+      <c r="W26" s="86">
+        <f t="shared" si="51"/>
+        <v>0.18948655256723712</v>
+      </c>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="87"/>
+      <c r="AC26" s="87"/>
+      <c r="AD26" s="87"/>
+      <c r="AE26" s="87"/>
+      <c r="AG26" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH26" s="83">
+        <f>AH25/Main!C6-1</f>
+        <v>-0.35936386723597014</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="86"/>
+      <c r="D27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="82">
+        <f>+M5/K5-1</f>
+        <v>5.4662379421221763E-2</v>
+      </c>
+      <c r="R27" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="T26" s="19" t="s">
+      <c r="S27" s="86">
+        <f t="shared" si="51"/>
+        <v>6.8421052631578938E-2</v>
+      </c>
+      <c r="T27" s="86">
+        <f t="shared" si="51"/>
+        <v>1.4778325123152802E-2</v>
+      </c>
+      <c r="U27" s="86">
+        <f t="shared" si="51"/>
+        <v>-2.4271844660194164E-2</v>
+      </c>
+      <c r="V27" s="86">
+        <f t="shared" si="51"/>
+        <v>0.45771144278606957</v>
+      </c>
+      <c r="W27" s="86">
+        <f t="shared" si="51"/>
+        <v>6.9965870307167277E-2</v>
+      </c>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="87"/>
+      <c r="Z27" s="87"/>
+      <c r="AA27" s="87"/>
+      <c r="AB27" s="87"/>
+      <c r="AC27" s="87"/>
+      <c r="AD27" s="87"/>
+      <c r="AE27" s="87"/>
+      <c r="AG27" s="89"/>
+      <c r="AH27" s="84"/>
+    </row>
+    <row r="28" spans="2:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="86"/>
+      <c r="D28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="82">
+        <f>+M6/K6-1</f>
+        <v>3.7542662116040848E-2</v>
+      </c>
+      <c r="R28" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="U26" s="19" t="s">
+      <c r="S28" s="86">
+        <f t="shared" si="51"/>
+        <v>-2.4663677130044803E-2</v>
+      </c>
+      <c r="T28" s="86">
+        <f t="shared" si="51"/>
+        <v>-8.1609195402298829E-2</v>
+      </c>
+      <c r="U28" s="86">
+        <f t="shared" si="51"/>
+        <v>-5.2565707133917394E-2</v>
+      </c>
+      <c r="V28" s="86">
+        <f t="shared" si="51"/>
+        <v>-0.28269484808454426</v>
+      </c>
+      <c r="W28" s="86">
+        <f t="shared" si="51"/>
+        <v>7.5506445672191447E-2</v>
+      </c>
+      <c r="X28" s="87"/>
+      <c r="Y28" s="87"/>
+      <c r="Z28" s="87"/>
+      <c r="AA28" s="87"/>
+      <c r="AB28" s="87"/>
+      <c r="AC28" s="87"/>
+      <c r="AD28" s="87"/>
+      <c r="AE28" s="87"/>
+      <c r="AG28" s="89"/>
+      <c r="AH28" s="84"/>
+    </row>
+    <row r="29" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="V26" s="19" t="s">
+      <c r="D29" s="42">
+        <f t="shared" ref="D29:M29" si="52">D7/C7-1</f>
+        <v>2.2988505747126409E-2</v>
+      </c>
+      <c r="E29" s="31">
+        <f t="shared" si="52"/>
+        <v>-4.0858018386108474E-3</v>
+      </c>
+      <c r="F29" s="42">
+        <f t="shared" si="52"/>
+        <v>-4.8205128205128234E-2</v>
+      </c>
+      <c r="G29" s="31">
+        <f t="shared" si="52"/>
+        <v>9.6982758620689502E-3</v>
+      </c>
+      <c r="H29" s="42">
+        <f t="shared" si="52"/>
+        <v>-2.9882604055496254E-2</v>
+      </c>
+      <c r="I29" s="31">
+        <f t="shared" si="52"/>
+        <v>2.7502750275027577E-2</v>
+      </c>
+      <c r="J29" s="42">
+        <f t="shared" si="52"/>
+        <v>8.4582441113490336E-2</v>
+      </c>
+      <c r="K29" s="31">
+        <f t="shared" si="52"/>
+        <v>7.3050345508390846E-2</v>
+      </c>
+      <c r="L29" s="42">
+        <f t="shared" si="52"/>
+        <v>9.1996320147194055E-3</v>
+      </c>
+      <c r="M29" s="31">
+        <f t="shared" si="52"/>
+        <v>5.0136736554238892E-2</v>
+      </c>
+      <c r="N29" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="R29" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="W26" s="19" t="s">
+      <c r="S29" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AG26" s="62" t="s">
+      <c r="T29" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="U29" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="V29" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="W29" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG29" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="AH26" s="64">
+      <c r="AH29" s="64">
         <f>Main!C6</f>
-        <v>9.8859999999999992</v>
-      </c>
-    </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="C27" s="19"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="42"/>
-      <c r="R27" s="19"/>
-      <c r="S27" s="19"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="AG27" s="65" t="s">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="C30" s="19"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="42"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="AG30" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="AH27" s="66">
-        <f>AH25/AH26-1</f>
-        <v>-0.12648932188643491</v>
-      </c>
-    </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="C28" s="19"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="42"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-    </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B29" s="34" t="s">
+      <c r="AH30" s="66">
+        <f>AH25/AH29-1</f>
+        <v>-0.35936386723597014</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="C31" s="19"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="42"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+    </row>
+    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B32" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="42"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-    </row>
-    <row r="30" spans="2:34" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="35" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="42"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+    </row>
+    <row r="33" spans="2:31" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="R30" s="77">
-        <f>SUM(R31:R34)</f>
+      <c r="C33" s="77"/>
+      <c r="D33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="R33" s="77">
+        <f t="shared" ref="R33:W33" si="53">SUM(R34:R37)</f>
         <v>13660</v>
       </c>
-      <c r="S30" s="77">
-        <f>SUM(S31:S34)</f>
+      <c r="S33" s="77">
+        <f t="shared" si="53"/>
         <v>12755</v>
       </c>
-      <c r="T30" s="77">
-        <f>SUM(T31:T34)</f>
+      <c r="T33" s="77">
+        <f t="shared" si="53"/>
         <v>12506</v>
       </c>
-      <c r="U30" s="77">
-        <f>SUM(U31:U34)</f>
+      <c r="U33" s="77">
+        <f t="shared" si="53"/>
         <v>11785</v>
       </c>
-      <c r="V30" s="77">
-        <f>SUM(V31:V34)</f>
+      <c r="V33" s="77">
+        <f t="shared" si="53"/>
         <v>11228</v>
       </c>
-      <c r="W30" s="77">
-        <f>SUM(W31:W34)</f>
+      <c r="W33" s="77">
+        <f t="shared" si="53"/>
         <v>11565</v>
       </c>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="55"/>
-      <c r="Z30" s="55"/>
-      <c r="AA30" s="55"/>
-      <c r="AB30" s="55"/>
-      <c r="AC30" s="55"/>
-      <c r="AD30" s="55"/>
-      <c r="AE30" s="55"/>
-    </row>
-    <row r="31" spans="2:34" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="R31" s="71">
-        <v>2704</v>
-      </c>
-      <c r="S31" s="71">
-        <v>2551</v>
-      </c>
-      <c r="T31" s="71">
-        <v>2592</v>
-      </c>
-      <c r="U31" s="71">
-        <v>2671</v>
-      </c>
-      <c r="V31" s="71">
-        <v>2640</v>
-      </c>
-      <c r="W31" s="71">
-        <v>2823</v>
-      </c>
-    </row>
-    <row r="32" spans="2:34" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="R32" s="71">
-        <v>3109</v>
-      </c>
-      <c r="S32" s="71">
-        <v>2865</v>
-      </c>
-      <c r="T32" s="71">
-        <v>3279</v>
-      </c>
-      <c r="U32" s="71">
-        <v>3446</v>
-      </c>
-      <c r="V32" s="71">
-        <v>3686</v>
-      </c>
-      <c r="W32" s="71">
-        <v>3998</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="R33" s="71">
-        <v>4396</v>
-      </c>
-      <c r="S33" s="71">
-        <v>4334</v>
-      </c>
-      <c r="T33" s="71">
-        <v>4407</v>
-      </c>
-      <c r="U33" s="71">
-        <v>4169</v>
-      </c>
-      <c r="V33" s="71">
-        <v>3715</v>
-      </c>
-      <c r="W33" s="71">
-        <v>3490</v>
-      </c>
+      <c r="X33" s="55"/>
+      <c r="Y33" s="55"/>
+      <c r="Z33" s="55"/>
+      <c r="AA33" s="55"/>
+      <c r="AB33" s="55"/>
+      <c r="AC33" s="55"/>
+      <c r="AD33" s="55"/>
+      <c r="AE33" s="55"/>
     </row>
     <row r="34" spans="2:31" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="70" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D34" s="72"/>
       <c r="F34" s="72"/>
@@ -4606,2734 +4733,2659 @@
       <c r="J34" s="72"/>
       <c r="L34" s="72"/>
       <c r="R34" s="71">
+        <v>2704</v>
+      </c>
+      <c r="S34" s="71">
+        <v>2551</v>
+      </c>
+      <c r="T34" s="71">
+        <v>2592</v>
+      </c>
+      <c r="U34" s="71">
+        <v>2671</v>
+      </c>
+      <c r="V34" s="71">
+        <v>2640</v>
+      </c>
+      <c r="W34" s="71">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="H35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="R35" s="71">
+        <v>3109</v>
+      </c>
+      <c r="S35" s="71">
+        <v>2865</v>
+      </c>
+      <c r="T35" s="71">
+        <v>3279</v>
+      </c>
+      <c r="U35" s="71">
+        <v>3446</v>
+      </c>
+      <c r="V35" s="71">
+        <v>3686</v>
+      </c>
+      <c r="W35" s="71">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:31" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="70" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="R36" s="71">
+        <v>4396</v>
+      </c>
+      <c r="S36" s="71">
+        <v>4334</v>
+      </c>
+      <c r="T36" s="71">
+        <v>4407</v>
+      </c>
+      <c r="U36" s="71">
+        <v>4169</v>
+      </c>
+      <c r="V36" s="71">
+        <v>3715</v>
+      </c>
+      <c r="W36" s="71">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="70" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="H37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="R37" s="71">
         <v>3451</v>
       </c>
-      <c r="S34" s="71">
+      <c r="S37" s="71">
         <v>3005</v>
       </c>
-      <c r="T34" s="71">
+      <c r="T37" s="71">
         <v>2228</v>
       </c>
-      <c r="U34" s="71">
+      <c r="U37" s="71">
         <v>1499</v>
       </c>
-      <c r="V34" s="71">
+      <c r="V37" s="71">
         <v>1187</v>
       </c>
-      <c r="W34" s="71">
+      <c r="W37" s="71">
         <v>1254</v>
       </c>
     </row>
-    <row r="35" spans="2:31" s="73" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="73" t="s">
+    <row r="38" spans="2:31" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="S35" s="76">
-        <f>S30/R30-1</f>
+      <c r="D38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="H38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="S38" s="76">
+        <f>S33/R33-1</f>
         <v>-6.6251830161054182E-2</v>
       </c>
-      <c r="T35" s="76">
-        <f>T30/S30-1</f>
+      <c r="T38" s="76">
+        <f>T33/S33-1</f>
         <v>-1.9521756174049387E-2</v>
       </c>
-      <c r="U35" s="76">
-        <f>U30/T30-1</f>
+      <c r="U38" s="76">
+        <f>U33/T33-1</f>
         <v>-5.7652326883096072E-2</v>
       </c>
-      <c r="V35" s="76">
-        <f>V30/U30-1</f>
+      <c r="V38" s="76">
+        <f>V33/U33-1</f>
         <v>-4.7263470513364436E-2</v>
       </c>
-      <c r="W35" s="76">
-        <f>W30/V30-1</f>
+      <c r="W38" s="76">
+        <f>W33/V33-1</f>
         <v>3.0014250089062999E-2</v>
       </c>
-      <c r="X35" s="75"/>
-      <c r="Y35" s="75"/>
-      <c r="Z35" s="75"/>
-      <c r="AA35" s="75"/>
-      <c r="AB35" s="75"/>
-      <c r="AC35" s="75"/>
-      <c r="AD35" s="75"/>
-      <c r="AE35" s="75"/>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B37" s="34" t="s">
+      <c r="X38" s="75"/>
+      <c r="Y38" s="75"/>
+      <c r="Z38" s="75"/>
+      <c r="AA38" s="75"/>
+      <c r="AB38" s="75"/>
+      <c r="AC38" s="75"/>
+      <c r="AD38" s="75"/>
+      <c r="AE38" s="75"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B40" s="34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="32">
+      <c r="C41" s="32">
         <f>2002+238</f>
         <v>2240</v>
       </c>
-      <c r="D38" s="33">
+      <c r="D41" s="33">
         <f>2098+228</f>
         <v>2326</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E41" s="32">
         <f>2059+216</f>
         <v>2275</v>
       </c>
-      <c r="F38" s="33">
-        <f>T38</f>
+      <c r="F41" s="33">
+        <f>T41</f>
         <v>2174</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G41" s="32">
         <f>1843+188</f>
         <v>2031</v>
       </c>
-      <c r="H38" s="33">
+      <c r="H41" s="33">
         <f>1877+190</f>
         <v>2067</v>
       </c>
-      <c r="I38" s="32">
+      <c r="I41" s="32">
         <f>2082+281</f>
         <v>2363</v>
       </c>
-      <c r="J38" s="33">
-        <f>V38</f>
+      <c r="J41" s="33">
+        <f>V41</f>
         <v>2710</v>
       </c>
-      <c r="K38" s="32">
+      <c r="K41" s="32">
         <f>2238+288</f>
         <v>2526</v>
       </c>
-      <c r="L38" s="33">
-        <f>W38</f>
+      <c r="L41" s="33">
+        <f>W41</f>
         <v>2519</v>
       </c>
-      <c r="M38" s="32">
+      <c r="M41" s="32">
         <f>2190+245</f>
         <v>2435</v>
       </c>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32">
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32">
         <f>2008+260</f>
         <v>2268</v>
       </c>
-      <c r="S38" s="32">
+      <c r="S41" s="32">
         <f>2098+228</f>
         <v>2326</v>
       </c>
-      <c r="T38" s="32">
+      <c r="T41" s="32">
         <f>1962+212</f>
         <v>2174</v>
       </c>
-      <c r="U38" s="32">
+      <c r="U41" s="32">
         <f>1877+190</f>
         <v>2067</v>
       </c>
-      <c r="V38" s="32">
+      <c r="V41" s="32">
         <f>2416+294</f>
         <v>2710</v>
       </c>
-      <c r="W38" s="32">
+      <c r="W41" s="32">
         <f>2245+274</f>
         <v>2519</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="32">
-        <v>131</v>
-      </c>
-      <c r="D39" s="33">
-        <v>117</v>
-      </c>
-      <c r="E39" s="32">
-        <v>198</v>
-      </c>
-      <c r="F39" s="33">
-        <f>T39</f>
-        <v>173</v>
-      </c>
-      <c r="G39" s="32">
-        <v>165</v>
-      </c>
-      <c r="H39" s="33">
-        <v>164</v>
-      </c>
-      <c r="I39" s="32">
-        <v>155</v>
-      </c>
-      <c r="J39" s="23">
-        <f>-V39</f>
-        <v>-152</v>
-      </c>
-      <c r="K39" s="32">
-        <v>124</v>
-      </c>
-      <c r="L39" s="33">
-        <f>W39</f>
-        <v>104</v>
-      </c>
-      <c r="M39" s="32">
-        <v>101</v>
-      </c>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32">
-        <v>129</v>
-      </c>
-      <c r="S39" s="32">
-        <v>117</v>
-      </c>
-      <c r="T39" s="32">
-        <v>173</v>
-      </c>
-      <c r="U39" s="32">
-        <v>164</v>
-      </c>
-      <c r="V39" s="32">
-        <v>152</v>
-      </c>
-      <c r="W39" s="32">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="35">
-        <v>0</v>
-      </c>
-      <c r="D40" s="36">
-        <v>0</v>
-      </c>
-      <c r="E40" s="35">
-        <v>0</v>
-      </c>
-      <c r="F40" s="36">
-        <f>T40</f>
-        <v>0</v>
-      </c>
-      <c r="G40" s="35">
-        <v>19</v>
-      </c>
-      <c r="H40" s="36">
-        <v>21</v>
-      </c>
-      <c r="I40" s="35">
-        <v>4</v>
-      </c>
-      <c r="J40" s="30">
-        <f>V40</f>
-        <v>4</v>
-      </c>
-      <c r="K40" s="35">
-        <v>4</v>
-      </c>
-      <c r="L40" s="36">
-        <f t="shared" ref="L40:L41" si="38">W40</f>
-        <v>4</v>
-      </c>
-      <c r="M40" s="35">
-        <v>6</v>
-      </c>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35">
-        <v>0</v>
-      </c>
-      <c r="S40" s="35">
-        <v>0</v>
-      </c>
-      <c r="T40" s="35">
-        <v>0</v>
-      </c>
-      <c r="U40" s="35">
-        <v>21</v>
-      </c>
-      <c r="V40" s="35">
-        <v>4</v>
-      </c>
-      <c r="W40" s="35">
-        <v>4</v>
-      </c>
-      <c r="X40" s="59"/>
-      <c r="Y40" s="59"/>
-      <c r="Z40" s="59"/>
-      <c r="AA40" s="59"/>
-      <c r="AB40" s="59"/>
-      <c r="AC40" s="59"/>
-      <c r="AD40" s="59"/>
-      <c r="AE40" s="59"/>
-    </row>
-    <row r="41" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="35">
-        <v>3</v>
-      </c>
-      <c r="D41" s="36">
-        <v>4</v>
-      </c>
-      <c r="E41" s="35">
-        <v>3</v>
-      </c>
-      <c r="F41" s="36">
-        <f>T41</f>
-        <v>1</v>
-      </c>
-      <c r="G41" s="35">
-        <v>1</v>
-      </c>
-      <c r="H41" s="36">
-        <v>0</v>
-      </c>
-      <c r="I41" s="35">
-        <v>0</v>
-      </c>
-      <c r="J41" s="23">
-        <f t="shared" ref="J41:J48" si="39">-V41</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="35">
-        <v>2</v>
-      </c>
-      <c r="L41" s="36">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="M41" s="35">
-        <v>13</v>
-      </c>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35">
-        <v>1</v>
-      </c>
-      <c r="S41" s="35">
-        <v>4</v>
-      </c>
-      <c r="T41" s="35">
-        <v>1</v>
-      </c>
-      <c r="U41" s="35">
-        <v>0</v>
-      </c>
-      <c r="V41" s="35">
-        <v>0</v>
-      </c>
-      <c r="W41" s="35">
-        <v>1</v>
-      </c>
-      <c r="X41" s="59"/>
-      <c r="Y41" s="59"/>
-      <c r="Z41" s="59"/>
-      <c r="AA41" s="59"/>
-      <c r="AB41" s="59"/>
-      <c r="AC41" s="59"/>
-      <c r="AD41" s="59"/>
-      <c r="AE41" s="59"/>
-    </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C42" s="32">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="D42" s="33">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="E42" s="32">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="F42" s="33">
-        <f t="shared" ref="F42:F48" si="40">T42</f>
-        <v>86</v>
+        <f>T42</f>
+        <v>173</v>
       </c>
       <c r="G42" s="32">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="H42" s="33">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="I42" s="32">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="J42" s="23">
-        <f t="shared" si="39"/>
-        <v>-128</v>
+        <f>-V42</f>
+        <v>-152</v>
       </c>
       <c r="K42" s="32">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L42" s="33">
         <f>W42</f>
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="M42" s="32">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="N42" s="32"/>
       <c r="O42" s="32"/>
       <c r="P42" s="32"/>
       <c r="Q42" s="32"/>
       <c r="R42" s="32">
+        <v>129</v>
+      </c>
+      <c r="S42" s="32">
+        <v>117</v>
+      </c>
+      <c r="T42" s="32">
+        <v>173</v>
+      </c>
+      <c r="U42" s="32">
+        <v>164</v>
+      </c>
+      <c r="V42" s="32">
+        <v>152</v>
+      </c>
+      <c r="W42" s="32">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="35">
+        <v>0</v>
+      </c>
+      <c r="D43" s="36">
+        <v>0</v>
+      </c>
+      <c r="E43" s="35">
+        <v>0</v>
+      </c>
+      <c r="F43" s="36">
+        <f>T43</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="35">
+        <v>19</v>
+      </c>
+      <c r="H43" s="36">
+        <v>21</v>
+      </c>
+      <c r="I43" s="35">
+        <v>4</v>
+      </c>
+      <c r="J43" s="30">
+        <f>V43</f>
+        <v>4</v>
+      </c>
+      <c r="K43" s="35">
+        <v>4</v>
+      </c>
+      <c r="L43" s="36">
+        <f t="shared" ref="L43:L44" si="54">W43</f>
+        <v>4</v>
+      </c>
+      <c r="M43" s="35">
+        <v>6</v>
+      </c>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35">
+        <v>0</v>
+      </c>
+      <c r="S43" s="35">
+        <v>0</v>
+      </c>
+      <c r="T43" s="35">
+        <v>0</v>
+      </c>
+      <c r="U43" s="35">
+        <v>21</v>
+      </c>
+      <c r="V43" s="35">
+        <v>4</v>
+      </c>
+      <c r="W43" s="35">
+        <v>4</v>
+      </c>
+      <c r="X43" s="59"/>
+      <c r="Y43" s="59"/>
+      <c r="Z43" s="59"/>
+      <c r="AA43" s="59"/>
+      <c r="AB43" s="59"/>
+      <c r="AC43" s="59"/>
+      <c r="AD43" s="59"/>
+      <c r="AE43" s="59"/>
+    </row>
+    <row r="44" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="35">
+        <v>3</v>
+      </c>
+      <c r="D44" s="36">
+        <v>4</v>
+      </c>
+      <c r="E44" s="35">
+        <v>3</v>
+      </c>
+      <c r="F44" s="36">
+        <f>T44</f>
+        <v>1</v>
+      </c>
+      <c r="G44" s="35">
+        <v>1</v>
+      </c>
+      <c r="H44" s="36">
+        <v>0</v>
+      </c>
+      <c r="I44" s="35">
+        <v>0</v>
+      </c>
+      <c r="J44" s="23">
+        <f t="shared" ref="J44:J51" si="55">-V44</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="35">
         <v>2</v>
       </c>
-      <c r="S42" s="32">
-        <v>73</v>
-      </c>
-      <c r="T42" s="32">
-        <v>86</v>
-      </c>
-      <c r="U42" s="32">
-        <v>113</v>
-      </c>
-      <c r="V42" s="32">
-        <v>128</v>
-      </c>
-      <c r="W42" s="32">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="32">
-        <v>57</v>
-      </c>
-      <c r="D43" s="33">
-        <v>31</v>
-      </c>
-      <c r="E43" s="32">
-        <v>26</v>
-      </c>
-      <c r="F43" s="33">
-        <f t="shared" si="40"/>
-        <v>35</v>
-      </c>
-      <c r="G43" s="32">
-        <v>36</v>
-      </c>
-      <c r="H43" s="33">
-        <v>40</v>
-      </c>
-      <c r="I43" s="32">
-        <v>34</v>
-      </c>
-      <c r="J43" s="23">
-        <f t="shared" si="39"/>
-        <v>-19</v>
-      </c>
-      <c r="K43" s="32">
-        <v>35</v>
-      </c>
-      <c r="L43" s="33">
-        <f>W43</f>
-        <v>56</v>
-      </c>
-      <c r="M43" s="32">
-        <v>73</v>
-      </c>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32">
-        <v>51</v>
-      </c>
-      <c r="S43" s="32">
-        <v>31</v>
-      </c>
-      <c r="T43" s="32">
-        <v>35</v>
-      </c>
-      <c r="U43" s="32">
-        <v>40</v>
-      </c>
-      <c r="V43" s="32">
-        <v>19</v>
-      </c>
-      <c r="W43" s="32">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="32">
-        <f t="shared" ref="C44:M44" si="41">SUM(C38:C43)</f>
-        <v>2471</v>
-      </c>
-      <c r="D44" s="33">
-        <f t="shared" si="41"/>
-        <v>2551</v>
-      </c>
-      <c r="E44" s="32">
-        <f t="shared" si="41"/>
-        <v>2585</v>
-      </c>
-      <c r="F44" s="33">
-        <f t="shared" si="41"/>
-        <v>2469</v>
-      </c>
-      <c r="G44" s="32">
-        <f t="shared" si="41"/>
-        <v>2353</v>
-      </c>
-      <c r="H44" s="33">
-        <f t="shared" si="41"/>
-        <v>2405</v>
-      </c>
-      <c r="I44" s="32">
-        <f t="shared" si="41"/>
-        <v>2672</v>
-      </c>
-      <c r="J44" s="33">
-        <f t="shared" si="41"/>
-        <v>2415</v>
-      </c>
-      <c r="K44" s="32">
-        <f t="shared" si="41"/>
-        <v>2816</v>
-      </c>
-      <c r="L44" s="33">
-        <f t="shared" si="41"/>
-        <v>2822</v>
-      </c>
-      <c r="M44" s="32">
-        <f t="shared" si="41"/>
-        <v>2764</v>
-      </c>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32">
-        <f t="shared" ref="R44:W44" si="42">SUM(R38:R43)</f>
-        <v>2451</v>
-      </c>
-      <c r="S44" s="32">
-        <f t="shared" si="42"/>
-        <v>2551</v>
-      </c>
-      <c r="T44" s="32">
-        <f t="shared" si="42"/>
-        <v>2469</v>
-      </c>
-      <c r="U44" s="32">
-        <f t="shared" si="42"/>
-        <v>2405</v>
-      </c>
-      <c r="V44" s="32">
-        <f t="shared" si="42"/>
-        <v>3013</v>
-      </c>
-      <c r="W44" s="32">
-        <f t="shared" si="42"/>
-        <v>2822</v>
-      </c>
+      <c r="L44" s="36">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="M44" s="35">
+        <v>13</v>
+      </c>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35">
+        <v>1</v>
+      </c>
+      <c r="S44" s="35">
+        <v>4</v>
+      </c>
+      <c r="T44" s="35">
+        <v>1</v>
+      </c>
+      <c r="U44" s="35">
+        <v>0</v>
+      </c>
+      <c r="V44" s="35">
+        <v>0</v>
+      </c>
+      <c r="W44" s="35">
+        <v>1</v>
+      </c>
+      <c r="X44" s="59"/>
+      <c r="Y44" s="59"/>
+      <c r="Z44" s="59"/>
+      <c r="AA44" s="59"/>
+      <c r="AB44" s="59"/>
+      <c r="AC44" s="59"/>
+      <c r="AD44" s="59"/>
+      <c r="AE44" s="59"/>
     </row>
     <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C45" s="32">
-        <v>402</v>
+        <v>40</v>
       </c>
       <c r="D45" s="33">
-        <v>364</v>
+        <v>73</v>
       </c>
       <c r="E45" s="32">
-        <v>329</v>
+        <v>83</v>
       </c>
       <c r="F45" s="33">
-        <f t="shared" si="40"/>
-        <v>302</v>
+        <f t="shared" ref="F45:F51" si="56">T45</f>
+        <v>86</v>
       </c>
       <c r="G45" s="32">
-        <v>290</v>
+        <v>101</v>
       </c>
       <c r="H45" s="33">
-        <v>295</v>
-      </c>
-      <c r="I45" s="1">
-        <v>329</v>
+        <v>113</v>
+      </c>
+      <c r="I45" s="32">
+        <v>116</v>
       </c>
       <c r="J45" s="23">
-        <f t="shared" si="39"/>
-        <v>-335</v>
+        <f t="shared" si="55"/>
+        <v>-128</v>
       </c>
       <c r="K45" s="32">
-        <v>367</v>
+        <v>125</v>
       </c>
       <c r="L45" s="33">
         <f>W45</f>
-        <v>376</v>
+        <v>138</v>
       </c>
       <c r="M45" s="32">
-        <v>391</v>
+        <v>136</v>
       </c>
       <c r="N45" s="32"/>
       <c r="O45" s="32"/>
       <c r="P45" s="32"/>
       <c r="Q45" s="32"/>
       <c r="R45" s="32">
-        <v>460</v>
+        <v>2</v>
       </c>
       <c r="S45" s="32">
-        <v>364</v>
+        <v>73</v>
       </c>
       <c r="T45" s="32">
-        <v>302</v>
+        <v>86</v>
       </c>
       <c r="U45" s="32">
-        <v>295</v>
+        <v>113</v>
       </c>
       <c r="V45" s="32">
-        <v>335</v>
+        <v>128</v>
       </c>
       <c r="W45" s="32">
-        <v>376</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C46" s="32">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D46" s="33">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="E46" s="32">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F46" s="33">
-        <f t="shared" si="40"/>
-        <v>5</v>
+        <f t="shared" si="56"/>
+        <v>35</v>
       </c>
       <c r="G46" s="32">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H46" s="33">
-        <v>37</v>
-      </c>
-      <c r="I46" s="1">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="I46" s="32">
+        <v>34</v>
       </c>
       <c r="J46" s="23">
-        <f t="shared" si="39"/>
-        <v>-39</v>
+        <f t="shared" si="55"/>
+        <v>-19</v>
       </c>
       <c r="K46" s="32">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L46" s="33">
         <f>W46</f>
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="M46" s="32">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="N46" s="32"/>
       <c r="O46" s="32"/>
       <c r="P46" s="32"/>
       <c r="Q46" s="32"/>
       <c r="R46" s="32">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="S46" s="32">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="T46" s="32">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="U46" s="32">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="V46" s="32">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="W46" s="32">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="35">
-        <v>351</v>
-      </c>
-      <c r="D47" s="36">
-        <v>371</v>
-      </c>
-      <c r="E47" s="35">
-        <v>912</v>
-      </c>
-      <c r="F47" s="36">
-        <f>T47</f>
-        <v>831</v>
-      </c>
-      <c r="G47" s="35">
-        <v>693</v>
-      </c>
-      <c r="H47" s="36">
-        <v>553</v>
-      </c>
-      <c r="I47" s="2">
-        <v>515</v>
-      </c>
-      <c r="J47" s="30">
-        <f>V47</f>
-        <v>489</v>
-      </c>
-      <c r="K47" s="35">
-        <v>575</v>
-      </c>
-      <c r="L47" s="36">
-        <f>W47</f>
-        <v>696</v>
-      </c>
-      <c r="M47" s="35">
-        <v>448</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="32">
+        <f t="shared" ref="C47:M47" si="57">SUM(C41:C46)</f>
+        <v>2471</v>
+      </c>
+      <c r="D47" s="33">
+        <f t="shared" si="57"/>
+        <v>2551</v>
+      </c>
+      <c r="E47" s="32">
+        <f t="shared" si="57"/>
+        <v>2585</v>
+      </c>
+      <c r="F47" s="33">
+        <f t="shared" si="57"/>
+        <v>2469</v>
+      </c>
+      <c r="G47" s="32">
+        <f t="shared" si="57"/>
+        <v>2353</v>
+      </c>
+      <c r="H47" s="33">
+        <f t="shared" si="57"/>
+        <v>2405</v>
+      </c>
+      <c r="I47" s="32">
+        <f t="shared" si="57"/>
+        <v>2672</v>
+      </c>
+      <c r="J47" s="33">
+        <f t="shared" si="57"/>
+        <v>2415</v>
+      </c>
+      <c r="K47" s="32">
+        <f t="shared" si="57"/>
+        <v>2816</v>
+      </c>
+      <c r="L47" s="33">
+        <f t="shared" si="57"/>
+        <v>2822</v>
+      </c>
+      <c r="M47" s="32">
+        <f t="shared" si="57"/>
+        <v>2764</v>
       </c>
       <c r="N47" s="32"/>
       <c r="O47" s="32"/>
       <c r="P47" s="32"/>
       <c r="Q47" s="32"/>
-      <c r="R47" s="35">
-        <v>272</v>
-      </c>
-      <c r="S47" s="35">
-        <v>371</v>
-      </c>
-      <c r="T47" s="35">
-        <v>831</v>
-      </c>
-      <c r="U47" s="35">
-        <v>553</v>
-      </c>
-      <c r="V47" s="35">
-        <v>489</v>
-      </c>
-      <c r="W47" s="35">
-        <v>696</v>
-      </c>
-      <c r="X47" s="59"/>
-      <c r="Y47" s="59"/>
-      <c r="Z47" s="59"/>
-      <c r="AA47" s="59"/>
-      <c r="AB47" s="59"/>
-      <c r="AC47" s="59"/>
-      <c r="AD47" s="59"/>
-      <c r="AE47" s="59"/>
+      <c r="R47" s="32">
+        <f t="shared" ref="R47:W47" si="58">SUM(R41:R46)</f>
+        <v>2451</v>
+      </c>
+      <c r="S47" s="32">
+        <f t="shared" si="58"/>
+        <v>2551</v>
+      </c>
+      <c r="T47" s="32">
+        <f t="shared" si="58"/>
+        <v>2469</v>
+      </c>
+      <c r="U47" s="32">
+        <f t="shared" si="58"/>
+        <v>2405</v>
+      </c>
+      <c r="V47" s="32">
+        <f t="shared" si="58"/>
+        <v>3013</v>
+      </c>
+      <c r="W47" s="32">
+        <f t="shared" si="58"/>
+        <v>2822</v>
+      </c>
     </row>
     <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C48" s="32">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="D48" s="33">
-        <v>63</v>
+        <v>364</v>
       </c>
       <c r="E48" s="32">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="F48" s="33">
-        <f t="shared" si="40"/>
-        <v>108</v>
+        <f t="shared" si="56"/>
+        <v>302</v>
       </c>
       <c r="G48" s="32">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="H48" s="33">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="I48" s="1">
-        <v>2</v>
+        <v>329</v>
       </c>
       <c r="J48" s="23">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f t="shared" si="55"/>
+        <v>-335</v>
       </c>
       <c r="K48" s="32">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="L48" s="33">
         <f>W48</f>
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="M48" s="32">
-        <v>7</v>
+        <v>391</v>
       </c>
       <c r="N48" s="32"/>
       <c r="O48" s="32"/>
       <c r="P48" s="32"/>
       <c r="Q48" s="32"/>
       <c r="R48" s="32">
-        <v>113</v>
+        <v>460</v>
       </c>
       <c r="S48" s="32">
-        <v>63</v>
+        <v>364</v>
       </c>
       <c r="T48" s="32">
-        <v>108</v>
+        <v>302</v>
       </c>
       <c r="U48" s="32">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="V48" s="32">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="W48" s="32">
-        <v>0</v>
+        <v>376</v>
       </c>
     </row>
     <row r="49" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C49" s="32">
-        <f t="shared" ref="C49:M49" si="43">C44+SUM(C45:C48)</f>
-        <v>3228</v>
+        <v>4</v>
       </c>
       <c r="D49" s="33">
-        <f t="shared" si="43"/>
-        <v>3352</v>
+        <v>3</v>
       </c>
       <c r="E49" s="32">
-        <f t="shared" si="43"/>
-        <v>3841</v>
+        <v>15</v>
       </c>
       <c r="F49" s="33">
-        <f t="shared" si="43"/>
-        <v>3715</v>
+        <f t="shared" si="56"/>
+        <v>5</v>
       </c>
       <c r="G49" s="32">
-        <f t="shared" si="43"/>
-        <v>3444</v>
+        <v>13</v>
       </c>
       <c r="H49" s="33">
-        <f t="shared" si="43"/>
-        <v>3329</v>
-      </c>
-      <c r="I49" s="32">
-        <f t="shared" si="43"/>
-        <v>3546</v>
-      </c>
-      <c r="J49" s="33">
-        <f t="shared" si="43"/>
-        <v>2530</v>
+        <v>37</v>
+      </c>
+      <c r="I49" s="1">
+        <v>28</v>
+      </c>
+      <c r="J49" s="23">
+        <f t="shared" si="55"/>
+        <v>-39</v>
       </c>
       <c r="K49" s="32">
-        <f t="shared" si="43"/>
-        <v>3795</v>
+        <v>37</v>
       </c>
       <c r="L49" s="33">
-        <f t="shared" si="43"/>
-        <v>3936</v>
+        <f>W49</f>
+        <v>42</v>
       </c>
       <c r="M49" s="32">
-        <f t="shared" si="43"/>
-        <v>3647</v>
+        <v>37</v>
       </c>
       <c r="N49" s="32"/>
       <c r="O49" s="32"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="32"/>
       <c r="R49" s="32">
-        <f t="shared" ref="R49:W49" si="44">R44+SUM(R45:R48)</f>
-        <v>3300</v>
+        <v>4</v>
       </c>
       <c r="S49" s="32">
-        <f t="shared" si="44"/>
-        <v>3352</v>
+        <v>3</v>
       </c>
       <c r="T49" s="32">
-        <f t="shared" si="44"/>
-        <v>3715</v>
+        <v>5</v>
       </c>
       <c r="U49" s="32">
-        <f t="shared" si="44"/>
-        <v>3329</v>
+        <v>37</v>
       </c>
       <c r="V49" s="32">
-        <f t="shared" si="44"/>
-        <v>3876</v>
+        <v>39</v>
       </c>
       <c r="W49" s="32">
-        <f t="shared" si="44"/>
-        <v>3936</v>
-      </c>
-    </row>
-    <row r="50" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="G50" s="32"/>
-      <c r="H50" s="33"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="32"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="35">
+        <v>351</v>
+      </c>
+      <c r="D50" s="36">
+        <v>371</v>
+      </c>
+      <c r="E50" s="35">
+        <v>912</v>
+      </c>
+      <c r="F50" s="36">
+        <f>T50</f>
+        <v>831</v>
+      </c>
+      <c r="G50" s="35">
+        <v>693</v>
+      </c>
+      <c r="H50" s="36">
+        <v>553</v>
+      </c>
+      <c r="I50" s="2">
+        <v>515</v>
+      </c>
+      <c r="J50" s="30">
+        <f>V50</f>
+        <v>489</v>
+      </c>
+      <c r="K50" s="35">
+        <v>575</v>
+      </c>
+      <c r="L50" s="36">
+        <f>W50</f>
+        <v>696</v>
+      </c>
+      <c r="M50" s="35">
+        <v>448</v>
+      </c>
       <c r="N50" s="32"/>
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="32"/>
+      <c r="R50" s="35">
+        <v>272</v>
+      </c>
+      <c r="S50" s="35">
+        <v>371</v>
+      </c>
+      <c r="T50" s="35">
+        <v>831</v>
+      </c>
+      <c r="U50" s="35">
+        <v>553</v>
+      </c>
+      <c r="V50" s="35">
+        <v>489</v>
+      </c>
+      <c r="W50" s="35">
+        <v>696</v>
+      </c>
+      <c r="X50" s="59"/>
+      <c r="Y50" s="59"/>
+      <c r="Z50" s="59"/>
+      <c r="AA50" s="59"/>
+      <c r="AB50" s="59"/>
+      <c r="AC50" s="59"/>
+      <c r="AD50" s="59"/>
+      <c r="AE50" s="59"/>
     </row>
     <row r="51" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C51" s="32">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="D51" s="33">
-        <v>291</v>
+        <v>63</v>
       </c>
       <c r="E51" s="32">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="F51" s="33">
-        <f t="shared" ref="F51:F56" si="45">T51</f>
-        <v>297</v>
+        <f t="shared" si="56"/>
+        <v>108</v>
       </c>
       <c r="G51" s="32">
-        <v>529</v>
+        <v>95</v>
       </c>
       <c r="H51" s="33">
-        <v>592</v>
-      </c>
-      <c r="I51" s="32">
-        <v>311</v>
+        <v>39</v>
+      </c>
+      <c r="I51" s="1">
+        <v>2</v>
       </c>
       <c r="J51" s="23">
-        <f t="shared" ref="J51:J56" si="46">V51</f>
-        <v>368</v>
+        <f t="shared" si="55"/>
+        <v>0</v>
       </c>
       <c r="K51" s="32">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="L51" s="33">
-        <f t="shared" ref="L51:L56" si="47">W51</f>
-        <v>378</v>
+        <f>W51</f>
+        <v>0</v>
       </c>
       <c r="M51" s="32">
-        <v>371</v>
+        <v>7</v>
       </c>
       <c r="N51" s="32"/>
       <c r="O51" s="32"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="32"/>
       <c r="R51" s="32">
-        <v>249</v>
+        <v>113</v>
       </c>
       <c r="S51" s="32">
-        <v>291</v>
+        <v>63</v>
       </c>
       <c r="T51" s="32">
-        <v>297</v>
+        <v>108</v>
       </c>
       <c r="U51" s="32">
-        <v>592</v>
+        <v>39</v>
       </c>
       <c r="V51" s="32">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="W51" s="32">
-        <v>378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C52" s="32">
-        <v>47</v>
+        <f t="shared" ref="C52:M52" si="59">C47+SUM(C48:C51)</f>
+        <v>3228</v>
       </c>
       <c r="D52" s="33">
-        <v>32</v>
+        <f t="shared" si="59"/>
+        <v>3352</v>
       </c>
       <c r="E52" s="32">
-        <v>46</v>
+        <f t="shared" si="59"/>
+        <v>3841</v>
       </c>
       <c r="F52" s="33">
-        <f t="shared" si="45"/>
-        <v>13</v>
+        <f t="shared" si="59"/>
+        <v>3715</v>
       </c>
       <c r="G52" s="32">
-        <v>24</v>
+        <f t="shared" si="59"/>
+        <v>3444</v>
       </c>
       <c r="H52" s="33">
-        <v>31</v>
+        <f t="shared" si="59"/>
+        <v>3329</v>
       </c>
       <c r="I52" s="32">
-        <v>23</v>
-      </c>
-      <c r="J52" s="23">
-        <f t="shared" si="46"/>
-        <v>13</v>
+        <f t="shared" si="59"/>
+        <v>3546</v>
+      </c>
+      <c r="J52" s="33">
+        <f t="shared" si="59"/>
+        <v>2530</v>
       </c>
       <c r="K52" s="32">
-        <v>33</v>
+        <f t="shared" si="59"/>
+        <v>3795</v>
       </c>
       <c r="L52" s="33">
-        <f t="shared" si="47"/>
-        <v>25</v>
+        <f t="shared" si="59"/>
+        <v>3936</v>
       </c>
       <c r="M52" s="32">
-        <v>26</v>
+        <f t="shared" si="59"/>
+        <v>3647</v>
       </c>
       <c r="N52" s="32"/>
       <c r="O52" s="32"/>
       <c r="P52" s="32"/>
       <c r="Q52" s="32"/>
       <c r="R52" s="32">
-        <v>39</v>
+        <f t="shared" ref="R52:W52" si="60">R47+SUM(R48:R51)</f>
+        <v>3300</v>
       </c>
       <c r="S52" s="32">
-        <v>32</v>
+        <f t="shared" si="60"/>
+        <v>3352</v>
       </c>
       <c r="T52" s="32">
-        <v>13</v>
+        <f t="shared" si="60"/>
+        <v>3715</v>
       </c>
       <c r="U52" s="32">
-        <v>31</v>
+        <f t="shared" si="60"/>
+        <v>3329</v>
       </c>
       <c r="V52" s="32">
-        <v>13</v>
+        <f t="shared" si="60"/>
+        <v>3876</v>
       </c>
       <c r="W52" s="32">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="35">
-        <v>5</v>
-      </c>
-      <c r="D53" s="36">
-        <v>122</v>
-      </c>
-      <c r="E53" s="35">
-        <v>149</v>
-      </c>
-      <c r="F53" s="36">
-        <f>T53</f>
-        <v>20</v>
-      </c>
-      <c r="G53" s="35">
-        <v>65</v>
-      </c>
-      <c r="H53" s="36">
-        <v>65</v>
-      </c>
-      <c r="I53" s="35">
-        <v>42</v>
-      </c>
-      <c r="J53" s="30">
-        <f t="shared" si="46"/>
-        <v>178</v>
-      </c>
-      <c r="K53" s="35">
-        <v>16</v>
-      </c>
-      <c r="L53" s="36">
-        <f t="shared" si="47"/>
-        <v>14</v>
-      </c>
-      <c r="M53" s="32">
-        <v>15</v>
-      </c>
+        <f t="shared" si="60"/>
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="53" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="G53" s="32"/>
+      <c r="H53" s="33"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="32"/>
       <c r="N53" s="32"/>
       <c r="O53" s="32"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="32"/>
-      <c r="R53" s="35">
-        <v>8</v>
-      </c>
-      <c r="S53" s="35">
-        <v>122</v>
-      </c>
-      <c r="T53" s="35">
-        <v>20</v>
-      </c>
-      <c r="U53" s="35">
-        <v>65</v>
-      </c>
-      <c r="V53" s="35">
-        <v>178</v>
-      </c>
-      <c r="W53" s="35">
-        <v>14</v>
-      </c>
-      <c r="X53" s="59"/>
-      <c r="Y53" s="59"/>
-      <c r="Z53" s="59"/>
-      <c r="AA53" s="59"/>
-      <c r="AB53" s="59"/>
-      <c r="AC53" s="59"/>
-      <c r="AD53" s="59"/>
-      <c r="AE53" s="59"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="32"/>
+      <c r="W53" s="32"/>
     </row>
     <row r="54" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C54" s="32">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c r="D54" s="33">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="E54" s="32">
-        <v>9</v>
+        <v>242</v>
       </c>
       <c r="F54" s="33">
-        <f t="shared" si="45"/>
-        <v>19</v>
+        <f t="shared" ref="F54:F59" si="61">T54</f>
+        <v>297</v>
       </c>
       <c r="G54" s="32">
-        <v>14</v>
+        <v>529</v>
       </c>
       <c r="H54" s="33">
-        <v>68</v>
+        <v>592</v>
       </c>
       <c r="I54" s="32">
-        <v>44</v>
+        <v>311</v>
       </c>
       <c r="J54" s="23">
-        <f t="shared" si="46"/>
-        <v>33</v>
+        <f t="shared" ref="J54:J59" si="62">V54</f>
+        <v>368</v>
       </c>
       <c r="K54" s="32">
-        <v>20</v>
+        <v>302</v>
       </c>
       <c r="L54" s="33">
-        <f t="shared" si="47"/>
-        <v>23</v>
+        <f t="shared" ref="L54:L59" si="63">W54</f>
+        <v>378</v>
       </c>
       <c r="M54" s="32">
-        <v>15</v>
+        <v>371</v>
       </c>
       <c r="N54" s="32"/>
       <c r="O54" s="32"/>
       <c r="P54" s="32"/>
       <c r="Q54" s="32"/>
       <c r="R54" s="32">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="S54" s="32">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="T54" s="32">
-        <v>19</v>
+        <v>297</v>
       </c>
       <c r="U54" s="32">
-        <v>68</v>
+        <v>592</v>
       </c>
       <c r="V54" s="32">
-        <v>33</v>
+        <v>368</v>
       </c>
       <c r="W54" s="32">
-        <v>23</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C55" s="32">
-        <v>660</v>
+        <v>47</v>
       </c>
       <c r="D55" s="33">
-        <v>637</v>
+        <v>32</v>
       </c>
       <c r="E55" s="32">
-        <v>691</v>
+        <v>46</v>
       </c>
       <c r="F55" s="33">
-        <f t="shared" si="45"/>
-        <v>593</v>
+        <f t="shared" si="61"/>
+        <v>13</v>
       </c>
       <c r="G55" s="32">
-        <v>638</v>
+        <v>24</v>
       </c>
       <c r="H55" s="33">
-        <v>611</v>
+        <v>31</v>
       </c>
       <c r="I55" s="32">
-        <v>705</v>
+        <v>23</v>
       </c>
       <c r="J55" s="23">
-        <f t="shared" si="46"/>
-        <v>734</v>
+        <f t="shared" si="62"/>
+        <v>13</v>
       </c>
       <c r="K55" s="32">
-        <v>770</v>
+        <v>33</v>
       </c>
       <c r="L55" s="33">
-        <f t="shared" si="47"/>
-        <v>745</v>
+        <f t="shared" si="63"/>
+        <v>25</v>
       </c>
       <c r="M55" s="32">
-        <v>803</v>
+        <v>26</v>
       </c>
       <c r="N55" s="32"/>
       <c r="O55" s="32"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="32"/>
       <c r="R55" s="32">
-        <v>620</v>
+        <v>39</v>
       </c>
       <c r="S55" s="32">
-        <v>637</v>
+        <v>32</v>
       </c>
       <c r="T55" s="32">
-        <v>593</v>
+        <v>13</v>
       </c>
       <c r="U55" s="32">
-        <v>611</v>
+        <v>31</v>
       </c>
       <c r="V55" s="32">
-        <v>734</v>
+        <v>13</v>
       </c>
       <c r="W55" s="32">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="56" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="32">
-        <v>0</v>
-      </c>
-      <c r="D56" s="33">
-        <v>33</v>
-      </c>
-      <c r="E56" s="32">
-        <v>0</v>
-      </c>
-      <c r="F56" s="33">
-        <f t="shared" si="45"/>
-        <v>73</v>
-      </c>
-      <c r="G56" s="32">
-        <v>52</v>
-      </c>
-      <c r="H56" s="33">
-        <v>13</v>
-      </c>
-      <c r="I56" s="32">
-        <v>0</v>
-      </c>
-      <c r="J56" s="23">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="32">
-        <v>0</v>
-      </c>
-      <c r="L56" s="33">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="35">
+        <v>5</v>
+      </c>
+      <c r="D56" s="36">
+        <v>122</v>
+      </c>
+      <c r="E56" s="35">
+        <v>149</v>
+      </c>
+      <c r="F56" s="36">
+        <f>T56</f>
+        <v>20</v>
+      </c>
+      <c r="G56" s="35">
+        <v>65</v>
+      </c>
+      <c r="H56" s="36">
+        <v>65</v>
+      </c>
+      <c r="I56" s="35">
+        <v>42</v>
+      </c>
+      <c r="J56" s="30">
+        <f t="shared" si="62"/>
+        <v>178</v>
+      </c>
+      <c r="K56" s="35">
+        <v>16</v>
+      </c>
+      <c r="L56" s="36">
+        <f t="shared" si="63"/>
+        <v>14</v>
       </c>
       <c r="M56" s="32">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N56" s="32"/>
       <c r="O56" s="32"/>
       <c r="P56" s="32"/>
       <c r="Q56" s="32"/>
-      <c r="R56" s="32">
-        <v>63</v>
-      </c>
-      <c r="S56" s="32">
-        <v>33</v>
-      </c>
-      <c r="T56" s="32">
-        <v>73</v>
-      </c>
-      <c r="U56" s="32">
-        <v>13</v>
-      </c>
-      <c r="V56" s="32">
-        <v>0</v>
-      </c>
-      <c r="W56" s="32">
-        <v>0</v>
-      </c>
+      <c r="R56" s="35">
+        <v>8</v>
+      </c>
+      <c r="S56" s="35">
+        <v>122</v>
+      </c>
+      <c r="T56" s="35">
+        <v>20</v>
+      </c>
+      <c r="U56" s="35">
+        <v>65</v>
+      </c>
+      <c r="V56" s="35">
+        <v>178</v>
+      </c>
+      <c r="W56" s="35">
+        <v>14</v>
+      </c>
+      <c r="X56" s="59"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="59"/>
+      <c r="AA56" s="59"/>
+      <c r="AB56" s="59"/>
+      <c r="AC56" s="59"/>
+      <c r="AD56" s="59"/>
+      <c r="AE56" s="59"/>
     </row>
     <row r="57" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C57" s="32">
-        <f t="shared" ref="C57:M57" si="48">SUM(C51:C56)</f>
-        <v>1003</v>
+        <v>15</v>
       </c>
       <c r="D57" s="33">
-        <f t="shared" si="48"/>
-        <v>1126</v>
+        <v>11</v>
       </c>
       <c r="E57" s="32">
-        <f t="shared" si="48"/>
-        <v>1137</v>
+        <v>9</v>
       </c>
       <c r="F57" s="33">
-        <f t="shared" si="48"/>
-        <v>1015</v>
+        <f t="shared" si="61"/>
+        <v>19</v>
       </c>
       <c r="G57" s="32">
-        <f t="shared" si="48"/>
-        <v>1322</v>
+        <v>14</v>
       </c>
       <c r="H57" s="33">
-        <f t="shared" si="48"/>
-        <v>1380</v>
+        <v>68</v>
       </c>
       <c r="I57" s="32">
-        <f t="shared" si="48"/>
-        <v>1125</v>
-      </c>
-      <c r="J57" s="33">
-        <f t="shared" si="48"/>
-        <v>1326</v>
+        <v>44</v>
+      </c>
+      <c r="J57" s="23">
+        <f t="shared" si="62"/>
+        <v>33</v>
       </c>
       <c r="K57" s="32">
-        <f t="shared" si="48"/>
-        <v>1141</v>
+        <v>20</v>
       </c>
       <c r="L57" s="33">
-        <f t="shared" si="48"/>
-        <v>1185</v>
+        <f t="shared" si="63"/>
+        <v>23</v>
       </c>
       <c r="M57" s="32">
-        <f t="shared" si="48"/>
-        <v>1230</v>
+        <v>15</v>
       </c>
       <c r="N57" s="32"/>
       <c r="O57" s="32"/>
       <c r="P57" s="32"/>
       <c r="Q57" s="32"/>
       <c r="R57" s="32">
-        <f t="shared" ref="R57:W57" si="49">SUM(R51:R56)</f>
-        <v>1005</v>
+        <v>26</v>
       </c>
       <c r="S57" s="32">
-        <f t="shared" si="49"/>
-        <v>1126</v>
+        <v>11</v>
       </c>
       <c r="T57" s="32">
-        <f t="shared" si="49"/>
-        <v>1015</v>
+        <v>19</v>
       </c>
       <c r="U57" s="32">
-        <f t="shared" si="49"/>
-        <v>1380</v>
+        <v>68</v>
       </c>
       <c r="V57" s="32">
-        <f t="shared" si="49"/>
-        <v>1326</v>
+        <v>33</v>
       </c>
       <c r="W57" s="32">
-        <f t="shared" si="49"/>
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="58" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="35">
-        <v>768</v>
-      </c>
-      <c r="D58" s="36">
-        <v>643</v>
-      </c>
-      <c r="E58" s="35">
-        <v>1001</v>
-      </c>
-      <c r="F58" s="36">
-        <f>T58</f>
-        <v>970</v>
-      </c>
-      <c r="G58" s="35">
-        <v>742</v>
-      </c>
-      <c r="H58" s="36">
-        <v>749</v>
-      </c>
-      <c r="I58" s="35">
-        <v>1123</v>
-      </c>
-      <c r="J58" s="30">
-        <f t="shared" ref="J58:J64" si="50">V58</f>
-        <v>1044</v>
-      </c>
-      <c r="K58" s="35">
-        <v>1250</v>
-      </c>
-      <c r="L58" s="36">
-        <f>W58</f>
-        <v>1243</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="32">
+        <v>660</v>
+      </c>
+      <c r="D58" s="33">
+        <v>637</v>
+      </c>
+      <c r="E58" s="32">
+        <v>691</v>
+      </c>
+      <c r="F58" s="33">
+        <f t="shared" si="61"/>
+        <v>593</v>
+      </c>
+      <c r="G58" s="32">
+        <v>638</v>
+      </c>
+      <c r="H58" s="33">
+        <v>611</v>
+      </c>
+      <c r="I58" s="32">
+        <v>705</v>
+      </c>
+      <c r="J58" s="23">
+        <f t="shared" si="62"/>
+        <v>734</v>
+      </c>
+      <c r="K58" s="32">
+        <v>770</v>
+      </c>
+      <c r="L58" s="33">
+        <f t="shared" si="63"/>
+        <v>745</v>
       </c>
       <c r="M58" s="32">
-        <v>1244</v>
+        <v>803</v>
       </c>
       <c r="N58" s="32"/>
       <c r="O58" s="32"/>
       <c r="P58" s="32"/>
       <c r="Q58" s="32"/>
-      <c r="R58" s="35">
-        <v>913</v>
-      </c>
-      <c r="S58" s="35">
-        <v>643</v>
-      </c>
-      <c r="T58" s="35">
-        <v>970</v>
-      </c>
-      <c r="U58" s="35">
-        <v>749</v>
-      </c>
-      <c r="V58" s="35">
-        <v>1044</v>
-      </c>
-      <c r="W58" s="35">
-        <v>1243</v>
-      </c>
-      <c r="X58" s="59"/>
-      <c r="Y58" s="59"/>
-      <c r="Z58" s="59"/>
-      <c r="AA58" s="59"/>
-      <c r="AB58" s="59"/>
-      <c r="AC58" s="59"/>
-      <c r="AD58" s="59"/>
-      <c r="AE58" s="59"/>
+      <c r="R58" s="32">
+        <v>620</v>
+      </c>
+      <c r="S58" s="32">
+        <v>637</v>
+      </c>
+      <c r="T58" s="32">
+        <v>593</v>
+      </c>
+      <c r="U58" s="32">
+        <v>611</v>
+      </c>
+      <c r="V58" s="32">
+        <v>734</v>
+      </c>
+      <c r="W58" s="32">
+        <v>745</v>
+      </c>
     </row>
     <row r="59" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C59" s="32">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D59" s="33">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E59" s="32">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F59" s="33">
-        <f t="shared" ref="F59:F63" si="51">T59</f>
-        <v>23</v>
+        <f t="shared" si="61"/>
+        <v>73</v>
       </c>
       <c r="G59" s="32">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="H59" s="33">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I59" s="32">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J59" s="23">
-        <f t="shared" si="50"/>
-        <v>19</v>
+        <f t="shared" si="62"/>
+        <v>0</v>
       </c>
       <c r="K59" s="32">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L59" s="33">
-        <f>W59</f>
-        <v>19</v>
+        <f t="shared" si="63"/>
+        <v>0</v>
       </c>
       <c r="M59" s="32">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N59" s="32"/>
       <c r="O59" s="32"/>
       <c r="P59" s="32"/>
       <c r="Q59" s="32"/>
       <c r="R59" s="32">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="S59" s="32">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="T59" s="32">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="U59" s="32">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="V59" s="32">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="W59" s="32">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C60" s="32">
-        <v>26</v>
+        <f t="shared" ref="C60:M60" si="64">SUM(C54:C59)</f>
+        <v>1003</v>
       </c>
       <c r="D60" s="33">
-        <v>24</v>
+        <f t="shared" si="64"/>
+        <v>1126</v>
       </c>
       <c r="E60" s="32">
-        <v>27</v>
+        <f t="shared" si="64"/>
+        <v>1137</v>
       </c>
       <c r="F60" s="33">
-        <f t="shared" si="51"/>
-        <v>14</v>
+        <f t="shared" si="64"/>
+        <v>1015</v>
       </c>
       <c r="G60" s="32">
-        <v>10</v>
+        <f t="shared" si="64"/>
+        <v>1322</v>
       </c>
       <c r="H60" s="33">
-        <v>5</v>
+        <f t="shared" si="64"/>
+        <v>1380</v>
       </c>
       <c r="I60" s="32">
-        <v>24</v>
-      </c>
-      <c r="J60" s="23">
-        <f t="shared" si="50"/>
-        <v>16</v>
+        <f t="shared" si="64"/>
+        <v>1125</v>
+      </c>
+      <c r="J60" s="33">
+        <f t="shared" si="64"/>
+        <v>1326</v>
       </c>
       <c r="K60" s="32">
-        <v>14</v>
+        <f t="shared" si="64"/>
+        <v>1141</v>
       </c>
       <c r="L60" s="33">
-        <f t="shared" ref="L60:L64" si="52">W60</f>
-        <v>18</v>
+        <f t="shared" si="64"/>
+        <v>1185</v>
       </c>
       <c r="M60" s="32">
-        <v>19</v>
+        <f t="shared" si="64"/>
+        <v>1230</v>
       </c>
       <c r="N60" s="32"/>
       <c r="O60" s="32"/>
       <c r="P60" s="32"/>
       <c r="Q60" s="32"/>
       <c r="R60" s="32">
-        <v>25</v>
+        <f t="shared" ref="R60:W60" si="65">SUM(R54:R59)</f>
+        <v>1005</v>
       </c>
       <c r="S60" s="32">
-        <v>24</v>
+        <f t="shared" si="65"/>
+        <v>1126</v>
       </c>
       <c r="T60" s="32">
-        <v>14</v>
+        <f t="shared" si="65"/>
+        <v>1015</v>
       </c>
       <c r="U60" s="32">
-        <v>5</v>
+        <f t="shared" si="65"/>
+        <v>1380</v>
       </c>
       <c r="V60" s="32">
-        <v>16</v>
+        <f t="shared" si="65"/>
+        <v>1326</v>
       </c>
       <c r="W60" s="32">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="32">
-        <v>12</v>
-      </c>
-      <c r="D61" s="33">
-        <v>15</v>
-      </c>
-      <c r="E61" s="32">
-        <v>13</v>
-      </c>
-      <c r="F61" s="33">
-        <f t="shared" si="51"/>
-        <v>31</v>
-      </c>
-      <c r="G61" s="32">
-        <v>29</v>
-      </c>
-      <c r="H61" s="33">
-        <v>49</v>
-      </c>
-      <c r="I61" s="32">
-        <v>36</v>
-      </c>
-      <c r="J61" s="23">
-        <f t="shared" si="50"/>
-        <v>20</v>
-      </c>
-      <c r="K61" s="32">
-        <v>24</v>
-      </c>
-      <c r="L61" s="33">
-        <f t="shared" si="52"/>
-        <v>24</v>
+        <f t="shared" si="65"/>
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="61" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="35">
+        <v>768</v>
+      </c>
+      <c r="D61" s="36">
+        <v>643</v>
+      </c>
+      <c r="E61" s="35">
+        <v>1001</v>
+      </c>
+      <c r="F61" s="36">
+        <f>T61</f>
+        <v>970</v>
+      </c>
+      <c r="G61" s="35">
+        <v>742</v>
+      </c>
+      <c r="H61" s="36">
+        <v>749</v>
+      </c>
+      <c r="I61" s="35">
+        <v>1123</v>
+      </c>
+      <c r="J61" s="30">
+        <f t="shared" ref="J61:J67" si="66">V61</f>
+        <v>1044</v>
+      </c>
+      <c r="K61" s="35">
+        <v>1250</v>
+      </c>
+      <c r="L61" s="36">
+        <f>W61</f>
+        <v>1243</v>
       </c>
       <c r="M61" s="32">
-        <v>27</v>
+        <v>1244</v>
       </c>
       <c r="N61" s="32"/>
       <c r="O61" s="32"/>
       <c r="P61" s="32"/>
       <c r="Q61" s="32"/>
-      <c r="R61" s="32">
-        <v>11</v>
-      </c>
-      <c r="S61" s="32">
-        <v>15</v>
-      </c>
-      <c r="T61" s="32">
-        <v>31</v>
-      </c>
-      <c r="U61" s="32">
-        <v>49</v>
-      </c>
-      <c r="V61" s="32">
-        <v>20</v>
-      </c>
-      <c r="W61" s="32">
-        <v>24</v>
-      </c>
+      <c r="R61" s="35">
+        <v>913</v>
+      </c>
+      <c r="S61" s="35">
+        <v>643</v>
+      </c>
+      <c r="T61" s="35">
+        <v>970</v>
+      </c>
+      <c r="U61" s="35">
+        <v>749</v>
+      </c>
+      <c r="V61" s="35">
+        <v>1044</v>
+      </c>
+      <c r="W61" s="35">
+        <v>1243</v>
+      </c>
+      <c r="X61" s="59"/>
+      <c r="Y61" s="59"/>
+      <c r="Z61" s="59"/>
+      <c r="AA61" s="59"/>
+      <c r="AB61" s="59"/>
+      <c r="AC61" s="59"/>
+      <c r="AD61" s="59"/>
+      <c r="AE61" s="59"/>
     </row>
     <row r="62" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C62" s="32">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D62" s="33">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E62" s="32">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F62" s="33">
-        <f t="shared" si="51"/>
-        <v>3</v>
+        <f t="shared" ref="F62:F66" si="67">T62</f>
+        <v>23</v>
       </c>
       <c r="G62" s="32">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="H62" s="33">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="I62" s="32">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J62" s="23">
-        <f t="shared" si="50"/>
-        <v>6</v>
+        <f t="shared" si="66"/>
+        <v>19</v>
       </c>
       <c r="K62" s="32">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="L62" s="33">
-        <f t="shared" si="52"/>
-        <v>13</v>
+        <f>W62</f>
+        <v>19</v>
       </c>
       <c r="M62" s="32">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="N62" s="32"/>
       <c r="O62" s="32"/>
       <c r="P62" s="32"/>
       <c r="Q62" s="32"/>
       <c r="R62" s="32">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="S62" s="32">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="T62" s="32">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="U62" s="32">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="V62" s="32">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="W62" s="32">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C63" s="32">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D63" s="33">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E63" s="32">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F63" s="33">
-        <f t="shared" si="51"/>
-        <v>7</v>
+        <f t="shared" si="67"/>
+        <v>14</v>
       </c>
       <c r="G63" s="32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H63" s="33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I63" s="32">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="J63" s="23">
-        <f t="shared" si="50"/>
-        <v>8</v>
+        <f t="shared" si="66"/>
+        <v>16</v>
       </c>
       <c r="K63" s="32">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L63" s="33">
-        <f t="shared" si="52"/>
-        <v>7</v>
+        <f t="shared" ref="L63:L67" si="68">W63</f>
+        <v>18</v>
       </c>
       <c r="M63" s="32">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="N63" s="32"/>
       <c r="O63" s="32"/>
       <c r="P63" s="32"/>
       <c r="Q63" s="32"/>
       <c r="R63" s="32">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="S63" s="32">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="T63" s="32">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="U63" s="32">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V63" s="32">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="W63" s="32">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C64" s="32">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D64" s="33">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E64" s="32">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F64" s="33">
-        <v>0</v>
+        <f t="shared" si="67"/>
+        <v>31</v>
       </c>
       <c r="G64" s="32">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="H64" s="33">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I64" s="32">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J64" s="23">
-        <f t="shared" si="50"/>
-        <v>60</v>
+        <f t="shared" si="66"/>
+        <v>20</v>
       </c>
       <c r="K64" s="32">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L64" s="33">
-        <f t="shared" si="52"/>
-        <v>20</v>
+        <f t="shared" si="68"/>
+        <v>24</v>
       </c>
       <c r="M64" s="32">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="N64" s="32"/>
       <c r="O64" s="32"/>
       <c r="P64" s="32"/>
       <c r="Q64" s="32"/>
       <c r="R64" s="32">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S64" s="32">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="T64" s="32">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="U64" s="32">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="V64" s="32">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="W64" s="32">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C65" s="32">
-        <f t="shared" ref="C65:M65" si="53">C57+SUM(C58:C64)</f>
-        <v>1845</v>
+        <v>7</v>
       </c>
       <c r="D65" s="33">
-        <f t="shared" si="53"/>
-        <v>1848</v>
+        <v>7</v>
       </c>
       <c r="E65" s="32">
-        <f t="shared" si="53"/>
-        <v>2217</v>
+        <v>6</v>
       </c>
       <c r="F65" s="33">
-        <f t="shared" si="53"/>
-        <v>2063</v>
+        <f t="shared" si="67"/>
+        <v>3</v>
       </c>
       <c r="G65" s="32">
-        <f t="shared" si="53"/>
-        <v>2140</v>
+        <v>3</v>
       </c>
       <c r="H65" s="33">
-        <f t="shared" si="53"/>
-        <v>2218</v>
+        <v>3</v>
       </c>
       <c r="I65" s="32">
-        <f t="shared" si="53"/>
-        <v>2342</v>
-      </c>
-      <c r="J65" s="33">
-        <f t="shared" si="53"/>
-        <v>2499</v>
+        <v>2</v>
+      </c>
+      <c r="J65" s="23">
+        <f t="shared" si="66"/>
+        <v>6</v>
       </c>
       <c r="K65" s="32">
-        <f t="shared" si="53"/>
-        <v>2489</v>
+        <v>14</v>
       </c>
       <c r="L65" s="33">
-        <f t="shared" si="53"/>
-        <v>2529</v>
+        <f t="shared" si="68"/>
+        <v>13</v>
       </c>
       <c r="M65" s="32">
-        <f t="shared" si="53"/>
-        <v>2559</v>
+        <v>6</v>
       </c>
       <c r="N65" s="32"/>
       <c r="O65" s="32"/>
       <c r="P65" s="32"/>
       <c r="Q65" s="32"/>
       <c r="R65" s="32">
-        <f t="shared" ref="R65:W65" si="54">R57+SUM(R58:R64)</f>
-        <v>1990</v>
+        <v>8</v>
       </c>
       <c r="S65" s="32">
-        <f t="shared" si="54"/>
-        <v>1848</v>
+        <v>7</v>
       </c>
       <c r="T65" s="32">
-        <f t="shared" si="54"/>
-        <v>2063</v>
+        <v>3</v>
       </c>
       <c r="U65" s="32">
-        <f t="shared" si="54"/>
-        <v>2218</v>
+        <v>3</v>
       </c>
       <c r="V65" s="32">
-        <f t="shared" si="54"/>
-        <v>2499</v>
+        <v>6</v>
       </c>
       <c r="W65" s="32">
-        <f t="shared" si="54"/>
-        <v>2529</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="G66" s="32"/>
-      <c r="H66" s="33"/>
-      <c r="R66" s="32"/>
-      <c r="S66" s="32"/>
-      <c r="T66" s="32"/>
-      <c r="U66" s="32"/>
-    </row>
-    <row r="67" spans="2:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="32" t="s">
-        <v>88</v>
+      <c r="B66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="32">
+        <v>7</v>
+      </c>
+      <c r="D66" s="33">
+        <v>8</v>
+      </c>
+      <c r="E66" s="32">
+        <v>7</v>
+      </c>
+      <c r="F66" s="33">
+        <f t="shared" si="67"/>
+        <v>7</v>
+      </c>
+      <c r="G66" s="32">
+        <v>11</v>
+      </c>
+      <c r="H66" s="33">
+        <v>10</v>
+      </c>
+      <c r="I66" s="32">
+        <v>9</v>
+      </c>
+      <c r="J66" s="23">
+        <f t="shared" si="66"/>
+        <v>8</v>
+      </c>
+      <c r="K66" s="32">
+        <v>7</v>
+      </c>
+      <c r="L66" s="33">
+        <f t="shared" si="68"/>
+        <v>7</v>
+      </c>
+      <c r="M66" s="32">
+        <v>5</v>
+      </c>
+      <c r="N66" s="32"/>
+      <c r="O66" s="32"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="32"/>
+      <c r="R66" s="32">
+        <v>6</v>
+      </c>
+      <c r="S66" s="32">
+        <v>8</v>
+      </c>
+      <c r="T66" s="32">
+        <v>7</v>
+      </c>
+      <c r="U66" s="32">
+        <v>10</v>
+      </c>
+      <c r="V66" s="32">
+        <v>8</v>
+      </c>
+      <c r="W66" s="32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="C67" s="32">
-        <v>1383</v>
+        <v>0</v>
       </c>
       <c r="D67" s="33">
-        <v>1504</v>
+        <v>0</v>
       </c>
       <c r="E67" s="32">
-        <v>1624</v>
+        <v>0</v>
       </c>
       <c r="F67" s="33">
-        <f>T67</f>
-        <v>1652</v>
+        <v>0</v>
       </c>
       <c r="G67" s="32">
-        <v>1304</v>
+        <v>0</v>
       </c>
       <c r="H67" s="33">
-        <v>1111</v>
+        <v>0</v>
       </c>
       <c r="I67" s="32">
-        <v>1204</v>
-      </c>
-      <c r="J67" s="33">
-        <f>V67</f>
-        <v>1397</v>
+        <v>0</v>
+      </c>
+      <c r="J67" s="23">
+        <f t="shared" si="66"/>
+        <v>60</v>
       </c>
       <c r="K67" s="32">
-        <v>1306</v>
+        <v>20</v>
       </c>
       <c r="L67" s="33">
-        <f>W67</f>
-        <v>1407</v>
+        <f t="shared" si="68"/>
+        <v>20</v>
       </c>
       <c r="M67" s="32">
-        <v>1088</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="N67" s="32"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
       <c r="R67" s="32">
-        <v>1327</v>
+        <v>0</v>
       </c>
       <c r="S67" s="32">
-        <v>1504</v>
+        <v>0</v>
       </c>
       <c r="T67" s="32">
-        <v>1652</v>
+        <v>0</v>
       </c>
       <c r="U67" s="32">
-        <v>1111</v>
+        <v>0</v>
       </c>
       <c r="V67" s="32">
-        <v>1397</v>
+        <v>60</v>
       </c>
       <c r="W67" s="32">
-        <v>1407</v>
-      </c>
-      <c r="X67" s="39"/>
-      <c r="Y67" s="39"/>
-      <c r="Z67" s="39"/>
-      <c r="AA67" s="39"/>
-      <c r="AB67" s="39"/>
-      <c r="AC67" s="39"/>
-      <c r="AD67" s="39"/>
-      <c r="AE67" s="39"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C68" s="32">
-        <f t="shared" ref="C68:M68" si="55">C67+C65</f>
-        <v>3228</v>
+        <f t="shared" ref="C68:M68" si="69">C60+SUM(C61:C67)</f>
+        <v>1845</v>
       </c>
       <c r="D68" s="33">
-        <f t="shared" si="55"/>
-        <v>3352</v>
+        <f t="shared" si="69"/>
+        <v>1848</v>
       </c>
       <c r="E68" s="32">
-        <f t="shared" si="55"/>
-        <v>3841</v>
+        <f t="shared" si="69"/>
+        <v>2217</v>
       </c>
       <c r="F68" s="33">
-        <f t="shared" si="55"/>
-        <v>3715</v>
+        <f t="shared" si="69"/>
+        <v>2063</v>
       </c>
       <c r="G68" s="32">
-        <f t="shared" si="55"/>
-        <v>3444</v>
+        <f t="shared" si="69"/>
+        <v>2140</v>
       </c>
       <c r="H68" s="33">
-        <f t="shared" si="55"/>
-        <v>3329</v>
+        <f t="shared" si="69"/>
+        <v>2218</v>
       </c>
       <c r="I68" s="32">
-        <f t="shared" si="55"/>
-        <v>3546</v>
+        <f t="shared" si="69"/>
+        <v>2342</v>
       </c>
       <c r="J68" s="33">
-        <f t="shared" si="55"/>
-        <v>3896</v>
+        <f t="shared" si="69"/>
+        <v>2499</v>
       </c>
       <c r="K68" s="32">
-        <f t="shared" si="55"/>
-        <v>3795</v>
+        <f t="shared" si="69"/>
+        <v>2489</v>
       </c>
       <c r="L68" s="33">
-        <f t="shared" si="55"/>
-        <v>3936</v>
+        <f t="shared" si="69"/>
+        <v>2529</v>
       </c>
       <c r="M68" s="32">
-        <f t="shared" si="55"/>
-        <v>3647</v>
-      </c>
+        <f t="shared" si="69"/>
+        <v>2559</v>
+      </c>
+      <c r="N68" s="32"/>
+      <c r="O68" s="32"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="32"/>
       <c r="R68" s="32">
-        <f t="shared" ref="R68:W68" si="56">R67+R65</f>
-        <v>3317</v>
+        <f t="shared" ref="R68:W68" si="70">R60+SUM(R61:R67)</f>
+        <v>1990</v>
       </c>
       <c r="S68" s="32">
-        <f t="shared" si="56"/>
-        <v>3352</v>
+        <f t="shared" si="70"/>
+        <v>1848</v>
       </c>
       <c r="T68" s="32">
-        <f t="shared" si="56"/>
-        <v>3715</v>
+        <f t="shared" si="70"/>
+        <v>2063</v>
       </c>
       <c r="U68" s="32">
-        <f t="shared" si="56"/>
-        <v>3329</v>
+        <f t="shared" si="70"/>
+        <v>2218</v>
       </c>
       <c r="V68" s="32">
-        <f t="shared" si="56"/>
-        <v>3896</v>
+        <f t="shared" si="70"/>
+        <v>2499</v>
       </c>
       <c r="W68" s="32">
-        <f t="shared" si="56"/>
-        <v>3936</v>
+        <f t="shared" si="70"/>
+        <v>2529</v>
       </c>
     </row>
     <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="G69" s="32"/>
       <c r="H69" s="33"/>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
-        <v>90</v>
+      <c r="R69" s="32"/>
+      <c r="S69" s="32"/>
+      <c r="T69" s="32"/>
+      <c r="U69" s="32"/>
+    </row>
+    <row r="70" spans="2:31" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="C70" s="32">
-        <f t="shared" ref="C70:I70" si="57">C49-C65</f>
         <v>1383</v>
       </c>
       <c r="D70" s="33">
-        <f t="shared" si="57"/>
         <v>1504</v>
       </c>
       <c r="E70" s="32">
-        <f t="shared" si="57"/>
         <v>1624</v>
       </c>
       <c r="F70" s="33">
-        <f t="shared" si="57"/>
+        <f>T70</f>
         <v>1652</v>
       </c>
       <c r="G70" s="32">
-        <f t="shared" si="57"/>
         <v>1304</v>
       </c>
       <c r="H70" s="33">
-        <f t="shared" si="57"/>
         <v>1111</v>
       </c>
       <c r="I70" s="32">
-        <f t="shared" si="57"/>
         <v>1204</v>
       </c>
       <c r="J70" s="33">
-        <f t="shared" ref="J70:L70" si="58">J49-J65</f>
-        <v>31</v>
+        <f>V70</f>
+        <v>1397</v>
       </c>
       <c r="K70" s="32">
-        <f t="shared" ref="K70" si="59">K49-K65</f>
         <v>1306</v>
       </c>
       <c r="L70" s="33">
-        <f t="shared" si="58"/>
+        <f>W70</f>
         <v>1407</v>
       </c>
       <c r="M70" s="32">
-        <f t="shared" ref="M70" si="60">M49-M65</f>
         <v>1088</v>
       </c>
       <c r="R70" s="32">
-        <f>R49-R65</f>
-        <v>1310</v>
+        <v>1327</v>
       </c>
       <c r="S70" s="32">
-        <f>S49-S65</f>
         <v>1504</v>
       </c>
       <c r="T70" s="32">
-        <f>T49-T65</f>
         <v>1652</v>
       </c>
       <c r="U70" s="32">
-        <f>U49-U65</f>
         <v>1111</v>
       </c>
       <c r="V70" s="32">
-        <f t="shared" ref="V70:W70" si="61">V49-V65</f>
-        <v>1377</v>
+        <v>1397</v>
       </c>
       <c r="W70" s="32">
-        <f t="shared" si="61"/>
         <v>1407</v>
       </c>
+      <c r="X70" s="39"/>
+      <c r="Y70" s="39"/>
+      <c r="Z70" s="39"/>
+      <c r="AA70" s="39"/>
+      <c r="AB70" s="39"/>
+      <c r="AC70" s="39"/>
+      <c r="AD70" s="39"/>
+      <c r="AE70" s="39"/>
     </row>
     <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C71" s="1">
-        <f>C70/C18</f>
-        <v>1.2734806629834254</v>
-      </c>
-      <c r="D71" s="23">
-        <f>D70/D18</f>
-        <v>1.3848987108655617</v>
-      </c>
-      <c r="E71" s="1">
-        <f>E70/E18</f>
-        <v>1.489908256880734</v>
-      </c>
-      <c r="F71" s="23">
-        <f>F70/F18</f>
-        <v>1.5142071494042164</v>
-      </c>
-      <c r="G71" s="1">
-        <f>G70/G18</f>
-        <v>1.1919561243144423</v>
-      </c>
-      <c r="H71" s="23">
-        <f>H70/H18</f>
-        <v>1.0287037037037037</v>
-      </c>
-      <c r="I71" s="1">
-        <f>I70/I18</f>
-        <v>1.1769305962854351</v>
-      </c>
-      <c r="J71" s="23">
-        <f>J70/J18</f>
-        <v>3.0392156862745098E-2</v>
-      </c>
-      <c r="K71" s="1">
-        <f>K70/K18</f>
-        <v>1.2829076620825148</v>
-      </c>
-      <c r="L71" s="23">
-        <f>L70/L18</f>
-        <v>1.3794117647058823</v>
-      </c>
-      <c r="M71" s="1">
-        <f>M70/M18</f>
-        <v>1.0708661417322836</v>
-      </c>
-      <c r="R71" s="1">
-        <f>R70/R18</f>
-        <v>1.2096029547553093</v>
-      </c>
-      <c r="S71" s="1">
-        <f>S70/S18</f>
-        <v>1.3848987108655617</v>
-      </c>
-      <c r="T71" s="1">
-        <f>T70/T18</f>
-        <v>1.5142071494042164</v>
-      </c>
-      <c r="U71" s="1">
-        <f>U70/U18</f>
-        <v>1.0287037037037037</v>
-      </c>
-      <c r="V71" s="1">
-        <f>V70/V18</f>
-        <v>1.35</v>
-      </c>
-      <c r="W71" s="1">
-        <f>W70/W18</f>
-        <v>1.3794117647058823</v>
+        <v>89</v>
+      </c>
+      <c r="C71" s="32">
+        <f t="shared" ref="C71:M71" si="71">C70+C68</f>
+        <v>3228</v>
+      </c>
+      <c r="D71" s="33">
+        <f t="shared" si="71"/>
+        <v>3352</v>
+      </c>
+      <c r="E71" s="32">
+        <f t="shared" si="71"/>
+        <v>3841</v>
+      </c>
+      <c r="F71" s="33">
+        <f t="shared" si="71"/>
+        <v>3715</v>
+      </c>
+      <c r="G71" s="32">
+        <f t="shared" si="71"/>
+        <v>3444</v>
+      </c>
+      <c r="H71" s="33">
+        <f t="shared" si="71"/>
+        <v>3329</v>
+      </c>
+      <c r="I71" s="32">
+        <f t="shared" si="71"/>
+        <v>3546</v>
+      </c>
+      <c r="J71" s="33">
+        <f t="shared" si="71"/>
+        <v>3896</v>
+      </c>
+      <c r="K71" s="32">
+        <f t="shared" si="71"/>
+        <v>3795</v>
+      </c>
+      <c r="L71" s="33">
+        <f t="shared" si="71"/>
+        <v>3936</v>
+      </c>
+      <c r="M71" s="32">
+        <f t="shared" si="71"/>
+        <v>3647</v>
+      </c>
+      <c r="R71" s="32">
+        <f t="shared" ref="R71:W71" si="72">R70+R68</f>
+        <v>3317</v>
+      </c>
+      <c r="S71" s="32">
+        <f t="shared" si="72"/>
+        <v>3352</v>
+      </c>
+      <c r="T71" s="32">
+        <f t="shared" si="72"/>
+        <v>3715</v>
+      </c>
+      <c r="U71" s="32">
+        <f t="shared" si="72"/>
+        <v>3329</v>
+      </c>
+      <c r="V71" s="32">
+        <f t="shared" si="72"/>
+        <v>3896</v>
+      </c>
+      <c r="W71" s="32">
+        <f t="shared" si="72"/>
+        <v>3936</v>
       </c>
     </row>
     <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="G72" s="32"/>
-    </row>
-    <row r="73" spans="2:31" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="38" t="s">
+      <c r="H72" s="33"/>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="32">
+        <f t="shared" ref="C73:I73" si="73">C52-C68</f>
+        <v>1383</v>
+      </c>
+      <c r="D73" s="33">
+        <f t="shared" si="73"/>
+        <v>1504</v>
+      </c>
+      <c r="E73" s="32">
+        <f t="shared" si="73"/>
+        <v>1624</v>
+      </c>
+      <c r="F73" s="33">
+        <f t="shared" si="73"/>
+        <v>1652</v>
+      </c>
+      <c r="G73" s="32">
+        <f t="shared" si="73"/>
+        <v>1304</v>
+      </c>
+      <c r="H73" s="33">
+        <f t="shared" si="73"/>
+        <v>1111</v>
+      </c>
+      <c r="I73" s="32">
+        <f t="shared" si="73"/>
+        <v>1204</v>
+      </c>
+      <c r="J73" s="33">
+        <f t="shared" ref="J73:L73" si="74">J52-J68</f>
+        <v>31</v>
+      </c>
+      <c r="K73" s="32">
+        <f t="shared" ref="K73" si="75">K52-K68</f>
+        <v>1306</v>
+      </c>
+      <c r="L73" s="33">
+        <f t="shared" si="74"/>
+        <v>1407</v>
+      </c>
+      <c r="M73" s="32">
+        <f t="shared" ref="M73" si="76">M52-M68</f>
+        <v>1088</v>
+      </c>
+      <c r="R73" s="32">
+        <f>R52-R68</f>
+        <v>1310</v>
+      </c>
+      <c r="S73" s="32">
+        <f>S52-S68</f>
+        <v>1504</v>
+      </c>
+      <c r="T73" s="32">
+        <f>T52-T68</f>
+        <v>1652</v>
+      </c>
+      <c r="U73" s="32">
+        <f>U52-U68</f>
+        <v>1111</v>
+      </c>
+      <c r="V73" s="32">
+        <f t="shared" ref="V73:W73" si="77">V52-V68</f>
+        <v>1377</v>
+      </c>
+      <c r="W73" s="32">
+        <f t="shared" si="77"/>
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" ref="C74:M74" si="78">C73/C18</f>
+        <v>1.2734806629834254</v>
+      </c>
+      <c r="D74" s="23">
+        <f t="shared" si="78"/>
+        <v>1.3848987108655617</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" si="78"/>
+        <v>1.489908256880734</v>
+      </c>
+      <c r="F74" s="23">
+        <f t="shared" si="78"/>
+        <v>1.5142071494042164</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="78"/>
+        <v>1.1919561243144423</v>
+      </c>
+      <c r="H74" s="23">
+        <f t="shared" si="78"/>
+        <v>1.0287037037037037</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" si="78"/>
+        <v>1.1769305962854351</v>
+      </c>
+      <c r="J74" s="23">
+        <f t="shared" si="78"/>
+        <v>3.0392156862745098E-2</v>
+      </c>
+      <c r="K74" s="1">
+        <f t="shared" si="78"/>
+        <v>1.2829076620825148</v>
+      </c>
+      <c r="L74" s="23">
+        <f t="shared" si="78"/>
+        <v>1.3794117647058823</v>
+      </c>
+      <c r="M74" s="1">
+        <f t="shared" si="78"/>
+        <v>1.0708661417322836</v>
+      </c>
+      <c r="R74" s="1">
+        <f t="shared" ref="R74:W74" si="79">R73/R18</f>
+        <v>1.2096029547553093</v>
+      </c>
+      <c r="S74" s="1">
+        <f t="shared" si="79"/>
+        <v>1.3848987108655617</v>
+      </c>
+      <c r="T74" s="1">
+        <f t="shared" si="79"/>
+        <v>1.5142071494042164</v>
+      </c>
+      <c r="U74" s="1">
+        <f t="shared" si="79"/>
+        <v>1.0287037037037037</v>
+      </c>
+      <c r="V74" s="1">
+        <f t="shared" si="79"/>
+        <v>1.35</v>
+      </c>
+      <c r="W74" s="1">
+        <f t="shared" si="79"/>
+        <v>1.3794117647058823</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="G75" s="32"/>
+    </row>
+    <row r="76" spans="2:31" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="39">
-        <f t="shared" ref="C73:I73" si="62">C47+C40+C41</f>
+      <c r="C76" s="39">
+        <f t="shared" ref="C76:I76" si="80">C50+C43+C44</f>
         <v>354</v>
       </c>
-      <c r="D73" s="40">
-        <f t="shared" si="62"/>
+      <c r="D76" s="40">
+        <f t="shared" si="80"/>
         <v>375</v>
       </c>
-      <c r="E73" s="39">
-        <f t="shared" si="62"/>
+      <c r="E76" s="39">
+        <f t="shared" si="80"/>
         <v>915</v>
       </c>
-      <c r="F73" s="40">
-        <f t="shared" si="62"/>
+      <c r="F76" s="40">
+        <f t="shared" si="80"/>
         <v>832</v>
       </c>
-      <c r="G73" s="39">
-        <f t="shared" si="62"/>
+      <c r="G76" s="39">
+        <f t="shared" si="80"/>
         <v>713</v>
       </c>
-      <c r="H73" s="40">
-        <f t="shared" si="62"/>
+      <c r="H76" s="40">
+        <f t="shared" si="80"/>
         <v>574</v>
       </c>
-      <c r="I73" s="39">
-        <f t="shared" si="62"/>
+      <c r="I76" s="39">
+        <f t="shared" si="80"/>
         <v>519</v>
       </c>
-      <c r="J73" s="40">
-        <f t="shared" ref="J73:K73" si="63">J47+J40+J41</f>
+      <c r="J76" s="40">
+        <f t="shared" ref="J76:K76" si="81">J50+J43+J44</f>
         <v>493</v>
       </c>
-      <c r="K73" s="39">
-        <f t="shared" si="63"/>
+      <c r="K76" s="39">
+        <f t="shared" si="81"/>
         <v>581</v>
       </c>
-      <c r="L73" s="40">
-        <f t="shared" ref="L73" si="64">L47+L40+L41</f>
+      <c r="L76" s="40">
+        <f t="shared" ref="L76" si="82">L50+L43+L44</f>
         <v>701</v>
       </c>
-      <c r="M73" s="39">
-        <f t="shared" ref="M73" si="65">M47+M40+M41</f>
+      <c r="M76" s="39">
+        <f t="shared" ref="M76" si="83">M50+M43+M44</f>
         <v>467</v>
       </c>
-      <c r="R73" s="39">
-        <f>R47+R40+R41</f>
+      <c r="R76" s="39">
+        <f>R50+R43+R44</f>
         <v>273</v>
       </c>
-      <c r="S73" s="39">
-        <f>S47+S40+S41</f>
+      <c r="S76" s="39">
+        <f>S50+S43+S44</f>
         <v>375</v>
       </c>
-      <c r="T73" s="39">
-        <f>T47+T40+T41</f>
+      <c r="T76" s="39">
+        <f>T50+T43+T44</f>
         <v>832</v>
       </c>
-      <c r="U73" s="39">
-        <f>U47+U40+U41</f>
+      <c r="U76" s="39">
+        <f>U50+U43+U44</f>
         <v>574</v>
       </c>
-      <c r="V73" s="39">
-        <f t="shared" ref="V73:W73" si="66">V47+V40+V41</f>
+      <c r="V76" s="39">
+        <f t="shared" ref="V76:W76" si="84">V50+V43+V44</f>
         <v>493</v>
       </c>
-      <c r="W73" s="39">
-        <f t="shared" si="66"/>
+      <c r="W76" s="39">
+        <f t="shared" si="84"/>
         <v>701</v>
       </c>
     </row>
-    <row r="74" spans="2:31" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="38" t="s">
+    <row r="77" spans="2:31" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="39">
-        <f t="shared" ref="C74:I74" si="67">C53+C58</f>
+      <c r="C77" s="39">
+        <f t="shared" ref="C77:I77" si="85">C56+C61</f>
         <v>773</v>
       </c>
-      <c r="D74" s="40">
-        <f t="shared" si="67"/>
+      <c r="D77" s="40">
+        <f t="shared" si="85"/>
         <v>765</v>
       </c>
-      <c r="E74" s="39">
-        <f t="shared" si="67"/>
+      <c r="E77" s="39">
+        <f t="shared" si="85"/>
         <v>1150</v>
       </c>
-      <c r="F74" s="40">
-        <f t="shared" si="67"/>
+      <c r="F77" s="40">
+        <f t="shared" si="85"/>
         <v>990</v>
       </c>
-      <c r="G74" s="39">
-        <f t="shared" si="67"/>
+      <c r="G77" s="39">
+        <f t="shared" si="85"/>
         <v>807</v>
       </c>
-      <c r="H74" s="40">
-        <f t="shared" si="67"/>
+      <c r="H77" s="40">
+        <f t="shared" si="85"/>
         <v>814</v>
       </c>
-      <c r="I74" s="39">
-        <f t="shared" si="67"/>
+      <c r="I77" s="39">
+        <f t="shared" si="85"/>
         <v>1165</v>
       </c>
-      <c r="J74" s="40">
-        <f t="shared" ref="J74:K74" si="68">J53+J58</f>
+      <c r="J77" s="40">
+        <f t="shared" ref="J77:K77" si="86">J56+J61</f>
         <v>1222</v>
       </c>
-      <c r="K74" s="39">
-        <f t="shared" si="68"/>
+      <c r="K77" s="39">
+        <f t="shared" si="86"/>
         <v>1266</v>
       </c>
-      <c r="L74" s="40">
-        <f t="shared" ref="L74" si="69">L53+L58</f>
+      <c r="L77" s="40">
+        <f t="shared" ref="L77" si="87">L56+L61</f>
         <v>1257</v>
       </c>
-      <c r="M74" s="39">
-        <f t="shared" ref="M74" si="70">M53+M58</f>
+      <c r="M77" s="39">
+        <f t="shared" ref="M77" si="88">M56+M61</f>
         <v>1259</v>
       </c>
-      <c r="R74" s="39">
-        <f>R53+R58</f>
+      <c r="R77" s="39">
+        <f>R56+R61</f>
         <v>921</v>
       </c>
-      <c r="S74" s="39">
-        <f>S53+S58</f>
+      <c r="S77" s="39">
+        <f>S56+S61</f>
         <v>765</v>
       </c>
-      <c r="T74" s="39">
-        <f>T53+T58</f>
+      <c r="T77" s="39">
+        <f>T56+T61</f>
         <v>990</v>
       </c>
-      <c r="U74" s="39">
-        <f>U53+U58</f>
+      <c r="U77" s="39">
+        <f>U56+U61</f>
         <v>814</v>
       </c>
-      <c r="V74" s="39">
-        <f t="shared" ref="V74:W74" si="71">V53+V58</f>
+      <c r="V77" s="39">
+        <f t="shared" ref="V77:W77" si="89">V56+V61</f>
         <v>1222</v>
       </c>
-      <c r="W74" s="39">
-        <f t="shared" si="71"/>
+      <c r="W77" s="39">
+        <f t="shared" si="89"/>
         <v>1257</v>
-      </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="32">
-        <f t="shared" ref="C75:I75" si="72">C73-C74</f>
-        <v>-419</v>
-      </c>
-      <c r="D75" s="33">
-        <f t="shared" si="72"/>
-        <v>-390</v>
-      </c>
-      <c r="E75" s="32">
-        <f t="shared" si="72"/>
-        <v>-235</v>
-      </c>
-      <c r="F75" s="33">
-        <f t="shared" si="72"/>
-        <v>-158</v>
-      </c>
-      <c r="G75" s="32">
-        <f t="shared" si="72"/>
-        <v>-94</v>
-      </c>
-      <c r="H75" s="33">
-        <f t="shared" si="72"/>
-        <v>-240</v>
-      </c>
-      <c r="I75" s="32">
-        <f t="shared" si="72"/>
-        <v>-646</v>
-      </c>
-      <c r="J75" s="33">
-        <f t="shared" ref="J75:K75" si="73">J73-J74</f>
-        <v>-729</v>
-      </c>
-      <c r="K75" s="32">
-        <f t="shared" si="73"/>
-        <v>-685</v>
-      </c>
-      <c r="L75" s="33">
-        <f t="shared" ref="L75" si="74">L73-L74</f>
-        <v>-556</v>
-      </c>
-      <c r="M75" s="32">
-        <f t="shared" ref="M75" si="75">M73-M74</f>
-        <v>-792</v>
-      </c>
-      <c r="R75" s="32">
-        <f>R73-R74</f>
-        <v>-648</v>
-      </c>
-      <c r="S75" s="32">
-        <f>S73-S74</f>
-        <v>-390</v>
-      </c>
-      <c r="T75" s="32">
-        <f>T73-T74</f>
-        <v>-158</v>
-      </c>
-      <c r="U75" s="32">
-        <f>U73-U74</f>
-        <v>-240</v>
-      </c>
-      <c r="V75" s="32">
-        <f t="shared" ref="V75:W75" si="76">V73-V74</f>
-        <v>-729</v>
-      </c>
-      <c r="W75" s="32">
-        <f t="shared" si="76"/>
-        <v>-556</v>
-      </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="G76" s="32"/>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K77" s="1">
-        <v>7.56</v>
-      </c>
-      <c r="L77" s="23">
-        <f>W77</f>
-        <v>9.7170000000000005</v>
-      </c>
-      <c r="M77" s="1">
-        <v>12.57</v>
-      </c>
-      <c r="R77" s="1">
-        <v>5.3022</v>
-      </c>
-      <c r="S77" s="1">
-        <v>6.9139999999999997</v>
-      </c>
-      <c r="T77" s="1">
-        <v>7.2080000000000002</v>
-      </c>
-      <c r="U77" s="1">
-        <v>7.0960000000000001</v>
-      </c>
-      <c r="V77" s="1">
-        <v>6.9720000000000004</v>
-      </c>
-      <c r="W77" s="1">
-        <v>9.7170000000000005</v>
       </c>
     </row>
     <row r="78" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="32">
+        <f t="shared" ref="C78:I78" si="90">C76-C77</f>
+        <v>-419</v>
+      </c>
+      <c r="D78" s="33">
+        <f t="shared" si="90"/>
+        <v>-390</v>
+      </c>
+      <c r="E78" s="32">
+        <f t="shared" si="90"/>
+        <v>-235</v>
+      </c>
+      <c r="F78" s="33">
+        <f t="shared" si="90"/>
+        <v>-158</v>
+      </c>
+      <c r="G78" s="32">
+        <f t="shared" si="90"/>
+        <v>-94</v>
+      </c>
+      <c r="H78" s="33">
+        <f t="shared" si="90"/>
+        <v>-240</v>
+      </c>
+      <c r="I78" s="32">
+        <f t="shared" si="90"/>
+        <v>-646</v>
+      </c>
+      <c r="J78" s="33">
+        <f t="shared" ref="J78:K78" si="91">J76-J77</f>
+        <v>-729</v>
+      </c>
+      <c r="K78" s="32">
+        <f t="shared" si="91"/>
+        <v>-685</v>
+      </c>
+      <c r="L78" s="33">
+        <f t="shared" ref="L78" si="92">L76-L77</f>
+        <v>-556</v>
+      </c>
+      <c r="M78" s="32">
+        <f t="shared" ref="M78" si="93">M76-M77</f>
+        <v>-792</v>
+      </c>
+      <c r="R78" s="32">
+        <f>R76-R77</f>
+        <v>-648</v>
+      </c>
+      <c r="S78" s="32">
+        <f>S76-S77</f>
+        <v>-390</v>
+      </c>
+      <c r="T78" s="32">
+        <f>T76-T77</f>
+        <v>-158</v>
+      </c>
+      <c r="U78" s="32">
+        <f>U76-U77</f>
+        <v>-240</v>
+      </c>
+      <c r="V78" s="32">
+        <f t="shared" ref="V78:W78" si="94">V76-V77</f>
+        <v>-729</v>
+      </c>
+      <c r="W78" s="32">
+        <f t="shared" si="94"/>
+        <v>-556</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="G79" s="32"/>
+    </row>
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K80" s="1">
+        <v>7.56</v>
+      </c>
+      <c r="L80" s="23">
+        <f>W80</f>
+        <v>9.7170000000000005</v>
+      </c>
+      <c r="M80" s="1">
+        <v>12.57</v>
+      </c>
+      <c r="R80" s="1">
+        <v>5.3022</v>
+      </c>
+      <c r="S80" s="1">
+        <v>6.9139999999999997</v>
+      </c>
+      <c r="T80" s="1">
+        <v>7.2080000000000002</v>
+      </c>
+      <c r="U80" s="1">
+        <v>7.0960000000000001</v>
+      </c>
+      <c r="V80" s="1">
+        <v>6.9720000000000004</v>
+      </c>
+      <c r="W80" s="1">
+        <v>9.7170000000000005</v>
+      </c>
+    </row>
+    <row r="81" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K78" s="16">
-        <f>K77*K18</f>
+      <c r="K81" s="16">
+        <f>K80*K18</f>
         <v>7696.08</v>
       </c>
-      <c r="L78" s="33">
-        <f>L77*L18</f>
+      <c r="L81" s="33">
+        <f>L80*L18</f>
         <v>9911.34</v>
       </c>
-      <c r="M78" s="16">
-        <f>M77*M18</f>
+      <c r="M81" s="16">
+        <f>M80*M18</f>
         <v>12771.12</v>
       </c>
-      <c r="R78" s="16">
-        <f>R77*R18</f>
+      <c r="R81" s="16">
+        <f t="shared" ref="R81:W81" si="95">R80*R18</f>
         <v>5742.2826000000005</v>
       </c>
-      <c r="S78" s="16">
-        <f>S77*S18</f>
+      <c r="S81" s="16">
+        <f t="shared" si="95"/>
         <v>7508.6039999999994</v>
       </c>
-      <c r="T78" s="16">
-        <f>T77*T18</f>
+      <c r="T81" s="16">
+        <f t="shared" si="95"/>
         <v>7863.9279999999999</v>
       </c>
-      <c r="U78" s="16">
-        <f>U77*U18</f>
+      <c r="U81" s="16">
+        <f t="shared" si="95"/>
         <v>7663.68</v>
       </c>
-      <c r="V78" s="16">
-        <f>V77*V18</f>
+      <c r="V81" s="16">
+        <f t="shared" si="95"/>
         <v>7111.4400000000005</v>
       </c>
-      <c r="W78" s="16">
-        <f>W77*W18</f>
+      <c r="W81" s="16">
+        <f t="shared" si="95"/>
         <v>9911.34</v>
       </c>
     </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
+    <row r="82" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K79" s="32">
-        <f t="shared" ref="K79" si="77">K78-K75</f>
+      <c r="K82" s="32">
+        <f t="shared" ref="K82" si="96">K81-K78</f>
         <v>8381.08</v>
       </c>
-      <c r="L79" s="33">
-        <f>L78-L75</f>
+      <c r="L82" s="33">
+        <f>L81-L78</f>
         <v>10467.34</v>
       </c>
-      <c r="M79" s="32">
-        <f t="shared" ref="M79" si="78">M78-M75</f>
+      <c r="M82" s="32">
+        <f t="shared" ref="M82" si="97">M81-M78</f>
         <v>13563.12</v>
       </c>
-      <c r="R79" s="32">
-        <f t="shared" ref="R79:U79" si="79">R78-R75</f>
+      <c r="R82" s="32">
+        <f t="shared" ref="R82:U82" si="98">R81-R78</f>
         <v>6390.2826000000005</v>
       </c>
-      <c r="S79" s="32">
-        <f t="shared" si="79"/>
+      <c r="S82" s="32">
+        <f t="shared" si="98"/>
         <v>7898.6039999999994</v>
       </c>
-      <c r="T79" s="32">
-        <f t="shared" si="79"/>
+      <c r="T82" s="32">
+        <f t="shared" si="98"/>
         <v>8021.9279999999999</v>
       </c>
-      <c r="U79" s="32">
-        <f t="shared" si="79"/>
+      <c r="U82" s="32">
+        <f t="shared" si="98"/>
         <v>7903.68</v>
       </c>
-      <c r="V79" s="32">
-        <f>V78-V75</f>
+      <c r="V82" s="32">
+        <f>V81-V78</f>
         <v>7840.4400000000005</v>
       </c>
-      <c r="W79" s="32">
-        <f>W78-W75</f>
+      <c r="W82" s="32">
+        <f>W81-W78</f>
         <v>10467.34</v>
       </c>
-    </row>
-    <row r="81" spans="2:31" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" s="78"/>
-      <c r="F81" s="78"/>
-      <c r="H81" s="78"/>
-      <c r="J81" s="78"/>
-      <c r="K81" s="47">
-        <f>K77/K71</f>
-        <v>5.8928637059724345</v>
-      </c>
-      <c r="L81" s="78">
-        <f>L77/L71</f>
-        <v>7.0443070362473348</v>
-      </c>
-      <c r="M81" s="47">
-        <f>M77/M71</f>
-        <v>11.738161764705881</v>
-      </c>
-      <c r="R81" s="47">
-        <f t="shared" ref="R81:U81" si="80">R77/R71</f>
-        <v>4.3834218320610692</v>
-      </c>
-      <c r="S81" s="47">
-        <f t="shared" si="80"/>
-        <v>4.9924228723404251</v>
-      </c>
-      <c r="T81" s="47">
-        <f t="shared" si="80"/>
-        <v>4.760246973365617</v>
-      </c>
-      <c r="U81" s="47">
-        <f t="shared" si="80"/>
-        <v>6.8980018001800181</v>
-      </c>
-      <c r="V81" s="47">
-        <f>V77/V71</f>
-        <v>5.1644444444444444</v>
-      </c>
-      <c r="W81" s="47">
-        <f>W77/W71</f>
-        <v>7.0443070362473348</v>
-      </c>
-      <c r="X81" s="79"/>
-      <c r="Y81" s="79"/>
-      <c r="Z81" s="79"/>
-      <c r="AA81" s="79"/>
-      <c r="AB81" s="79"/>
-      <c r="AC81" s="79"/>
-      <c r="AD81" s="79"/>
-      <c r="AE81" s="79"/>
-    </row>
-    <row r="82" spans="2:31" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D82" s="78"/>
-      <c r="F82" s="78"/>
-      <c r="H82" s="78"/>
-      <c r="J82" s="78"/>
-      <c r="K82" s="47">
-        <f>K78/SUM(J7:K7)</f>
-        <v>3.6648000000000001</v>
-      </c>
-      <c r="L82" s="78">
-        <f>L78/SUM(K7:L7)</f>
-        <v>4.538159340659341</v>
-      </c>
-      <c r="M82" s="47">
-        <f>M78/SUM(L7:M7)</f>
-        <v>5.6785771453979548</v>
-      </c>
-      <c r="R82" s="47">
-        <f>R78/R7</f>
-        <v>3.1106622968580719</v>
-      </c>
-      <c r="S82" s="47">
-        <f>S78/S7</f>
-        <v>3.878411157024793</v>
-      </c>
-      <c r="T82" s="47">
-        <f>T78/T7</f>
-        <v>4.1323846558066206</v>
-      </c>
-      <c r="U82" s="47">
-        <f>U78/U7</f>
-        <v>4.1515059588299028</v>
-      </c>
-      <c r="V82" s="47">
-        <f>V78/V7</f>
-        <v>3.6525115562403703</v>
-      </c>
-      <c r="W82" s="47">
-        <f>W78/W7</f>
-        <v>4.538159340659341</v>
-      </c>
-      <c r="X82" s="79"/>
-      <c r="Y82" s="79"/>
-      <c r="Z82" s="79"/>
-      <c r="AA82" s="79"/>
-      <c r="AB82" s="79"/>
-      <c r="AC82" s="79"/>
-      <c r="AD82" s="79"/>
-      <c r="AE82" s="79"/>
-    </row>
-    <row r="83" spans="2:31" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="D83" s="78"/>
-      <c r="F83" s="78"/>
-      <c r="H83" s="78"/>
-      <c r="J83" s="78"/>
-      <c r="K83" s="47">
-        <f>K79/SUM(J7:K7)</f>
-        <v>3.990990476190476</v>
-      </c>
-      <c r="L83" s="78">
-        <f>L79/SUM(K7:L7)</f>
-        <v>4.7927380952380956</v>
-      </c>
-      <c r="M83" s="47">
-        <f>M79/SUM(L7:M7)</f>
-        <v>6.0307336594041798</v>
-      </c>
-      <c r="R83" s="47">
-        <f>R79/R7</f>
-        <v>3.4616915492957747</v>
-      </c>
-      <c r="S83" s="47">
-        <f>S79/S7</f>
-        <v>4.0798574380165284</v>
-      </c>
-      <c r="T83" s="47">
-        <f>T79/T7</f>
-        <v>4.2154114555964268</v>
-      </c>
-      <c r="U83" s="47">
-        <f>U79/U7</f>
-        <v>4.2815167930660891</v>
-      </c>
-      <c r="V83" s="47">
-        <f>V79/V7</f>
-        <v>4.0269337442218802</v>
-      </c>
-      <c r="W83" s="47">
-        <f>W79/W7</f>
-        <v>4.7927380952380956</v>
-      </c>
-      <c r="X83" s="79"/>
-      <c r="Y83" s="79"/>
-      <c r="Z83" s="79"/>
-      <c r="AA83" s="79"/>
-      <c r="AB83" s="79"/>
-      <c r="AC83" s="79"/>
-      <c r="AD83" s="79"/>
-      <c r="AE83" s="79"/>
     </row>
     <row r="84" spans="2:31" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D84" s="78"/>
       <c r="F84" s="78"/>
       <c r="H84" s="78"/>
       <c r="J84" s="78"/>
       <c r="K84" s="47">
-        <f>K77/SUM(J17:K17)</f>
-        <v>38.137165510406341</v>
+        <f>K80/K74</f>
+        <v>5.8928637059724345</v>
       </c>
       <c r="L84" s="78">
-        <f>L77/SUM(K17:L17)</f>
-        <v>30.10767457821331</v>
+        <f>L80/L74</f>
+        <v>7.0443070362473348</v>
       </c>
       <c r="M84" s="47">
-        <f>M77/SUM(L17:M17)</f>
-        <v>33.249296551160839</v>
+        <f>M80/M74</f>
+        <v>11.738161764705881</v>
       </c>
       <c r="R84" s="47">
-        <f>R77/R17</f>
-        <v>19.465364745762713</v>
+        <f t="shared" ref="R84:U84" si="99">R80/R74</f>
+        <v>4.3834218320610692</v>
       </c>
       <c r="S84" s="47">
-        <f>S77/S17</f>
-        <v>28.227834586466162</v>
+        <f t="shared" si="99"/>
+        <v>4.9924228723404251</v>
       </c>
       <c r="T84" s="47">
-        <f>T77/T17</f>
-        <v>25.367509677419356</v>
+        <f t="shared" si="99"/>
+        <v>4.760246973365617</v>
       </c>
       <c r="U84" s="47">
-        <f>U77/U17</f>
-        <v>26.890105263157896</v>
+        <f t="shared" si="99"/>
+        <v>6.8980018001800181</v>
       </c>
       <c r="V84" s="47">
-        <f>V77/V17</f>
-        <v>27.997795275590551</v>
+        <f>V80/V74</f>
+        <v>5.1644444444444444</v>
       </c>
       <c r="W84" s="47">
-        <f>W77/W17</f>
-        <v>30.12565349544073</v>
+        <f>W80/W74</f>
+        <v>7.0443070362473348</v>
       </c>
       <c r="X84" s="79"/>
       <c r="Y84" s="79"/>
@@ -7344,159 +7396,318 @@
       <c r="AD84" s="79"/>
       <c r="AE84" s="79"/>
     </row>
-    <row r="87" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B87" s="34" t="s">
+    <row r="85" spans="2:31" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="78"/>
+      <c r="F85" s="78"/>
+      <c r="H85" s="78"/>
+      <c r="J85" s="78"/>
+      <c r="K85" s="47">
+        <f>K81/SUM(J7:K7)</f>
+        <v>3.6648000000000001</v>
+      </c>
+      <c r="L85" s="78">
+        <f>L81/SUM(K7:L7)</f>
+        <v>4.538159340659341</v>
+      </c>
+      <c r="M85" s="47">
+        <f>M81/SUM(L7:M7)</f>
+        <v>5.6785771453979548</v>
+      </c>
+      <c r="R85" s="47">
+        <f t="shared" ref="R85:W85" si="100">R81/R7</f>
+        <v>3.1106622968580719</v>
+      </c>
+      <c r="S85" s="47">
+        <f t="shared" si="100"/>
+        <v>3.878411157024793</v>
+      </c>
+      <c r="T85" s="47">
+        <f t="shared" si="100"/>
+        <v>4.1323846558066206</v>
+      </c>
+      <c r="U85" s="47">
+        <f t="shared" si="100"/>
+        <v>4.1515059588299028</v>
+      </c>
+      <c r="V85" s="47">
+        <f t="shared" si="100"/>
+        <v>3.6525115562403703</v>
+      </c>
+      <c r="W85" s="47">
+        <f t="shared" si="100"/>
+        <v>4.538159340659341</v>
+      </c>
+      <c r="X85" s="79"/>
+      <c r="Y85" s="79"/>
+      <c r="Z85" s="79"/>
+      <c r="AA85" s="79"/>
+      <c r="AB85" s="79"/>
+      <c r="AC85" s="79"/>
+      <c r="AD85" s="79"/>
+      <c r="AE85" s="79"/>
+    </row>
+    <row r="86" spans="2:31" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="78"/>
+      <c r="F86" s="78"/>
+      <c r="H86" s="78"/>
+      <c r="J86" s="78"/>
+      <c r="K86" s="47">
+        <f>K82/SUM(J7:K7)</f>
+        <v>3.990990476190476</v>
+      </c>
+      <c r="L86" s="78">
+        <f>L82/SUM(K7:L7)</f>
+        <v>4.7927380952380956</v>
+      </c>
+      <c r="M86" s="47">
+        <f>M82/SUM(L7:M7)</f>
+        <v>6.0307336594041798</v>
+      </c>
+      <c r="R86" s="47">
+        <f t="shared" ref="R86:W86" si="101">R82/R7</f>
+        <v>3.4616915492957747</v>
+      </c>
+      <c r="S86" s="47">
+        <f t="shared" si="101"/>
+        <v>4.0798574380165284</v>
+      </c>
+      <c r="T86" s="47">
+        <f t="shared" si="101"/>
+        <v>4.2154114555964268</v>
+      </c>
+      <c r="U86" s="47">
+        <f t="shared" si="101"/>
+        <v>4.2815167930660891</v>
+      </c>
+      <c r="V86" s="47">
+        <f t="shared" si="101"/>
+        <v>4.0269337442218802</v>
+      </c>
+      <c r="W86" s="47">
+        <f t="shared" si="101"/>
+        <v>4.7927380952380956</v>
+      </c>
+      <c r="X86" s="79"/>
+      <c r="Y86" s="79"/>
+      <c r="Z86" s="79"/>
+      <c r="AA86" s="79"/>
+      <c r="AB86" s="79"/>
+      <c r="AC86" s="79"/>
+      <c r="AD86" s="79"/>
+      <c r="AE86" s="79"/>
+    </row>
+    <row r="87" spans="2:31" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="78"/>
+      <c r="F87" s="78"/>
+      <c r="H87" s="78"/>
+      <c r="J87" s="78"/>
+      <c r="K87" s="47">
+        <f>K80/SUM(J17:K17)</f>
+        <v>38.137165510406341</v>
+      </c>
+      <c r="L87" s="78">
+        <f>L80/SUM(K17:L17)</f>
+        <v>30.10767457821331</v>
+      </c>
+      <c r="M87" s="47">
+        <f>M80/SUM(L17:M17)</f>
+        <v>33.249296551160839</v>
+      </c>
+      <c r="R87" s="47">
+        <f t="shared" ref="R87:W87" si="102">R80/R17</f>
+        <v>19.465364745762713</v>
+      </c>
+      <c r="S87" s="47">
+        <f t="shared" si="102"/>
+        <v>28.227834586466162</v>
+      </c>
+      <c r="T87" s="47">
+        <f t="shared" si="102"/>
+        <v>25.367509677419356</v>
+      </c>
+      <c r="U87" s="47">
+        <f t="shared" si="102"/>
+        <v>26.890105263157896</v>
+      </c>
+      <c r="V87" s="47">
+        <f t="shared" si="102"/>
+        <v>27.997795275590551</v>
+      </c>
+      <c r="W87" s="47">
+        <f t="shared" si="102"/>
+        <v>30.12565349544073</v>
+      </c>
+      <c r="X87" s="79"/>
+      <c r="Y87" s="79"/>
+      <c r="Z87" s="79"/>
+      <c r="AA87" s="79"/>
+      <c r="AB87" s="79"/>
+      <c r="AC87" s="79"/>
+      <c r="AD87" s="79"/>
+      <c r="AE87" s="79"/>
+    </row>
+    <row r="90" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B90" s="34" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B88" s="1" t="s">
+    <row r="91" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="R88" s="1">
+      <c r="R91" s="1">
         <v>393</v>
       </c>
-      <c r="S88" s="1">
+      <c r="S91" s="1">
         <v>472</v>
       </c>
-      <c r="T88" s="1">
+      <c r="T91" s="1">
         <v>406</v>
       </c>
-      <c r="U88" s="1">
+      <c r="U91" s="1">
         <v>376</v>
       </c>
-      <c r="V88" s="1">
+      <c r="V91" s="1">
         <v>285</v>
       </c>
-      <c r="W88" s="1">
+      <c r="W91" s="1">
         <v>387</v>
       </c>
     </row>
-    <row r="89" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B89" s="1" t="s">
+    <row r="92" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="R89" s="1">
+      <c r="R92" s="1">
         <f>20-2</f>
         <v>18</v>
       </c>
-      <c r="S89" s="1">
+      <c r="S92" s="1">
         <v>27</v>
       </c>
-      <c r="T89" s="1">
+      <c r="T92" s="1">
         <v>24</v>
       </c>
-      <c r="U89" s="1">
+      <c r="U92" s="1">
         <v>39</v>
       </c>
-      <c r="V89" s="1">
+      <c r="V92" s="1">
         <f>40+12-10</f>
         <v>42</v>
       </c>
-      <c r="W89" s="1">
+      <c r="W92" s="1">
         <f>17+5</f>
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B90" s="1" t="s">
+    <row r="93" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="R90" s="1">
-        <f>R88-R89</f>
+      <c r="R93" s="1">
+        <f t="shared" ref="R93:W93" si="103">R91-R92</f>
         <v>375</v>
       </c>
-      <c r="S90" s="1">
-        <f>S88-S89</f>
+      <c r="S93" s="1">
+        <f t="shared" si="103"/>
         <v>445</v>
       </c>
-      <c r="T90" s="1">
-        <f>T88-T89</f>
+      <c r="T93" s="1">
+        <f t="shared" si="103"/>
         <v>382</v>
       </c>
-      <c r="U90" s="1">
-        <f>U88-U89</f>
+      <c r="U93" s="1">
+        <f t="shared" si="103"/>
         <v>337</v>
       </c>
-      <c r="V90" s="1">
-        <f>V88-V89</f>
+      <c r="V93" s="1">
+        <f t="shared" si="103"/>
         <v>243</v>
       </c>
-      <c r="W90" s="1">
-        <f>W88-W89</f>
+      <c r="W93" s="1">
+        <f t="shared" si="103"/>
         <v>365</v>
       </c>
     </row>
-    <row r="92" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B92" s="1" t="s">
+    <row r="95" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="R92" s="1">
-        <f>+R90/R18</f>
+      <c r="R95" s="1">
+        <f t="shared" ref="R95:W95" si="104">+R93/R18</f>
         <v>0.34626038781163437</v>
       </c>
-      <c r="S92" s="1">
-        <f>+S90/S18</f>
+      <c r="S95" s="1">
+        <f t="shared" si="104"/>
         <v>0.40976058931860038</v>
       </c>
-      <c r="T92" s="1">
-        <f>+T90/T18</f>
+      <c r="T95" s="1">
+        <f t="shared" si="104"/>
         <v>0.35013748854262144</v>
       </c>
-      <c r="U92" s="1">
-        <f>+U90/U18</f>
+      <c r="U95" s="1">
+        <f t="shared" si="104"/>
         <v>0.31203703703703706</v>
       </c>
-      <c r="V92" s="1">
-        <f>+V90/V18</f>
+      <c r="V95" s="1">
+        <f t="shared" si="104"/>
         <v>0.23823529411764705</v>
       </c>
-      <c r="W92" s="1">
-        <f>+W90/W18</f>
+      <c r="W95" s="1">
+        <f t="shared" si="104"/>
         <v>0.35784313725490197</v>
       </c>
     </row>
-    <row r="93" spans="2:31" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="47" t="s">
+    <row r="96" spans="2:31" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D93" s="78"/>
-      <c r="F93" s="78"/>
-      <c r="H93" s="78"/>
-      <c r="J93" s="78"/>
-      <c r="L93" s="78"/>
-      <c r="R93" s="47">
-        <f>+R77/R92</f>
+      <c r="D96" s="78"/>
+      <c r="F96" s="78"/>
+      <c r="H96" s="78"/>
+      <c r="J96" s="78"/>
+      <c r="L96" s="78"/>
+      <c r="R96" s="47">
+        <f t="shared" ref="R96:W96" si="105">+R80/R95</f>
         <v>15.312753599999999</v>
       </c>
-      <c r="S93" s="47">
-        <f>+S77/S92</f>
+      <c r="S96" s="47">
+        <f t="shared" si="105"/>
         <v>16.873267415730336</v>
       </c>
-      <c r="T93" s="47">
-        <f>+T77/T92</f>
+      <c r="T96" s="47">
+        <f t="shared" si="105"/>
         <v>20.586198952879581</v>
       </c>
-      <c r="U93" s="47">
-        <f>+U77/U92</f>
+      <c r="U96" s="47">
+        <f t="shared" si="105"/>
         <v>22.740890207715132</v>
       </c>
-      <c r="V93" s="47">
-        <f>+V77/V92</f>
+      <c r="V96" s="47">
+        <f t="shared" si="105"/>
         <v>29.265185185185189</v>
       </c>
-      <c r="W93" s="47">
-        <f>+W77/W92</f>
+      <c r="W96" s="47">
+        <f t="shared" si="105"/>
         <v>27.154356164383564</v>
       </c>
-      <c r="X93" s="79"/>
-      <c r="Y93" s="79"/>
-      <c r="Z93" s="79"/>
-      <c r="AA93" s="79"/>
-      <c r="AB93" s="79"/>
-      <c r="AC93" s="79"/>
-      <c r="AD93" s="79"/>
-      <c r="AE93" s="79"/>
+      <c r="X96" s="79"/>
+      <c r="Y96" s="79"/>
+      <c r="Z96" s="79"/>
+      <c r="AA96" s="79"/>
+      <c r="AB96" s="79"/>
+      <c r="AC96" s="79"/>
+      <c r="AD96" s="79"/>
+      <c r="AE96" s="79"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7512,7 +7723,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
   <ignoredErrors>
-    <ignoredError sqref="H9:H11 H14 F9:F11 F14 F16 D9:D11 D14 J9:J14 F44:F63 J39:J49 J57 X9:AE11 L9:L19 L44:L47 L57:L65" formula="1"/>
+    <ignoredError sqref="H9:H11 H14 F9:F11 F14 F16 D9:D11 D14 J9:J14 F47:F66 J42:J52 J60 X9:AE11 L9:L19 L47:L50 L60:L68" formula="1"/>
     <ignoredError sqref="X12:X13" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId10"/>

--- a/£SGE.xlsx
+++ b/£SGE.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\My Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDBD4D4-1575-4A27-8598-708D2BEC3335}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446CF6B9-E482-4280-A285-11C8EC5F88B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="570" windowWidth="27165" windowHeight="14100" activeTab="1" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E05933DB-826C-48C0-AE9A-F8A61FB6D502}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Historical Forecast" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="138">
   <si>
     <t>£SGE</t>
   </si>
@@ -437,6 +447,9 @@
   </si>
   <si>
     <t>International Y/Y</t>
+  </si>
+  <si>
+    <t>Sage announce acquisition of ForceManager</t>
   </si>
 </sst>
 </file>
@@ -694,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -843,6 +856,18 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="15" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,15 +892,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -885,9 +901,18 @@
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1024,13 +1049,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -1048,8 +1073,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8778875" y="0"/>
-          <a:ext cx="0" cy="17068800"/>
+          <a:off x="9388475" y="0"/>
+          <a:ext cx="0" cy="17554575"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1074,13 +1099,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>108</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -1098,8 +1123,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14878050" y="0"/>
-          <a:ext cx="0" cy="17078325"/>
+          <a:off x="15487650" y="0"/>
+          <a:ext cx="0" cy="17564100"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1424,8 +1449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB50BB21-6927-4998-A7CD-B755108AED34}">
   <dimension ref="A2:X36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1438,14 +1463,14 @@
         <v>0</v>
       </c>
       <c r="F2"/>
-      <c r="G2" s="104" t="s">
+      <c r="G2" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1453,37 +1478,37 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
-      <c r="H5" s="98" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
+      <c r="H5" s="91" t="s">
         <v>94</v>
       </c>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="100"/>
-      <c r="T5" s="98" t="s">
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="93"/>
+      <c r="T5" s="91" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="99"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="100"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="93"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="46">
-        <v>10.64</v>
+        <v>12.69</v>
       </c>
       <c r="D6" s="14"/>
       <c r="H6" s="12"/>
@@ -1509,19 +1534,15 @@
         <v>4</v>
       </c>
       <c r="C7" s="16">
-        <f>'Financial Model'!M18</f>
-        <v>1016</v>
+        <f>+'Financial Model'!X18</f>
+        <v>1007</v>
       </c>
       <c r="D7" s="14" t="str">
         <f>+$C$27</f>
-        <v>H124</v>
-      </c>
-      <c r="H7" s="69">
-        <v>45566</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>117</v>
-      </c>
+        <v>FY24</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -1542,7 +1563,7 @@
       </c>
       <c r="C8" s="16">
         <f>C6*C7</f>
-        <v>10810.24</v>
+        <v>12778.83</v>
       </c>
       <c r="D8" s="14"/>
       <c r="H8" s="12"/>
@@ -1566,19 +1587,15 @@
         <v>6</v>
       </c>
       <c r="C9" s="16">
-        <f>'Financial Model'!M76</f>
-        <v>467</v>
+        <f>+'Financial Model'!X76</f>
+        <v>543</v>
       </c>
       <c r="D9" s="14" t="str">
         <f t="shared" ref="D9:D11" si="0">+$C$27</f>
-        <v>H124</v>
-      </c>
-      <c r="H9" s="69">
-        <v>45536</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>118</v>
-      </c>
+        <v>FY24</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -1598,15 +1615,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="16">
-        <f>'Financial Model'!M77</f>
-        <v>1259</v>
+        <f>+'Financial Model'!X77</f>
+        <v>1246</v>
       </c>
       <c r="D10" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>H124</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="7"/>
+        <v>FY24</v>
+      </c>
+      <c r="H10" s="69">
+        <v>45566</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>137</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -1627,11 +1648,11 @@
       </c>
       <c r="C11" s="16">
         <f>C9-C10</f>
-        <v>-792</v>
+        <v>-703</v>
       </c>
       <c r="D11" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>H124</v>
+        <v>FY24</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="7"/>
@@ -1655,11 +1676,15 @@
       </c>
       <c r="C12" s="17">
         <f>C8-C11</f>
-        <v>11602.24</v>
+        <v>13481.83</v>
       </c>
       <c r="D12" s="15"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="7"/>
+      <c r="H12" s="69">
+        <v>45566</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -1692,8 +1717,12 @@
       <c r="X13" s="11"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="H14" s="12"/>
-      <c r="I14" s="7"/>
+      <c r="H14" s="69">
+        <v>45536</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -1704,11 +1733,11 @@
       <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="98" t="s">
+      <c r="B15" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93"/>
       <c r="H15" s="12"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -1727,10 +1756,10 @@
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="C16" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="95"/>
+      <c r="D16" s="99"/>
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1752,10 +1781,10 @@
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="95"/>
+      <c r="D17" s="99"/>
       <c r="H17" s="12"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -1771,10 +1800,10 @@
       <c r="B18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="95"/>
+      <c r="D18" s="99"/>
       <c r="H18" s="12"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1790,10 +1819,10 @@
       <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="100" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="97"/>
+      <c r="D19" s="101"/>
       <c r="H19" s="12"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -1830,11 +1859,11 @@
       <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B22" s="98" t="s">
+      <c r="B22" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="93"/>
       <c r="H22" s="12"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1850,10 +1879,10 @@
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="94" t="s">
+      <c r="C23" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="95"/>
+      <c r="D23" s="99"/>
       <c r="H23" s="12"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1869,10 +1898,10 @@
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="94">
+      <c r="C24" s="98">
         <v>1981</v>
       </c>
-      <c r="D24" s="95"/>
+      <c r="D24" s="99"/>
       <c r="H24" s="12"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1888,10 +1917,10 @@
       <c r="B25" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="94">
+      <c r="C25" s="98">
         <v>1989</v>
       </c>
-      <c r="D25" s="95"/>
+      <c r="D25" s="99"/>
       <c r="H25" s="12"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1907,11 +1936,11 @@
       <c r="B26" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="103">
+      <c r="C26" s="104">
         <f>+'Financial Model'!W33</f>
         <v>11565</v>
       </c>
-      <c r="D26" s="95"/>
+      <c r="D26" s="99"/>
       <c r="H26" s="12"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -1928,11 +1957,11 @@
         <v>17</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="D27" s="20">
-        <f>+'Financial Model'!M3</f>
-        <v>45428</v>
+        <f>+'Financial Model'!X3</f>
+        <v>45616</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="7"/>
@@ -1949,10 +1978,10 @@
       <c r="B28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="101" t="s">
+      <c r="C28" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="102"/>
+      <c r="D28" s="103"/>
       <c r="H28" s="12"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -1989,11 +2018,11 @@
       <c r="Q30" s="8"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="98" t="s">
+      <c r="B31" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="99"/>
-      <c r="D31" s="100"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="93"/>
       <c r="H31" s="12"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -2009,11 +2038,11 @@
       <c r="B32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="90">
-        <f>C6/SUM('Financial Model'!L17:M17)</f>
-        <v>28.144193739407427</v>
-      </c>
-      <c r="D32" s="91"/>
+      <c r="C32" s="94">
+        <f>+C6/'Financial Model'!X17</f>
+        <v>39.562941176470588</v>
+      </c>
+      <c r="D32" s="95"/>
       <c r="H32" s="12"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -2029,11 +2058,11 @@
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="90">
-        <f>C8/SUM('Financial Model'!L7:M7)</f>
-        <v>4.8066874166296127</v>
-      </c>
-      <c r="D33" s="91"/>
+      <c r="C33" s="94">
+        <f>+C8/'Financial Model'!X7</f>
+        <v>5.479772727272727</v>
+      </c>
+      <c r="D33" s="95"/>
       <c r="H33" s="12"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -2049,11 +2078,11 @@
       <c r="B34" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="90">
-        <f>C6/'Financial Model'!M74</f>
-        <v>9.9358823529411762</v>
-      </c>
-      <c r="D34" s="91"/>
+      <c r="C34" s="94">
+        <f>+C6/'Financial Model'!X74</f>
+        <v>11.691518755718205</v>
+      </c>
+      <c r="D34" s="95"/>
       <c r="H34" s="13"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -2069,31 +2098,24 @@
       <c r="B35" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="90">
-        <f>C12/SUM('Financial Model'!L7:M7)</f>
-        <v>5.1588439306358378</v>
-      </c>
-      <c r="D35" s="91"/>
+      <c r="C35" s="94">
+        <f>+C12/'Financial Model'!X7</f>
+        <v>5.7812307032590047</v>
+      </c>
+      <c r="D35" s="95"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="92">
-        <f>C12/SUM('Financial Model'!L16:M16)</f>
-        <v>30.135688311688313</v>
-      </c>
-      <c r="D36" s="93"/>
+      <c r="C36" s="96">
+        <f>+C12/'Financial Model'!X16</f>
+        <v>41.739411764705885</v>
+      </c>
+      <c r="D36" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="T5:X5"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C33:D33"/>
@@ -2108,6 +2130,13 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C23:D23"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="T5:X5"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C28:D28" r:id="rId1" display="Link" xr:uid="{E398FABE-A8E2-41B0-BEEF-891546DA9EBE}"/>
@@ -2122,11 +2151,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBB68F3-0B4D-4779-B224-181DBEE6F8C1}">
   <dimension ref="B1:BZ96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R26" sqref="R26:R28"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2143,7 +2172,9 @@
     <col min="10" max="10" width="9.140625" style="23"/>
     <col min="11" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="9.140625" style="23"/>
-    <col min="13" max="23" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="23"/>
+    <col min="15" max="23" width="9.140625" style="1"/>
     <col min="24" max="31" width="9.140625" style="38"/>
     <col min="32" max="32" width="9.140625" style="1"/>
     <col min="33" max="33" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -2184,7 +2215,7 @@
       <c r="M1" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="22" t="s">
         <v>133</v>
       </c>
       <c r="R1" s="21" t="s">
@@ -2205,7 +2236,7 @@
       <c r="W1" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="53" t="s">
+      <c r="X1" s="24" t="s">
         <v>61</v>
       </c>
       <c r="Y1" s="53" t="s">
@@ -2268,6 +2299,10 @@
       <c r="M2" s="29">
         <v>45382</v>
       </c>
+      <c r="N2" s="37">
+        <f>+X2</f>
+        <v>45565</v>
+      </c>
       <c r="R2" s="29">
         <v>43373</v>
       </c>
@@ -2286,7 +2321,9 @@
       <c r="W2" s="29">
         <v>45199</v>
       </c>
-      <c r="X2" s="54"/>
+      <c r="X2" s="106">
+        <v>45565</v>
+      </c>
       <c r="Y2" s="54"/>
       <c r="Z2" s="54"/>
       <c r="AA2" s="54"/>
@@ -2325,6 +2362,9 @@
       <c r="M3" s="28">
         <v>45428</v>
       </c>
+      <c r="N3" s="43">
+        <v>45616</v>
+      </c>
       <c r="S3" s="28">
         <v>43789</v>
       </c>
@@ -2337,7 +2377,9 @@
       <c r="W3" s="28">
         <v>45252</v>
       </c>
-      <c r="X3" s="54"/>
+      <c r="X3" s="105">
+        <v>45616</v>
+      </c>
       <c r="Y3" s="54"/>
       <c r="Z3" s="54"/>
       <c r="AA3" s="54"/>
@@ -2364,7 +2406,10 @@
       <c r="M4" s="39">
         <v>520</v>
       </c>
-      <c r="N4" s="39"/>
+      <c r="N4" s="40">
+        <f>+X4-M4</f>
+        <v>532</v>
+      </c>
       <c r="R4" s="39">
         <v>574</v>
       </c>
@@ -2383,7 +2428,9 @@
       <c r="W4" s="39">
         <v>973</v>
       </c>
-      <c r="X4" s="39"/>
+      <c r="X4" s="39">
+        <v>1052</v>
+      </c>
       <c r="Y4" s="39"/>
       <c r="Z4" s="39"/>
       <c r="AA4" s="39"/>
@@ -2410,7 +2457,10 @@
       <c r="M5" s="39">
         <v>328</v>
       </c>
-      <c r="N5" s="39"/>
+      <c r="N5" s="40">
+        <f>+X5-M5</f>
+        <v>342</v>
+      </c>
       <c r="R5" s="39">
         <v>380</v>
       </c>
@@ -2429,7 +2479,9 @@
       <c r="W5" s="39">
         <v>627</v>
       </c>
-      <c r="X5" s="39"/>
+      <c r="X5" s="39">
+        <v>670</v>
+      </c>
       <c r="Y5" s="39"/>
       <c r="Z5" s="39"/>
       <c r="AA5" s="39"/>
@@ -2456,7 +2508,10 @@
       <c r="M6" s="39">
         <v>304</v>
       </c>
-      <c r="N6" s="39"/>
+      <c r="N6" s="40">
+        <f>+X6-M6</f>
+        <v>306</v>
+      </c>
       <c r="R6" s="39">
         <f>625+267</f>
         <v>892</v>
@@ -2477,7 +2532,9 @@
       <c r="W6" s="39">
         <v>584</v>
       </c>
-      <c r="X6" s="39"/>
+      <c r="X6" s="39">
+        <v>610</v>
+      </c>
       <c r="Y6" s="39"/>
       <c r="Z6" s="39"/>
       <c r="AA6" s="39"/>
@@ -2528,9 +2585,9 @@
       <c r="M7" s="35">
         <v>1152</v>
       </c>
-      <c r="N7" s="35">
-        <f>M7*(1+N29)</f>
-        <v>1209.6000000000001</v>
+      <c r="N7" s="36">
+        <f>+X7-M7</f>
+        <v>1180</v>
       </c>
       <c r="O7" s="35"/>
       <c r="R7" s="35">
@@ -2552,36 +2609,35 @@
         <v>2184</v>
       </c>
       <c r="X7" s="55">
-        <f>N7+M7</f>
-        <v>2361.6000000000004</v>
+        <v>2332</v>
       </c>
       <c r="Y7" s="55">
         <f t="shared" ref="Y7:AE7" si="0">X7*(1+Y25)</f>
-        <v>2479.6800000000003</v>
+        <v>2518.56</v>
       </c>
       <c r="Z7" s="55">
         <f t="shared" si="0"/>
-        <v>2603.6640000000002</v>
+        <v>2694.8591999999999</v>
       </c>
       <c r="AA7" s="55">
         <f t="shared" si="0"/>
-        <v>2733.8472000000002</v>
+        <v>2856.5507520000001</v>
       </c>
       <c r="AB7" s="55">
         <f t="shared" si="0"/>
-        <v>2843.2010880000003</v>
+        <v>3027.9437971200005</v>
       </c>
       <c r="AC7" s="55">
         <f t="shared" si="0"/>
-        <v>2928.4971206400005</v>
+        <v>3179.3409869760007</v>
       </c>
       <c r="AD7" s="55">
         <f t="shared" si="0"/>
-        <v>2987.0670630528007</v>
+        <v>3338.3080363248009</v>
       </c>
       <c r="AE7" s="55">
         <f t="shared" si="0"/>
-        <v>3016.9377336833286</v>
+        <v>3505.2234381410412</v>
       </c>
     </row>
     <row r="8" spans="2:78" x14ac:dyDescent="0.2">
@@ -2626,7 +2682,10 @@
       <c r="M8" s="32">
         <v>82</v>
       </c>
-      <c r="N8" s="32"/>
+      <c r="N8" s="33">
+        <f>+X8-M8</f>
+        <v>86</v>
+      </c>
       <c r="R8" s="32">
         <v>130</v>
       </c>
@@ -2646,36 +2705,35 @@
         <v>156</v>
       </c>
       <c r="X8" s="39">
-        <f t="shared" ref="X8:AE8" si="1">X7-X9</f>
-        <v>165.3119999999999</v>
+        <v>168</v>
       </c>
       <c r="Y8" s="39">
-        <f t="shared" si="1"/>
-        <v>173.57760000000007</v>
+        <f t="shared" ref="X8:AE8" si="1">Y7-Y9</f>
+        <v>176.29919999999993</v>
       </c>
       <c r="Z8" s="39">
         <f t="shared" si="1"/>
-        <v>182.25648000000001</v>
+        <v>188.64014399999996</v>
       </c>
       <c r="AA8" s="39">
         <f t="shared" si="1"/>
-        <v>191.36930399999983</v>
+        <v>199.95855263999965</v>
       </c>
       <c r="AB8" s="39">
         <f t="shared" si="1"/>
-        <v>199.02407615999982</v>
+        <v>211.95606579839978</v>
       </c>
       <c r="AC8" s="39">
         <f t="shared" si="1"/>
-        <v>204.99479844479993</v>
+        <v>222.55386908831997</v>
       </c>
       <c r="AD8" s="39">
         <f t="shared" si="1"/>
-        <v>209.09469441369583</v>
+        <v>233.68156254273572</v>
       </c>
       <c r="AE8" s="39">
         <f t="shared" si="1"/>
-        <v>211.18564135783299</v>
+        <v>245.36564066987285</v>
       </c>
     </row>
     <row r="9" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2683,7 +2741,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" ref="C9:M9" si="2">C7-C8</f>
+        <f t="shared" ref="C9:N9" si="2">C7-C8</f>
         <v>887</v>
       </c>
       <c r="D9" s="36">
@@ -2726,9 +2784,12 @@
         <f t="shared" si="2"/>
         <v>1070</v>
       </c>
-      <c r="N9" s="35"/>
+      <c r="N9" s="36">
+        <f t="shared" si="2"/>
+        <v>1094</v>
+      </c>
       <c r="R9" s="35">
-        <f t="shared" ref="R9:W9" si="3">R7-R8</f>
+        <f t="shared" ref="R9:X9" si="3">R7-R8</f>
         <v>1716</v>
       </c>
       <c r="S9" s="35">
@@ -2751,37 +2812,37 @@
         <f t="shared" si="3"/>
         <v>2028</v>
       </c>
-      <c r="X9" s="55">
-        <f t="shared" ref="X9:AE9" si="4">X7*X20</f>
-        <v>2196.2880000000005</v>
+      <c r="X9" s="35">
+        <f t="shared" si="3"/>
+        <v>2164</v>
       </c>
       <c r="Y9" s="55">
-        <f t="shared" si="4"/>
-        <v>2306.1024000000002</v>
+        <f t="shared" ref="X9:AE9" si="4">Y7*Y20</f>
+        <v>2342.2608</v>
       </c>
       <c r="Z9" s="55">
         <f t="shared" si="4"/>
-        <v>2421.4075200000002</v>
+        <v>2506.2190559999999</v>
       </c>
       <c r="AA9" s="55">
         <f t="shared" si="4"/>
-        <v>2542.4778960000003</v>
+        <v>2656.5921993600004</v>
       </c>
       <c r="AB9" s="55">
         <f t="shared" si="4"/>
-        <v>2644.1770118400004</v>
+        <v>2815.9877313216007</v>
       </c>
       <c r="AC9" s="55">
         <f t="shared" si="4"/>
-        <v>2723.5023221952006</v>
+        <v>2956.7871178876808</v>
       </c>
       <c r="AD9" s="55">
         <f t="shared" si="4"/>
-        <v>2777.9723686391048</v>
+        <v>3104.6264737820652</v>
       </c>
       <c r="AE9" s="55">
         <f t="shared" si="4"/>
-        <v>2805.7520923254956</v>
+        <v>3259.8577974711684</v>
       </c>
     </row>
     <row r="10" spans="2:78" x14ac:dyDescent="0.2">
@@ -2826,7 +2887,10 @@
       <c r="M10" s="32">
         <v>855</v>
       </c>
-      <c r="N10" s="32"/>
+      <c r="N10" s="33">
+        <f>+X10-M10</f>
+        <v>857</v>
+      </c>
       <c r="R10" s="32">
         <v>1289</v>
       </c>
@@ -2845,37 +2909,36 @@
       <c r="W10" s="32">
         <v>1572</v>
       </c>
-      <c r="X10" s="39">
-        <f t="shared" ref="X10:AE10" si="5">X9-X11</f>
-        <v>1723.9680000000003</v>
+      <c r="X10" s="32">
+        <v>1712</v>
       </c>
       <c r="Y10" s="39">
-        <f t="shared" si="5"/>
-        <v>1810.1664000000001</v>
+        <f t="shared" ref="X10:AE10" si="5">Y9-Y11</f>
+        <v>1838.5488</v>
       </c>
       <c r="Z10" s="39">
         <f t="shared" si="5"/>
-        <v>1900.67472</v>
+        <v>1967.2472159999998</v>
       </c>
       <c r="AA10" s="39">
         <f t="shared" si="5"/>
-        <v>1995.7084560000003</v>
+        <v>2085.2820489600003</v>
       </c>
       <c r="AB10" s="39">
         <f t="shared" si="5"/>
-        <v>2075.5367942400003</v>
+        <v>2210.3989718976004</v>
       </c>
       <c r="AC10" s="39">
         <f t="shared" si="5"/>
-        <v>2137.8028980672007</v>
+        <v>2320.9189204924805</v>
       </c>
       <c r="AD10" s="39">
         <f t="shared" si="5"/>
-        <v>2180.5589560285448</v>
+        <v>2436.9648665171048</v>
       </c>
       <c r="AE10" s="39">
         <f t="shared" si="5"/>
-        <v>2202.36454558883</v>
+        <v>2558.8131098429603</v>
       </c>
     </row>
     <row r="11" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2923,10 +2986,13 @@
         <v>299</v>
       </c>
       <c r="M11" s="35">
-        <f t="shared" ref="M11" si="7">M9-M10</f>
+        <f t="shared" ref="M11:N11" si="7">M9-M10</f>
         <v>215</v>
       </c>
-      <c r="N11" s="35"/>
+      <c r="N11" s="36">
+        <f t="shared" si="7"/>
+        <v>237</v>
+      </c>
       <c r="R11" s="35">
         <f>R9-R10</f>
         <v>427</v>
@@ -2948,40 +3014,40 @@
         <v>367</v>
       </c>
       <c r="W11" s="35">
-        <f t="shared" ref="W11" si="8">W9-W10</f>
+        <f t="shared" ref="W11:X11" si="8">W9-W10</f>
         <v>456</v>
       </c>
-      <c r="X11" s="55">
-        <f t="shared" ref="X11:AE11" si="9">X7*X21</f>
-        <v>472.32000000000011</v>
+      <c r="X11" s="35">
+        <f t="shared" si="8"/>
+        <v>452</v>
       </c>
       <c r="Y11" s="55">
-        <f t="shared" si="9"/>
-        <v>495.93600000000009</v>
+        <f t="shared" ref="X11:AE11" si="9">Y7*Y21</f>
+        <v>503.71199999999999</v>
       </c>
       <c r="Z11" s="55">
         <f t="shared" si="9"/>
-        <v>520.73280000000011</v>
+        <v>538.97184000000004</v>
       </c>
       <c r="AA11" s="55">
         <f t="shared" si="9"/>
-        <v>546.76944000000003</v>
+        <v>571.3101504</v>
       </c>
       <c r="AB11" s="55">
         <f t="shared" si="9"/>
-        <v>568.64021760000003</v>
+        <v>605.58875942400016</v>
       </c>
       <c r="AC11" s="55">
         <f t="shared" si="9"/>
-        <v>585.69942412800015</v>
+        <v>635.86819739520024</v>
       </c>
       <c r="AD11" s="55">
         <f t="shared" si="9"/>
-        <v>597.41341261056016</v>
+        <v>667.66160726496025</v>
       </c>
       <c r="AE11" s="55">
         <f t="shared" si="9"/>
-        <v>603.38754673666574</v>
+        <v>701.04468762820829</v>
       </c>
     </row>
     <row r="12" spans="2:78" x14ac:dyDescent="0.2">
@@ -3026,7 +3092,10 @@
       <c r="M12" s="32">
         <v>10</v>
       </c>
-      <c r="N12" s="32"/>
+      <c r="N12" s="33">
+        <f>+X12-M12</f>
+        <v>9</v>
+      </c>
       <c r="R12" s="32">
         <v>5</v>
       </c>
@@ -3046,36 +3115,35 @@
         <v>12</v>
       </c>
       <c r="X12" s="39">
-        <f t="shared" ref="X12:AE12" si="11">AVERAGE(S12:W12)</f>
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Y12" s="39">
-        <f t="shared" si="11"/>
-        <v>4.4000000000000004</v>
+        <f t="shared" ref="X12:AE12" si="11">AVERAGE(T12:X12)</f>
+        <v>7.2</v>
       </c>
       <c r="Z12" s="39">
         <f t="shared" si="11"/>
-        <v>4.68</v>
+        <v>8.0400000000000009</v>
       </c>
       <c r="AA12" s="39">
         <f t="shared" si="11"/>
-        <v>5.4159999999999995</v>
+        <v>9.4480000000000004</v>
       </c>
       <c r="AB12" s="39">
         <f t="shared" si="11"/>
-        <v>6.2991999999999999</v>
+        <v>11.137600000000001</v>
       </c>
       <c r="AC12" s="39">
         <f t="shared" si="11"/>
-        <v>5.1590399999999992</v>
+        <v>10.965120000000001</v>
       </c>
       <c r="AD12" s="39">
         <f t="shared" si="11"/>
-        <v>5.1908479999999999</v>
+        <v>9.3581439999999994</v>
       </c>
       <c r="AE12" s="39">
         <f t="shared" si="11"/>
-        <v>5.3490175999999998</v>
+        <v>9.7897727999999997</v>
       </c>
     </row>
     <row r="13" spans="2:78" x14ac:dyDescent="0.2">
@@ -3120,7 +3188,10 @@
       <c r="M13" s="32">
         <v>22</v>
       </c>
-      <c r="N13" s="32"/>
+      <c r="N13" s="33">
+        <f>+X13-M13</f>
+        <v>23</v>
+      </c>
       <c r="R13" s="32">
         <v>34</v>
       </c>
@@ -3140,36 +3211,35 @@
         <v>44</v>
       </c>
       <c r="X13" s="39">
-        <f t="shared" ref="X13" si="12">AVERAGE(S13:W13)</f>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="Y13" s="39">
-        <f t="shared" ref="Y13" si="13">AVERAGE(T13:X13)</f>
-        <v>33.799999999999997</v>
+        <f t="shared" ref="Y13" si="12">AVERAGE(T13:X13)</f>
+        <v>36.200000000000003</v>
       </c>
       <c r="Z13" s="39">
-        <f t="shared" ref="Z13" si="14">AVERAGE(U13:Y13)</f>
-        <v>33.760000000000005</v>
+        <f t="shared" ref="Z13" si="13">AVERAGE(U13:Y13)</f>
+        <v>36.64</v>
       </c>
       <c r="AA13" s="39">
-        <f t="shared" ref="AA13" si="15">AVERAGE(V13:Z13)</f>
-        <v>35.112000000000002</v>
+        <f t="shared" ref="AA13" si="14">AVERAGE(V13:Z13)</f>
+        <v>38.567999999999998</v>
       </c>
       <c r="AB13" s="39">
-        <f t="shared" ref="AB13" si="16">AVERAGE(W13:AA13)</f>
-        <v>35.934399999999997</v>
+        <f t="shared" ref="AB13" si="15">AVERAGE(W13:AA13)</f>
+        <v>40.081600000000002</v>
       </c>
       <c r="AC13" s="39">
-        <f t="shared" ref="AC13" si="17">AVERAGE(X13:AB13)</f>
-        <v>34.321280000000002</v>
+        <f t="shared" ref="AC13" si="16">AVERAGE(X13:AB13)</f>
+        <v>39.297920000000005</v>
       </c>
       <c r="AD13" s="39">
-        <f t="shared" ref="AD13" si="18">AVERAGE(Y13:AC13)</f>
-        <v>34.585536000000005</v>
+        <f t="shared" ref="AD13" si="17">AVERAGE(Y13:AC13)</f>
+        <v>38.157504000000003</v>
       </c>
       <c r="AE13" s="39">
-        <f t="shared" ref="AE13" si="19">AVERAGE(Z13:AD13)</f>
-        <v>34.742643199999996</v>
+        <f t="shared" ref="AE13" si="18">AVERAGE(Z13:AD13)</f>
+        <v>38.549004799999999</v>
       </c>
     </row>
     <row r="14" spans="2:78" x14ac:dyDescent="0.2">
@@ -3177,105 +3247,108 @@
         <v>46</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ref="C14:L14" si="20">C11+C12-C13</f>
+        <f t="shared" ref="C14:L14" si="19">C11+C12-C13</f>
         <v>198</v>
       </c>
       <c r="D14" s="33">
+        <f t="shared" si="19"/>
+        <v>163</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="19"/>
+        <v>275</v>
+      </c>
+      <c r="F14" s="33">
+        <f t="shared" si="19"/>
+        <v>98</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="19"/>
+        <v>190</v>
+      </c>
+      <c r="H14" s="33">
+        <f t="shared" si="19"/>
+        <v>157</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="19"/>
+        <v>189</v>
+      </c>
+      <c r="J14" s="33">
+        <f t="shared" si="19"/>
+        <v>148</v>
+      </c>
+      <c r="K14" s="32">
+        <f t="shared" si="19"/>
+        <v>139</v>
+      </c>
+      <c r="L14" s="33">
+        <f t="shared" si="19"/>
+        <v>285</v>
+      </c>
+      <c r="M14" s="32">
+        <f t="shared" ref="M14:N14" si="20">M11+M12-M13</f>
+        <v>203</v>
+      </c>
+      <c r="N14" s="33">
         <f t="shared" si="20"/>
-        <v>163</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="20"/>
-        <v>275</v>
-      </c>
-      <c r="F14" s="33">
-        <f t="shared" si="20"/>
-        <v>98</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="20"/>
-        <v>190</v>
-      </c>
-      <c r="H14" s="33">
-        <f t="shared" si="20"/>
-        <v>157</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="20"/>
-        <v>189</v>
-      </c>
-      <c r="J14" s="33">
-        <f t="shared" si="20"/>
-        <v>148</v>
-      </c>
-      <c r="K14" s="32">
-        <f t="shared" si="20"/>
-        <v>139</v>
-      </c>
-      <c r="L14" s="33">
-        <f t="shared" si="20"/>
-        <v>285</v>
-      </c>
-      <c r="M14" s="32">
-        <f t="shared" ref="M14" si="21">M11+M12-M13</f>
-        <v>203</v>
-      </c>
-      <c r="N14" s="32"/>
+        <v>223</v>
+      </c>
       <c r="R14" s="32">
-        <f t="shared" ref="R14:X14" si="22">R11+R12-R13</f>
+        <f t="shared" ref="R14:X14" si="21">R11+R12-R13</f>
         <v>398</v>
       </c>
       <c r="S14" s="32">
+        <f t="shared" si="21"/>
+        <v>361</v>
+      </c>
+      <c r="T14" s="32">
+        <f t="shared" si="21"/>
+        <v>373</v>
+      </c>
+      <c r="U14" s="32">
+        <f t="shared" si="21"/>
+        <v>347</v>
+      </c>
+      <c r="V14" s="32">
+        <f t="shared" si="21"/>
+        <v>337</v>
+      </c>
+      <c r="W14" s="32">
+        <f t="shared" ref="W14:X14" si="22">W11+W12-W13</f>
+        <v>424</v>
+      </c>
+      <c r="X14" s="32">
         <f t="shared" si="22"/>
-        <v>361</v>
-      </c>
-      <c r="T14" s="32">
-        <f t="shared" si="22"/>
-        <v>373</v>
-      </c>
-      <c r="U14" s="32">
-        <f t="shared" si="22"/>
-        <v>347</v>
-      </c>
-      <c r="V14" s="32">
-        <f t="shared" si="22"/>
-        <v>337</v>
-      </c>
-      <c r="W14" s="32">
-        <f t="shared" ref="W14" si="23">W11+W12-W13</f>
-        <v>424</v>
-      </c>
-      <c r="X14" s="39">
-        <f t="shared" si="22"/>
-        <v>444.32000000000011</v>
+        <v>426</v>
       </c>
       <c r="Y14" s="39">
-        <f t="shared" ref="Y14:AE14" si="24">Y11+Y12-Y13</f>
-        <v>466.53600000000006</v>
+        <f t="shared" ref="Y14:AE14" si="23">Y11+Y12-Y13</f>
+        <v>474.71199999999999</v>
       </c>
       <c r="Z14" s="39">
-        <f t="shared" si="24"/>
-        <v>491.65280000000007</v>
+        <f t="shared" si="23"/>
+        <v>510.37184000000002</v>
       </c>
       <c r="AA14" s="39">
-        <f t="shared" si="24"/>
-        <v>517.07344000000012</v>
+        <f t="shared" si="23"/>
+        <v>542.19015039999999</v>
       </c>
       <c r="AB14" s="39">
-        <f t="shared" si="24"/>
-        <v>539.00501760000009</v>
+        <f t="shared" si="23"/>
+        <v>576.6447594240002</v>
       </c>
       <c r="AC14" s="39">
-        <f t="shared" si="24"/>
-        <v>556.53718412800015</v>
+        <f t="shared" si="23"/>
+        <v>607.53539739520022</v>
       </c>
       <c r="AD14" s="39">
-        <f t="shared" si="24"/>
-        <v>568.01872461056007</v>
+        <f t="shared" si="23"/>
+        <v>638.86224726496027</v>
       </c>
       <c r="AE14" s="39">
-        <f t="shared" si="24"/>
-        <v>573.99392113666579</v>
+        <f t="shared" si="23"/>
+        <v>672.2854556282083</v>
       </c>
     </row>
     <row r="15" spans="2:78" x14ac:dyDescent="0.2">
@@ -3320,7 +3393,10 @@
       <c r="M15" s="32">
         <v>47</v>
       </c>
-      <c r="N15" s="32"/>
+      <c r="N15" s="33">
+        <f>+X15-M15</f>
+        <v>56</v>
+      </c>
       <c r="R15" s="32">
         <v>103</v>
       </c>
@@ -3340,36 +3416,35 @@
         <v>95</v>
       </c>
       <c r="X15" s="39">
-        <f>X14*X23</f>
-        <v>111.08000000000003</v>
+        <v>103</v>
       </c>
       <c r="Y15" s="39">
-        <f t="shared" ref="Y15:AE15" si="25">Y14*Y23</f>
-        <v>116.63400000000001</v>
+        <f t="shared" ref="Y15:AE15" si="24">Y14*Y23</f>
+        <v>118.678</v>
       </c>
       <c r="Z15" s="39">
-        <f t="shared" si="25"/>
-        <v>122.91320000000002</v>
+        <f t="shared" si="24"/>
+        <v>127.59296000000001</v>
       </c>
       <c r="AA15" s="39">
-        <f t="shared" si="25"/>
-        <v>129.26836000000003</v>
+        <f t="shared" si="24"/>
+        <v>135.5475376</v>
       </c>
       <c r="AB15" s="39">
-        <f t="shared" si="25"/>
-        <v>134.75125440000002</v>
+        <f t="shared" si="24"/>
+        <v>144.16118985600005</v>
       </c>
       <c r="AC15" s="39">
-        <f t="shared" si="25"/>
-        <v>139.13429603200004</v>
+        <f t="shared" si="24"/>
+        <v>151.88384934880006</v>
       </c>
       <c r="AD15" s="39">
-        <f t="shared" si="25"/>
-        <v>142.00468115264002</v>
+        <f t="shared" si="24"/>
+        <v>159.71556181624007</v>
       </c>
       <c r="AE15" s="39">
-        <f t="shared" si="25"/>
-        <v>143.49848028416645</v>
+        <f t="shared" si="24"/>
+        <v>168.07136390705207</v>
       </c>
     </row>
     <row r="16" spans="2:78" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3377,293 +3452,296 @@
         <v>48</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" ref="C16:L16" si="26">C14-C15</f>
+        <f t="shared" ref="C16:L16" si="25">C14-C15</f>
         <v>154</v>
       </c>
       <c r="D16" s="36">
+        <f t="shared" si="25"/>
+        <v>112</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="25"/>
+        <v>224</v>
+      </c>
+      <c r="F16" s="36">
+        <f t="shared" si="25"/>
+        <v>86</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="25"/>
+        <v>146</v>
+      </c>
+      <c r="H16" s="36">
+        <f t="shared" si="25"/>
+        <v>139</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="25"/>
+        <v>152</v>
+      </c>
+      <c r="J16" s="36">
+        <f t="shared" si="25"/>
+        <v>102</v>
+      </c>
+      <c r="K16" s="35">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="L16" s="36">
+        <f t="shared" si="25"/>
+        <v>229</v>
+      </c>
+      <c r="M16" s="35">
+        <f t="shared" ref="M16:N16" si="26">M14-M15</f>
+        <v>156</v>
+      </c>
+      <c r="N16" s="36">
         <f t="shared" si="26"/>
-        <v>112</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="26"/>
-        <v>224</v>
-      </c>
-      <c r="F16" s="36">
-        <f t="shared" si="26"/>
-        <v>86</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="26"/>
-        <v>146</v>
-      </c>
-      <c r="H16" s="36">
-        <f t="shared" si="26"/>
-        <v>139</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="26"/>
-        <v>152</v>
-      </c>
-      <c r="J16" s="36">
-        <f t="shared" si="26"/>
-        <v>102</v>
-      </c>
-      <c r="K16" s="35">
-        <f t="shared" si="26"/>
-        <v>100</v>
-      </c>
-      <c r="L16" s="36">
-        <f t="shared" si="26"/>
-        <v>229</v>
-      </c>
-      <c r="M16" s="35">
-        <f t="shared" ref="M16" si="27">M14-M15</f>
-        <v>156</v>
-      </c>
-      <c r="N16" s="35"/>
+        <v>167</v>
+      </c>
       <c r="R16" s="35">
-        <f t="shared" ref="R16:X16" si="28">R14-R15</f>
+        <f t="shared" ref="R16:X16" si="27">R14-R15</f>
         <v>295</v>
       </c>
       <c r="S16" s="35">
+        <f t="shared" si="27"/>
+        <v>266</v>
+      </c>
+      <c r="T16" s="35">
+        <f t="shared" si="27"/>
+        <v>310</v>
+      </c>
+      <c r="U16" s="35">
+        <f t="shared" si="27"/>
+        <v>285</v>
+      </c>
+      <c r="V16" s="35">
+        <f t="shared" si="27"/>
+        <v>254</v>
+      </c>
+      <c r="W16" s="35">
+        <f t="shared" ref="W16:X16" si="28">W14-W15</f>
+        <v>329</v>
+      </c>
+      <c r="X16" s="35">
         <f t="shared" si="28"/>
-        <v>266</v>
-      </c>
-      <c r="T16" s="35">
-        <f t="shared" si="28"/>
-        <v>310</v>
-      </c>
-      <c r="U16" s="35">
-        <f t="shared" si="28"/>
-        <v>285</v>
-      </c>
-      <c r="V16" s="35">
-        <f t="shared" si="28"/>
-        <v>254</v>
-      </c>
-      <c r="W16" s="35">
-        <f t="shared" ref="W16" si="29">W14-W15</f>
-        <v>329</v>
-      </c>
-      <c r="X16" s="55">
-        <f t="shared" si="28"/>
-        <v>333.24000000000007</v>
+        <v>323</v>
       </c>
       <c r="Y16" s="55">
-        <f t="shared" ref="Y16:AE16" si="30">Y14-Y15</f>
-        <v>349.90200000000004</v>
+        <f t="shared" ref="Y16:AE16" si="29">Y14-Y15</f>
+        <v>356.03399999999999</v>
       </c>
       <c r="Z16" s="55">
-        <f t="shared" si="30"/>
-        <v>368.73960000000005</v>
+        <f t="shared" si="29"/>
+        <v>382.77888000000002</v>
       </c>
       <c r="AA16" s="55">
-        <f t="shared" si="30"/>
-        <v>387.80508000000009</v>
+        <f t="shared" si="29"/>
+        <v>406.64261279999999</v>
       </c>
       <c r="AB16" s="55">
-        <f t="shared" si="30"/>
-        <v>404.25376320000009</v>
+        <f t="shared" si="29"/>
+        <v>432.48356956800012</v>
       </c>
       <c r="AC16" s="55">
-        <f t="shared" si="30"/>
-        <v>417.40288809600008</v>
+        <f t="shared" si="29"/>
+        <v>455.65154804640019</v>
       </c>
       <c r="AD16" s="55">
-        <f t="shared" si="30"/>
-        <v>426.01404345792002</v>
+        <f t="shared" si="29"/>
+        <v>479.14668544872018</v>
       </c>
       <c r="AE16" s="55">
-        <f t="shared" si="30"/>
-        <v>430.49544085249931</v>
+        <f t="shared" si="29"/>
+        <v>504.21409172115625</v>
       </c>
       <c r="AF16" s="35">
         <f>AE16*(1+$AH$20)</f>
-        <v>434.80039526102433</v>
+        <v>519.34051447279091</v>
       </c>
       <c r="AG16" s="35">
-        <f t="shared" ref="AG16:BZ16" si="31">AF16*(1+$AH$20)</f>
-        <v>439.1483992136346</v>
+        <f t="shared" ref="AG16:BZ16" si="30">AF16*(1+$AH$20)</f>
+        <v>534.92072990697466</v>
       </c>
       <c r="AH16" s="35">
-        <f t="shared" si="31"/>
-        <v>443.53988320577093</v>
+        <f t="shared" si="30"/>
+        <v>550.96835180418395</v>
       </c>
       <c r="AI16" s="35">
-        <f t="shared" si="31"/>
-        <v>447.97528203782866</v>
+        <f t="shared" si="30"/>
+        <v>567.4974023583095</v>
       </c>
       <c r="AJ16" s="35">
-        <f t="shared" si="31"/>
-        <v>452.45503485820694</v>
+        <f t="shared" si="30"/>
+        <v>584.52232442905881</v>
       </c>
       <c r="AK16" s="35">
-        <f t="shared" si="31"/>
-        <v>456.97958520678901</v>
+        <f t="shared" si="30"/>
+        <v>602.05799416193054</v>
       </c>
       <c r="AL16" s="35">
-        <f t="shared" si="31"/>
-        <v>461.54938105885691</v>
+        <f t="shared" si="30"/>
+        <v>620.11973398678845</v>
       </c>
       <c r="AM16" s="35">
-        <f t="shared" si="31"/>
-        <v>466.1648748694455</v>
+        <f t="shared" si="30"/>
+        <v>638.72332600639209</v>
       </c>
       <c r="AN16" s="35">
-        <f t="shared" si="31"/>
-        <v>470.82652361813996</v>
+        <f t="shared" si="30"/>
+        <v>657.88502578658381</v>
       </c>
       <c r="AO16" s="35">
-        <f t="shared" si="31"/>
-        <v>475.53478885432133</v>
+        <f t="shared" si="30"/>
+        <v>677.62157656018132</v>
       </c>
       <c r="AP16" s="35">
-        <f t="shared" si="31"/>
-        <v>480.29013674286455</v>
+        <f t="shared" si="30"/>
+        <v>697.95022385698678</v>
       </c>
       <c r="AQ16" s="35">
-        <f t="shared" si="31"/>
-        <v>485.09303811029321</v>
+        <f t="shared" si="30"/>
+        <v>718.88873057269643</v>
       </c>
       <c r="AR16" s="35">
-        <f t="shared" si="31"/>
-        <v>489.94396849139616</v>
+        <f t="shared" si="30"/>
+        <v>740.45539248987734</v>
       </c>
       <c r="AS16" s="35">
-        <f t="shared" si="31"/>
-        <v>494.84340817631011</v>
+        <f t="shared" si="30"/>
+        <v>762.66905426457367</v>
       </c>
       <c r="AT16" s="35">
-        <f t="shared" si="31"/>
-        <v>499.79184225807319</v>
+        <f t="shared" si="30"/>
+        <v>785.54912589251092</v>
       </c>
       <c r="AU16" s="35">
-        <f t="shared" si="31"/>
-        <v>504.7897606806539</v>
+        <f t="shared" si="30"/>
+        <v>809.11559966928621</v>
       </c>
       <c r="AV16" s="35">
-        <f t="shared" si="31"/>
-        <v>509.83765828746044</v>
+        <f t="shared" si="30"/>
+        <v>833.38906765936485</v>
       </c>
       <c r="AW16" s="35">
-        <f t="shared" si="31"/>
-        <v>514.93603487033511</v>
+        <f t="shared" si="30"/>
+        <v>858.39073968914579</v>
       </c>
       <c r="AX16" s="35">
-        <f t="shared" si="31"/>
-        <v>520.08539521903845</v>
+        <f t="shared" si="30"/>
+        <v>884.14246187982019</v>
       </c>
       <c r="AY16" s="35">
-        <f t="shared" si="31"/>
-        <v>525.28624917122886</v>
+        <f t="shared" si="30"/>
+        <v>910.66673573621483</v>
       </c>
       <c r="AZ16" s="35">
-        <f t="shared" si="31"/>
-        <v>530.5391116629412</v>
+        <f t="shared" si="30"/>
+        <v>937.98673780830131</v>
       </c>
       <c r="BA16" s="35">
-        <f t="shared" si="31"/>
-        <v>535.84450277957058</v>
+        <f t="shared" si="30"/>
+        <v>966.12633994255043</v>
       </c>
       <c r="BB16" s="35">
-        <f t="shared" si="31"/>
-        <v>541.20294780736629</v>
+        <f t="shared" si="30"/>
+        <v>995.11013014082698</v>
       </c>
       <c r="BC16" s="35">
-        <f t="shared" si="31"/>
-        <v>546.61497728543998</v>
+        <f t="shared" si="30"/>
+        <v>1024.9634340450518</v>
       </c>
       <c r="BD16" s="35">
-        <f t="shared" si="31"/>
-        <v>552.08112705829433</v>
+        <f t="shared" si="30"/>
+        <v>1055.7123370664035</v>
       </c>
       <c r="BE16" s="35">
-        <f t="shared" si="31"/>
-        <v>557.60193832887728</v>
+        <f t="shared" si="30"/>
+        <v>1087.3837071783958</v>
       </c>
       <c r="BF16" s="35">
-        <f t="shared" si="31"/>
-        <v>563.17795771216606</v>
+        <f t="shared" si="30"/>
+        <v>1120.0052183937476</v>
       </c>
       <c r="BG16" s="35">
-        <f t="shared" si="31"/>
-        <v>568.80973728928768</v>
+        <f t="shared" si="30"/>
+        <v>1153.60537494556</v>
       </c>
       <c r="BH16" s="35">
-        <f t="shared" si="31"/>
-        <v>574.49783466218059</v>
+        <f t="shared" si="30"/>
+        <v>1188.2135361939268</v>
       </c>
       <c r="BI16" s="35">
-        <f t="shared" si="31"/>
-        <v>580.24281300880239</v>
+        <f t="shared" si="30"/>
+        <v>1223.8599422797447</v>
       </c>
       <c r="BJ16" s="35">
-        <f t="shared" si="31"/>
-        <v>586.04524113889045</v>
+        <f t="shared" si="30"/>
+        <v>1260.575740548137</v>
       </c>
       <c r="BK16" s="35">
-        <f t="shared" si="31"/>
-        <v>591.90569355027935</v>
+        <f t="shared" si="30"/>
+        <v>1298.393012764581</v>
       </c>
       <c r="BL16" s="35">
-        <f t="shared" si="31"/>
-        <v>597.82475048578215</v>
+        <f t="shared" si="30"/>
+        <v>1337.3448031475184</v>
       </c>
       <c r="BM16" s="35">
-        <f t="shared" si="31"/>
-        <v>603.80299799063994</v>
+        <f t="shared" si="30"/>
+        <v>1377.4651472419439</v>
       </c>
       <c r="BN16" s="35">
-        <f t="shared" si="31"/>
-        <v>609.84102797054629</v>
+        <f t="shared" si="30"/>
+        <v>1418.7891016592023</v>
       </c>
       <c r="BO16" s="35">
-        <f t="shared" si="31"/>
-        <v>615.93943825025178</v>
+        <f t="shared" si="30"/>
+        <v>1461.3527747089784</v>
       </c>
       <c r="BP16" s="35">
-        <f t="shared" si="31"/>
-        <v>622.09883263275435</v>
+        <f t="shared" si="30"/>
+        <v>1505.1933579502477</v>
       </c>
       <c r="BQ16" s="35">
-        <f t="shared" si="31"/>
-        <v>628.31982095908188</v>
+        <f t="shared" si="30"/>
+        <v>1550.3491586887551</v>
       </c>
       <c r="BR16" s="35">
-        <f t="shared" si="31"/>
-        <v>634.60301916867274</v>
+        <f t="shared" si="30"/>
+        <v>1596.8596334494177</v>
       </c>
       <c r="BS16" s="35">
-        <f t="shared" si="31"/>
-        <v>640.94904936035948</v>
+        <f t="shared" si="30"/>
+        <v>1644.7654224529003</v>
       </c>
       <c r="BT16" s="35">
-        <f t="shared" si="31"/>
-        <v>647.35853985396307</v>
+        <f t="shared" si="30"/>
+        <v>1694.1083851264873</v>
       </c>
       <c r="BU16" s="35">
-        <f t="shared" si="31"/>
-        <v>653.83212525250269</v>
+        <f t="shared" si="30"/>
+        <v>1744.9316366802821</v>
       </c>
       <c r="BV16" s="35">
-        <f t="shared" si="31"/>
-        <v>660.37044650502776</v>
+        <f t="shared" si="30"/>
+        <v>1797.2795857806905</v>
       </c>
       <c r="BW16" s="35">
-        <f t="shared" si="31"/>
-        <v>666.97415097007809</v>
+        <f t="shared" si="30"/>
+        <v>1851.1979733541111</v>
       </c>
       <c r="BX16" s="35">
-        <f t="shared" si="31"/>
-        <v>673.64389247977886</v>
+        <f t="shared" si="30"/>
+        <v>1906.7339125547346</v>
       </c>
       <c r="BY16" s="35">
-        <f t="shared" si="31"/>
-        <v>680.38033140457662</v>
+        <f t="shared" si="30"/>
+        <v>1963.9359299313767</v>
       </c>
       <c r="BZ16" s="35">
-        <f t="shared" si="31"/>
-        <v>687.18413471862243</v>
+        <f t="shared" si="30"/>
+        <v>2022.8540078293181</v>
       </c>
     </row>
     <row r="17" spans="2:34" s="51" customFormat="1" x14ac:dyDescent="0.2">
@@ -3671,55 +3749,59 @@
         <v>49</v>
       </c>
       <c r="C17" s="51">
-        <f t="shared" ref="C17:L17" si="32">C16/C18</f>
+        <f t="shared" ref="C17:L17" si="31">C16/C18</f>
         <v>0.14180478821362799</v>
       </c>
       <c r="D17" s="52">
+        <f t="shared" si="31"/>
+        <v>0.10313075506445672</v>
+      </c>
+      <c r="E17" s="51">
+        <f t="shared" si="31"/>
+        <v>0.20550458715596331</v>
+      </c>
+      <c r="F17" s="52">
+        <f t="shared" si="31"/>
+        <v>7.8826764436296978E-2</v>
+      </c>
+      <c r="G17" s="51">
+        <f t="shared" si="31"/>
+        <v>0.13345521023765997</v>
+      </c>
+      <c r="H17" s="52">
+        <f t="shared" si="31"/>
+        <v>0.12870370370370371</v>
+      </c>
+      <c r="I17" s="51">
+        <f t="shared" si="31"/>
+        <v>0.14858260019550343</v>
+      </c>
+      <c r="J17" s="52">
+        <f t="shared" si="31"/>
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="51">
+        <f t="shared" si="31"/>
+        <v>9.8231827111984277E-2</v>
+      </c>
+      <c r="L17" s="52">
+        <f t="shared" si="31"/>
+        <v>0.22450980392156863</v>
+      </c>
+      <c r="M17" s="51">
+        <f t="shared" ref="M17:N17" si="32">M16/M18</f>
+        <v>0.15354330708661418</v>
+      </c>
+      <c r="N17" s="52">
         <f t="shared" si="32"/>
-        <v>0.10313075506445672</v>
-      </c>
-      <c r="E17" s="51">
-        <f t="shared" si="32"/>
-        <v>0.20550458715596331</v>
-      </c>
-      <c r="F17" s="52">
-        <f t="shared" si="32"/>
-        <v>7.8826764436296978E-2</v>
-      </c>
-      <c r="G17" s="51">
-        <f t="shared" si="32"/>
-        <v>0.13345521023765997</v>
-      </c>
-      <c r="H17" s="52">
-        <f t="shared" si="32"/>
-        <v>0.12870370370370371</v>
-      </c>
-      <c r="I17" s="51">
-        <f t="shared" si="32"/>
-        <v>0.14858260019550343</v>
-      </c>
-      <c r="J17" s="52">
-        <f t="shared" si="32"/>
-        <v>0.1</v>
-      </c>
-      <c r="K17" s="51">
-        <f t="shared" si="32"/>
-        <v>9.8231827111984277E-2</v>
-      </c>
-      <c r="L17" s="52">
-        <f t="shared" si="32"/>
-        <v>0.22450980392156863</v>
-      </c>
-      <c r="M17" s="51">
-        <f t="shared" ref="M17" si="33">M16/M18</f>
-        <v>0.15354330708661418</v>
+        <v>0.16583912611717974</v>
       </c>
       <c r="R17" s="51">
-        <f t="shared" ref="R17:S17" si="34">R16/R18</f>
+        <f t="shared" ref="R17:S17" si="33">R16/R18</f>
         <v>0.2723915050784857</v>
       </c>
       <c r="S17" s="51">
-        <f t="shared" si="34"/>
+        <f t="shared" si="33"/>
         <v>0.24493554327808473</v>
       </c>
       <c r="T17" s="51">
@@ -3735,40 +3817,40 @@
         <v>0.24901960784313726</v>
       </c>
       <c r="W17" s="51">
-        <f t="shared" ref="W17" si="35">W16/W18</f>
+        <f t="shared" ref="W17:X17" si="34">W16/W18</f>
         <v>0.32254901960784316</v>
       </c>
       <c r="X17" s="56">
         <f>X16/X18</f>
-        <v>0.32670588235294123</v>
+        <v>0.32075471698113206</v>
       </c>
       <c r="Y17" s="56">
-        <f t="shared" ref="Y17:AE17" si="36">Y16/Y18</f>
-        <v>0.34304117647058829</v>
+        <f t="shared" ref="Y17:AE17" si="35">Y16/Y18</f>
+        <v>0.35355908639523337</v>
       </c>
       <c r="Z17" s="56">
-        <f t="shared" si="36"/>
-        <v>0.36150941176470591</v>
+        <f t="shared" si="35"/>
+        <v>0.38011805362462764</v>
       </c>
       <c r="AA17" s="56">
-        <f t="shared" si="36"/>
-        <v>0.3802010588235295</v>
+        <f t="shared" si="35"/>
+        <v>0.40381590148957297</v>
       </c>
       <c r="AB17" s="56">
-        <f t="shared" si="36"/>
-        <v>0.3963272188235295</v>
+        <f t="shared" si="35"/>
+        <v>0.42947722896524343</v>
       </c>
       <c r="AC17" s="56">
-        <f t="shared" si="36"/>
-        <v>0.40921851774117657</v>
+        <f t="shared" si="35"/>
+        <v>0.45248415893386318</v>
       </c>
       <c r="AD17" s="56">
-        <f t="shared" si="36"/>
-        <v>0.41766082691952944</v>
+        <f t="shared" si="35"/>
+        <v>0.47581597363328715</v>
       </c>
       <c r="AE17" s="56">
-        <f t="shared" si="36"/>
-        <v>0.4220543537769601</v>
+        <f t="shared" si="35"/>
+        <v>0.50070912782637167</v>
       </c>
     </row>
     <row r="18" spans="2:34" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -3813,6 +3895,10 @@
       <c r="M18" s="32">
         <v>1016</v>
       </c>
+      <c r="N18" s="33">
+        <f>+X18</f>
+        <v>1007</v>
+      </c>
       <c r="R18" s="32">
         <v>1083</v>
       </c>
@@ -3832,36 +3918,35 @@
         <v>1020</v>
       </c>
       <c r="X18" s="39">
-        <f>W18</f>
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="Y18" s="39">
-        <f t="shared" ref="Y18:AE18" si="37">X18</f>
-        <v>1020</v>
+        <f t="shared" ref="Y18:AE18" si="36">X18</f>
+        <v>1007</v>
       </c>
       <c r="Z18" s="39">
-        <f t="shared" si="37"/>
-        <v>1020</v>
+        <f t="shared" si="36"/>
+        <v>1007</v>
       </c>
       <c r="AA18" s="39">
-        <f t="shared" si="37"/>
-        <v>1020</v>
+        <f t="shared" si="36"/>
+        <v>1007</v>
       </c>
       <c r="AB18" s="39">
-        <f t="shared" si="37"/>
-        <v>1020</v>
+        <f t="shared" si="36"/>
+        <v>1007</v>
       </c>
       <c r="AC18" s="39">
-        <f t="shared" si="37"/>
-        <v>1020</v>
+        <f t="shared" si="36"/>
+        <v>1007</v>
       </c>
       <c r="AD18" s="39">
-        <f t="shared" si="37"/>
-        <v>1020</v>
+        <f t="shared" si="36"/>
+        <v>1007</v>
       </c>
       <c r="AE18" s="39">
-        <f t="shared" si="37"/>
-        <v>1020</v>
+        <f t="shared" si="36"/>
+        <v>1007</v>
       </c>
     </row>
     <row r="20" spans="2:34" x14ac:dyDescent="0.2">
@@ -3869,48 +3954,52 @@
         <v>52</v>
       </c>
       <c r="C20" s="31">
-        <f t="shared" ref="C20:M20" si="38">C9/C7</f>
+        <f t="shared" ref="C20:M20" si="37">C9/C7</f>
         <v>0.92685475444096133</v>
       </c>
       <c r="D20" s="42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.93054136874361593</v>
       </c>
       <c r="E20" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.9343589743589743</v>
       </c>
       <c r="F20" s="42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.93318965517241381</v>
       </c>
       <c r="G20" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.9231590181430096</v>
       </c>
       <c r="H20" s="42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.93509350935093505</v>
       </c>
       <c r="I20" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.9271948608137045</v>
       </c>
       <c r="J20" s="42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.93089832181638699</v>
       </c>
       <c r="K20" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.93008279668813243</v>
       </c>
       <c r="L20" s="42">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.92707383773928898</v>
       </c>
       <c r="M20" s="31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="37"/>
         <v>0.92881944444444442</v>
+      </c>
+      <c r="N20" s="42">
+        <f t="shared" ref="N20" si="38">N9/N7</f>
+        <v>0.92711864406779665</v>
       </c>
       <c r="R20" s="31">
         <f t="shared" ref="R20:W20" si="39">R9/R7</f>
@@ -3936,8 +4025,9 @@
         <f t="shared" si="39"/>
         <v>0.9285714285714286</v>
       </c>
-      <c r="X20" s="57">
-        <v>0.93</v>
+      <c r="X20" s="31">
+        <f t="shared" ref="X20" si="40">X9/X7</f>
+        <v>0.92795883361921094</v>
       </c>
       <c r="Y20" s="57">
         <v>0.93</v>
@@ -3964,7 +4054,7 @@
         <v>107</v>
       </c>
       <c r="AH20" s="61">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.2">
@@ -3972,75 +4062,80 @@
         <v>53</v>
       </c>
       <c r="C21" s="31">
-        <f t="shared" ref="C21:M21" si="40">C11/C7</f>
+        <f t="shared" ref="C21:M21" si="41">C11/C7</f>
         <v>0.21943573667711599</v>
       </c>
       <c r="D21" s="42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.17568947906026558</v>
       </c>
       <c r="E21" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.29641025641025642</v>
       </c>
       <c r="F21" s="42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.12392241379310345</v>
       </c>
       <c r="G21" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.21664887940234792</v>
       </c>
       <c r="H21" s="42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.18701870187018702</v>
       </c>
       <c r="I21" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.21841541755888652</v>
       </c>
       <c r="J21" s="42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.16090819348469892</v>
       </c>
       <c r="K21" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.14443422263109476</v>
       </c>
       <c r="L21" s="42">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.27256153144940748</v>
       </c>
       <c r="M21" s="31">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.18663194444444445</v>
       </c>
+      <c r="N21" s="42">
+        <f t="shared" ref="N21" si="42">N11/N7</f>
+        <v>0.20084745762711864</v>
+      </c>
       <c r="R21" s="31">
-        <f t="shared" ref="R21:W21" si="41">R11/R7</f>
+        <f t="shared" ref="R21:W21" si="43">R11/R7</f>
         <v>0.2313109425785482</v>
       </c>
       <c r="S21" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.19731404958677687</v>
       </c>
       <c r="T21" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.21229637414608513</v>
       </c>
       <c r="U21" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.20205850487540628</v>
       </c>
       <c r="V21" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.18849512069851052</v>
       </c>
       <c r="W21" s="31">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.2087912087912088</v>
       </c>
-      <c r="X21" s="57">
-        <v>0.2</v>
+      <c r="X21" s="31">
+        <f t="shared" ref="X21" si="44">X11/X7</f>
+        <v>0.19382504288164665</v>
       </c>
       <c r="Y21" s="57">
         <v>0.2</v>
@@ -4075,111 +4170,115 @@
         <v>54</v>
       </c>
       <c r="C22" s="31">
-        <f t="shared" ref="C22:M22" si="42">C16/C7</f>
+        <f t="shared" ref="C22:M22" si="45">C16/C7</f>
         <v>0.16091954022988506</v>
       </c>
       <c r="D22" s="42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.11440245148110317</v>
       </c>
       <c r="E22" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.22974358974358974</v>
       </c>
       <c r="F22" s="42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>9.2672413793103453E-2</v>
       </c>
       <c r="G22" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.15581643543223053</v>
       </c>
       <c r="H22" s="42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.15291529152915292</v>
       </c>
       <c r="I22" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.16274089935760172</v>
       </c>
       <c r="J22" s="42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.10069101678183613</v>
       </c>
       <c r="K22" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>9.1996320147194111E-2</v>
       </c>
       <c r="L22" s="42">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.20875113947128532</v>
       </c>
       <c r="M22" s="31">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.13541666666666666</v>
       </c>
+      <c r="N22" s="42">
+        <f t="shared" ref="N22" si="46">N16/N7</f>
+        <v>0.14152542372881355</v>
+      </c>
       <c r="R22" s="31">
-        <f t="shared" ref="R22:AE22" si="43">R16/R7</f>
+        <f t="shared" ref="R22:AE22" si="47">R16/R7</f>
         <v>0.15980498374864571</v>
       </c>
       <c r="S22" s="31">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.13739669421487602</v>
       </c>
       <c r="T22" s="31">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.16290068313189701</v>
       </c>
       <c r="U22" s="31">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.1543878656554713</v>
       </c>
       <c r="V22" s="31">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.13045711350796096</v>
       </c>
       <c r="W22" s="31">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.15064102564102563</v>
       </c>
       <c r="X22" s="31">
-        <f t="shared" si="43"/>
-        <v>0.14110772357723578</v>
+        <f t="shared" ref="X22" si="48">X16/X7</f>
+        <v>0.13850771869639794</v>
       </c>
       <c r="Y22" s="31">
-        <f t="shared" si="43"/>
-        <v>0.14110772357723578</v>
+        <f t="shared" si="47"/>
+        <v>0.14136411282637698</v>
       </c>
       <c r="Z22" s="31">
-        <f t="shared" si="43"/>
-        <v>0.14162334310417934</v>
+        <f t="shared" si="47"/>
+        <v>0.14204040047806579</v>
       </c>
       <c r="AA22" s="31">
-        <f t="shared" si="43"/>
-        <v>0.14185323890815846</v>
+        <f t="shared" si="47"/>
+        <v>0.14235441555354519</v>
       </c>
       <c r="AB22" s="31">
-        <f t="shared" si="43"/>
-        <v>0.14218261413383368</v>
+        <f t="shared" si="47"/>
+        <v>0.14283077842440559</v>
       </c>
       <c r="AC22" s="31">
-        <f t="shared" si="43"/>
-        <v>0.14253143196015158</v>
+        <f t="shared" si="47"/>
+        <v>0.14331635075097393</v>
       </c>
       <c r="AD22" s="31">
-        <f t="shared" si="43"/>
-        <v>0.14261951086646549</v>
+        <f t="shared" si="47"/>
+        <v>0.14352980019669509</v>
       </c>
       <c r="AE22" s="31">
-        <f t="shared" si="43"/>
-        <v>0.14269284912516728</v>
+        <f t="shared" si="47"/>
+        <v>0.14384649099247179</v>
       </c>
       <c r="AG22" s="62" t="s">
         <v>109</v>
       </c>
       <c r="AH22" s="68">
         <f>NPV(AH21,W16:BZ16)</f>
-        <v>6133.4303478510274</v>
+        <v>8471.1297034549534</v>
       </c>
     </row>
     <row r="23" spans="2:34" x14ac:dyDescent="0.2">
@@ -4187,75 +4286,80 @@
         <v>100</v>
       </c>
       <c r="C23" s="31">
-        <f t="shared" ref="C23:I23" si="44">C15/C14</f>
+        <f t="shared" ref="C23:I23" si="49">C15/C14</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D23" s="42">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.31288343558282211</v>
       </c>
       <c r="E23" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.18545454545454546</v>
       </c>
       <c r="F23" s="42">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.12244897959183673</v>
       </c>
       <c r="G23" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.23157894736842105</v>
       </c>
       <c r="H23" s="42">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.11464968152866242</v>
       </c>
       <c r="I23" s="31">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0.19576719576719576</v>
       </c>
       <c r="J23" s="42">
-        <f t="shared" ref="J23:K23" si="45">J15/J14</f>
+        <f t="shared" ref="J23:K23" si="50">J15/J14</f>
         <v>0.3108108108108108</v>
       </c>
       <c r="K23" s="31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="50"/>
         <v>0.2805755395683453</v>
       </c>
       <c r="L23" s="42">
-        <f t="shared" ref="L23" si="46">L15/L14</f>
+        <f t="shared" ref="L23:N23" si="51">L15/L14</f>
         <v>0.19649122807017544</v>
       </c>
       <c r="M23" s="31">
-        <f t="shared" ref="M23" si="47">M15/M14</f>
+        <f t="shared" ref="M23" si="52">M15/M14</f>
         <v>0.23152709359605911</v>
       </c>
+      <c r="N23" s="42">
+        <f t="shared" si="51"/>
+        <v>0.25112107623318386</v>
+      </c>
       <c r="R23" s="31">
-        <f t="shared" ref="R23:U23" si="48">R15/R14</f>
+        <f t="shared" ref="R23:U23" si="53">R15/R14</f>
         <v>0.25879396984924624</v>
       </c>
       <c r="S23" s="31">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="T23" s="31">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0.16890080428954424</v>
       </c>
       <c r="U23" s="31">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0.17867435158501441</v>
       </c>
       <c r="V23" s="31">
-        <f t="shared" ref="V23:W23" si="49">V15/V14</f>
+        <f t="shared" ref="V23:W23" si="54">V15/V14</f>
         <v>0.24629080118694363</v>
       </c>
       <c r="W23" s="31">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0.22405660377358491</v>
       </c>
-      <c r="X23" s="57">
-        <v>0.25</v>
+      <c r="X23" s="31">
+        <f t="shared" ref="X23" si="55">X15/X14</f>
+        <v>0.24178403755868544</v>
       </c>
       <c r="Y23" s="57">
         <v>0.25</v>
@@ -4283,16 +4387,17 @@
       </c>
       <c r="AH23" s="68">
         <f>Main!C11</f>
-        <v>-792</v>
+        <v>-703</v>
       </c>
     </row>
     <row r="24" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="X24" s="1"/>
       <c r="AG24" s="62" t="s">
         <v>110</v>
       </c>
       <c r="AH24" s="68">
         <f>AH22-AH23</f>
-        <v>6925.4303478510274</v>
+        <v>9174.1297034549534</v>
       </c>
     </row>
     <row r="25" spans="2:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4306,40 +4411,44 @@
         <v>92</v>
       </c>
       <c r="E25" s="41">
-        <f t="shared" ref="E25:M25" si="50">E7/C7-1</f>
+        <f t="shared" ref="E25:N25" si="56">E7/C7-1</f>
         <v>1.8808777429467183E-2</v>
       </c>
       <c r="F25" s="50">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>-5.2093973442288055E-2</v>
       </c>
       <c r="G25" s="41">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>-3.8974358974358969E-2</v>
       </c>
       <c r="H25" s="50">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>-2.0474137931034475E-2</v>
       </c>
       <c r="I25" s="41">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>-3.2017075773745907E-3</v>
       </c>
       <c r="J25" s="50">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.11441144114411439</v>
       </c>
       <c r="K25" s="41">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>0.16381156316916479</v>
       </c>
       <c r="L25" s="50">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>8.2922013820335705E-2</v>
       </c>
       <c r="M25" s="41">
-        <f t="shared" si="50"/>
+        <f t="shared" si="56"/>
         <v>5.9797608095676136E-2</v>
+      </c>
+      <c r="N25" s="50">
+        <f t="shared" si="56"/>
+        <v>7.5660893345487645E-2</v>
       </c>
       <c r="R25" s="19" t="s">
         <v>92</v>
@@ -4364,37 +4473,37 @@
         <f>W7/V7-1</f>
         <v>0.1217257318952234</v>
       </c>
-      <c r="X25" s="58">
-        <f>+X7/W7-1</f>
-        <v>8.1318681318681474E-2</v>
+      <c r="X25" s="41">
+        <f t="shared" ref="X25" si="57">X7/W7-1</f>
+        <v>6.7765567765567747E-2</v>
       </c>
       <c r="Y25" s="58">
+        <v>0.08</v>
+      </c>
+      <c r="Z25" s="58">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA25" s="58">
+        <v>0.06</v>
+      </c>
+      <c r="AB25" s="58">
+        <v>0.06</v>
+      </c>
+      <c r="AC25" s="58">
         <v>0.05</v>
       </c>
-      <c r="Z25" s="58">
+      <c r="AD25" s="58">
         <v>0.05</v>
       </c>
-      <c r="AA25" s="58">
+      <c r="AE25" s="58">
         <v>0.05</v>
-      </c>
-      <c r="AB25" s="58">
-        <v>0.04</v>
-      </c>
-      <c r="AC25" s="58">
-        <v>0.03</v>
-      </c>
-      <c r="AD25" s="58">
-        <v>0.02</v>
-      </c>
-      <c r="AE25" s="58">
-        <v>0.01</v>
       </c>
       <c r="AG25" s="4" t="s">
         <v>111</v>
       </c>
       <c r="AH25" s="67">
         <f>AH24/Main!C7</f>
-        <v>6.8163684526092787</v>
+        <v>9.1103572030337165</v>
       </c>
     </row>
     <row r="26" spans="2:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
@@ -4411,30 +4520,37 @@
         <f>+M4/K4-1</f>
         <v>7.660455486542439E-2</v>
       </c>
+      <c r="N26" s="81">
+        <f>+N4/L4-1</f>
+        <v>8.5714285714285632E-2</v>
+      </c>
       <c r="R26" s="19" t="s">
         <v>92</v>
       </c>
       <c r="S26" s="86">
-        <f t="shared" ref="S26:W28" si="51">+S4/R4-1</f>
+        <f t="shared" ref="S26:W28" si="58">+S4/R4-1</f>
         <v>0.14459930313588854</v>
       </c>
       <c r="T26" s="86">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>5.3272450532724447E-2</v>
       </c>
       <c r="U26" s="86">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>-7.225433526011571E-3</v>
       </c>
       <c r="V26" s="86">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>0.19068413391557493</v>
       </c>
       <c r="W26" s="86">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>0.18948655256723712</v>
       </c>
-      <c r="X26" s="86"/>
+      <c r="X26" s="86">
+        <f t="shared" ref="X26:X28" si="59">+X4/W4-1</f>
+        <v>8.1192189105858237E-2</v>
+      </c>
       <c r="Y26" s="87"/>
       <c r="Z26" s="87"/>
       <c r="AA26" s="87"/>
@@ -4447,7 +4563,7 @@
       </c>
       <c r="AH26" s="83">
         <f>AH25/Main!C6-1</f>
-        <v>-0.35936386723597014</v>
+        <v>-0.28208375074596403</v>
       </c>
     </row>
     <row r="27" spans="2:34" s="82" customFormat="1" x14ac:dyDescent="0.2">
@@ -4464,30 +4580,37 @@
         <f>+M5/K5-1</f>
         <v>5.4662379421221763E-2</v>
       </c>
+      <c r="N27" s="81">
+        <f>+N5/L5-1</f>
+        <v>8.2278481012658222E-2</v>
+      </c>
       <c r="R27" s="19" t="s">
         <v>92</v>
       </c>
       <c r="S27" s="86">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>6.8421052631578938E-2</v>
       </c>
       <c r="T27" s="86">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>1.4778325123152802E-2</v>
       </c>
       <c r="U27" s="86">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>-2.4271844660194164E-2</v>
       </c>
       <c r="V27" s="86">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>0.45771144278606957</v>
       </c>
       <c r="W27" s="86">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>6.9965870307167277E-2</v>
       </c>
-      <c r="X27" s="86"/>
+      <c r="X27" s="86">
+        <f t="shared" si="59"/>
+        <v>6.8580542264752742E-2</v>
+      </c>
       <c r="Y27" s="87"/>
       <c r="Z27" s="87"/>
       <c r="AA27" s="87"/>
@@ -4512,30 +4635,37 @@
         <f>+M6/K6-1</f>
         <v>3.7542662116040848E-2</v>
       </c>
+      <c r="N28" s="81">
+        <f>+N6/L6-1</f>
+        <v>5.1546391752577359E-2</v>
+      </c>
       <c r="R28" s="19" t="s">
         <v>92</v>
       </c>
       <c r="S28" s="86">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>-2.4663677130044803E-2</v>
       </c>
       <c r="T28" s="86">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>-8.1609195402298829E-2</v>
       </c>
       <c r="U28" s="86">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>-5.2565707133917394E-2</v>
       </c>
       <c r="V28" s="86">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>-0.28269484808454426</v>
       </c>
       <c r="W28" s="86">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>7.5506445672191447E-2</v>
       </c>
-      <c r="X28" s="87"/>
+      <c r="X28" s="86">
+        <f t="shared" si="59"/>
+        <v>4.4520547945205546E-2</v>
+      </c>
       <c r="Y28" s="87"/>
       <c r="Z28" s="87"/>
       <c r="AA28" s="87"/>
@@ -4554,47 +4684,48 @@
         <v>92</v>
       </c>
       <c r="D29" s="42">
-        <f t="shared" ref="D29:M29" si="52">D7/C7-1</f>
+        <f t="shared" ref="D29:N29" si="60">D7/C7-1</f>
         <v>2.2988505747126409E-2</v>
       </c>
       <c r="E29" s="31">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>-4.0858018386108474E-3</v>
       </c>
       <c r="F29" s="42">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>-4.8205128205128234E-2</v>
       </c>
       <c r="G29" s="31">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>9.6982758620689502E-3</v>
       </c>
       <c r="H29" s="42">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>-2.9882604055496254E-2</v>
       </c>
       <c r="I29" s="31">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>2.7502750275027577E-2</v>
       </c>
       <c r="J29" s="42">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>8.4582441113490336E-2</v>
       </c>
       <c r="K29" s="31">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>7.3050345508390846E-2</v>
       </c>
       <c r="L29" s="42">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>9.1996320147194055E-3</v>
       </c>
       <c r="M29" s="31">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>5.0136736554238892E-2</v>
       </c>
-      <c r="N29" s="31">
-        <v>0.05</v>
+      <c r="N29" s="42">
+        <f t="shared" si="60"/>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="R29" s="19" t="s">
         <v>92</v>
@@ -4619,7 +4750,7 @@
       </c>
       <c r="AH29" s="64">
         <f>Main!C6</f>
-        <v>10.64</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.2">
@@ -4642,7 +4773,7 @@
       </c>
       <c r="AH30" s="66">
         <f>AH25/AH29-1</f>
-        <v>-0.35936386723597014</v>
+        <v>-0.28208375074596403</v>
       </c>
     </row>
     <row r="31" spans="2:34" x14ac:dyDescent="0.2">
@@ -4690,28 +4821,29 @@
       <c r="H33" s="36"/>
       <c r="J33" s="36"/>
       <c r="L33" s="36"/>
+      <c r="N33" s="36"/>
       <c r="R33" s="77">
-        <f t="shared" ref="R33:W33" si="53">SUM(R34:R37)</f>
+        <f t="shared" ref="R33:W33" si="61">SUM(R34:R37)</f>
         <v>13660</v>
       </c>
       <c r="S33" s="77">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>12755</v>
       </c>
       <c r="T33" s="77">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>12506</v>
       </c>
       <c r="U33" s="77">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>11785</v>
       </c>
       <c r="V33" s="77">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>11228</v>
       </c>
       <c r="W33" s="77">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>11565</v>
       </c>
       <c r="X33" s="55"/>
@@ -4732,6 +4864,7 @@
       <c r="H34" s="72"/>
       <c r="J34" s="72"/>
       <c r="L34" s="72"/>
+      <c r="N34" s="72"/>
       <c r="R34" s="71">
         <v>2704</v>
       </c>
@@ -4760,6 +4893,7 @@
       <c r="H35" s="72"/>
       <c r="J35" s="72"/>
       <c r="L35" s="72"/>
+      <c r="N35" s="72"/>
       <c r="R35" s="71">
         <v>3109</v>
       </c>
@@ -4788,6 +4922,7 @@
       <c r="H36" s="72"/>
       <c r="J36" s="72"/>
       <c r="L36" s="72"/>
+      <c r="N36" s="72"/>
       <c r="R36" s="71">
         <v>4396</v>
       </c>
@@ -4816,6 +4951,7 @@
       <c r="H37" s="72"/>
       <c r="J37" s="72"/>
       <c r="L37" s="72"/>
+      <c r="N37" s="72"/>
       <c r="R37" s="71">
         <v>3451</v>
       </c>
@@ -4844,6 +4980,7 @@
       <c r="H38" s="74"/>
       <c r="J38" s="74"/>
       <c r="L38" s="74"/>
+      <c r="N38" s="74"/>
       <c r="S38" s="76">
         <f>S33/R33-1</f>
         <v>-6.6251830161054182E-2</v>
@@ -4926,7 +5063,10 @@
         <f>2190+245</f>
         <v>2435</v>
       </c>
-      <c r="N41" s="32"/>
+      <c r="N41" s="33">
+        <f>+X41</f>
+        <v>2349</v>
+      </c>
       <c r="O41" s="32"/>
       <c r="P41" s="32"/>
       <c r="Q41" s="32"/>
@@ -4954,6 +5094,10 @@
         <f>2245+274</f>
         <v>2519</v>
       </c>
+      <c r="X41" s="39">
+        <f>2130+219</f>
+        <v>2349</v>
+      </c>
     </row>
     <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
@@ -4981,9 +5125,9 @@
       <c r="I42" s="32">
         <v>155</v>
       </c>
-      <c r="J42" s="23">
-        <f>-V42</f>
-        <v>-152</v>
+      <c r="J42" s="33">
+        <f>+V42</f>
+        <v>152</v>
       </c>
       <c r="K42" s="32">
         <v>124</v>
@@ -4995,7 +5139,10 @@
       <c r="M42" s="32">
         <v>101</v>
       </c>
-      <c r="N42" s="32"/>
+      <c r="N42" s="33">
+        <f>+X42</f>
+        <v>108</v>
+      </c>
       <c r="O42" s="32"/>
       <c r="P42" s="32"/>
       <c r="Q42" s="32"/>
@@ -5017,6 +5164,9 @@
       <c r="W42" s="32">
         <v>104</v>
       </c>
+      <c r="X42" s="39">
+        <v>108</v>
+      </c>
     </row>
     <row r="43" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
@@ -5052,13 +5202,16 @@
         <v>4</v>
       </c>
       <c r="L43" s="36">
-        <f t="shared" ref="L43:L44" si="54">W43</f>
+        <f t="shared" ref="L43:L44" si="62">W43</f>
         <v>4</v>
       </c>
       <c r="M43" s="35">
         <v>6</v>
       </c>
-      <c r="N43" s="35"/>
+      <c r="N43" s="36">
+        <f>+X43</f>
+        <v>6</v>
+      </c>
       <c r="O43" s="35"/>
       <c r="P43" s="35"/>
       <c r="Q43" s="35"/>
@@ -5080,7 +5233,9 @@
       <c r="W43" s="35">
         <v>4</v>
       </c>
-      <c r="X43" s="59"/>
+      <c r="X43" s="55">
+        <v>6</v>
+      </c>
       <c r="Y43" s="59"/>
       <c r="Z43" s="59"/>
       <c r="AA43" s="59"/>
@@ -5116,20 +5271,23 @@
         <v>0</v>
       </c>
       <c r="J44" s="23">
-        <f t="shared" ref="J44:J51" si="55">-V44</f>
+        <f t="shared" ref="J44:J51" si="63">-V44</f>
         <v>0</v>
       </c>
       <c r="K44" s="35">
         <v>2</v>
       </c>
       <c r="L44" s="36">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="M44" s="35">
         <v>13</v>
       </c>
-      <c r="N44" s="35"/>
+      <c r="N44" s="36">
+        <f>+X44</f>
+        <v>29</v>
+      </c>
       <c r="O44" s="35"/>
       <c r="P44" s="35"/>
       <c r="Q44" s="35"/>
@@ -5151,7 +5309,9 @@
       <c r="W44" s="35">
         <v>1</v>
       </c>
-      <c r="X44" s="59"/>
+      <c r="X44" s="55">
+        <v>29</v>
+      </c>
       <c r="Y44" s="59"/>
       <c r="Z44" s="59"/>
       <c r="AA44" s="59"/>
@@ -5174,7 +5334,7 @@
         <v>83</v>
       </c>
       <c r="F45" s="33">
-        <f t="shared" ref="F45:F51" si="56">T45</f>
+        <f t="shared" ref="F45:F51" si="64">T45</f>
         <v>86</v>
       </c>
       <c r="G45" s="32">
@@ -5186,9 +5346,9 @@
       <c r="I45" s="32">
         <v>116</v>
       </c>
-      <c r="J45" s="23">
-        <f t="shared" si="55"/>
-        <v>-128</v>
+      <c r="J45" s="33">
+        <f>+V45</f>
+        <v>128</v>
       </c>
       <c r="K45" s="32">
         <v>125</v>
@@ -5200,7 +5360,10 @@
       <c r="M45" s="32">
         <v>136</v>
       </c>
-      <c r="N45" s="32"/>
+      <c r="N45" s="33">
+        <f>+X45</f>
+        <v>137</v>
+      </c>
       <c r="O45" s="32"/>
       <c r="P45" s="32"/>
       <c r="Q45" s="32"/>
@@ -5222,6 +5385,9 @@
       <c r="W45" s="32">
         <v>138</v>
       </c>
+      <c r="X45" s="39">
+        <v>137</v>
+      </c>
     </row>
     <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
@@ -5237,7 +5403,7 @@
         <v>26</v>
       </c>
       <c r="F46" s="33">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>35</v>
       </c>
       <c r="G46" s="32">
@@ -5249,9 +5415,9 @@
       <c r="I46" s="32">
         <v>34</v>
       </c>
-      <c r="J46" s="23">
-        <f t="shared" si="55"/>
-        <v>-19</v>
+      <c r="J46" s="33">
+        <f>+V46</f>
+        <v>19</v>
       </c>
       <c r="K46" s="32">
         <v>35</v>
@@ -5263,7 +5429,10 @@
       <c r="M46" s="32">
         <v>73</v>
       </c>
-      <c r="N46" s="32"/>
+      <c r="N46" s="33">
+        <f>+X46</f>
+        <v>81</v>
+      </c>
       <c r="O46" s="32"/>
       <c r="P46" s="32"/>
       <c r="Q46" s="32"/>
@@ -5285,82 +5454,92 @@
       <c r="W46" s="32">
         <v>56</v>
       </c>
+      <c r="X46" s="39">
+        <v>81</v>
+      </c>
     </row>
     <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C47" s="32">
-        <f t="shared" ref="C47:M47" si="57">SUM(C41:C46)</f>
+        <f t="shared" ref="C47:N47" si="65">SUM(C41:C46)</f>
         <v>2471</v>
       </c>
       <c r="D47" s="33">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>2551</v>
       </c>
       <c r="E47" s="32">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>2585</v>
       </c>
       <c r="F47" s="33">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>2469</v>
       </c>
       <c r="G47" s="32">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>2353</v>
       </c>
       <c r="H47" s="33">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>2405</v>
       </c>
       <c r="I47" s="32">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>2672</v>
       </c>
       <c r="J47" s="33">
-        <f t="shared" si="57"/>
-        <v>2415</v>
+        <f t="shared" si="65"/>
+        <v>3013</v>
       </c>
       <c r="K47" s="32">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>2816</v>
       </c>
       <c r="L47" s="33">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>2822</v>
       </c>
       <c r="M47" s="32">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>2764</v>
       </c>
-      <c r="N47" s="32"/>
+      <c r="N47" s="33">
+        <f t="shared" si="65"/>
+        <v>2710</v>
+      </c>
       <c r="O47" s="32"/>
       <c r="P47" s="32"/>
       <c r="Q47" s="32"/>
       <c r="R47" s="32">
-        <f t="shared" ref="R47:W47" si="58">SUM(R41:R46)</f>
+        <f t="shared" ref="R47:X47" si="66">SUM(R41:R46)</f>
         <v>2451</v>
       </c>
       <c r="S47" s="32">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>2551</v>
       </c>
       <c r="T47" s="32">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>2469</v>
       </c>
       <c r="U47" s="32">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>2405</v>
       </c>
       <c r="V47" s="32">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>3013</v>
       </c>
       <c r="W47" s="32">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>2822</v>
+      </c>
+      <c r="X47" s="32">
+        <f t="shared" si="66"/>
+        <v>2710</v>
       </c>
     </row>
     <row r="48" spans="2:31" x14ac:dyDescent="0.2">
@@ -5377,7 +5556,7 @@
         <v>329</v>
       </c>
       <c r="F48" s="33">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>302</v>
       </c>
       <c r="G48" s="32">
@@ -5389,9 +5568,9 @@
       <c r="I48" s="1">
         <v>329</v>
       </c>
-      <c r="J48" s="23">
-        <f t="shared" si="55"/>
-        <v>-335</v>
+      <c r="J48" s="33">
+        <f>+V48</f>
+        <v>335</v>
       </c>
       <c r="K48" s="32">
         <v>367</v>
@@ -5403,7 +5582,10 @@
       <c r="M48" s="32">
         <v>391</v>
       </c>
-      <c r="N48" s="32"/>
+      <c r="N48" s="33">
+        <f>+X48</f>
+        <v>404</v>
+      </c>
       <c r="O48" s="32"/>
       <c r="P48" s="32"/>
       <c r="Q48" s="32"/>
@@ -5425,6 +5607,9 @@
       <c r="W48" s="32">
         <v>376</v>
       </c>
+      <c r="X48" s="39">
+        <v>404</v>
+      </c>
     </row>
     <row r="49" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
@@ -5440,7 +5625,7 @@
         <v>15</v>
       </c>
       <c r="F49" s="33">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>5</v>
       </c>
       <c r="G49" s="32">
@@ -5452,9 +5637,9 @@
       <c r="I49" s="1">
         <v>28</v>
       </c>
-      <c r="J49" s="23">
-        <f t="shared" si="55"/>
-        <v>-39</v>
+      <c r="J49" s="33">
+        <f>+V49</f>
+        <v>39</v>
       </c>
       <c r="K49" s="32">
         <v>37</v>
@@ -5466,7 +5651,10 @@
       <c r="M49" s="32">
         <v>37</v>
       </c>
-      <c r="N49" s="32"/>
+      <c r="N49" s="33">
+        <f>+X49</f>
+        <v>16</v>
+      </c>
       <c r="O49" s="32"/>
       <c r="P49" s="32"/>
       <c r="Q49" s="32"/>
@@ -5488,6 +5676,9 @@
       <c r="W49" s="32">
         <v>42</v>
       </c>
+      <c r="X49" s="39">
+        <v>16</v>
+      </c>
     </row>
     <row r="50" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
@@ -5529,7 +5720,10 @@
       <c r="M50" s="35">
         <v>448</v>
       </c>
-      <c r="N50" s="32"/>
+      <c r="N50" s="36">
+        <f>+X50</f>
+        <v>508</v>
+      </c>
       <c r="O50" s="32"/>
       <c r="P50" s="32"/>
       <c r="Q50" s="32"/>
@@ -5551,7 +5745,9 @@
       <c r="W50" s="35">
         <v>696</v>
       </c>
-      <c r="X50" s="59"/>
+      <c r="X50" s="55">
+        <v>508</v>
+      </c>
       <c r="Y50" s="59"/>
       <c r="Z50" s="59"/>
       <c r="AA50" s="59"/>
@@ -5574,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="33">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>108</v>
       </c>
       <c r="G51" s="32">
@@ -5587,7 +5783,7 @@
         <v>2</v>
       </c>
       <c r="J51" s="23">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="K51" s="32">
@@ -5600,7 +5796,10 @@
       <c r="M51" s="32">
         <v>7</v>
       </c>
-      <c r="N51" s="32"/>
+      <c r="N51" s="33">
+        <f>+X51</f>
+        <v>0</v>
+      </c>
       <c r="O51" s="32"/>
       <c r="P51" s="32"/>
       <c r="Q51" s="32"/>
@@ -5622,82 +5821,92 @@
       <c r="W51" s="32">
         <v>0</v>
       </c>
+      <c r="X51" s="39">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C52" s="32">
-        <f t="shared" ref="C52:M52" si="59">C47+SUM(C48:C51)</f>
+        <f t="shared" ref="C52:N52" si="67">C47+SUM(C48:C51)</f>
         <v>3228</v>
       </c>
       <c r="D52" s="33">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>3352</v>
       </c>
       <c r="E52" s="32">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>3841</v>
       </c>
       <c r="F52" s="33">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>3715</v>
       </c>
       <c r="G52" s="32">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>3444</v>
       </c>
       <c r="H52" s="33">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>3329</v>
       </c>
       <c r="I52" s="32">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>3546</v>
       </c>
       <c r="J52" s="33">
-        <f t="shared" si="59"/>
-        <v>2530</v>
+        <f t="shared" si="67"/>
+        <v>3876</v>
       </c>
       <c r="K52" s="32">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>3795</v>
       </c>
       <c r="L52" s="33">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>3936</v>
       </c>
       <c r="M52" s="32">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>3647</v>
       </c>
-      <c r="N52" s="32"/>
+      <c r="N52" s="33">
+        <f t="shared" si="67"/>
+        <v>3638</v>
+      </c>
       <c r="O52" s="32"/>
       <c r="P52" s="32"/>
       <c r="Q52" s="32"/>
       <c r="R52" s="32">
-        <f t="shared" ref="R52:W52" si="60">R47+SUM(R48:R51)</f>
+        <f t="shared" ref="R52:X52" si="68">R47+SUM(R48:R51)</f>
         <v>3300</v>
       </c>
       <c r="S52" s="32">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>3352</v>
       </c>
       <c r="T52" s="32">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>3715</v>
       </c>
       <c r="U52" s="32">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>3329</v>
       </c>
       <c r="V52" s="32">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>3876</v>
       </c>
       <c r="W52" s="32">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>3936</v>
+      </c>
+      <c r="X52" s="32">
+        <f t="shared" si="68"/>
+        <v>3638</v>
       </c>
     </row>
     <row r="53" spans="2:31" x14ac:dyDescent="0.2">
@@ -5706,7 +5915,7 @@
       <c r="K53" s="32"/>
       <c r="L53" s="33"/>
       <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
+      <c r="N53" s="33"/>
       <c r="O53" s="32"/>
       <c r="P53" s="32"/>
       <c r="Q53" s="32"/>
@@ -5731,7 +5940,7 @@
         <v>242</v>
       </c>
       <c r="F54" s="33">
-        <f t="shared" ref="F54:F59" si="61">T54</f>
+        <f t="shared" ref="F54:F59" si="69">T54</f>
         <v>297</v>
       </c>
       <c r="G54" s="32">
@@ -5744,20 +5953,23 @@
         <v>311</v>
       </c>
       <c r="J54" s="23">
-        <f t="shared" ref="J54:J59" si="62">V54</f>
+        <f t="shared" ref="J54:J59" si="70">V54</f>
         <v>368</v>
       </c>
       <c r="K54" s="32">
         <v>302</v>
       </c>
       <c r="L54" s="33">
-        <f t="shared" ref="L54:L59" si="63">W54</f>
+        <f t="shared" ref="L54:L59" si="71">W54</f>
         <v>378</v>
       </c>
       <c r="M54" s="32">
         <v>371</v>
       </c>
-      <c r="N54" s="32"/>
+      <c r="N54" s="33">
+        <f>+X54</f>
+        <v>405</v>
+      </c>
       <c r="O54" s="32"/>
       <c r="P54" s="32"/>
       <c r="Q54" s="32"/>
@@ -5779,6 +5991,9 @@
       <c r="W54" s="32">
         <v>378</v>
       </c>
+      <c r="X54" s="39">
+        <v>405</v>
+      </c>
     </row>
     <row r="55" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
@@ -5794,7 +6009,7 @@
         <v>46</v>
       </c>
       <c r="F55" s="33">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>13</v>
       </c>
       <c r="G55" s="32">
@@ -5807,20 +6022,23 @@
         <v>23</v>
       </c>
       <c r="J55" s="23">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>13</v>
       </c>
       <c r="K55" s="32">
         <v>33</v>
       </c>
       <c r="L55" s="33">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>25</v>
       </c>
       <c r="M55" s="32">
         <v>26</v>
       </c>
-      <c r="N55" s="32"/>
+      <c r="N55" s="33">
+        <f>+X55</f>
+        <v>26</v>
+      </c>
       <c r="O55" s="32"/>
       <c r="P55" s="32"/>
       <c r="Q55" s="32"/>
@@ -5842,6 +6060,9 @@
       <c r="W55" s="32">
         <v>25</v>
       </c>
+      <c r="X55" s="39">
+        <v>26</v>
+      </c>
     </row>
     <row r="56" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
@@ -5870,20 +6091,23 @@
         <v>42</v>
       </c>
       <c r="J56" s="30">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>178</v>
       </c>
       <c r="K56" s="35">
         <v>16</v>
       </c>
       <c r="L56" s="36">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>14</v>
       </c>
       <c r="M56" s="32">
         <v>15</v>
       </c>
-      <c r="N56" s="32"/>
+      <c r="N56" s="33">
+        <f>+X56</f>
+        <v>15</v>
+      </c>
       <c r="O56" s="32"/>
       <c r="P56" s="32"/>
       <c r="Q56" s="32"/>
@@ -5905,7 +6129,9 @@
       <c r="W56" s="35">
         <v>14</v>
       </c>
-      <c r="X56" s="59"/>
+      <c r="X56" s="55">
+        <v>15</v>
+      </c>
       <c r="Y56" s="59"/>
       <c r="Z56" s="59"/>
       <c r="AA56" s="59"/>
@@ -5928,7 +6154,7 @@
         <v>9</v>
       </c>
       <c r="F57" s="33">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>19</v>
       </c>
       <c r="G57" s="32">
@@ -5941,20 +6167,23 @@
         <v>44</v>
       </c>
       <c r="J57" s="23">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>33</v>
       </c>
       <c r="K57" s="32">
         <v>20</v>
       </c>
       <c r="L57" s="33">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>23</v>
       </c>
       <c r="M57" s="32">
         <v>15</v>
       </c>
-      <c r="N57" s="32"/>
+      <c r="N57" s="33">
+        <f>+X57</f>
+        <v>22</v>
+      </c>
       <c r="O57" s="32"/>
       <c r="P57" s="32"/>
       <c r="Q57" s="32"/>
@@ -5976,6 +6205,9 @@
       <c r="W57" s="32">
         <v>23</v>
       </c>
+      <c r="X57" s="39">
+        <v>22</v>
+      </c>
     </row>
     <row r="58" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
@@ -5991,7 +6223,7 @@
         <v>691</v>
       </c>
       <c r="F58" s="33">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>593</v>
       </c>
       <c r="G58" s="32">
@@ -6004,20 +6236,23 @@
         <v>705</v>
       </c>
       <c r="J58" s="23">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>734</v>
       </c>
       <c r="K58" s="32">
         <v>770</v>
       </c>
       <c r="L58" s="33">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>745</v>
       </c>
       <c r="M58" s="32">
         <v>803</v>
       </c>
-      <c r="N58" s="32"/>
+      <c r="N58" s="33">
+        <f>+X58</f>
+        <v>758</v>
+      </c>
       <c r="O58" s="32"/>
       <c r="P58" s="32"/>
       <c r="Q58" s="32"/>
@@ -6039,6 +6274,9 @@
       <c r="W58" s="32">
         <v>745</v>
       </c>
+      <c r="X58" s="39">
+        <v>758</v>
+      </c>
     </row>
     <row r="59" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
@@ -6054,7 +6292,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="33">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>73</v>
       </c>
       <c r="G59" s="32">
@@ -6067,20 +6305,23 @@
         <v>0</v>
       </c>
       <c r="J59" s="23">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="K59" s="32">
         <v>0</v>
       </c>
       <c r="L59" s="33">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="M59" s="32">
         <v>0</v>
       </c>
-      <c r="N59" s="32"/>
+      <c r="N59" s="33">
+        <f>+X59</f>
+        <v>0</v>
+      </c>
       <c r="O59" s="32"/>
       <c r="P59" s="32"/>
       <c r="Q59" s="32"/>
@@ -6102,82 +6343,92 @@
       <c r="W59" s="32">
         <v>0</v>
       </c>
+      <c r="X59" s="39">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C60" s="32">
-        <f t="shared" ref="C60:M60" si="64">SUM(C54:C59)</f>
+        <f t="shared" ref="C60:N60" si="72">SUM(C54:C59)</f>
         <v>1003</v>
       </c>
       <c r="D60" s="33">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1126</v>
       </c>
       <c r="E60" s="32">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1137</v>
       </c>
       <c r="F60" s="33">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1015</v>
       </c>
       <c r="G60" s="32">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1322</v>
       </c>
       <c r="H60" s="33">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1380</v>
       </c>
       <c r="I60" s="32">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1125</v>
       </c>
       <c r="J60" s="33">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1326</v>
       </c>
       <c r="K60" s="32">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1141</v>
       </c>
       <c r="L60" s="33">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1185</v>
       </c>
       <c r="M60" s="32">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1230</v>
       </c>
-      <c r="N60" s="32"/>
+      <c r="N60" s="33">
+        <f t="shared" si="72"/>
+        <v>1226</v>
+      </c>
       <c r="O60" s="32"/>
       <c r="P60" s="32"/>
       <c r="Q60" s="32"/>
       <c r="R60" s="32">
-        <f t="shared" ref="R60:W60" si="65">SUM(R54:R59)</f>
+        <f t="shared" ref="R60:X60" si="73">SUM(R54:R59)</f>
         <v>1005</v>
       </c>
       <c r="S60" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>1126</v>
       </c>
       <c r="T60" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>1015</v>
       </c>
       <c r="U60" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>1380</v>
       </c>
       <c r="V60" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>1326</v>
       </c>
       <c r="W60" s="32">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>1185</v>
+      </c>
+      <c r="X60" s="32">
+        <f t="shared" si="73"/>
+        <v>1226</v>
       </c>
     </row>
     <row r="61" spans="2:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6207,7 +6458,7 @@
         <v>1123</v>
       </c>
       <c r="J61" s="30">
-        <f t="shared" ref="J61:J67" si="66">V61</f>
+        <f t="shared" ref="J61:J67" si="74">V61</f>
         <v>1044</v>
       </c>
       <c r="K61" s="35">
@@ -6217,10 +6468,13 @@
         <f>W61</f>
         <v>1243</v>
       </c>
-      <c r="M61" s="32">
+      <c r="M61" s="35">
         <v>1244</v>
       </c>
-      <c r="N61" s="32"/>
+      <c r="N61" s="36">
+        <f>+X61</f>
+        <v>1231</v>
+      </c>
       <c r="O61" s="32"/>
       <c r="P61" s="32"/>
       <c r="Q61" s="32"/>
@@ -6242,7 +6496,9 @@
       <c r="W61" s="35">
         <v>1243</v>
       </c>
-      <c r="X61" s="59"/>
+      <c r="X61" s="55">
+        <v>1231</v>
+      </c>
       <c r="Y61" s="59"/>
       <c r="Z61" s="59"/>
       <c r="AA61" s="59"/>
@@ -6265,7 +6521,7 @@
         <v>26</v>
       </c>
       <c r="F62" s="33">
-        <f t="shared" ref="F62:F66" si="67">T62</f>
+        <f t="shared" ref="F62:F66" si="75">T62</f>
         <v>23</v>
       </c>
       <c r="G62" s="32">
@@ -6278,7 +6534,7 @@
         <v>23</v>
       </c>
       <c r="J62" s="23">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>19</v>
       </c>
       <c r="K62" s="32">
@@ -6291,7 +6547,10 @@
       <c r="M62" s="32">
         <v>20</v>
       </c>
-      <c r="N62" s="32"/>
+      <c r="N62" s="33">
+        <f>+X62</f>
+        <v>23</v>
+      </c>
       <c r="O62" s="32"/>
       <c r="P62" s="32"/>
       <c r="Q62" s="32"/>
@@ -6313,6 +6572,9 @@
       <c r="W62" s="32">
         <v>19</v>
       </c>
+      <c r="X62" s="39">
+        <v>23</v>
+      </c>
     </row>
     <row r="63" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
@@ -6328,7 +6590,7 @@
         <v>27</v>
       </c>
       <c r="F63" s="33">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>14</v>
       </c>
       <c r="G63" s="32">
@@ -6341,20 +6603,23 @@
         <v>24</v>
       </c>
       <c r="J63" s="23">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>16</v>
       </c>
       <c r="K63" s="32">
         <v>14</v>
       </c>
       <c r="L63" s="33">
-        <f t="shared" ref="L63:L67" si="68">W63</f>
+        <f t="shared" ref="L63:L67" si="76">W63</f>
         <v>18</v>
       </c>
       <c r="M63" s="32">
         <v>19</v>
       </c>
-      <c r="N63" s="32"/>
+      <c r="N63" s="33">
+        <f>+X63</f>
+        <v>18</v>
+      </c>
       <c r="O63" s="32"/>
       <c r="P63" s="32"/>
       <c r="Q63" s="32"/>
@@ -6376,6 +6641,9 @@
       <c r="W63" s="32">
         <v>18</v>
       </c>
+      <c r="X63" s="39">
+        <v>18</v>
+      </c>
     </row>
     <row r="64" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
@@ -6391,7 +6659,7 @@
         <v>13</v>
       </c>
       <c r="F64" s="33">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>31</v>
       </c>
       <c r="G64" s="32">
@@ -6404,20 +6672,23 @@
         <v>36</v>
       </c>
       <c r="J64" s="23">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>20</v>
       </c>
       <c r="K64" s="32">
         <v>24</v>
       </c>
       <c r="L64" s="33">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>24</v>
       </c>
       <c r="M64" s="32">
         <v>27</v>
       </c>
-      <c r="N64" s="32"/>
+      <c r="N64" s="33">
+        <f>+X64</f>
+        <v>25</v>
+      </c>
       <c r="O64" s="32"/>
       <c r="P64" s="32"/>
       <c r="Q64" s="32"/>
@@ -6439,6 +6710,9 @@
       <c r="W64" s="32">
         <v>24</v>
       </c>
+      <c r="X64" s="39">
+        <v>25</v>
+      </c>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
@@ -6454,7 +6728,7 @@
         <v>6</v>
       </c>
       <c r="F65" s="33">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>3</v>
       </c>
       <c r="G65" s="32">
@@ -6467,20 +6741,23 @@
         <v>2</v>
       </c>
       <c r="J65" s="23">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>6</v>
       </c>
       <c r="K65" s="32">
         <v>14</v>
       </c>
       <c r="L65" s="33">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>13</v>
       </c>
       <c r="M65" s="32">
         <v>6</v>
       </c>
-      <c r="N65" s="32"/>
+      <c r="N65" s="33">
+        <f>+X65</f>
+        <v>3</v>
+      </c>
       <c r="O65" s="32"/>
       <c r="P65" s="32"/>
       <c r="Q65" s="32"/>
@@ -6502,6 +6779,9 @@
       <c r="W65" s="32">
         <v>13</v>
       </c>
+      <c r="X65" s="39">
+        <v>3</v>
+      </c>
     </row>
     <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
@@ -6517,7 +6797,7 @@
         <v>7</v>
       </c>
       <c r="F66" s="33">
-        <f t="shared" si="67"/>
+        <f t="shared" si="75"/>
         <v>7</v>
       </c>
       <c r="G66" s="32">
@@ -6530,20 +6810,23 @@
         <v>9</v>
       </c>
       <c r="J66" s="23">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>8</v>
       </c>
       <c r="K66" s="32">
         <v>7</v>
       </c>
       <c r="L66" s="33">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>7</v>
       </c>
       <c r="M66" s="32">
         <v>5</v>
       </c>
-      <c r="N66" s="32"/>
+      <c r="N66" s="33">
+        <f>+X66</f>
+        <v>6</v>
+      </c>
       <c r="O66" s="32"/>
       <c r="P66" s="32"/>
       <c r="Q66" s="32"/>
@@ -6565,6 +6848,9 @@
       <c r="W66" s="32">
         <v>7</v>
       </c>
+      <c r="X66" s="39">
+        <v>6</v>
+      </c>
     </row>
     <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
@@ -6592,20 +6878,23 @@
         <v>0</v>
       </c>
       <c r="J67" s="23">
-        <f t="shared" si="66"/>
+        <f t="shared" si="74"/>
         <v>60</v>
       </c>
       <c r="K67" s="32">
         <v>20</v>
       </c>
       <c r="L67" s="33">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>20</v>
       </c>
       <c r="M67" s="32">
         <v>8</v>
       </c>
-      <c r="N67" s="32"/>
+      <c r="N67" s="33">
+        <f>+X67</f>
+        <v>13</v>
+      </c>
       <c r="O67" s="32"/>
       <c r="P67" s="32"/>
       <c r="Q67" s="32"/>
@@ -6627,82 +6916,92 @@
       <c r="W67" s="32">
         <v>20</v>
       </c>
+      <c r="X67" s="39">
+        <v>13</v>
+      </c>
     </row>
     <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C68" s="32">
-        <f t="shared" ref="C68:M68" si="69">C60+SUM(C61:C67)</f>
+        <f t="shared" ref="C68:N68" si="77">C60+SUM(C61:C67)</f>
         <v>1845</v>
       </c>
       <c r="D68" s="33">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>1848</v>
       </c>
       <c r="E68" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>2217</v>
       </c>
       <c r="F68" s="33">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>2063</v>
       </c>
       <c r="G68" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>2140</v>
       </c>
       <c r="H68" s="33">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>2218</v>
       </c>
       <c r="I68" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>2342</v>
       </c>
       <c r="J68" s="33">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>2499</v>
       </c>
       <c r="K68" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>2489</v>
       </c>
       <c r="L68" s="33">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>2529</v>
       </c>
       <c r="M68" s="32">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>2559</v>
       </c>
-      <c r="N68" s="32"/>
+      <c r="N68" s="33">
+        <f t="shared" si="77"/>
+        <v>2545</v>
+      </c>
       <c r="O68" s="32"/>
       <c r="P68" s="32"/>
       <c r="Q68" s="32"/>
       <c r="R68" s="32">
-        <f t="shared" ref="R68:W68" si="70">R60+SUM(R61:R67)</f>
+        <f t="shared" ref="R68:X68" si="78">R60+SUM(R61:R67)</f>
         <v>1990</v>
       </c>
       <c r="S68" s="32">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>1848</v>
       </c>
       <c r="T68" s="32">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>2063</v>
       </c>
       <c r="U68" s="32">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>2218</v>
       </c>
       <c r="V68" s="32">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>2499</v>
       </c>
       <c r="W68" s="32">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>2529</v>
+      </c>
+      <c r="X68" s="32">
+        <f t="shared" si="78"/>
+        <v>2545</v>
       </c>
     </row>
     <row r="69" spans="2:31" x14ac:dyDescent="0.2">
@@ -6753,6 +7052,10 @@
       <c r="M70" s="32">
         <v>1088</v>
       </c>
+      <c r="N70" s="33">
+        <f>+X70</f>
+        <v>1093</v>
+      </c>
       <c r="R70" s="32">
         <v>1327</v>
       </c>
@@ -6771,7 +7074,9 @@
       <c r="W70" s="32">
         <v>1407</v>
       </c>
-      <c r="X70" s="39"/>
+      <c r="X70" s="39">
+        <v>1093</v>
+      </c>
       <c r="Y70" s="39"/>
       <c r="Z70" s="39"/>
       <c r="AA70" s="39"/>
@@ -6785,72 +7090,80 @@
         <v>89</v>
       </c>
       <c r="C71" s="32">
-        <f t="shared" ref="C71:M71" si="71">C70+C68</f>
+        <f t="shared" ref="C71:N71" si="79">C70+C68</f>
         <v>3228</v>
       </c>
       <c r="D71" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>3352</v>
       </c>
       <c r="E71" s="32">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>3841</v>
       </c>
       <c r="F71" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>3715</v>
       </c>
       <c r="G71" s="32">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>3444</v>
       </c>
       <c r="H71" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>3329</v>
       </c>
       <c r="I71" s="32">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>3546</v>
       </c>
       <c r="J71" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>3896</v>
       </c>
       <c r="K71" s="32">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>3795</v>
       </c>
       <c r="L71" s="33">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>3936</v>
       </c>
       <c r="M71" s="32">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>3647</v>
       </c>
+      <c r="N71" s="33">
+        <f t="shared" si="79"/>
+        <v>3638</v>
+      </c>
       <c r="R71" s="32">
-        <f t="shared" ref="R71:W71" si="72">R70+R68</f>
+        <f t="shared" ref="R71:X71" si="80">R70+R68</f>
         <v>3317</v>
       </c>
       <c r="S71" s="32">
-        <f t="shared" si="72"/>
+        <f t="shared" si="80"/>
         <v>3352</v>
       </c>
       <c r="T71" s="32">
-        <f t="shared" si="72"/>
+        <f t="shared" si="80"/>
         <v>3715</v>
       </c>
       <c r="U71" s="32">
-        <f t="shared" si="72"/>
+        <f t="shared" si="80"/>
         <v>3329</v>
       </c>
       <c r="V71" s="32">
-        <f t="shared" si="72"/>
+        <f t="shared" si="80"/>
         <v>3896</v>
       </c>
       <c r="W71" s="32">
-        <f t="shared" si="72"/>
+        <f t="shared" si="80"/>
         <v>3936</v>
+      </c>
+      <c r="X71" s="32">
+        <f t="shared" si="80"/>
+        <v>3638</v>
       </c>
     </row>
     <row r="72" spans="2:31" x14ac:dyDescent="0.2">
@@ -6862,48 +7175,52 @@
         <v>90</v>
       </c>
       <c r="C73" s="32">
-        <f t="shared" ref="C73:I73" si="73">C52-C68</f>
+        <f t="shared" ref="C73:I73" si="81">C52-C68</f>
         <v>1383</v>
       </c>
       <c r="D73" s="33">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>1504</v>
       </c>
       <c r="E73" s="32">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>1624</v>
       </c>
       <c r="F73" s="33">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>1652</v>
       </c>
       <c r="G73" s="32">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>1304</v>
       </c>
       <c r="H73" s="33">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>1111</v>
       </c>
       <c r="I73" s="32">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>1204</v>
       </c>
       <c r="J73" s="33">
-        <f t="shared" ref="J73:L73" si="74">J52-J68</f>
-        <v>31</v>
+        <f t="shared" ref="J73:L73" si="82">J52-J68</f>
+        <v>1377</v>
       </c>
       <c r="K73" s="32">
-        <f t="shared" ref="K73" si="75">K52-K68</f>
+        <f t="shared" ref="K73" si="83">K52-K68</f>
         <v>1306</v>
       </c>
       <c r="L73" s="33">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>1407</v>
       </c>
       <c r="M73" s="32">
-        <f t="shared" ref="M73" si="76">M52-M68</f>
+        <f t="shared" ref="M73:N73" si="84">M52-M68</f>
         <v>1088</v>
+      </c>
+      <c r="N73" s="33">
+        <f t="shared" si="84"/>
+        <v>1093</v>
       </c>
       <c r="R73" s="32">
         <f>R52-R68</f>
@@ -6922,12 +7239,16 @@
         <v>1111</v>
       </c>
       <c r="V73" s="32">
-        <f t="shared" ref="V73:W73" si="77">V52-V68</f>
+        <f t="shared" ref="V73:W73" si="85">V52-V68</f>
         <v>1377</v>
       </c>
       <c r="W73" s="32">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>1407</v>
+      </c>
+      <c r="X73" s="32">
+        <f t="shared" ref="X73" si="86">X52-X68</f>
+        <v>1093</v>
       </c>
     </row>
     <row r="74" spans="2:31" x14ac:dyDescent="0.2">
@@ -6935,124 +7256,137 @@
         <v>91</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74:M74" si="78">C73/C18</f>
+        <f t="shared" ref="C74:M74" si="87">C73/C18</f>
         <v>1.2734806629834254</v>
       </c>
       <c r="D74" s="23">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>1.3848987108655617</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>1.489908256880734</v>
       </c>
       <c r="F74" s="23">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>1.5142071494042164</v>
       </c>
       <c r="G74" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>1.1919561243144423</v>
       </c>
       <c r="H74" s="23">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>1.0287037037037037</v>
       </c>
       <c r="I74" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>1.1769305962854351</v>
       </c>
       <c r="J74" s="23">
-        <f t="shared" si="78"/>
-        <v>3.0392156862745098E-2</v>
+        <f t="shared" si="87"/>
+        <v>1.35</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>1.2829076620825148</v>
       </c>
       <c r="L74" s="23">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>1.3794117647058823</v>
       </c>
       <c r="M74" s="1">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>1.0708661417322836</v>
       </c>
+      <c r="N74" s="23">
+        <f t="shared" ref="N74" si="88">N73/N18</f>
+        <v>1.0854021847070507</v>
+      </c>
       <c r="R74" s="1">
-        <f t="shared" ref="R74:W74" si="79">R73/R18</f>
+        <f t="shared" ref="R74:W74" si="89">R73/R18</f>
         <v>1.2096029547553093</v>
       </c>
       <c r="S74" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1.3848987108655617</v>
       </c>
       <c r="T74" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1.5142071494042164</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1.0287037037037037</v>
       </c>
       <c r="V74" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1.35</v>
       </c>
       <c r="W74" s="1">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>1.3794117647058823</v>
+      </c>
+      <c r="X74" s="1">
+        <f t="shared" ref="X74" si="90">X73/X18</f>
+        <v>1.0854021847070507</v>
       </c>
     </row>
     <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="G75" s="32"/>
+      <c r="X75" s="1"/>
     </row>
     <row r="76" spans="2:31" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="38" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="39">
-        <f t="shared" ref="C76:I76" si="80">C50+C43+C44</f>
+        <f t="shared" ref="C76:I76" si="91">C50+C43+C44</f>
         <v>354</v>
       </c>
       <c r="D76" s="40">
-        <f t="shared" si="80"/>
+        <f t="shared" si="91"/>
         <v>375</v>
       </c>
       <c r="E76" s="39">
-        <f t="shared" si="80"/>
+        <f t="shared" si="91"/>
         <v>915</v>
       </c>
       <c r="F76" s="40">
-        <f t="shared" si="80"/>
+        <f t="shared" si="91"/>
         <v>832</v>
       </c>
       <c r="G76" s="39">
-        <f t="shared" si="80"/>
+        <f t="shared" si="91"/>
         <v>713</v>
       </c>
       <c r="H76" s="40">
-        <f t="shared" si="80"/>
+        <f t="shared" si="91"/>
         <v>574</v>
       </c>
       <c r="I76" s="39">
-        <f t="shared" si="80"/>
+        <f t="shared" si="91"/>
         <v>519</v>
       </c>
       <c r="J76" s="40">
-        <f t="shared" ref="J76:K76" si="81">J50+J43+J44</f>
+        <f t="shared" ref="J76:K76" si="92">J50+J43+J44</f>
         <v>493</v>
       </c>
       <c r="K76" s="39">
-        <f t="shared" si="81"/>
+        <f t="shared" si="92"/>
         <v>581</v>
       </c>
       <c r="L76" s="40">
-        <f t="shared" ref="L76" si="82">L50+L43+L44</f>
+        <f t="shared" ref="L76:N76" si="93">L50+L43+L44</f>
         <v>701</v>
       </c>
       <c r="M76" s="39">
-        <f t="shared" ref="M76" si="83">M50+M43+M44</f>
+        <f t="shared" ref="M76" si="94">M50+M43+M44</f>
         <v>467</v>
+      </c>
+      <c r="N76" s="40">
+        <f t="shared" si="93"/>
+        <v>543</v>
       </c>
       <c r="R76" s="39">
         <f>R50+R43+R44</f>
@@ -7071,12 +7405,16 @@
         <v>574</v>
       </c>
       <c r="V76" s="39">
-        <f t="shared" ref="V76:W76" si="84">V50+V43+V44</f>
+        <f t="shared" ref="V76:W76" si="95">V50+V43+V44</f>
         <v>493</v>
       </c>
       <c r="W76" s="39">
-        <f t="shared" si="84"/>
+        <f t="shared" si="95"/>
         <v>701</v>
+      </c>
+      <c r="X76" s="39">
+        <f t="shared" ref="X76" si="96">X50+X43+X44</f>
+        <v>543</v>
       </c>
     </row>
     <row r="77" spans="2:31" s="38" customFormat="1" x14ac:dyDescent="0.2">
@@ -7084,48 +7422,52 @@
         <v>7</v>
       </c>
       <c r="C77" s="39">
-        <f t="shared" ref="C77:I77" si="85">C56+C61</f>
+        <f t="shared" ref="C77:I77" si="97">C56+C61</f>
         <v>773</v>
       </c>
       <c r="D77" s="40">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>765</v>
       </c>
       <c r="E77" s="39">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>1150</v>
       </c>
       <c r="F77" s="40">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>990</v>
       </c>
       <c r="G77" s="39">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>807</v>
       </c>
       <c r="H77" s="40">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>814</v>
       </c>
       <c r="I77" s="39">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>1165</v>
       </c>
       <c r="J77" s="40">
-        <f t="shared" ref="J77:K77" si="86">J56+J61</f>
+        <f t="shared" ref="J77:K77" si="98">J56+J61</f>
         <v>1222</v>
       </c>
       <c r="K77" s="39">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>1266</v>
       </c>
       <c r="L77" s="40">
-        <f t="shared" ref="L77" si="87">L56+L61</f>
+        <f t="shared" ref="L77:N77" si="99">L56+L61</f>
         <v>1257</v>
       </c>
       <c r="M77" s="39">
-        <f t="shared" ref="M77" si="88">M56+M61</f>
+        <f t="shared" ref="M77" si="100">M56+M61</f>
         <v>1259</v>
+      </c>
+      <c r="N77" s="40">
+        <f t="shared" si="99"/>
+        <v>1246</v>
       </c>
       <c r="R77" s="39">
         <f>R56+R61</f>
@@ -7144,12 +7486,16 @@
         <v>814</v>
       </c>
       <c r="V77" s="39">
-        <f t="shared" ref="V77:W77" si="89">V56+V61</f>
+        <f t="shared" ref="V77:W77" si="101">V56+V61</f>
         <v>1222</v>
       </c>
       <c r="W77" s="39">
-        <f t="shared" si="89"/>
+        <f t="shared" si="101"/>
         <v>1257</v>
+      </c>
+      <c r="X77" s="39">
+        <f t="shared" ref="X77" si="102">X56+X61</f>
+        <v>1246</v>
       </c>
     </row>
     <row r="78" spans="2:31" x14ac:dyDescent="0.2">
@@ -7157,48 +7503,52 @@
         <v>8</v>
       </c>
       <c r="C78" s="32">
-        <f t="shared" ref="C78:I78" si="90">C76-C77</f>
+        <f t="shared" ref="C78:I78" si="103">C76-C77</f>
         <v>-419</v>
       </c>
       <c r="D78" s="33">
-        <f t="shared" si="90"/>
+        <f t="shared" si="103"/>
         <v>-390</v>
       </c>
       <c r="E78" s="32">
-        <f t="shared" si="90"/>
+        <f t="shared" si="103"/>
         <v>-235</v>
       </c>
       <c r="F78" s="33">
-        <f t="shared" si="90"/>
+        <f t="shared" si="103"/>
         <v>-158</v>
       </c>
       <c r="G78" s="32">
-        <f t="shared" si="90"/>
+        <f t="shared" si="103"/>
         <v>-94</v>
       </c>
       <c r="H78" s="33">
-        <f t="shared" si="90"/>
+        <f t="shared" si="103"/>
         <v>-240</v>
       </c>
       <c r="I78" s="32">
-        <f t="shared" si="90"/>
+        <f t="shared" si="103"/>
         <v>-646</v>
       </c>
       <c r="J78" s="33">
-        <f t="shared" ref="J78:K78" si="91">J76-J77</f>
+        <f t="shared" ref="J78:K78" si="104">J76-J77</f>
         <v>-729</v>
       </c>
       <c r="K78" s="32">
-        <f t="shared" si="91"/>
+        <f t="shared" si="104"/>
         <v>-685</v>
       </c>
       <c r="L78" s="33">
-        <f t="shared" ref="L78" si="92">L76-L77</f>
+        <f t="shared" ref="L78:N78" si="105">L76-L77</f>
         <v>-556</v>
       </c>
       <c r="M78" s="32">
-        <f t="shared" ref="M78" si="93">M76-M77</f>
+        <f t="shared" ref="M78" si="106">M76-M77</f>
         <v>-792</v>
+      </c>
+      <c r="N78" s="33">
+        <f t="shared" si="105"/>
+        <v>-703</v>
       </c>
       <c r="R78" s="32">
         <f>R76-R77</f>
@@ -7217,54 +7567,97 @@
         <v>-240</v>
       </c>
       <c r="V78" s="32">
-        <f t="shared" ref="V78:W78" si="94">V76-V77</f>
+        <f t="shared" ref="V78:W78" si="107">V76-V77</f>
         <v>-729</v>
       </c>
       <c r="W78" s="32">
-        <f t="shared" si="94"/>
+        <f t="shared" si="107"/>
         <v>-556</v>
+      </c>
+      <c r="X78" s="32">
+        <f t="shared" ref="X78" si="108">X76-X77</f>
+        <v>-703</v>
       </c>
     </row>
     <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="G79" s="32"/>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
+    <row r="80" spans="2:31" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="K80" s="1">
+      <c r="D80" s="107"/>
+      <c r="F80" s="107">
+        <f>+T80</f>
+        <v>7.2080000000000002</v>
+      </c>
+      <c r="H80" s="107">
+        <f>+U80</f>
+        <v>7.0960000000000001</v>
+      </c>
+      <c r="J80" s="107">
+        <f>+V80</f>
+        <v>6.9720000000000004</v>
+      </c>
+      <c r="K80" s="46">
         <v>7.56</v>
       </c>
-      <c r="L80" s="23">
+      <c r="L80" s="107">
         <f>W80</f>
         <v>9.7170000000000005</v>
       </c>
-      <c r="M80" s="1">
+      <c r="M80" s="46">
         <v>12.57</v>
       </c>
-      <c r="R80" s="1">
+      <c r="N80" s="107">
+        <f>+X80</f>
+        <v>10.25</v>
+      </c>
+      <c r="R80" s="46">
         <v>5.3022</v>
       </c>
-      <c r="S80" s="1">
+      <c r="S80" s="46">
         <v>6.9139999999999997</v>
       </c>
-      <c r="T80" s="1">
+      <c r="T80" s="46">
         <v>7.2080000000000002</v>
       </c>
-      <c r="U80" s="1">
+      <c r="U80" s="46">
         <v>7.0960000000000001</v>
       </c>
-      <c r="V80" s="1">
+      <c r="V80" s="46">
         <v>6.9720000000000004</v>
       </c>
-      <c r="W80" s="1">
+      <c r="W80" s="46">
         <v>9.7170000000000005</v>
       </c>
+      <c r="X80" s="108">
+        <v>10.25</v>
+      </c>
+      <c r="Y80" s="108"/>
+      <c r="Z80" s="108"/>
+      <c r="AA80" s="108"/>
+      <c r="AB80" s="108"/>
+      <c r="AC80" s="108"/>
+      <c r="AD80" s="108"/>
+      <c r="AE80" s="108"/>
     </row>
     <row r="81" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="F81" s="33">
+        <f>F80*F18</f>
+        <v>7863.9279999999999</v>
+      </c>
+      <c r="H81" s="33">
+        <f>H80*H18</f>
+        <v>7663.68</v>
+      </c>
+      <c r="J81" s="33">
+        <f>J80*J18</f>
+        <v>7111.4400000000005</v>
+      </c>
       <c r="K81" s="16">
         <f>K80*K18</f>
         <v>7696.08</v>
@@ -7277,37 +7670,57 @@
         <f>M80*M18</f>
         <v>12771.12</v>
       </c>
+      <c r="N81" s="33">
+        <f>N80*N18</f>
+        <v>10321.75</v>
+      </c>
       <c r="R81" s="16">
-        <f t="shared" ref="R81:W81" si="95">R80*R18</f>
+        <f t="shared" ref="R81:W81" si="109">R80*R18</f>
         <v>5742.2826000000005</v>
       </c>
       <c r="S81" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="109"/>
         <v>7508.6039999999994</v>
       </c>
       <c r="T81" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="109"/>
         <v>7863.9279999999999</v>
       </c>
       <c r="U81" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="109"/>
         <v>7663.68</v>
       </c>
       <c r="V81" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="109"/>
         <v>7111.4400000000005</v>
       </c>
       <c r="W81" s="16">
-        <f t="shared" si="95"/>
+        <f t="shared" si="109"/>
         <v>9911.34</v>
+      </c>
+      <c r="X81" s="16">
+        <f t="shared" ref="X81" si="110">X80*X18</f>
+        <v>10321.75</v>
       </c>
     </row>
     <row r="82" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F82" s="33">
+        <f>F81-F78</f>
+        <v>8021.9279999999999</v>
+      </c>
+      <c r="H82" s="33">
+        <f>H81-H78</f>
+        <v>7903.68</v>
+      </c>
+      <c r="J82" s="33">
+        <f>J81-J78</f>
+        <v>7840.4400000000005</v>
+      </c>
       <c r="K82" s="32">
-        <f t="shared" ref="K82" si="96">K81-K78</f>
+        <f t="shared" ref="K82" si="111">K81-K78</f>
         <v>8381.08</v>
       </c>
       <c r="L82" s="33">
@@ -7315,23 +7728,27 @@
         <v>10467.34</v>
       </c>
       <c r="M82" s="32">
-        <f t="shared" ref="M82" si="97">M81-M78</f>
+        <f t="shared" ref="M82" si="112">M81-M78</f>
         <v>13563.12</v>
       </c>
+      <c r="N82" s="33">
+        <f>N81-N78</f>
+        <v>11024.75</v>
+      </c>
       <c r="R82" s="32">
-        <f t="shared" ref="R82:U82" si="98">R81-R78</f>
+        <f t="shared" ref="R82:U82" si="113">R81-R78</f>
         <v>6390.2826000000005</v>
       </c>
       <c r="S82" s="32">
-        <f t="shared" si="98"/>
+        <f t="shared" si="113"/>
         <v>7898.6039999999994</v>
       </c>
       <c r="T82" s="32">
-        <f t="shared" si="98"/>
+        <f t="shared" si="113"/>
         <v>8021.9279999999999</v>
       </c>
       <c r="U82" s="32">
-        <f t="shared" si="98"/>
+        <f t="shared" si="113"/>
         <v>7903.68</v>
       </c>
       <c r="V82" s="32">
@@ -7342,15 +7759,31 @@
         <f>W81-W78</f>
         <v>10467.34</v>
       </c>
+      <c r="X82" s="32">
+        <f t="shared" ref="X82" si="114">X81-X78</f>
+        <v>11024.75</v>
+      </c>
+    </row>
+    <row r="83" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="X83" s="1"/>
     </row>
     <row r="84" spans="2:31" s="47" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="47" t="s">
         <v>23</v>
       </c>
       <c r="D84" s="78"/>
-      <c r="F84" s="78"/>
-      <c r="H84" s="78"/>
-      <c r="J84" s="78"/>
+      <c r="F84" s="78">
+        <f>F80/F74</f>
+        <v>4.760246973365617</v>
+      </c>
+      <c r="H84" s="78">
+        <f>H80/H74</f>
+        <v>6.8980018001800181</v>
+      </c>
+      <c r="J84" s="78">
+        <f>J80/J74</f>
+        <v>5.1644444444444444</v>
+      </c>
       <c r="K84" s="47">
         <f>K80/K74</f>
         <v>5.8928637059724345</v>
@@ -7363,20 +7796,24 @@
         <f>M80/M74</f>
         <v>11.738161764705881</v>
       </c>
+      <c r="N84" s="78">
+        <f>N80/N74</f>
+        <v>9.4435041171088745</v>
+      </c>
       <c r="R84" s="47">
-        <f t="shared" ref="R84:U84" si="99">R80/R74</f>
+        <f t="shared" ref="R84:U84" si="115">R80/R74</f>
         <v>4.3834218320610692</v>
       </c>
       <c r="S84" s="47">
-        <f t="shared" si="99"/>
+        <f t="shared" si="115"/>
         <v>4.9924228723404251</v>
       </c>
       <c r="T84" s="47">
-        <f t="shared" si="99"/>
+        <f t="shared" si="115"/>
         <v>4.760246973365617</v>
       </c>
       <c r="U84" s="47">
-        <f t="shared" si="99"/>
+        <f t="shared" si="115"/>
         <v>6.8980018001800181</v>
       </c>
       <c r="V84" s="47">
@@ -7387,7 +7824,10 @@
         <f>W80/W74</f>
         <v>7.0443070362473348</v>
       </c>
-      <c r="X84" s="79"/>
+      <c r="X84" s="47">
+        <f t="shared" ref="X84" si="116">X80/X74</f>
+        <v>9.4435041171088745</v>
+      </c>
       <c r="Y84" s="79"/>
       <c r="Z84" s="79"/>
       <c r="AA84" s="79"/>
@@ -7401,9 +7841,18 @@
         <v>22</v>
       </c>
       <c r="D85" s="78"/>
-      <c r="F85" s="78"/>
-      <c r="H85" s="78"/>
-      <c r="J85" s="78"/>
+      <c r="F85" s="78">
+        <f>F81/SUM(E7:F7)</f>
+        <v>4.1323846558066206</v>
+      </c>
+      <c r="H85" s="78">
+        <f>H81/SUM(G7:H7)</f>
+        <v>4.1515059588299028</v>
+      </c>
+      <c r="J85" s="78">
+        <f>J81/SUM(I7:J7)</f>
+        <v>3.6525115562403703</v>
+      </c>
       <c r="K85" s="47">
         <f>K81/SUM(J7:K7)</f>
         <v>3.6648000000000001</v>
@@ -7416,31 +7865,38 @@
         <f>M81/SUM(L7:M7)</f>
         <v>5.6785771453979548</v>
       </c>
+      <c r="N85" s="78">
+        <f>N81/SUM(M7:N7)</f>
+        <v>4.4261363636363633</v>
+      </c>
       <c r="R85" s="47">
-        <f t="shared" ref="R85:W85" si="100">R81/R7</f>
+        <f t="shared" ref="R85:W85" si="117">R81/R7</f>
         <v>3.1106622968580719</v>
       </c>
       <c r="S85" s="47">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>3.878411157024793</v>
       </c>
       <c r="T85" s="47">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>4.1323846558066206</v>
       </c>
       <c r="U85" s="47">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>4.1515059588299028</v>
       </c>
       <c r="V85" s="47">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>3.6525115562403703</v>
       </c>
       <c r="W85" s="47">
-        <f t="shared" si="100"/>
+        <f t="shared" si="117"/>
         <v>4.538159340659341</v>
       </c>
-      <c r="X85" s="79"/>
+      <c r="X85" s="47">
+        <f t="shared" ref="X85" si="118">X81/X7</f>
+        <v>4.4261363636363633</v>
+      </c>
       <c r="Y85" s="79"/>
       <c r="Z85" s="79"/>
       <c r="AA85" s="79"/>
@@ -7454,9 +7910,18 @@
         <v>103</v>
       </c>
       <c r="D86" s="78"/>
-      <c r="F86" s="78"/>
-      <c r="H86" s="78"/>
-      <c r="J86" s="78"/>
+      <c r="F86" s="78">
+        <f>F82/SUM(E7:F7)</f>
+        <v>4.2154114555964268</v>
+      </c>
+      <c r="H86" s="78">
+        <f>H82/SUM(G7:H7)</f>
+        <v>4.2815167930660891</v>
+      </c>
+      <c r="J86" s="78">
+        <f>J82/SUM(I7:J7)</f>
+        <v>4.0269337442218802</v>
+      </c>
       <c r="K86" s="47">
         <f>K82/SUM(J7:K7)</f>
         <v>3.990990476190476</v>
@@ -7469,31 +7934,38 @@
         <f>M82/SUM(L7:M7)</f>
         <v>6.0307336594041798</v>
       </c>
+      <c r="N86" s="78">
+        <f>N82/SUM(M7:N7)</f>
+        <v>4.7275943396226419</v>
+      </c>
       <c r="R86" s="47">
-        <f t="shared" ref="R86:W86" si="101">R82/R7</f>
+        <f t="shared" ref="R86:W86" si="119">R82/R7</f>
         <v>3.4616915492957747</v>
       </c>
       <c r="S86" s="47">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>4.0798574380165284</v>
       </c>
       <c r="T86" s="47">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>4.2154114555964268</v>
       </c>
       <c r="U86" s="47">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>4.2815167930660891</v>
       </c>
       <c r="V86" s="47">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>4.0269337442218802</v>
       </c>
       <c r="W86" s="47">
-        <f t="shared" si="101"/>
+        <f t="shared" si="119"/>
         <v>4.7927380952380956</v>
       </c>
-      <c r="X86" s="79"/>
+      <c r="X86" s="47">
+        <f t="shared" ref="X86" si="120">X82/X7</f>
+        <v>4.7275943396226419</v>
+      </c>
       <c r="Y86" s="79"/>
       <c r="Z86" s="79"/>
       <c r="AA86" s="79"/>
@@ -7507,9 +7979,18 @@
         <v>21</v>
       </c>
       <c r="D87" s="78"/>
-      <c r="F87" s="78"/>
-      <c r="H87" s="78"/>
-      <c r="J87" s="78"/>
+      <c r="F87" s="78">
+        <f>F80/SUM(E17:F17)</f>
+        <v>25.350704238681665</v>
+      </c>
+      <c r="H87" s="78">
+        <f>H80/SUM(G17:H17)</f>
+        <v>27.067551865076542</v>
+      </c>
+      <c r="J87" s="78">
+        <f>J80/SUM(I17:J17)</f>
+        <v>28.047015336217068</v>
+      </c>
       <c r="K87" s="47">
         <f>K80/SUM(J17:K17)</f>
         <v>38.137165510406341</v>
@@ -7522,31 +8003,38 @@
         <f>M80/SUM(L17:M17)</f>
         <v>33.249296551160839</v>
       </c>
+      <c r="N87" s="78">
+        <f>N80/SUM(M17:N17)</f>
+        <v>32.093186519934882</v>
+      </c>
       <c r="R87" s="47">
-        <f t="shared" ref="R87:W87" si="102">R80/R17</f>
+        <f t="shared" ref="R87:W87" si="121">R80/R17</f>
         <v>19.465364745762713</v>
       </c>
       <c r="S87" s="47">
-        <f t="shared" si="102"/>
+        <f t="shared" si="121"/>
         <v>28.227834586466162</v>
       </c>
       <c r="T87" s="47">
-        <f t="shared" si="102"/>
+        <f t="shared" si="121"/>
         <v>25.367509677419356</v>
       </c>
       <c r="U87" s="47">
-        <f t="shared" si="102"/>
+        <f t="shared" si="121"/>
         <v>26.890105263157896</v>
       </c>
       <c r="V87" s="47">
-        <f t="shared" si="102"/>
+        <f t="shared" si="121"/>
         <v>27.997795275590551</v>
       </c>
       <c r="W87" s="47">
-        <f t="shared" si="102"/>
+        <f t="shared" si="121"/>
         <v>30.12565349544073</v>
       </c>
-      <c r="X87" s="79"/>
+      <c r="X87" s="47">
+        <f t="shared" ref="X87" si="122">X80/X17</f>
+        <v>31.955882352941178</v>
+      </c>
       <c r="Y87" s="79"/>
       <c r="Z87" s="79"/>
       <c r="AA87" s="79"/>
@@ -7582,6 +8070,9 @@
       <c r="W91" s="1">
         <v>387</v>
       </c>
+      <c r="X91" s="38">
+        <v>625</v>
+      </c>
     </row>
     <row r="92" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
@@ -7608,34 +8099,42 @@
         <f>17+5</f>
         <v>22</v>
       </c>
+      <c r="X92" s="38">
+        <f>19-9</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="93" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>128</v>
       </c>
       <c r="R93" s="1">
-        <f t="shared" ref="R93:W93" si="103">R91-R92</f>
+        <f t="shared" ref="R93:X93" si="123">R91-R92</f>
         <v>375</v>
       </c>
       <c r="S93" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="123"/>
         <v>445</v>
       </c>
       <c r="T93" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="123"/>
         <v>382</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="123"/>
         <v>337</v>
       </c>
       <c r="V93" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="123"/>
         <v>243</v>
       </c>
       <c r="W93" s="1">
-        <f t="shared" si="103"/>
+        <f t="shared" si="123"/>
         <v>365</v>
+      </c>
+      <c r="X93" s="1">
+        <f t="shared" si="123"/>
+        <v>615</v>
       </c>
     </row>
     <row r="95" spans="2:31" x14ac:dyDescent="0.2">
@@ -7643,28 +8142,32 @@
         <v>131</v>
       </c>
       <c r="R95" s="1">
-        <f t="shared" ref="R95:W95" si="104">+R93/R18</f>
+        <f t="shared" ref="R95:W95" si="124">+R93/R18</f>
         <v>0.34626038781163437</v>
       </c>
       <c r="S95" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="124"/>
         <v>0.40976058931860038</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="124"/>
         <v>0.35013748854262144</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="124"/>
         <v>0.31203703703703706</v>
       </c>
       <c r="V95" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="124"/>
         <v>0.23823529411764705</v>
       </c>
       <c r="W95" s="1">
-        <f t="shared" si="104"/>
+        <f t="shared" si="124"/>
         <v>0.35784313725490197</v>
+      </c>
+      <c r="X95" s="1">
+        <f t="shared" ref="X95" si="125">+X93/X18</f>
+        <v>0.61072492552135049</v>
       </c>
     </row>
     <row r="96" spans="2:31" s="47" customFormat="1" x14ac:dyDescent="0.2">
@@ -7676,31 +8179,35 @@
       <c r="H96" s="78"/>
       <c r="J96" s="78"/>
       <c r="L96" s="78"/>
+      <c r="N96" s="78"/>
       <c r="R96" s="47">
-        <f t="shared" ref="R96:W96" si="105">+R80/R95</f>
+        <f t="shared" ref="R96:W96" si="126">+R80/R95</f>
         <v>15.312753599999999</v>
       </c>
       <c r="S96" s="47">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>16.873267415730336</v>
       </c>
       <c r="T96" s="47">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>20.586198952879581</v>
       </c>
       <c r="U96" s="47">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>22.740890207715132</v>
       </c>
       <c r="V96" s="47">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>29.265185185185189</v>
       </c>
       <c r="W96" s="47">
-        <f t="shared" si="105"/>
+        <f t="shared" si="126"/>
         <v>27.154356164383564</v>
       </c>
-      <c r="X96" s="79"/>
+      <c r="X96" s="47">
+        <f t="shared" ref="X96" si="127">+X80/X95</f>
+        <v>16.783333333333335</v>
+      </c>
       <c r="Y96" s="79"/>
       <c r="Z96" s="79"/>
       <c r="AA96" s="79"/>
@@ -7719,13 +8226,235 @@
     <hyperlink ref="K1" r:id="rId6" xr:uid="{EAE8E190-3EE7-45DA-93BE-DF62CC9877E2}"/>
     <hyperlink ref="M1" r:id="rId7" xr:uid="{CF6FF048-1BEC-49D5-995D-CD189447E5D2}"/>
     <hyperlink ref="W1" r:id="rId8" xr:uid="{595D9CB4-21C2-46F0-A481-B81120B90342}"/>
+    <hyperlink ref="X1" r:id="rId9" xr:uid="{AFC6D13E-C955-45B6-B7B6-8225CC298EE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId10"/>
   <ignoredErrors>
-    <ignoredError sqref="H9:H11 H14 F9:F11 F14 F16 D9:D11 D14 J9:J14 F47:F66 J42:J52 J60 X9:AE11 L9:L19 L47:L50 L60:L68" formula="1"/>
-    <ignoredError sqref="X12:X13" formulaRange="1"/>
+    <ignoredError sqref="H9:H11 H14 F9:F11 F14 F16 D9:D11 D14 J9:J14 F47:F66 J42:J44 J60 Y9:AE9 L9:L19 L47:L50 L60:L68 Y11:AE11 Y10:AE10 N9:N15 N47:N55 N57:N68 J47 J50:J52" formula="1"/>
+    <ignoredError sqref="Y12:Y14" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F554FD-FFC2-49F8-A3B2-15093AD7DD93}">
+  <dimension ref="A1:B96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.140625" style="38"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1" s="53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="54"/>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="105">
+        <v>45616</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="39"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="39"/>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="39"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="55">
+        <v>2361.6000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="39">
+        <v>165.3119999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="55">
+        <v>2196.2880000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="39">
+        <v>1723.9680000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="55">
+        <v>472.32000000000011</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="39">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="39">
+        <v>444.32000000000011</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="39">
+        <v>111.08000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="55">
+        <v>333.24000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="56">
+        <v>0.32670588235294123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="39">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="57">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="57">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="31">
+        <v>0.14110772357723578</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="57">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="58">
+        <v>8.1318681318681474E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="86"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="109">
+        <v>28.144193739407427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="110">
+        <v>4.8066874166296127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="79">
+        <v>9.9358823529411762</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="79">
+        <v>5.1588439306358378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="79">
+        <v>30.135688311688313</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="55"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="71"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="71"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="71"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="71"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="75"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="59"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="59"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="59"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="59"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="59"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="39"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="79"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="79"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="79"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="79"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="79"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>